--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="维度信息（新系统）" sheetId="7" r:id="rId5"/>
     <sheet name="新系统" sheetId="8" r:id="rId6"/>
     <sheet name="维度信息（老系统）" sheetId="9" r:id="rId7"/>
+    <sheet name="人工维护" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="2253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2285">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12787,6 +12788,136 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX——JYSMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>livebos——TQS_JYSXX——address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT.TQS_ZJZHDY——sum已签约客户QYZT=0（0.已签约；1.未签约；3.已解约；4.预指定；5签约失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT.TQS_ZJZHDY——sum客户状态不等于0的：QYZT！=0（0.已签约；1.未签约；3.已解约；4.预指定；5签约失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select JYS ,sum(cjsl*cjjg)/100 TRANS_AMT from clear.tqs_imp_zd_cont_wgd 
+            where jysqsfzh||'01' in(SELECT mid FROM account.tqs_zjzhdy) 
+           group by JYS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.tqs_zjzh里面的ZHYE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表维护，手工录入和excel导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成交流水表datacenter.TQS_IMP_CJLS_LS里面取客户最小成交时间，用这个时间去account.tqs_zjjysq里面查该客户净入金总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.tqs_zjzh里面的ZHYE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.tqs_khxx和account.tqs_zjzhdy关联——查询已签约客户QYZT=0（0.已签约；1.未签约；3.已解约；4.预指定；5签约失败）的证件类别ZJLB为（0.身份证）的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.tqs_zjjysq里面查该客户净入金总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222******</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -12796,7 +12927,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.000000"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13190,6 +13321,42 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="苹方-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -13673,7 +13840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -14379,6 +14546,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14388,23 +14600,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -14415,32 +14612,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14457,26 +14630,20 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14541,6 +14708,27 @@
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14572,13 +14760,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19439</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>94740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14616,13 +14804,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14660,13 +14848,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3493732</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14704,13 +14892,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3514725</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15504,12 +15692,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L347"/>
+  <dimension ref="A1:L348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -15564,13 +15752,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="264" t="s">
         <v>1341</v>
       </c>
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="267" t="s">
         <v>1342</v>
       </c>
-      <c r="D2" s="275" t="s">
+      <c r="D2" s="271" t="s">
         <v>181</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -15586,7 +15774,9 @@
         <v>1345</v>
       </c>
       <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="J2" s="312" t="s">
+        <v>2253</v>
+      </c>
       <c r="K2" s="158" t="s">
         <v>2249</v>
       </c>
@@ -15598,9 +15788,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="286"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="289"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="272"/>
       <c r="E3" s="153" t="s">
         <v>1347</v>
       </c>
@@ -15612,16 +15802,18 @@
         <v>1526</v>
       </c>
       <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
+      <c r="J3" s="312" t="s">
+        <v>2254</v>
+      </c>
       <c r="K3" s="158" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="286"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="289"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="272"/>
       <c r="E4" s="153" t="s">
         <v>1350</v>
       </c>
@@ -15633,14 +15825,16 @@
         <v>183</v>
       </c>
       <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
+      <c r="J4" s="312" t="s">
+        <v>2262</v>
+      </c>
       <c r="K4" s="158"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="289"/>
+      <c r="B5" s="265"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="272"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -15652,16 +15846,18 @@
       <c r="I5" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="163"/>
+      <c r="J5" s="313" t="s">
+        <v>2256</v>
+      </c>
       <c r="K5" s="158" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="289"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="272"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -15671,14 +15867,16 @@
         <v>256</v>
       </c>
       <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
+      <c r="J6" s="312" t="s">
+        <v>2257</v>
+      </c>
       <c r="K6" s="158"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="289"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="272"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -15688,13 +15886,15 @@
         <v>1352</v>
       </c>
       <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
+      <c r="J7" s="312" t="s">
+        <v>2256</v>
+      </c>
       <c r="K7" s="158"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="273"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="268"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -15703,13 +15903,15 @@
       </c>
       <c r="H8" s="156"/>
       <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
+      <c r="J8" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K8" s="158"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="273"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="268"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -15718,13 +15920,15 @@
       </c>
       <c r="H9" s="156"/>
       <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
+      <c r="J9" s="312" t="s">
+        <v>2258</v>
+      </c>
       <c r="K9" s="158"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="273"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="268"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -15735,13 +15939,15 @@
         <v>1527</v>
       </c>
       <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
+      <c r="J10" s="312" t="s">
+        <v>2259</v>
+      </c>
       <c r="K10" s="158"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="A11" s="152"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="273"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="268"/>
       <c r="D11" s="165" t="s">
         <v>0</v>
       </c>
@@ -15756,15 +15962,17 @@
       <c r="I11" s="163" t="s">
         <v>1530</v>
       </c>
-      <c r="J11" s="163"/>
+      <c r="J11" s="314" t="s">
+        <v>2258</v>
+      </c>
       <c r="K11" s="158" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="273"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="268"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -15777,13 +15985,15 @@
         <v>1359</v>
       </c>
       <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
+      <c r="J12" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K12" s="158"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="273"/>
+      <c r="B13" s="265"/>
+      <c r="C13" s="268"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -15796,1180 +16006,1216 @@
         <v>1360</v>
       </c>
       <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
+      <c r="J13" s="312" t="s">
+        <v>2262</v>
+      </c>
       <c r="K13" s="158"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="166"/>
+      <c r="B14" s="265"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="166" t="s">
+        <v>2268</v>
+      </c>
       <c r="E14" s="153"/>
       <c r="F14" s="161"/>
       <c r="G14" s="155" t="s">
-        <v>193</v>
+        <v>2269</v>
       </c>
       <c r="H14" s="156" t="s">
-        <v>194</v>
+        <v>2270</v>
       </c>
       <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
+      <c r="J14" s="312"/>
       <c r="K14" s="158"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="273"/>
-      <c r="D15" s="258" t="s">
-        <v>1361</v>
-      </c>
+      <c r="B15" s="265"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
-      <c r="G15" s="167" t="s">
-        <v>1532</v>
-      </c>
-      <c r="H15" s="156"/>
+      <c r="G15" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="156" t="s">
+        <v>194</v>
+      </c>
       <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158" t="s">
-        <v>1362</v>
-      </c>
+      <c r="J15" s="312" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K15" s="158"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="273"/>
-      <c r="D16" s="259"/>
+      <c r="B16" s="265"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="273" t="s">
+        <v>1361</v>
+      </c>
       <c r="E16" s="153"/>
       <c r="F16" s="161"/>
-      <c r="G16" s="155" t="s">
-        <v>1363</v>
+      <c r="G16" s="167" t="s">
+        <v>1532</v>
       </c>
       <c r="H16" s="156"/>
       <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
+      <c r="J16" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K16" s="158" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="260"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="274"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H17" s="156"/>
       <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
+      <c r="J17" s="312" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K17" s="158" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="273"/>
-      <c r="D18" s="165" t="s">
-        <v>1366</v>
-      </c>
+      <c r="B18" s="265"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="156" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" s="157" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J18" s="157"/>
+        <v>1365</v>
+      </c>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K18" s="158"/>
     </row>
-    <row r="19" spans="1:11" ht="25.5" customHeight="1">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="273"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="268"/>
       <c r="D19" s="165" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E19" s="153"/>
       <c r="F19" s="161"/>
-      <c r="G19" s="168" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H19" s="169" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="170" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="170"/>
+      <c r="G19" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="157" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J19" s="312" t="s">
+        <v>2256</v>
+      </c>
       <c r="K19" s="158"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+    <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="277" t="s">
-        <v>1370</v>
+      <c r="B20" s="265"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="165" t="s">
+        <v>1368</v>
       </c>
       <c r="E20" s="153"/>
       <c r="F20" s="161"/>
-      <c r="G20" s="155" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H20" s="156" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
+      <c r="G20" s="168" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H20" s="169" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="J20" s="315" t="s">
+        <v>2263</v>
+      </c>
       <c r="K20" s="158"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="273"/>
-      <c r="D21" s="286"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="264" t="s">
+        <v>1370</v>
+      </c>
       <c r="E21" s="153"/>
       <c r="F21" s="161"/>
       <c r="G21" s="155" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H21" s="156"/>
+        <v>1371</v>
+      </c>
+      <c r="H21" s="156" t="s">
+        <v>259</v>
+      </c>
       <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
+      <c r="J21" s="312" t="s">
+        <v>2262</v>
+      </c>
       <c r="K21" s="158"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="286"/>
+      <c r="B22" s="265"/>
+      <c r="C22" s="268"/>
+      <c r="D22" s="265"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H22" s="156" t="s">
-        <v>195</v>
-      </c>
+        <v>1372</v>
+      </c>
+      <c r="H22" s="156"/>
       <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158" t="s">
-        <v>1374</v>
-      </c>
+      <c r="J22" s="312" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K22" s="158"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="286"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="265"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H23" s="156" t="s">
-        <v>1376</v>
+        <v>195</v>
       </c>
       <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
+      <c r="J23" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K23" s="158" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="273"/>
-      <c r="D24" s="286"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="265"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H24" s="171" t="s">
-        <v>1511</v>
+        <v>1375</v>
+      </c>
+      <c r="H24" s="156" t="s">
+        <v>1376</v>
       </c>
       <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
+      <c r="J24" s="312" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K24" s="158" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="273"/>
-      <c r="D25" s="286"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="265"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H25" s="156" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="157" t="s">
-        <v>199</v>
-      </c>
-      <c r="J25" s="157"/>
+        <v>1378</v>
+      </c>
+      <c r="H25" s="171" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I25" s="157"/>
+      <c r="J25" s="312" t="s">
+        <v>2255</v>
+      </c>
       <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="286"/>
+      <c r="B26" s="265"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="265"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
-      <c r="G26" s="172" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H26" s="156"/>
-      <c r="I26" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="J26" s="163"/>
-      <c r="K26" s="158" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="47.1" customHeight="1">
+      <c r="G26" s="155" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H26" s="156" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="312" t="s">
+        <v>2264</v>
+      </c>
+      <c r="K26" s="158"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="286"/>
+      <c r="B27" s="265"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="265"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
-      <c r="G27" s="173" t="s">
+      <c r="G27" s="172" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H27" s="156"/>
+      <c r="I27" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="312" t="s">
+        <v>2265</v>
+      </c>
+      <c r="K27" s="158" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="47.1" customHeight="1">
+      <c r="A28" s="152"/>
+      <c r="B28" s="265"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="173" t="s">
+      <c r="H28" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="174" t="s">
+      <c r="I28" s="174" t="s">
         <v>1556</v>
       </c>
-      <c r="J27" s="174"/>
-      <c r="K27" s="158"/>
-    </row>
-    <row r="28" spans="1:11" s="178" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A28" s="175"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="286"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="173" t="s">
+      <c r="J28" s="316" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K28" s="158"/>
+    </row>
+    <row r="29" spans="1:11" s="178" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A29" s="175"/>
+      <c r="B29" s="265"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="173" t="s">
+      <c r="H29" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="177" t="s">
+      <c r="I29" s="177" t="s">
         <v>1534</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="176"/>
-    </row>
-    <row r="29" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A29" s="152"/>
-      <c r="B29" s="286"/>
-      <c r="C29" s="273"/>
-      <c r="D29" s="286"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="173" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="177" t="s">
-        <v>1506</v>
-      </c>
-      <c r="I29" s="177" t="s">
-        <v>1533</v>
-      </c>
-      <c r="J29" s="177"/>
-      <c r="K29" s="158"/>
-    </row>
-    <row r="30" spans="1:11" ht="56.25" customHeight="1">
+      <c r="J29" s="317" t="s">
+        <v>2260</v>
+      </c>
+      <c r="K29" s="176"/>
+    </row>
+    <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="286"/>
+      <c r="B30" s="265"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="265"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="173" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="H30" s="177" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I30" s="179" t="s">
-        <v>2250</v>
-      </c>
-      <c r="J30" s="179"/>
+        <v>1506</v>
+      </c>
+      <c r="I30" s="177" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J30" s="317" t="s">
+        <v>2261</v>
+      </c>
       <c r="K30" s="158"/>
     </row>
-    <row r="31" spans="1:11" ht="48.75" customHeight="1">
+    <row r="31" spans="1:11" ht="56.25" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="273"/>
-      <c r="D31" s="286"/>
+      <c r="B31" s="265"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="265"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="173" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="180" t="s">
-        <v>1559</v>
-      </c>
-      <c r="J31" s="180"/>
+        <v>202</v>
+      </c>
+      <c r="H31" s="177" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I31" s="179" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J31" s="318" t="s">
+        <v>2267</v>
+      </c>
       <c r="K31" s="158"/>
     </row>
-    <row r="32" spans="1:11" ht="30.95" customHeight="1">
+    <row r="32" spans="1:11" ht="48.75" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="273"/>
-      <c r="D32" s="286"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="265"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="173" t="s">
-        <v>203</v>
-      </c>
-      <c r="H32" s="181" t="s">
-        <v>2251</v>
+        <v>77</v>
+      </c>
+      <c r="H32" s="173" t="s">
+        <v>210</v>
       </c>
       <c r="I32" s="180" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="J32" s="180"/>
       <c r="K32" s="158"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1">
+    <row r="33" spans="1:11" ht="30.95" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="286"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="265"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="173" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="182" t="s">
-        <v>1538</v>
+        <v>203</v>
+      </c>
+      <c r="H33" s="181" t="s">
+        <v>2251</v>
       </c>
       <c r="I33" s="180" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="J33" s="180"/>
       <c r="K33" s="158"/>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="286"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="286"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="268"/>
+      <c r="D34" s="265"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
-      <c r="G34" s="183" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="183" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="184" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J34" s="185"/>
+      <c r="G34" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="182" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I34" s="180" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J34" s="180"/>
       <c r="K34" s="158"/>
     </row>
-    <row r="35" spans="1:11" ht="41.25" customHeight="1">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="286"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="286"/>
+      <c r="B35" s="265"/>
+      <c r="C35" s="268"/>
+      <c r="D35" s="265"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
-      <c r="G35" s="186" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="186" t="s">
-        <v>1497</v>
-      </c>
-      <c r="I35" s="187" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J35" s="188"/>
+      <c r="G35" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="184" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J35" s="185"/>
       <c r="K35" s="158"/>
     </row>
-    <row r="36" spans="1:11" ht="45" customHeight="1">
+    <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="286"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="286"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="268"/>
+      <c r="D36" s="265"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
-      <c r="G36" s="173" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="173" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="177" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J36" s="177"/>
+      <c r="G36" s="186" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="186" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I36" s="187" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J36" s="188"/>
       <c r="K36" s="158"/>
     </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1">
+    <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="286"/>
-      <c r="C37" s="273"/>
-      <c r="D37" s="286"/>
+      <c r="B37" s="265"/>
+      <c r="C37" s="268"/>
+      <c r="D37" s="265"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H37" s="173" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I37" s="177" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="J37" s="177"/>
       <c r="K37" s="158"/>
     </row>
-    <row r="38" spans="1:11" ht="31.5" customHeight="1">
+    <row r="38" spans="1:11" ht="30" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="286"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="286"/>
+      <c r="B38" s="265"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="265"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="173" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H38" s="173" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I38" s="177" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="J38" s="177"/>
-      <c r="K38" s="189"/>
-    </row>
-    <row r="39" spans="1:11" ht="43.5" customHeight="1">
+      <c r="K38" s="158"/>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="286"/>
-      <c r="C39" s="273"/>
-      <c r="D39" s="286"/>
+      <c r="B39" s="265"/>
+      <c r="C39" s="268"/>
+      <c r="D39" s="265"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
-      <c r="G39" s="182" t="s">
-        <v>228</v>
+      <c r="G39" s="173" t="s">
+        <v>220</v>
       </c>
       <c r="H39" s="173" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="181" t="s">
-        <v>2252</v>
-      </c>
-      <c r="J39" s="181"/>
-      <c r="K39" s="158"/>
-    </row>
-    <row r="40" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
+        <v>226</v>
+      </c>
+      <c r="I39" s="177" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J39" s="177"/>
+      <c r="K39" s="189"/>
+    </row>
+    <row r="40" spans="1:11" ht="43.5" customHeight="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="286"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="286"/>
+      <c r="B40" s="265"/>
+      <c r="C40" s="268"/>
+      <c r="D40" s="265"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
-      <c r="G40" s="190" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="183" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I40" s="191" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J40" s="192"/>
-      <c r="K40" s="189" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1">
+      <c r="G40" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="181" t="s">
+        <v>2252</v>
+      </c>
+      <c r="J40" s="181"/>
+      <c r="K40" s="158"/>
+    </row>
+    <row r="41" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="286"/>
-      <c r="C41" s="273"/>
-      <c r="D41" s="286"/>
+      <c r="B41" s="265"/>
+      <c r="C41" s="268"/>
+      <c r="D41" s="265"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
-      <c r="G41" s="186" t="s">
-        <v>229</v>
-      </c>
-      <c r="H41" s="193" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I41" s="193" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J41" s="194"/>
-      <c r="K41" s="189"/>
-    </row>
-    <row r="42" spans="1:11" ht="57" customHeight="1">
+      <c r="G41" s="190" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="183" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I41" s="191" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J41" s="192"/>
+      <c r="K41" s="189" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="286"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="286"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="265"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
-      <c r="G42" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="173" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I42" s="177" t="s">
-        <v>1550</v>
-      </c>
-      <c r="J42" s="177"/>
-      <c r="K42" s="189" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="27" customHeight="1">
+      <c r="G42" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="193" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I42" s="193" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J42" s="194"/>
+      <c r="K42" s="189"/>
+    </row>
+    <row r="43" spans="1:11" ht="57" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="286"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="286"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="268"/>
+      <c r="D43" s="265"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="173" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="H43" s="173" t="s">
-        <v>1499</v>
+        <v>1510</v>
       </c>
       <c r="I43" s="177" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="J43" s="177"/>
-      <c r="K43" s="189"/>
-    </row>
-    <row r="44" spans="1:11" ht="56.1" customHeight="1">
+      <c r="K43" s="189" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="286"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="286"/>
+      <c r="B44" s="265"/>
+      <c r="C44" s="268"/>
+      <c r="D44" s="265"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="177" t="s">
-        <v>1500</v>
+        <v>230</v>
+      </c>
+      <c r="H44" s="173" t="s">
+        <v>1499</v>
       </c>
       <c r="I44" s="177" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J44" s="177"/>
       <c r="K44" s="189"/>
     </row>
-    <row r="45" spans="1:11" ht="30" customHeight="1">
+    <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="286"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="286"/>
+      <c r="B45" s="265"/>
+      <c r="C45" s="268"/>
+      <c r="D45" s="265"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="173" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="H45" s="177" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="177" t="s">
-        <v>1513</v>
+        <v>1553</v>
       </c>
       <c r="J45" s="177"/>
-      <c r="K45" s="189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="26.25" hidden="1" customHeight="1">
+      <c r="K45" s="189"/>
+    </row>
+    <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="286"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="286"/>
+      <c r="B46" s="265"/>
+      <c r="C46" s="268"/>
+      <c r="D46" s="265"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
-      <c r="G46" s="195" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="173" t="s">
-        <v>233</v>
+      <c r="G46" s="173" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="177" t="s">
+        <v>1512</v>
       </c>
       <c r="I46" s="177" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J46" s="177"/>
       <c r="K46" s="189" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="25.5" hidden="1" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="286"/>
-      <c r="C47" s="273"/>
-      <c r="D47" s="286"/>
+      <c r="B47" s="265"/>
+      <c r="C47" s="268"/>
+      <c r="D47" s="265"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="195" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47" s="173" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="177"/>
+        <v>233</v>
+      </c>
+      <c r="I47" s="177" t="s">
+        <v>1515</v>
+      </c>
       <c r="J47" s="177"/>
-      <c r="K47" s="158"/>
-    </row>
-    <row r="48" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+      <c r="K47" s="189" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="286"/>
-      <c r="C48" s="273"/>
-      <c r="D48" s="286"/>
+      <c r="B48" s="265"/>
+      <c r="C48" s="268"/>
+      <c r="D48" s="265"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
-      <c r="G48" s="183" t="s">
-        <v>714</v>
-      </c>
-      <c r="H48" s="184" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I48" s="184" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J48" s="185"/>
+      <c r="G48" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="177"/>
+      <c r="J48" s="177"/>
       <c r="K48" s="158"/>
     </row>
-    <row r="49" spans="1:11" ht="41.25" customHeight="1">
+    <row r="49" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="286"/>
-      <c r="C49" s="273"/>
-      <c r="D49" s="286"/>
+      <c r="B49" s="265"/>
+      <c r="C49" s="268"/>
+      <c r="D49" s="265"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
-      <c r="G49" s="186" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" s="193" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I49" s="193" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J49" s="194"/>
+      <c r="G49" s="183" t="s">
+        <v>714</v>
+      </c>
+      <c r="H49" s="184" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I49" s="184" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J49" s="185"/>
       <c r="K49" s="158"/>
     </row>
-    <row r="50" spans="1:11" ht="43.5" customHeight="1">
+    <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="286"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="286"/>
+      <c r="B50" s="265"/>
+      <c r="C50" s="268"/>
+      <c r="D50" s="265"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
-      <c r="G50" s="173" t="s">
-        <v>236</v>
-      </c>
-      <c r="H50" s="177" t="s">
-        <v>1502</v>
-      </c>
-      <c r="I50" s="177" t="s">
-        <v>1518</v>
-      </c>
-      <c r="J50" s="177"/>
-      <c r="K50" s="189"/>
-    </row>
-    <row r="51" spans="1:11" ht="24.95" customHeight="1">
+      <c r="G50" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" s="193" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I50" s="193" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J50" s="194"/>
+      <c r="K50" s="158"/>
+    </row>
+    <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="286"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="286"/>
+      <c r="B51" s="265"/>
+      <c r="C51" s="268"/>
+      <c r="D51" s="265"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H51" s="177" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I51" s="177" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="J51" s="177"/>
-      <c r="K51" s="158"/>
+      <c r="K51" s="189"/>
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="286"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="286"/>
+      <c r="B52" s="265"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="265"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H52" s="177" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="I52" s="177" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="J52" s="177"/>
       <c r="K52" s="158"/>
     </row>
-    <row r="53" spans="1:11" ht="30.95" customHeight="1">
+    <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="286"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="286"/>
+      <c r="B53" s="265"/>
+      <c r="C53" s="268"/>
+      <c r="D53" s="265"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="173" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="H53" s="177" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I53" s="196" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J53" s="185"/>
-      <c r="K53" s="279"/>
-    </row>
-    <row r="54" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+        <v>1555</v>
+      </c>
+      <c r="I53" s="177" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J53" s="177"/>
+      <c r="K53" s="158"/>
+    </row>
+    <row r="54" spans="1:11" ht="30.95" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="286"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="286"/>
+      <c r="B54" s="265"/>
+      <c r="C54" s="268"/>
+      <c r="D54" s="265"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
-      <c r="G54" s="195" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="177"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="280"/>
-    </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1">
+      <c r="G54" s="173" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="177" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I54" s="196" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J54" s="185"/>
+      <c r="K54" s="281"/>
+    </row>
+    <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="286"/>
-      <c r="C55" s="273"/>
-      <c r="D55" s="286"/>
+      <c r="B55" s="265"/>
+      <c r="C55" s="268"/>
+      <c r="D55" s="265"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
-      <c r="G55" s="173" t="s">
-        <v>239</v>
-      </c>
-      <c r="H55" s="177" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I55" s="177" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J55" s="177"/>
-      <c r="K55" s="158"/>
-    </row>
-    <row r="56" spans="1:11" ht="28.5" hidden="1" customHeight="1">
+      <c r="G55" s="195" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="177"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="282"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="286"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="286"/>
+      <c r="B56" s="265"/>
+      <c r="C56" s="268"/>
+      <c r="D56" s="265"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
-      <c r="G56" s="195" t="s">
-        <v>240</v>
+      <c r="G56" s="173" t="s">
+        <v>239</v>
       </c>
       <c r="H56" s="177" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I56" s="177"/>
+        <v>1541</v>
+      </c>
+      <c r="I56" s="177" t="s">
+        <v>1539</v>
+      </c>
       <c r="J56" s="177"/>
-      <c r="K56" s="197" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30.75" customHeight="1">
+      <c r="K56" s="158"/>
+    </row>
+    <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="286"/>
-      <c r="C57" s="273"/>
-      <c r="D57" s="286"/>
+      <c r="B57" s="265"/>
+      <c r="C57" s="268"/>
+      <c r="D57" s="265"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
-      <c r="G57" s="173" t="s">
-        <v>89</v>
+      <c r="G57" s="195" t="s">
+        <v>240</v>
       </c>
       <c r="H57" s="177" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I57" s="177" t="s">
-        <v>1542</v>
-      </c>
+        <v>1540</v>
+      </c>
+      <c r="I57" s="177"/>
       <c r="J57" s="177"/>
-      <c r="K57" s="158"/>
-    </row>
-    <row r="58" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+      <c r="K57" s="197" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="286"/>
-      <c r="C58" s="273"/>
-      <c r="D58" s="286"/>
+      <c r="B58" s="265"/>
+      <c r="C58" s="268"/>
+      <c r="D58" s="265"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="173" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="H58" s="177" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
       <c r="I58" s="177" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="J58" s="177"/>
       <c r="K58" s="158"/>
     </row>
-    <row r="59" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="286"/>
-      <c r="C59" s="273"/>
-      <c r="D59" s="286"/>
+      <c r="B59" s="265"/>
+      <c r="C59" s="268"/>
+      <c r="D59" s="265"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
-      <c r="G59" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="183" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="184" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J59" s="185"/>
+      <c r="G59" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="177" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I59" s="177" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J59" s="177"/>
       <c r="K59" s="158"/>
     </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1">
+    <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="286"/>
-      <c r="C60" s="273"/>
-      <c r="D60" s="286"/>
+      <c r="B60" s="265"/>
+      <c r="C60" s="268"/>
+      <c r="D60" s="265"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
-      <c r="G60" s="186" t="s">
-        <v>90</v>
-      </c>
-      <c r="H60" s="186" t="s">
-        <v>96</v>
-      </c>
-      <c r="I60" s="193"/>
-      <c r="J60" s="194"/>
+      <c r="G60" s="198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="184" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J60" s="185"/>
       <c r="K60" s="158"/>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="286"/>
-      <c r="C61" s="273"/>
-      <c r="D61" s="286"/>
+      <c r="B61" s="265"/>
+      <c r="C61" s="268"/>
+      <c r="D61" s="265"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
-      <c r="G61" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="173" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="177"/>
-      <c r="J61" s="177"/>
+      <c r="G61" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="186" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="193"/>
+      <c r="J61" s="194"/>
       <c r="K61" s="158"/>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="286"/>
-      <c r="C62" s="273"/>
-      <c r="D62" s="286"/>
+      <c r="B62" s="265"/>
+      <c r="C62" s="268"/>
+      <c r="D62" s="265"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="173" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H62" s="173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62" s="177"/>
       <c r="J62" s="177"/>
       <c r="K62" s="158"/>
     </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="286"/>
-      <c r="C63" s="273"/>
-      <c r="D63" s="286"/>
+      <c r="B63" s="265"/>
+      <c r="C63" s="268"/>
+      <c r="D63" s="265"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
-      <c r="G63" s="183" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="183" t="s">
-        <v>99</v>
-      </c>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="G63" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="177"/>
+      <c r="J63" s="177"/>
       <c r="K63" s="158"/>
     </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="286"/>
-      <c r="C64" s="273"/>
-      <c r="D64" s="286"/>
+      <c r="B64" s="265"/>
+      <c r="C64" s="268"/>
+      <c r="D64" s="265"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
-      <c r="G64" s="186" t="s">
-        <v>93</v>
-      </c>
-      <c r="H64" s="199" t="s">
-        <v>100</v>
-      </c>
-      <c r="I64" s="200"/>
-      <c r="J64" s="201"/>
+      <c r="G64" s="183" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="183" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="184"/>
+      <c r="J64" s="185"/>
       <c r="K64" s="158"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="287"/>
-      <c r="C65" s="274"/>
-      <c r="D65" s="287"/>
+      <c r="B65" s="265"/>
+      <c r="C65" s="268"/>
+      <c r="D65" s="265"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
-      <c r="G65" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="H65" s="203" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="204"/>
-      <c r="J65" s="205"/>
+      <c r="G65" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" s="199" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="200"/>
+      <c r="J65" s="201"/>
       <c r="K65" s="158"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="277" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="272" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D66" s="258" t="s">
-        <v>4</v>
-      </c>
+      <c r="B66" s="266"/>
+      <c r="C66" s="269"/>
+      <c r="D66" s="266"/>
       <c r="E66" s="153"/>
-      <c r="F66" s="206" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G66" s="160" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H66" s="207" t="s">
-        <v>1563</v>
+      <c r="F66" s="161"/>
+      <c r="G66" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="203" t="s">
+        <v>101</v>
       </c>
       <c r="I66" s="204"/>
       <c r="J66" s="205"/>
       <c r="K66" s="158"/>
     </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="278"/>
-      <c r="C67" s="273"/>
-      <c r="D67" s="259"/>
+      <c r="B67" s="264" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="267" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D67" s="273" t="s">
+        <v>4</v>
+      </c>
       <c r="E67" s="153"/>
-      <c r="F67" s="161"/>
-      <c r="G67" s="155" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H67" s="208" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
+      <c r="F67" s="206" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G67" s="160" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H67" s="207" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I67" s="204"/>
+      <c r="J67" s="205"/>
       <c r="K67" s="158"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="278"/>
-      <c r="C68" s="273"/>
-      <c r="D68" s="260"/>
+      <c r="B68" s="286"/>
+      <c r="C68" s="268"/>
+      <c r="D68" s="274"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
-      <c r="G68" s="209" t="s">
-        <v>1569</v>
+      <c r="G68" s="155" t="s">
+        <v>1383</v>
       </c>
       <c r="H68" s="208" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I68" s="162" t="s">
-        <v>1566</v>
-      </c>
+        <v>1564</v>
+      </c>
+      <c r="I68" s="157"/>
       <c r="J68" s="157"/>
-      <c r="K68" s="158" t="s">
-        <v>2248</v>
-      </c>
+      <c r="K68" s="158"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="278"/>
-      <c r="C69" s="272" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D69" s="258" t="s">
-        <v>1385</v>
-      </c>
+      <c r="B69" s="286"/>
+      <c r="C69" s="268"/>
+      <c r="D69" s="275"/>
       <c r="E69" s="153"/>
-      <c r="F69" s="206" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G69" s="155" t="s">
-        <v>1344</v>
+      <c r="F69" s="161"/>
+      <c r="G69" s="209" t="s">
+        <v>1569</v>
       </c>
       <c r="H69" s="208" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I69" s="157"/>
+        <v>1565</v>
+      </c>
+      <c r="I69" s="162" t="s">
+        <v>1566</v>
+      </c>
       <c r="J69" s="157"/>
-      <c r="K69" s="158"/>
+      <c r="K69" s="158" t="s">
+        <v>2248</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="278"/>
-      <c r="C70" s="273"/>
-      <c r="D70" s="259"/>
+      <c r="B70" s="286"/>
+      <c r="C70" s="267" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D70" s="273" t="s">
+        <v>1385</v>
+      </c>
       <c r="E70" s="153"/>
-      <c r="F70" s="161"/>
+      <c r="F70" s="206" t="s">
+        <v>1386</v>
+      </c>
       <c r="G70" s="155" t="s">
-        <v>1383</v>
+        <v>1344</v>
       </c>
       <c r="H70" s="208" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="157"/>
-      <c r="K70" s="158" t="s">
-        <v>1387</v>
-      </c>
+      <c r="K70" s="158"/>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="278"/>
-      <c r="C71" s="273"/>
-      <c r="D71" s="259"/>
+      <c r="B71" s="286"/>
+      <c r="C71" s="268"/>
+      <c r="D71" s="274"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
-      <c r="G71" s="209" t="s">
-        <v>1567</v>
+      <c r="G71" s="155" t="s">
+        <v>1383</v>
       </c>
       <c r="H71" s="208" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="I71" s="157"/>
       <c r="J71" s="157"/>
       <c r="K71" s="158" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
-      <c r="B72" s="278"/>
-      <c r="C72" s="273"/>
-      <c r="D72" s="260"/>
+      <c r="B72" s="286"/>
+      <c r="C72" s="268"/>
+      <c r="D72" s="274"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="209" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H72" s="208" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="I72" s="157"/>
       <c r="J72" s="157"/>
       <c r="K72" s="158" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="41.1" customHeight="1">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
-      <c r="B73" s="278"/>
-      <c r="C73" s="273"/>
-      <c r="D73" s="210" t="s">
-        <v>5</v>
-      </c>
+      <c r="B73" s="286"/>
+      <c r="C73" s="268"/>
+      <c r="D73" s="275"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
-      <c r="G73" s="155" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H73" s="211" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I73" s="162" t="s">
-        <v>1573</v>
-      </c>
+      <c r="G73" s="209" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H73" s="208" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I73" s="157"/>
       <c r="J73" s="157"/>
-      <c r="K73" s="158"/>
-    </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A74" s="212"/>
-      <c r="B74" s="258" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C74" s="272" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D74" s="213" t="s">
-        <v>1574</v>
+      <c r="K73" s="158" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="41.1" customHeight="1">
+      <c r="A74" s="152"/>
+      <c r="B74" s="286"/>
+      <c r="C74" s="268"/>
+      <c r="D74" s="210" t="s">
+        <v>5</v>
       </c>
       <c r="E74" s="153"/>
       <c r="F74" s="161"/>
       <c r="G74" s="155" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H74" s="208" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I74" s="157"/>
+        <v>1390</v>
+      </c>
+      <c r="H74" s="211" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I74" s="162" t="s">
+        <v>1573</v>
+      </c>
       <c r="J74" s="157"/>
       <c r="K74" s="158"/>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="212"/>
-      <c r="B75" s="259"/>
-      <c r="C75" s="273"/>
-      <c r="D75" s="214" t="s">
-        <v>1587</v>
+      <c r="B75" s="273" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C75" s="267" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D75" s="213" t="s">
+        <v>1574</v>
       </c>
       <c r="E75" s="153"/>
       <c r="F75" s="161"/>
-      <c r="G75" s="209" t="s">
-        <v>1588</v>
+      <c r="G75" s="155" t="s">
+        <v>1394</v>
       </c>
       <c r="H75" s="208" t="s">
-        <v>1589</v>
+        <v>1575</v>
       </c>
       <c r="I75" s="157"/>
       <c r="J75" s="157"/>
@@ -16977,136 +17223,136 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="212"/>
-      <c r="B76" s="259"/>
-      <c r="C76" s="273"/>
+      <c r="B76" s="274"/>
+      <c r="C76" s="268"/>
       <c r="D76" s="214" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E76" s="153"/>
       <c r="F76" s="161"/>
       <c r="G76" s="209" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="H76" s="208" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I76" s="162" t="s">
-        <v>1593</v>
-      </c>
+        <v>1589</v>
+      </c>
+      <c r="I76" s="157"/>
       <c r="J76" s="157"/>
       <c r="K76" s="158"/>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="212"/>
-      <c r="B77" s="259"/>
-      <c r="C77" s="273"/>
-      <c r="D77" s="270" t="s">
-        <v>1603</v>
+      <c r="B77" s="274"/>
+      <c r="C77" s="268"/>
+      <c r="D77" s="214" t="s">
+        <v>1590</v>
       </c>
       <c r="E77" s="153"/>
       <c r="F77" s="161"/>
       <c r="G77" s="209" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H77" s="208"/>
-      <c r="I77" s="162"/>
+        <v>1591</v>
+      </c>
+      <c r="H77" s="208" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I77" s="162" t="s">
+        <v>1593</v>
+      </c>
       <c r="J77" s="157"/>
       <c r="K77" s="158"/>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="212"/>
-      <c r="B78" s="259"/>
-      <c r="C78" s="273"/>
-      <c r="D78" s="271"/>
+      <c r="B78" s="274"/>
+      <c r="C78" s="268"/>
+      <c r="D78" s="261" t="s">
+        <v>1603</v>
+      </c>
       <c r="E78" s="153"/>
       <c r="F78" s="161"/>
       <c r="G78" s="209" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H78" s="208" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I78" s="162" t="s">
-        <v>1608</v>
-      </c>
+        <v>1604</v>
+      </c>
+      <c r="H78" s="208"/>
+      <c r="I78" s="162"/>
       <c r="J78" s="157"/>
-      <c r="K78" s="176" t="s">
-        <v>1611</v>
-      </c>
+      <c r="K78" s="158"/>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="212"/>
-      <c r="B79" s="259"/>
-      <c r="C79" s="273"/>
-      <c r="D79" s="285"/>
+      <c r="B79" s="274"/>
+      <c r="C79" s="268"/>
+      <c r="D79" s="262"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="209" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H79" s="208" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="I79" s="162" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="J79" s="157"/>
-      <c r="K79" s="158"/>
+      <c r="K79" s="176" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="212"/>
-      <c r="B80" s="259"/>
-      <c r="C80" s="273"/>
-      <c r="D80" s="258" t="s">
-        <v>1395</v>
-      </c>
+      <c r="B80" s="274"/>
+      <c r="C80" s="268"/>
+      <c r="D80" s="263"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
-      <c r="G80" s="155" t="s">
-        <v>1396</v>
+      <c r="G80" s="209" t="s">
+        <v>1606</v>
       </c>
       <c r="H80" s="208" t="s">
-        <v>1576</v>
+        <v>1609</v>
       </c>
       <c r="I80" s="162" t="s">
-        <v>1594</v>
+        <v>1610</v>
       </c>
       <c r="J80" s="157"/>
-      <c r="K80" s="158" t="s">
-        <v>1397</v>
-      </c>
+      <c r="K80" s="158"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="212"/>
-      <c r="B81" s="259"/>
-      <c r="C81" s="273"/>
-      <c r="D81" s="259"/>
+      <c r="B81" s="274"/>
+      <c r="C81" s="268"/>
+      <c r="D81" s="273" t="s">
+        <v>1395</v>
+      </c>
       <c r="E81" s="153"/>
       <c r="F81" s="161"/>
       <c r="G81" s="155" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H81" s="208" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I81" s="162" t="s">
-        <v>1562</v>
+        <v>1594</v>
       </c>
       <c r="J81" s="157"/>
-      <c r="K81" s="158"/>
+      <c r="K81" s="158" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="212"/>
-      <c r="B82" s="259"/>
-      <c r="C82" s="273"/>
-      <c r="D82" s="259"/>
+      <c r="B82" s="274"/>
+      <c r="C82" s="268"/>
+      <c r="D82" s="274"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H82" s="208" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I82" s="162" t="s">
         <v>1562</v>
@@ -17116,16 +17362,16 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="212"/>
-      <c r="B83" s="259"/>
-      <c r="C83" s="273"/>
-      <c r="D83" s="259"/>
+      <c r="B83" s="274"/>
+      <c r="C83" s="268"/>
+      <c r="D83" s="274"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H83" s="208" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I83" s="162" t="s">
         <v>1562</v>
@@ -17135,16 +17381,16 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="212"/>
-      <c r="B84" s="259"/>
-      <c r="C84" s="273"/>
-      <c r="D84" s="260"/>
+      <c r="B84" s="274"/>
+      <c r="C84" s="268"/>
+      <c r="D84" s="274"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H84" s="208" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I84" s="162" t="s">
         <v>1562</v>
@@ -17154,112 +17400,116 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="212"/>
-      <c r="B85" s="259"/>
-      <c r="C85" s="273"/>
-      <c r="D85" s="258" t="s">
-        <v>1402</v>
-      </c>
+      <c r="B85" s="274"/>
+      <c r="C85" s="268"/>
+      <c r="D85" s="275"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
-        <v>1403</v>
-      </c>
-      <c r="H85" s="215" t="s">
-        <v>1581</v>
+        <v>1401</v>
+      </c>
+      <c r="H85" s="208" t="s">
+        <v>1580</v>
       </c>
       <c r="I85" s="162" t="s">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="J85" s="157"/>
-      <c r="K85" s="158" t="s">
-        <v>1529</v>
-      </c>
+      <c r="K85" s="158"/>
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="212"/>
-      <c r="B86" s="259"/>
-      <c r="C86" s="273"/>
-      <c r="D86" s="260"/>
+      <c r="B86" s="274"/>
+      <c r="C86" s="268"/>
+      <c r="D86" s="273" t="s">
+        <v>1402</v>
+      </c>
       <c r="E86" s="153"/>
       <c r="F86" s="161"/>
       <c r="G86" s="155" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H86" s="208" t="s">
-        <v>1583</v>
+        <v>1403</v>
+      </c>
+      <c r="H86" s="215" t="s">
+        <v>1581</v>
       </c>
       <c r="I86" s="162" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="J86" s="157"/>
-      <c r="K86" s="158"/>
-    </row>
-    <row r="87" spans="1:11" ht="41.1" customHeight="1">
+      <c r="K86" s="158" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="212"/>
-      <c r="B87" s="259"/>
-      <c r="C87" s="273"/>
-      <c r="D87" s="165" t="s">
-        <v>1</v>
-      </c>
+      <c r="B87" s="274"/>
+      <c r="C87" s="268"/>
+      <c r="D87" s="275"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
-        <v>1405</v>
-      </c>
-      <c r="H87" s="211" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I87" s="216" t="s">
-        <v>2244</v>
+        <v>1404</v>
+      </c>
+      <c r="H87" s="208" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I87" s="162" t="s">
+        <v>1584</v>
       </c>
       <c r="J87" s="157"/>
-      <c r="K87" s="217" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K87" s="158"/>
+    </row>
+    <row r="88" spans="1:11" ht="41.1" customHeight="1">
       <c r="A88" s="212"/>
-      <c r="B88" s="259"/>
-      <c r="C88" s="273"/>
-      <c r="D88" s="258" t="s">
-        <v>1406</v>
+      <c r="B88" s="274"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="165" t="s">
+        <v>1</v>
       </c>
       <c r="E88" s="153"/>
       <c r="F88" s="161"/>
       <c r="G88" s="155" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H88" s="218" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I88" s="157"/>
+        <v>1405</v>
+      </c>
+      <c r="H88" s="211" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I88" s="216" t="s">
+        <v>2244</v>
+      </c>
       <c r="J88" s="157"/>
-      <c r="K88" s="219"/>
+      <c r="K88" s="217" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
       <c r="A89" s="212"/>
-      <c r="B89" s="259"/>
-      <c r="C89" s="273"/>
-      <c r="D89" s="259"/>
+      <c r="B89" s="274"/>
+      <c r="C89" s="268"/>
+      <c r="D89" s="273" t="s">
+        <v>1406</v>
+      </c>
       <c r="E89" s="153"/>
       <c r="F89" s="161"/>
       <c r="G89" s="155" t="s">
-        <v>1408</v>
-      </c>
-      <c r="H89" s="156"/>
+        <v>1407</v>
+      </c>
+      <c r="H89" s="218" t="s">
+        <v>1545</v>
+      </c>
       <c r="I89" s="157"/>
       <c r="J89" s="157"/>
       <c r="K89" s="219"/>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="212"/>
-      <c r="B90" s="259"/>
-      <c r="C90" s="273"/>
-      <c r="D90" s="259"/>
+      <c r="B90" s="274"/>
+      <c r="C90" s="268"/>
+      <c r="D90" s="274"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H90" s="156"/>
       <c r="I90" s="157"/>
@@ -17268,13 +17518,13 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="212"/>
-      <c r="B91" s="259"/>
-      <c r="C91" s="273"/>
-      <c r="D91" s="259"/>
+      <c r="B91" s="274"/>
+      <c r="C91" s="268"/>
+      <c r="D91" s="274"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H91" s="156"/>
       <c r="I91" s="157"/>
@@ -17283,146 +17533,142 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="212"/>
-      <c r="B92" s="259"/>
-      <c r="C92" s="273"/>
-      <c r="D92" s="260"/>
+      <c r="B92" s="274"/>
+      <c r="C92" s="268"/>
+      <c r="D92" s="274"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
-      <c r="G92" s="209" t="s">
-        <v>1411</v>
+      <c r="G92" s="155" t="s">
+        <v>1410</v>
       </c>
       <c r="H92" s="156"/>
-      <c r="I92" s="160"/>
+      <c r="I92" s="157"/>
       <c r="J92" s="157"/>
       <c r="K92" s="219"/>
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1">
       <c r="A93" s="212"/>
-      <c r="B93" s="259"/>
-      <c r="C93" s="273"/>
-      <c r="D93" s="258" t="s">
-        <v>2</v>
-      </c>
+      <c r="B93" s="274"/>
+      <c r="C93" s="268"/>
+      <c r="D93" s="275"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="209" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H93" s="220" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I93" s="216" t="s">
-        <v>2245</v>
-      </c>
+        <v>1411</v>
+      </c>
+      <c r="H93" s="156"/>
+      <c r="I93" s="160"/>
       <c r="J93" s="157"/>
       <c r="K93" s="219"/>
     </row>
-    <row r="94" spans="1:11" ht="15.95" customHeight="1">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="212"/>
-      <c r="B94" s="259"/>
-      <c r="C94" s="273"/>
-      <c r="D94" s="259"/>
+      <c r="B94" s="274"/>
+      <c r="C94" s="268"/>
+      <c r="D94" s="273" t="s">
+        <v>2</v>
+      </c>
       <c r="E94" s="153"/>
       <c r="F94" s="161"/>
-      <c r="G94" s="155" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H94" s="177" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I94" s="221" t="s">
-        <v>1600</v>
-      </c>
-      <c r="J94" s="163"/>
-      <c r="K94" s="176" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.25" customHeight="1">
+      <c r="G94" s="209" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H94" s="220" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I94" s="216" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J94" s="157"/>
+      <c r="K94" s="219"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="212"/>
-      <c r="B95" s="259"/>
-      <c r="C95" s="273"/>
-      <c r="D95" s="260"/>
+      <c r="B95" s="274"/>
+      <c r="C95" s="268"/>
+      <c r="D95" s="274"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H95" s="208" t="s">
-        <v>262</v>
-      </c>
-      <c r="I95" s="162"/>
+        <v>1412</v>
+      </c>
+      <c r="H95" s="177" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I95" s="221" t="s">
+        <v>1600</v>
+      </c>
       <c r="J95" s="163"/>
-      <c r="K95" s="158"/>
+      <c r="K95" s="176" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="212"/>
-      <c r="B96" s="259"/>
-      <c r="C96" s="273"/>
-      <c r="D96" s="258" t="s">
-        <v>1414</v>
-      </c>
+      <c r="B96" s="274"/>
+      <c r="C96" s="268"/>
+      <c r="D96" s="275"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H96" s="156"/>
-      <c r="I96" s="162" t="s">
-        <v>1601</v>
-      </c>
-      <c r="J96" s="157"/>
+        <v>1413</v>
+      </c>
+      <c r="H96" s="208" t="s">
+        <v>262</v>
+      </c>
+      <c r="I96" s="162"/>
+      <c r="J96" s="163"/>
       <c r="K96" s="158"/>
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="212"/>
-      <c r="B97" s="259"/>
-      <c r="C97" s="273"/>
-      <c r="D97" s="260"/>
+      <c r="B97" s="274"/>
+      <c r="C97" s="268"/>
+      <c r="D97" s="273" t="s">
+        <v>1414</v>
+      </c>
       <c r="E97" s="153"/>
       <c r="F97" s="161"/>
       <c r="G97" s="155" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H97" s="156"/>
       <c r="I97" s="162" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="J97" s="157"/>
       <c r="K97" s="158"/>
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="212"/>
-      <c r="B98" s="259"/>
-      <c r="C98" s="273"/>
-      <c r="D98" s="284" t="s">
-        <v>3</v>
-      </c>
+      <c r="B98" s="274"/>
+      <c r="C98" s="268"/>
+      <c r="D98" s="275"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="155" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H98" s="156"/>
       <c r="I98" s="162" t="s">
-        <v>1562</v>
+        <v>1614</v>
       </c>
       <c r="J98" s="157"/>
       <c r="K98" s="158"/>
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="212"/>
-      <c r="B99" s="259"/>
-      <c r="C99" s="274"/>
-      <c r="D99" s="284"/>
+      <c r="B99" s="274"/>
+      <c r="C99" s="268"/>
+      <c r="D99" s="258" t="s">
+        <v>3</v>
+      </c>
       <c r="E99" s="153"/>
       <c r="F99" s="161"/>
       <c r="G99" s="155" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H99" s="208" t="s">
-        <v>1612</v>
-      </c>
+        <v>1417</v>
+      </c>
+      <c r="H99" s="156"/>
       <c r="I99" s="162" t="s">
         <v>1562</v>
       </c>
@@ -17431,34 +17677,36 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="212"/>
-      <c r="B100" s="259"/>
-      <c r="C100" s="272" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="271" t="s">
-        <v>1602</v>
-      </c>
+      <c r="B100" s="274"/>
+      <c r="C100" s="269"/>
+      <c r="D100" s="258"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H100" s="208" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I100" s="162" t="s">
         <v>1562</v>
       </c>
-      <c r="I100" s="157"/>
       <c r="J100" s="157"/>
       <c r="K100" s="158"/>
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="212"/>
-      <c r="B101" s="259"/>
-      <c r="C101" s="273"/>
-      <c r="D101" s="285"/>
+      <c r="B101" s="274"/>
+      <c r="C101" s="267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="262" t="s">
+        <v>1602</v>
+      </c>
       <c r="E101" s="153"/>
       <c r="F101" s="161"/>
       <c r="G101" s="155" t="s">
-        <v>6</v>
+        <v>1419</v>
       </c>
       <c r="H101" s="208" t="s">
         <v>1562</v>
@@ -17467,17 +17715,15 @@
       <c r="J101" s="157"/>
       <c r="K101" s="158"/>
     </row>
-    <row r="102" spans="1:11" ht="14.1" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="212"/>
-      <c r="B102" s="259"/>
-      <c r="C102" s="273"/>
-      <c r="D102" s="165" t="s">
-        <v>1420</v>
-      </c>
+      <c r="B102" s="274"/>
+      <c r="C102" s="268"/>
+      <c r="D102" s="263"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
-      <c r="G102" s="209" t="s">
-        <v>1613</v>
+      <c r="G102" s="155" t="s">
+        <v>6</v>
       </c>
       <c r="H102" s="208" t="s">
         <v>1562</v>
@@ -17486,55 +17732,57 @@
       <c r="J102" s="157"/>
       <c r="K102" s="158"/>
     </row>
-    <row r="103" spans="1:11" ht="29.1" customHeight="1">
+    <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="212"/>
-      <c r="B103" s="259"/>
-      <c r="C103" s="273"/>
-      <c r="D103" s="270" t="s">
-        <v>1615</v>
+      <c r="B103" s="274"/>
+      <c r="C103" s="268"/>
+      <c r="D103" s="165" t="s">
+        <v>1420</v>
       </c>
       <c r="E103" s="153"/>
       <c r="F103" s="161"/>
       <c r="G103" s="209" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H103" s="211" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I103" s="162" t="s">
-        <v>1618</v>
-      </c>
+        <v>1613</v>
+      </c>
+      <c r="H103" s="208" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I103" s="157"/>
       <c r="J103" s="157"/>
-      <c r="K103" s="176" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K103" s="158"/>
+    </row>
+    <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="212"/>
-      <c r="B104" s="259"/>
-      <c r="C104" s="273"/>
-      <c r="D104" s="271"/>
+      <c r="B104" s="274"/>
+      <c r="C104" s="268"/>
+      <c r="D104" s="261" t="s">
+        <v>1615</v>
+      </c>
       <c r="E104" s="153"/>
       <c r="F104" s="161"/>
       <c r="G104" s="209" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H104" s="208" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I104" s="157"/>
+        <v>1617</v>
+      </c>
+      <c r="H104" s="211" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I104" s="162" t="s">
+        <v>1618</v>
+      </c>
       <c r="J104" s="157"/>
-      <c r="K104" s="176"/>
+      <c r="K104" s="176" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="212"/>
-      <c r="B105" s="259"/>
-      <c r="C105" s="273"/>
-      <c r="D105" s="271"/>
+      <c r="B105" s="274"/>
+      <c r="C105" s="268"/>
+      <c r="D105" s="262"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="209" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H105" s="208" t="s">
         <v>1562</v>
@@ -17545,13 +17793,13 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="212"/>
-      <c r="B106" s="259"/>
-      <c r="C106" s="273"/>
-      <c r="D106" s="285"/>
+      <c r="B106" s="274"/>
+      <c r="C106" s="268"/>
+      <c r="D106" s="262"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="209" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H106" s="208" t="s">
         <v>1562</v>
@@ -17562,94 +17810,94 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="212"/>
-      <c r="B107" s="259"/>
-      <c r="C107" s="273"/>
-      <c r="D107" s="165" t="s">
-        <v>1393</v>
-      </c>
+      <c r="B107" s="274"/>
+      <c r="C107" s="268"/>
+      <c r="D107" s="263"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
-      <c r="G107" s="155" t="s">
-        <v>7</v>
+      <c r="G107" s="209" t="s">
+        <v>1622</v>
       </c>
       <c r="H107" s="208" t="s">
         <v>1562</v>
       </c>
       <c r="I107" s="157"/>
       <c r="J107" s="157"/>
-      <c r="K107" s="158"/>
+      <c r="K107" s="176"/>
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="212"/>
-      <c r="B108" s="259"/>
-      <c r="C108" s="273"/>
-      <c r="D108" s="258" t="s">
-        <v>1421</v>
+      <c r="B108" s="274"/>
+      <c r="C108" s="268"/>
+      <c r="D108" s="165" t="s">
+        <v>1393</v>
       </c>
       <c r="E108" s="153"/>
       <c r="F108" s="161"/>
       <c r="G108" s="155" t="s">
-        <v>1422</v>
+        <v>7</v>
       </c>
       <c r="H108" s="208" t="s">
-        <v>2154</v>
-      </c>
-      <c r="I108" s="222"/>
-      <c r="J108" s="222"/>
-      <c r="K108" s="189" t="s">
-        <v>1423</v>
-      </c>
+        <v>1562</v>
+      </c>
+      <c r="I108" s="157"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="158"/>
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="212"/>
-      <c r="B109" s="259"/>
-      <c r="C109" s="273"/>
-      <c r="D109" s="260"/>
+      <c r="B109" s="274"/>
+      <c r="C109" s="268"/>
+      <c r="D109" s="273" t="s">
+        <v>1421</v>
+      </c>
       <c r="E109" s="153"/>
       <c r="F109" s="161"/>
       <c r="G109" s="155" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H109" s="208" t="s">
-        <v>1562</v>
+        <v>2154</v>
       </c>
       <c r="I109" s="222"/>
       <c r="J109" s="222"/>
       <c r="K109" s="189" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="212"/>
-      <c r="B110" s="259"/>
-      <c r="C110" s="273"/>
-      <c r="D110" s="281" t="s">
-        <v>1426</v>
-      </c>
+      <c r="B110" s="274"/>
+      <c r="C110" s="268"/>
+      <c r="D110" s="275"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H110" s="156" t="s">
-        <v>250</v>
-      </c>
-      <c r="I110" s="157"/>
-      <c r="J110" s="157"/>
-      <c r="K110" s="158"/>
+        <v>1424</v>
+      </c>
+      <c r="H110" s="208" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I110" s="222"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="189" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="212"/>
-      <c r="B111" s="259"/>
-      <c r="C111" s="273"/>
-      <c r="D111" s="282"/>
+      <c r="B111" s="274"/>
+      <c r="C111" s="268"/>
+      <c r="D111" s="283" t="s">
+        <v>1426</v>
+      </c>
       <c r="E111" s="153"/>
       <c r="F111" s="161"/>
       <c r="G111" s="155" t="s">
-        <v>251</v>
+        <v>1427</v>
       </c>
       <c r="H111" s="156" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I111" s="157"/>
       <c r="J111" s="157"/>
@@ -17657,16 +17905,16 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="212"/>
-      <c r="B112" s="259"/>
-      <c r="C112" s="273"/>
-      <c r="D112" s="283"/>
+      <c r="B112" s="274"/>
+      <c r="C112" s="268"/>
+      <c r="D112" s="284"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H112" s="156" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I112" s="157"/>
       <c r="J112" s="157"/>
@@ -17674,18 +17922,16 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="212"/>
-      <c r="B113" s="259"/>
-      <c r="C113" s="273"/>
-      <c r="D113" s="165" t="s">
-        <v>9</v>
-      </c>
+      <c r="B113" s="274"/>
+      <c r="C113" s="268"/>
+      <c r="D113" s="285"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H113" s="208" t="s">
-        <v>1562</v>
+        <v>252</v>
+      </c>
+      <c r="H113" s="156" t="s">
+        <v>254</v>
       </c>
       <c r="I113" s="157"/>
       <c r="J113" s="157"/>
@@ -17693,319 +17939,322 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="212"/>
-      <c r="B114" s="259"/>
-      <c r="C114" s="273"/>
-      <c r="D114" s="258" t="s">
-        <v>1429</v>
+      <c r="B114" s="274"/>
+      <c r="C114" s="268"/>
+      <c r="D114" s="165" t="s">
+        <v>9</v>
       </c>
       <c r="E114" s="153"/>
       <c r="F114" s="161"/>
       <c r="G114" s="155" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H114" s="208" t="s">
-        <v>2155</v>
+        <v>1562</v>
       </c>
       <c r="I114" s="157"/>
       <c r="J114" s="157"/>
-      <c r="K114" s="158" t="s">
-        <v>1431</v>
-      </c>
+      <c r="K114" s="158"/>
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1">
       <c r="A115" s="212"/>
-      <c r="B115" s="259"/>
-      <c r="C115" s="273"/>
-      <c r="D115" s="259"/>
+      <c r="B115" s="274"/>
+      <c r="C115" s="268"/>
+      <c r="D115" s="273" t="s">
+        <v>1429</v>
+      </c>
       <c r="E115" s="153"/>
       <c r="F115" s="161"/>
       <c r="G115" s="155" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H115" s="208" t="s">
-        <v>2156</v>
-      </c>
-      <c r="I115" s="222"/>
-      <c r="J115" s="222"/>
-      <c r="K115" s="219"/>
+        <v>2155</v>
+      </c>
+      <c r="I115" s="157"/>
+      <c r="J115" s="157"/>
+      <c r="K115" s="158" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="212"/>
-      <c r="B116" s="259"/>
-      <c r="C116" s="274"/>
-      <c r="D116" s="260"/>
+      <c r="B116" s="274"/>
+      <c r="C116" s="268"/>
+      <c r="D116" s="274"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H116" s="208" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="I116" s="222"/>
       <c r="J116" s="222"/>
-      <c r="K116" s="158" t="s">
-        <v>1434</v>
-      </c>
+      <c r="K116" s="219"/>
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="212"/>
-      <c r="B117" s="259"/>
-      <c r="C117" s="272" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D117" s="258" t="s">
-        <v>1436</v>
-      </c>
+      <c r="B117" s="274"/>
+      <c r="C117" s="269"/>
+      <c r="D117" s="275"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
-        <v>10</v>
+        <v>1433</v>
       </c>
       <c r="H117" s="208" t="s">
-        <v>1562</v>
+        <v>2157</v>
       </c>
       <c r="I117" s="222"/>
       <c r="J117" s="222"/>
-      <c r="K117" s="158"/>
+      <c r="K117" s="158" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="212"/>
-      <c r="B118" s="259"/>
-      <c r="C118" s="273"/>
-      <c r="D118" s="260"/>
+      <c r="B118" s="274"/>
+      <c r="C118" s="267" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D118" s="273" t="s">
+        <v>1436</v>
+      </c>
       <c r="E118" s="153"/>
       <c r="F118" s="161"/>
       <c r="G118" s="155" t="s">
-        <v>1437</v>
+        <v>10</v>
       </c>
       <c r="H118" s="208" t="s">
         <v>1562</v>
       </c>
       <c r="I118" s="222"/>
       <c r="J118" s="222"/>
-      <c r="K118" s="158" t="s">
-        <v>1438</v>
-      </c>
+      <c r="K118" s="158"/>
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B119" s="259"/>
-      <c r="C119" s="273"/>
-      <c r="D119" s="165" t="s">
-        <v>1439</v>
-      </c>
+      <c r="A119" s="212"/>
+      <c r="B119" s="274"/>
+      <c r="C119" s="268"/>
+      <c r="D119" s="275"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="H119" s="208" t="s">
         <v>1562</v>
       </c>
       <c r="I119" s="222"/>
       <c r="J119" s="222"/>
-      <c r="K119" s="189" t="s">
-        <v>1441</v>
+      <c r="K119" s="158" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="259"/>
-      <c r="C120" s="273"/>
+      <c r="B120" s="274"/>
+      <c r="C120" s="268"/>
       <c r="D120" s="165" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E120" s="153"/>
       <c r="F120" s="161"/>
       <c r="G120" s="155" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H120" s="208" t="s">
         <v>1562</v>
       </c>
       <c r="I120" s="222"/>
       <c r="J120" s="222"/>
-      <c r="K120" s="158"/>
+      <c r="K120" s="189" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="259"/>
-      <c r="C121" s="273"/>
-      <c r="D121" s="223" t="s">
-        <v>1444</v>
+      <c r="B121" s="274"/>
+      <c r="C121" s="268"/>
+      <c r="D121" s="165" t="s">
+        <v>1442</v>
       </c>
       <c r="E121" s="153"/>
       <c r="F121" s="161"/>
       <c r="G121" s="155" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H121" s="208" t="s">
         <v>1562</v>
       </c>
       <c r="I121" s="222"/>
       <c r="J121" s="222"/>
-      <c r="K121" s="224" t="s">
-        <v>2243</v>
-      </c>
+      <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="259"/>
-      <c r="C122" s="273"/>
-      <c r="D122" s="258" t="s">
-        <v>172</v>
+      <c r="B122" s="274"/>
+      <c r="C122" s="268"/>
+      <c r="D122" s="223" t="s">
+        <v>1444</v>
       </c>
       <c r="E122" s="153"/>
       <c r="F122" s="161"/>
       <c r="G122" s="155" t="s">
-        <v>175</v>
+        <v>1445</v>
       </c>
       <c r="H122" s="208" t="s">
-        <v>2158</v>
+        <v>1562</v>
       </c>
       <c r="I122" s="222"/>
       <c r="J122" s="222"/>
-      <c r="K122" s="189"/>
+      <c r="K122" s="224" t="s">
+        <v>2243</v>
+      </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="259"/>
-      <c r="C123" s="273"/>
-      <c r="D123" s="259"/>
+      <c r="B123" s="274"/>
+      <c r="C123" s="268"/>
+      <c r="D123" s="273" t="s">
+        <v>172</v>
+      </c>
       <c r="E123" s="153"/>
       <c r="F123" s="161"/>
       <c r="G123" s="155" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="H123" s="208" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="I123" s="222"/>
       <c r="J123" s="222"/>
-      <c r="K123" s="189" t="s">
-        <v>1441</v>
-      </c>
+      <c r="K123" s="189"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="259"/>
-      <c r="C124" s="273"/>
-      <c r="D124" s="259"/>
+      <c r="B124" s="274"/>
+      <c r="C124" s="268"/>
+      <c r="D124" s="274"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
-        <v>1445</v>
+        <v>12</v>
       </c>
       <c r="H124" s="208" t="s">
-        <v>1562</v>
+        <v>2159</v>
       </c>
       <c r="I124" s="222"/>
       <c r="J124" s="222"/>
-      <c r="K124" s="189"/>
+      <c r="K124" s="189" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="259"/>
-      <c r="C125" s="273"/>
-      <c r="D125" s="260"/>
+      <c r="B125" s="274"/>
+      <c r="C125" s="268"/>
+      <c r="D125" s="274"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
-        <v>11</v>
+        <v>1445</v>
       </c>
       <c r="H125" s="208" t="s">
-        <v>2160</v>
+        <v>1562</v>
       </c>
       <c r="I125" s="222"/>
       <c r="J125" s="222"/>
-      <c r="K125" s="189" t="s">
-        <v>1441</v>
-      </c>
+      <c r="K125" s="189"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="259"/>
-      <c r="C126" s="273"/>
-      <c r="D126" s="275" t="s">
-        <v>1446</v>
-      </c>
+      <c r="B126" s="274"/>
+      <c r="C126" s="268"/>
+      <c r="D126" s="275"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
-        <v>1447</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H126" s="208" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I126" s="222"/>
       <c r="J126" s="222"/>
-      <c r="K126" s="189"/>
+      <c r="K126" s="189" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="259"/>
-      <c r="C127" s="273"/>
-      <c r="D127" s="276"/>
+      <c r="B127" s="274"/>
+      <c r="C127" s="268"/>
+      <c r="D127" s="271" t="s">
+        <v>1446</v>
+      </c>
       <c r="E127" s="153"/>
       <c r="F127" s="161"/>
       <c r="G127" s="155" t="s">
-        <v>1448</v>
-      </c>
-      <c r="H127" s="208" t="s">
-        <v>2161</v>
-      </c>
-      <c r="I127" s="226" t="s">
-        <v>2162</v>
+        <v>1447</v>
       </c>
       <c r="J127" s="222"/>
-      <c r="K127" s="189" t="s">
-        <v>1441</v>
-      </c>
+      <c r="K127" s="189"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="259"/>
-      <c r="C128" s="273"/>
-      <c r="D128" s="258" t="s">
-        <v>1449</v>
-      </c>
+      <c r="B128" s="274"/>
+      <c r="C128" s="268"/>
+      <c r="D128" s="280"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
-        <v>174</v>
-      </c>
-      <c r="H128" s="156"/>
-      <c r="I128" s="222"/>
+        <v>1448</v>
+      </c>
+      <c r="H128" s="208" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I128" s="226" t="s">
+        <v>2162</v>
+      </c>
       <c r="J128" s="222"/>
-      <c r="K128" s="189"/>
+      <c r="K128" s="189" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="259"/>
-      <c r="C129" s="273"/>
-      <c r="D129" s="259"/>
+      <c r="B129" s="274"/>
+      <c r="C129" s="268"/>
+      <c r="D129" s="273" t="s">
+        <v>1449</v>
+      </c>
       <c r="E129" s="153"/>
       <c r="F129" s="161"/>
-      <c r="G129" s="227" t="s">
-        <v>1450</v>
+      <c r="G129" s="155" t="s">
+        <v>174</v>
       </c>
       <c r="H129" s="156"/>
       <c r="I129" s="222"/>
       <c r="J129" s="222"/>
-      <c r="K129" s="189" t="s">
-        <v>1441</v>
-      </c>
+      <c r="K129" s="189"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="259"/>
-      <c r="C130" s="273"/>
-      <c r="D130" s="260"/>
+      <c r="B130" s="274"/>
+      <c r="C130" s="268"/>
+      <c r="D130" s="274"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
-      <c r="G130" s="155" t="s">
-        <v>173</v>
+      <c r="G130" s="227" t="s">
+        <v>1450</v>
       </c>
       <c r="H130" s="156"/>
-      <c r="I130" s="157"/>
-      <c r="J130" s="157"/>
-      <c r="K130" s="158"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="189" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="259"/>
-      <c r="C131" s="273"/>
-      <c r="D131" s="290" t="s">
-        <v>167</v>
-      </c>
+      <c r="B131" s="274"/>
+      <c r="C131" s="268"/>
+      <c r="D131" s="275"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H131" s="156"/>
       <c r="I131" s="157"/>
@@ -18013,13 +18262,15 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B132" s="259"/>
-      <c r="C132" s="273"/>
-      <c r="D132" s="290"/>
+      <c r="B132" s="274"/>
+      <c r="C132" s="268"/>
+      <c r="D132" s="276" t="s">
+        <v>167</v>
+      </c>
       <c r="E132" s="153"/>
       <c r="F132" s="161"/>
       <c r="G132" s="155" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H132" s="156"/>
       <c r="I132" s="157"/>
@@ -18027,49 +18278,47 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="259"/>
-      <c r="C133" s="273"/>
-      <c r="D133" s="228" t="s">
-        <v>171</v>
-      </c>
+      <c r="B133" s="274"/>
+      <c r="C133" s="268"/>
+      <c r="D133" s="276"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
-        <v>170</v>
-      </c>
-      <c r="H133" s="156" t="s">
-        <v>196</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H133" s="156"/>
       <c r="I133" s="157"/>
       <c r="J133" s="157"/>
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="259"/>
-      <c r="C134" s="273"/>
-      <c r="D134" s="258" t="s">
-        <v>13</v>
+      <c r="B134" s="274"/>
+      <c r="C134" s="268"/>
+      <c r="D134" s="228" t="s">
+        <v>171</v>
       </c>
       <c r="E134" s="153"/>
       <c r="F134" s="161"/>
       <c r="G134" s="155" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H134" s="208" t="s">
-        <v>2155</v>
+        <v>170</v>
+      </c>
+      <c r="H134" s="156" t="s">
+        <v>196</v>
       </c>
       <c r="I134" s="157"/>
       <c r="J134" s="157"/>
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="259"/>
-      <c r="C135" s="273"/>
-      <c r="D135" s="259"/>
+      <c r="B135" s="274"/>
+      <c r="C135" s="268"/>
+      <c r="D135" s="273" t="s">
+        <v>13</v>
+      </c>
       <c r="E135" s="153"/>
       <c r="F135" s="161"/>
       <c r="G135" s="155" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H135" s="208" t="s">
         <v>2155</v>
@@ -18079,13 +18328,13 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="259"/>
-      <c r="C136" s="273"/>
-      <c r="D136" s="259"/>
+      <c r="B136" s="274"/>
+      <c r="C136" s="268"/>
+      <c r="D136" s="274"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
-        <v>14</v>
+        <v>1452</v>
       </c>
       <c r="H136" s="208" t="s">
         <v>2155</v>
@@ -18095,13 +18344,13 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="259"/>
-      <c r="C137" s="273"/>
-      <c r="D137" s="259"/>
+      <c r="B137" s="274"/>
+      <c r="C137" s="268"/>
+      <c r="D137" s="274"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
-        <v>1282</v>
+        <v>14</v>
       </c>
       <c r="H137" s="208" t="s">
         <v>2155</v>
@@ -18111,13 +18360,13 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="259"/>
-      <c r="C138" s="273"/>
-      <c r="D138" s="259"/>
+      <c r="B138" s="274"/>
+      <c r="C138" s="268"/>
+      <c r="D138" s="274"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
-        <v>1453</v>
+        <v>1282</v>
       </c>
       <c r="H138" s="208" t="s">
         <v>2155</v>
@@ -18127,13 +18376,13 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="259"/>
-      <c r="C139" s="273"/>
-      <c r="D139" s="259"/>
+      <c r="B139" s="274"/>
+      <c r="C139" s="268"/>
+      <c r="D139" s="274"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
-        <v>15</v>
+        <v>1453</v>
       </c>
       <c r="H139" s="208" t="s">
         <v>2155</v>
@@ -18143,13 +18392,13 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="259"/>
-      <c r="C140" s="273"/>
-      <c r="D140" s="259"/>
+      <c r="B140" s="274"/>
+      <c r="C140" s="268"/>
+      <c r="D140" s="274"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140" s="208" t="s">
         <v>2155</v>
@@ -18159,13 +18408,13 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="259"/>
-      <c r="C141" s="274"/>
-      <c r="D141" s="260"/>
+      <c r="B141" s="274"/>
+      <c r="C141" s="268"/>
+      <c r="D141" s="274"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H141" s="208" t="s">
         <v>2155</v>
@@ -18175,269 +18424,269 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="259"/>
-      <c r="C142" s="272" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="258" t="s">
-        <v>19</v>
-      </c>
+      <c r="B142" s="274"/>
+      <c r="C142" s="269"/>
+      <c r="D142" s="275"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H142" s="208" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
       <c r="I142" s="157"/>
       <c r="J142" s="157"/>
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="259"/>
-      <c r="C143" s="273"/>
-      <c r="D143" s="259"/>
+      <c r="B143" s="274"/>
+      <c r="C143" s="267" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="273" t="s">
+        <v>19</v>
+      </c>
       <c r="E143" s="153"/>
       <c r="F143" s="161"/>
       <c r="G143" s="155" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H143" s="208" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="I143" s="157"/>
       <c r="J143" s="157"/>
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="259"/>
-      <c r="C144" s="273"/>
-      <c r="D144" s="260"/>
+      <c r="B144" s="274"/>
+      <c r="C144" s="268"/>
+      <c r="D144" s="274"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H144" s="208" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="I144" s="157"/>
       <c r="J144" s="157"/>
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="259"/>
-      <c r="C145" s="273"/>
-      <c r="D145" s="258" t="s">
-        <v>21</v>
-      </c>
+      <c r="B145" s="274"/>
+      <c r="C145" s="268"/>
+      <c r="D145" s="275"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H145" s="208" t="s">
-        <v>2156</v>
+        <v>2165</v>
       </c>
       <c r="I145" s="157"/>
       <c r="J145" s="157"/>
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="259"/>
-      <c r="C146" s="273"/>
-      <c r="D146" s="260"/>
+      <c r="B146" s="274"/>
+      <c r="C146" s="268"/>
+      <c r="D146" s="273" t="s">
+        <v>21</v>
+      </c>
       <c r="E146" s="153"/>
       <c r="F146" s="161"/>
       <c r="G146" s="155" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" s="156" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H146" s="208" t="s">
+        <v>2156</v>
       </c>
       <c r="I146" s="157"/>
       <c r="J146" s="157"/>
-      <c r="K146" s="189"/>
+      <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="259"/>
-      <c r="C147" s="274"/>
-      <c r="D147" s="165" t="s">
-        <v>27</v>
-      </c>
+      <c r="B147" s="274"/>
+      <c r="C147" s="268"/>
+      <c r="D147" s="275"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
-        <v>28</v>
-      </c>
-      <c r="H147" s="208" t="s">
-        <v>2155</v>
+        <v>23</v>
+      </c>
+      <c r="H147" s="156" t="s">
+        <v>24</v>
       </c>
       <c r="I147" s="157"/>
       <c r="J147" s="157"/>
-      <c r="K147" s="158"/>
+      <c r="K147" s="189"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="259"/>
-      <c r="C148" s="272" t="s">
-        <v>29</v>
-      </c>
-      <c r="D148" s="258" t="s">
-        <v>30</v>
+      <c r="B148" s="274"/>
+      <c r="C148" s="269"/>
+      <c r="D148" s="165" t="s">
+        <v>27</v>
       </c>
       <c r="E148" s="153"/>
       <c r="F148" s="161"/>
       <c r="G148" s="155" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H148" s="208" t="s">
-        <v>1562</v>
+        <v>2155</v>
       </c>
       <c r="I148" s="157"/>
       <c r="J148" s="157"/>
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="259"/>
-      <c r="C149" s="273"/>
-      <c r="D149" s="259"/>
+      <c r="B149" s="274"/>
+      <c r="C149" s="267" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="273" t="s">
+        <v>30</v>
+      </c>
       <c r="E149" s="153"/>
       <c r="F149" s="161"/>
       <c r="G149" s="155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H149" s="208" t="s">
-        <v>2159</v>
+        <v>1562</v>
       </c>
       <c r="I149" s="157"/>
       <c r="J149" s="157"/>
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="259"/>
-      <c r="C150" s="273"/>
-      <c r="D150" s="259"/>
+      <c r="B150" s="274"/>
+      <c r="C150" s="268"/>
+      <c r="D150" s="274"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
       <c r="G150" s="155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150" s="208" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="I150" s="157"/>
       <c r="J150" s="157"/>
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="259"/>
-      <c r="C151" s="273"/>
-      <c r="D151" s="260"/>
+      <c r="B151" s="274"/>
+      <c r="C151" s="268"/>
+      <c r="D151" s="274"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
       <c r="G151" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="H151" s="156"/>
+        <v>32</v>
+      </c>
+      <c r="H151" s="208" t="s">
+        <v>2166</v>
+      </c>
       <c r="I151" s="157"/>
       <c r="J151" s="157"/>
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="259"/>
-      <c r="C152" s="273"/>
-      <c r="D152" s="275" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" s="229"/>
-      <c r="F152" s="230"/>
+      <c r="B152" s="274"/>
+      <c r="C152" s="268"/>
+      <c r="D152" s="275"/>
+      <c r="E152" s="153"/>
+      <c r="F152" s="161"/>
       <c r="G152" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="H152" s="208" t="s">
-        <v>2210</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H152" s="156"/>
       <c r="I152" s="157"/>
       <c r="J152" s="157"/>
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="259"/>
-      <c r="C153" s="273"/>
-      <c r="D153" s="276"/>
+      <c r="B153" s="274"/>
+      <c r="C153" s="268"/>
+      <c r="D153" s="271" t="s">
+        <v>35</v>
+      </c>
       <c r="E153" s="229"/>
       <c r="F153" s="230"/>
       <c r="G153" s="155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H153" s="208" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="I153" s="157"/>
       <c r="J153" s="157"/>
       <c r="K153" s="158"/>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="259"/>
-      <c r="C154" s="273"/>
-      <c r="D154" s="165" t="s">
-        <v>38</v>
-      </c>
-      <c r="E154" s="153"/>
-      <c r="F154" s="161"/>
+      <c r="B154" s="274"/>
+      <c r="C154" s="268"/>
+      <c r="D154" s="280"/>
+      <c r="E154" s="229"/>
+      <c r="F154" s="230"/>
       <c r="G154" s="155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H154" s="208" t="s">
-        <v>1562</v>
+        <v>2211</v>
       </c>
       <c r="I154" s="157"/>
       <c r="J154" s="157"/>
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="259"/>
-      <c r="C155" s="273"/>
+      <c r="B155" s="274"/>
+      <c r="C155" s="268"/>
       <c r="D155" s="165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E155" s="153"/>
       <c r="F155" s="161"/>
       <c r="G155" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="H155" s="156"/>
+        <v>39</v>
+      </c>
+      <c r="H155" s="208" t="s">
+        <v>1562</v>
+      </c>
       <c r="I155" s="157"/>
       <c r="J155" s="157"/>
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B156" s="259"/>
-      <c r="C156" s="273"/>
-      <c r="D156" s="258" t="s">
-        <v>42</v>
+      <c r="B156" s="274"/>
+      <c r="C156" s="268"/>
+      <c r="D156" s="165" t="s">
+        <v>40</v>
       </c>
       <c r="E156" s="153"/>
       <c r="F156" s="161"/>
       <c r="G156" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="H156" s="208" t="s">
-        <v>2156</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H156" s="156"/>
       <c r="I156" s="157"/>
       <c r="J156" s="157"/>
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="259"/>
-      <c r="C157" s="273"/>
-      <c r="D157" s="259"/>
+      <c r="B157" s="274"/>
+      <c r="C157" s="268"/>
+      <c r="D157" s="273" t="s">
+        <v>42</v>
+      </c>
       <c r="E157" s="153"/>
       <c r="F157" s="161"/>
       <c r="G157" s="155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H157" s="208" t="s">
         <v>2156</v>
@@ -18447,13 +18696,13 @@
       <c r="K157" s="158"/>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="259"/>
-      <c r="C158" s="273"/>
-      <c r="D158" s="259"/>
+      <c r="B158" s="274"/>
+      <c r="C158" s="268"/>
+      <c r="D158" s="274"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H158" s="208" t="s">
         <v>2156</v>
@@ -18463,13 +18712,13 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B159" s="259"/>
-      <c r="C159" s="273"/>
-      <c r="D159" s="259"/>
+      <c r="B159" s="274"/>
+      <c r="C159" s="268"/>
+      <c r="D159" s="274"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H159" s="208" t="s">
         <v>2156</v>
@@ -18479,13 +18728,13 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="259"/>
-      <c r="C160" s="273"/>
-      <c r="D160" s="259"/>
+      <c r="B160" s="274"/>
+      <c r="C160" s="268"/>
+      <c r="D160" s="274"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H160" s="208" t="s">
         <v>2156</v>
@@ -18495,13 +18744,13 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="259"/>
-      <c r="C161" s="273"/>
-      <c r="D161" s="259"/>
+      <c r="B161" s="274"/>
+      <c r="C161" s="268"/>
+      <c r="D161" s="274"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H161" s="208" t="s">
         <v>2156</v>
@@ -18511,13 +18760,13 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B162" s="259"/>
-      <c r="C162" s="273"/>
-      <c r="D162" s="259"/>
+      <c r="B162" s="274"/>
+      <c r="C162" s="268"/>
+      <c r="D162" s="274"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H162" s="208" t="s">
         <v>2156</v>
@@ -18527,13 +18776,13 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B163" s="259"/>
-      <c r="C163" s="273"/>
-      <c r="D163" s="259"/>
+      <c r="B163" s="274"/>
+      <c r="C163" s="268"/>
+      <c r="D163" s="274"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H163" s="208" t="s">
         <v>2156</v>
@@ -18543,13 +18792,13 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="259"/>
-      <c r="C164" s="273"/>
-      <c r="D164" s="259"/>
+      <c r="B164" s="274"/>
+      <c r="C164" s="268"/>
+      <c r="D164" s="274"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H164" s="208" t="s">
         <v>2156</v>
@@ -18559,47 +18808,49 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="259"/>
-      <c r="C165" s="274"/>
-      <c r="D165" s="260"/>
+      <c r="B165" s="274"/>
+      <c r="C165" s="268"/>
+      <c r="D165" s="274"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H165" s="208" t="s">
-        <v>2212</v>
-      </c>
-      <c r="I165" s="231"/>
+        <v>2156</v>
+      </c>
+      <c r="I165" s="157"/>
       <c r="J165" s="157"/>
-      <c r="K165" s="232"/>
-    </row>
-    <row r="166" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B166" s="259"/>
-      <c r="C166" s="272" t="s">
-        <v>53</v>
-      </c>
-      <c r="D166" s="258" t="s">
-        <v>107</v>
-      </c>
+      <c r="K165" s="158"/>
+    </row>
+    <row r="166" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B166" s="274"/>
+      <c r="C166" s="269"/>
+      <c r="D166" s="275"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="H166" s="156"/>
-      <c r="I166" s="157"/>
+        <v>52</v>
+      </c>
+      <c r="H166" s="208" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I166" s="231"/>
       <c r="J166" s="157"/>
-      <c r="K166" s="158"/>
+      <c r="K166" s="232"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="259"/>
-      <c r="C167" s="273"/>
-      <c r="D167" s="259"/>
+      <c r="B167" s="274"/>
+      <c r="C167" s="267" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="273" t="s">
+        <v>107</v>
+      </c>
       <c r="E167" s="153"/>
       <c r="F167" s="161"/>
       <c r="G167" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H167" s="156"/>
       <c r="I167" s="157"/>
@@ -18607,13 +18858,13 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="259"/>
-      <c r="C168" s="273"/>
-      <c r="D168" s="259"/>
+      <c r="B168" s="274"/>
+      <c r="C168" s="268"/>
+      <c r="D168" s="274"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H168" s="156"/>
       <c r="I168" s="157"/>
@@ -18621,13 +18872,13 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="259"/>
-      <c r="C169" s="273"/>
-      <c r="D169" s="259"/>
+      <c r="B169" s="274"/>
+      <c r="C169" s="268"/>
+      <c r="D169" s="274"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H169" s="156"/>
       <c r="I169" s="157"/>
@@ -18635,13 +18886,13 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="259"/>
-      <c r="C170" s="273"/>
-      <c r="D170" s="259"/>
+      <c r="B170" s="274"/>
+      <c r="C170" s="268"/>
+      <c r="D170" s="274"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H170" s="156"/>
       <c r="I170" s="157"/>
@@ -18649,13 +18900,13 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="259"/>
-      <c r="C171" s="273"/>
-      <c r="D171" s="259"/>
+      <c r="B171" s="274"/>
+      <c r="C171" s="268"/>
+      <c r="D171" s="274"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H171" s="156"/>
       <c r="I171" s="157"/>
@@ -18663,13 +18914,13 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="259"/>
-      <c r="C172" s="273"/>
-      <c r="D172" s="259"/>
+      <c r="B172" s="274"/>
+      <c r="C172" s="268"/>
+      <c r="D172" s="274"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H172" s="156"/>
       <c r="I172" s="157"/>
@@ -18677,13 +18928,13 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="259"/>
-      <c r="C173" s="273"/>
-      <c r="D173" s="259"/>
+      <c r="B173" s="274"/>
+      <c r="C173" s="268"/>
+      <c r="D173" s="274"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H173" s="156"/>
       <c r="I173" s="157"/>
@@ -18691,13 +18942,13 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="259"/>
-      <c r="C174" s="273"/>
-      <c r="D174" s="260"/>
+      <c r="B174" s="274"/>
+      <c r="C174" s="268"/>
+      <c r="D174" s="274"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H174" s="156"/>
       <c r="I174" s="157"/>
@@ -18705,15 +18956,13 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="259"/>
-      <c r="C175" s="273"/>
-      <c r="D175" s="258" t="s">
-        <v>109</v>
-      </c>
+      <c r="B175" s="274"/>
+      <c r="C175" s="268"/>
+      <c r="D175" s="275"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="H175" s="156"/>
       <c r="I175" s="157"/>
@@ -18721,13 +18970,15 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="259"/>
-      <c r="C176" s="273"/>
-      <c r="D176" s="259"/>
+      <c r="B176" s="274"/>
+      <c r="C176" s="268"/>
+      <c r="D176" s="273" t="s">
+        <v>109</v>
+      </c>
       <c r="E176" s="153"/>
       <c r="F176" s="161"/>
       <c r="G176" s="155" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="H176" s="156"/>
       <c r="I176" s="157"/>
@@ -18735,13 +18986,13 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="259"/>
-      <c r="C177" s="273"/>
-      <c r="D177" s="259"/>
+      <c r="B177" s="274"/>
+      <c r="C177" s="268"/>
+      <c r="D177" s="274"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H177" s="156"/>
       <c r="I177" s="157"/>
@@ -18749,13 +19000,13 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="259"/>
-      <c r="C178" s="273"/>
-      <c r="D178" s="259"/>
+      <c r="B178" s="274"/>
+      <c r="C178" s="268"/>
+      <c r="D178" s="274"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H178" s="156"/>
       <c r="I178" s="157"/>
@@ -18763,13 +19014,13 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="259"/>
-      <c r="C179" s="273"/>
-      <c r="D179" s="259"/>
+      <c r="B179" s="274"/>
+      <c r="C179" s="268"/>
+      <c r="D179" s="274"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H179" s="156"/>
       <c r="I179" s="157"/>
@@ -18777,13 +19028,13 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="259"/>
-      <c r="C180" s="273"/>
-      <c r="D180" s="259"/>
+      <c r="B180" s="274"/>
+      <c r="C180" s="268"/>
+      <c r="D180" s="274"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H180" s="156"/>
       <c r="I180" s="157"/>
@@ -18791,13 +19042,13 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="259"/>
-      <c r="C181" s="273"/>
-      <c r="D181" s="259"/>
+      <c r="B181" s="274"/>
+      <c r="C181" s="268"/>
+      <c r="D181" s="274"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H181" s="156"/>
       <c r="I181" s="157"/>
@@ -18805,29 +19056,27 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="259"/>
-      <c r="C182" s="274"/>
-      <c r="D182" s="260"/>
+      <c r="B182" s="274"/>
+      <c r="C182" s="268"/>
+      <c r="D182" s="274"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H182" s="156"/>
       <c r="I182" s="157"/>
       <c r="J182" s="157"/>
       <c r="K182" s="158"/>
     </row>
-    <row r="183" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B183" s="259"/>
-      <c r="C183" s="267" t="s">
-        <v>54</v>
-      </c>
-      <c r="D183" s="165"/>
+    <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
+      <c r="B183" s="274"/>
+      <c r="C183" s="269"/>
+      <c r="D183" s="275"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="H183" s="156"/>
       <c r="I183" s="157"/>
@@ -18835,15 +19084,15 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="259"/>
-      <c r="C184" s="268"/>
-      <c r="D184" s="233" t="s">
-        <v>157</v>
-      </c>
-      <c r="E184" s="224"/>
-      <c r="F184" s="234"/>
-      <c r="G184" s="172" t="s">
-        <v>157</v>
+      <c r="B184" s="274"/>
+      <c r="C184" s="277" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="165"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="161"/>
+      <c r="G184" s="155" t="s">
+        <v>55</v>
       </c>
       <c r="H184" s="156"/>
       <c r="I184" s="157"/>
@@ -18851,13 +19100,15 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="259"/>
-      <c r="C185" s="268"/>
-      <c r="D185" s="235"/>
+      <c r="B185" s="274"/>
+      <c r="C185" s="278"/>
+      <c r="D185" s="233" t="s">
+        <v>157</v>
+      </c>
       <c r="E185" s="224"/>
       <c r="F185" s="234"/>
       <c r="G185" s="172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H185" s="156"/>
       <c r="I185" s="157"/>
@@ -18865,24 +19116,24 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="259"/>
-      <c r="C186" s="268"/>
-      <c r="D186" s="166" t="s">
-        <v>159</v>
-      </c>
-      <c r="E186" s="153"/>
-      <c r="F186" s="161"/>
-      <c r="G186" s="236"/>
+      <c r="B186" s="274"/>
+      <c r="C186" s="278"/>
+      <c r="D186" s="235"/>
+      <c r="E186" s="224"/>
+      <c r="F186" s="234"/>
+      <c r="G186" s="172" t="s">
+        <v>158</v>
+      </c>
       <c r="H186" s="156"/>
       <c r="I186" s="157"/>
       <c r="J186" s="157"/>
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="259"/>
-      <c r="C187" s="268"/>
+      <c r="B187" s="274"/>
+      <c r="C187" s="278"/>
       <c r="D187" s="166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E187" s="153"/>
       <c r="F187" s="161"/>
@@ -18893,10 +19144,10 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="259"/>
-      <c r="C188" s="268"/>
+      <c r="B188" s="274"/>
+      <c r="C188" s="278"/>
       <c r="D188" s="166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E188" s="153"/>
       <c r="F188" s="161"/>
@@ -18907,10 +19158,10 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="259"/>
-      <c r="C189" s="268"/>
+      <c r="B189" s="274"/>
+      <c r="C189" s="278"/>
       <c r="D189" s="166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E189" s="153"/>
       <c r="F189" s="161"/>
@@ -18920,11 +19171,11 @@
       <c r="J189" s="157"/>
       <c r="K189" s="158"/>
     </row>
-    <row r="190" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B190" s="259"/>
-      <c r="C190" s="268"/>
-      <c r="D190" s="237" t="s">
-        <v>197</v>
+    <row r="190" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B190" s="274"/>
+      <c r="C190" s="278"/>
+      <c r="D190" s="166" t="s">
+        <v>162</v>
       </c>
       <c r="E190" s="153"/>
       <c r="F190" s="161"/>
@@ -18934,11 +19185,11 @@
       <c r="J190" s="157"/>
       <c r="K190" s="158"/>
     </row>
-    <row r="191" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B191" s="259"/>
-      <c r="C191" s="268"/>
-      <c r="D191" s="166" t="s">
-        <v>163</v>
+    <row r="191" spans="2:11" ht="37.5" customHeight="1">
+      <c r="B191" s="274"/>
+      <c r="C191" s="278"/>
+      <c r="D191" s="237" t="s">
+        <v>197</v>
       </c>
       <c r="E191" s="153"/>
       <c r="F191" s="161"/>
@@ -18949,10 +19200,10 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="260"/>
-      <c r="C192" s="269"/>
+      <c r="B192" s="274"/>
+      <c r="C192" s="278"/>
       <c r="D192" s="166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E192" s="153"/>
       <c r="F192" s="161"/>
@@ -18963,35 +19214,33 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="270" t="s">
-        <v>129</v>
-      </c>
-      <c r="C193" s="272" t="s">
-        <v>57</v>
-      </c>
-      <c r="D193" s="258" t="s">
-        <v>56</v>
+      <c r="B193" s="275"/>
+      <c r="C193" s="279"/>
+      <c r="D193" s="166" t="s">
+        <v>164</v>
       </c>
       <c r="E193" s="153"/>
       <c r="F193" s="161"/>
-      <c r="G193" s="155" t="s">
-        <v>55</v>
-      </c>
-      <c r="H193" s="208" t="s">
-        <v>1562</v>
-      </c>
+      <c r="G193" s="236"/>
+      <c r="H193" s="156"/>
       <c r="I193" s="157"/>
       <c r="J193" s="157"/>
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="271"/>
-      <c r="C194" s="273"/>
-      <c r="D194" s="260"/>
+      <c r="B194" s="261" t="s">
+        <v>129</v>
+      </c>
+      <c r="C194" s="267" t="s">
+        <v>57</v>
+      </c>
+      <c r="D194" s="273" t="s">
+        <v>56</v>
+      </c>
       <c r="E194" s="153"/>
       <c r="F194" s="161"/>
       <c r="G194" s="155" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H194" s="208" t="s">
         <v>1562</v>
@@ -19001,31 +19250,31 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="271"/>
-      <c r="C195" s="273"/>
-      <c r="D195" s="165" t="s">
-        <v>59</v>
-      </c>
+      <c r="B195" s="262"/>
+      <c r="C195" s="268"/>
+      <c r="D195" s="275"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
-        <v>60</v>
-      </c>
-      <c r="H195" s="156"/>
+        <v>58</v>
+      </c>
+      <c r="H195" s="208" t="s">
+        <v>1562</v>
+      </c>
       <c r="I195" s="157"/>
       <c r="J195" s="157"/>
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="271"/>
-      <c r="C196" s="273"/>
-      <c r="D196" s="258" t="s">
-        <v>61</v>
+      <c r="B196" s="262"/>
+      <c r="C196" s="268"/>
+      <c r="D196" s="165" t="s">
+        <v>59</v>
       </c>
       <c r="E196" s="153"/>
       <c r="F196" s="161"/>
       <c r="G196" s="155" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H196" s="156"/>
       <c r="I196" s="157"/>
@@ -19033,13 +19282,15 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="271"/>
-      <c r="C197" s="273"/>
-      <c r="D197" s="259"/>
+      <c r="B197" s="262"/>
+      <c r="C197" s="268"/>
+      <c r="D197" s="273" t="s">
+        <v>61</v>
+      </c>
       <c r="E197" s="153"/>
       <c r="F197" s="161"/>
       <c r="G197" s="155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H197" s="156"/>
       <c r="I197" s="157"/>
@@ -19047,13 +19298,13 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="271"/>
-      <c r="C198" s="273"/>
-      <c r="D198" s="260"/>
+      <c r="B198" s="262"/>
+      <c r="C198" s="268"/>
+      <c r="D198" s="274"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H198" s="156"/>
       <c r="I198" s="157"/>
@@ -19061,93 +19312,93 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="271"/>
-      <c r="C199" s="273"/>
-      <c r="D199" s="258" t="s">
-        <v>65</v>
-      </c>
+      <c r="B199" s="262"/>
+      <c r="C199" s="268"/>
+      <c r="D199" s="275"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
-        <v>66</v>
-      </c>
-      <c r="H199" s="238" t="s">
-        <v>2209</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H199" s="156"/>
       <c r="I199" s="157"/>
       <c r="J199" s="157"/>
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="271"/>
-      <c r="C200" s="273"/>
-      <c r="D200" s="260"/>
+      <c r="B200" s="262"/>
+      <c r="C200" s="268"/>
+      <c r="D200" s="273" t="s">
+        <v>65</v>
+      </c>
       <c r="E200" s="153"/>
       <c r="F200" s="161"/>
       <c r="G200" s="155" t="s">
-        <v>67</v>
-      </c>
-      <c r="H200" s="156"/>
+        <v>66</v>
+      </c>
+      <c r="H200" s="238" t="s">
+        <v>2209</v>
+      </c>
       <c r="I200" s="157"/>
       <c r="J200" s="157"/>
-      <c r="K200" s="189"/>
+      <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B201" s="271"/>
-      <c r="C201" s="273"/>
-      <c r="D201" s="258" t="s">
-        <v>68</v>
-      </c>
+      <c r="B201" s="262"/>
+      <c r="C201" s="268"/>
+      <c r="D201" s="275"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H201" s="156"/>
       <c r="I201" s="157"/>
       <c r="J201" s="157"/>
-      <c r="K201" s="158"/>
+      <c r="K201" s="189"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="271"/>
-      <c r="C202" s="273"/>
-      <c r="D202" s="260"/>
+      <c r="B202" s="262"/>
+      <c r="C202" s="268"/>
+      <c r="D202" s="273" t="s">
+        <v>68</v>
+      </c>
       <c r="E202" s="153"/>
       <c r="F202" s="161"/>
       <c r="G202" s="155" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H202" s="156"/>
-      <c r="I202" s="222" t="s">
-        <v>180</v>
-      </c>
-      <c r="J202" s="222"/>
+      <c r="I202" s="157"/>
+      <c r="J202" s="157"/>
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="271"/>
-      <c r="C203" s="273"/>
-      <c r="D203" s="258" t="s">
-        <v>70</v>
-      </c>
+      <c r="B203" s="262"/>
+      <c r="C203" s="268"/>
+      <c r="D203" s="275"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H203" s="156"/>
-      <c r="I203" s="222"/>
+      <c r="I203" s="222" t="s">
+        <v>180</v>
+      </c>
       <c r="J203" s="222"/>
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="271"/>
-      <c r="C204" s="273"/>
-      <c r="D204" s="259"/>
+      <c r="B204" s="262"/>
+      <c r="C204" s="268"/>
+      <c r="D204" s="273" t="s">
+        <v>70</v>
+      </c>
       <c r="E204" s="153"/>
       <c r="F204" s="161"/>
       <c r="G204" s="155" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H204" s="156"/>
       <c r="I204" s="222"/>
@@ -19155,13 +19406,13 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="271"/>
-      <c r="C205" s="273"/>
-      <c r="D205" s="259"/>
+      <c r="B205" s="262"/>
+      <c r="C205" s="268"/>
+      <c r="D205" s="274"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H205" s="156"/>
       <c r="I205" s="222"/>
@@ -19169,13 +19420,13 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="271"/>
-      <c r="C206" s="273"/>
-      <c r="D206" s="259"/>
+      <c r="B206" s="262"/>
+      <c r="C206" s="268"/>
+      <c r="D206" s="274"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H206" s="156"/>
       <c r="I206" s="222"/>
@@ -19183,59 +19434,59 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="271"/>
-      <c r="C207" s="273"/>
-      <c r="D207" s="259"/>
+      <c r="B207" s="262"/>
+      <c r="C207" s="268"/>
+      <c r="D207" s="274"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H207" s="156"/>
       <c r="I207" s="222"/>
       <c r="J207" s="222"/>
       <c r="K207" s="158"/>
     </row>
-    <row r="208" spans="2:11" ht="30" customHeight="1">
-      <c r="B208" s="271"/>
-      <c r="C208" s="274"/>
-      <c r="D208" s="260"/>
+    <row r="208" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B208" s="262"/>
+      <c r="C208" s="268"/>
+      <c r="D208" s="274"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H208" s="156"/>
       <c r="I208" s="222"/>
       <c r="J208" s="222"/>
-      <c r="K208" s="239"/>
-    </row>
-    <row r="209" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B209" s="271"/>
-      <c r="C209" s="272" t="s">
-        <v>113</v>
-      </c>
-      <c r="D209" s="258" t="s">
-        <v>1454</v>
-      </c>
+      <c r="K208" s="158"/>
+    </row>
+    <row r="209" spans="2:11" ht="30" customHeight="1">
+      <c r="B209" s="262"/>
+      <c r="C209" s="269"/>
+      <c r="D209" s="275"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="H209" s="156"/>
-      <c r="I209" s="157"/>
-      <c r="J209" s="157"/>
-      <c r="K209" s="158"/>
+      <c r="I209" s="222"/>
+      <c r="J209" s="222"/>
+      <c r="K209" s="239"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="271"/>
-      <c r="C210" s="273"/>
-      <c r="D210" s="259"/>
+      <c r="B210" s="262"/>
+      <c r="C210" s="267" t="s">
+        <v>113</v>
+      </c>
+      <c r="D210" s="273" t="s">
+        <v>1454</v>
+      </c>
       <c r="E210" s="153"/>
       <c r="F210" s="161"/>
       <c r="G210" s="155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H210" s="156"/>
       <c r="I210" s="157"/>
@@ -19243,13 +19494,13 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="271"/>
-      <c r="C211" s="273"/>
-      <c r="D211" s="259"/>
+      <c r="B211" s="262"/>
+      <c r="C211" s="268"/>
+      <c r="D211" s="274"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H211" s="156"/>
       <c r="I211" s="157"/>
@@ -19257,13 +19508,13 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="271"/>
-      <c r="C212" s="273"/>
-      <c r="D212" s="259"/>
+      <c r="B212" s="262"/>
+      <c r="C212" s="268"/>
+      <c r="D212" s="274"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
-        <v>1455</v>
+        <v>116</v>
       </c>
       <c r="H212" s="156"/>
       <c r="I212" s="157"/>
@@ -19271,13 +19522,13 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="271"/>
-      <c r="C213" s="273"/>
-      <c r="D213" s="259"/>
+      <c r="B213" s="262"/>
+      <c r="C213" s="268"/>
+      <c r="D213" s="274"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
-      <c r="G213" s="240" t="s">
-        <v>147</v>
+      <c r="G213" s="155" t="s">
+        <v>1455</v>
       </c>
       <c r="H213" s="156"/>
       <c r="I213" s="157"/>
@@ -19285,13 +19536,13 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="271"/>
-      <c r="C214" s="273"/>
-      <c r="D214" s="259"/>
+      <c r="B214" s="262"/>
+      <c r="C214" s="268"/>
+      <c r="D214" s="274"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="240" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H214" s="156"/>
       <c r="I214" s="157"/>
@@ -19299,13 +19550,13 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="271"/>
-      <c r="C215" s="273"/>
-      <c r="D215" s="259"/>
+      <c r="B215" s="262"/>
+      <c r="C215" s="268"/>
+      <c r="D215" s="274"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="240" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H215" s="156"/>
       <c r="I215" s="157"/>
@@ -19313,13 +19564,13 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="271"/>
-      <c r="C216" s="273"/>
-      <c r="D216" s="259"/>
+      <c r="B216" s="262"/>
+      <c r="C216" s="268"/>
+      <c r="D216" s="274"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
-      <c r="G216" s="155" t="s">
-        <v>117</v>
+      <c r="G216" s="240" t="s">
+        <v>166</v>
       </c>
       <c r="H216" s="156"/>
       <c r="I216" s="157"/>
@@ -19327,13 +19578,13 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="271"/>
-      <c r="C217" s="273"/>
-      <c r="D217" s="259"/>
+      <c r="B217" s="262"/>
+      <c r="C217" s="268"/>
+      <c r="D217" s="274"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
-        <v>1456</v>
+        <v>117</v>
       </c>
       <c r="H217" s="156"/>
       <c r="I217" s="157"/>
@@ -19341,13 +19592,13 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="271"/>
-      <c r="C218" s="273"/>
-      <c r="D218" s="259"/>
+      <c r="B218" s="262"/>
+      <c r="C218" s="268"/>
+      <c r="D218" s="274"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H218" s="156"/>
       <c r="I218" s="157"/>
@@ -19355,13 +19606,13 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="271"/>
-      <c r="C219" s="273"/>
-      <c r="D219" s="259"/>
+      <c r="B219" s="262"/>
+      <c r="C219" s="268"/>
+      <c r="D219" s="274"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
-        <v>119</v>
+        <v>1457</v>
       </c>
       <c r="H219" s="156"/>
       <c r="I219" s="157"/>
@@ -19369,13 +19620,13 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="271"/>
-      <c r="C220" s="273"/>
-      <c r="D220" s="259"/>
+      <c r="B220" s="262"/>
+      <c r="C220" s="268"/>
+      <c r="D220" s="274"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
-        <v>1458</v>
+        <v>119</v>
       </c>
       <c r="H220" s="156"/>
       <c r="I220" s="157"/>
@@ -19383,13 +19634,13 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="271"/>
-      <c r="C221" s="273"/>
-      <c r="D221" s="259"/>
+      <c r="B221" s="262"/>
+      <c r="C221" s="268"/>
+      <c r="D221" s="274"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H221" s="156"/>
       <c r="I221" s="157"/>
@@ -19397,13 +19648,13 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="271"/>
-      <c r="C222" s="273"/>
-      <c r="D222" s="259"/>
+      <c r="B222" s="262"/>
+      <c r="C222" s="268"/>
+      <c r="D222" s="274"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
-        <v>120</v>
+        <v>1459</v>
       </c>
       <c r="H222" s="156"/>
       <c r="I222" s="157"/>
@@ -19411,13 +19662,13 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="271"/>
-      <c r="C223" s="273"/>
-      <c r="D223" s="259"/>
+      <c r="B223" s="262"/>
+      <c r="C223" s="268"/>
+      <c r="D223" s="274"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
-        <v>1460</v>
+        <v>120</v>
       </c>
       <c r="H223" s="156"/>
       <c r="I223" s="157"/>
@@ -19425,13 +19676,13 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="271"/>
-      <c r="C224" s="273"/>
-      <c r="D224" s="259"/>
+      <c r="B224" s="262"/>
+      <c r="C224" s="268"/>
+      <c r="D224" s="274"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H224" s="156"/>
       <c r="I224" s="157"/>
@@ -19439,13 +19690,13 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="271"/>
-      <c r="C225" s="273"/>
-      <c r="D225" s="259"/>
+      <c r="B225" s="262"/>
+      <c r="C225" s="268"/>
+      <c r="D225" s="274"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H225" s="156"/>
       <c r="I225" s="157"/>
@@ -19453,13 +19704,13 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="271"/>
-      <c r="C226" s="273"/>
-      <c r="D226" s="259"/>
+      <c r="B226" s="262"/>
+      <c r="C226" s="268"/>
+      <c r="D226" s="274"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H226" s="156"/>
       <c r="I226" s="157"/>
@@ -19467,13 +19718,13 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="271"/>
-      <c r="C227" s="273"/>
-      <c r="D227" s="259"/>
+      <c r="B227" s="262"/>
+      <c r="C227" s="268"/>
+      <c r="D227" s="274"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H227" s="156"/>
       <c r="I227" s="157"/>
@@ -19481,13 +19732,13 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="271"/>
-      <c r="C228" s="273"/>
-      <c r="D228" s="259"/>
+      <c r="B228" s="262"/>
+      <c r="C228" s="268"/>
+      <c r="D228" s="274"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
-        <v>121</v>
+        <v>1464</v>
       </c>
       <c r="H228" s="156"/>
       <c r="I228" s="157"/>
@@ -19495,13 +19746,13 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="271"/>
-      <c r="C229" s="273"/>
-      <c r="D229" s="259"/>
+      <c r="B229" s="262"/>
+      <c r="C229" s="268"/>
+      <c r="D229" s="274"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
-        <v>1465</v>
+        <v>121</v>
       </c>
       <c r="H229" s="156"/>
       <c r="I229" s="157"/>
@@ -19509,13 +19760,13 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="271"/>
-      <c r="C230" s="273"/>
-      <c r="D230" s="259"/>
+      <c r="B230" s="262"/>
+      <c r="C230" s="268"/>
+      <c r="D230" s="274"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
-        <v>122</v>
+        <v>1465</v>
       </c>
       <c r="H230" s="156"/>
       <c r="I230" s="157"/>
@@ -19523,13 +19774,13 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="271"/>
-      <c r="C231" s="273"/>
-      <c r="D231" s="259"/>
+      <c r="B231" s="262"/>
+      <c r="C231" s="268"/>
+      <c r="D231" s="274"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
-        <v>1466</v>
+        <v>122</v>
       </c>
       <c r="H231" s="156"/>
       <c r="I231" s="157"/>
@@ -19537,13 +19788,13 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="271"/>
-      <c r="C232" s="273"/>
-      <c r="D232" s="259"/>
+      <c r="B232" s="262"/>
+      <c r="C232" s="268"/>
+      <c r="D232" s="274"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H232" s="156"/>
       <c r="I232" s="157"/>
@@ -19551,13 +19802,13 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="271"/>
-      <c r="C233" s="273"/>
-      <c r="D233" s="259"/>
+      <c r="B233" s="262"/>
+      <c r="C233" s="268"/>
+      <c r="D233" s="274"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
-        <v>123</v>
+        <v>1467</v>
       </c>
       <c r="H233" s="156"/>
       <c r="I233" s="157"/>
@@ -19565,13 +19816,13 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="271"/>
-      <c r="C234" s="273"/>
-      <c r="D234" s="259"/>
+      <c r="B234" s="262"/>
+      <c r="C234" s="268"/>
+      <c r="D234" s="274"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
-        <v>1468</v>
+        <v>123</v>
       </c>
       <c r="H234" s="156"/>
       <c r="I234" s="157"/>
@@ -19579,13 +19830,13 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="271"/>
-      <c r="C235" s="273"/>
-      <c r="D235" s="259"/>
+      <c r="B235" s="262"/>
+      <c r="C235" s="268"/>
+      <c r="D235" s="274"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H235" s="156"/>
       <c r="I235" s="157"/>
@@ -19593,13 +19844,13 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="271"/>
-      <c r="C236" s="273"/>
-      <c r="D236" s="259"/>
+      <c r="B236" s="262"/>
+      <c r="C236" s="268"/>
+      <c r="D236" s="274"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H236" s="156"/>
       <c r="I236" s="157"/>
@@ -19607,13 +19858,13 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="271"/>
-      <c r="C237" s="273"/>
-      <c r="D237" s="259"/>
+      <c r="B237" s="262"/>
+      <c r="C237" s="268"/>
+      <c r="D237" s="274"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H237" s="156"/>
       <c r="I237" s="157"/>
@@ -19621,13 +19872,13 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="271"/>
-      <c r="C238" s="273"/>
-      <c r="D238" s="259"/>
+      <c r="B238" s="262"/>
+      <c r="C238" s="268"/>
+      <c r="D238" s="274"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
-        <v>913</v>
+        <v>1471</v>
       </c>
       <c r="H238" s="156"/>
       <c r="I238" s="157"/>
@@ -19635,13 +19886,13 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="271"/>
-      <c r="C239" s="274"/>
-      <c r="D239" s="260"/>
+      <c r="B239" s="262"/>
+      <c r="C239" s="268"/>
+      <c r="D239" s="274"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
-        <v>124</v>
+        <v>913</v>
       </c>
       <c r="H239" s="156"/>
       <c r="I239" s="157"/>
@@ -19649,17 +19900,13 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="271"/>
-      <c r="C240" s="272" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D240" s="258" t="s">
-        <v>134</v>
-      </c>
+      <c r="B240" s="262"/>
+      <c r="C240" s="269"/>
+      <c r="D240" s="275"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H240" s="156"/>
       <c r="I240" s="157"/>
@@ -19667,13 +19914,17 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="271"/>
-      <c r="C241" s="273"/>
-      <c r="D241" s="259"/>
+      <c r="B241" s="262"/>
+      <c r="C241" s="267" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D241" s="273" t="s">
+        <v>134</v>
+      </c>
       <c r="E241" s="153"/>
       <c r="F241" s="161"/>
       <c r="G241" s="155" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H241" s="156"/>
       <c r="I241" s="157"/>
@@ -19681,13 +19932,13 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="271"/>
-      <c r="C242" s="273"/>
-      <c r="D242" s="259"/>
+      <c r="B242" s="262"/>
+      <c r="C242" s="268"/>
+      <c r="D242" s="274"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
-        <v>1473</v>
+        <v>114</v>
       </c>
       <c r="H242" s="156"/>
       <c r="I242" s="157"/>
@@ -19695,13 +19946,13 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="271"/>
-      <c r="C243" s="273"/>
-      <c r="D243" s="259"/>
+      <c r="B243" s="262"/>
+      <c r="C243" s="268"/>
+      <c r="D243" s="274"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
-        <v>117</v>
+        <v>1473</v>
       </c>
       <c r="H243" s="156"/>
       <c r="I243" s="157"/>
@@ -19709,13 +19960,13 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="271"/>
-      <c r="C244" s="273"/>
-      <c r="D244" s="259"/>
+      <c r="B244" s="262"/>
+      <c r="C244" s="268"/>
+      <c r="D244" s="274"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
-        <v>1474</v>
+        <v>117</v>
       </c>
       <c r="H244" s="156"/>
       <c r="I244" s="157"/>
@@ -19723,13 +19974,13 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="271"/>
-      <c r="C245" s="273"/>
-      <c r="D245" s="259"/>
+      <c r="B245" s="262"/>
+      <c r="C245" s="268"/>
+      <c r="D245" s="274"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
-        <v>116</v>
+        <v>1474</v>
       </c>
       <c r="H245" s="156"/>
       <c r="I245" s="157"/>
@@ -19737,13 +19988,13 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="271"/>
-      <c r="C246" s="273"/>
-      <c r="D246" s="259"/>
+      <c r="B246" s="262"/>
+      <c r="C246" s="268"/>
+      <c r="D246" s="274"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
-        <v>1457</v>
+        <v>116</v>
       </c>
       <c r="H246" s="156"/>
       <c r="I246" s="157"/>
@@ -19751,13 +20002,13 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="271"/>
-      <c r="C247" s="273"/>
-      <c r="D247" s="259"/>
+      <c r="B247" s="262"/>
+      <c r="C247" s="268"/>
+      <c r="D247" s="274"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
-        <v>1475</v>
+        <v>1457</v>
       </c>
       <c r="H247" s="156"/>
       <c r="I247" s="157"/>
@@ -19765,13 +20016,13 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="271"/>
-      <c r="C248" s="273"/>
-      <c r="D248" s="259"/>
+      <c r="B248" s="262"/>
+      <c r="C248" s="268"/>
+      <c r="D248" s="274"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
-        <v>125</v>
+        <v>1475</v>
       </c>
       <c r="H248" s="156"/>
       <c r="I248" s="157"/>
@@ -19779,13 +20030,13 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="271"/>
-      <c r="C249" s="273"/>
-      <c r="D249" s="259"/>
+      <c r="B249" s="262"/>
+      <c r="C249" s="268"/>
+      <c r="D249" s="274"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
-        <v>1476</v>
+        <v>125</v>
       </c>
       <c r="H249" s="156"/>
       <c r="I249" s="157"/>
@@ -19793,13 +20044,13 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="271"/>
-      <c r="C250" s="273"/>
-      <c r="D250" s="259"/>
+      <c r="B250" s="262"/>
+      <c r="C250" s="268"/>
+      <c r="D250" s="274"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
-        <v>126</v>
+        <v>1476</v>
       </c>
       <c r="H250" s="156"/>
       <c r="I250" s="157"/>
@@ -19807,13 +20058,13 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="271"/>
-      <c r="C251" s="273"/>
-      <c r="D251" s="259"/>
+      <c r="B251" s="262"/>
+      <c r="C251" s="268"/>
+      <c r="D251" s="274"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
-        <v>1470</v>
+        <v>126</v>
       </c>
       <c r="H251" s="156"/>
       <c r="I251" s="157"/>
@@ -19821,13 +20072,13 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="271"/>
-      <c r="C252" s="273"/>
-      <c r="D252" s="259"/>
+      <c r="B252" s="262"/>
+      <c r="C252" s="268"/>
+      <c r="D252" s="274"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H252" s="156"/>
       <c r="I252" s="157"/>
@@ -19835,13 +20086,13 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="271"/>
-      <c r="C253" s="273"/>
-      <c r="D253" s="259"/>
+      <c r="B253" s="262"/>
+      <c r="C253" s="268"/>
+      <c r="D253" s="274"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
-        <v>913</v>
+        <v>1471</v>
       </c>
       <c r="H253" s="156"/>
       <c r="I253" s="157"/>
@@ -19849,13 +20100,13 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="271"/>
-      <c r="C254" s="273"/>
-      <c r="D254" s="259"/>
+      <c r="B254" s="262"/>
+      <c r="C254" s="268"/>
+      <c r="D254" s="274"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
-        <v>124</v>
+        <v>913</v>
       </c>
       <c r="H254" s="156"/>
       <c r="I254" s="157"/>
@@ -19863,13 +20114,13 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="271"/>
-      <c r="C255" s="273"/>
-      <c r="D255" s="259"/>
+      <c r="B255" s="262"/>
+      <c r="C255" s="268"/>
+      <c r="D255" s="274"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
-        <v>1477</v>
+        <v>124</v>
       </c>
       <c r="H255" s="156"/>
       <c r="I255" s="157"/>
@@ -19877,13 +20128,13 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="271"/>
-      <c r="C256" s="274"/>
-      <c r="D256" s="260"/>
+      <c r="B256" s="262"/>
+      <c r="C256" s="268"/>
+      <c r="D256" s="274"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="H256" s="156"/>
       <c r="I256" s="157"/>
@@ -19891,17 +20142,13 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="271"/>
-      <c r="C257" s="267" t="s">
-        <v>127</v>
-      </c>
-      <c r="D257" s="258" t="s">
-        <v>1478</v>
-      </c>
+      <c r="B257" s="262"/>
+      <c r="C257" s="269"/>
+      <c r="D257" s="275"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
-        <v>1345</v>
+        <v>1466</v>
       </c>
       <c r="H257" s="156"/>
       <c r="I257" s="157"/>
@@ -19909,13 +20156,17 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="271"/>
-      <c r="C258" s="268"/>
-      <c r="D258" s="259"/>
+      <c r="B258" s="262"/>
+      <c r="C258" s="277" t="s">
+        <v>127</v>
+      </c>
+      <c r="D258" s="273" t="s">
+        <v>1478</v>
+      </c>
       <c r="E258" s="153"/>
-      <c r="F258" s="153"/>
+      <c r="F258" s="161"/>
       <c r="G258" s="155" t="s">
-        <v>1479</v>
+        <v>1345</v>
       </c>
       <c r="H258" s="156"/>
       <c r="I258" s="157"/>
@@ -19923,27 +20174,27 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="271"/>
-      <c r="C259" s="268"/>
-      <c r="D259" s="259"/>
+      <c r="B259" s="262"/>
+      <c r="C259" s="278"/>
+      <c r="D259" s="274"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H259" s="156"/>
-      <c r="I259" s="156"/>
-      <c r="J259" s="156"/>
+      <c r="I259" s="157"/>
+      <c r="J259" s="157"/>
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="271"/>
-      <c r="C260" s="268"/>
-      <c r="D260" s="259"/>
+      <c r="B260" s="262"/>
+      <c r="C260" s="278"/>
+      <c r="D260" s="274"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H260" s="156"/>
       <c r="I260" s="156"/>
@@ -19951,13 +20202,13 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="271"/>
-      <c r="C261" s="268"/>
-      <c r="D261" s="259"/>
+      <c r="B261" s="262"/>
+      <c r="C261" s="278"/>
+      <c r="D261" s="274"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
-        <v>147</v>
+        <v>1481</v>
       </c>
       <c r="H261" s="156"/>
       <c r="I261" s="156"/>
@@ -19965,13 +20216,13 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="271"/>
-      <c r="C262" s="268"/>
-      <c r="D262" s="259"/>
+      <c r="B262" s="262"/>
+      <c r="C262" s="278"/>
+      <c r="D262" s="274"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
-        <v>1482</v>
+        <v>147</v>
       </c>
       <c r="H262" s="156"/>
       <c r="I262" s="156"/>
@@ -19979,13 +20230,13 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="271"/>
-      <c r="C263" s="268"/>
-      <c r="D263" s="259"/>
+      <c r="B263" s="262"/>
+      <c r="C263" s="278"/>
+      <c r="D263" s="274"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
-        <v>135</v>
+        <v>1482</v>
       </c>
       <c r="H263" s="156"/>
       <c r="I263" s="156"/>
@@ -19993,13 +20244,13 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="271"/>
-      <c r="C264" s="268"/>
-      <c r="D264" s="259"/>
+      <c r="B264" s="262"/>
+      <c r="C264" s="278"/>
+      <c r="D264" s="274"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
-        <v>1483</v>
+        <v>135</v>
       </c>
       <c r="H264" s="156"/>
       <c r="I264" s="156"/>
@@ -20007,13 +20258,13 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="271"/>
-      <c r="C265" s="268"/>
-      <c r="D265" s="259"/>
+      <c r="B265" s="262"/>
+      <c r="C265" s="278"/>
+      <c r="D265" s="274"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H265" s="156"/>
       <c r="I265" s="156"/>
@@ -20021,13 +20272,13 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="271"/>
-      <c r="C266" s="268"/>
-      <c r="D266" s="259"/>
+      <c r="B266" s="262"/>
+      <c r="C266" s="278"/>
+      <c r="D266" s="274"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H266" s="156"/>
       <c r="I266" s="156"/>
@@ -20035,13 +20286,13 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="271"/>
-      <c r="C267" s="268"/>
-      <c r="D267" s="259"/>
+      <c r="B267" s="262"/>
+      <c r="C267" s="278"/>
+      <c r="D267" s="274"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H267" s="156"/>
       <c r="I267" s="156"/>
@@ -20049,13 +20300,13 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="271"/>
-      <c r="C268" s="268"/>
-      <c r="D268" s="259"/>
+      <c r="B268" s="262"/>
+      <c r="C268" s="278"/>
+      <c r="D268" s="274"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H268" s="156"/>
       <c r="I268" s="156"/>
@@ -20063,13 +20314,13 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="271"/>
-      <c r="C269" s="268"/>
-      <c r="D269" s="259"/>
+      <c r="B269" s="262"/>
+      <c r="C269" s="278"/>
+      <c r="D269" s="274"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H269" s="156"/>
       <c r="I269" s="156"/>
@@ -20077,13 +20328,13 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="271"/>
-      <c r="C270" s="268"/>
-      <c r="D270" s="259"/>
+      <c r="B270" s="262"/>
+      <c r="C270" s="278"/>
+      <c r="D270" s="274"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
-        <v>186</v>
+        <v>1488</v>
       </c>
       <c r="H270" s="156"/>
       <c r="I270" s="156"/>
@@ -20091,13 +20342,13 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="271"/>
-      <c r="C271" s="268"/>
-      <c r="D271" s="259"/>
+      <c r="B271" s="262"/>
+      <c r="C271" s="278"/>
+      <c r="D271" s="274"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="H271" s="156"/>
       <c r="I271" s="156"/>
@@ -20105,13 +20356,13 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="271"/>
-      <c r="C272" s="268"/>
-      <c r="D272" s="259"/>
+      <c r="B272" s="262"/>
+      <c r="C272" s="278"/>
+      <c r="D272" s="274"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
-        <v>1489</v>
+        <v>136</v>
       </c>
       <c r="H272" s="156"/>
       <c r="I272" s="156"/>
@@ -20119,13 +20370,13 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="271"/>
-      <c r="C273" s="268"/>
-      <c r="D273" s="259"/>
+      <c r="B273" s="262"/>
+      <c r="C273" s="278"/>
+      <c r="D273" s="274"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H273" s="156"/>
       <c r="I273" s="156"/>
@@ -20133,13 +20384,13 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="271"/>
-      <c r="C274" s="268"/>
-      <c r="D274" s="259"/>
+      <c r="B274" s="262"/>
+      <c r="C274" s="278"/>
+      <c r="D274" s="274"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
-        <v>137</v>
+        <v>1490</v>
       </c>
       <c r="H274" s="156"/>
       <c r="I274" s="156"/>
@@ -20147,13 +20398,13 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="271"/>
-      <c r="C275" s="268"/>
-      <c r="D275" s="259"/>
+      <c r="B275" s="262"/>
+      <c r="C275" s="278"/>
+      <c r="D275" s="274"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
-        <v>1491</v>
+        <v>137</v>
       </c>
       <c r="H275" s="156"/>
       <c r="I275" s="156"/>
@@ -20161,13 +20412,13 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="271"/>
-      <c r="C276" s="268"/>
-      <c r="D276" s="259"/>
+      <c r="B276" s="262"/>
+      <c r="C276" s="278"/>
+      <c r="D276" s="274"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
-        <v>138</v>
+        <v>1491</v>
       </c>
       <c r="H276" s="156"/>
       <c r="I276" s="156"/>
@@ -20175,13 +20426,13 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="271"/>
-      <c r="C277" s="269"/>
-      <c r="D277" s="260"/>
+      <c r="B277" s="262"/>
+      <c r="C277" s="278"/>
+      <c r="D277" s="274"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
-        <v>1492</v>
+        <v>138</v>
       </c>
       <c r="H277" s="156"/>
       <c r="I277" s="156"/>
@@ -20189,17 +20440,13 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="271"/>
-      <c r="C278" s="267" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D278" s="258" t="s">
-        <v>1494</v>
-      </c>
+      <c r="B278" s="262"/>
+      <c r="C278" s="279"/>
+      <c r="D278" s="275"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
-        <v>139</v>
+        <v>1492</v>
       </c>
       <c r="H278" s="156"/>
       <c r="I278" s="156"/>
@@ -20207,13 +20454,17 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="271"/>
-      <c r="C279" s="268"/>
-      <c r="D279" s="259"/>
+      <c r="B279" s="262"/>
+      <c r="C279" s="277" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D279" s="273" t="s">
+        <v>1494</v>
+      </c>
       <c r="E279" s="153"/>
       <c r="F279" s="153"/>
       <c r="G279" s="155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H279" s="156"/>
       <c r="I279" s="156"/>
@@ -20221,13 +20472,13 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="271"/>
-      <c r="C280" s="268"/>
-      <c r="D280" s="259"/>
+      <c r="B280" s="262"/>
+      <c r="C280" s="278"/>
+      <c r="D280" s="274"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H280" s="156"/>
       <c r="I280" s="156"/>
@@ -20235,13 +20486,13 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="271"/>
-      <c r="C281" s="268"/>
-      <c r="D281" s="259"/>
+      <c r="B281" s="262"/>
+      <c r="C281" s="278"/>
+      <c r="D281" s="274"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H281" s="156"/>
       <c r="I281" s="156"/>
@@ -20249,13 +20500,13 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="271"/>
-      <c r="C282" s="268"/>
-      <c r="D282" s="259"/>
+      <c r="B282" s="262"/>
+      <c r="C282" s="278"/>
+      <c r="D282" s="274"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H282" s="156"/>
       <c r="I282" s="156"/>
@@ -20263,13 +20514,13 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="271"/>
-      <c r="C283" s="268"/>
-      <c r="D283" s="259"/>
+      <c r="B283" s="262"/>
+      <c r="C283" s="278"/>
+      <c r="D283" s="274"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H283" s="156"/>
       <c r="I283" s="156"/>
@@ -20277,13 +20528,13 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="271"/>
-      <c r="C284" s="268"/>
-      <c r="D284" s="259"/>
+      <c r="B284" s="262"/>
+      <c r="C284" s="278"/>
+      <c r="D284" s="274"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H284" s="156"/>
       <c r="I284" s="156"/>
@@ -20291,13 +20542,13 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="271"/>
-      <c r="C285" s="268"/>
-      <c r="D285" s="259"/>
+      <c r="B285" s="262"/>
+      <c r="C285" s="278"/>
+      <c r="D285" s="274"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H285" s="156"/>
       <c r="I285" s="156"/>
@@ -20305,13 +20556,13 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="271"/>
-      <c r="C286" s="268"/>
-      <c r="D286" s="259"/>
+      <c r="B286" s="262"/>
+      <c r="C286" s="278"/>
+      <c r="D286" s="274"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H286" s="156"/>
       <c r="I286" s="156"/>
@@ -20319,13 +20570,13 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="271"/>
-      <c r="C287" s="268"/>
-      <c r="D287" s="259"/>
+      <c r="B287" s="262"/>
+      <c r="C287" s="278"/>
+      <c r="D287" s="274"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H287" s="156"/>
       <c r="I287" s="156"/>
@@ -20333,13 +20584,13 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="271"/>
-      <c r="C288" s="268"/>
-      <c r="D288" s="259"/>
+      <c r="B288" s="262"/>
+      <c r="C288" s="278"/>
+      <c r="D288" s="274"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H288" s="156"/>
       <c r="I288" s="156"/>
@@ -20347,13 +20598,13 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="271"/>
-      <c r="C289" s="268"/>
-      <c r="D289" s="259"/>
+      <c r="B289" s="262"/>
+      <c r="C289" s="278"/>
+      <c r="D289" s="274"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H289" s="156"/>
       <c r="I289" s="156"/>
@@ -20361,13 +20612,13 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="271"/>
-      <c r="C290" s="268"/>
-      <c r="D290" s="259"/>
+      <c r="B290" s="262"/>
+      <c r="C290" s="278"/>
+      <c r="D290" s="274"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H290" s="156"/>
       <c r="I290" s="156"/>
@@ -20375,13 +20626,13 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="271"/>
-      <c r="C291" s="268"/>
-      <c r="D291" s="259"/>
+      <c r="B291" s="262"/>
+      <c r="C291" s="278"/>
+      <c r="D291" s="274"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H291" s="156"/>
       <c r="I291" s="156"/>
@@ -20389,13 +20640,13 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="271"/>
-      <c r="C292" s="268"/>
-      <c r="D292" s="259"/>
+      <c r="B292" s="262"/>
+      <c r="C292" s="278"/>
+      <c r="D292" s="274"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H292" s="156"/>
       <c r="I292" s="156"/>
@@ -20403,13 +20654,13 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="271"/>
-      <c r="C293" s="268"/>
-      <c r="D293" s="259"/>
+      <c r="B293" s="262"/>
+      <c r="C293" s="278"/>
+      <c r="D293" s="274"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H293" s="156"/>
       <c r="I293" s="156"/>
@@ -20417,13 +20668,13 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="271"/>
-      <c r="C294" s="268"/>
-      <c r="D294" s="259"/>
+      <c r="B294" s="262"/>
+      <c r="C294" s="278"/>
+      <c r="D294" s="274"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H294" s="156"/>
       <c r="I294" s="156"/>
@@ -20431,13 +20682,13 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="271"/>
-      <c r="C295" s="268"/>
-      <c r="D295" s="259"/>
+      <c r="B295" s="262"/>
+      <c r="C295" s="278"/>
+      <c r="D295" s="274"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H295" s="156"/>
       <c r="I295" s="156"/>
@@ -20445,13 +20696,13 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="271"/>
-      <c r="C296" s="268"/>
-      <c r="D296" s="259"/>
+      <c r="B296" s="262"/>
+      <c r="C296" s="278"/>
+      <c r="D296" s="274"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H296" s="156"/>
       <c r="I296" s="156"/>
@@ -20459,50 +20710,49 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A297" s="284" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B297" s="284"/>
-      <c r="C297" s="241" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D297" s="165"/>
+      <c r="B297" s="262"/>
+      <c r="C297" s="278"/>
+      <c r="D297" s="274"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
-      <c r="G297" s="155"/>
+      <c r="G297" s="155" t="s">
+        <v>154</v>
+      </c>
       <c r="H297" s="156"/>
       <c r="I297" s="156"/>
       <c r="J297" s="156"/>
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="284"/>
-      <c r="B298" s="284"/>
-      <c r="C298" s="288" t="s">
-        <v>133</v>
-      </c>
-      <c r="D298" s="258" t="s">
-        <v>2167</v>
-      </c>
+      <c r="A298" s="258" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B298" s="258"/>
+      <c r="C298" s="241" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D298" s="165"/>
       <c r="E298" s="153"/>
       <c r="F298" s="153"/>
-      <c r="G298" s="155" t="s">
-        <v>2168</v>
-      </c>
+      <c r="G298" s="155"/>
       <c r="H298" s="156"/>
       <c r="I298" s="156"/>
       <c r="J298" s="156"/>
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="284"/>
-      <c r="B299" s="284"/>
-      <c r="C299" s="288"/>
-      <c r="D299" s="259"/>
+      <c r="A299" s="258"/>
+      <c r="B299" s="258"/>
+      <c r="C299" s="270" t="s">
+        <v>133</v>
+      </c>
+      <c r="D299" s="273" t="s">
+        <v>2167</v>
+      </c>
       <c r="E299" s="153"/>
       <c r="F299" s="153"/>
       <c r="G299" s="155" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="H299" s="156"/>
       <c r="I299" s="156"/>
@@ -20510,14 +20760,14 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="284"/>
-      <c r="B300" s="284"/>
-      <c r="C300" s="288"/>
-      <c r="D300" s="259"/>
+      <c r="A300" s="258"/>
+      <c r="B300" s="258"/>
+      <c r="C300" s="270"/>
+      <c r="D300" s="274"/>
       <c r="E300" s="153"/>
       <c r="F300" s="153"/>
       <c r="G300" s="155" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="H300" s="156"/>
       <c r="I300" s="156"/>
@@ -20525,29 +20775,29 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="284"/>
-      <c r="B301" s="284"/>
-      <c r="C301" s="288"/>
-      <c r="D301" s="259"/>
-      <c r="E301" s="152"/>
-      <c r="F301" s="152"/>
-      <c r="G301" s="242" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H301" s="243"/>
-      <c r="I301" s="243"/>
-      <c r="J301" s="243"/>
-      <c r="K301" s="244"/>
+      <c r="A301" s="258"/>
+      <c r="B301" s="258"/>
+      <c r="C301" s="270"/>
+      <c r="D301" s="274"/>
+      <c r="E301" s="153"/>
+      <c r="F301" s="153"/>
+      <c r="G301" s="155" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H301" s="156"/>
+      <c r="I301" s="156"/>
+      <c r="J301" s="156"/>
+      <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="284"/>
-      <c r="B302" s="284"/>
-      <c r="C302" s="288"/>
-      <c r="D302" s="259"/>
+      <c r="A302" s="258"/>
+      <c r="B302" s="258"/>
+      <c r="C302" s="270"/>
+      <c r="D302" s="274"/>
       <c r="E302" s="152"/>
       <c r="F302" s="152"/>
       <c r="G302" s="242" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="H302" s="243"/>
       <c r="I302" s="243"/>
@@ -20555,14 +20805,14 @@
       <c r="K302" s="244"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="284"/>
-      <c r="B303" s="284"/>
-      <c r="C303" s="288"/>
-      <c r="D303" s="259"/>
+      <c r="A303" s="258"/>
+      <c r="B303" s="258"/>
+      <c r="C303" s="270"/>
+      <c r="D303" s="274"/>
       <c r="E303" s="152"/>
       <c r="F303" s="152"/>
       <c r="G303" s="242" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="H303" s="243"/>
       <c r="I303" s="243"/>
@@ -20570,14 +20820,14 @@
       <c r="K303" s="244"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="284"/>
-      <c r="B304" s="284"/>
-      <c r="C304" s="288"/>
-      <c r="D304" s="259"/>
+      <c r="A304" s="258"/>
+      <c r="B304" s="258"/>
+      <c r="C304" s="270"/>
+      <c r="D304" s="274"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="242" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="H304" s="243"/>
       <c r="I304" s="243"/>
@@ -20585,14 +20835,14 @@
       <c r="K304" s="244"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="284"/>
-      <c r="B305" s="284"/>
-      <c r="C305" s="288"/>
-      <c r="D305" s="259"/>
+      <c r="A305" s="258"/>
+      <c r="B305" s="258"/>
+      <c r="C305" s="270"/>
+      <c r="D305" s="274"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="242" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="H305" s="243"/>
       <c r="I305" s="243"/>
@@ -20600,14 +20850,14 @@
       <c r="K305" s="244"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="284"/>
-      <c r="B306" s="284"/>
-      <c r="C306" s="288"/>
-      <c r="D306" s="259"/>
+      <c r="A306" s="258"/>
+      <c r="B306" s="258"/>
+      <c r="C306" s="270"/>
+      <c r="D306" s="274"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="242" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="H306" s="243"/>
       <c r="I306" s="243"/>
@@ -20615,14 +20865,14 @@
       <c r="K306" s="244"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="284"/>
-      <c r="B307" s="284"/>
-      <c r="C307" s="288"/>
-      <c r="D307" s="259"/>
+      <c r="A307" s="258"/>
+      <c r="B307" s="258"/>
+      <c r="C307" s="270"/>
+      <c r="D307" s="274"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="242" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="H307" s="243"/>
       <c r="I307" s="243"/>
@@ -20630,14 +20880,14 @@
       <c r="K307" s="244"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="284"/>
-      <c r="B308" s="284"/>
-      <c r="C308" s="288"/>
-      <c r="D308" s="260"/>
+      <c r="A308" s="258"/>
+      <c r="B308" s="258"/>
+      <c r="C308" s="270"/>
+      <c r="D308" s="274"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="242" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="H308" s="243"/>
       <c r="I308" s="243"/>
@@ -20645,299 +20895,297 @@
       <c r="K308" s="244"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="284"/>
-      <c r="B309" s="284"/>
-      <c r="C309" s="288"/>
-      <c r="D309" s="245" t="s">
-        <v>2179</v>
-      </c>
+      <c r="A309" s="258"/>
+      <c r="B309" s="258"/>
+      <c r="C309" s="270"/>
+      <c r="D309" s="275"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
-      <c r="G309" s="242"/>
+      <c r="G309" s="242" t="s">
+        <v>2178</v>
+      </c>
       <c r="H309" s="243"/>
       <c r="I309" s="243"/>
       <c r="J309" s="243"/>
       <c r="K309" s="244"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="284"/>
-      <c r="B310" s="284"/>
-      <c r="C310" s="288"/>
-      <c r="D310" s="261" t="s">
-        <v>2194</v>
+      <c r="A310" s="258"/>
+      <c r="B310" s="258"/>
+      <c r="C310" s="270"/>
+      <c r="D310" s="245" t="s">
+        <v>2179</v>
       </c>
       <c r="E310" s="152"/>
       <c r="F310" s="152"/>
-      <c r="G310" s="242" t="s">
-        <v>2180</v>
-      </c>
-      <c r="H310" s="246" t="s">
-        <v>2219</v>
-      </c>
+      <c r="G310" s="242"/>
+      <c r="H310" s="243"/>
       <c r="I310" s="243"/>
       <c r="J310" s="243"/>
       <c r="K310" s="244"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="284"/>
-      <c r="B311" s="284"/>
-      <c r="C311" s="288"/>
-      <c r="D311" s="262"/>
+      <c r="A311" s="258"/>
+      <c r="B311" s="258"/>
+      <c r="C311" s="270"/>
+      <c r="D311" s="259" t="s">
+        <v>2194</v>
+      </c>
       <c r="E311" s="152"/>
       <c r="F311" s="152"/>
       <c r="G311" s="242" t="s">
-        <v>2181</v>
-      </c>
-      <c r="H311" s="243"/>
+        <v>2180</v>
+      </c>
+      <c r="H311" s="246" t="s">
+        <v>2219</v>
+      </c>
       <c r="I311" s="243"/>
       <c r="J311" s="243"/>
       <c r="K311" s="244"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="284"/>
-      <c r="B312" s="284"/>
-      <c r="C312" s="288"/>
-      <c r="D312" s="262"/>
+      <c r="A312" s="258"/>
+      <c r="B312" s="258"/>
+      <c r="C312" s="270"/>
+      <c r="D312" s="287"/>
       <c r="E312" s="152"/>
       <c r="F312" s="152"/>
       <c r="G312" s="242" t="s">
-        <v>2182</v>
-      </c>
-      <c r="H312" s="246" t="s">
-        <v>2220</v>
-      </c>
+        <v>2181</v>
+      </c>
+      <c r="H312" s="243"/>
       <c r="I312" s="243"/>
       <c r="J312" s="243"/>
       <c r="K312" s="244"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="284"/>
-      <c r="B313" s="284"/>
-      <c r="C313" s="288"/>
-      <c r="D313" s="262"/>
+      <c r="A313" s="258"/>
+      <c r="B313" s="258"/>
+      <c r="C313" s="270"/>
+      <c r="D313" s="287"/>
       <c r="E313" s="152"/>
       <c r="F313" s="152"/>
       <c r="G313" s="242" t="s">
-        <v>2183</v>
-      </c>
-      <c r="H313" s="243"/>
+        <v>2182</v>
+      </c>
+      <c r="H313" s="246" t="s">
+        <v>2220</v>
+      </c>
       <c r="I313" s="243"/>
       <c r="J313" s="243"/>
       <c r="K313" s="244"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="284"/>
-      <c r="B314" s="284"/>
-      <c r="C314" s="288"/>
-      <c r="D314" s="262"/>
+      <c r="A314" s="258"/>
+      <c r="B314" s="258"/>
+      <c r="C314" s="270"/>
+      <c r="D314" s="287"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="242" t="s">
-        <v>2184</v>
-      </c>
-      <c r="H314" s="246" t="s">
-        <v>2221</v>
-      </c>
+        <v>2183</v>
+      </c>
+      <c r="H314" s="243"/>
       <c r="I314" s="243"/>
       <c r="J314" s="243"/>
       <c r="K314" s="244"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="284"/>
-      <c r="B315" s="284"/>
-      <c r="C315" s="288"/>
-      <c r="D315" s="262"/>
+      <c r="A315" s="258"/>
+      <c r="B315" s="258"/>
+      <c r="C315" s="270"/>
+      <c r="D315" s="287"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="242" t="s">
-        <v>2185</v>
-      </c>
-      <c r="H315" s="243"/>
+        <v>2184</v>
+      </c>
+      <c r="H315" s="246" t="s">
+        <v>2221</v>
+      </c>
       <c r="I315" s="243"/>
       <c r="J315" s="243"/>
       <c r="K315" s="244"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="284"/>
-      <c r="B316" s="284"/>
-      <c r="C316" s="288"/>
-      <c r="D316" s="262"/>
+      <c r="A316" s="258"/>
+      <c r="B316" s="258"/>
+      <c r="C316" s="270"/>
+      <c r="D316" s="287"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="242" t="s">
-        <v>2186</v>
-      </c>
-      <c r="H316" s="246" t="s">
-        <v>2222</v>
-      </c>
+        <v>2185</v>
+      </c>
+      <c r="H316" s="243"/>
       <c r="I316" s="243"/>
       <c r="J316" s="243"/>
       <c r="K316" s="244"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="284"/>
-      <c r="B317" s="284"/>
-      <c r="C317" s="288"/>
-      <c r="D317" s="262"/>
+      <c r="A317" s="258"/>
+      <c r="B317" s="258"/>
+      <c r="C317" s="270"/>
+      <c r="D317" s="287"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="242" t="s">
-        <v>2187</v>
-      </c>
-      <c r="H317" s="243"/>
+        <v>2186</v>
+      </c>
+      <c r="H317" s="246" t="s">
+        <v>2222</v>
+      </c>
       <c r="I317" s="243"/>
       <c r="J317" s="243"/>
       <c r="K317" s="244"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="284"/>
-      <c r="B318" s="284"/>
-      <c r="C318" s="288"/>
-      <c r="D318" s="262"/>
+      <c r="A318" s="258"/>
+      <c r="B318" s="258"/>
+      <c r="C318" s="270"/>
+      <c r="D318" s="287"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="242" t="s">
-        <v>2188</v>
-      </c>
-      <c r="H318" s="246" t="s">
-        <v>2223</v>
-      </c>
+        <v>2187</v>
+      </c>
+      <c r="H318" s="243"/>
       <c r="I318" s="243"/>
       <c r="J318" s="243"/>
       <c r="K318" s="244"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="284"/>
-      <c r="B319" s="284"/>
-      <c r="C319" s="288"/>
-      <c r="D319" s="262"/>
+      <c r="A319" s="258"/>
+      <c r="B319" s="258"/>
+      <c r="C319" s="270"/>
+      <c r="D319" s="287"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
-      <c r="G319" s="247" t="s">
-        <v>2189</v>
+      <c r="G319" s="242" t="s">
+        <v>2188</v>
       </c>
       <c r="H319" s="246" t="s">
-        <v>2246</v>
+        <v>2223</v>
       </c>
       <c r="I319" s="243"/>
       <c r="J319" s="243"/>
-      <c r="K319" s="175" t="s">
-        <v>2215</v>
-      </c>
+      <c r="K319" s="244"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="284"/>
-      <c r="B320" s="284"/>
-      <c r="C320" s="288"/>
-      <c r="D320" s="263"/>
+      <c r="A320" s="258"/>
+      <c r="B320" s="258"/>
+      <c r="C320" s="270"/>
+      <c r="D320" s="287"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="247" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="H320" s="246" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="I320" s="243"/>
       <c r="J320" s="243"/>
-      <c r="K320" s="244"/>
+      <c r="K320" s="175" t="s">
+        <v>2215</v>
+      </c>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="284"/>
-      <c r="B321" s="284"/>
-      <c r="C321" s="288"/>
-      <c r="D321" s="264" t="s">
-        <v>2195</v>
-      </c>
+      <c r="A321" s="258"/>
+      <c r="B321" s="258"/>
+      <c r="C321" s="270"/>
+      <c r="D321" s="260"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
-      <c r="G321" s="242" t="s">
-        <v>2190</v>
-      </c>
-      <c r="H321" s="243"/>
+      <c r="G321" s="247" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H321" s="246" t="s">
+        <v>2247</v>
+      </c>
       <c r="I321" s="243"/>
       <c r="J321" s="243"/>
       <c r="K321" s="244"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="284"/>
-      <c r="B322" s="284"/>
-      <c r="C322" s="288"/>
-      <c r="D322" s="265"/>
+      <c r="A322" s="258"/>
+      <c r="B322" s="258"/>
+      <c r="C322" s="270"/>
+      <c r="D322" s="288" t="s">
+        <v>2195</v>
+      </c>
       <c r="E322" s="152"/>
       <c r="F322" s="152"/>
       <c r="G322" s="242" t="s">
-        <v>2191</v>
-      </c>
-      <c r="H322" s="246" t="s">
-        <v>2224</v>
-      </c>
+        <v>2190</v>
+      </c>
+      <c r="H322" s="243"/>
       <c r="I322" s="243"/>
       <c r="J322" s="243"/>
       <c r="K322" s="244"/>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="284"/>
-      <c r="B323" s="284"/>
-      <c r="C323" s="288"/>
-      <c r="D323" s="265"/>
+      <c r="A323" s="258"/>
+      <c r="B323" s="258"/>
+      <c r="C323" s="270"/>
+      <c r="D323" s="289"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
       <c r="G323" s="242" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H323" s="246" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="I323" s="243"/>
       <c r="J323" s="243"/>
       <c r="K323" s="244"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="284"/>
-      <c r="B324" s="284"/>
-      <c r="C324" s="288"/>
-      <c r="D324" s="266"/>
+      <c r="A324" s="258"/>
+      <c r="B324" s="258"/>
+      <c r="C324" s="270"/>
+      <c r="D324" s="289"/>
       <c r="E324" s="152"/>
       <c r="F324" s="152"/>
       <c r="G324" s="242" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H324" s="246" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="I324" s="243"/>
       <c r="J324" s="243"/>
       <c r="K324" s="244"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="284"/>
-      <c r="B325" s="284"/>
-      <c r="C325" s="288"/>
-      <c r="D325" s="264" t="s">
-        <v>2196</v>
-      </c>
+      <c r="A325" s="258"/>
+      <c r="B325" s="258"/>
+      <c r="C325" s="270"/>
+      <c r="D325" s="290"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="242" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="H325" s="246" t="s">
-        <v>2155</v>
+        <v>2226</v>
       </c>
       <c r="I325" s="243"/>
       <c r="J325" s="243"/>
       <c r="K325" s="244"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="284"/>
-      <c r="B326" s="284"/>
-      <c r="C326" s="288"/>
-      <c r="D326" s="265"/>
+      <c r="A326" s="258"/>
+      <c r="B326" s="258"/>
+      <c r="C326" s="270"/>
+      <c r="D326" s="288" t="s">
+        <v>2196</v>
+      </c>
       <c r="E326" s="152"/>
       <c r="F326" s="152"/>
       <c r="G326" s="242" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="H326" s="246" t="s">
         <v>2155</v>
@@ -20947,14 +21195,14 @@
       <c r="K326" s="244"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="284"/>
-      <c r="B327" s="284"/>
-      <c r="C327" s="288"/>
-      <c r="D327" s="265"/>
+      <c r="A327" s="258"/>
+      <c r="B327" s="258"/>
+      <c r="C327" s="270"/>
+      <c r="D327" s="289"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="242" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="H327" s="246" t="s">
         <v>2155</v>
@@ -20964,14 +21212,14 @@
       <c r="K327" s="244"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="284"/>
-      <c r="B328" s="284"/>
-      <c r="C328" s="288"/>
-      <c r="D328" s="266"/>
+      <c r="A328" s="258"/>
+      <c r="B328" s="258"/>
+      <c r="C328" s="270"/>
+      <c r="D328" s="289"/>
       <c r="E328" s="152"/>
       <c r="F328" s="152"/>
       <c r="G328" s="242" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H328" s="246" t="s">
         <v>2155</v>
@@ -20981,65 +21229,67 @@
       <c r="K328" s="244"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="284"/>
-      <c r="B329" s="284"/>
-      <c r="C329" s="288"/>
-      <c r="D329" s="261" t="s">
-        <v>2201</v>
-      </c>
+      <c r="A329" s="258"/>
+      <c r="B329" s="258"/>
+      <c r="C329" s="270"/>
+      <c r="D329" s="290"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
-      <c r="G329" s="248" t="s">
-        <v>2227</v>
-      </c>
-      <c r="H329" s="246"/>
+      <c r="G329" s="242" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H329" s="246" t="s">
+        <v>2155</v>
+      </c>
       <c r="I329" s="243"/>
       <c r="J329" s="243"/>
       <c r="K329" s="244"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="284"/>
-      <c r="B330" s="284"/>
-      <c r="C330" s="288"/>
-      <c r="D330" s="263"/>
+      <c r="A330" s="258"/>
+      <c r="B330" s="258"/>
+      <c r="C330" s="270"/>
+      <c r="D330" s="259" t="s">
+        <v>2201</v>
+      </c>
       <c r="E330" s="152"/>
       <c r="F330" s="152"/>
-      <c r="G330" s="249" t="s">
-        <v>2228</v>
-      </c>
-      <c r="H330" s="246" t="s">
-        <v>2229</v>
-      </c>
+      <c r="G330" s="248" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H330" s="246"/>
       <c r="I330" s="243"/>
       <c r="J330" s="243"/>
       <c r="K330" s="244"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="284"/>
-      <c r="B331" s="284"/>
-      <c r="C331" s="288"/>
-      <c r="D331" s="264" t="s">
-        <v>2202</v>
-      </c>
+      <c r="A331" s="258"/>
+      <c r="B331" s="258"/>
+      <c r="C331" s="270"/>
+      <c r="D331" s="260"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
-      <c r="G331" s="242" t="s">
-        <v>2203</v>
-      </c>
-      <c r="H331" s="243"/>
+      <c r="G331" s="249" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H331" s="246" t="s">
+        <v>2229</v>
+      </c>
       <c r="I331" s="243"/>
       <c r="J331" s="243"/>
       <c r="K331" s="244"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="284"/>
-      <c r="B332" s="284"/>
-      <c r="C332" s="288"/>
-      <c r="D332" s="265"/>
+      <c r="A332" s="258"/>
+      <c r="B332" s="258"/>
+      <c r="C332" s="270"/>
+      <c r="D332" s="288" t="s">
+        <v>2202</v>
+      </c>
       <c r="E332" s="152"/>
       <c r="F332" s="152"/>
       <c r="G332" s="242" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="H332" s="243"/>
       <c r="I332" s="243"/>
@@ -21047,14 +21297,14 @@
       <c r="K332" s="244"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="284"/>
-      <c r="B333" s="284"/>
-      <c r="C333" s="288"/>
-      <c r="D333" s="265"/>
+      <c r="A333" s="258"/>
+      <c r="B333" s="258"/>
+      <c r="C333" s="270"/>
+      <c r="D333" s="289"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
       <c r="G333" s="242" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H333" s="243"/>
       <c r="I333" s="243"/>
@@ -21062,14 +21312,14 @@
       <c r="K333" s="244"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="284"/>
-      <c r="B334" s="284"/>
-      <c r="C334" s="288"/>
-      <c r="D334" s="265"/>
+      <c r="A334" s="258"/>
+      <c r="B334" s="258"/>
+      <c r="C334" s="270"/>
+      <c r="D334" s="289"/>
       <c r="E334" s="152"/>
       <c r="F334" s="152"/>
       <c r="G334" s="242" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="H334" s="243"/>
       <c r="I334" s="243"/>
@@ -21077,14 +21327,14 @@
       <c r="K334" s="244"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="284"/>
-      <c r="B335" s="284"/>
-      <c r="C335" s="288"/>
-      <c r="D335" s="265"/>
+      <c r="A335" s="258"/>
+      <c r="B335" s="258"/>
+      <c r="C335" s="270"/>
+      <c r="D335" s="289"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="242" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="H335" s="243"/>
       <c r="I335" s="243"/>
@@ -21092,175 +21342,175 @@
       <c r="K335" s="244"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="284"/>
-      <c r="B336" s="284"/>
-      <c r="C336" s="288"/>
-      <c r="D336" s="266"/>
+      <c r="A336" s="258"/>
+      <c r="B336" s="258"/>
+      <c r="C336" s="270"/>
+      <c r="D336" s="289"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="242" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H336" s="243"/>
       <c r="I336" s="243"/>
       <c r="J336" s="243"/>
       <c r="K336" s="244"/>
     </row>
-    <row r="337" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A337" s="284"/>
-      <c r="B337" s="284"/>
-      <c r="C337" s="288"/>
-      <c r="D337" s="250" t="s">
-        <v>2213</v>
-      </c>
+    <row r="337" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A337" s="258"/>
+      <c r="B337" s="258"/>
+      <c r="C337" s="270"/>
+      <c r="D337" s="290"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
-      <c r="G337" s="248" t="s">
-        <v>2217</v>
-      </c>
-      <c r="H337" s="246" t="s">
-        <v>2216</v>
-      </c>
+      <c r="G337" s="242" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H337" s="243"/>
       <c r="I337" s="243"/>
       <c r="J337" s="243"/>
-      <c r="K337" s="175" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A338" s="284"/>
-      <c r="B338" s="284"/>
-      <c r="C338" s="288"/>
-      <c r="D338" s="251" t="s">
-        <v>2214</v>
+      <c r="K337" s="244"/>
+    </row>
+    <row r="338" spans="1:11" ht="18.95" customHeight="1">
+      <c r="A338" s="258"/>
+      <c r="B338" s="258"/>
+      <c r="C338" s="270"/>
+      <c r="D338" s="250" t="s">
+        <v>2213</v>
       </c>
       <c r="E338" s="152"/>
       <c r="F338" s="152"/>
-      <c r="G338" s="242"/>
-      <c r="H338" s="243"/>
+      <c r="G338" s="248" t="s">
+        <v>2217</v>
+      </c>
+      <c r="H338" s="246" t="s">
+        <v>2216</v>
+      </c>
       <c r="I338" s="243"/>
       <c r="J338" s="243"/>
-      <c r="K338" s="244"/>
+      <c r="K338" s="175" t="s">
+        <v>2218</v>
+      </c>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="284"/>
-      <c r="B339" s="284"/>
-      <c r="C339" s="288"/>
-      <c r="D339" s="252" t="s">
-        <v>2230</v>
+      <c r="A339" s="258"/>
+      <c r="B339" s="258"/>
+      <c r="C339" s="270"/>
+      <c r="D339" s="251" t="s">
+        <v>2214</v>
       </c>
       <c r="E339" s="152"/>
       <c r="F339" s="152"/>
-      <c r="G339" s="249" t="s">
-        <v>2233</v>
-      </c>
+      <c r="G339" s="242"/>
       <c r="H339" s="243"/>
       <c r="I339" s="243"/>
       <c r="J339" s="243"/>
       <c r="K339" s="244"/>
     </row>
     <row r="340" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A340" s="284"/>
-      <c r="B340" s="284"/>
-      <c r="C340" s="288"/>
-      <c r="D340" s="245"/>
+      <c r="A340" s="258"/>
+      <c r="B340" s="258"/>
+      <c r="C340" s="270"/>
+      <c r="D340" s="252" t="s">
+        <v>2230</v>
+      </c>
       <c r="E340" s="152"/>
       <c r="F340" s="152"/>
       <c r="G340" s="249" t="s">
-        <v>2231</v>
-      </c>
-      <c r="H340" s="246" t="s">
-        <v>2232</v>
-      </c>
+        <v>2233</v>
+      </c>
+      <c r="H340" s="243"/>
       <c r="I340" s="243"/>
       <c r="J340" s="243"/>
       <c r="K340" s="244"/>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="284"/>
-      <c r="B341" s="284"/>
-      <c r="C341" s="288"/>
+      <c r="A341" s="258"/>
+      <c r="B341" s="258"/>
+      <c r="C341" s="270"/>
       <c r="D341" s="245"/>
       <c r="E341" s="152"/>
       <c r="F341" s="152"/>
       <c r="G341" s="249" t="s">
-        <v>2237</v>
-      </c>
-      <c r="H341" s="246"/>
+        <v>2231</v>
+      </c>
+      <c r="H341" s="246" t="s">
+        <v>2232</v>
+      </c>
       <c r="I341" s="243"/>
       <c r="J341" s="243"/>
       <c r="K341" s="244"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="284"/>
-      <c r="B342" s="284"/>
-      <c r="C342" s="288"/>
-      <c r="D342" s="252" t="s">
-        <v>2239</v>
-      </c>
+      <c r="A342" s="258"/>
+      <c r="B342" s="258"/>
+      <c r="C342" s="270"/>
+      <c r="D342" s="245"/>
       <c r="E342" s="152"/>
       <c r="F342" s="152"/>
       <c r="G342" s="249" t="s">
-        <v>2235</v>
-      </c>
-      <c r="H342" s="243"/>
+        <v>2237</v>
+      </c>
+      <c r="H342" s="246"/>
       <c r="I342" s="243"/>
       <c r="J342" s="243"/>
       <c r="K342" s="244"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="284"/>
-      <c r="B343" s="284"/>
-      <c r="C343" s="288"/>
-      <c r="D343" s="245"/>
+      <c r="A343" s="258"/>
+      <c r="B343" s="258"/>
+      <c r="C343" s="270"/>
+      <c r="D343" s="252" t="s">
+        <v>2239</v>
+      </c>
       <c r="E343" s="152"/>
       <c r="F343" s="152"/>
       <c r="G343" s="249" t="s">
-        <v>2234</v>
-      </c>
-      <c r="H343" s="246" t="s">
-        <v>2236</v>
-      </c>
+        <v>2235</v>
+      </c>
+      <c r="H343" s="243"/>
       <c r="I343" s="243"/>
       <c r="J343" s="243"/>
       <c r="K343" s="244"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="284"/>
-      <c r="B344" s="284"/>
-      <c r="C344" s="288"/>
+      <c r="A344" s="258"/>
+      <c r="B344" s="258"/>
+      <c r="C344" s="270"/>
       <c r="D344" s="245"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
       <c r="G344" s="249" t="s">
-        <v>2238</v>
-      </c>
-      <c r="H344" s="243"/>
+        <v>2234</v>
+      </c>
+      <c r="H344" s="246" t="s">
+        <v>2236</v>
+      </c>
       <c r="I344" s="243"/>
       <c r="J344" s="243"/>
       <c r="K344" s="244"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="284"/>
-      <c r="B345" s="284"/>
-      <c r="C345" s="288"/>
-      <c r="D345" s="252" t="s">
-        <v>2240</v>
-      </c>
+      <c r="A345" s="258"/>
+      <c r="B345" s="258"/>
+      <c r="C345" s="270"/>
+      <c r="D345" s="245"/>
       <c r="E345" s="152"/>
       <c r="F345" s="152"/>
-      <c r="G345" s="242"/>
+      <c r="G345" s="249" t="s">
+        <v>2238</v>
+      </c>
       <c r="H345" s="243"/>
       <c r="I345" s="243"/>
       <c r="J345" s="243"/>
       <c r="K345" s="244"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="284"/>
-      <c r="B346" s="284"/>
-      <c r="C346" s="288"/>
+      <c r="A346" s="258"/>
+      <c r="B346" s="258"/>
+      <c r="C346" s="270"/>
       <c r="D346" s="252" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E346" s="152"/>
       <c r="F346" s="152"/>
@@ -21271,11 +21521,12 @@
       <c r="K346" s="244"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B347" s="152"/>
-      <c r="C347" s="253" t="s">
-        <v>2242</v>
-      </c>
-      <c r="D347" s="245"/>
+      <c r="A347" s="258"/>
+      <c r="B347" s="258"/>
+      <c r="C347" s="270"/>
+      <c r="D347" s="252" t="s">
+        <v>2241</v>
+      </c>
       <c r="E347" s="152"/>
       <c r="F347" s="152"/>
       <c r="G347" s="242"/>
@@ -21284,75 +21535,89 @@
       <c r="J347" s="243"/>
       <c r="K347" s="244"/>
     </row>
+    <row r="348" spans="1:11" ht="14.25" customHeight="1">
+      <c r="B348" s="152"/>
+      <c r="C348" s="253" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D348" s="245"/>
+      <c r="E348" s="152"/>
+      <c r="F348" s="152"/>
+      <c r="G348" s="242"/>
+      <c r="H348" s="243"/>
+      <c r="I348" s="243"/>
+      <c r="J348" s="243"/>
+      <c r="K348" s="244"/>
+    </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A297:B346"/>
-    <mergeCell ref="D329:D330"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D20:D65"/>
-    <mergeCell ref="C2:C65"/>
-    <mergeCell ref="C298:C346"/>
-    <mergeCell ref="B2:B65"/>
+    <mergeCell ref="D299:D309"/>
+    <mergeCell ref="D311:D321"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="D326:D329"/>
+    <mergeCell ref="D332:D337"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D176:D183"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="C241:C257"/>
+    <mergeCell ref="D241:D257"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="D210:D240"/>
+    <mergeCell ref="C167:C183"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A298:B347"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C299:C347"/>
+    <mergeCell ref="B2:B66"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B74:B192"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="C148:C165"/>
-    <mergeCell ref="C183:C192"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="D175:D182"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C240:C256"/>
-    <mergeCell ref="D240:D256"/>
-    <mergeCell ref="C209:C239"/>
-    <mergeCell ref="D209:D239"/>
-    <mergeCell ref="C166:C182"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="C74:C99"/>
-    <mergeCell ref="C100:C116"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D134:D141"/>
-    <mergeCell ref="D156:D165"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="C117:C141"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="C257:C277"/>
-    <mergeCell ref="D257:D277"/>
-    <mergeCell ref="C278:C296"/>
-    <mergeCell ref="D278:D296"/>
-    <mergeCell ref="B193:B296"/>
-    <mergeCell ref="D203:D208"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="C193:C208"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="D298:D308"/>
-    <mergeCell ref="D310:D320"/>
-    <mergeCell ref="D321:D324"/>
-    <mergeCell ref="D325:D328"/>
-    <mergeCell ref="D331:D336"/>
+    <mergeCell ref="B75:B193"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="D127:D128"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21365,7 +21630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -31270,6 +31535,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -31282,42 +31583,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -44509,4 +44774,76 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -14546,32 +14546,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14582,38 +14618,17 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14630,20 +14645,26 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14707,27 +14728,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15752,13 +15752,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="284" t="s">
         <v>1341</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="279" t="s">
         <v>1342</v>
       </c>
-      <c r="D2" s="271" t="s">
+      <c r="D2" s="282" t="s">
         <v>181</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -15774,7 +15774,7 @@
         <v>1345</v>
       </c>
       <c r="I2" s="157"/>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="258" t="s">
         <v>2253</v>
       </c>
       <c r="K2" s="158" t="s">
@@ -15788,9 +15788,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="272"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="296"/>
       <c r="E3" s="153" t="s">
         <v>1347</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1526</v>
       </c>
       <c r="I3" s="157"/>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="258" t="s">
         <v>2254</v>
       </c>
       <c r="K3" s="158" t="s">
@@ -15811,9 +15811,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="272"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="296"/>
       <c r="E4" s="153" t="s">
         <v>1350</v>
       </c>
@@ -15825,16 +15825,16 @@
         <v>183</v>
       </c>
       <c r="I4" s="157"/>
-      <c r="J4" s="312" t="s">
+      <c r="J4" s="258" t="s">
         <v>2262</v>
       </c>
       <c r="K4" s="158"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="272"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="296"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -15846,7 +15846,7 @@
       <c r="I5" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="313" t="s">
+      <c r="J5" s="259" t="s">
         <v>2256</v>
       </c>
       <c r="K5" s="158" t="s">
@@ -15855,9 +15855,9 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="272"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="296"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -15867,16 +15867,16 @@
         <v>256</v>
       </c>
       <c r="I6" s="157"/>
-      <c r="J6" s="312" t="s">
+      <c r="J6" s="258" t="s">
         <v>2257</v>
       </c>
       <c r="K6" s="158"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="272"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="296"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -15886,15 +15886,15 @@
         <v>1352</v>
       </c>
       <c r="I7" s="157"/>
-      <c r="J7" s="312" t="s">
+      <c r="J7" s="258" t="s">
         <v>2256</v>
       </c>
       <c r="K7" s="158"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="268"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -15903,15 +15903,15 @@
       </c>
       <c r="H8" s="156"/>
       <c r="I8" s="157"/>
-      <c r="J8" s="312" t="s">
+      <c r="J8" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K8" s="158"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="268"/>
+      <c r="B9" s="293"/>
+      <c r="C9" s="280"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -15920,15 +15920,15 @@
       </c>
       <c r="H9" s="156"/>
       <c r="I9" s="157"/>
-      <c r="J9" s="312" t="s">
+      <c r="J9" s="258" t="s">
         <v>2258</v>
       </c>
       <c r="K9" s="158"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="268"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="280"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -15939,15 +15939,15 @@
         <v>1527</v>
       </c>
       <c r="I10" s="157"/>
-      <c r="J10" s="312" t="s">
+      <c r="J10" s="258" t="s">
         <v>2259</v>
       </c>
       <c r="K10" s="158"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="A11" s="152"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="268"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="280"/>
       <c r="D11" s="165" t="s">
         <v>0</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="I11" s="163" t="s">
         <v>1530</v>
       </c>
-      <c r="J11" s="314" t="s">
+      <c r="J11" s="260" t="s">
         <v>2258</v>
       </c>
       <c r="K11" s="158" t="s">
@@ -15971,8 +15971,8 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="268"/>
+      <c r="B12" s="293"/>
+      <c r="C12" s="280"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -15985,15 +15985,15 @@
         <v>1359</v>
       </c>
       <c r="I12" s="157"/>
-      <c r="J12" s="312" t="s">
+      <c r="J12" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K12" s="158"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="265"/>
-      <c r="C13" s="268"/>
+      <c r="B13" s="293"/>
+      <c r="C13" s="280"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -16006,15 +16006,15 @@
         <v>1360</v>
       </c>
       <c r="I13" s="157"/>
-      <c r="J13" s="312" t="s">
+      <c r="J13" s="258" t="s">
         <v>2262</v>
       </c>
       <c r="K13" s="158"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="265"/>
-      <c r="C14" s="268"/>
+      <c r="B14" s="293"/>
+      <c r="C14" s="280"/>
       <c r="D14" s="166" t="s">
         <v>2268</v>
       </c>
@@ -16027,13 +16027,13 @@
         <v>2270</v>
       </c>
       <c r="I14" s="157"/>
-      <c r="J14" s="312"/>
+      <c r="J14" s="258"/>
       <c r="K14" s="158"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="265"/>
-      <c r="C15" s="268"/>
+      <c r="B15" s="293"/>
+      <c r="C15" s="280"/>
       <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
@@ -16044,16 +16044,16 @@
         <v>194</v>
       </c>
       <c r="I15" s="157"/>
-      <c r="J15" s="312" t="s">
+      <c r="J15" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K15" s="158"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="265"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="273" t="s">
+      <c r="B16" s="293"/>
+      <c r="C16" s="280"/>
+      <c r="D16" s="265" t="s">
         <v>1361</v>
       </c>
       <c r="E16" s="153"/>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="H16" s="156"/>
       <c r="I16" s="157"/>
-      <c r="J16" s="312" t="s">
+      <c r="J16" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K16" s="158" t="s">
@@ -16072,9 +16072,9 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="265"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="274"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="266"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="H17" s="156"/>
       <c r="I17" s="157"/>
-      <c r="J17" s="312" t="s">
+      <c r="J17" s="258" t="s">
         <v>2262</v>
       </c>
       <c r="K17" s="158" t="s">
@@ -16091,9 +16091,9 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="265"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="275"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="267"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
@@ -16101,15 +16101,15 @@
       </c>
       <c r="H18" s="156"/>
       <c r="I18" s="157"/>
-      <c r="J18" s="312" t="s">
+      <c r="J18" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K18" s="158"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="265"/>
-      <c r="C19" s="268"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="280"/>
       <c r="D19" s="165" t="s">
         <v>1366</v>
       </c>
@@ -16124,15 +16124,15 @@
       <c r="I19" s="157" t="s">
         <v>1367</v>
       </c>
-      <c r="J19" s="312" t="s">
+      <c r="J19" s="258" t="s">
         <v>2256</v>
       </c>
       <c r="K19" s="158"/>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="268"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="280"/>
       <c r="D20" s="165" t="s">
         <v>1368</v>
       </c>
@@ -16147,16 +16147,16 @@
       <c r="I20" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="J20" s="315" t="s">
+      <c r="J20" s="261" t="s">
         <v>2263</v>
       </c>
       <c r="K20" s="158"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="265"/>
-      <c r="C21" s="268"/>
-      <c r="D21" s="264" t="s">
+      <c r="B21" s="293"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="284" t="s">
         <v>1370</v>
       </c>
       <c r="E21" s="153"/>
@@ -16168,16 +16168,16 @@
         <v>259</v>
       </c>
       <c r="I21" s="157"/>
-      <c r="J21" s="312" t="s">
+      <c r="J21" s="258" t="s">
         <v>2262</v>
       </c>
       <c r="K21" s="158"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="265"/>
-      <c r="C22" s="268"/>
-      <c r="D22" s="265"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="280"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
@@ -16185,16 +16185,16 @@
       </c>
       <c r="H22" s="156"/>
       <c r="I22" s="157"/>
-      <c r="J22" s="312" t="s">
+      <c r="J22" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K22" s="158"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="265"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="265"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="280"/>
+      <c r="D23" s="293"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
@@ -16204,7 +16204,7 @@
         <v>195</v>
       </c>
       <c r="I23" s="157"/>
-      <c r="J23" s="312" t="s">
+      <c r="J23" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K23" s="158" t="s">
@@ -16213,9 +16213,9 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="265"/>
-      <c r="C24" s="268"/>
-      <c r="D24" s="265"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
@@ -16225,7 +16225,7 @@
         <v>1376</v>
       </c>
       <c r="I24" s="157"/>
-      <c r="J24" s="312" t="s">
+      <c r="J24" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K24" s="158" t="s">
@@ -16234,9 +16234,9 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="265"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="265"/>
+      <c r="B25" s="293"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
@@ -16246,16 +16246,16 @@
         <v>1511</v>
       </c>
       <c r="I25" s="157"/>
-      <c r="J25" s="312" t="s">
+      <c r="J25" s="258" t="s">
         <v>2255</v>
       </c>
       <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="265"/>
-      <c r="C26" s="268"/>
-      <c r="D26" s="265"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
       <c r="G26" s="155" t="s">
@@ -16267,16 +16267,16 @@
       <c r="I26" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="312" t="s">
+      <c r="J26" s="258" t="s">
         <v>2264</v>
       </c>
       <c r="K26" s="158"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="265"/>
-      <c r="C27" s="268"/>
-      <c r="D27" s="265"/>
+      <c r="B27" s="293"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
       <c r="G27" s="172" t="s">
@@ -16286,7 +16286,7 @@
       <c r="I27" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="312" t="s">
+      <c r="J27" s="258" t="s">
         <v>2265</v>
       </c>
       <c r="K27" s="158" t="s">
@@ -16295,9 +16295,9 @@
     </row>
     <row r="28" spans="1:11" ht="47.1" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="265"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="265"/>
+      <c r="B28" s="293"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="153"/>
       <c r="F28" s="161"/>
       <c r="G28" s="173" t="s">
@@ -16309,16 +16309,16 @@
       <c r="I28" s="174" t="s">
         <v>1556</v>
       </c>
-      <c r="J28" s="316" t="s">
+      <c r="J28" s="262" t="s">
         <v>2266</v>
       </c>
       <c r="K28" s="158"/>
     </row>
     <row r="29" spans="1:11" s="178" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="175"/>
-      <c r="B29" s="265"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="265"/>
+      <c r="B29" s="293"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="176"/>
       <c r="F29" s="154"/>
       <c r="G29" s="173" t="s">
@@ -16330,16 +16330,16 @@
       <c r="I29" s="177" t="s">
         <v>1534</v>
       </c>
-      <c r="J29" s="317" t="s">
+      <c r="J29" s="263" t="s">
         <v>2260</v>
       </c>
       <c r="K29" s="176"/>
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="265"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="265"/>
+      <c r="B30" s="293"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="173" t="s">
@@ -16351,16 +16351,16 @@
       <c r="I30" s="177" t="s">
         <v>1533</v>
       </c>
-      <c r="J30" s="317" t="s">
+      <c r="J30" s="263" t="s">
         <v>2261</v>
       </c>
       <c r="K30" s="158"/>
     </row>
     <row r="31" spans="1:11" ht="56.25" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="265"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="173" t="s">
@@ -16372,16 +16372,16 @@
       <c r="I31" s="179" t="s">
         <v>2250</v>
       </c>
-      <c r="J31" s="318" t="s">
+      <c r="J31" s="264" t="s">
         <v>2267</v>
       </c>
       <c r="K31" s="158"/>
     </row>
     <row r="32" spans="1:11" ht="48.75" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="265"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="265"/>
+      <c r="B32" s="293"/>
+      <c r="C32" s="280"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="173" t="s">
@@ -16398,9 +16398,9 @@
     </row>
     <row r="33" spans="1:11" ht="30.95" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="265"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="265"/>
+      <c r="B33" s="293"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="173" t="s">
@@ -16417,9 +16417,9 @@
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="265"/>
-      <c r="C34" s="268"/>
-      <c r="D34" s="265"/>
+      <c r="B34" s="293"/>
+      <c r="C34" s="280"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
       <c r="G34" s="173" t="s">
@@ -16436,9 +16436,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="265"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="265"/>
+      <c r="B35" s="293"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
       <c r="G35" s="183" t="s">
@@ -16455,9 +16455,9 @@
     </row>
     <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="265"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="265"/>
+      <c r="B36" s="293"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="186" t="s">
@@ -16474,9 +16474,9 @@
     </row>
     <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="265"/>
-      <c r="C37" s="268"/>
-      <c r="D37" s="265"/>
+      <c r="B37" s="293"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="173" t="s">
@@ -16493,9 +16493,9 @@
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="265"/>
-      <c r="C38" s="268"/>
-      <c r="D38" s="265"/>
+      <c r="B38" s="293"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="173" t="s">
@@ -16512,9 +16512,9 @@
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="265"/>
-      <c r="C39" s="268"/>
-      <c r="D39" s="265"/>
+      <c r="B39" s="293"/>
+      <c r="C39" s="280"/>
+      <c r="D39" s="293"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="173" t="s">
@@ -16531,9 +16531,9 @@
     </row>
     <row r="40" spans="1:11" ht="43.5" customHeight="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="265"/>
-      <c r="C40" s="268"/>
-      <c r="D40" s="265"/>
+      <c r="B40" s="293"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="182" t="s">
@@ -16550,9 +16550,9 @@
     </row>
     <row r="41" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="265"/>
-      <c r="C41" s="268"/>
-      <c r="D41" s="265"/>
+      <c r="B41" s="293"/>
+      <c r="C41" s="280"/>
+      <c r="D41" s="293"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="190" t="s">
@@ -16571,9 +16571,9 @@
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="265"/>
-      <c r="C42" s="268"/>
-      <c r="D42" s="265"/>
+      <c r="B42" s="293"/>
+      <c r="C42" s="280"/>
+      <c r="D42" s="293"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="186" t="s">
@@ -16590,9 +16590,9 @@
     </row>
     <row r="43" spans="1:11" ht="57" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="265"/>
-      <c r="C43" s="268"/>
-      <c r="D43" s="265"/>
+      <c r="B43" s="293"/>
+      <c r="C43" s="280"/>
+      <c r="D43" s="293"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="173" t="s">
@@ -16611,9 +16611,9 @@
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="265"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="265"/>
+      <c r="B44" s="293"/>
+      <c r="C44" s="280"/>
+      <c r="D44" s="293"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="173" t="s">
@@ -16630,9 +16630,9 @@
     </row>
     <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="265"/>
-      <c r="C45" s="268"/>
-      <c r="D45" s="265"/>
+      <c r="B45" s="293"/>
+      <c r="C45" s="280"/>
+      <c r="D45" s="293"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="173" t="s">
@@ -16649,9 +16649,9 @@
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="265"/>
-      <c r="C46" s="268"/>
-      <c r="D46" s="265"/>
+      <c r="B46" s="293"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="293"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="173" t="s">
@@ -16670,9 +16670,9 @@
     </row>
     <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="265"/>
-      <c r="C47" s="268"/>
-      <c r="D47" s="265"/>
+      <c r="B47" s="293"/>
+      <c r="C47" s="280"/>
+      <c r="D47" s="293"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="195" t="s">
@@ -16691,9 +16691,9 @@
     </row>
     <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="265"/>
-      <c r="C48" s="268"/>
-      <c r="D48" s="265"/>
+      <c r="B48" s="293"/>
+      <c r="C48" s="280"/>
+      <c r="D48" s="293"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="195" t="s">
@@ -16708,9 +16708,9 @@
     </row>
     <row r="49" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="265"/>
-      <c r="C49" s="268"/>
-      <c r="D49" s="265"/>
+      <c r="B49" s="293"/>
+      <c r="C49" s="280"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="183" t="s">
@@ -16727,9 +16727,9 @@
     </row>
     <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="265"/>
-      <c r="C50" s="268"/>
-      <c r="D50" s="265"/>
+      <c r="B50" s="293"/>
+      <c r="C50" s="280"/>
+      <c r="D50" s="293"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="186" t="s">
@@ -16746,9 +16746,9 @@
     </row>
     <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="265"/>
-      <c r="C51" s="268"/>
-      <c r="D51" s="265"/>
+      <c r="B51" s="293"/>
+      <c r="C51" s="280"/>
+      <c r="D51" s="293"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="173" t="s">
@@ -16765,9 +16765,9 @@
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="265"/>
-      <c r="C52" s="268"/>
-      <c r="D52" s="265"/>
+      <c r="B52" s="293"/>
+      <c r="C52" s="280"/>
+      <c r="D52" s="293"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="173" t="s">
@@ -16784,9 +16784,9 @@
     </row>
     <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="265"/>
-      <c r="C53" s="268"/>
-      <c r="D53" s="265"/>
+      <c r="B53" s="293"/>
+      <c r="C53" s="280"/>
+      <c r="D53" s="293"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="173" t="s">
@@ -16803,9 +16803,9 @@
     </row>
     <row r="54" spans="1:11" ht="30.95" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="265"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="265"/>
+      <c r="B54" s="293"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="293"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="173" t="s">
@@ -16818,13 +16818,13 @@
         <v>1561</v>
       </c>
       <c r="J54" s="185"/>
-      <c r="K54" s="281"/>
+      <c r="K54" s="286"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="265"/>
-      <c r="C55" s="268"/>
-      <c r="D55" s="265"/>
+      <c r="B55" s="293"/>
+      <c r="C55" s="280"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="195" t="s">
@@ -16835,13 +16835,13 @@
       </c>
       <c r="I55" s="177"/>
       <c r="J55" s="194"/>
-      <c r="K55" s="282"/>
+      <c r="K55" s="287"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="265"/>
-      <c r="C56" s="268"/>
-      <c r="D56" s="265"/>
+      <c r="B56" s="293"/>
+      <c r="C56" s="280"/>
+      <c r="D56" s="293"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="173" t="s">
@@ -16858,9 +16858,9 @@
     </row>
     <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="265"/>
-      <c r="C57" s="268"/>
-      <c r="D57" s="265"/>
+      <c r="B57" s="293"/>
+      <c r="C57" s="280"/>
+      <c r="D57" s="293"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="195" t="s">
@@ -16877,9 +16877,9 @@
     </row>
     <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="265"/>
-      <c r="C58" s="268"/>
-      <c r="D58" s="265"/>
+      <c r="B58" s="293"/>
+      <c r="C58" s="280"/>
+      <c r="D58" s="293"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="173" t="s">
@@ -16896,9 +16896,9 @@
     </row>
     <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="265"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="265"/>
+      <c r="B59" s="293"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="293"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
       <c r="G59" s="173" t="s">
@@ -16915,9 +16915,9 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="265"/>
-      <c r="C60" s="268"/>
-      <c r="D60" s="265"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="293"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
       <c r="G60" s="198" t="s">
@@ -16934,9 +16934,9 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="265"/>
-      <c r="C61" s="268"/>
-      <c r="D61" s="265"/>
+      <c r="B61" s="293"/>
+      <c r="C61" s="280"/>
+      <c r="D61" s="293"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
       <c r="G61" s="186" t="s">
@@ -16951,9 +16951,9 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="265"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="265"/>
+      <c r="B62" s="293"/>
+      <c r="C62" s="280"/>
+      <c r="D62" s="293"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="173" t="s">
@@ -16968,9 +16968,9 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="265"/>
-      <c r="C63" s="268"/>
-      <c r="D63" s="265"/>
+      <c r="B63" s="293"/>
+      <c r="C63" s="280"/>
+      <c r="D63" s="293"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
       <c r="G63" s="173" t="s">
@@ -16985,9 +16985,9 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="265"/>
-      <c r="C64" s="268"/>
-      <c r="D64" s="265"/>
+      <c r="B64" s="293"/>
+      <c r="C64" s="280"/>
+      <c r="D64" s="293"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
       <c r="G64" s="183" t="s">
@@ -17002,9 +17002,9 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="265"/>
-      <c r="C65" s="268"/>
-      <c r="D65" s="265"/>
+      <c r="B65" s="293"/>
+      <c r="C65" s="280"/>
+      <c r="D65" s="293"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
       <c r="G65" s="186" t="s">
@@ -17019,9 +17019,9 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="266"/>
-      <c r="C66" s="269"/>
-      <c r="D66" s="266"/>
+      <c r="B66" s="294"/>
+      <c r="C66" s="281"/>
+      <c r="D66" s="294"/>
       <c r="E66" s="153"/>
       <c r="F66" s="161"/>
       <c r="G66" s="202" t="s">
@@ -17036,13 +17036,13 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="264" t="s">
+      <c r="B67" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="267" t="s">
+      <c r="C67" s="279" t="s">
         <v>1381</v>
       </c>
-      <c r="D67" s="273" t="s">
+      <c r="D67" s="265" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="153"/>
@@ -17061,9 +17061,9 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="286"/>
-      <c r="C68" s="268"/>
-      <c r="D68" s="274"/>
+      <c r="B68" s="285"/>
+      <c r="C68" s="280"/>
+      <c r="D68" s="266"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
       <c r="G68" s="155" t="s">
@@ -17078,9 +17078,9 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="286"/>
-      <c r="C69" s="268"/>
-      <c r="D69" s="275"/>
+      <c r="B69" s="285"/>
+      <c r="C69" s="280"/>
+      <c r="D69" s="267"/>
       <c r="E69" s="153"/>
       <c r="F69" s="161"/>
       <c r="G69" s="209" t="s">
@@ -17099,11 +17099,11 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="286"/>
-      <c r="C70" s="267" t="s">
+      <c r="B70" s="285"/>
+      <c r="C70" s="279" t="s">
         <v>1384</v>
       </c>
-      <c r="D70" s="273" t="s">
+      <c r="D70" s="265" t="s">
         <v>1385</v>
       </c>
       <c r="E70" s="153"/>
@@ -17122,9 +17122,9 @@
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="286"/>
-      <c r="C71" s="268"/>
-      <c r="D71" s="274"/>
+      <c r="B71" s="285"/>
+      <c r="C71" s="280"/>
+      <c r="D71" s="266"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
       <c r="G71" s="155" t="s">
@@ -17141,9 +17141,9 @@
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
-      <c r="B72" s="286"/>
-      <c r="C72" s="268"/>
-      <c r="D72" s="274"/>
+      <c r="B72" s="285"/>
+      <c r="C72" s="280"/>
+      <c r="D72" s="266"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="209" t="s">
@@ -17160,9 +17160,9 @@
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
-      <c r="B73" s="286"/>
-      <c r="C73" s="268"/>
-      <c r="D73" s="275"/>
+      <c r="B73" s="285"/>
+      <c r="C73" s="280"/>
+      <c r="D73" s="267"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
       <c r="G73" s="209" t="s">
@@ -17179,8 +17179,8 @@
     </row>
     <row r="74" spans="1:11" ht="41.1" customHeight="1">
       <c r="A74" s="152"/>
-      <c r="B74" s="286"/>
-      <c r="C74" s="268"/>
+      <c r="B74" s="285"/>
+      <c r="C74" s="280"/>
       <c r="D74" s="210" t="s">
         <v>5</v>
       </c>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="212"/>
-      <c r="B75" s="273" t="s">
+      <c r="B75" s="265" t="s">
         <v>1391</v>
       </c>
-      <c r="C75" s="267" t="s">
+      <c r="C75" s="279" t="s">
         <v>1392</v>
       </c>
       <c r="D75" s="213" t="s">
@@ -17223,8 +17223,8 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="212"/>
-      <c r="B76" s="274"/>
-      <c r="C76" s="268"/>
+      <c r="B76" s="266"/>
+      <c r="C76" s="280"/>
       <c r="D76" s="214" t="s">
         <v>1587</v>
       </c>
@@ -17242,8 +17242,8 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="212"/>
-      <c r="B77" s="274"/>
-      <c r="C77" s="268"/>
+      <c r="B77" s="266"/>
+      <c r="C77" s="280"/>
       <c r="D77" s="214" t="s">
         <v>1590</v>
       </c>
@@ -17263,9 +17263,9 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="212"/>
-      <c r="B78" s="274"/>
-      <c r="C78" s="268"/>
-      <c r="D78" s="261" t="s">
+      <c r="B78" s="266"/>
+      <c r="C78" s="280"/>
+      <c r="D78" s="277" t="s">
         <v>1603</v>
       </c>
       <c r="E78" s="153"/>
@@ -17280,9 +17280,9 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="212"/>
-      <c r="B79" s="274"/>
-      <c r="C79" s="268"/>
-      <c r="D79" s="262"/>
+      <c r="B79" s="266"/>
+      <c r="C79" s="280"/>
+      <c r="D79" s="278"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="209" t="s">
@@ -17301,9 +17301,9 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="212"/>
-      <c r="B80" s="274"/>
-      <c r="C80" s="268"/>
-      <c r="D80" s="263"/>
+      <c r="B80" s="266"/>
+      <c r="C80" s="280"/>
+      <c r="D80" s="292"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
       <c r="G80" s="209" t="s">
@@ -17320,9 +17320,9 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="212"/>
-      <c r="B81" s="274"/>
-      <c r="C81" s="268"/>
-      <c r="D81" s="273" t="s">
+      <c r="B81" s="266"/>
+      <c r="C81" s="280"/>
+      <c r="D81" s="265" t="s">
         <v>1395</v>
       </c>
       <c r="E81" s="153"/>
@@ -17343,9 +17343,9 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="212"/>
-      <c r="B82" s="274"/>
-      <c r="C82" s="268"/>
-      <c r="D82" s="274"/>
+      <c r="B82" s="266"/>
+      <c r="C82" s="280"/>
+      <c r="D82" s="266"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
@@ -17362,9 +17362,9 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="212"/>
-      <c r="B83" s="274"/>
-      <c r="C83" s="268"/>
-      <c r="D83" s="274"/>
+      <c r="B83" s="266"/>
+      <c r="C83" s="280"/>
+      <c r="D83" s="266"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
@@ -17381,9 +17381,9 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="212"/>
-      <c r="B84" s="274"/>
-      <c r="C84" s="268"/>
-      <c r="D84" s="274"/>
+      <c r="B84" s="266"/>
+      <c r="C84" s="280"/>
+      <c r="D84" s="266"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
@@ -17400,9 +17400,9 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="212"/>
-      <c r="B85" s="274"/>
-      <c r="C85" s="268"/>
-      <c r="D85" s="275"/>
+      <c r="B85" s="266"/>
+      <c r="C85" s="280"/>
+      <c r="D85" s="267"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
@@ -17419,9 +17419,9 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="212"/>
-      <c r="B86" s="274"/>
-      <c r="C86" s="268"/>
-      <c r="D86" s="273" t="s">
+      <c r="B86" s="266"/>
+      <c r="C86" s="280"/>
+      <c r="D86" s="265" t="s">
         <v>1402</v>
       </c>
       <c r="E86" s="153"/>
@@ -17442,9 +17442,9 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="212"/>
-      <c r="B87" s="274"/>
-      <c r="C87" s="268"/>
-      <c r="D87" s="275"/>
+      <c r="B87" s="266"/>
+      <c r="C87" s="280"/>
+      <c r="D87" s="267"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
@@ -17461,8 +17461,8 @@
     </row>
     <row r="88" spans="1:11" ht="41.1" customHeight="1">
       <c r="A88" s="212"/>
-      <c r="B88" s="274"/>
-      <c r="C88" s="268"/>
+      <c r="B88" s="266"/>
+      <c r="C88" s="280"/>
       <c r="D88" s="165" t="s">
         <v>1</v>
       </c>
@@ -17484,9 +17484,9 @@
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
       <c r="A89" s="212"/>
-      <c r="B89" s="274"/>
-      <c r="C89" s="268"/>
-      <c r="D89" s="273" t="s">
+      <c r="B89" s="266"/>
+      <c r="C89" s="280"/>
+      <c r="D89" s="265" t="s">
         <v>1406</v>
       </c>
       <c r="E89" s="153"/>
@@ -17503,9 +17503,9 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="212"/>
-      <c r="B90" s="274"/>
-      <c r="C90" s="268"/>
-      <c r="D90" s="274"/>
+      <c r="B90" s="266"/>
+      <c r="C90" s="280"/>
+      <c r="D90" s="266"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
@@ -17518,9 +17518,9 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="212"/>
-      <c r="B91" s="274"/>
-      <c r="C91" s="268"/>
-      <c r="D91" s="274"/>
+      <c r="B91" s="266"/>
+      <c r="C91" s="280"/>
+      <c r="D91" s="266"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
@@ -17533,9 +17533,9 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="212"/>
-      <c r="B92" s="274"/>
-      <c r="C92" s="268"/>
-      <c r="D92" s="274"/>
+      <c r="B92" s="266"/>
+      <c r="C92" s="280"/>
+      <c r="D92" s="266"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
       <c r="G92" s="155" t="s">
@@ -17548,9 +17548,9 @@
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1">
       <c r="A93" s="212"/>
-      <c r="B93" s="274"/>
-      <c r="C93" s="268"/>
-      <c r="D93" s="275"/>
+      <c r="B93" s="266"/>
+      <c r="C93" s="280"/>
+      <c r="D93" s="267"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="209" t="s">
@@ -17563,9 +17563,9 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="212"/>
-      <c r="B94" s="274"/>
-      <c r="C94" s="268"/>
-      <c r="D94" s="273" t="s">
+      <c r="B94" s="266"/>
+      <c r="C94" s="280"/>
+      <c r="D94" s="265" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="153"/>
@@ -17584,9 +17584,9 @@
     </row>
     <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="212"/>
-      <c r="B95" s="274"/>
-      <c r="C95" s="268"/>
-      <c r="D95" s="274"/>
+      <c r="B95" s="266"/>
+      <c r="C95" s="280"/>
+      <c r="D95" s="266"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
@@ -17605,9 +17605,9 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="212"/>
-      <c r="B96" s="274"/>
-      <c r="C96" s="268"/>
-      <c r="D96" s="275"/>
+      <c r="B96" s="266"/>
+      <c r="C96" s="280"/>
+      <c r="D96" s="267"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
@@ -17622,9 +17622,9 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="212"/>
-      <c r="B97" s="274"/>
-      <c r="C97" s="268"/>
-      <c r="D97" s="273" t="s">
+      <c r="B97" s="266"/>
+      <c r="C97" s="280"/>
+      <c r="D97" s="265" t="s">
         <v>1414</v>
       </c>
       <c r="E97" s="153"/>
@@ -17641,9 +17641,9 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="212"/>
-      <c r="B98" s="274"/>
-      <c r="C98" s="268"/>
-      <c r="D98" s="275"/>
+      <c r="B98" s="266"/>
+      <c r="C98" s="280"/>
+      <c r="D98" s="267"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="155" t="s">
@@ -17658,9 +17658,9 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="212"/>
-      <c r="B99" s="274"/>
-      <c r="C99" s="268"/>
-      <c r="D99" s="258" t="s">
+      <c r="B99" s="266"/>
+      <c r="C99" s="280"/>
+      <c r="D99" s="291" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="153"/>
@@ -17677,9 +17677,9 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="212"/>
-      <c r="B100" s="274"/>
-      <c r="C100" s="269"/>
-      <c r="D100" s="258"/>
+      <c r="B100" s="266"/>
+      <c r="C100" s="281"/>
+      <c r="D100" s="291"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
@@ -17696,11 +17696,11 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="212"/>
-      <c r="B101" s="274"/>
-      <c r="C101" s="267" t="s">
+      <c r="B101" s="266"/>
+      <c r="C101" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="262" t="s">
+      <c r="D101" s="278" t="s">
         <v>1602</v>
       </c>
       <c r="E101" s="153"/>
@@ -17717,9 +17717,9 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="212"/>
-      <c r="B102" s="274"/>
-      <c r="C102" s="268"/>
-      <c r="D102" s="263"/>
+      <c r="B102" s="266"/>
+      <c r="C102" s="280"/>
+      <c r="D102" s="292"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
       <c r="G102" s="155" t="s">
@@ -17734,8 +17734,8 @@
     </row>
     <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="212"/>
-      <c r="B103" s="274"/>
-      <c r="C103" s="268"/>
+      <c r="B103" s="266"/>
+      <c r="C103" s="280"/>
       <c r="D103" s="165" t="s">
         <v>1420</v>
       </c>
@@ -17753,9 +17753,9 @@
     </row>
     <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="212"/>
-      <c r="B104" s="274"/>
-      <c r="C104" s="268"/>
-      <c r="D104" s="261" t="s">
+      <c r="B104" s="266"/>
+      <c r="C104" s="280"/>
+      <c r="D104" s="277" t="s">
         <v>1615</v>
       </c>
       <c r="E104" s="153"/>
@@ -17776,9 +17776,9 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="212"/>
-      <c r="B105" s="274"/>
-      <c r="C105" s="268"/>
-      <c r="D105" s="262"/>
+      <c r="B105" s="266"/>
+      <c r="C105" s="280"/>
+      <c r="D105" s="278"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="209" t="s">
@@ -17793,9 +17793,9 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="212"/>
-      <c r="B106" s="274"/>
-      <c r="C106" s="268"/>
-      <c r="D106" s="262"/>
+      <c r="B106" s="266"/>
+      <c r="C106" s="280"/>
+      <c r="D106" s="278"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="209" t="s">
@@ -17810,9 +17810,9 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="212"/>
-      <c r="B107" s="274"/>
-      <c r="C107" s="268"/>
-      <c r="D107" s="263"/>
+      <c r="B107" s="266"/>
+      <c r="C107" s="280"/>
+      <c r="D107" s="292"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
       <c r="G107" s="209" t="s">
@@ -17827,8 +17827,8 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="212"/>
-      <c r="B108" s="274"/>
-      <c r="C108" s="268"/>
+      <c r="B108" s="266"/>
+      <c r="C108" s="280"/>
       <c r="D108" s="165" t="s">
         <v>1393</v>
       </c>
@@ -17846,9 +17846,9 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="212"/>
-      <c r="B109" s="274"/>
-      <c r="C109" s="268"/>
-      <c r="D109" s="273" t="s">
+      <c r="B109" s="266"/>
+      <c r="C109" s="280"/>
+      <c r="D109" s="265" t="s">
         <v>1421</v>
       </c>
       <c r="E109" s="153"/>
@@ -17867,9 +17867,9 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="212"/>
-      <c r="B110" s="274"/>
-      <c r="C110" s="268"/>
-      <c r="D110" s="275"/>
+      <c r="B110" s="266"/>
+      <c r="C110" s="280"/>
+      <c r="D110" s="267"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
@@ -17886,9 +17886,9 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="212"/>
-      <c r="B111" s="274"/>
-      <c r="C111" s="268"/>
-      <c r="D111" s="283" t="s">
+      <c r="B111" s="266"/>
+      <c r="C111" s="280"/>
+      <c r="D111" s="288" t="s">
         <v>1426</v>
       </c>
       <c r="E111" s="153"/>
@@ -17905,9 +17905,9 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="212"/>
-      <c r="B112" s="274"/>
-      <c r="C112" s="268"/>
-      <c r="D112" s="284"/>
+      <c r="B112" s="266"/>
+      <c r="C112" s="280"/>
+      <c r="D112" s="289"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
@@ -17922,9 +17922,9 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="212"/>
-      <c r="B113" s="274"/>
-      <c r="C113" s="268"/>
-      <c r="D113" s="285"/>
+      <c r="B113" s="266"/>
+      <c r="C113" s="280"/>
+      <c r="D113" s="290"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
@@ -17939,8 +17939,8 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="212"/>
-      <c r="B114" s="274"/>
-      <c r="C114" s="268"/>
+      <c r="B114" s="266"/>
+      <c r="C114" s="280"/>
       <c r="D114" s="165" t="s">
         <v>9</v>
       </c>
@@ -17958,9 +17958,9 @@
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1">
       <c r="A115" s="212"/>
-      <c r="B115" s="274"/>
-      <c r="C115" s="268"/>
-      <c r="D115" s="273" t="s">
+      <c r="B115" s="266"/>
+      <c r="C115" s="280"/>
+      <c r="D115" s="265" t="s">
         <v>1429</v>
       </c>
       <c r="E115" s="153"/>
@@ -17979,9 +17979,9 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="212"/>
-      <c r="B116" s="274"/>
-      <c r="C116" s="268"/>
-      <c r="D116" s="274"/>
+      <c r="B116" s="266"/>
+      <c r="C116" s="280"/>
+      <c r="D116" s="266"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
@@ -17996,9 +17996,9 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="212"/>
-      <c r="B117" s="274"/>
-      <c r="C117" s="269"/>
-      <c r="D117" s="275"/>
+      <c r="B117" s="266"/>
+      <c r="C117" s="281"/>
+      <c r="D117" s="267"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
@@ -18015,11 +18015,11 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="212"/>
-      <c r="B118" s="274"/>
-      <c r="C118" s="267" t="s">
+      <c r="B118" s="266"/>
+      <c r="C118" s="279" t="s">
         <v>1435</v>
       </c>
-      <c r="D118" s="273" t="s">
+      <c r="D118" s="265" t="s">
         <v>1436</v>
       </c>
       <c r="E118" s="153"/>
@@ -18036,9 +18036,9 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="212"/>
-      <c r="B119" s="274"/>
-      <c r="C119" s="268"/>
-      <c r="D119" s="275"/>
+      <c r="B119" s="266"/>
+      <c r="C119" s="280"/>
+      <c r="D119" s="267"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
@@ -18054,8 +18054,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="274"/>
-      <c r="C120" s="268"/>
+      <c r="B120" s="266"/>
+      <c r="C120" s="280"/>
       <c r="D120" s="165" t="s">
         <v>1439</v>
       </c>
@@ -18074,8 +18074,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="274"/>
-      <c r="C121" s="268"/>
+      <c r="B121" s="266"/>
+      <c r="C121" s="280"/>
       <c r="D121" s="165" t="s">
         <v>1442</v>
       </c>
@@ -18092,8 +18092,8 @@
       <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="274"/>
-      <c r="C122" s="268"/>
+      <c r="B122" s="266"/>
+      <c r="C122" s="280"/>
       <c r="D122" s="223" t="s">
         <v>1444</v>
       </c>
@@ -18112,9 +18112,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="274"/>
-      <c r="C123" s="268"/>
-      <c r="D123" s="273" t="s">
+      <c r="B123" s="266"/>
+      <c r="C123" s="280"/>
+      <c r="D123" s="265" t="s">
         <v>172</v>
       </c>
       <c r="E123" s="153"/>
@@ -18130,9 +18130,9 @@
       <c r="K123" s="189"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="274"/>
-      <c r="C124" s="268"/>
-      <c r="D124" s="274"/>
+      <c r="B124" s="266"/>
+      <c r="C124" s="280"/>
+      <c r="D124" s="266"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
@@ -18148,9 +18148,9 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="274"/>
-      <c r="C125" s="268"/>
-      <c r="D125" s="274"/>
+      <c r="B125" s="266"/>
+      <c r="C125" s="280"/>
+      <c r="D125" s="266"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
@@ -18164,9 +18164,9 @@
       <c r="K125" s="189"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="274"/>
-      <c r="C126" s="268"/>
-      <c r="D126" s="275"/>
+      <c r="B126" s="266"/>
+      <c r="C126" s="280"/>
+      <c r="D126" s="267"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
@@ -18182,9 +18182,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="274"/>
-      <c r="C127" s="268"/>
-      <c r="D127" s="271" t="s">
+      <c r="B127" s="266"/>
+      <c r="C127" s="280"/>
+      <c r="D127" s="282" t="s">
         <v>1446</v>
       </c>
       <c r="E127" s="153"/>
@@ -18196,9 +18196,9 @@
       <c r="K127" s="189"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="274"/>
-      <c r="C128" s="268"/>
-      <c r="D128" s="280"/>
+      <c r="B128" s="266"/>
+      <c r="C128" s="280"/>
+      <c r="D128" s="283"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
@@ -18216,9 +18216,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="274"/>
-      <c r="C129" s="268"/>
-      <c r="D129" s="273" t="s">
+      <c r="B129" s="266"/>
+      <c r="C129" s="280"/>
+      <c r="D129" s="265" t="s">
         <v>1449</v>
       </c>
       <c r="E129" s="153"/>
@@ -18232,9 +18232,9 @@
       <c r="K129" s="189"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="274"/>
-      <c r="C130" s="268"/>
-      <c r="D130" s="274"/>
+      <c r="B130" s="266"/>
+      <c r="C130" s="280"/>
+      <c r="D130" s="266"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
       <c r="G130" s="227" t="s">
@@ -18248,9 +18248,9 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="274"/>
-      <c r="C131" s="268"/>
-      <c r="D131" s="275"/>
+      <c r="B131" s="266"/>
+      <c r="C131" s="280"/>
+      <c r="D131" s="267"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
@@ -18262,9 +18262,9 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B132" s="274"/>
-      <c r="C132" s="268"/>
-      <c r="D132" s="276" t="s">
+      <c r="B132" s="266"/>
+      <c r="C132" s="280"/>
+      <c r="D132" s="297" t="s">
         <v>167</v>
       </c>
       <c r="E132" s="153"/>
@@ -18278,9 +18278,9 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="274"/>
-      <c r="C133" s="268"/>
-      <c r="D133" s="276"/>
+      <c r="B133" s="266"/>
+      <c r="C133" s="280"/>
+      <c r="D133" s="297"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
@@ -18292,8 +18292,8 @@
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="274"/>
-      <c r="C134" s="268"/>
+      <c r="B134" s="266"/>
+      <c r="C134" s="280"/>
       <c r="D134" s="228" t="s">
         <v>171</v>
       </c>
@@ -18310,9 +18310,9 @@
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="274"/>
-      <c r="C135" s="268"/>
-      <c r="D135" s="273" t="s">
+      <c r="B135" s="266"/>
+      <c r="C135" s="280"/>
+      <c r="D135" s="265" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="153"/>
@@ -18328,9 +18328,9 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="274"/>
-      <c r="C136" s="268"/>
-      <c r="D136" s="274"/>
+      <c r="B136" s="266"/>
+      <c r="C136" s="280"/>
+      <c r="D136" s="266"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
@@ -18344,9 +18344,9 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="274"/>
-      <c r="C137" s="268"/>
-      <c r="D137" s="274"/>
+      <c r="B137" s="266"/>
+      <c r="C137" s="280"/>
+      <c r="D137" s="266"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
@@ -18360,9 +18360,9 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="274"/>
-      <c r="C138" s="268"/>
-      <c r="D138" s="274"/>
+      <c r="B138" s="266"/>
+      <c r="C138" s="280"/>
+      <c r="D138" s="266"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
@@ -18376,9 +18376,9 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="274"/>
-      <c r="C139" s="268"/>
-      <c r="D139" s="274"/>
+      <c r="B139" s="266"/>
+      <c r="C139" s="280"/>
+      <c r="D139" s="266"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
@@ -18392,9 +18392,9 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="274"/>
-      <c r="C140" s="268"/>
-      <c r="D140" s="274"/>
+      <c r="B140" s="266"/>
+      <c r="C140" s="280"/>
+      <c r="D140" s="266"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
@@ -18408,9 +18408,9 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="274"/>
-      <c r="C141" s="268"/>
-      <c r="D141" s="274"/>
+      <c r="B141" s="266"/>
+      <c r="C141" s="280"/>
+      <c r="D141" s="266"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
@@ -18424,9 +18424,9 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="274"/>
-      <c r="C142" s="269"/>
-      <c r="D142" s="275"/>
+      <c r="B142" s="266"/>
+      <c r="C142" s="281"/>
+      <c r="D142" s="267"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
@@ -18440,11 +18440,11 @@
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="274"/>
-      <c r="C143" s="267" t="s">
+      <c r="B143" s="266"/>
+      <c r="C143" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="273" t="s">
+      <c r="D143" s="265" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="153"/>
@@ -18460,9 +18460,9 @@
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="274"/>
-      <c r="C144" s="268"/>
-      <c r="D144" s="274"/>
+      <c r="B144" s="266"/>
+      <c r="C144" s="280"/>
+      <c r="D144" s="266"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
@@ -18476,9 +18476,9 @@
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="274"/>
-      <c r="C145" s="268"/>
-      <c r="D145" s="275"/>
+      <c r="B145" s="266"/>
+      <c r="C145" s="280"/>
+      <c r="D145" s="267"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
@@ -18492,9 +18492,9 @@
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="274"/>
-      <c r="C146" s="268"/>
-      <c r="D146" s="273" t="s">
+      <c r="B146" s="266"/>
+      <c r="C146" s="280"/>
+      <c r="D146" s="265" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="153"/>
@@ -18510,9 +18510,9 @@
       <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="274"/>
-      <c r="C147" s="268"/>
-      <c r="D147" s="275"/>
+      <c r="B147" s="266"/>
+      <c r="C147" s="280"/>
+      <c r="D147" s="267"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
@@ -18526,8 +18526,8 @@
       <c r="K147" s="189"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="274"/>
-      <c r="C148" s="269"/>
+      <c r="B148" s="266"/>
+      <c r="C148" s="281"/>
       <c r="D148" s="165" t="s">
         <v>27</v>
       </c>
@@ -18544,11 +18544,11 @@
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="274"/>
-      <c r="C149" s="267" t="s">
+      <c r="B149" s="266"/>
+      <c r="C149" s="279" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="273" t="s">
+      <c r="D149" s="265" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="153"/>
@@ -18564,9 +18564,9 @@
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="274"/>
-      <c r="C150" s="268"/>
-      <c r="D150" s="274"/>
+      <c r="B150" s="266"/>
+      <c r="C150" s="280"/>
+      <c r="D150" s="266"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
       <c r="G150" s="155" t="s">
@@ -18580,9 +18580,9 @@
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="274"/>
-      <c r="C151" s="268"/>
-      <c r="D151" s="274"/>
+      <c r="B151" s="266"/>
+      <c r="C151" s="280"/>
+      <c r="D151" s="266"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
       <c r="G151" s="155" t="s">
@@ -18596,9 +18596,9 @@
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="274"/>
-      <c r="C152" s="268"/>
-      <c r="D152" s="275"/>
+      <c r="B152" s="266"/>
+      <c r="C152" s="280"/>
+      <c r="D152" s="267"/>
       <c r="E152" s="153"/>
       <c r="F152" s="161"/>
       <c r="G152" s="155" t="s">
@@ -18610,9 +18610,9 @@
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="274"/>
-      <c r="C153" s="268"/>
-      <c r="D153" s="271" t="s">
+      <c r="B153" s="266"/>
+      <c r="C153" s="280"/>
+      <c r="D153" s="282" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="229"/>
@@ -18628,9 +18628,9 @@
       <c r="K153" s="158"/>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="274"/>
-      <c r="C154" s="268"/>
-      <c r="D154" s="280"/>
+      <c r="B154" s="266"/>
+      <c r="C154" s="280"/>
+      <c r="D154" s="283"/>
       <c r="E154" s="229"/>
       <c r="F154" s="230"/>
       <c r="G154" s="155" t="s">
@@ -18644,8 +18644,8 @@
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="274"/>
-      <c r="C155" s="268"/>
+      <c r="B155" s="266"/>
+      <c r="C155" s="280"/>
       <c r="D155" s="165" t="s">
         <v>38</v>
       </c>
@@ -18662,8 +18662,8 @@
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B156" s="274"/>
-      <c r="C156" s="268"/>
+      <c r="B156" s="266"/>
+      <c r="C156" s="280"/>
       <c r="D156" s="165" t="s">
         <v>40</v>
       </c>
@@ -18678,9 +18678,9 @@
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="274"/>
-      <c r="C157" s="268"/>
-      <c r="D157" s="273" t="s">
+      <c r="B157" s="266"/>
+      <c r="C157" s="280"/>
+      <c r="D157" s="265" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="153"/>
@@ -18696,9 +18696,9 @@
       <c r="K157" s="158"/>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="274"/>
-      <c r="C158" s="268"/>
-      <c r="D158" s="274"/>
+      <c r="B158" s="266"/>
+      <c r="C158" s="280"/>
+      <c r="D158" s="266"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
@@ -18712,9 +18712,9 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B159" s="274"/>
-      <c r="C159" s="268"/>
-      <c r="D159" s="274"/>
+      <c r="B159" s="266"/>
+      <c r="C159" s="280"/>
+      <c r="D159" s="266"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
@@ -18728,9 +18728,9 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="274"/>
-      <c r="C160" s="268"/>
-      <c r="D160" s="274"/>
+      <c r="B160" s="266"/>
+      <c r="C160" s="280"/>
+      <c r="D160" s="266"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
@@ -18744,9 +18744,9 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="274"/>
-      <c r="C161" s="268"/>
-      <c r="D161" s="274"/>
+      <c r="B161" s="266"/>
+      <c r="C161" s="280"/>
+      <c r="D161" s="266"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
@@ -18760,9 +18760,9 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B162" s="274"/>
-      <c r="C162" s="268"/>
-      <c r="D162" s="274"/>
+      <c r="B162" s="266"/>
+      <c r="C162" s="280"/>
+      <c r="D162" s="266"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
@@ -18776,9 +18776,9 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B163" s="274"/>
-      <c r="C163" s="268"/>
-      <c r="D163" s="274"/>
+      <c r="B163" s="266"/>
+      <c r="C163" s="280"/>
+      <c r="D163" s="266"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="155" t="s">
@@ -18792,9 +18792,9 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="274"/>
-      <c r="C164" s="268"/>
-      <c r="D164" s="274"/>
+      <c r="B164" s="266"/>
+      <c r="C164" s="280"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
@@ -18808,9 +18808,9 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="274"/>
-      <c r="C165" s="268"/>
-      <c r="D165" s="274"/>
+      <c r="B165" s="266"/>
+      <c r="C165" s="280"/>
+      <c r="D165" s="266"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
@@ -18824,9 +18824,9 @@
       <c r="K165" s="158"/>
     </row>
     <row r="166" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B166" s="274"/>
-      <c r="C166" s="269"/>
-      <c r="D166" s="275"/>
+      <c r="B166" s="266"/>
+      <c r="C166" s="281"/>
+      <c r="D166" s="267"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
@@ -18840,11 +18840,11 @@
       <c r="K166" s="232"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="274"/>
-      <c r="C167" s="267" t="s">
+      <c r="B167" s="266"/>
+      <c r="C167" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="273" t="s">
+      <c r="D167" s="265" t="s">
         <v>107</v>
       </c>
       <c r="E167" s="153"/>
@@ -18858,9 +18858,9 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="274"/>
-      <c r="C168" s="268"/>
-      <c r="D168" s="274"/>
+      <c r="B168" s="266"/>
+      <c r="C168" s="280"/>
+      <c r="D168" s="266"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
@@ -18872,9 +18872,9 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="274"/>
-      <c r="C169" s="268"/>
-      <c r="D169" s="274"/>
+      <c r="B169" s="266"/>
+      <c r="C169" s="280"/>
+      <c r="D169" s="266"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
@@ -18886,9 +18886,9 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="274"/>
-      <c r="C170" s="268"/>
-      <c r="D170" s="274"/>
+      <c r="B170" s="266"/>
+      <c r="C170" s="280"/>
+      <c r="D170" s="266"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
@@ -18900,9 +18900,9 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="274"/>
-      <c r="C171" s="268"/>
-      <c r="D171" s="274"/>
+      <c r="B171" s="266"/>
+      <c r="C171" s="280"/>
+      <c r="D171" s="266"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
@@ -18914,9 +18914,9 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="274"/>
-      <c r="C172" s="268"/>
-      <c r="D172" s="274"/>
+      <c r="B172" s="266"/>
+      <c r="C172" s="280"/>
+      <c r="D172" s="266"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
@@ -18928,9 +18928,9 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="274"/>
-      <c r="C173" s="268"/>
-      <c r="D173" s="274"/>
+      <c r="B173" s="266"/>
+      <c r="C173" s="280"/>
+      <c r="D173" s="266"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
@@ -18942,9 +18942,9 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="274"/>
-      <c r="C174" s="268"/>
-      <c r="D174" s="274"/>
+      <c r="B174" s="266"/>
+      <c r="C174" s="280"/>
+      <c r="D174" s="266"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
@@ -18956,9 +18956,9 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="274"/>
-      <c r="C175" s="268"/>
-      <c r="D175" s="275"/>
+      <c r="B175" s="266"/>
+      <c r="C175" s="280"/>
+      <c r="D175" s="267"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
@@ -18970,9 +18970,9 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="274"/>
-      <c r="C176" s="268"/>
-      <c r="D176" s="273" t="s">
+      <c r="B176" s="266"/>
+      <c r="C176" s="280"/>
+      <c r="D176" s="265" t="s">
         <v>109</v>
       </c>
       <c r="E176" s="153"/>
@@ -18986,9 +18986,9 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="274"/>
-      <c r="C177" s="268"/>
-      <c r="D177" s="274"/>
+      <c r="B177" s="266"/>
+      <c r="C177" s="280"/>
+      <c r="D177" s="266"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
@@ -19000,9 +19000,9 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="274"/>
-      <c r="C178" s="268"/>
-      <c r="D178" s="274"/>
+      <c r="B178" s="266"/>
+      <c r="C178" s="280"/>
+      <c r="D178" s="266"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
@@ -19014,9 +19014,9 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="274"/>
-      <c r="C179" s="268"/>
-      <c r="D179" s="274"/>
+      <c r="B179" s="266"/>
+      <c r="C179" s="280"/>
+      <c r="D179" s="266"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
@@ -19028,9 +19028,9 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="274"/>
-      <c r="C180" s="268"/>
-      <c r="D180" s="274"/>
+      <c r="B180" s="266"/>
+      <c r="C180" s="280"/>
+      <c r="D180" s="266"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
@@ -19042,9 +19042,9 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="274"/>
-      <c r="C181" s="268"/>
-      <c r="D181" s="274"/>
+      <c r="B181" s="266"/>
+      <c r="C181" s="280"/>
+      <c r="D181" s="266"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
@@ -19056,9 +19056,9 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="274"/>
-      <c r="C182" s="268"/>
-      <c r="D182" s="274"/>
+      <c r="B182" s="266"/>
+      <c r="C182" s="280"/>
+      <c r="D182" s="266"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
@@ -19070,9 +19070,9 @@
       <c r="K182" s="158"/>
     </row>
     <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B183" s="274"/>
-      <c r="C183" s="269"/>
-      <c r="D183" s="275"/>
+      <c r="B183" s="266"/>
+      <c r="C183" s="281"/>
+      <c r="D183" s="267"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
@@ -19084,8 +19084,8 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="274"/>
-      <c r="C184" s="277" t="s">
+      <c r="B184" s="266"/>
+      <c r="C184" s="274" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="165"/>
@@ -19100,8 +19100,8 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="274"/>
-      <c r="C185" s="278"/>
+      <c r="B185" s="266"/>
+      <c r="C185" s="275"/>
       <c r="D185" s="233" t="s">
         <v>157</v>
       </c>
@@ -19116,8 +19116,8 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="274"/>
-      <c r="C186" s="278"/>
+      <c r="B186" s="266"/>
+      <c r="C186" s="275"/>
       <c r="D186" s="235"/>
       <c r="E186" s="224"/>
       <c r="F186" s="234"/>
@@ -19130,8 +19130,8 @@
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="274"/>
-      <c r="C187" s="278"/>
+      <c r="B187" s="266"/>
+      <c r="C187" s="275"/>
       <c r="D187" s="166" t="s">
         <v>159</v>
       </c>
@@ -19144,8 +19144,8 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="274"/>
-      <c r="C188" s="278"/>
+      <c r="B188" s="266"/>
+      <c r="C188" s="275"/>
       <c r="D188" s="166" t="s">
         <v>160</v>
       </c>
@@ -19158,8 +19158,8 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="274"/>
-      <c r="C189" s="278"/>
+      <c r="B189" s="266"/>
+      <c r="C189" s="275"/>
       <c r="D189" s="166" t="s">
         <v>161</v>
       </c>
@@ -19172,8 +19172,8 @@
       <c r="K189" s="158"/>
     </row>
     <row r="190" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B190" s="274"/>
-      <c r="C190" s="278"/>
+      <c r="B190" s="266"/>
+      <c r="C190" s="275"/>
       <c r="D190" s="166" t="s">
         <v>162</v>
       </c>
@@ -19186,8 +19186,8 @@
       <c r="K190" s="158"/>
     </row>
     <row r="191" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B191" s="274"/>
-      <c r="C191" s="278"/>
+      <c r="B191" s="266"/>
+      <c r="C191" s="275"/>
       <c r="D191" s="237" t="s">
         <v>197</v>
       </c>
@@ -19200,8 +19200,8 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="274"/>
-      <c r="C192" s="278"/>
+      <c r="B192" s="266"/>
+      <c r="C192" s="275"/>
       <c r="D192" s="166" t="s">
         <v>163</v>
       </c>
@@ -19214,8 +19214,8 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="275"/>
-      <c r="C193" s="279"/>
+      <c r="B193" s="267"/>
+      <c r="C193" s="276"/>
       <c r="D193" s="166" t="s">
         <v>164</v>
       </c>
@@ -19228,13 +19228,13 @@
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="261" t="s">
+      <c r="B194" s="277" t="s">
         <v>129</v>
       </c>
-      <c r="C194" s="267" t="s">
+      <c r="C194" s="279" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="273" t="s">
+      <c r="D194" s="265" t="s">
         <v>56</v>
       </c>
       <c r="E194" s="153"/>
@@ -19250,9 +19250,9 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="262"/>
-      <c r="C195" s="268"/>
-      <c r="D195" s="275"/>
+      <c r="B195" s="278"/>
+      <c r="C195" s="280"/>
+      <c r="D195" s="267"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
@@ -19266,8 +19266,8 @@
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="262"/>
-      <c r="C196" s="268"/>
+      <c r="B196" s="278"/>
+      <c r="C196" s="280"/>
       <c r="D196" s="165" t="s">
         <v>59</v>
       </c>
@@ -19282,9 +19282,9 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="262"/>
-      <c r="C197" s="268"/>
-      <c r="D197" s="273" t="s">
+      <c r="B197" s="278"/>
+      <c r="C197" s="280"/>
+      <c r="D197" s="265" t="s">
         <v>61</v>
       </c>
       <c r="E197" s="153"/>
@@ -19298,9 +19298,9 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="262"/>
-      <c r="C198" s="268"/>
-      <c r="D198" s="274"/>
+      <c r="B198" s="278"/>
+      <c r="C198" s="280"/>
+      <c r="D198" s="266"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
@@ -19312,9 +19312,9 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="262"/>
-      <c r="C199" s="268"/>
-      <c r="D199" s="275"/>
+      <c r="B199" s="278"/>
+      <c r="C199" s="280"/>
+      <c r="D199" s="267"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
@@ -19326,9 +19326,9 @@
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="262"/>
-      <c r="C200" s="268"/>
-      <c r="D200" s="273" t="s">
+      <c r="B200" s="278"/>
+      <c r="C200" s="280"/>
+      <c r="D200" s="265" t="s">
         <v>65</v>
       </c>
       <c r="E200" s="153"/>
@@ -19344,9 +19344,9 @@
       <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B201" s="262"/>
-      <c r="C201" s="268"/>
-      <c r="D201" s="275"/>
+      <c r="B201" s="278"/>
+      <c r="C201" s="280"/>
+      <c r="D201" s="267"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
@@ -19358,9 +19358,9 @@
       <c r="K201" s="189"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="262"/>
-      <c r="C202" s="268"/>
-      <c r="D202" s="273" t="s">
+      <c r="B202" s="278"/>
+      <c r="C202" s="280"/>
+      <c r="D202" s="265" t="s">
         <v>68</v>
       </c>
       <c r="E202" s="153"/>
@@ -19374,9 +19374,9 @@
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="262"/>
-      <c r="C203" s="268"/>
-      <c r="D203" s="275"/>
+      <c r="B203" s="278"/>
+      <c r="C203" s="280"/>
+      <c r="D203" s="267"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
@@ -19390,9 +19390,9 @@
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="262"/>
-      <c r="C204" s="268"/>
-      <c r="D204" s="273" t="s">
+      <c r="B204" s="278"/>
+      <c r="C204" s="280"/>
+      <c r="D204" s="265" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="153"/>
@@ -19406,9 +19406,9 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="262"/>
-      <c r="C205" s="268"/>
-      <c r="D205" s="274"/>
+      <c r="B205" s="278"/>
+      <c r="C205" s="280"/>
+      <c r="D205" s="266"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
@@ -19420,9 +19420,9 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="262"/>
-      <c r="C206" s="268"/>
-      <c r="D206" s="274"/>
+      <c r="B206" s="278"/>
+      <c r="C206" s="280"/>
+      <c r="D206" s="266"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
@@ -19434,9 +19434,9 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="262"/>
-      <c r="C207" s="268"/>
-      <c r="D207" s="274"/>
+      <c r="B207" s="278"/>
+      <c r="C207" s="280"/>
+      <c r="D207" s="266"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
@@ -19448,9 +19448,9 @@
       <c r="K207" s="158"/>
     </row>
     <row r="208" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B208" s="262"/>
-      <c r="C208" s="268"/>
-      <c r="D208" s="274"/>
+      <c r="B208" s="278"/>
+      <c r="C208" s="280"/>
+      <c r="D208" s="266"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
@@ -19462,9 +19462,9 @@
       <c r="K208" s="158"/>
     </row>
     <row r="209" spans="2:11" ht="30" customHeight="1">
-      <c r="B209" s="262"/>
-      <c r="C209" s="269"/>
-      <c r="D209" s="275"/>
+      <c r="B209" s="278"/>
+      <c r="C209" s="281"/>
+      <c r="D209" s="267"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
@@ -19476,11 +19476,11 @@
       <c r="K209" s="239"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="262"/>
-      <c r="C210" s="267" t="s">
+      <c r="B210" s="278"/>
+      <c r="C210" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="D210" s="273" t="s">
+      <c r="D210" s="265" t="s">
         <v>1454</v>
       </c>
       <c r="E210" s="153"/>
@@ -19494,9 +19494,9 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="262"/>
-      <c r="C211" s="268"/>
-      <c r="D211" s="274"/>
+      <c r="B211" s="278"/>
+      <c r="C211" s="280"/>
+      <c r="D211" s="266"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
@@ -19508,9 +19508,9 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="262"/>
-      <c r="C212" s="268"/>
-      <c r="D212" s="274"/>
+      <c r="B212" s="278"/>
+      <c r="C212" s="280"/>
+      <c r="D212" s="266"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
@@ -19522,9 +19522,9 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="262"/>
-      <c r="C213" s="268"/>
-      <c r="D213" s="274"/>
+      <c r="B213" s="278"/>
+      <c r="C213" s="280"/>
+      <c r="D213" s="266"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
       <c r="G213" s="155" t="s">
@@ -19536,9 +19536,9 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="262"/>
-      <c r="C214" s="268"/>
-      <c r="D214" s="274"/>
+      <c r="B214" s="278"/>
+      <c r="C214" s="280"/>
+      <c r="D214" s="266"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="240" t="s">
@@ -19550,9 +19550,9 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="262"/>
-      <c r="C215" s="268"/>
-      <c r="D215" s="274"/>
+      <c r="B215" s="278"/>
+      <c r="C215" s="280"/>
+      <c r="D215" s="266"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="240" t="s">
@@ -19564,9 +19564,9 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="262"/>
-      <c r="C216" s="268"/>
-      <c r="D216" s="274"/>
+      <c r="B216" s="278"/>
+      <c r="C216" s="280"/>
+      <c r="D216" s="266"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
       <c r="G216" s="240" t="s">
@@ -19578,9 +19578,9 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="262"/>
-      <c r="C217" s="268"/>
-      <c r="D217" s="274"/>
+      <c r="B217" s="278"/>
+      <c r="C217" s="280"/>
+      <c r="D217" s="266"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
@@ -19592,9 +19592,9 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="262"/>
-      <c r="C218" s="268"/>
-      <c r="D218" s="274"/>
+      <c r="B218" s="278"/>
+      <c r="C218" s="280"/>
+      <c r="D218" s="266"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
@@ -19606,9 +19606,9 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="262"/>
-      <c r="C219" s="268"/>
-      <c r="D219" s="274"/>
+      <c r="B219" s="278"/>
+      <c r="C219" s="280"/>
+      <c r="D219" s="266"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
@@ -19620,9 +19620,9 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="262"/>
-      <c r="C220" s="268"/>
-      <c r="D220" s="274"/>
+      <c r="B220" s="278"/>
+      <c r="C220" s="280"/>
+      <c r="D220" s="266"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
@@ -19634,9 +19634,9 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="262"/>
-      <c r="C221" s="268"/>
-      <c r="D221" s="274"/>
+      <c r="B221" s="278"/>
+      <c r="C221" s="280"/>
+      <c r="D221" s="266"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
@@ -19648,9 +19648,9 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="262"/>
-      <c r="C222" s="268"/>
-      <c r="D222" s="274"/>
+      <c r="B222" s="278"/>
+      <c r="C222" s="280"/>
+      <c r="D222" s="266"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
@@ -19662,9 +19662,9 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="262"/>
-      <c r="C223" s="268"/>
-      <c r="D223" s="274"/>
+      <c r="B223" s="278"/>
+      <c r="C223" s="280"/>
+      <c r="D223" s="266"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
@@ -19676,9 +19676,9 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="262"/>
-      <c r="C224" s="268"/>
-      <c r="D224" s="274"/>
+      <c r="B224" s="278"/>
+      <c r="C224" s="280"/>
+      <c r="D224" s="266"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
@@ -19690,9 +19690,9 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="262"/>
-      <c r="C225" s="268"/>
-      <c r="D225" s="274"/>
+      <c r="B225" s="278"/>
+      <c r="C225" s="280"/>
+      <c r="D225" s="266"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
@@ -19704,9 +19704,9 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="262"/>
-      <c r="C226" s="268"/>
-      <c r="D226" s="274"/>
+      <c r="B226" s="278"/>
+      <c r="C226" s="280"/>
+      <c r="D226" s="266"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
@@ -19718,9 +19718,9 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="262"/>
-      <c r="C227" s="268"/>
-      <c r="D227" s="274"/>
+      <c r="B227" s="278"/>
+      <c r="C227" s="280"/>
+      <c r="D227" s="266"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
@@ -19732,9 +19732,9 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="262"/>
-      <c r="C228" s="268"/>
-      <c r="D228" s="274"/>
+      <c r="B228" s="278"/>
+      <c r="C228" s="280"/>
+      <c r="D228" s="266"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
@@ -19746,9 +19746,9 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="262"/>
-      <c r="C229" s="268"/>
-      <c r="D229" s="274"/>
+      <c r="B229" s="278"/>
+      <c r="C229" s="280"/>
+      <c r="D229" s="266"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
@@ -19760,9 +19760,9 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="262"/>
-      <c r="C230" s="268"/>
-      <c r="D230" s="274"/>
+      <c r="B230" s="278"/>
+      <c r="C230" s="280"/>
+      <c r="D230" s="266"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
@@ -19774,9 +19774,9 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="262"/>
-      <c r="C231" s="268"/>
-      <c r="D231" s="274"/>
+      <c r="B231" s="278"/>
+      <c r="C231" s="280"/>
+      <c r="D231" s="266"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
@@ -19788,9 +19788,9 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="262"/>
-      <c r="C232" s="268"/>
-      <c r="D232" s="274"/>
+      <c r="B232" s="278"/>
+      <c r="C232" s="280"/>
+      <c r="D232" s="266"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
@@ -19802,9 +19802,9 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="262"/>
-      <c r="C233" s="268"/>
-      <c r="D233" s="274"/>
+      <c r="B233" s="278"/>
+      <c r="C233" s="280"/>
+      <c r="D233" s="266"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
@@ -19816,9 +19816,9 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="262"/>
-      <c r="C234" s="268"/>
-      <c r="D234" s="274"/>
+      <c r="B234" s="278"/>
+      <c r="C234" s="280"/>
+      <c r="D234" s="266"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
@@ -19830,9 +19830,9 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="262"/>
-      <c r="C235" s="268"/>
-      <c r="D235" s="274"/>
+      <c r="B235" s="278"/>
+      <c r="C235" s="280"/>
+      <c r="D235" s="266"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
@@ -19844,9 +19844,9 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="262"/>
-      <c r="C236" s="268"/>
-      <c r="D236" s="274"/>
+      <c r="B236" s="278"/>
+      <c r="C236" s="280"/>
+      <c r="D236" s="266"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
@@ -19858,9 +19858,9 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="262"/>
-      <c r="C237" s="268"/>
-      <c r="D237" s="274"/>
+      <c r="B237" s="278"/>
+      <c r="C237" s="280"/>
+      <c r="D237" s="266"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
@@ -19872,9 +19872,9 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="262"/>
-      <c r="C238" s="268"/>
-      <c r="D238" s="274"/>
+      <c r="B238" s="278"/>
+      <c r="C238" s="280"/>
+      <c r="D238" s="266"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
@@ -19886,9 +19886,9 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="262"/>
-      <c r="C239" s="268"/>
-      <c r="D239" s="274"/>
+      <c r="B239" s="278"/>
+      <c r="C239" s="280"/>
+      <c r="D239" s="266"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
@@ -19900,9 +19900,9 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="262"/>
-      <c r="C240" s="269"/>
-      <c r="D240" s="275"/>
+      <c r="B240" s="278"/>
+      <c r="C240" s="281"/>
+      <c r="D240" s="267"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
@@ -19914,11 +19914,11 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="262"/>
-      <c r="C241" s="267" t="s">
+      <c r="B241" s="278"/>
+      <c r="C241" s="279" t="s">
         <v>1472</v>
       </c>
-      <c r="D241" s="273" t="s">
+      <c r="D241" s="265" t="s">
         <v>134</v>
       </c>
       <c r="E241" s="153"/>
@@ -19932,9 +19932,9 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="262"/>
-      <c r="C242" s="268"/>
-      <c r="D242" s="274"/>
+      <c r="B242" s="278"/>
+      <c r="C242" s="280"/>
+      <c r="D242" s="266"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
@@ -19946,9 +19946,9 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="262"/>
-      <c r="C243" s="268"/>
-      <c r="D243" s="274"/>
+      <c r="B243" s="278"/>
+      <c r="C243" s="280"/>
+      <c r="D243" s="266"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
@@ -19960,9 +19960,9 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="262"/>
-      <c r="C244" s="268"/>
-      <c r="D244" s="274"/>
+      <c r="B244" s="278"/>
+      <c r="C244" s="280"/>
+      <c r="D244" s="266"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
@@ -19974,9 +19974,9 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="262"/>
-      <c r="C245" s="268"/>
-      <c r="D245" s="274"/>
+      <c r="B245" s="278"/>
+      <c r="C245" s="280"/>
+      <c r="D245" s="266"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
@@ -19988,9 +19988,9 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="262"/>
-      <c r="C246" s="268"/>
-      <c r="D246" s="274"/>
+      <c r="B246" s="278"/>
+      <c r="C246" s="280"/>
+      <c r="D246" s="266"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
@@ -20002,9 +20002,9 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="262"/>
-      <c r="C247" s="268"/>
-      <c r="D247" s="274"/>
+      <c r="B247" s="278"/>
+      <c r="C247" s="280"/>
+      <c r="D247" s="266"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
@@ -20016,9 +20016,9 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="262"/>
-      <c r="C248" s="268"/>
-      <c r="D248" s="274"/>
+      <c r="B248" s="278"/>
+      <c r="C248" s="280"/>
+      <c r="D248" s="266"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
@@ -20030,9 +20030,9 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="262"/>
-      <c r="C249" s="268"/>
-      <c r="D249" s="274"/>
+      <c r="B249" s="278"/>
+      <c r="C249" s="280"/>
+      <c r="D249" s="266"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
@@ -20044,9 +20044,9 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="262"/>
-      <c r="C250" s="268"/>
-      <c r="D250" s="274"/>
+      <c r="B250" s="278"/>
+      <c r="C250" s="280"/>
+      <c r="D250" s="266"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
@@ -20058,9 +20058,9 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="262"/>
-      <c r="C251" s="268"/>
-      <c r="D251" s="274"/>
+      <c r="B251" s="278"/>
+      <c r="C251" s="280"/>
+      <c r="D251" s="266"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
@@ -20072,9 +20072,9 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="262"/>
-      <c r="C252" s="268"/>
-      <c r="D252" s="274"/>
+      <c r="B252" s="278"/>
+      <c r="C252" s="280"/>
+      <c r="D252" s="266"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
@@ -20086,9 +20086,9 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="262"/>
-      <c r="C253" s="268"/>
-      <c r="D253" s="274"/>
+      <c r="B253" s="278"/>
+      <c r="C253" s="280"/>
+      <c r="D253" s="266"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
@@ -20100,9 +20100,9 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="262"/>
-      <c r="C254" s="268"/>
-      <c r="D254" s="274"/>
+      <c r="B254" s="278"/>
+      <c r="C254" s="280"/>
+      <c r="D254" s="266"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
@@ -20114,9 +20114,9 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="262"/>
-      <c r="C255" s="268"/>
-      <c r="D255" s="274"/>
+      <c r="B255" s="278"/>
+      <c r="C255" s="280"/>
+      <c r="D255" s="266"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
@@ -20128,9 +20128,9 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="262"/>
-      <c r="C256" s="268"/>
-      <c r="D256" s="274"/>
+      <c r="B256" s="278"/>
+      <c r="C256" s="280"/>
+      <c r="D256" s="266"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
@@ -20142,9 +20142,9 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="262"/>
-      <c r="C257" s="269"/>
-      <c r="D257" s="275"/>
+      <c r="B257" s="278"/>
+      <c r="C257" s="281"/>
+      <c r="D257" s="267"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
@@ -20156,11 +20156,11 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="262"/>
-      <c r="C258" s="277" t="s">
+      <c r="B258" s="278"/>
+      <c r="C258" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="D258" s="273" t="s">
+      <c r="D258" s="265" t="s">
         <v>1478</v>
       </c>
       <c r="E258" s="153"/>
@@ -20174,9 +20174,9 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="262"/>
-      <c r="C259" s="278"/>
-      <c r="D259" s="274"/>
+      <c r="B259" s="278"/>
+      <c r="C259" s="275"/>
+      <c r="D259" s="266"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
@@ -20188,9 +20188,9 @@
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="262"/>
-      <c r="C260" s="278"/>
-      <c r="D260" s="274"/>
+      <c r="B260" s="278"/>
+      <c r="C260" s="275"/>
+      <c r="D260" s="266"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
@@ -20202,9 +20202,9 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="262"/>
-      <c r="C261" s="278"/>
-      <c r="D261" s="274"/>
+      <c r="B261" s="278"/>
+      <c r="C261" s="275"/>
+      <c r="D261" s="266"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
@@ -20216,9 +20216,9 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="262"/>
-      <c r="C262" s="278"/>
-      <c r="D262" s="274"/>
+      <c r="B262" s="278"/>
+      <c r="C262" s="275"/>
+      <c r="D262" s="266"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
@@ -20230,9 +20230,9 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="262"/>
-      <c r="C263" s="278"/>
-      <c r="D263" s="274"/>
+      <c r="B263" s="278"/>
+      <c r="C263" s="275"/>
+      <c r="D263" s="266"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
@@ -20244,9 +20244,9 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="262"/>
-      <c r="C264" s="278"/>
-      <c r="D264" s="274"/>
+      <c r="B264" s="278"/>
+      <c r="C264" s="275"/>
+      <c r="D264" s="266"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
@@ -20258,9 +20258,9 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="262"/>
-      <c r="C265" s="278"/>
-      <c r="D265" s="274"/>
+      <c r="B265" s="278"/>
+      <c r="C265" s="275"/>
+      <c r="D265" s="266"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
@@ -20272,9 +20272,9 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="262"/>
-      <c r="C266" s="278"/>
-      <c r="D266" s="274"/>
+      <c r="B266" s="278"/>
+      <c r="C266" s="275"/>
+      <c r="D266" s="266"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
@@ -20286,9 +20286,9 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="262"/>
-      <c r="C267" s="278"/>
-      <c r="D267" s="274"/>
+      <c r="B267" s="278"/>
+      <c r="C267" s="275"/>
+      <c r="D267" s="266"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
@@ -20300,9 +20300,9 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="262"/>
-      <c r="C268" s="278"/>
-      <c r="D268" s="274"/>
+      <c r="B268" s="278"/>
+      <c r="C268" s="275"/>
+      <c r="D268" s="266"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
@@ -20314,9 +20314,9 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="262"/>
-      <c r="C269" s="278"/>
-      <c r="D269" s="274"/>
+      <c r="B269" s="278"/>
+      <c r="C269" s="275"/>
+      <c r="D269" s="266"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
@@ -20328,9 +20328,9 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="262"/>
-      <c r="C270" s="278"/>
-      <c r="D270" s="274"/>
+      <c r="B270" s="278"/>
+      <c r="C270" s="275"/>
+      <c r="D270" s="266"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
@@ -20342,9 +20342,9 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="262"/>
-      <c r="C271" s="278"/>
-      <c r="D271" s="274"/>
+      <c r="B271" s="278"/>
+      <c r="C271" s="275"/>
+      <c r="D271" s="266"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
@@ -20356,9 +20356,9 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="262"/>
-      <c r="C272" s="278"/>
-      <c r="D272" s="274"/>
+      <c r="B272" s="278"/>
+      <c r="C272" s="275"/>
+      <c r="D272" s="266"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
@@ -20370,9 +20370,9 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="262"/>
-      <c r="C273" s="278"/>
-      <c r="D273" s="274"/>
+      <c r="B273" s="278"/>
+      <c r="C273" s="275"/>
+      <c r="D273" s="266"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
@@ -20384,9 +20384,9 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="262"/>
-      <c r="C274" s="278"/>
-      <c r="D274" s="274"/>
+      <c r="B274" s="278"/>
+      <c r="C274" s="275"/>
+      <c r="D274" s="266"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
@@ -20398,9 +20398,9 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="262"/>
-      <c r="C275" s="278"/>
-      <c r="D275" s="274"/>
+      <c r="B275" s="278"/>
+      <c r="C275" s="275"/>
+      <c r="D275" s="266"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
@@ -20412,9 +20412,9 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="262"/>
-      <c r="C276" s="278"/>
-      <c r="D276" s="274"/>
+      <c r="B276" s="278"/>
+      <c r="C276" s="275"/>
+      <c r="D276" s="266"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
@@ -20426,9 +20426,9 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="262"/>
-      <c r="C277" s="278"/>
-      <c r="D277" s="274"/>
+      <c r="B277" s="278"/>
+      <c r="C277" s="275"/>
+      <c r="D277" s="266"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
@@ -20440,9 +20440,9 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="262"/>
-      <c r="C278" s="279"/>
-      <c r="D278" s="275"/>
+      <c r="B278" s="278"/>
+      <c r="C278" s="276"/>
+      <c r="D278" s="267"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
@@ -20454,11 +20454,11 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="262"/>
-      <c r="C279" s="277" t="s">
+      <c r="B279" s="278"/>
+      <c r="C279" s="274" t="s">
         <v>1493</v>
       </c>
-      <c r="D279" s="273" t="s">
+      <c r="D279" s="265" t="s">
         <v>1494</v>
       </c>
       <c r="E279" s="153"/>
@@ -20472,9 +20472,9 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="262"/>
-      <c r="C280" s="278"/>
-      <c r="D280" s="274"/>
+      <c r="B280" s="278"/>
+      <c r="C280" s="275"/>
+      <c r="D280" s="266"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
@@ -20486,9 +20486,9 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="262"/>
-      <c r="C281" s="278"/>
-      <c r="D281" s="274"/>
+      <c r="B281" s="278"/>
+      <c r="C281" s="275"/>
+      <c r="D281" s="266"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
@@ -20500,9 +20500,9 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="262"/>
-      <c r="C282" s="278"/>
-      <c r="D282" s="274"/>
+      <c r="B282" s="278"/>
+      <c r="C282" s="275"/>
+      <c r="D282" s="266"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
@@ -20514,9 +20514,9 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="262"/>
-      <c r="C283" s="278"/>
-      <c r="D283" s="274"/>
+      <c r="B283" s="278"/>
+      <c r="C283" s="275"/>
+      <c r="D283" s="266"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
@@ -20528,9 +20528,9 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="262"/>
-      <c r="C284" s="278"/>
-      <c r="D284" s="274"/>
+      <c r="B284" s="278"/>
+      <c r="C284" s="275"/>
+      <c r="D284" s="266"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
@@ -20542,9 +20542,9 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="262"/>
-      <c r="C285" s="278"/>
-      <c r="D285" s="274"/>
+      <c r="B285" s="278"/>
+      <c r="C285" s="275"/>
+      <c r="D285" s="266"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
@@ -20556,9 +20556,9 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="262"/>
-      <c r="C286" s="278"/>
-      <c r="D286" s="274"/>
+      <c r="B286" s="278"/>
+      <c r="C286" s="275"/>
+      <c r="D286" s="266"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
@@ -20570,9 +20570,9 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="262"/>
-      <c r="C287" s="278"/>
-      <c r="D287" s="274"/>
+      <c r="B287" s="278"/>
+      <c r="C287" s="275"/>
+      <c r="D287" s="266"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
@@ -20584,9 +20584,9 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="262"/>
-      <c r="C288" s="278"/>
-      <c r="D288" s="274"/>
+      <c r="B288" s="278"/>
+      <c r="C288" s="275"/>
+      <c r="D288" s="266"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
@@ -20598,9 +20598,9 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="262"/>
-      <c r="C289" s="278"/>
-      <c r="D289" s="274"/>
+      <c r="B289" s="278"/>
+      <c r="C289" s="275"/>
+      <c r="D289" s="266"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
@@ -20612,9 +20612,9 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="262"/>
-      <c r="C290" s="278"/>
-      <c r="D290" s="274"/>
+      <c r="B290" s="278"/>
+      <c r="C290" s="275"/>
+      <c r="D290" s="266"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
@@ -20626,9 +20626,9 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="262"/>
-      <c r="C291" s="278"/>
-      <c r="D291" s="274"/>
+      <c r="B291" s="278"/>
+      <c r="C291" s="275"/>
+      <c r="D291" s="266"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
@@ -20640,9 +20640,9 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="262"/>
-      <c r="C292" s="278"/>
-      <c r="D292" s="274"/>
+      <c r="B292" s="278"/>
+      <c r="C292" s="275"/>
+      <c r="D292" s="266"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
@@ -20654,9 +20654,9 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="262"/>
-      <c r="C293" s="278"/>
-      <c r="D293" s="274"/>
+      <c r="B293" s="278"/>
+      <c r="C293" s="275"/>
+      <c r="D293" s="266"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
@@ -20668,9 +20668,9 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="262"/>
-      <c r="C294" s="278"/>
-      <c r="D294" s="274"/>
+      <c r="B294" s="278"/>
+      <c r="C294" s="275"/>
+      <c r="D294" s="266"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
@@ -20682,9 +20682,9 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="262"/>
-      <c r="C295" s="278"/>
-      <c r="D295" s="274"/>
+      <c r="B295" s="278"/>
+      <c r="C295" s="275"/>
+      <c r="D295" s="266"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
@@ -20696,9 +20696,9 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="262"/>
-      <c r="C296" s="278"/>
-      <c r="D296" s="274"/>
+      <c r="B296" s="278"/>
+      <c r="C296" s="275"/>
+      <c r="D296" s="266"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
@@ -20710,9 +20710,9 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B297" s="262"/>
-      <c r="C297" s="278"/>
-      <c r="D297" s="274"/>
+      <c r="B297" s="278"/>
+      <c r="C297" s="275"/>
+      <c r="D297" s="266"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
       <c r="G297" s="155" t="s">
@@ -20724,10 +20724,10 @@
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="258" t="s">
+      <c r="A298" s="291" t="s">
         <v>1495</v>
       </c>
-      <c r="B298" s="258"/>
+      <c r="B298" s="291"/>
       <c r="C298" s="241" t="s">
         <v>1496</v>
       </c>
@@ -20741,12 +20741,12 @@
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="258"/>
-      <c r="B299" s="258"/>
-      <c r="C299" s="270" t="s">
+      <c r="A299" s="291"/>
+      <c r="B299" s="291"/>
+      <c r="C299" s="295" t="s">
         <v>133</v>
       </c>
-      <c r="D299" s="273" t="s">
+      <c r="D299" s="265" t="s">
         <v>2167</v>
       </c>
       <c r="E299" s="153"/>
@@ -20760,10 +20760,10 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="258"/>
-      <c r="B300" s="258"/>
-      <c r="C300" s="270"/>
-      <c r="D300" s="274"/>
+      <c r="A300" s="291"/>
+      <c r="B300" s="291"/>
+      <c r="C300" s="295"/>
+      <c r="D300" s="266"/>
       <c r="E300" s="153"/>
       <c r="F300" s="153"/>
       <c r="G300" s="155" t="s">
@@ -20775,10 +20775,10 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="258"/>
-      <c r="B301" s="258"/>
-      <c r="C301" s="270"/>
-      <c r="D301" s="274"/>
+      <c r="A301" s="291"/>
+      <c r="B301" s="291"/>
+      <c r="C301" s="295"/>
+      <c r="D301" s="266"/>
       <c r="E301" s="153"/>
       <c r="F301" s="153"/>
       <c r="G301" s="155" t="s">
@@ -20790,10 +20790,10 @@
       <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="258"/>
-      <c r="B302" s="258"/>
-      <c r="C302" s="270"/>
-      <c r="D302" s="274"/>
+      <c r="A302" s="291"/>
+      <c r="B302" s="291"/>
+      <c r="C302" s="295"/>
+      <c r="D302" s="266"/>
       <c r="E302" s="152"/>
       <c r="F302" s="152"/>
       <c r="G302" s="242" t="s">
@@ -20805,10 +20805,10 @@
       <c r="K302" s="244"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="258"/>
-      <c r="B303" s="258"/>
-      <c r="C303" s="270"/>
-      <c r="D303" s="274"/>
+      <c r="A303" s="291"/>
+      <c r="B303" s="291"/>
+      <c r="C303" s="295"/>
+      <c r="D303" s="266"/>
       <c r="E303" s="152"/>
       <c r="F303" s="152"/>
       <c r="G303" s="242" t="s">
@@ -20820,10 +20820,10 @@
       <c r="K303" s="244"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="258"/>
-      <c r="B304" s="258"/>
-      <c r="C304" s="270"/>
-      <c r="D304" s="274"/>
+      <c r="A304" s="291"/>
+      <c r="B304" s="291"/>
+      <c r="C304" s="295"/>
+      <c r="D304" s="266"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="242" t="s">
@@ -20835,10 +20835,10 @@
       <c r="K304" s="244"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="258"/>
-      <c r="B305" s="258"/>
-      <c r="C305" s="270"/>
-      <c r="D305" s="274"/>
+      <c r="A305" s="291"/>
+      <c r="B305" s="291"/>
+      <c r="C305" s="295"/>
+      <c r="D305" s="266"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="242" t="s">
@@ -20850,10 +20850,10 @@
       <c r="K305" s="244"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="258"/>
-      <c r="B306" s="258"/>
-      <c r="C306" s="270"/>
-      <c r="D306" s="274"/>
+      <c r="A306" s="291"/>
+      <c r="B306" s="291"/>
+      <c r="C306" s="295"/>
+      <c r="D306" s="266"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="242" t="s">
@@ -20865,10 +20865,10 @@
       <c r="K306" s="244"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="258"/>
-      <c r="B307" s="258"/>
-      <c r="C307" s="270"/>
-      <c r="D307" s="274"/>
+      <c r="A307" s="291"/>
+      <c r="B307" s="291"/>
+      <c r="C307" s="295"/>
+      <c r="D307" s="266"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="242" t="s">
@@ -20880,10 +20880,10 @@
       <c r="K307" s="244"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="258"/>
-      <c r="B308" s="258"/>
-      <c r="C308" s="270"/>
-      <c r="D308" s="274"/>
+      <c r="A308" s="291"/>
+      <c r="B308" s="291"/>
+      <c r="C308" s="295"/>
+      <c r="D308" s="266"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="242" t="s">
@@ -20895,10 +20895,10 @@
       <c r="K308" s="244"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="258"/>
-      <c r="B309" s="258"/>
-      <c r="C309" s="270"/>
-      <c r="D309" s="275"/>
+      <c r="A309" s="291"/>
+      <c r="B309" s="291"/>
+      <c r="C309" s="295"/>
+      <c r="D309" s="267"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
       <c r="G309" s="242" t="s">
@@ -20910,9 +20910,9 @@
       <c r="K309" s="244"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="258"/>
-      <c r="B310" s="258"/>
-      <c r="C310" s="270"/>
+      <c r="A310" s="291"/>
+      <c r="B310" s="291"/>
+      <c r="C310" s="295"/>
       <c r="D310" s="245" t="s">
         <v>2179</v>
       </c>
@@ -20925,10 +20925,10 @@
       <c r="K310" s="244"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="258"/>
-      <c r="B311" s="258"/>
-      <c r="C311" s="270"/>
-      <c r="D311" s="259" t="s">
+      <c r="A311" s="291"/>
+      <c r="B311" s="291"/>
+      <c r="C311" s="295"/>
+      <c r="D311" s="268" t="s">
         <v>2194</v>
       </c>
       <c r="E311" s="152"/>
@@ -20944,10 +20944,10 @@
       <c r="K311" s="244"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="258"/>
-      <c r="B312" s="258"/>
-      <c r="C312" s="270"/>
-      <c r="D312" s="287"/>
+      <c r="A312" s="291"/>
+      <c r="B312" s="291"/>
+      <c r="C312" s="295"/>
+      <c r="D312" s="269"/>
       <c r="E312" s="152"/>
       <c r="F312" s="152"/>
       <c r="G312" s="242" t="s">
@@ -20959,10 +20959,10 @@
       <c r="K312" s="244"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="258"/>
-      <c r="B313" s="258"/>
-      <c r="C313" s="270"/>
-      <c r="D313" s="287"/>
+      <c r="A313" s="291"/>
+      <c r="B313" s="291"/>
+      <c r="C313" s="295"/>
+      <c r="D313" s="269"/>
       <c r="E313" s="152"/>
       <c r="F313" s="152"/>
       <c r="G313" s="242" t="s">
@@ -20976,10 +20976,10 @@
       <c r="K313" s="244"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="258"/>
-      <c r="B314" s="258"/>
-      <c r="C314" s="270"/>
-      <c r="D314" s="287"/>
+      <c r="A314" s="291"/>
+      <c r="B314" s="291"/>
+      <c r="C314" s="295"/>
+      <c r="D314" s="269"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="242" t="s">
@@ -20991,10 +20991,10 @@
       <c r="K314" s="244"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="258"/>
-      <c r="B315" s="258"/>
-      <c r="C315" s="270"/>
-      <c r="D315" s="287"/>
+      <c r="A315" s="291"/>
+      <c r="B315" s="291"/>
+      <c r="C315" s="295"/>
+      <c r="D315" s="269"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="242" t="s">
@@ -21008,10 +21008,10 @@
       <c r="K315" s="244"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="258"/>
-      <c r="B316" s="258"/>
-      <c r="C316" s="270"/>
-      <c r="D316" s="287"/>
+      <c r="A316" s="291"/>
+      <c r="B316" s="291"/>
+      <c r="C316" s="295"/>
+      <c r="D316" s="269"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="242" t="s">
@@ -21023,10 +21023,10 @@
       <c r="K316" s="244"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="258"/>
-      <c r="B317" s="258"/>
-      <c r="C317" s="270"/>
-      <c r="D317" s="287"/>
+      <c r="A317" s="291"/>
+      <c r="B317" s="291"/>
+      <c r="C317" s="295"/>
+      <c r="D317" s="269"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="242" t="s">
@@ -21040,10 +21040,10 @@
       <c r="K317" s="244"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="258"/>
-      <c r="B318" s="258"/>
-      <c r="C318" s="270"/>
-      <c r="D318" s="287"/>
+      <c r="A318" s="291"/>
+      <c r="B318" s="291"/>
+      <c r="C318" s="295"/>
+      <c r="D318" s="269"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="242" t="s">
@@ -21055,10 +21055,10 @@
       <c r="K318" s="244"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="258"/>
-      <c r="B319" s="258"/>
-      <c r="C319" s="270"/>
-      <c r="D319" s="287"/>
+      <c r="A319" s="291"/>
+      <c r="B319" s="291"/>
+      <c r="C319" s="295"/>
+      <c r="D319" s="269"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
       <c r="G319" s="242" t="s">
@@ -21072,10 +21072,10 @@
       <c r="K319" s="244"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="258"/>
-      <c r="B320" s="258"/>
-      <c r="C320" s="270"/>
-      <c r="D320" s="287"/>
+      <c r="A320" s="291"/>
+      <c r="B320" s="291"/>
+      <c r="C320" s="295"/>
+      <c r="D320" s="269"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="247" t="s">
@@ -21091,10 +21091,10 @@
       </c>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="258"/>
-      <c r="B321" s="258"/>
-      <c r="C321" s="270"/>
-      <c r="D321" s="260"/>
+      <c r="A321" s="291"/>
+      <c r="B321" s="291"/>
+      <c r="C321" s="295"/>
+      <c r="D321" s="270"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
       <c r="G321" s="247" t="s">
@@ -21108,10 +21108,10 @@
       <c r="K321" s="244"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="258"/>
-      <c r="B322" s="258"/>
-      <c r="C322" s="270"/>
-      <c r="D322" s="288" t="s">
+      <c r="A322" s="291"/>
+      <c r="B322" s="291"/>
+      <c r="C322" s="295"/>
+      <c r="D322" s="271" t="s">
         <v>2195</v>
       </c>
       <c r="E322" s="152"/>
@@ -21125,10 +21125,10 @@
       <c r="K322" s="244"/>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="258"/>
-      <c r="B323" s="258"/>
-      <c r="C323" s="270"/>
-      <c r="D323" s="289"/>
+      <c r="A323" s="291"/>
+      <c r="B323" s="291"/>
+      <c r="C323" s="295"/>
+      <c r="D323" s="272"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
       <c r="G323" s="242" t="s">
@@ -21142,10 +21142,10 @@
       <c r="K323" s="244"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="258"/>
-      <c r="B324" s="258"/>
-      <c r="C324" s="270"/>
-      <c r="D324" s="289"/>
+      <c r="A324" s="291"/>
+      <c r="B324" s="291"/>
+      <c r="C324" s="295"/>
+      <c r="D324" s="272"/>
       <c r="E324" s="152"/>
       <c r="F324" s="152"/>
       <c r="G324" s="242" t="s">
@@ -21159,10 +21159,10 @@
       <c r="K324" s="244"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="258"/>
-      <c r="B325" s="258"/>
-      <c r="C325" s="270"/>
-      <c r="D325" s="290"/>
+      <c r="A325" s="291"/>
+      <c r="B325" s="291"/>
+      <c r="C325" s="295"/>
+      <c r="D325" s="273"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="242" t="s">
@@ -21176,10 +21176,10 @@
       <c r="K325" s="244"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="258"/>
-      <c r="B326" s="258"/>
-      <c r="C326" s="270"/>
-      <c r="D326" s="288" t="s">
+      <c r="A326" s="291"/>
+      <c r="B326" s="291"/>
+      <c r="C326" s="295"/>
+      <c r="D326" s="271" t="s">
         <v>2196</v>
       </c>
       <c r="E326" s="152"/>
@@ -21195,10 +21195,10 @@
       <c r="K326" s="244"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="258"/>
-      <c r="B327" s="258"/>
-      <c r="C327" s="270"/>
-      <c r="D327" s="289"/>
+      <c r="A327" s="291"/>
+      <c r="B327" s="291"/>
+      <c r="C327" s="295"/>
+      <c r="D327" s="272"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="242" t="s">
@@ -21212,10 +21212,10 @@
       <c r="K327" s="244"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="258"/>
-      <c r="B328" s="258"/>
-      <c r="C328" s="270"/>
-      <c r="D328" s="289"/>
+      <c r="A328" s="291"/>
+      <c r="B328" s="291"/>
+      <c r="C328" s="295"/>
+      <c r="D328" s="272"/>
       <c r="E328" s="152"/>
       <c r="F328" s="152"/>
       <c r="G328" s="242" t="s">
@@ -21229,10 +21229,10 @@
       <c r="K328" s="244"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="258"/>
-      <c r="B329" s="258"/>
-      <c r="C329" s="270"/>
-      <c r="D329" s="290"/>
+      <c r="A329" s="291"/>
+      <c r="B329" s="291"/>
+      <c r="C329" s="295"/>
+      <c r="D329" s="273"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
       <c r="G329" s="242" t="s">
@@ -21246,10 +21246,10 @@
       <c r="K329" s="244"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="258"/>
-      <c r="B330" s="258"/>
-      <c r="C330" s="270"/>
-      <c r="D330" s="259" t="s">
+      <c r="A330" s="291"/>
+      <c r="B330" s="291"/>
+      <c r="C330" s="295"/>
+      <c r="D330" s="268" t="s">
         <v>2201</v>
       </c>
       <c r="E330" s="152"/>
@@ -21263,10 +21263,10 @@
       <c r="K330" s="244"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="258"/>
-      <c r="B331" s="258"/>
-      <c r="C331" s="270"/>
-      <c r="D331" s="260"/>
+      <c r="A331" s="291"/>
+      <c r="B331" s="291"/>
+      <c r="C331" s="295"/>
+      <c r="D331" s="270"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
       <c r="G331" s="249" t="s">
@@ -21280,10 +21280,10 @@
       <c r="K331" s="244"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="258"/>
-      <c r="B332" s="258"/>
-      <c r="C332" s="270"/>
-      <c r="D332" s="288" t="s">
+      <c r="A332" s="291"/>
+      <c r="B332" s="291"/>
+      <c r="C332" s="295"/>
+      <c r="D332" s="271" t="s">
         <v>2202</v>
       </c>
       <c r="E332" s="152"/>
@@ -21297,10 +21297,10 @@
       <c r="K332" s="244"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="258"/>
-      <c r="B333" s="258"/>
-      <c r="C333" s="270"/>
-      <c r="D333" s="289"/>
+      <c r="A333" s="291"/>
+      <c r="B333" s="291"/>
+      <c r="C333" s="295"/>
+      <c r="D333" s="272"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
       <c r="G333" s="242" t="s">
@@ -21312,10 +21312,10 @@
       <c r="K333" s="244"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="258"/>
-      <c r="B334" s="258"/>
-      <c r="C334" s="270"/>
-      <c r="D334" s="289"/>
+      <c r="A334" s="291"/>
+      <c r="B334" s="291"/>
+      <c r="C334" s="295"/>
+      <c r="D334" s="272"/>
       <c r="E334" s="152"/>
       <c r="F334" s="152"/>
       <c r="G334" s="242" t="s">
@@ -21327,10 +21327,10 @@
       <c r="K334" s="244"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="258"/>
-      <c r="B335" s="258"/>
-      <c r="C335" s="270"/>
-      <c r="D335" s="289"/>
+      <c r="A335" s="291"/>
+      <c r="B335" s="291"/>
+      <c r="C335" s="295"/>
+      <c r="D335" s="272"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="242" t="s">
@@ -21342,10 +21342,10 @@
       <c r="K335" s="244"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="258"/>
-      <c r="B336" s="258"/>
-      <c r="C336" s="270"/>
-      <c r="D336" s="289"/>
+      <c r="A336" s="291"/>
+      <c r="B336" s="291"/>
+      <c r="C336" s="295"/>
+      <c r="D336" s="272"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="242" t="s">
@@ -21357,10 +21357,10 @@
       <c r="K336" s="244"/>
     </row>
     <row r="337" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A337" s="258"/>
-      <c r="B337" s="258"/>
-      <c r="C337" s="270"/>
-      <c r="D337" s="290"/>
+      <c r="A337" s="291"/>
+      <c r="B337" s="291"/>
+      <c r="C337" s="295"/>
+      <c r="D337" s="273"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
       <c r="G337" s="242" t="s">
@@ -21372,9 +21372,9 @@
       <c r="K337" s="244"/>
     </row>
     <row r="338" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A338" s="258"/>
-      <c r="B338" s="258"/>
-      <c r="C338" s="270"/>
+      <c r="A338" s="291"/>
+      <c r="B338" s="291"/>
+      <c r="C338" s="295"/>
       <c r="D338" s="250" t="s">
         <v>2213</v>
       </c>
@@ -21393,9 +21393,9 @@
       </c>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="258"/>
-      <c r="B339" s="258"/>
-      <c r="C339" s="270"/>
+      <c r="A339" s="291"/>
+      <c r="B339" s="291"/>
+      <c r="C339" s="295"/>
       <c r="D339" s="251" t="s">
         <v>2214</v>
       </c>
@@ -21408,9 +21408,9 @@
       <c r="K339" s="244"/>
     </row>
     <row r="340" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A340" s="258"/>
-      <c r="B340" s="258"/>
-      <c r="C340" s="270"/>
+      <c r="A340" s="291"/>
+      <c r="B340" s="291"/>
+      <c r="C340" s="295"/>
       <c r="D340" s="252" t="s">
         <v>2230</v>
       </c>
@@ -21425,9 +21425,9 @@
       <c r="K340" s="244"/>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="258"/>
-      <c r="B341" s="258"/>
-      <c r="C341" s="270"/>
+      <c r="A341" s="291"/>
+      <c r="B341" s="291"/>
+      <c r="C341" s="295"/>
       <c r="D341" s="245"/>
       <c r="E341" s="152"/>
       <c r="F341" s="152"/>
@@ -21442,9 +21442,9 @@
       <c r="K341" s="244"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="258"/>
-      <c r="B342" s="258"/>
-      <c r="C342" s="270"/>
+      <c r="A342" s="291"/>
+      <c r="B342" s="291"/>
+      <c r="C342" s="295"/>
       <c r="D342" s="245"/>
       <c r="E342" s="152"/>
       <c r="F342" s="152"/>
@@ -21457,9 +21457,9 @@
       <c r="K342" s="244"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="258"/>
-      <c r="B343" s="258"/>
-      <c r="C343" s="270"/>
+      <c r="A343" s="291"/>
+      <c r="B343" s="291"/>
+      <c r="C343" s="295"/>
       <c r="D343" s="252" t="s">
         <v>2239</v>
       </c>
@@ -21474,9 +21474,9 @@
       <c r="K343" s="244"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="258"/>
-      <c r="B344" s="258"/>
-      <c r="C344" s="270"/>
+      <c r="A344" s="291"/>
+      <c r="B344" s="291"/>
+      <c r="C344" s="295"/>
       <c r="D344" s="245"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
@@ -21491,9 +21491,9 @@
       <c r="K344" s="244"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="258"/>
-      <c r="B345" s="258"/>
-      <c r="C345" s="270"/>
+      <c r="A345" s="291"/>
+      <c r="B345" s="291"/>
+      <c r="C345" s="295"/>
       <c r="D345" s="245"/>
       <c r="E345" s="152"/>
       <c r="F345" s="152"/>
@@ -21506,9 +21506,9 @@
       <c r="K345" s="244"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="258"/>
-      <c r="B346" s="258"/>
-      <c r="C346" s="270"/>
+      <c r="A346" s="291"/>
+      <c r="B346" s="291"/>
+      <c r="C346" s="295"/>
       <c r="D346" s="252" t="s">
         <v>2240</v>
       </c>
@@ -21521,9 +21521,9 @@
       <c r="K346" s="244"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A347" s="258"/>
-      <c r="B347" s="258"/>
-      <c r="C347" s="270"/>
+      <c r="A347" s="291"/>
+      <c r="B347" s="291"/>
+      <c r="C347" s="295"/>
       <c r="D347" s="252" t="s">
         <v>2241</v>
       </c>
@@ -21551,31 +21551,32 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D299:D309"/>
-    <mergeCell ref="D311:D321"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="D326:D329"/>
-    <mergeCell ref="D332:D337"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="A298:B347"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C299:C347"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B193"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="D176:D183"/>
     <mergeCell ref="D167:D175"/>
@@ -21592,32 +21593,31 @@
     <mergeCell ref="D115:D117"/>
     <mergeCell ref="D200:D201"/>
     <mergeCell ref="C75:C100"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A298:B347"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C299:C347"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B193"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C149:C166"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="D299:D309"/>
+    <mergeCell ref="D311:D321"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="D326:D329"/>
+    <mergeCell ref="D332:D337"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21630,8 +21630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -21687,7 +21687,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48">
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="300" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="83" t="s">
@@ -21716,7 +21716,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="294"/>
+      <c r="B4" s="301"/>
       <c r="C4" s="83" t="s">
         <v>75</v>
       </c>
@@ -21737,7 +21737,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="38.25">
-      <c r="B5" s="294"/>
+      <c r="B5" s="301"/>
       <c r="C5" s="83" t="s">
         <v>76</v>
       </c>
@@ -21764,7 +21764,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="60.75" customHeight="1">
-      <c r="B6" s="294"/>
+      <c r="B6" s="301"/>
       <c r="C6" s="83" t="s">
         <v>202</v>
       </c>
@@ -21791,7 +21791,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25">
-      <c r="B7" s="294"/>
+      <c r="B7" s="301"/>
       <c r="C7" s="83" t="s">
         <v>77</v>
       </c>
@@ -21815,7 +21815,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B8" s="294"/>
+      <c r="B8" s="301"/>
       <c r="C8" s="83" t="s">
         <v>203</v>
       </c>
@@ -21845,7 +21845,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="294"/>
+      <c r="B9" s="301"/>
       <c r="C9" s="83" t="s">
         <v>204</v>
       </c>
@@ -21872,7 +21872,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1">
-      <c r="B10" s="295"/>
+      <c r="B10" s="302"/>
       <c r="C10" s="90" t="s">
         <v>205</v>
       </c>
@@ -21899,7 +21899,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5">
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="303" t="s">
         <v>246</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -21928,7 +21928,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5">
-      <c r="B12" s="294"/>
+      <c r="B12" s="301"/>
       <c r="C12" s="83" t="s">
         <v>218</v>
       </c>
@@ -21955,7 +21955,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5">
-      <c r="B13" s="294"/>
+      <c r="B13" s="301"/>
       <c r="C13" s="83" t="s">
         <v>219</v>
       </c>
@@ -21979,7 +21979,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5">
-      <c r="B14" s="294"/>
+      <c r="B14" s="301"/>
       <c r="C14" s="83" t="s">
         <v>220</v>
       </c>
@@ -22003,7 +22003,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="28.5">
-      <c r="B15" s="294"/>
+      <c r="B15" s="301"/>
       <c r="C15" s="99" t="s">
         <v>228</v>
       </c>
@@ -22027,7 +22027,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1">
-      <c r="B16" s="295"/>
+      <c r="B16" s="302"/>
       <c r="C16" s="101" t="s">
         <v>79</v>
       </c>
@@ -22053,7 +22053,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B17" s="296" t="s">
+      <c r="B17" s="303" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="95" t="s">
@@ -22082,7 +22082,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="105" customFormat="1" ht="51">
-      <c r="B18" s="294"/>
+      <c r="B18" s="301"/>
       <c r="C18" s="83" t="s">
         <v>80</v>
       </c>
@@ -22109,7 +22109,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="294"/>
+      <c r="B19" s="301"/>
       <c r="C19" s="83" t="s">
         <v>230</v>
       </c>
@@ -22136,7 +22136,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="51">
-      <c r="B20" s="294"/>
+      <c r="B20" s="301"/>
       <c r="C20" s="83" t="s">
         <v>77</v>
       </c>
@@ -22163,7 +22163,7 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="294"/>
+      <c r="B21" s="301"/>
       <c r="C21" s="83" t="s">
         <v>231</v>
       </c>
@@ -22190,7 +22190,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="294"/>
+      <c r="B22" s="301"/>
       <c r="C22" s="106" t="s">
         <v>81</v>
       </c>
@@ -22217,7 +22217,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="294"/>
+      <c r="B23" s="301"/>
       <c r="C23" s="106" t="s">
         <v>82</v>
       </c>
@@ -22242,7 +22242,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B24" s="295"/>
+      <c r="B24" s="302"/>
       <c r="C24" s="90" t="s">
         <v>714</v>
       </c>
@@ -22269,7 +22269,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="25.5">
-      <c r="B25" s="296" t="s">
+      <c r="B25" s="303" t="s">
         <v>242</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -22298,7 +22298,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="25.5">
-      <c r="B26" s="294"/>
+      <c r="B26" s="301"/>
       <c r="C26" s="83" t="s">
         <v>236</v>
       </c>
@@ -22322,7 +22322,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="38.25">
-      <c r="B27" s="294"/>
+      <c r="B27" s="301"/>
       <c r="C27" s="83" t="s">
         <v>237</v>
       </c>
@@ -22352,7 +22352,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="38.25">
-      <c r="B28" s="294"/>
+      <c r="B28" s="301"/>
       <c r="C28" s="83" t="s">
         <v>238</v>
       </c>
@@ -22379,7 +22379,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="25.5">
-      <c r="B29" s="294"/>
+      <c r="B29" s="301"/>
       <c r="C29" s="83" t="s">
         <v>84</v>
       </c>
@@ -22406,7 +22406,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="294"/>
+      <c r="B30" s="301"/>
       <c r="C30" s="106" t="s">
         <v>85</v>
       </c>
@@ -22431,7 +22431,7 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="294"/>
+      <c r="B31" s="301"/>
       <c r="C31" s="83" t="s">
         <v>239</v>
       </c>
@@ -22458,7 +22458,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="25.5">
-      <c r="B32" s="294"/>
+      <c r="B32" s="301"/>
       <c r="C32" s="70" t="s">
         <v>240</v>
       </c>
@@ -22483,7 +22483,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="294"/>
+      <c r="B33" s="301"/>
       <c r="C33" s="83" t="s">
         <v>89</v>
       </c>
@@ -22510,7 +22510,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B34" s="294"/>
+      <c r="B34" s="301"/>
       <c r="C34" s="83" t="s">
         <v>241</v>
       </c>
@@ -22537,7 +22537,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="13.5" hidden="1" thickBot="1">
-      <c r="B35" s="295"/>
+      <c r="B35" s="302"/>
       <c r="C35" s="113" t="s">
         <v>87</v>
       </c>
@@ -22564,7 +22564,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="296" t="s">
+      <c r="B36" s="303" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="95" t="s">
@@ -22591,7 +22591,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="294"/>
+      <c r="B37" s="301"/>
       <c r="C37" s="83" t="s">
         <v>88</v>
       </c>
@@ -22616,7 +22616,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="294"/>
+      <c r="B38" s="301"/>
       <c r="C38" s="83" t="s">
         <v>91</v>
       </c>
@@ -22638,7 +22638,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B39" s="295"/>
+      <c r="B39" s="302"/>
       <c r="C39" s="90" t="s">
         <v>92</v>
       </c>
@@ -22663,7 +22663,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="291" t="s">
+      <c r="B40" s="298" t="s">
         <v>247</v>
       </c>
       <c r="C40" s="95" t="s">
@@ -22683,7 +22683,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B41" s="292"/>
+      <c r="B41" s="299"/>
       <c r="C41" s="90" t="s">
         <v>94</v>
       </c>
@@ -23808,13 +23808,13 @@
       <c r="B2" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="307" t="s">
         <v>825</v>
       </c>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="302"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="309"/>
       <c r="H2" s="41" t="s">
         <v>826</v>
       </c>
@@ -23824,13 +23824,13 @@
       <c r="B3" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C3" s="303" t="s">
+      <c r="C3" s="310" t="s">
         <v>828</v>
       </c>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="305"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="312"/>
       <c r="H3" s="45" t="s">
         <v>829</v>
       </c>
@@ -23840,16 +23840,16 @@
       <c r="B4" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="308"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="315"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="316" t="s">
         <v>831</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -23884,7 +23884,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="310"/>
+      <c r="B6" s="317"/>
       <c r="C6" s="48" t="s">
         <v>842</v>
       </c>
@@ -23907,7 +23907,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="310"/>
+      <c r="B7" s="317"/>
       <c r="C7" s="48" t="s">
         <v>848</v>
       </c>
@@ -23926,7 +23926,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="310"/>
+      <c r="B8" s="317"/>
       <c r="C8" s="48" t="s">
         <v>851</v>
       </c>
@@ -23951,7 +23951,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="310"/>
+      <c r="B9" s="317"/>
       <c r="C9" s="48" t="s">
         <v>856</v>
       </c>
@@ -23976,7 +23976,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="310"/>
+      <c r="B10" s="317"/>
       <c r="C10" s="48" t="s">
         <v>861</v>
       </c>
@@ -23993,7 +23993,7 @@
       <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="310"/>
+      <c r="B11" s="317"/>
       <c r="C11" s="48" t="s">
         <v>862</v>
       </c>
@@ -24018,7 +24018,7 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="310"/>
+      <c r="B12" s="317"/>
       <c r="C12" s="48" t="s">
         <v>866</v>
       </c>
@@ -24045,7 +24045,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="310"/>
+      <c r="B13" s="317"/>
       <c r="C13" s="48" t="s">
         <v>870</v>
       </c>
@@ -24064,7 +24064,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="310"/>
+      <c r="B14" s="317"/>
       <c r="C14" s="48" t="s">
         <v>873</v>
       </c>
@@ -24089,7 +24089,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="310"/>
+      <c r="B15" s="317"/>
       <c r="C15" s="48" t="s">
         <v>879</v>
       </c>
@@ -24114,7 +24114,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="310"/>
+      <c r="B16" s="317"/>
       <c r="C16" s="48" t="s">
         <v>883</v>
       </c>
@@ -24141,7 +24141,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="310"/>
+      <c r="B17" s="317"/>
       <c r="C17" s="48" t="s">
         <v>888</v>
       </c>
@@ -24160,7 +24160,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="310"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="48" t="s">
         <v>890</v>
       </c>
@@ -24179,7 +24179,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="310"/>
+      <c r="B19" s="317"/>
       <c r="C19" s="48" t="s">
         <v>892</v>
       </c>
@@ -24198,7 +24198,7 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="310"/>
+      <c r="B20" s="317"/>
       <c r="C20" s="48" t="s">
         <v>894</v>
       </c>
@@ -24217,7 +24217,7 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="310"/>
+      <c r="B21" s="317"/>
       <c r="C21" s="48" t="s">
         <v>896</v>
       </c>
@@ -24236,7 +24236,7 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="310"/>
+      <c r="B22" s="317"/>
       <c r="C22" s="48" t="s">
         <v>898</v>
       </c>
@@ -24261,7 +24261,7 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="310"/>
+      <c r="B23" s="317"/>
       <c r="C23" s="48" t="s">
         <v>902</v>
       </c>
@@ -24289,7 +24289,7 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="310"/>
+      <c r="B24" s="317"/>
       <c r="C24" s="48" t="s">
         <v>906</v>
       </c>
@@ -24317,7 +24317,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="310"/>
+      <c r="B25" s="317"/>
       <c r="C25" s="48" t="s">
         <v>910</v>
       </c>
@@ -24342,7 +24342,7 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="310"/>
+      <c r="B26" s="317"/>
       <c r="C26" s="48" t="s">
         <v>914</v>
       </c>
@@ -24361,7 +24361,7 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="310"/>
+      <c r="B27" s="317"/>
       <c r="C27" s="48" t="s">
         <v>917</v>
       </c>
@@ -24386,7 +24386,7 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="310"/>
+      <c r="B28" s="317"/>
       <c r="C28" s="48" t="s">
         <v>921</v>
       </c>
@@ -24411,7 +24411,7 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="310"/>
+      <c r="B29" s="317"/>
       <c r="C29" s="48" t="s">
         <v>925</v>
       </c>
@@ -24430,7 +24430,7 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="310"/>
+      <c r="B30" s="317"/>
       <c r="C30" s="48" t="s">
         <v>927</v>
       </c>
@@ -24449,7 +24449,7 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="310"/>
+      <c r="B31" s="317"/>
       <c r="C31" s="48" t="s">
         <v>929</v>
       </c>
@@ -24468,7 +24468,7 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="310"/>
+      <c r="B32" s="317"/>
       <c r="C32" s="48" t="s">
         <v>931</v>
       </c>
@@ -24487,7 +24487,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="310"/>
+      <c r="B33" s="317"/>
       <c r="C33" s="48" t="s">
         <v>933</v>
       </c>
@@ -24514,7 +24514,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1">
-      <c r="B34" s="311"/>
+      <c r="B34" s="318"/>
       <c r="C34" s="55" t="s">
         <v>939</v>
       </c>
@@ -24544,13 +24544,13 @@
       <c r="B37" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C37" s="300" t="s">
+      <c r="C37" s="307" t="s">
         <v>944</v>
       </c>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
-      <c r="G37" s="302"/>
+      <c r="D37" s="308"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="308"/>
+      <c r="G37" s="309"/>
       <c r="H37" s="41" t="s">
         <v>826</v>
       </c>
@@ -24560,13 +24560,13 @@
       <c r="B38" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C38" s="303" t="s">
+      <c r="C38" s="310" t="s">
         <v>715</v>
       </c>
-      <c r="D38" s="304"/>
-      <c r="E38" s="304"/>
-      <c r="F38" s="304"/>
-      <c r="G38" s="305"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
+      <c r="F38" s="311"/>
+      <c r="G38" s="312"/>
       <c r="H38" s="45" t="s">
         <v>829</v>
       </c>
@@ -24576,16 +24576,16 @@
       <c r="B39" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C39" s="306"/>
-      <c r="D39" s="307"/>
-      <c r="E39" s="307"/>
-      <c r="F39" s="307"/>
-      <c r="G39" s="307"/>
-      <c r="H39" s="307"/>
-      <c r="I39" s="308"/>
+      <c r="C39" s="313"/>
+      <c r="D39" s="314"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="314"/>
+      <c r="G39" s="314"/>
+      <c r="H39" s="314"/>
+      <c r="I39" s="315"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="297" t="s">
+      <c r="B40" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -24620,7 +24620,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="298"/>
+      <c r="B41" s="305"/>
       <c r="C41" s="48" t="s">
         <v>851</v>
       </c>
@@ -24650,7 +24650,7 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="298"/>
+      <c r="B42" s="305"/>
       <c r="C42" s="48" t="s">
         <v>947</v>
       </c>
@@ -24670,7 +24670,7 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="298"/>
+      <c r="B43" s="305"/>
       <c r="C43" s="48" t="s">
         <v>848</v>
       </c>
@@ -24693,7 +24693,7 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="298"/>
+      <c r="B44" s="305"/>
       <c r="C44" s="48" t="s">
         <v>856</v>
       </c>
@@ -24720,7 +24720,7 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="298"/>
+      <c r="B45" s="305"/>
       <c r="C45" s="48" t="s">
         <v>953</v>
       </c>
@@ -24739,7 +24739,7 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="298"/>
+      <c r="B46" s="305"/>
       <c r="C46" s="48" t="s">
         <v>862</v>
       </c>
@@ -24764,7 +24764,7 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="298"/>
+      <c r="B47" s="305"/>
       <c r="C47" s="48" t="s">
         <v>956</v>
       </c>
@@ -24789,7 +24789,7 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="298"/>
+      <c r="B48" s="305"/>
       <c r="C48" s="48" t="s">
         <v>959</v>
       </c>
@@ -24808,7 +24808,7 @@
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="298"/>
+      <c r="B49" s="305"/>
       <c r="C49" s="48" t="s">
         <v>962</v>
       </c>
@@ -24827,7 +24827,7 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="298"/>
+      <c r="B50" s="305"/>
       <c r="C50" s="48" t="s">
         <v>964</v>
       </c>
@@ -24854,7 +24854,7 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="298"/>
+      <c r="B51" s="305"/>
       <c r="C51" s="48" t="s">
         <v>968</v>
       </c>
@@ -24879,7 +24879,7 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="298"/>
+      <c r="B52" s="305"/>
       <c r="C52" s="48" t="s">
         <v>972</v>
       </c>
@@ -24906,7 +24906,7 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="298"/>
+      <c r="B53" s="305"/>
       <c r="C53" s="48" t="s">
         <v>976</v>
       </c>
@@ -24927,7 +24927,7 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="298"/>
+      <c r="B54" s="305"/>
       <c r="C54" s="48" t="s">
         <v>979</v>
       </c>
@@ -24954,7 +24954,7 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="298"/>
+      <c r="B55" s="305"/>
       <c r="C55" s="48" t="s">
         <v>982</v>
       </c>
@@ -24979,7 +24979,7 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="298"/>
+      <c r="B56" s="305"/>
       <c r="C56" s="48" t="s">
         <v>986</v>
       </c>
@@ -25004,7 +25004,7 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="298"/>
+      <c r="B57" s="305"/>
       <c r="C57" s="48" t="s">
         <v>990</v>
       </c>
@@ -25029,7 +25029,7 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="298"/>
+      <c r="B58" s="305"/>
       <c r="C58" s="48" t="s">
         <v>993</v>
       </c>
@@ -25054,7 +25054,7 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="298"/>
+      <c r="B59" s="305"/>
       <c r="C59" s="48" t="s">
         <v>902</v>
       </c>
@@ -25082,7 +25082,7 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="298"/>
+      <c r="B60" s="305"/>
       <c r="C60" s="48" t="s">
         <v>906</v>
       </c>
@@ -25110,7 +25110,7 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="298"/>
+      <c r="B61" s="305"/>
       <c r="C61" s="48" t="s">
         <v>910</v>
       </c>
@@ -25135,7 +25135,7 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="298"/>
+      <c r="B62" s="305"/>
       <c r="C62" s="48" t="s">
         <v>917</v>
       </c>
@@ -25160,7 +25160,7 @@
       </c>
     </row>
     <row r="63" spans="2:13" ht="15" thickBot="1">
-      <c r="B63" s="299"/>
+      <c r="B63" s="306"/>
       <c r="C63" s="55" t="s">
         <v>914</v>
       </c>
@@ -25182,13 +25182,13 @@
       <c r="B66" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C66" s="300" t="s">
+      <c r="C66" s="307" t="s">
         <v>996</v>
       </c>
-      <c r="D66" s="301"/>
-      <c r="E66" s="301"/>
-      <c r="F66" s="301"/>
-      <c r="G66" s="302"/>
+      <c r="D66" s="308"/>
+      <c r="E66" s="308"/>
+      <c r="F66" s="308"/>
+      <c r="G66" s="309"/>
       <c r="H66" s="41" t="s">
         <v>826</v>
       </c>
@@ -25198,13 +25198,13 @@
       <c r="B67" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C67" s="303" t="s">
+      <c r="C67" s="310" t="s">
         <v>997</v>
       </c>
-      <c r="D67" s="304"/>
-      <c r="E67" s="304"/>
-      <c r="F67" s="304"/>
-      <c r="G67" s="305"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="311"/>
+      <c r="F67" s="311"/>
+      <c r="G67" s="312"/>
       <c r="H67" s="45" t="s">
         <v>829</v>
       </c>
@@ -25214,16 +25214,16 @@
       <c r="B68" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C68" s="306"/>
-      <c r="D68" s="307"/>
-      <c r="E68" s="307"/>
-      <c r="F68" s="307"/>
-      <c r="G68" s="307"/>
-      <c r="H68" s="307"/>
-      <c r="I68" s="308"/>
+      <c r="C68" s="313"/>
+      <c r="D68" s="314"/>
+      <c r="E68" s="314"/>
+      <c r="F68" s="314"/>
+      <c r="G68" s="314"/>
+      <c r="H68" s="314"/>
+      <c r="I68" s="315"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="297" t="s">
+      <c r="B69" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C69" s="41" t="s">
@@ -25258,7 +25258,7 @@
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="298"/>
+      <c r="B70" s="305"/>
       <c r="C70" s="48" t="s">
         <v>851</v>
       </c>
@@ -25285,7 +25285,7 @@
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="298"/>
+      <c r="B71" s="305"/>
       <c r="C71" s="48" t="s">
         <v>856</v>
       </c>
@@ -25312,7 +25312,7 @@
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="298"/>
+      <c r="B72" s="305"/>
       <c r="C72" s="48" t="s">
         <v>848</v>
       </c>
@@ -25333,7 +25333,7 @@
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="298"/>
+      <c r="B73" s="305"/>
       <c r="C73" s="48" t="s">
         <v>998</v>
       </c>
@@ -25358,7 +25358,7 @@
       </c>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="298"/>
+      <c r="B74" s="305"/>
       <c r="C74" s="48" t="s">
         <v>1001</v>
       </c>
@@ -25385,7 +25385,7 @@
       </c>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="298"/>
+      <c r="B75" s="305"/>
       <c r="C75" s="48" t="s">
         <v>1005</v>
       </c>
@@ -25410,7 +25410,7 @@
       </c>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="298"/>
+      <c r="B76" s="305"/>
       <c r="C76" s="48" t="s">
         <v>1010</v>
       </c>
@@ -25435,7 +25435,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="298"/>
+      <c r="B77" s="305"/>
       <c r="C77" s="48" t="s">
         <v>1014</v>
       </c>
@@ -25454,7 +25454,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="298"/>
+      <c r="B78" s="305"/>
       <c r="C78" s="48" t="s">
         <v>1015</v>
       </c>
@@ -25473,7 +25473,7 @@
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="298"/>
+      <c r="B79" s="305"/>
       <c r="C79" s="48" t="s">
         <v>1017</v>
       </c>
@@ -25492,7 +25492,7 @@
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="298"/>
+      <c r="B80" s="305"/>
       <c r="C80" s="48" t="s">
         <v>1019</v>
       </c>
@@ -25511,7 +25511,7 @@
       </c>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="298"/>
+      <c r="B81" s="305"/>
       <c r="C81" s="48" t="s">
         <v>1022</v>
       </c>
@@ -25530,7 +25530,7 @@
       </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="298"/>
+      <c r="B82" s="305"/>
       <c r="C82" s="48" t="s">
         <v>910</v>
       </c>
@@ -25555,7 +25555,7 @@
       </c>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="298"/>
+      <c r="B83" s="305"/>
       <c r="C83" s="48" t="s">
         <v>914</v>
       </c>
@@ -25574,7 +25574,7 @@
       </c>
     </row>
     <row r="84" spans="2:13" ht="15" thickBot="1">
-      <c r="B84" s="299"/>
+      <c r="B84" s="306"/>
       <c r="C84" s="55" t="s">
         <v>917</v>
       </c>
@@ -25602,13 +25602,13 @@
       <c r="B87" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C87" s="300" t="s">
+      <c r="C87" s="307" t="s">
         <v>1024</v>
       </c>
-      <c r="D87" s="301"/>
-      <c r="E87" s="301"/>
-      <c r="F87" s="301"/>
-      <c r="G87" s="302"/>
+      <c r="D87" s="308"/>
+      <c r="E87" s="308"/>
+      <c r="F87" s="308"/>
+      <c r="G87" s="309"/>
       <c r="H87" s="41" t="s">
         <v>826</v>
       </c>
@@ -25618,13 +25618,13 @@
       <c r="B88" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C88" s="303" t="s">
+      <c r="C88" s="310" t="s">
         <v>1025</v>
       </c>
-      <c r="D88" s="304"/>
-      <c r="E88" s="304"/>
-      <c r="F88" s="304"/>
-      <c r="G88" s="305"/>
+      <c r="D88" s="311"/>
+      <c r="E88" s="311"/>
+      <c r="F88" s="311"/>
+      <c r="G88" s="312"/>
       <c r="H88" s="45" t="s">
         <v>829</v>
       </c>
@@ -25634,16 +25634,16 @@
       <c r="B89" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C89" s="306"/>
-      <c r="D89" s="307"/>
-      <c r="E89" s="307"/>
-      <c r="F89" s="307"/>
-      <c r="G89" s="307"/>
-      <c r="H89" s="307"/>
-      <c r="I89" s="308"/>
+      <c r="C89" s="313"/>
+      <c r="D89" s="314"/>
+      <c r="E89" s="314"/>
+      <c r="F89" s="314"/>
+      <c r="G89" s="314"/>
+      <c r="H89" s="314"/>
+      <c r="I89" s="315"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="297" t="s">
+      <c r="B90" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -25678,7 +25678,7 @@
       </c>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="298"/>
+      <c r="B91" s="305"/>
       <c r="C91" s="48" t="s">
         <v>1026</v>
       </c>
@@ -25707,7 +25707,7 @@
       </c>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="298"/>
+      <c r="B92" s="305"/>
       <c r="C92" s="48" t="s">
         <v>866</v>
       </c>
@@ -25732,7 +25732,7 @@
       </c>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="298"/>
+      <c r="B93" s="305"/>
       <c r="C93" s="48" t="s">
         <v>851</v>
       </c>
@@ -25760,7 +25760,7 @@
       </c>
     </row>
     <row r="94" spans="2:13">
-      <c r="B94" s="298"/>
+      <c r="B94" s="305"/>
       <c r="C94" s="48" t="s">
         <v>848</v>
       </c>
@@ -25779,7 +25779,7 @@
       </c>
     </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="298"/>
+      <c r="B95" s="305"/>
       <c r="C95" s="48" t="s">
         <v>842</v>
       </c>
@@ -25798,7 +25798,7 @@
       </c>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="298"/>
+      <c r="B96" s="305"/>
       <c r="C96" s="48" t="s">
         <v>947</v>
       </c>
@@ -25823,7 +25823,7 @@
       </c>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="298"/>
+      <c r="B97" s="305"/>
       <c r="C97" s="48" t="s">
         <v>856</v>
       </c>
@@ -25850,7 +25850,7 @@
       </c>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="298"/>
+      <c r="B98" s="305"/>
       <c r="C98" s="48" t="s">
         <v>861</v>
       </c>
@@ -25875,7 +25875,7 @@
       </c>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="298"/>
+      <c r="B99" s="305"/>
       <c r="C99" s="48" t="s">
         <v>1030</v>
       </c>
@@ -25894,7 +25894,7 @@
       </c>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="298"/>
+      <c r="B100" s="305"/>
       <c r="C100" s="48" t="s">
         <v>1034</v>
       </c>
@@ -25919,7 +25919,7 @@
       </c>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="298"/>
+      <c r="B101" s="305"/>
       <c r="C101" s="48" t="s">
         <v>1036</v>
       </c>
@@ -25944,7 +25944,7 @@
       </c>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="298"/>
+      <c r="B102" s="305"/>
       <c r="C102" s="48" t="s">
         <v>1040</v>
       </c>
@@ -25963,7 +25963,7 @@
       </c>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="298"/>
+      <c r="B103" s="305"/>
       <c r="C103" s="48" t="s">
         <v>1042</v>
       </c>
@@ -25991,7 +25991,7 @@
       </c>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="298"/>
+      <c r="B104" s="305"/>
       <c r="C104" s="48" t="s">
         <v>1045</v>
       </c>
@@ -26016,7 +26016,7 @@
       </c>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="298"/>
+      <c r="B105" s="305"/>
       <c r="C105" s="48" t="s">
         <v>1046</v>
       </c>
@@ -26044,7 +26044,7 @@
       </c>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="298"/>
+      <c r="B106" s="305"/>
       <c r="C106" s="48" t="s">
         <v>1050</v>
       </c>
@@ -26072,7 +26072,7 @@
       </c>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="298"/>
+      <c r="B107" s="305"/>
       <c r="C107" s="48" t="s">
         <v>986</v>
       </c>
@@ -26097,7 +26097,7 @@
       </c>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="298"/>
+      <c r="B108" s="305"/>
       <c r="C108" s="48" t="s">
         <v>939</v>
       </c>
@@ -26124,7 +26124,7 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="298"/>
+      <c r="B109" s="305"/>
       <c r="C109" s="48" t="s">
         <v>914</v>
       </c>
@@ -26143,7 +26143,7 @@
       </c>
     </row>
     <row r="110" spans="2:13">
-      <c r="B110" s="298"/>
+      <c r="B110" s="305"/>
       <c r="C110" s="48" t="s">
         <v>917</v>
       </c>
@@ -26168,7 +26168,7 @@
       </c>
     </row>
     <row r="111" spans="2:13">
-      <c r="B111" s="298"/>
+      <c r="B111" s="305"/>
       <c r="C111" s="48" t="s">
         <v>1056</v>
       </c>
@@ -26187,7 +26187,7 @@
       </c>
     </row>
     <row r="112" spans="2:13" ht="15" thickBot="1">
-      <c r="B112" s="299"/>
+      <c r="B112" s="306"/>
       <c r="C112" s="55" t="s">
         <v>1058</v>
       </c>
@@ -26209,13 +26209,13 @@
       <c r="B115" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C115" s="300" t="s">
+      <c r="C115" s="307" t="s">
         <v>1060</v>
       </c>
-      <c r="D115" s="301"/>
-      <c r="E115" s="301"/>
-      <c r="F115" s="301"/>
-      <c r="G115" s="302"/>
+      <c r="D115" s="308"/>
+      <c r="E115" s="308"/>
+      <c r="F115" s="308"/>
+      <c r="G115" s="309"/>
       <c r="H115" s="41" t="s">
         <v>826</v>
       </c>
@@ -26228,13 +26228,13 @@
       <c r="B116" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C116" s="303" t="s">
+      <c r="C116" s="310" t="s">
         <v>1062</v>
       </c>
-      <c r="D116" s="304"/>
-      <c r="E116" s="304"/>
-      <c r="F116" s="304"/>
-      <c r="G116" s="305"/>
+      <c r="D116" s="311"/>
+      <c r="E116" s="311"/>
+      <c r="F116" s="311"/>
+      <c r="G116" s="312"/>
       <c r="H116" s="45" t="s">
         <v>829</v>
       </c>
@@ -26244,18 +26244,18 @@
       <c r="B117" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C117" s="306" t="s">
+      <c r="C117" s="313" t="s">
         <v>1063</v>
       </c>
-      <c r="D117" s="307"/>
-      <c r="E117" s="307"/>
-      <c r="F117" s="307"/>
-      <c r="G117" s="307"/>
-      <c r="H117" s="307"/>
-      <c r="I117" s="308"/>
+      <c r="D117" s="314"/>
+      <c r="E117" s="314"/>
+      <c r="F117" s="314"/>
+      <c r="G117" s="314"/>
+      <c r="H117" s="314"/>
+      <c r="I117" s="315"/>
     </row>
     <row r="118" spans="2:12">
-      <c r="B118" s="297" t="s">
+      <c r="B118" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C118" s="41" t="s">
@@ -26290,7 +26290,7 @@
       </c>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="298"/>
+      <c r="B119" s="305"/>
       <c r="C119" s="48" t="s">
         <v>1064</v>
       </c>
@@ -26319,7 +26319,7 @@
       </c>
     </row>
     <row r="120" spans="2:12">
-      <c r="B120" s="298"/>
+      <c r="B120" s="305"/>
       <c r="C120" s="48" t="s">
         <v>1026</v>
       </c>
@@ -26344,7 +26344,7 @@
       </c>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="298"/>
+      <c r="B121" s="305"/>
       <c r="C121" s="48" t="s">
         <v>866</v>
       </c>
@@ -26369,7 +26369,7 @@
       </c>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="298"/>
+      <c r="B122" s="305"/>
       <c r="C122" s="48" t="s">
         <v>851</v>
       </c>
@@ -26394,7 +26394,7 @@
       </c>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="298"/>
+      <c r="B123" s="305"/>
       <c r="C123" s="48" t="s">
         <v>1071</v>
       </c>
@@ -26411,7 +26411,7 @@
       <c r="L123" s="52"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="298"/>
+      <c r="B124" s="305"/>
       <c r="C124" s="48" t="s">
         <v>1073</v>
       </c>
@@ -26436,7 +26436,7 @@
       </c>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="298"/>
+      <c r="B125" s="305"/>
       <c r="C125" s="48" t="s">
         <v>1077</v>
       </c>
@@ -26461,7 +26461,7 @@
       </c>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="298"/>
+      <c r="B126" s="305"/>
       <c r="C126" s="48" t="s">
         <v>1081</v>
       </c>
@@ -26477,7 +26477,7 @@
       <c r="I126" s="51"/>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="298"/>
+      <c r="B127" s="305"/>
       <c r="C127" s="48" t="s">
         <v>1083</v>
       </c>
@@ -26493,7 +26493,7 @@
       <c r="I127" s="51"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="298"/>
+      <c r="B128" s="305"/>
       <c r="C128" s="48" t="s">
         <v>848</v>
       </c>
@@ -26509,7 +26509,7 @@
       <c r="I128" s="51"/>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="298"/>
+      <c r="B129" s="305"/>
       <c r="C129" s="48" t="s">
         <v>842</v>
       </c>
@@ -26525,7 +26525,7 @@
       <c r="I129" s="51"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="298"/>
+      <c r="B130" s="305"/>
       <c r="C130" s="48" t="s">
         <v>947</v>
       </c>
@@ -26550,7 +26550,7 @@
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="298"/>
+      <c r="B131" s="305"/>
       <c r="C131" s="48" t="s">
         <v>856</v>
       </c>
@@ -26575,7 +26575,7 @@
       </c>
     </row>
     <row r="132" spans="2:12">
-      <c r="B132" s="298"/>
+      <c r="B132" s="305"/>
       <c r="C132" s="48" t="s">
         <v>861</v>
       </c>
@@ -26600,7 +26600,7 @@
       </c>
     </row>
     <row r="133" spans="2:12">
-      <c r="B133" s="298"/>
+      <c r="B133" s="305"/>
       <c r="C133" s="48" t="s">
         <v>1030</v>
       </c>
@@ -26625,7 +26625,7 @@
       </c>
     </row>
     <row r="134" spans="2:12">
-      <c r="B134" s="298"/>
+      <c r="B134" s="305"/>
       <c r="C134" s="48" t="s">
         <v>1036</v>
       </c>
@@ -26650,7 +26650,7 @@
       </c>
     </row>
     <row r="135" spans="2:12">
-      <c r="B135" s="298"/>
+      <c r="B135" s="305"/>
       <c r="C135" s="48" t="s">
         <v>1040</v>
       </c>
@@ -26666,7 +26666,7 @@
       <c r="I135" s="51"/>
     </row>
     <row r="136" spans="2:12">
-      <c r="B136" s="298"/>
+      <c r="B136" s="305"/>
       <c r="C136" s="48" t="s">
         <v>1085</v>
       </c>
@@ -26682,7 +26682,7 @@
       <c r="I136" s="51"/>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="298"/>
+      <c r="B137" s="305"/>
       <c r="C137" s="48" t="s">
         <v>1087</v>
       </c>
@@ -26698,7 +26698,7 @@
       <c r="I137" s="51"/>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="298"/>
+      <c r="B138" s="305"/>
       <c r="C138" s="48" t="s">
         <v>1089</v>
       </c>
@@ -26714,7 +26714,7 @@
       <c r="I138" s="51"/>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="298"/>
+      <c r="B139" s="305"/>
       <c r="C139" s="48" t="s">
         <v>1091</v>
       </c>
@@ -26739,7 +26739,7 @@
       </c>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="298"/>
+      <c r="B140" s="305"/>
       <c r="C140" s="48" t="s">
         <v>1050</v>
       </c>
@@ -26764,7 +26764,7 @@
       </c>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="298"/>
+      <c r="B141" s="305"/>
       <c r="C141" s="48" t="s">
         <v>1098</v>
       </c>
@@ -26789,7 +26789,7 @@
       </c>
     </row>
     <row r="142" spans="2:12">
-      <c r="B142" s="298"/>
+      <c r="B142" s="305"/>
       <c r="C142" s="48" t="s">
         <v>1101</v>
       </c>
@@ -26814,7 +26814,7 @@
       </c>
     </row>
     <row r="143" spans="2:12">
-      <c r="B143" s="298"/>
+      <c r="B143" s="305"/>
       <c r="C143" s="48" t="s">
         <v>1105</v>
       </c>
@@ -26830,7 +26830,7 @@
       <c r="I143" s="51"/>
     </row>
     <row r="144" spans="2:12">
-      <c r="B144" s="298"/>
+      <c r="B144" s="305"/>
       <c r="C144" s="48" t="s">
         <v>1107</v>
       </c>
@@ -26846,7 +26846,7 @@
       <c r="I144" s="51"/>
     </row>
     <row r="145" spans="2:12">
-      <c r="B145" s="298"/>
+      <c r="B145" s="305"/>
       <c r="C145" s="48" t="s">
         <v>1109</v>
       </c>
@@ -26862,7 +26862,7 @@
       <c r="I145" s="51"/>
     </row>
     <row r="146" spans="2:12">
-      <c r="B146" s="298"/>
+      <c r="B146" s="305"/>
       <c r="C146" s="48" t="s">
         <v>1111</v>
       </c>
@@ -26878,7 +26878,7 @@
       <c r="I146" s="51"/>
     </row>
     <row r="147" spans="2:12">
-      <c r="B147" s="298"/>
+      <c r="B147" s="305"/>
       <c r="C147" s="48" t="s">
         <v>1113</v>
       </c>
@@ -26894,7 +26894,7 @@
       <c r="I147" s="51"/>
     </row>
     <row r="148" spans="2:12">
-      <c r="B148" s="298"/>
+      <c r="B148" s="305"/>
       <c r="C148" s="48" t="s">
         <v>1115</v>
       </c>
@@ -26910,7 +26910,7 @@
       <c r="I148" s="51"/>
     </row>
     <row r="149" spans="2:12">
-      <c r="B149" s="298"/>
+      <c r="B149" s="305"/>
       <c r="C149" s="48" t="s">
         <v>1117</v>
       </c>
@@ -26935,7 +26935,7 @@
       </c>
     </row>
     <row r="150" spans="2:12">
-      <c r="B150" s="298"/>
+      <c r="B150" s="305"/>
       <c r="C150" s="48" t="s">
         <v>1121</v>
       </c>
@@ -26951,7 +26951,7 @@
       <c r="I150" s="51"/>
     </row>
     <row r="151" spans="2:12">
-      <c r="B151" s="298"/>
+      <c r="B151" s="305"/>
       <c r="C151" s="48" t="s">
         <v>1123</v>
       </c>
@@ -26976,7 +26976,7 @@
       </c>
     </row>
     <row r="152" spans="2:12">
-      <c r="B152" s="298"/>
+      <c r="B152" s="305"/>
       <c r="C152" s="48" t="s">
         <v>1127</v>
       </c>
@@ -27001,7 +27001,7 @@
       </c>
     </row>
     <row r="153" spans="2:12">
-      <c r="B153" s="298"/>
+      <c r="B153" s="305"/>
       <c r="C153" s="48" t="s">
         <v>1131</v>
       </c>
@@ -27026,7 +27026,7 @@
       </c>
     </row>
     <row r="154" spans="2:12">
-      <c r="B154" s="298"/>
+      <c r="B154" s="305"/>
       <c r="C154" s="48" t="s">
         <v>1135</v>
       </c>
@@ -27051,7 +27051,7 @@
       </c>
     </row>
     <row r="155" spans="2:12">
-      <c r="B155" s="298"/>
+      <c r="B155" s="305"/>
       <c r="C155" s="48" t="s">
         <v>1139</v>
       </c>
@@ -27067,7 +27067,7 @@
       <c r="I155" s="51"/>
     </row>
     <row r="156" spans="2:12">
-      <c r="B156" s="298"/>
+      <c r="B156" s="305"/>
       <c r="C156" s="48" t="s">
         <v>939</v>
       </c>
@@ -27094,7 +27094,7 @@
       </c>
     </row>
     <row r="157" spans="2:12">
-      <c r="B157" s="298"/>
+      <c r="B157" s="305"/>
       <c r="C157" s="48" t="s">
         <v>914</v>
       </c>
@@ -27110,7 +27110,7 @@
       <c r="I157" s="51"/>
     </row>
     <row r="158" spans="2:12">
-      <c r="B158" s="298"/>
+      <c r="B158" s="305"/>
       <c r="C158" s="48" t="s">
         <v>1141</v>
       </c>
@@ -27126,7 +27126,7 @@
       <c r="I158" s="51"/>
     </row>
     <row r="159" spans="2:12">
-      <c r="B159" s="298"/>
+      <c r="B159" s="305"/>
       <c r="C159" s="48" t="s">
         <v>1143</v>
       </c>
@@ -27142,7 +27142,7 @@
       <c r="I159" s="51"/>
     </row>
     <row r="160" spans="2:12">
-      <c r="B160" s="298"/>
+      <c r="B160" s="305"/>
       <c r="C160" s="48" t="s">
         <v>1145</v>
       </c>
@@ -27158,7 +27158,7 @@
       <c r="I160" s="51"/>
     </row>
     <row r="161" spans="2:12" ht="15" thickBot="1">
-      <c r="B161" s="299"/>
+      <c r="B161" s="306"/>
       <c r="C161" s="55" t="s">
         <v>1148</v>
       </c>
@@ -27177,13 +27177,13 @@
       <c r="B164" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C164" s="300" t="s">
+      <c r="C164" s="307" t="s">
         <v>1150</v>
       </c>
-      <c r="D164" s="301"/>
-      <c r="E164" s="301"/>
-      <c r="F164" s="301"/>
-      <c r="G164" s="302"/>
+      <c r="D164" s="308"/>
+      <c r="E164" s="308"/>
+      <c r="F164" s="308"/>
+      <c r="G164" s="309"/>
       <c r="H164" s="41" t="s">
         <v>826</v>
       </c>
@@ -27196,13 +27196,13 @@
       <c r="B165" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C165" s="303" t="s">
+      <c r="C165" s="310" t="s">
         <v>1151</v>
       </c>
-      <c r="D165" s="304"/>
-      <c r="E165" s="304"/>
-      <c r="F165" s="304"/>
-      <c r="G165" s="305"/>
+      <c r="D165" s="311"/>
+      <c r="E165" s="311"/>
+      <c r="F165" s="311"/>
+      <c r="G165" s="312"/>
       <c r="H165" s="45" t="s">
         <v>829</v>
       </c>
@@ -27212,18 +27212,18 @@
       <c r="B166" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C166" s="306" t="s">
+      <c r="C166" s="313" t="s">
         <v>1152</v>
       </c>
-      <c r="D166" s="307"/>
-      <c r="E166" s="307"/>
-      <c r="F166" s="307"/>
-      <c r="G166" s="307"/>
-      <c r="H166" s="307"/>
-      <c r="I166" s="308"/>
+      <c r="D166" s="314"/>
+      <c r="E166" s="314"/>
+      <c r="F166" s="314"/>
+      <c r="G166" s="314"/>
+      <c r="H166" s="314"/>
+      <c r="I166" s="315"/>
     </row>
     <row r="167" spans="2:12">
-      <c r="B167" s="297" t="s">
+      <c r="B167" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C167" s="41" t="s">
@@ -27258,7 +27258,7 @@
       </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="298"/>
+      <c r="B168" s="305"/>
       <c r="C168" s="48" t="s">
         <v>1153</v>
       </c>
@@ -27283,7 +27283,7 @@
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="B169" s="298"/>
+      <c r="B169" s="305"/>
       <c r="C169" s="48" t="s">
         <v>842</v>
       </c>
@@ -27299,7 +27299,7 @@
       <c r="I169" s="51"/>
     </row>
     <row r="170" spans="2:12">
-      <c r="B170" s="298"/>
+      <c r="B170" s="305"/>
       <c r="C170" s="48" t="s">
         <v>848</v>
       </c>
@@ -27315,7 +27315,7 @@
       <c r="I170" s="51"/>
     </row>
     <row r="171" spans="2:12">
-      <c r="B171" s="298"/>
+      <c r="B171" s="305"/>
       <c r="C171" s="48" t="s">
         <v>914</v>
       </c>
@@ -27331,7 +27331,7 @@
       <c r="I171" s="51"/>
     </row>
     <row r="172" spans="2:12">
-      <c r="B172" s="298"/>
+      <c r="B172" s="305"/>
       <c r="C172" s="48" t="s">
         <v>1156</v>
       </c>
@@ -27356,7 +27356,7 @@
       </c>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="298"/>
+      <c r="B173" s="305"/>
       <c r="C173" s="48" t="s">
         <v>1158</v>
       </c>
@@ -27381,7 +27381,7 @@
       </c>
     </row>
     <row r="174" spans="2:12">
-      <c r="B174" s="298"/>
+      <c r="B174" s="305"/>
       <c r="C174" s="48" t="s">
         <v>1160</v>
       </c>
@@ -27397,7 +27397,7 @@
       <c r="I174" s="51"/>
     </row>
     <row r="175" spans="2:12">
-      <c r="B175" s="298"/>
+      <c r="B175" s="305"/>
       <c r="C175" s="48" t="s">
         <v>856</v>
       </c>
@@ -27422,7 +27422,7 @@
       </c>
     </row>
     <row r="176" spans="2:12">
-      <c r="B176" s="298"/>
+      <c r="B176" s="305"/>
       <c r="C176" s="48" t="s">
         <v>862</v>
       </c>
@@ -27447,7 +27447,7 @@
       </c>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="298"/>
+      <c r="B177" s="305"/>
       <c r="C177" s="48" t="s">
         <v>861</v>
       </c>
@@ -27472,7 +27472,7 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="298"/>
+      <c r="B178" s="305"/>
       <c r="C178" s="48" t="s">
         <v>851</v>
       </c>
@@ -27497,7 +27497,7 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="298"/>
+      <c r="B179" s="305"/>
       <c r="C179" s="48" t="s">
         <v>1163</v>
       </c>
@@ -27513,7 +27513,7 @@
       <c r="I179" s="51"/>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="298"/>
+      <c r="B180" s="305"/>
       <c r="C180" s="48" t="s">
         <v>866</v>
       </c>
@@ -27538,7 +27538,7 @@
       </c>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="298"/>
+      <c r="B181" s="305"/>
       <c r="C181" s="48" t="s">
         <v>1166</v>
       </c>
@@ -27563,7 +27563,7 @@
       </c>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="298"/>
+      <c r="B182" s="305"/>
       <c r="C182" s="48" t="s">
         <v>1168</v>
       </c>
@@ -27588,7 +27588,7 @@
       </c>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="298"/>
+      <c r="B183" s="305"/>
       <c r="C183" s="48" t="s">
         <v>1143</v>
       </c>
@@ -27604,7 +27604,7 @@
       <c r="I183" s="51"/>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="298"/>
+      <c r="B184" s="305"/>
       <c r="C184" s="48" t="s">
         <v>1170</v>
       </c>
@@ -27629,7 +27629,7 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="298"/>
+      <c r="B185" s="305"/>
       <c r="C185" s="48" t="s">
         <v>1089</v>
       </c>
@@ -27645,7 +27645,7 @@
       <c r="I185" s="51"/>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="298"/>
+      <c r="B186" s="305"/>
       <c r="C186" s="48" t="s">
         <v>1172</v>
       </c>
@@ -27661,7 +27661,7 @@
       <c r="I186" s="51"/>
     </row>
     <row r="187" spans="2:12">
-      <c r="B187" s="298"/>
+      <c r="B187" s="305"/>
       <c r="C187" s="48" t="s">
         <v>1174</v>
       </c>
@@ -27677,7 +27677,7 @@
       <c r="I187" s="51"/>
     </row>
     <row r="188" spans="2:12">
-      <c r="B188" s="298"/>
+      <c r="B188" s="305"/>
       <c r="C188" s="48" t="s">
         <v>1176</v>
       </c>
@@ -27693,7 +27693,7 @@
       <c r="I188" s="51"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="298"/>
+      <c r="B189" s="305"/>
       <c r="C189" s="48" t="s">
         <v>1178</v>
       </c>
@@ -27709,7 +27709,7 @@
       <c r="I189" s="51"/>
     </row>
     <row r="190" spans="2:12">
-      <c r="B190" s="298"/>
+      <c r="B190" s="305"/>
       <c r="C190" s="48" t="s">
         <v>1180</v>
       </c>
@@ -27734,7 +27734,7 @@
       </c>
     </row>
     <row r="191" spans="2:12">
-      <c r="B191" s="298"/>
+      <c r="B191" s="305"/>
       <c r="C191" s="48" t="s">
         <v>1182</v>
       </c>
@@ -27750,7 +27750,7 @@
       <c r="I191" s="51"/>
     </row>
     <row r="192" spans="2:12" ht="15" thickBot="1">
-      <c r="B192" s="299"/>
+      <c r="B192" s="306"/>
       <c r="C192" s="55" t="s">
         <v>1184</v>
       </c>
@@ -27770,13 +27770,13 @@
       <c r="B195" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C195" s="300" t="s">
+      <c r="C195" s="307" t="s">
         <v>1186</v>
       </c>
-      <c r="D195" s="301"/>
-      <c r="E195" s="301"/>
-      <c r="F195" s="301"/>
-      <c r="G195" s="302"/>
+      <c r="D195" s="308"/>
+      <c r="E195" s="308"/>
+      <c r="F195" s="308"/>
+      <c r="G195" s="309"/>
       <c r="H195" s="41" t="s">
         <v>826</v>
       </c>
@@ -27786,13 +27786,13 @@
       <c r="B196" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C196" s="303" t="s">
+      <c r="C196" s="310" t="s">
         <v>1187</v>
       </c>
-      <c r="D196" s="304"/>
-      <c r="E196" s="304"/>
-      <c r="F196" s="304"/>
-      <c r="G196" s="305"/>
+      <c r="D196" s="311"/>
+      <c r="E196" s="311"/>
+      <c r="F196" s="311"/>
+      <c r="G196" s="312"/>
       <c r="H196" s="45" t="s">
         <v>829</v>
       </c>
@@ -27802,16 +27802,16 @@
       <c r="B197" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C197" s="306"/>
-      <c r="D197" s="307"/>
-      <c r="E197" s="307"/>
-      <c r="F197" s="307"/>
-      <c r="G197" s="307"/>
-      <c r="H197" s="307"/>
-      <c r="I197" s="308"/>
+      <c r="C197" s="313"/>
+      <c r="D197" s="314"/>
+      <c r="E197" s="314"/>
+      <c r="F197" s="314"/>
+      <c r="G197" s="314"/>
+      <c r="H197" s="314"/>
+      <c r="I197" s="315"/>
     </row>
     <row r="198" spans="2:12">
-      <c r="B198" s="297" t="s">
+      <c r="B198" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C198" s="41" t="s">
@@ -27846,7 +27846,7 @@
       </c>
     </row>
     <row r="199" spans="2:12">
-      <c r="B199" s="298"/>
+      <c r="B199" s="305"/>
       <c r="C199" s="48" t="s">
         <v>1188</v>
       </c>
@@ -27862,7 +27862,7 @@
       <c r="I199" s="51"/>
     </row>
     <row r="200" spans="2:12">
-      <c r="B200" s="298"/>
+      <c r="B200" s="305"/>
       <c r="C200" s="48" t="s">
         <v>914</v>
       </c>
@@ -27878,7 +27878,7 @@
       <c r="I200" s="51"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="298"/>
+      <c r="B201" s="305"/>
       <c r="C201" s="48" t="s">
         <v>851</v>
       </c>
@@ -27894,7 +27894,7 @@
       <c r="I201" s="51"/>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="298"/>
+      <c r="B202" s="305"/>
       <c r="C202" s="48" t="s">
         <v>1026</v>
       </c>
@@ -27910,7 +27910,7 @@
       <c r="I202" s="51"/>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="298"/>
+      <c r="B203" s="305"/>
       <c r="C203" s="48" t="s">
         <v>1030</v>
       </c>
@@ -27935,7 +27935,7 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="298"/>
+      <c r="B204" s="305"/>
       <c r="C204" s="48" t="s">
         <v>866</v>
       </c>
@@ -27951,7 +27951,7 @@
       <c r="I204" s="51"/>
     </row>
     <row r="205" spans="2:12">
-      <c r="B205" s="298"/>
+      <c r="B205" s="305"/>
       <c r="C205" s="48" t="s">
         <v>873</v>
       </c>
@@ -27967,7 +27967,7 @@
       <c r="I205" s="51"/>
     </row>
     <row r="206" spans="2:12">
-      <c r="B206" s="298"/>
+      <c r="B206" s="305"/>
       <c r="C206" s="48" t="s">
         <v>1192</v>
       </c>
@@ -27983,7 +27983,7 @@
       <c r="I206" s="51"/>
     </row>
     <row r="207" spans="2:12">
-      <c r="B207" s="298"/>
+      <c r="B207" s="305"/>
       <c r="C207" s="48" t="s">
         <v>883</v>
       </c>
@@ -27999,7 +27999,7 @@
       <c r="I207" s="51"/>
     </row>
     <row r="208" spans="2:12">
-      <c r="B208" s="298"/>
+      <c r="B208" s="305"/>
       <c r="C208" s="48" t="s">
         <v>888</v>
       </c>
@@ -28015,7 +28015,7 @@
       <c r="I208" s="51"/>
     </row>
     <row r="209" spans="2:9">
-      <c r="B209" s="298"/>
+      <c r="B209" s="305"/>
       <c r="C209" s="48" t="s">
         <v>890</v>
       </c>
@@ -28031,7 +28031,7 @@
       <c r="I209" s="51"/>
     </row>
     <row r="210" spans="2:9">
-      <c r="B210" s="298"/>
+      <c r="B210" s="305"/>
       <c r="C210" s="48" t="s">
         <v>892</v>
       </c>
@@ -28047,7 +28047,7 @@
       <c r="I210" s="51"/>
     </row>
     <row r="211" spans="2:9">
-      <c r="B211" s="298"/>
+      <c r="B211" s="305"/>
       <c r="C211" s="48" t="s">
         <v>894</v>
       </c>
@@ -28063,7 +28063,7 @@
       <c r="I211" s="51"/>
     </row>
     <row r="212" spans="2:9">
-      <c r="B212" s="298"/>
+      <c r="B212" s="305"/>
       <c r="C212" s="48" t="s">
         <v>896</v>
       </c>
@@ -28079,7 +28079,7 @@
       <c r="I212" s="51"/>
     </row>
     <row r="213" spans="2:9">
-      <c r="B213" s="298"/>
+      <c r="B213" s="305"/>
       <c r="C213" s="48" t="s">
         <v>1042</v>
       </c>
@@ -28095,7 +28095,7 @@
       <c r="I213" s="51"/>
     </row>
     <row r="214" spans="2:9">
-      <c r="B214" s="298"/>
+      <c r="B214" s="305"/>
       <c r="C214" s="48" t="s">
         <v>1045</v>
       </c>
@@ -28111,7 +28111,7 @@
       <c r="I214" s="51"/>
     </row>
     <row r="215" spans="2:9">
-      <c r="B215" s="298"/>
+      <c r="B215" s="305"/>
       <c r="C215" s="48" t="s">
         <v>1194</v>
       </c>
@@ -28127,7 +28127,7 @@
       <c r="I215" s="51"/>
     </row>
     <row r="216" spans="2:9">
-      <c r="B216" s="298"/>
+      <c r="B216" s="305"/>
       <c r="C216" s="48" t="s">
         <v>1195</v>
       </c>
@@ -28143,7 +28143,7 @@
       <c r="I216" s="51"/>
     </row>
     <row r="217" spans="2:9">
-      <c r="B217" s="298"/>
+      <c r="B217" s="305"/>
       <c r="C217" s="48" t="s">
         <v>1196</v>
       </c>
@@ -28159,7 +28159,7 @@
       <c r="I217" s="51"/>
     </row>
     <row r="218" spans="2:9">
-      <c r="B218" s="298"/>
+      <c r="B218" s="305"/>
       <c r="C218" s="48" t="s">
         <v>917</v>
       </c>
@@ -28175,7 +28175,7 @@
       <c r="I218" s="51"/>
     </row>
     <row r="219" spans="2:9">
-      <c r="B219" s="298"/>
+      <c r="B219" s="305"/>
       <c r="C219" s="48" t="s">
         <v>939</v>
       </c>
@@ -28191,7 +28191,7 @@
       <c r="I219" s="51"/>
     </row>
     <row r="220" spans="2:9" ht="15" thickBot="1">
-      <c r="B220" s="299"/>
+      <c r="B220" s="306"/>
       <c r="C220" s="55"/>
       <c r="D220" s="55"/>
       <c r="E220" s="56"/>
@@ -28205,13 +28205,13 @@
       <c r="B223" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C223" s="300" t="s">
+      <c r="C223" s="307" t="s">
         <v>1197</v>
       </c>
-      <c r="D223" s="301"/>
-      <c r="E223" s="301"/>
-      <c r="F223" s="301"/>
-      <c r="G223" s="302"/>
+      <c r="D223" s="308"/>
+      <c r="E223" s="308"/>
+      <c r="F223" s="308"/>
+      <c r="G223" s="309"/>
       <c r="H223" s="41" t="s">
         <v>826</v>
       </c>
@@ -28221,13 +28221,13 @@
       <c r="B224" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C224" s="303" t="s">
+      <c r="C224" s="310" t="s">
         <v>1198</v>
       </c>
-      <c r="D224" s="304"/>
-      <c r="E224" s="304"/>
-      <c r="F224" s="304"/>
-      <c r="G224" s="305"/>
+      <c r="D224" s="311"/>
+      <c r="E224" s="311"/>
+      <c r="F224" s="311"/>
+      <c r="G224" s="312"/>
       <c r="H224" s="45" t="s">
         <v>829</v>
       </c>
@@ -28237,16 +28237,16 @@
       <c r="B225" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C225" s="306"/>
-      <c r="D225" s="307"/>
-      <c r="E225" s="307"/>
-      <c r="F225" s="307"/>
-      <c r="G225" s="307"/>
-      <c r="H225" s="307"/>
-      <c r="I225" s="308"/>
+      <c r="C225" s="313"/>
+      <c r="D225" s="314"/>
+      <c r="E225" s="314"/>
+      <c r="F225" s="314"/>
+      <c r="G225" s="314"/>
+      <c r="H225" s="314"/>
+      <c r="I225" s="315"/>
     </row>
     <row r="226" spans="2:12">
-      <c r="B226" s="297" t="s">
+      <c r="B226" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C226" s="41" t="s">
@@ -28272,7 +28272,7 @@
       </c>
     </row>
     <row r="227" spans="2:12">
-      <c r="B227" s="298"/>
+      <c r="B227" s="305"/>
       <c r="C227" s="48" t="s">
         <v>1199</v>
       </c>
@@ -28288,7 +28288,7 @@
       <c r="I227" s="51"/>
     </row>
     <row r="228" spans="2:12">
-      <c r="B228" s="298"/>
+      <c r="B228" s="305"/>
       <c r="C228" s="48" t="s">
         <v>1153</v>
       </c>
@@ -28313,7 +28313,7 @@
       </c>
     </row>
     <row r="229" spans="2:12">
-      <c r="B229" s="298"/>
+      <c r="B229" s="305"/>
       <c r="C229" s="48" t="s">
         <v>842</v>
       </c>
@@ -28329,7 +28329,7 @@
       <c r="I229" s="51"/>
     </row>
     <row r="230" spans="2:12">
-      <c r="B230" s="298"/>
+      <c r="B230" s="305"/>
       <c r="C230" s="48" t="s">
         <v>848</v>
       </c>
@@ -28345,7 +28345,7 @@
       <c r="I230" s="51"/>
     </row>
     <row r="231" spans="2:12">
-      <c r="B231" s="298"/>
+      <c r="B231" s="305"/>
       <c r="C231" s="48" t="s">
         <v>914</v>
       </c>
@@ -28361,7 +28361,7 @@
       <c r="I231" s="51"/>
     </row>
     <row r="232" spans="2:12">
-      <c r="B232" s="298"/>
+      <c r="B232" s="305"/>
       <c r="C232" s="48" t="s">
         <v>1156</v>
       </c>
@@ -28386,7 +28386,7 @@
       </c>
     </row>
     <row r="233" spans="2:12">
-      <c r="B233" s="298"/>
+      <c r="B233" s="305"/>
       <c r="C233" s="48" t="s">
         <v>1158</v>
       </c>
@@ -28411,7 +28411,7 @@
       </c>
     </row>
     <row r="234" spans="2:12">
-      <c r="B234" s="298"/>
+      <c r="B234" s="305"/>
       <c r="C234" s="48" t="s">
         <v>1160</v>
       </c>
@@ -28427,7 +28427,7 @@
       <c r="I234" s="51"/>
     </row>
     <row r="235" spans="2:12">
-      <c r="B235" s="298"/>
+      <c r="B235" s="305"/>
       <c r="C235" s="48" t="s">
         <v>856</v>
       </c>
@@ -28452,7 +28452,7 @@
       </c>
     </row>
     <row r="236" spans="2:12">
-      <c r="B236" s="298"/>
+      <c r="B236" s="305"/>
       <c r="C236" s="48" t="s">
         <v>862</v>
       </c>
@@ -28477,7 +28477,7 @@
       </c>
     </row>
     <row r="237" spans="2:12">
-      <c r="B237" s="298"/>
+      <c r="B237" s="305"/>
       <c r="C237" s="48" t="s">
         <v>861</v>
       </c>
@@ -28502,7 +28502,7 @@
       </c>
     </row>
     <row r="238" spans="2:12">
-      <c r="B238" s="298"/>
+      <c r="B238" s="305"/>
       <c r="C238" s="48" t="s">
         <v>851</v>
       </c>
@@ -28527,7 +28527,7 @@
       </c>
     </row>
     <row r="239" spans="2:12">
-      <c r="B239" s="298"/>
+      <c r="B239" s="305"/>
       <c r="C239" s="48" t="s">
         <v>1163</v>
       </c>
@@ -28543,7 +28543,7 @@
       <c r="I239" s="51"/>
     </row>
     <row r="240" spans="2:12">
-      <c r="B240" s="298"/>
+      <c r="B240" s="305"/>
       <c r="C240" s="48" t="s">
         <v>866</v>
       </c>
@@ -28568,7 +28568,7 @@
       </c>
     </row>
     <row r="241" spans="2:12">
-      <c r="B241" s="298"/>
+      <c r="B241" s="305"/>
       <c r="C241" s="48" t="s">
         <v>1166</v>
       </c>
@@ -28593,7 +28593,7 @@
       </c>
     </row>
     <row r="242" spans="2:12">
-      <c r="B242" s="298"/>
+      <c r="B242" s="305"/>
       <c r="C242" s="48" t="s">
         <v>1168</v>
       </c>
@@ -28618,7 +28618,7 @@
       </c>
     </row>
     <row r="243" spans="2:12">
-      <c r="B243" s="298"/>
+      <c r="B243" s="305"/>
       <c r="C243" s="48" t="s">
         <v>1143</v>
       </c>
@@ -28634,7 +28634,7 @@
       <c r="I243" s="51"/>
     </row>
     <row r="244" spans="2:12">
-      <c r="B244" s="298"/>
+      <c r="B244" s="305"/>
       <c r="C244" s="48" t="s">
         <v>1170</v>
       </c>
@@ -28659,7 +28659,7 @@
       </c>
     </row>
     <row r="245" spans="2:12">
-      <c r="B245" s="298"/>
+      <c r="B245" s="305"/>
       <c r="C245" s="48" t="s">
         <v>1089</v>
       </c>
@@ -28675,7 +28675,7 @@
       <c r="I245" s="51"/>
     </row>
     <row r="246" spans="2:12">
-      <c r="B246" s="298"/>
+      <c r="B246" s="305"/>
       <c r="C246" s="48" t="s">
         <v>1172</v>
       </c>
@@ -28691,7 +28691,7 @@
       <c r="I246" s="51"/>
     </row>
     <row r="247" spans="2:12">
-      <c r="B247" s="298"/>
+      <c r="B247" s="305"/>
       <c r="C247" s="48" t="s">
         <v>1174</v>
       </c>
@@ -28707,7 +28707,7 @@
       <c r="I247" s="51"/>
     </row>
     <row r="248" spans="2:12">
-      <c r="B248" s="298"/>
+      <c r="B248" s="305"/>
       <c r="C248" s="48" t="s">
         <v>1176</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="I248" s="51"/>
     </row>
     <row r="249" spans="2:12">
-      <c r="B249" s="298"/>
+      <c r="B249" s="305"/>
       <c r="C249" s="48" t="s">
         <v>1178</v>
       </c>
@@ -28739,7 +28739,7 @@
       <c r="I249" s="51"/>
     </row>
     <row r="250" spans="2:12">
-      <c r="B250" s="298"/>
+      <c r="B250" s="305"/>
       <c r="C250" s="64" t="s">
         <v>1180</v>
       </c>
@@ -28764,7 +28764,7 @@
       </c>
     </row>
     <row r="251" spans="2:12">
-      <c r="B251" s="298"/>
+      <c r="B251" s="305"/>
       <c r="C251" s="64" t="s">
         <v>1182</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="I251" s="67"/>
     </row>
     <row r="252" spans="2:12">
-      <c r="B252" s="298"/>
+      <c r="B252" s="305"/>
       <c r="C252" s="64" t="s">
         <v>1184</v>
       </c>
@@ -28796,7 +28796,7 @@
       <c r="I252" s="67"/>
     </row>
     <row r="253" spans="2:12" ht="15" thickBot="1">
-      <c r="B253" s="299"/>
+      <c r="B253" s="306"/>
       <c r="C253" s="55"/>
       <c r="D253" s="55"/>
       <c r="E253" s="56"/>
@@ -28810,13 +28810,13 @@
       <c r="B257" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C257" s="300" t="s">
+      <c r="C257" s="307" t="s">
         <v>1221</v>
       </c>
-      <c r="D257" s="301"/>
-      <c r="E257" s="301"/>
-      <c r="F257" s="301"/>
-      <c r="G257" s="302"/>
+      <c r="D257" s="308"/>
+      <c r="E257" s="308"/>
+      <c r="F257" s="308"/>
+      <c r="G257" s="309"/>
       <c r="H257" s="41" t="s">
         <v>826</v>
       </c>
@@ -28826,13 +28826,13 @@
       <c r="B258" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C258" s="303" t="s">
+      <c r="C258" s="310" t="s">
         <v>1222</v>
       </c>
-      <c r="D258" s="304"/>
-      <c r="E258" s="304"/>
-      <c r="F258" s="304"/>
-      <c r="G258" s="305"/>
+      <c r="D258" s="311"/>
+      <c r="E258" s="311"/>
+      <c r="F258" s="311"/>
+      <c r="G258" s="312"/>
       <c r="H258" s="45" t="s">
         <v>829</v>
       </c>
@@ -28842,16 +28842,16 @@
       <c r="B259" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C259" s="306"/>
-      <c r="D259" s="307"/>
-      <c r="E259" s="307"/>
-      <c r="F259" s="307"/>
-      <c r="G259" s="307"/>
-      <c r="H259" s="307"/>
-      <c r="I259" s="308"/>
+      <c r="C259" s="313"/>
+      <c r="D259" s="314"/>
+      <c r="E259" s="314"/>
+      <c r="F259" s="314"/>
+      <c r="G259" s="314"/>
+      <c r="H259" s="314"/>
+      <c r="I259" s="315"/>
     </row>
     <row r="260" spans="2:12">
-      <c r="B260" s="297" t="s">
+      <c r="B260" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C260" s="41" t="s">
@@ -28886,7 +28886,7 @@
       </c>
     </row>
     <row r="261" spans="2:12">
-      <c r="B261" s="298"/>
+      <c r="B261" s="305"/>
       <c r="C261" s="48" t="s">
         <v>1199</v>
       </c>
@@ -28902,7 +28902,7 @@
       <c r="I261" s="51"/>
     </row>
     <row r="262" spans="2:12">
-      <c r="B262" s="298"/>
+      <c r="B262" s="305"/>
       <c r="C262" s="48" t="s">
         <v>1064</v>
       </c>
@@ -28927,7 +28927,7 @@
       </c>
     </row>
     <row r="263" spans="2:12">
-      <c r="B263" s="298"/>
+      <c r="B263" s="305"/>
       <c r="C263" s="48" t="s">
         <v>1026</v>
       </c>
@@ -28952,7 +28952,7 @@
       </c>
     </row>
     <row r="264" spans="2:12">
-      <c r="B264" s="298"/>
+      <c r="B264" s="305"/>
       <c r="C264" s="48" t="s">
         <v>866</v>
       </c>
@@ -28977,7 +28977,7 @@
       </c>
     </row>
     <row r="265" spans="2:12">
-      <c r="B265" s="298"/>
+      <c r="B265" s="305"/>
       <c r="C265" s="48" t="s">
         <v>851</v>
       </c>
@@ -29002,7 +29002,7 @@
       </c>
     </row>
     <row r="266" spans="2:12">
-      <c r="B266" s="298"/>
+      <c r="B266" s="305"/>
       <c r="C266" s="48" t="s">
         <v>1071</v>
       </c>
@@ -29019,7 +29019,7 @@
       <c r="L266" s="52"/>
     </row>
     <row r="267" spans="2:12">
-      <c r="B267" s="298"/>
+      <c r="B267" s="305"/>
       <c r="C267" s="48" t="s">
         <v>1073</v>
       </c>
@@ -29044,7 +29044,7 @@
       </c>
     </row>
     <row r="268" spans="2:12">
-      <c r="B268" s="298"/>
+      <c r="B268" s="305"/>
       <c r="C268" s="48" t="s">
         <v>1077</v>
       </c>
@@ -29069,7 +29069,7 @@
       </c>
     </row>
     <row r="269" spans="2:12">
-      <c r="B269" s="298"/>
+      <c r="B269" s="305"/>
       <c r="C269" s="48" t="s">
         <v>1081</v>
       </c>
@@ -29085,7 +29085,7 @@
       <c r="I269" s="51"/>
     </row>
     <row r="270" spans="2:12">
-      <c r="B270" s="298"/>
+      <c r="B270" s="305"/>
       <c r="C270" s="48" t="s">
         <v>1083</v>
       </c>
@@ -29101,7 +29101,7 @@
       <c r="I270" s="51"/>
     </row>
     <row r="271" spans="2:12">
-      <c r="B271" s="298"/>
+      <c r="B271" s="305"/>
       <c r="C271" s="48" t="s">
         <v>848</v>
       </c>
@@ -29117,7 +29117,7 @@
       <c r="I271" s="51"/>
     </row>
     <row r="272" spans="2:12">
-      <c r="B272" s="298"/>
+      <c r="B272" s="305"/>
       <c r="C272" s="48" t="s">
         <v>842</v>
       </c>
@@ -29133,7 +29133,7 @@
       <c r="I272" s="51"/>
     </row>
     <row r="273" spans="2:12">
-      <c r="B273" s="298"/>
+      <c r="B273" s="305"/>
       <c r="C273" s="48" t="s">
         <v>947</v>
       </c>
@@ -29158,7 +29158,7 @@
       </c>
     </row>
     <row r="274" spans="2:12">
-      <c r="B274" s="298"/>
+      <c r="B274" s="305"/>
       <c r="C274" s="48" t="s">
         <v>856</v>
       </c>
@@ -29183,7 +29183,7 @@
       </c>
     </row>
     <row r="275" spans="2:12">
-      <c r="B275" s="298"/>
+      <c r="B275" s="305"/>
       <c r="C275" s="48" t="s">
         <v>861</v>
       </c>
@@ -29208,7 +29208,7 @@
       </c>
     </row>
     <row r="276" spans="2:12">
-      <c r="B276" s="298"/>
+      <c r="B276" s="305"/>
       <c r="C276" s="48" t="s">
         <v>1030</v>
       </c>
@@ -29233,7 +29233,7 @@
       </c>
     </row>
     <row r="277" spans="2:12">
-      <c r="B277" s="298"/>
+      <c r="B277" s="305"/>
       <c r="C277" s="48" t="s">
         <v>1036</v>
       </c>
@@ -29258,7 +29258,7 @@
       </c>
     </row>
     <row r="278" spans="2:12">
-      <c r="B278" s="298"/>
+      <c r="B278" s="305"/>
       <c r="C278" s="48" t="s">
         <v>1040</v>
       </c>
@@ -29274,7 +29274,7 @@
       <c r="I278" s="51"/>
     </row>
     <row r="279" spans="2:12">
-      <c r="B279" s="298"/>
+      <c r="B279" s="305"/>
       <c r="C279" s="48" t="s">
         <v>1085</v>
       </c>
@@ -29290,7 +29290,7 @@
       <c r="I279" s="51"/>
     </row>
     <row r="280" spans="2:12">
-      <c r="B280" s="298"/>
+      <c r="B280" s="305"/>
       <c r="C280" s="48" t="s">
         <v>1087</v>
       </c>
@@ -29306,7 +29306,7 @@
       <c r="I280" s="51"/>
     </row>
     <row r="281" spans="2:12">
-      <c r="B281" s="298"/>
+      <c r="B281" s="305"/>
       <c r="C281" s="48" t="s">
         <v>1089</v>
       </c>
@@ -29322,7 +29322,7 @@
       <c r="I281" s="51"/>
     </row>
     <row r="282" spans="2:12">
-      <c r="B282" s="298"/>
+      <c r="B282" s="305"/>
       <c r="C282" s="48" t="s">
         <v>1091</v>
       </c>
@@ -29347,7 +29347,7 @@
       </c>
     </row>
     <row r="283" spans="2:12">
-      <c r="B283" s="298"/>
+      <c r="B283" s="305"/>
       <c r="C283" s="48" t="s">
         <v>1050</v>
       </c>
@@ -29372,7 +29372,7 @@
       </c>
     </row>
     <row r="284" spans="2:12">
-      <c r="B284" s="298"/>
+      <c r="B284" s="305"/>
       <c r="C284" s="64" t="s">
         <v>1098</v>
       </c>
@@ -29397,7 +29397,7 @@
       </c>
     </row>
     <row r="285" spans="2:12">
-      <c r="B285" s="298"/>
+      <c r="B285" s="305"/>
       <c r="C285" s="64" t="s">
         <v>1101</v>
       </c>
@@ -29422,7 +29422,7 @@
       </c>
     </row>
     <row r="286" spans="2:12">
-      <c r="B286" s="298"/>
+      <c r="B286" s="305"/>
       <c r="C286" s="64" t="s">
         <v>1105</v>
       </c>
@@ -29438,7 +29438,7 @@
       <c r="I286" s="67"/>
     </row>
     <row r="287" spans="2:12">
-      <c r="B287" s="298"/>
+      <c r="B287" s="305"/>
       <c r="C287" s="64" t="s">
         <v>1107</v>
       </c>
@@ -29454,7 +29454,7 @@
       <c r="I287" s="67"/>
     </row>
     <row r="288" spans="2:12">
-      <c r="B288" s="298"/>
+      <c r="B288" s="305"/>
       <c r="C288" s="64" t="s">
         <v>1109</v>
       </c>
@@ -29470,7 +29470,7 @@
       <c r="I288" s="67"/>
     </row>
     <row r="289" spans="2:12">
-      <c r="B289" s="298"/>
+      <c r="B289" s="305"/>
       <c r="C289" s="64" t="s">
         <v>1111</v>
       </c>
@@ -29486,7 +29486,7 @@
       <c r="I289" s="67"/>
     </row>
     <row r="290" spans="2:12">
-      <c r="B290" s="298"/>
+      <c r="B290" s="305"/>
       <c r="C290" s="64" t="s">
         <v>1113</v>
       </c>
@@ -29502,7 +29502,7 @@
       <c r="I290" s="67"/>
     </row>
     <row r="291" spans="2:12">
-      <c r="B291" s="298"/>
+      <c r="B291" s="305"/>
       <c r="C291" s="64" t="s">
         <v>1115</v>
       </c>
@@ -29518,7 +29518,7 @@
       <c r="I291" s="67"/>
     </row>
     <row r="292" spans="2:12">
-      <c r="B292" s="298"/>
+      <c r="B292" s="305"/>
       <c r="C292" s="64" t="s">
         <v>1117</v>
       </c>
@@ -29543,7 +29543,7 @@
       </c>
     </row>
     <row r="293" spans="2:12">
-      <c r="B293" s="298"/>
+      <c r="B293" s="305"/>
       <c r="C293" s="64" t="s">
         <v>1121</v>
       </c>
@@ -29559,7 +29559,7 @@
       <c r="I293" s="67"/>
     </row>
     <row r="294" spans="2:12">
-      <c r="B294" s="298"/>
+      <c r="B294" s="305"/>
       <c r="C294" s="64" t="s">
         <v>1123</v>
       </c>
@@ -29584,7 +29584,7 @@
       </c>
     </row>
     <row r="295" spans="2:12">
-      <c r="B295" s="298"/>
+      <c r="B295" s="305"/>
       <c r="C295" s="64" t="s">
         <v>1127</v>
       </c>
@@ -29609,7 +29609,7 @@
       </c>
     </row>
     <row r="296" spans="2:12">
-      <c r="B296" s="298"/>
+      <c r="B296" s="305"/>
       <c r="C296" s="64" t="s">
         <v>1131</v>
       </c>
@@ -29634,7 +29634,7 @@
       </c>
     </row>
     <row r="297" spans="2:12">
-      <c r="B297" s="298"/>
+      <c r="B297" s="305"/>
       <c r="C297" s="64" t="s">
         <v>1135</v>
       </c>
@@ -29659,7 +29659,7 @@
       </c>
     </row>
     <row r="298" spans="2:12">
-      <c r="B298" s="298"/>
+      <c r="B298" s="305"/>
       <c r="C298" s="64" t="s">
         <v>1139</v>
       </c>
@@ -29675,7 +29675,7 @@
       <c r="I298" s="67"/>
     </row>
     <row r="299" spans="2:12">
-      <c r="B299" s="298"/>
+      <c r="B299" s="305"/>
       <c r="C299" s="64" t="s">
         <v>939</v>
       </c>
@@ -29700,7 +29700,7 @@
       </c>
     </row>
     <row r="300" spans="2:12">
-      <c r="B300" s="298"/>
+      <c r="B300" s="305"/>
       <c r="C300" s="64" t="s">
         <v>914</v>
       </c>
@@ -29716,7 +29716,7 @@
       <c r="I300" s="67"/>
     </row>
     <row r="301" spans="2:12">
-      <c r="B301" s="298"/>
+      <c r="B301" s="305"/>
       <c r="C301" s="64" t="s">
         <v>1141</v>
       </c>
@@ -29732,7 +29732,7 @@
       <c r="I301" s="67"/>
     </row>
     <row r="302" spans="2:12">
-      <c r="B302" s="298"/>
+      <c r="B302" s="305"/>
       <c r="C302" s="64" t="s">
         <v>1143</v>
       </c>
@@ -29748,7 +29748,7 @@
       <c r="I302" s="67"/>
     </row>
     <row r="303" spans="2:12">
-      <c r="B303" s="298"/>
+      <c r="B303" s="305"/>
       <c r="C303" s="64" t="s">
         <v>1145</v>
       </c>
@@ -29764,7 +29764,7 @@
       <c r="I303" s="67"/>
     </row>
     <row r="304" spans="2:12">
-      <c r="B304" s="298"/>
+      <c r="B304" s="305"/>
       <c r="C304" s="64" t="s">
         <v>1148</v>
       </c>
@@ -29780,7 +29780,7 @@
       <c r="I304" s="67"/>
     </row>
     <row r="305" spans="2:12">
-      <c r="B305" s="298"/>
+      <c r="B305" s="305"/>
       <c r="C305" s="64" t="s">
         <v>1188</v>
       </c>
@@ -29796,7 +29796,7 @@
       <c r="I305" s="67"/>
     </row>
     <row r="306" spans="2:12">
-      <c r="B306" s="298"/>
+      <c r="B306" s="305"/>
       <c r="C306" s="64"/>
       <c r="D306" s="64"/>
       <c r="E306" s="49"/>
@@ -29806,7 +29806,7 @@
       <c r="I306" s="67"/>
     </row>
     <row r="307" spans="2:12" ht="15" thickBot="1">
-      <c r="B307" s="299"/>
+      <c r="B307" s="306"/>
       <c r="C307" s="55"/>
       <c r="D307" s="55"/>
       <c r="E307" s="56"/>
@@ -29820,13 +29820,13 @@
       <c r="B309" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C309" s="300" t="s">
+      <c r="C309" s="307" t="s">
         <v>1236</v>
       </c>
-      <c r="D309" s="301"/>
-      <c r="E309" s="301"/>
-      <c r="F309" s="301"/>
-      <c r="G309" s="302"/>
+      <c r="D309" s="308"/>
+      <c r="E309" s="308"/>
+      <c r="F309" s="308"/>
+      <c r="G309" s="309"/>
       <c r="H309" s="41" t="s">
         <v>826</v>
       </c>
@@ -29836,13 +29836,13 @@
       <c r="B310" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C310" s="303" t="s">
+      <c r="C310" s="310" t="s">
         <v>1237</v>
       </c>
-      <c r="D310" s="304"/>
-      <c r="E310" s="304"/>
-      <c r="F310" s="304"/>
-      <c r="G310" s="305"/>
+      <c r="D310" s="311"/>
+      <c r="E310" s="311"/>
+      <c r="F310" s="311"/>
+      <c r="G310" s="312"/>
       <c r="H310" s="45" t="s">
         <v>829</v>
       </c>
@@ -29852,18 +29852,18 @@
       <c r="B311" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C311" s="306" t="s">
+      <c r="C311" s="313" t="s">
         <v>1238</v>
       </c>
-      <c r="D311" s="307"/>
-      <c r="E311" s="307"/>
-      <c r="F311" s="307"/>
-      <c r="G311" s="307"/>
-      <c r="H311" s="307"/>
-      <c r="I311" s="308"/>
+      <c r="D311" s="314"/>
+      <c r="E311" s="314"/>
+      <c r="F311" s="314"/>
+      <c r="G311" s="314"/>
+      <c r="H311" s="314"/>
+      <c r="I311" s="315"/>
     </row>
     <row r="312" spans="2:12">
-      <c r="B312" s="297" t="s">
+      <c r="B312" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C312" s="41" t="s">
@@ -29898,7 +29898,7 @@
       </c>
     </row>
     <row r="313" spans="2:12">
-      <c r="B313" s="298"/>
+      <c r="B313" s="305"/>
       <c r="C313" s="48" t="s">
         <v>845</v>
       </c>
@@ -29914,7 +29914,7 @@
       <c r="I313" s="51"/>
     </row>
     <row r="314" spans="2:12">
-      <c r="B314" s="298"/>
+      <c r="B314" s="305"/>
       <c r="C314" s="48" t="s">
         <v>1239</v>
       </c>
@@ -29930,7 +29930,7 @@
       <c r="I314" s="51"/>
     </row>
     <row r="315" spans="2:12">
-      <c r="B315" s="298"/>
+      <c r="B315" s="305"/>
       <c r="C315" s="48" t="s">
         <v>1240</v>
       </c>
@@ -29946,7 +29946,7 @@
       <c r="I315" s="51"/>
     </row>
     <row r="316" spans="2:12">
-      <c r="B316" s="298"/>
+      <c r="B316" s="305"/>
       <c r="C316" s="48" t="s">
         <v>851</v>
       </c>
@@ -29962,7 +29962,7 @@
       <c r="I316" s="51"/>
     </row>
     <row r="317" spans="2:12">
-      <c r="B317" s="298"/>
+      <c r="B317" s="305"/>
       <c r="C317" s="48" t="s">
         <v>1241</v>
       </c>
@@ -29978,7 +29978,7 @@
       <c r="I317" s="51"/>
     </row>
     <row r="318" spans="2:12">
-      <c r="B318" s="298"/>
+      <c r="B318" s="305"/>
       <c r="C318" s="48" t="s">
         <v>1242</v>
       </c>
@@ -29994,7 +29994,7 @@
       <c r="I318" s="51"/>
     </row>
     <row r="319" spans="2:12">
-      <c r="B319" s="298"/>
+      <c r="B319" s="305"/>
       <c r="C319" s="48" t="s">
         <v>1244</v>
       </c>
@@ -30010,7 +30010,7 @@
       <c r="I319" s="51"/>
     </row>
     <row r="320" spans="2:12">
-      <c r="B320" s="298"/>
+      <c r="B320" s="305"/>
       <c r="C320" s="48" t="s">
         <v>1245</v>
       </c>
@@ -30026,7 +30026,7 @@
       <c r="I320" s="51"/>
     </row>
     <row r="321" spans="2:9">
-      <c r="B321" s="298"/>
+      <c r="B321" s="305"/>
       <c r="C321" s="48" t="s">
         <v>1246</v>
       </c>
@@ -30042,7 +30042,7 @@
       <c r="I321" s="51"/>
     </row>
     <row r="322" spans="2:9">
-      <c r="B322" s="298"/>
+      <c r="B322" s="305"/>
       <c r="C322" s="48" t="s">
         <v>1247</v>
       </c>
@@ -30058,7 +30058,7 @@
       <c r="I322" s="51"/>
     </row>
     <row r="323" spans="2:9">
-      <c r="B323" s="298"/>
+      <c r="B323" s="305"/>
       <c r="C323" s="48" t="s">
         <v>1248</v>
       </c>
@@ -30074,7 +30074,7 @@
       <c r="I323" s="51"/>
     </row>
     <row r="324" spans="2:9">
-      <c r="B324" s="298"/>
+      <c r="B324" s="305"/>
       <c r="C324" s="48" t="s">
         <v>1249</v>
       </c>
@@ -30090,7 +30090,7 @@
       <c r="I324" s="51"/>
     </row>
     <row r="325" spans="2:9">
-      <c r="B325" s="298"/>
+      <c r="B325" s="305"/>
       <c r="C325" s="48" t="s">
         <v>1250</v>
       </c>
@@ -30106,7 +30106,7 @@
       <c r="I325" s="51"/>
     </row>
     <row r="326" spans="2:9">
-      <c r="B326" s="298"/>
+      <c r="B326" s="305"/>
       <c r="C326" s="48" t="s">
         <v>1251</v>
       </c>
@@ -30122,7 +30122,7 @@
       <c r="I326" s="51"/>
     </row>
     <row r="327" spans="2:9">
-      <c r="B327" s="298"/>
+      <c r="B327" s="305"/>
       <c r="C327" s="48" t="s">
         <v>1252</v>
       </c>
@@ -30138,7 +30138,7 @@
       <c r="I327" s="51"/>
     </row>
     <row r="328" spans="2:9">
-      <c r="B328" s="298"/>
+      <c r="B328" s="305"/>
       <c r="C328" s="48" t="s">
         <v>1253</v>
       </c>
@@ -30154,7 +30154,7 @@
       <c r="I328" s="51"/>
     </row>
     <row r="329" spans="2:9">
-      <c r="B329" s="298"/>
+      <c r="B329" s="305"/>
       <c r="C329" s="48" t="s">
         <v>1254</v>
       </c>
@@ -30170,7 +30170,7 @@
       <c r="I329" s="51"/>
     </row>
     <row r="330" spans="2:9">
-      <c r="B330" s="298"/>
+      <c r="B330" s="305"/>
       <c r="C330" s="48" t="s">
         <v>1256</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="I330" s="51"/>
     </row>
     <row r="331" spans="2:9">
-      <c r="B331" s="298"/>
+      <c r="B331" s="305"/>
       <c r="C331" s="48" t="s">
         <v>1257</v>
       </c>
@@ -30202,7 +30202,7 @@
       <c r="I331" s="51"/>
     </row>
     <row r="332" spans="2:9">
-      <c r="B332" s="298"/>
+      <c r="B332" s="305"/>
       <c r="C332" s="48" t="s">
         <v>1258</v>
       </c>
@@ -30218,7 +30218,7 @@
       <c r="I332" s="51"/>
     </row>
     <row r="333" spans="2:9">
-      <c r="B333" s="298"/>
+      <c r="B333" s="305"/>
       <c r="C333" s="48" t="s">
         <v>1260</v>
       </c>
@@ -30234,7 +30234,7 @@
       <c r="I333" s="51"/>
     </row>
     <row r="334" spans="2:9">
-      <c r="B334" s="298"/>
+      <c r="B334" s="305"/>
       <c r="C334" s="64" t="s">
         <v>1262</v>
       </c>
@@ -30250,7 +30250,7 @@
       <c r="I334" s="67"/>
     </row>
     <row r="335" spans="2:9">
-      <c r="B335" s="298"/>
+      <c r="B335" s="305"/>
       <c r="C335" s="64" t="s">
         <v>1135</v>
       </c>
@@ -30266,7 +30266,7 @@
       <c r="I335" s="67"/>
     </row>
     <row r="336" spans="2:9">
-      <c r="B336" s="298"/>
+      <c r="B336" s="305"/>
       <c r="C336" s="64" t="s">
         <v>1264</v>
       </c>
@@ -30282,7 +30282,7 @@
       <c r="I336" s="67"/>
     </row>
     <row r="337" spans="2:12" ht="15" thickBot="1">
-      <c r="B337" s="299"/>
+      <c r="B337" s="306"/>
       <c r="C337" s="55"/>
       <c r="D337" s="55"/>
       <c r="E337" s="56"/>
@@ -30296,13 +30296,13 @@
       <c r="B340" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C340" s="300" t="s">
+      <c r="C340" s="307" t="s">
         <v>1265</v>
       </c>
-      <c r="D340" s="301"/>
-      <c r="E340" s="301"/>
-      <c r="F340" s="301"/>
-      <c r="G340" s="302"/>
+      <c r="D340" s="308"/>
+      <c r="E340" s="308"/>
+      <c r="F340" s="308"/>
+      <c r="G340" s="309"/>
       <c r="H340" s="41" t="s">
         <v>826</v>
       </c>
@@ -30312,13 +30312,13 @@
       <c r="B341" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C341" s="303" t="s">
+      <c r="C341" s="310" t="s">
         <v>1266</v>
       </c>
-      <c r="D341" s="304"/>
-      <c r="E341" s="304"/>
-      <c r="F341" s="304"/>
-      <c r="G341" s="305"/>
+      <c r="D341" s="311"/>
+      <c r="E341" s="311"/>
+      <c r="F341" s="311"/>
+      <c r="G341" s="312"/>
       <c r="H341" s="45" t="s">
         <v>829</v>
       </c>
@@ -30328,16 +30328,16 @@
       <c r="B342" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C342" s="306"/>
-      <c r="D342" s="307"/>
-      <c r="E342" s="307"/>
-      <c r="F342" s="307"/>
-      <c r="G342" s="307"/>
-      <c r="H342" s="307"/>
-      <c r="I342" s="308"/>
+      <c r="C342" s="313"/>
+      <c r="D342" s="314"/>
+      <c r="E342" s="314"/>
+      <c r="F342" s="314"/>
+      <c r="G342" s="314"/>
+      <c r="H342" s="314"/>
+      <c r="I342" s="315"/>
     </row>
     <row r="343" spans="2:12">
-      <c r="B343" s="297" t="s">
+      <c r="B343" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C343" s="41" t="s">
@@ -30372,7 +30372,7 @@
       </c>
     </row>
     <row r="344" spans="2:12">
-      <c r="B344" s="298"/>
+      <c r="B344" s="305"/>
       <c r="C344" s="48" t="s">
         <v>848</v>
       </c>
@@ -30391,7 +30391,7 @@
       </c>
     </row>
     <row r="345" spans="2:12">
-      <c r="B345" s="298"/>
+      <c r="B345" s="305"/>
       <c r="C345" s="48" t="s">
         <v>914</v>
       </c>
@@ -30410,7 +30410,7 @@
       </c>
     </row>
     <row r="346" spans="2:12">
-      <c r="B346" s="298"/>
+      <c r="B346" s="305"/>
       <c r="C346" s="48" t="s">
         <v>851</v>
       </c>
@@ -30435,7 +30435,7 @@
       </c>
     </row>
     <row r="347" spans="2:12">
-      <c r="B347" s="298"/>
+      <c r="B347" s="305"/>
       <c r="C347" s="48" t="s">
         <v>842</v>
       </c>
@@ -30454,7 +30454,7 @@
       </c>
     </row>
     <row r="348" spans="2:12">
-      <c r="B348" s="298"/>
+      <c r="B348" s="305"/>
       <c r="C348" s="48" t="s">
         <v>1270</v>
       </c>
@@ -30479,7 +30479,7 @@
       </c>
     </row>
     <row r="349" spans="2:12">
-      <c r="B349" s="298"/>
+      <c r="B349" s="305"/>
       <c r="C349" s="48" t="s">
         <v>1240</v>
       </c>
@@ -30504,7 +30504,7 @@
       </c>
     </row>
     <row r="350" spans="2:12">
-      <c r="B350" s="298"/>
+      <c r="B350" s="305"/>
       <c r="C350" s="48" t="s">
         <v>1277</v>
       </c>
@@ -30529,7 +30529,7 @@
       </c>
     </row>
     <row r="351" spans="2:12">
-      <c r="B351" s="298"/>
+      <c r="B351" s="305"/>
       <c r="C351" s="48" t="s">
         <v>856</v>
       </c>
@@ -30554,7 +30554,7 @@
       </c>
     </row>
     <row r="352" spans="2:12">
-      <c r="B352" s="298"/>
+      <c r="B352" s="305"/>
       <c r="C352" s="48" t="s">
         <v>861</v>
       </c>
@@ -30579,7 +30579,7 @@
       </c>
     </row>
     <row r="353" spans="2:12">
-      <c r="B353" s="298"/>
+      <c r="B353" s="305"/>
       <c r="C353" s="48" t="s">
         <v>1285</v>
       </c>
@@ -30604,7 +30604,7 @@
       </c>
     </row>
     <row r="354" spans="2:12">
-      <c r="B354" s="298"/>
+      <c r="B354" s="305"/>
       <c r="C354" s="48" t="s">
         <v>1239</v>
       </c>
@@ -30620,7 +30620,7 @@
       <c r="I354" s="51"/>
     </row>
     <row r="355" spans="2:12">
-      <c r="B355" s="298"/>
+      <c r="B355" s="305"/>
       <c r="C355" s="48" t="s">
         <v>1289</v>
       </c>
@@ -30636,7 +30636,7 @@
       <c r="I355" s="51"/>
     </row>
     <row r="356" spans="2:12">
-      <c r="B356" s="298"/>
+      <c r="B356" s="305"/>
       <c r="C356" s="48" t="s">
         <v>1291</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
     </row>
     <row r="357" spans="2:12">
-      <c r="B357" s="298"/>
+      <c r="B357" s="305"/>
       <c r="C357" s="48" t="s">
         <v>1295</v>
       </c>
@@ -30686,7 +30686,7 @@
       </c>
     </row>
     <row r="358" spans="2:12">
-      <c r="B358" s="298"/>
+      <c r="B358" s="305"/>
       <c r="C358" s="48" t="s">
         <v>1299</v>
       </c>
@@ -30711,7 +30711,7 @@
       </c>
     </row>
     <row r="359" spans="2:12">
-      <c r="B359" s="298"/>
+      <c r="B359" s="305"/>
       <c r="C359" s="48" t="s">
         <v>1302</v>
       </c>
@@ -30736,7 +30736,7 @@
       </c>
     </row>
     <row r="360" spans="2:12">
-      <c r="B360" s="298"/>
+      <c r="B360" s="305"/>
       <c r="C360" s="48" t="s">
         <v>1307</v>
       </c>
@@ -30761,7 +30761,7 @@
       </c>
     </row>
     <row r="361" spans="2:12">
-      <c r="B361" s="298"/>
+      <c r="B361" s="305"/>
       <c r="C361" s="48" t="s">
         <v>1309</v>
       </c>
@@ -30777,7 +30777,7 @@
       <c r="I361" s="51"/>
     </row>
     <row r="362" spans="2:12">
-      <c r="B362" s="298"/>
+      <c r="B362" s="305"/>
       <c r="C362" s="48" t="s">
         <v>1311</v>
       </c>
@@ -30793,7 +30793,7 @@
       <c r="I362" s="51"/>
     </row>
     <row r="363" spans="2:12">
-      <c r="B363" s="298"/>
+      <c r="B363" s="305"/>
       <c r="C363" s="48" t="s">
         <v>1313</v>
       </c>
@@ -30818,7 +30818,7 @@
       </c>
     </row>
     <row r="364" spans="2:12">
-      <c r="B364" s="298"/>
+      <c r="B364" s="305"/>
       <c r="C364" s="48" t="s">
         <v>1317</v>
       </c>
@@ -30834,7 +30834,7 @@
       <c r="I364" s="51"/>
     </row>
     <row r="365" spans="2:12">
-      <c r="B365" s="298"/>
+      <c r="B365" s="305"/>
       <c r="C365" s="64" t="s">
         <v>1320</v>
       </c>
@@ -30850,7 +30850,7 @@
       <c r="I365" s="67"/>
     </row>
     <row r="366" spans="2:12">
-      <c r="B366" s="298"/>
+      <c r="B366" s="305"/>
       <c r="C366" s="64" t="s">
         <v>1091</v>
       </c>
@@ -30866,7 +30866,7 @@
       <c r="I366" s="67"/>
     </row>
     <row r="367" spans="2:12">
-      <c r="B367" s="298"/>
+      <c r="B367" s="305"/>
       <c r="C367" s="64"/>
       <c r="D367" s="64"/>
       <c r="E367" s="65"/>
@@ -30876,7 +30876,7 @@
       <c r="I367" s="67"/>
     </row>
     <row r="368" spans="2:12" ht="15" thickBot="1">
-      <c r="B368" s="299"/>
+      <c r="B368" s="306"/>
       <c r="C368" s="55"/>
       <c r="D368" s="55"/>
       <c r="E368" s="56"/>
@@ -30890,13 +30890,13 @@
       <c r="B371" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="C371" s="300" t="s">
+      <c r="C371" s="307" t="s">
         <v>1322</v>
       </c>
-      <c r="D371" s="301"/>
-      <c r="E371" s="301"/>
-      <c r="F371" s="301"/>
-      <c r="G371" s="302"/>
+      <c r="D371" s="308"/>
+      <c r="E371" s="308"/>
+      <c r="F371" s="308"/>
+      <c r="G371" s="309"/>
       <c r="H371" s="41" t="s">
         <v>826</v>
       </c>
@@ -30906,13 +30906,13 @@
       <c r="B372" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="C372" s="303" t="s">
+      <c r="C372" s="310" t="s">
         <v>1323</v>
       </c>
-      <c r="D372" s="304"/>
-      <c r="E372" s="304"/>
-      <c r="F372" s="304"/>
-      <c r="G372" s="305"/>
+      <c r="D372" s="311"/>
+      <c r="E372" s="311"/>
+      <c r="F372" s="311"/>
+      <c r="G372" s="312"/>
       <c r="H372" s="45" t="s">
         <v>829</v>
       </c>
@@ -30922,16 +30922,16 @@
       <c r="B373" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="C373" s="306"/>
-      <c r="D373" s="307"/>
-      <c r="E373" s="307"/>
-      <c r="F373" s="307"/>
-      <c r="G373" s="307"/>
-      <c r="H373" s="307"/>
-      <c r="I373" s="308"/>
+      <c r="C373" s="313"/>
+      <c r="D373" s="314"/>
+      <c r="E373" s="314"/>
+      <c r="F373" s="314"/>
+      <c r="G373" s="314"/>
+      <c r="H373" s="314"/>
+      <c r="I373" s="315"/>
     </row>
     <row r="374" spans="2:12">
-      <c r="B374" s="297" t="s">
+      <c r="B374" s="304" t="s">
         <v>831</v>
       </c>
       <c r="C374" s="41" t="s">
@@ -30957,7 +30957,7 @@
       </c>
     </row>
     <row r="375" spans="2:12">
-      <c r="B375" s="298"/>
+      <c r="B375" s="305"/>
       <c r="C375" s="48" t="s">
         <v>1199</v>
       </c>
@@ -30976,7 +30976,7 @@
       </c>
     </row>
     <row r="376" spans="2:12">
-      <c r="B376" s="298"/>
+      <c r="B376" s="305"/>
       <c r="C376" s="48" t="s">
         <v>1153</v>
       </c>
@@ -30995,7 +30995,7 @@
       </c>
     </row>
     <row r="377" spans="2:12">
-      <c r="B377" s="298"/>
+      <c r="B377" s="305"/>
       <c r="C377" s="48" t="s">
         <v>1325</v>
       </c>
@@ -31011,7 +31011,7 @@
       <c r="I377" s="51"/>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="298"/>
+      <c r="B378" s="305"/>
       <c r="C378" s="48" t="s">
         <v>914</v>
       </c>
@@ -31030,7 +31030,7 @@
       </c>
     </row>
     <row r="379" spans="2:12">
-      <c r="B379" s="298"/>
+      <c r="B379" s="305"/>
       <c r="C379" s="48" t="s">
         <v>848</v>
       </c>
@@ -31049,7 +31049,7 @@
       </c>
     </row>
     <row r="380" spans="2:12">
-      <c r="B380" s="298"/>
+      <c r="B380" s="305"/>
       <c r="C380" s="48" t="s">
         <v>842</v>
       </c>
@@ -31068,7 +31068,7 @@
       </c>
     </row>
     <row r="381" spans="2:12">
-      <c r="B381" s="298"/>
+      <c r="B381" s="305"/>
       <c r="C381" s="48" t="s">
         <v>856</v>
       </c>
@@ -31093,7 +31093,7 @@
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="298"/>
+      <c r="B382" s="305"/>
       <c r="C382" s="48" t="s">
         <v>1270</v>
       </c>
@@ -31118,7 +31118,7 @@
       </c>
     </row>
     <row r="383" spans="2:12">
-      <c r="B383" s="298"/>
+      <c r="B383" s="305"/>
       <c r="C383" s="48" t="s">
         <v>1240</v>
       </c>
@@ -31143,7 +31143,7 @@
       </c>
     </row>
     <row r="384" spans="2:12">
-      <c r="B384" s="298"/>
+      <c r="B384" s="305"/>
       <c r="C384" s="48" t="s">
         <v>851</v>
       </c>
@@ -31168,7 +31168,7 @@
       </c>
     </row>
     <row r="385" spans="2:12">
-      <c r="B385" s="298"/>
+      <c r="B385" s="305"/>
       <c r="C385" s="48" t="s">
         <v>1277</v>
       </c>
@@ -31193,7 +31193,7 @@
       </c>
     </row>
     <row r="386" spans="2:12">
-      <c r="B386" s="298"/>
+      <c r="B386" s="305"/>
       <c r="C386" s="48" t="s">
         <v>861</v>
       </c>
@@ -31218,7 +31218,7 @@
       </c>
     </row>
     <row r="387" spans="2:12">
-      <c r="B387" s="298"/>
+      <c r="B387" s="305"/>
       <c r="C387" s="48" t="s">
         <v>1285</v>
       </c>
@@ -31243,7 +31243,7 @@
       </c>
     </row>
     <row r="388" spans="2:12">
-      <c r="B388" s="298"/>
+      <c r="B388" s="305"/>
       <c r="C388" s="48" t="s">
         <v>1239</v>
       </c>
@@ -31259,7 +31259,7 @@
       <c r="I388" s="51"/>
     </row>
     <row r="389" spans="2:12">
-      <c r="B389" s="298"/>
+      <c r="B389" s="305"/>
       <c r="C389" s="48" t="s">
         <v>1289</v>
       </c>
@@ -31275,7 +31275,7 @@
       <c r="I389" s="51"/>
     </row>
     <row r="390" spans="2:12">
-      <c r="B390" s="298"/>
+      <c r="B390" s="305"/>
       <c r="C390" s="48" t="s">
         <v>1291</v>
       </c>
@@ -31300,7 +31300,7 @@
       </c>
     </row>
     <row r="391" spans="2:12">
-      <c r="B391" s="298"/>
+      <c r="B391" s="305"/>
       <c r="C391" s="48" t="s">
         <v>1295</v>
       </c>
@@ -31325,7 +31325,7 @@
       </c>
     </row>
     <row r="392" spans="2:12">
-      <c r="B392" s="298"/>
+      <c r="B392" s="305"/>
       <c r="C392" s="48" t="s">
         <v>1299</v>
       </c>
@@ -31350,7 +31350,7 @@
       </c>
     </row>
     <row r="393" spans="2:12">
-      <c r="B393" s="298"/>
+      <c r="B393" s="305"/>
       <c r="C393" s="48" t="s">
         <v>1302</v>
       </c>
@@ -31375,7 +31375,7 @@
       </c>
     </row>
     <row r="394" spans="2:12">
-      <c r="B394" s="298"/>
+      <c r="B394" s="305"/>
       <c r="C394" s="48" t="s">
         <v>1307</v>
       </c>
@@ -31400,7 +31400,7 @@
       </c>
     </row>
     <row r="395" spans="2:12">
-      <c r="B395" s="298"/>
+      <c r="B395" s="305"/>
       <c r="C395" s="48" t="s">
         <v>1309</v>
       </c>
@@ -31416,7 +31416,7 @@
       <c r="I395" s="51"/>
     </row>
     <row r="396" spans="2:12">
-      <c r="B396" s="298"/>
+      <c r="B396" s="305"/>
       <c r="C396" s="64" t="s">
         <v>1311</v>
       </c>
@@ -31432,7 +31432,7 @@
       <c r="I396" s="67"/>
     </row>
     <row r="397" spans="2:12">
-      <c r="B397" s="298"/>
+      <c r="B397" s="305"/>
       <c r="C397" s="64" t="s">
         <v>1313</v>
       </c>
@@ -31457,7 +31457,7 @@
       </c>
     </row>
     <row r="398" spans="2:12">
-      <c r="B398" s="298"/>
+      <c r="B398" s="305"/>
       <c r="C398" s="64" t="s">
         <v>1317</v>
       </c>
@@ -31473,7 +31473,7 @@
       <c r="I398" s="67"/>
     </row>
     <row r="399" spans="2:12">
-      <c r="B399" s="298"/>
+      <c r="B399" s="305"/>
       <c r="C399" s="64" t="s">
         <v>1320</v>
       </c>
@@ -31498,7 +31498,7 @@
       </c>
     </row>
     <row r="400" spans="2:12">
-      <c r="B400" s="298"/>
+      <c r="B400" s="305"/>
       <c r="C400" s="64" t="s">
         <v>1091</v>
       </c>
@@ -31514,7 +31514,7 @@
       <c r="I400" s="67"/>
     </row>
     <row r="401" spans="2:9">
-      <c r="B401" s="298"/>
+      <c r="B401" s="305"/>
       <c r="C401" s="64"/>
       <c r="D401" s="64"/>
       <c r="E401" s="65"/>
@@ -31524,7 +31524,7 @@
       <c r="I401" s="67"/>
     </row>
     <row r="402" spans="2:9" ht="15" thickBot="1">
-      <c r="B402" s="299"/>
+      <c r="B402" s="306"/>
       <c r="C402" s="55"/>
       <c r="D402" s="55"/>
       <c r="E402" s="56"/>
@@ -31535,6 +31535,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -31547,42 +31583,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -44780,7 +44780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -44845,5 +44845,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="623" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="2326">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12916,6 +12916,170 @@
   </si>
   <si>
     <t>纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---JYSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---GSLX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---YYZZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---CLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---ZCDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---ZCZB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---FRDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---DH_FRDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---ZJLB_FRDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---ZJBH_FRDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---GFWZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---BZFW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---GDSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---JYFW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---SAJTSQK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---FZJGQK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_JYSXX---QTXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---KHXM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---XB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---CSRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---XRZW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---LZRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---XLDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---CYNX_JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---SFZM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---LXDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---ZT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_DJGXX---DJRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---GDMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---JGBZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---XB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---ZJLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---ZJBH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---CZXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---RJJE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---SJJE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---DZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEBOS.TQS_GDXX---ZT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14567,6 +14731,51 @@
     <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14576,23 +14785,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -14603,32 +14797,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14645,26 +14815,20 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14945,8 +15109,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>465106</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446056</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>104423</xdr:rowOff>
     </xdr:to>
@@ -14989,8 +15153,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>188878</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169828</xdr:colOff>
       <xdr:row>203</xdr:row>
       <xdr:rowOff>37708</xdr:rowOff>
     </xdr:to>
@@ -15033,8 +15197,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>407958</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388908</xdr:colOff>
       <xdr:row>234</xdr:row>
       <xdr:rowOff>85284</xdr:rowOff>
     </xdr:to>
@@ -15077,8 +15241,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>465101</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446051</xdr:colOff>
       <xdr:row>250</xdr:row>
       <xdr:rowOff>18731</xdr:rowOff>
     </xdr:to>
@@ -15694,10 +15858,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L348"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -15752,13 +15916,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="271" t="s">
         <v>1341</v>
       </c>
-      <c r="C2" s="279" t="s">
+      <c r="C2" s="274" t="s">
         <v>1342</v>
       </c>
-      <c r="D2" s="282" t="s">
+      <c r="D2" s="278" t="s">
         <v>181</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -15788,9 +15952,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="296"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="153" t="s">
         <v>1347</v>
       </c>
@@ -15811,9 +15975,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="280"/>
-      <c r="D4" s="296"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="153" t="s">
         <v>1350</v>
       </c>
@@ -15832,9 +15996,9 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="296"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="279"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -15855,9 +16019,9 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="296"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="279"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -15874,9 +16038,9 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="296"/>
+      <c r="B7" s="272"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="279"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -15893,8 +16057,8 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="280"/>
+      <c r="B8" s="272"/>
+      <c r="C8" s="275"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -15910,8 +16074,8 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="293"/>
-      <c r="C9" s="280"/>
+      <c r="B9" s="272"/>
+      <c r="C9" s="275"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -15927,8 +16091,8 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="293"/>
-      <c r="C10" s="280"/>
+      <c r="B10" s="272"/>
+      <c r="C10" s="275"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -15946,8 +16110,8 @@
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="A11" s="152"/>
-      <c r="B11" s="293"/>
-      <c r="C11" s="280"/>
+      <c r="B11" s="272"/>
+      <c r="C11" s="275"/>
       <c r="D11" s="165" t="s">
         <v>0</v>
       </c>
@@ -15971,8 +16135,8 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="293"/>
-      <c r="C12" s="280"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="275"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -15992,8 +16156,8 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="293"/>
-      <c r="C13" s="280"/>
+      <c r="B13" s="272"/>
+      <c r="C13" s="275"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -16013,8 +16177,8 @@
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="293"/>
-      <c r="C14" s="280"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="275"/>
       <c r="D14" s="166" t="s">
         <v>2268</v>
       </c>
@@ -16032,8 +16196,8 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="293"/>
-      <c r="C15" s="280"/>
+      <c r="B15" s="272"/>
+      <c r="C15" s="275"/>
       <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
@@ -16051,9 +16215,9 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="293"/>
-      <c r="C16" s="280"/>
-      <c r="D16" s="265" t="s">
+      <c r="B16" s="272"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="280" t="s">
         <v>1361</v>
       </c>
       <c r="E16" s="153"/>
@@ -16072,9 +16236,9 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="280"/>
-      <c r="D17" s="266"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="281"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
@@ -16091,9 +16255,9 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="280"/>
-      <c r="D18" s="267"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="275"/>
+      <c r="D18" s="282"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
@@ -16108,8 +16272,8 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="293"/>
-      <c r="C19" s="280"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="275"/>
       <c r="D19" s="165" t="s">
         <v>1366</v>
       </c>
@@ -16131,8 +16295,8 @@
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="293"/>
-      <c r="C20" s="280"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="275"/>
       <c r="D20" s="165" t="s">
         <v>1368</v>
       </c>
@@ -16154,9 +16318,9 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="293"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="284" t="s">
+      <c r="B21" s="272"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="271" t="s">
         <v>1370</v>
       </c>
       <c r="E21" s="153"/>
@@ -16175,9 +16339,9 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="293"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="293"/>
+      <c r="B22" s="272"/>
+      <c r="C22" s="275"/>
+      <c r="D22" s="272"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
@@ -16192,9 +16356,9 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="293"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="293"/>
+      <c r="B23" s="272"/>
+      <c r="C23" s="275"/>
+      <c r="D23" s="272"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
@@ -16213,9 +16377,9 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="293"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="293"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="275"/>
+      <c r="D24" s="272"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
@@ -16234,9 +16398,9 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="293"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="293"/>
+      <c r="B25" s="272"/>
+      <c r="C25" s="275"/>
+      <c r="D25" s="272"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
@@ -16253,9 +16417,9 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="293"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="293"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="275"/>
+      <c r="D26" s="272"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
       <c r="G26" s="155" t="s">
@@ -16274,9 +16438,9 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="293"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="293"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="272"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
       <c r="G27" s="172" t="s">
@@ -16295,9 +16459,9 @@
     </row>
     <row r="28" spans="1:11" ht="47.1" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="293"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="293"/>
+      <c r="B28" s="272"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="272"/>
       <c r="E28" s="153"/>
       <c r="F28" s="161"/>
       <c r="G28" s="173" t="s">
@@ -16316,9 +16480,9 @@
     </row>
     <row r="29" spans="1:11" s="178" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="175"/>
-      <c r="B29" s="293"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="293"/>
+      <c r="B29" s="272"/>
+      <c r="C29" s="275"/>
+      <c r="D29" s="272"/>
       <c r="E29" s="176"/>
       <c r="F29" s="154"/>
       <c r="G29" s="173" t="s">
@@ -16337,9 +16501,9 @@
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="293"/>
-      <c r="C30" s="280"/>
-      <c r="D30" s="293"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="272"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="173" t="s">
@@ -16358,9 +16522,9 @@
     </row>
     <row r="31" spans="1:11" ht="56.25" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="293"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="293"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="272"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="173" t="s">
@@ -16379,9 +16543,9 @@
     </row>
     <row r="32" spans="1:11" ht="48.75" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="293"/>
-      <c r="C32" s="280"/>
-      <c r="D32" s="293"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="272"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="173" t="s">
@@ -16398,9 +16562,9 @@
     </row>
     <row r="33" spans="1:11" ht="30.95" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="293"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="293"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="275"/>
+      <c r="D33" s="272"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="173" t="s">
@@ -16417,9 +16581,9 @@
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="293"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="293"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="275"/>
+      <c r="D34" s="272"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
       <c r="G34" s="173" t="s">
@@ -16436,9 +16600,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="293"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="293"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="275"/>
+      <c r="D35" s="272"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
       <c r="G35" s="183" t="s">
@@ -16455,9 +16619,9 @@
     </row>
     <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="293"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="293"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="275"/>
+      <c r="D36" s="272"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="186" t="s">
@@ -16474,9 +16638,9 @@
     </row>
     <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="293"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="293"/>
+      <c r="B37" s="272"/>
+      <c r="C37" s="275"/>
+      <c r="D37" s="272"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="173" t="s">
@@ -16493,9 +16657,9 @@
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="280"/>
-      <c r="D38" s="293"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="272"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="173" t="s">
@@ -16512,9 +16676,9 @@
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="293"/>
-      <c r="C39" s="280"/>
-      <c r="D39" s="293"/>
+      <c r="B39" s="272"/>
+      <c r="C39" s="275"/>
+      <c r="D39" s="272"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="173" t="s">
@@ -16531,9 +16695,9 @@
     </row>
     <row r="40" spans="1:11" ht="43.5" customHeight="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="293"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="293"/>
+      <c r="B40" s="272"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="272"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="182" t="s">
@@ -16550,9 +16714,9 @@
     </row>
     <row r="41" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="293"/>
-      <c r="C41" s="280"/>
-      <c r="D41" s="293"/>
+      <c r="B41" s="272"/>
+      <c r="C41" s="275"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="190" t="s">
@@ -16571,9 +16735,9 @@
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="293"/>
-      <c r="C42" s="280"/>
-      <c r="D42" s="293"/>
+      <c r="B42" s="272"/>
+      <c r="C42" s="275"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="186" t="s">
@@ -16590,9 +16754,9 @@
     </row>
     <row r="43" spans="1:11" ht="57" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="293"/>
-      <c r="C43" s="280"/>
-      <c r="D43" s="293"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="275"/>
+      <c r="D43" s="272"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="173" t="s">
@@ -16611,9 +16775,9 @@
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="293"/>
-      <c r="C44" s="280"/>
-      <c r="D44" s="293"/>
+      <c r="B44" s="272"/>
+      <c r="C44" s="275"/>
+      <c r="D44" s="272"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="173" t="s">
@@ -16630,9 +16794,9 @@
     </row>
     <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="293"/>
-      <c r="C45" s="280"/>
-      <c r="D45" s="293"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="275"/>
+      <c r="D45" s="272"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="173" t="s">
@@ -16649,9 +16813,9 @@
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="293"/>
-      <c r="C46" s="280"/>
-      <c r="D46" s="293"/>
+      <c r="B46" s="272"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="272"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="173" t="s">
@@ -16670,9 +16834,9 @@
     </row>
     <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="293"/>
-      <c r="C47" s="280"/>
-      <c r="D47" s="293"/>
+      <c r="B47" s="272"/>
+      <c r="C47" s="275"/>
+      <c r="D47" s="272"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="195" t="s">
@@ -16691,9 +16855,9 @@
     </row>
     <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="293"/>
-      <c r="C48" s="280"/>
-      <c r="D48" s="293"/>
+      <c r="B48" s="272"/>
+      <c r="C48" s="275"/>
+      <c r="D48" s="272"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="195" t="s">
@@ -16708,9 +16872,9 @@
     </row>
     <row r="49" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="293"/>
-      <c r="C49" s="280"/>
-      <c r="D49" s="293"/>
+      <c r="B49" s="272"/>
+      <c r="C49" s="275"/>
+      <c r="D49" s="272"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="183" t="s">
@@ -16727,9 +16891,9 @@
     </row>
     <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="293"/>
-      <c r="C50" s="280"/>
-      <c r="D50" s="293"/>
+      <c r="B50" s="272"/>
+      <c r="C50" s="275"/>
+      <c r="D50" s="272"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="186" t="s">
@@ -16746,9 +16910,9 @@
     </row>
     <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="293"/>
-      <c r="C51" s="280"/>
-      <c r="D51" s="293"/>
+      <c r="B51" s="272"/>
+      <c r="C51" s="275"/>
+      <c r="D51" s="272"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="173" t="s">
@@ -16765,9 +16929,9 @@
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="293"/>
-      <c r="C52" s="280"/>
-      <c r="D52" s="293"/>
+      <c r="B52" s="272"/>
+      <c r="C52" s="275"/>
+      <c r="D52" s="272"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="173" t="s">
@@ -16784,9 +16948,9 @@
     </row>
     <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="293"/>
-      <c r="C53" s="280"/>
-      <c r="D53" s="293"/>
+      <c r="B53" s="272"/>
+      <c r="C53" s="275"/>
+      <c r="D53" s="272"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="173" t="s">
@@ -16803,9 +16967,9 @@
     </row>
     <row r="54" spans="1:11" ht="30.95" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="293"/>
-      <c r="C54" s="280"/>
-      <c r="D54" s="293"/>
+      <c r="B54" s="272"/>
+      <c r="C54" s="275"/>
+      <c r="D54" s="272"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="173" t="s">
@@ -16818,13 +16982,13 @@
         <v>1561</v>
       </c>
       <c r="J54" s="185"/>
-      <c r="K54" s="286"/>
+      <c r="K54" s="288"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="293"/>
-      <c r="C55" s="280"/>
-      <c r="D55" s="293"/>
+      <c r="B55" s="272"/>
+      <c r="C55" s="275"/>
+      <c r="D55" s="272"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="195" t="s">
@@ -16835,13 +16999,13 @@
       </c>
       <c r="I55" s="177"/>
       <c r="J55" s="194"/>
-      <c r="K55" s="287"/>
+      <c r="K55" s="289"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="293"/>
-      <c r="C56" s="280"/>
-      <c r="D56" s="293"/>
+      <c r="B56" s="272"/>
+      <c r="C56" s="275"/>
+      <c r="D56" s="272"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="173" t="s">
@@ -16858,9 +17022,9 @@
     </row>
     <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="293"/>
-      <c r="C57" s="280"/>
-      <c r="D57" s="293"/>
+      <c r="B57" s="272"/>
+      <c r="C57" s="275"/>
+      <c r="D57" s="272"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="195" t="s">
@@ -16877,9 +17041,9 @@
     </row>
     <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="293"/>
-      <c r="C58" s="280"/>
-      <c r="D58" s="293"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="275"/>
+      <c r="D58" s="272"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="173" t="s">
@@ -16896,9 +17060,9 @@
     </row>
     <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="293"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="293"/>
+      <c r="B59" s="272"/>
+      <c r="C59" s="275"/>
+      <c r="D59" s="272"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
       <c r="G59" s="173" t="s">
@@ -16915,9 +17079,9 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="293"/>
-      <c r="C60" s="280"/>
-      <c r="D60" s="293"/>
+      <c r="B60" s="272"/>
+      <c r="C60" s="275"/>
+      <c r="D60" s="272"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
       <c r="G60" s="198" t="s">
@@ -16934,9 +17098,9 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="293"/>
-      <c r="C61" s="280"/>
-      <c r="D61" s="293"/>
+      <c r="B61" s="272"/>
+      <c r="C61" s="275"/>
+      <c r="D61" s="272"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
       <c r="G61" s="186" t="s">
@@ -16951,9 +17115,9 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="293"/>
-      <c r="C62" s="280"/>
-      <c r="D62" s="293"/>
+      <c r="B62" s="272"/>
+      <c r="C62" s="275"/>
+      <c r="D62" s="272"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="173" t="s">
@@ -16968,9 +17132,9 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="293"/>
-      <c r="C63" s="280"/>
-      <c r="D63" s="293"/>
+      <c r="B63" s="272"/>
+      <c r="C63" s="275"/>
+      <c r="D63" s="272"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
       <c r="G63" s="173" t="s">
@@ -16985,9 +17149,9 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="293"/>
-      <c r="C64" s="280"/>
-      <c r="D64" s="293"/>
+      <c r="B64" s="272"/>
+      <c r="C64" s="275"/>
+      <c r="D64" s="272"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
       <c r="G64" s="183" t="s">
@@ -17002,9 +17166,9 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="293"/>
-      <c r="C65" s="280"/>
-      <c r="D65" s="293"/>
+      <c r="B65" s="272"/>
+      <c r="C65" s="275"/>
+      <c r="D65" s="272"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
       <c r="G65" s="186" t="s">
@@ -17019,9 +17183,9 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="294"/>
-      <c r="C66" s="281"/>
-      <c r="D66" s="294"/>
+      <c r="B66" s="273"/>
+      <c r="C66" s="276"/>
+      <c r="D66" s="273"/>
       <c r="E66" s="153"/>
       <c r="F66" s="161"/>
       <c r="G66" s="202" t="s">
@@ -17036,13 +17200,13 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="284" t="s">
+      <c r="B67" s="271" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="279" t="s">
+      <c r="C67" s="274" t="s">
         <v>1381</v>
       </c>
-      <c r="D67" s="265" t="s">
+      <c r="D67" s="280" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="153"/>
@@ -17061,9 +17225,9 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="285"/>
-      <c r="C68" s="280"/>
-      <c r="D68" s="266"/>
+      <c r="B68" s="293"/>
+      <c r="C68" s="275"/>
+      <c r="D68" s="281"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
       <c r="G68" s="155" t="s">
@@ -17078,9 +17242,9 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="285"/>
-      <c r="C69" s="280"/>
-      <c r="D69" s="267"/>
+      <c r="B69" s="293"/>
+      <c r="C69" s="275"/>
+      <c r="D69" s="282"/>
       <c r="E69" s="153"/>
       <c r="F69" s="161"/>
       <c r="G69" s="209" t="s">
@@ -17099,11 +17263,11 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="285"/>
-      <c r="C70" s="279" t="s">
+      <c r="B70" s="293"/>
+      <c r="C70" s="274" t="s">
         <v>1384</v>
       </c>
-      <c r="D70" s="265" t="s">
+      <c r="D70" s="280" t="s">
         <v>1385</v>
       </c>
       <c r="E70" s="153"/>
@@ -17122,9 +17286,9 @@
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="285"/>
-      <c r="C71" s="280"/>
-      <c r="D71" s="266"/>
+      <c r="B71" s="293"/>
+      <c r="C71" s="275"/>
+      <c r="D71" s="281"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
       <c r="G71" s="155" t="s">
@@ -17141,9 +17305,9 @@
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
-      <c r="B72" s="285"/>
-      <c r="C72" s="280"/>
-      <c r="D72" s="266"/>
+      <c r="B72" s="293"/>
+      <c r="C72" s="275"/>
+      <c r="D72" s="281"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="209" t="s">
@@ -17160,9 +17324,9 @@
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
-      <c r="B73" s="285"/>
-      <c r="C73" s="280"/>
-      <c r="D73" s="267"/>
+      <c r="B73" s="293"/>
+      <c r="C73" s="275"/>
+      <c r="D73" s="282"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
       <c r="G73" s="209" t="s">
@@ -17179,8 +17343,8 @@
     </row>
     <row r="74" spans="1:11" ht="41.1" customHeight="1">
       <c r="A74" s="152"/>
-      <c r="B74" s="285"/>
-      <c r="C74" s="280"/>
+      <c r="B74" s="293"/>
+      <c r="C74" s="275"/>
       <c r="D74" s="210" t="s">
         <v>5</v>
       </c>
@@ -17200,10 +17364,10 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="212"/>
-      <c r="B75" s="265" t="s">
+      <c r="B75" s="280" t="s">
         <v>1391</v>
       </c>
-      <c r="C75" s="279" t="s">
+      <c r="C75" s="274" t="s">
         <v>1392</v>
       </c>
       <c r="D75" s="213" t="s">
@@ -17223,8 +17387,8 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="212"/>
-      <c r="B76" s="266"/>
-      <c r="C76" s="280"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="275"/>
       <c r="D76" s="214" t="s">
         <v>1587</v>
       </c>
@@ -17242,8 +17406,8 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="212"/>
-      <c r="B77" s="266"/>
-      <c r="C77" s="280"/>
+      <c r="B77" s="281"/>
+      <c r="C77" s="275"/>
       <c r="D77" s="214" t="s">
         <v>1590</v>
       </c>
@@ -17263,9 +17427,9 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="212"/>
-      <c r="B78" s="266"/>
-      <c r="C78" s="280"/>
-      <c r="D78" s="277" t="s">
+      <c r="B78" s="281"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="268" t="s">
         <v>1603</v>
       </c>
       <c r="E78" s="153"/>
@@ -17280,9 +17444,9 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="212"/>
-      <c r="B79" s="266"/>
-      <c r="C79" s="280"/>
-      <c r="D79" s="278"/>
+      <c r="B79" s="281"/>
+      <c r="C79" s="275"/>
+      <c r="D79" s="269"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="209" t="s">
@@ -17301,9 +17465,9 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="212"/>
-      <c r="B80" s="266"/>
-      <c r="C80" s="280"/>
-      <c r="D80" s="292"/>
+      <c r="B80" s="281"/>
+      <c r="C80" s="275"/>
+      <c r="D80" s="270"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
       <c r="G80" s="209" t="s">
@@ -17320,9 +17484,9 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="212"/>
-      <c r="B81" s="266"/>
-      <c r="C81" s="280"/>
-      <c r="D81" s="265" t="s">
+      <c r="B81" s="281"/>
+      <c r="C81" s="275"/>
+      <c r="D81" s="280" t="s">
         <v>1395</v>
       </c>
       <c r="E81" s="153"/>
@@ -17343,9 +17507,9 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="212"/>
-      <c r="B82" s="266"/>
-      <c r="C82" s="280"/>
-      <c r="D82" s="266"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="275"/>
+      <c r="D82" s="281"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
@@ -17362,9 +17526,9 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="212"/>
-      <c r="B83" s="266"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="266"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="275"/>
+      <c r="D83" s="281"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
@@ -17381,9 +17545,9 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="212"/>
-      <c r="B84" s="266"/>
-      <c r="C84" s="280"/>
-      <c r="D84" s="266"/>
+      <c r="B84" s="281"/>
+      <c r="C84" s="275"/>
+      <c r="D84" s="281"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
@@ -17400,9 +17564,9 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="212"/>
-      <c r="B85" s="266"/>
-      <c r="C85" s="280"/>
-      <c r="D85" s="267"/>
+      <c r="B85" s="281"/>
+      <c r="C85" s="275"/>
+      <c r="D85" s="282"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
@@ -17419,9 +17583,9 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="212"/>
-      <c r="B86" s="266"/>
-      <c r="C86" s="280"/>
-      <c r="D86" s="265" t="s">
+      <c r="B86" s="281"/>
+      <c r="C86" s="275"/>
+      <c r="D86" s="280" t="s">
         <v>1402</v>
       </c>
       <c r="E86" s="153"/>
@@ -17442,9 +17606,9 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="212"/>
-      <c r="B87" s="266"/>
-      <c r="C87" s="280"/>
-      <c r="D87" s="267"/>
+      <c r="B87" s="281"/>
+      <c r="C87" s="275"/>
+      <c r="D87" s="282"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
@@ -17461,8 +17625,8 @@
     </row>
     <row r="88" spans="1:11" ht="41.1" customHeight="1">
       <c r="A88" s="212"/>
-      <c r="B88" s="266"/>
-      <c r="C88" s="280"/>
+      <c r="B88" s="281"/>
+      <c r="C88" s="275"/>
       <c r="D88" s="165" t="s">
         <v>1</v>
       </c>
@@ -17484,9 +17648,9 @@
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
       <c r="A89" s="212"/>
-      <c r="B89" s="266"/>
-      <c r="C89" s="280"/>
-      <c r="D89" s="265" t="s">
+      <c r="B89" s="281"/>
+      <c r="C89" s="275"/>
+      <c r="D89" s="280" t="s">
         <v>1406</v>
       </c>
       <c r="E89" s="153"/>
@@ -17503,9 +17667,9 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="212"/>
-      <c r="B90" s="266"/>
-      <c r="C90" s="280"/>
-      <c r="D90" s="266"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="275"/>
+      <c r="D90" s="281"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
@@ -17518,9 +17682,9 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="212"/>
-      <c r="B91" s="266"/>
-      <c r="C91" s="280"/>
-      <c r="D91" s="266"/>
+      <c r="B91" s="281"/>
+      <c r="C91" s="275"/>
+      <c r="D91" s="281"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
@@ -17533,9 +17697,9 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="212"/>
-      <c r="B92" s="266"/>
-      <c r="C92" s="280"/>
-      <c r="D92" s="266"/>
+      <c r="B92" s="281"/>
+      <c r="C92" s="275"/>
+      <c r="D92" s="281"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
       <c r="G92" s="155" t="s">
@@ -17548,9 +17712,9 @@
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1">
       <c r="A93" s="212"/>
-      <c r="B93" s="266"/>
-      <c r="C93" s="280"/>
-      <c r="D93" s="267"/>
+      <c r="B93" s="281"/>
+      <c r="C93" s="275"/>
+      <c r="D93" s="282"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="209" t="s">
@@ -17563,9 +17727,9 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="212"/>
-      <c r="B94" s="266"/>
-      <c r="C94" s="280"/>
-      <c r="D94" s="265" t="s">
+      <c r="B94" s="281"/>
+      <c r="C94" s="275"/>
+      <c r="D94" s="280" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="153"/>
@@ -17584,9 +17748,9 @@
     </row>
     <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="212"/>
-      <c r="B95" s="266"/>
-      <c r="C95" s="280"/>
-      <c r="D95" s="266"/>
+      <c r="B95" s="281"/>
+      <c r="C95" s="275"/>
+      <c r="D95" s="281"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
@@ -17605,9 +17769,9 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="212"/>
-      <c r="B96" s="266"/>
-      <c r="C96" s="280"/>
-      <c r="D96" s="267"/>
+      <c r="B96" s="281"/>
+      <c r="C96" s="275"/>
+      <c r="D96" s="282"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
@@ -17622,9 +17786,9 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="212"/>
-      <c r="B97" s="266"/>
-      <c r="C97" s="280"/>
-      <c r="D97" s="265" t="s">
+      <c r="B97" s="281"/>
+      <c r="C97" s="275"/>
+      <c r="D97" s="280" t="s">
         <v>1414</v>
       </c>
       <c r="E97" s="153"/>
@@ -17641,9 +17805,9 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="212"/>
-      <c r="B98" s="266"/>
-      <c r="C98" s="280"/>
-      <c r="D98" s="267"/>
+      <c r="B98" s="281"/>
+      <c r="C98" s="275"/>
+      <c r="D98" s="282"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="155" t="s">
@@ -17658,9 +17822,9 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="212"/>
-      <c r="B99" s="266"/>
-      <c r="C99" s="280"/>
-      <c r="D99" s="291" t="s">
+      <c r="B99" s="281"/>
+      <c r="C99" s="275"/>
+      <c r="D99" s="265" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="153"/>
@@ -17677,9 +17841,9 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="212"/>
-      <c r="B100" s="266"/>
-      <c r="C100" s="281"/>
-      <c r="D100" s="291"/>
+      <c r="B100" s="281"/>
+      <c r="C100" s="276"/>
+      <c r="D100" s="265"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
@@ -17696,11 +17860,11 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="212"/>
-      <c r="B101" s="266"/>
-      <c r="C101" s="279" t="s">
+      <c r="B101" s="281"/>
+      <c r="C101" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="278" t="s">
+      <c r="D101" s="269" t="s">
         <v>1602</v>
       </c>
       <c r="E101" s="153"/>
@@ -17717,9 +17881,9 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="212"/>
-      <c r="B102" s="266"/>
-      <c r="C102" s="280"/>
-      <c r="D102" s="292"/>
+      <c r="B102" s="281"/>
+      <c r="C102" s="275"/>
+      <c r="D102" s="270"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
       <c r="G102" s="155" t="s">
@@ -17734,8 +17898,8 @@
     </row>
     <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="212"/>
-      <c r="B103" s="266"/>
-      <c r="C103" s="280"/>
+      <c r="B103" s="281"/>
+      <c r="C103" s="275"/>
       <c r="D103" s="165" t="s">
         <v>1420</v>
       </c>
@@ -17753,9 +17917,9 @@
     </row>
     <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="212"/>
-      <c r="B104" s="266"/>
-      <c r="C104" s="280"/>
-      <c r="D104" s="277" t="s">
+      <c r="B104" s="281"/>
+      <c r="C104" s="275"/>
+      <c r="D104" s="268" t="s">
         <v>1615</v>
       </c>
       <c r="E104" s="153"/>
@@ -17776,9 +17940,9 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="212"/>
-      <c r="B105" s="266"/>
-      <c r="C105" s="280"/>
-      <c r="D105" s="278"/>
+      <c r="B105" s="281"/>
+      <c r="C105" s="275"/>
+      <c r="D105" s="269"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="209" t="s">
@@ -17793,9 +17957,9 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="212"/>
-      <c r="B106" s="266"/>
-      <c r="C106" s="280"/>
-      <c r="D106" s="278"/>
+      <c r="B106" s="281"/>
+      <c r="C106" s="275"/>
+      <c r="D106" s="269"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="209" t="s">
@@ -17810,9 +17974,9 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="212"/>
-      <c r="B107" s="266"/>
-      <c r="C107" s="280"/>
-      <c r="D107" s="292"/>
+      <c r="B107" s="281"/>
+      <c r="C107" s="275"/>
+      <c r="D107" s="270"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
       <c r="G107" s="209" t="s">
@@ -17827,8 +17991,8 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="212"/>
-      <c r="B108" s="266"/>
-      <c r="C108" s="280"/>
+      <c r="B108" s="281"/>
+      <c r="C108" s="275"/>
       <c r="D108" s="165" t="s">
         <v>1393</v>
       </c>
@@ -17846,9 +18010,9 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="212"/>
-      <c r="B109" s="266"/>
-      <c r="C109" s="280"/>
-      <c r="D109" s="265" t="s">
+      <c r="B109" s="281"/>
+      <c r="C109" s="275"/>
+      <c r="D109" s="280" t="s">
         <v>1421</v>
       </c>
       <c r="E109" s="153"/>
@@ -17867,9 +18031,9 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="212"/>
-      <c r="B110" s="266"/>
-      <c r="C110" s="280"/>
-      <c r="D110" s="267"/>
+      <c r="B110" s="281"/>
+      <c r="C110" s="275"/>
+      <c r="D110" s="282"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
@@ -17886,9 +18050,9 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="212"/>
-      <c r="B111" s="266"/>
-      <c r="C111" s="280"/>
-      <c r="D111" s="288" t="s">
+      <c r="B111" s="281"/>
+      <c r="C111" s="275"/>
+      <c r="D111" s="290" t="s">
         <v>1426</v>
       </c>
       <c r="E111" s="153"/>
@@ -17905,9 +18069,9 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="212"/>
-      <c r="B112" s="266"/>
-      <c r="C112" s="280"/>
-      <c r="D112" s="289"/>
+      <c r="B112" s="281"/>
+      <c r="C112" s="275"/>
+      <c r="D112" s="291"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
@@ -17922,9 +18086,9 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="212"/>
-      <c r="B113" s="266"/>
-      <c r="C113" s="280"/>
-      <c r="D113" s="290"/>
+      <c r="B113" s="281"/>
+      <c r="C113" s="275"/>
+      <c r="D113" s="292"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
@@ -17939,8 +18103,8 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="212"/>
-      <c r="B114" s="266"/>
-      <c r="C114" s="280"/>
+      <c r="B114" s="281"/>
+      <c r="C114" s="275"/>
       <c r="D114" s="165" t="s">
         <v>9</v>
       </c>
@@ -17958,9 +18122,9 @@
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1">
       <c r="A115" s="212"/>
-      <c r="B115" s="266"/>
-      <c r="C115" s="280"/>
-      <c r="D115" s="265" t="s">
+      <c r="B115" s="281"/>
+      <c r="C115" s="275"/>
+      <c r="D115" s="280" t="s">
         <v>1429</v>
       </c>
       <c r="E115" s="153"/>
@@ -17979,9 +18143,9 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="212"/>
-      <c r="B116" s="266"/>
-      <c r="C116" s="280"/>
-      <c r="D116" s="266"/>
+      <c r="B116" s="281"/>
+      <c r="C116" s="275"/>
+      <c r="D116" s="281"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
@@ -17996,9 +18160,9 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="212"/>
-      <c r="B117" s="266"/>
-      <c r="C117" s="281"/>
-      <c r="D117" s="267"/>
+      <c r="B117" s="281"/>
+      <c r="C117" s="276"/>
+      <c r="D117" s="282"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
@@ -18015,11 +18179,11 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="212"/>
-      <c r="B118" s="266"/>
-      <c r="C118" s="279" t="s">
+      <c r="B118" s="281"/>
+      <c r="C118" s="274" t="s">
         <v>1435</v>
       </c>
-      <c r="D118" s="265" t="s">
+      <c r="D118" s="280" t="s">
         <v>1436</v>
       </c>
       <c r="E118" s="153"/>
@@ -18036,9 +18200,9 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="212"/>
-      <c r="B119" s="266"/>
-      <c r="C119" s="280"/>
-      <c r="D119" s="267"/>
+      <c r="B119" s="281"/>
+      <c r="C119" s="275"/>
+      <c r="D119" s="282"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
@@ -18054,8 +18218,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="266"/>
-      <c r="C120" s="280"/>
+      <c r="B120" s="281"/>
+      <c r="C120" s="275"/>
       <c r="D120" s="165" t="s">
         <v>1439</v>
       </c>
@@ -18074,8 +18238,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="266"/>
-      <c r="C121" s="280"/>
+      <c r="B121" s="281"/>
+      <c r="C121" s="275"/>
       <c r="D121" s="165" t="s">
         <v>1442</v>
       </c>
@@ -18092,8 +18256,8 @@
       <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="266"/>
-      <c r="C122" s="280"/>
+      <c r="B122" s="281"/>
+      <c r="C122" s="275"/>
       <c r="D122" s="223" t="s">
         <v>1444</v>
       </c>
@@ -18112,9 +18276,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="266"/>
-      <c r="C123" s="280"/>
-      <c r="D123" s="265" t="s">
+      <c r="B123" s="281"/>
+      <c r="C123" s="275"/>
+      <c r="D123" s="280" t="s">
         <v>172</v>
       </c>
       <c r="E123" s="153"/>
@@ -18130,9 +18294,9 @@
       <c r="K123" s="189"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="266"/>
-      <c r="C124" s="280"/>
-      <c r="D124" s="266"/>
+      <c r="B124" s="281"/>
+      <c r="C124" s="275"/>
+      <c r="D124" s="281"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
@@ -18148,9 +18312,9 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="266"/>
-      <c r="C125" s="280"/>
-      <c r="D125" s="266"/>
+      <c r="B125" s="281"/>
+      <c r="C125" s="275"/>
+      <c r="D125" s="281"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
@@ -18164,9 +18328,9 @@
       <c r="K125" s="189"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="266"/>
-      <c r="C126" s="280"/>
-      <c r="D126" s="267"/>
+      <c r="B126" s="281"/>
+      <c r="C126" s="275"/>
+      <c r="D126" s="282"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
@@ -18182,9 +18346,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="266"/>
-      <c r="C127" s="280"/>
-      <c r="D127" s="282" t="s">
+      <c r="B127" s="281"/>
+      <c r="C127" s="275"/>
+      <c r="D127" s="278" t="s">
         <v>1446</v>
       </c>
       <c r="E127" s="153"/>
@@ -18196,9 +18360,9 @@
       <c r="K127" s="189"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="266"/>
-      <c r="C128" s="280"/>
-      <c r="D128" s="283"/>
+      <c r="B128" s="281"/>
+      <c r="C128" s="275"/>
+      <c r="D128" s="287"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
@@ -18216,9 +18380,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="266"/>
-      <c r="C129" s="280"/>
-      <c r="D129" s="265" t="s">
+      <c r="B129" s="281"/>
+      <c r="C129" s="275"/>
+      <c r="D129" s="280" t="s">
         <v>1449</v>
       </c>
       <c r="E129" s="153"/>
@@ -18232,9 +18396,9 @@
       <c r="K129" s="189"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="266"/>
-      <c r="C130" s="280"/>
-      <c r="D130" s="266"/>
+      <c r="B130" s="281"/>
+      <c r="C130" s="275"/>
+      <c r="D130" s="281"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
       <c r="G130" s="227" t="s">
@@ -18248,9 +18412,9 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="266"/>
-      <c r="C131" s="280"/>
-      <c r="D131" s="267"/>
+      <c r="B131" s="281"/>
+      <c r="C131" s="275"/>
+      <c r="D131" s="282"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
@@ -18262,9 +18426,9 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B132" s="266"/>
-      <c r="C132" s="280"/>
-      <c r="D132" s="297" t="s">
+      <c r="B132" s="281"/>
+      <c r="C132" s="275"/>
+      <c r="D132" s="283" t="s">
         <v>167</v>
       </c>
       <c r="E132" s="153"/>
@@ -18278,9 +18442,9 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="266"/>
-      <c r="C133" s="280"/>
-      <c r="D133" s="297"/>
+      <c r="B133" s="281"/>
+      <c r="C133" s="275"/>
+      <c r="D133" s="283"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
@@ -18292,8 +18456,8 @@
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="266"/>
-      <c r="C134" s="280"/>
+      <c r="B134" s="281"/>
+      <c r="C134" s="275"/>
       <c r="D134" s="228" t="s">
         <v>171</v>
       </c>
@@ -18310,9 +18474,9 @@
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="266"/>
-      <c r="C135" s="280"/>
-      <c r="D135" s="265" t="s">
+      <c r="B135" s="281"/>
+      <c r="C135" s="275"/>
+      <c r="D135" s="280" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="153"/>
@@ -18328,9 +18492,9 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="266"/>
-      <c r="C136" s="280"/>
-      <c r="D136" s="266"/>
+      <c r="B136" s="281"/>
+      <c r="C136" s="275"/>
+      <c r="D136" s="281"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
@@ -18344,9 +18508,9 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="266"/>
-      <c r="C137" s="280"/>
-      <c r="D137" s="266"/>
+      <c r="B137" s="281"/>
+      <c r="C137" s="275"/>
+      <c r="D137" s="281"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
@@ -18360,9 +18524,9 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="266"/>
-      <c r="C138" s="280"/>
-      <c r="D138" s="266"/>
+      <c r="B138" s="281"/>
+      <c r="C138" s="275"/>
+      <c r="D138" s="281"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
@@ -18376,9 +18540,9 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="266"/>
-      <c r="C139" s="280"/>
-      <c r="D139" s="266"/>
+      <c r="B139" s="281"/>
+      <c r="C139" s="275"/>
+      <c r="D139" s="281"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
@@ -18392,9 +18556,9 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="266"/>
-      <c r="C140" s="280"/>
-      <c r="D140" s="266"/>
+      <c r="B140" s="281"/>
+      <c r="C140" s="275"/>
+      <c r="D140" s="281"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
@@ -18408,9 +18572,9 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="266"/>
-      <c r="C141" s="280"/>
-      <c r="D141" s="266"/>
+      <c r="B141" s="281"/>
+      <c r="C141" s="275"/>
+      <c r="D141" s="281"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
@@ -18424,9 +18588,9 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="266"/>
-      <c r="C142" s="281"/>
-      <c r="D142" s="267"/>
+      <c r="B142" s="281"/>
+      <c r="C142" s="276"/>
+      <c r="D142" s="282"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
@@ -18440,11 +18604,11 @@
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="266"/>
-      <c r="C143" s="279" t="s">
+      <c r="B143" s="281"/>
+      <c r="C143" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="265" t="s">
+      <c r="D143" s="280" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="153"/>
@@ -18460,9 +18624,9 @@
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="266"/>
-      <c r="C144" s="280"/>
-      <c r="D144" s="266"/>
+      <c r="B144" s="281"/>
+      <c r="C144" s="275"/>
+      <c r="D144" s="281"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
@@ -18476,9 +18640,9 @@
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="266"/>
-      <c r="C145" s="280"/>
-      <c r="D145" s="267"/>
+      <c r="B145" s="281"/>
+      <c r="C145" s="275"/>
+      <c r="D145" s="282"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
@@ -18492,9 +18656,9 @@
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="266"/>
-      <c r="C146" s="280"/>
-      <c r="D146" s="265" t="s">
+      <c r="B146" s="281"/>
+      <c r="C146" s="275"/>
+      <c r="D146" s="280" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="153"/>
@@ -18510,9 +18674,9 @@
       <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="266"/>
-      <c r="C147" s="280"/>
-      <c r="D147" s="267"/>
+      <c r="B147" s="281"/>
+      <c r="C147" s="275"/>
+      <c r="D147" s="282"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
@@ -18526,8 +18690,8 @@
       <c r="K147" s="189"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="266"/>
-      <c r="C148" s="281"/>
+      <c r="B148" s="281"/>
+      <c r="C148" s="276"/>
       <c r="D148" s="165" t="s">
         <v>27</v>
       </c>
@@ -18544,11 +18708,11 @@
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="266"/>
-      <c r="C149" s="279" t="s">
+      <c r="B149" s="281"/>
+      <c r="C149" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="265" t="s">
+      <c r="D149" s="280" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="153"/>
@@ -18564,9 +18728,9 @@
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="266"/>
-      <c r="C150" s="280"/>
-      <c r="D150" s="266"/>
+      <c r="B150" s="281"/>
+      <c r="C150" s="275"/>
+      <c r="D150" s="281"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
       <c r="G150" s="155" t="s">
@@ -18580,9 +18744,9 @@
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="266"/>
-      <c r="C151" s="280"/>
-      <c r="D151" s="266"/>
+      <c r="B151" s="281"/>
+      <c r="C151" s="275"/>
+      <c r="D151" s="281"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
       <c r="G151" s="155" t="s">
@@ -18596,9 +18760,9 @@
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="266"/>
-      <c r="C152" s="280"/>
-      <c r="D152" s="267"/>
+      <c r="B152" s="281"/>
+      <c r="C152" s="275"/>
+      <c r="D152" s="282"/>
       <c r="E152" s="153"/>
       <c r="F152" s="161"/>
       <c r="G152" s="155" t="s">
@@ -18610,9 +18774,9 @@
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="266"/>
-      <c r="C153" s="280"/>
-      <c r="D153" s="282" t="s">
+      <c r="B153" s="281"/>
+      <c r="C153" s="275"/>
+      <c r="D153" s="278" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="229"/>
@@ -18628,9 +18792,9 @@
       <c r="K153" s="158"/>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="266"/>
-      <c r="C154" s="280"/>
-      <c r="D154" s="283"/>
+      <c r="B154" s="281"/>
+      <c r="C154" s="275"/>
+      <c r="D154" s="287"/>
       <c r="E154" s="229"/>
       <c r="F154" s="230"/>
       <c r="G154" s="155" t="s">
@@ -18644,8 +18808,8 @@
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="266"/>
-      <c r="C155" s="280"/>
+      <c r="B155" s="281"/>
+      <c r="C155" s="275"/>
       <c r="D155" s="165" t="s">
         <v>38</v>
       </c>
@@ -18662,8 +18826,8 @@
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B156" s="266"/>
-      <c r="C156" s="280"/>
+      <c r="B156" s="281"/>
+      <c r="C156" s="275"/>
       <c r="D156" s="165" t="s">
         <v>40</v>
       </c>
@@ -18678,9 +18842,9 @@
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="266"/>
-      <c r="C157" s="280"/>
-      <c r="D157" s="265" t="s">
+      <c r="B157" s="281"/>
+      <c r="C157" s="275"/>
+      <c r="D157" s="280" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="153"/>
@@ -18696,9 +18860,9 @@
       <c r="K157" s="158"/>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="266"/>
-      <c r="C158" s="280"/>
-      <c r="D158" s="266"/>
+      <c r="B158" s="281"/>
+      <c r="C158" s="275"/>
+      <c r="D158" s="281"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
@@ -18712,9 +18876,9 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B159" s="266"/>
-      <c r="C159" s="280"/>
-      <c r="D159" s="266"/>
+      <c r="B159" s="281"/>
+      <c r="C159" s="275"/>
+      <c r="D159" s="281"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
@@ -18728,9 +18892,9 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="266"/>
-      <c r="C160" s="280"/>
-      <c r="D160" s="266"/>
+      <c r="B160" s="281"/>
+      <c r="C160" s="275"/>
+      <c r="D160" s="281"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
@@ -18744,9 +18908,9 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="266"/>
-      <c r="C161" s="280"/>
-      <c r="D161" s="266"/>
+      <c r="B161" s="281"/>
+      <c r="C161" s="275"/>
+      <c r="D161" s="281"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
@@ -18760,9 +18924,9 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B162" s="266"/>
-      <c r="C162" s="280"/>
-      <c r="D162" s="266"/>
+      <c r="B162" s="281"/>
+      <c r="C162" s="275"/>
+      <c r="D162" s="281"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
@@ -18776,9 +18940,9 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B163" s="266"/>
-      <c r="C163" s="280"/>
-      <c r="D163" s="266"/>
+      <c r="B163" s="281"/>
+      <c r="C163" s="275"/>
+      <c r="D163" s="281"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="155" t="s">
@@ -18792,9 +18956,9 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="266"/>
-      <c r="C164" s="280"/>
-      <c r="D164" s="266"/>
+      <c r="B164" s="281"/>
+      <c r="C164" s="275"/>
+      <c r="D164" s="281"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
@@ -18808,9 +18972,9 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="266"/>
-      <c r="C165" s="280"/>
-      <c r="D165" s="266"/>
+      <c r="B165" s="281"/>
+      <c r="C165" s="275"/>
+      <c r="D165" s="281"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
@@ -18824,9 +18988,9 @@
       <c r="K165" s="158"/>
     </row>
     <row r="166" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B166" s="266"/>
-      <c r="C166" s="281"/>
-      <c r="D166" s="267"/>
+      <c r="B166" s="281"/>
+      <c r="C166" s="276"/>
+      <c r="D166" s="282"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
@@ -18840,11 +19004,11 @@
       <c r="K166" s="232"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="266"/>
-      <c r="C167" s="279" t="s">
+      <c r="B167" s="281"/>
+      <c r="C167" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="265" t="s">
+      <c r="D167" s="280" t="s">
         <v>107</v>
       </c>
       <c r="E167" s="153"/>
@@ -18858,9 +19022,9 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="266"/>
-      <c r="C168" s="280"/>
-      <c r="D168" s="266"/>
+      <c r="B168" s="281"/>
+      <c r="C168" s="275"/>
+      <c r="D168" s="281"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
@@ -18872,9 +19036,9 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="266"/>
-      <c r="C169" s="280"/>
-      <c r="D169" s="266"/>
+      <c r="B169" s="281"/>
+      <c r="C169" s="275"/>
+      <c r="D169" s="281"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
@@ -18886,9 +19050,9 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="266"/>
-      <c r="C170" s="280"/>
-      <c r="D170" s="266"/>
+      <c r="B170" s="281"/>
+      <c r="C170" s="275"/>
+      <c r="D170" s="281"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
@@ -18900,9 +19064,9 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="266"/>
-      <c r="C171" s="280"/>
-      <c r="D171" s="266"/>
+      <c r="B171" s="281"/>
+      <c r="C171" s="275"/>
+      <c r="D171" s="281"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
@@ -18914,9 +19078,9 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="266"/>
-      <c r="C172" s="280"/>
-      <c r="D172" s="266"/>
+      <c r="B172" s="281"/>
+      <c r="C172" s="275"/>
+      <c r="D172" s="281"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
@@ -18928,9 +19092,9 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="266"/>
-      <c r="C173" s="280"/>
-      <c r="D173" s="266"/>
+      <c r="B173" s="281"/>
+      <c r="C173" s="275"/>
+      <c r="D173" s="281"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
@@ -18942,9 +19106,9 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="266"/>
-      <c r="C174" s="280"/>
-      <c r="D174" s="266"/>
+      <c r="B174" s="281"/>
+      <c r="C174" s="275"/>
+      <c r="D174" s="281"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
@@ -18956,9 +19120,9 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="266"/>
-      <c r="C175" s="280"/>
-      <c r="D175" s="267"/>
+      <c r="B175" s="281"/>
+      <c r="C175" s="275"/>
+      <c r="D175" s="282"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
@@ -18970,9 +19134,9 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="266"/>
-      <c r="C176" s="280"/>
-      <c r="D176" s="265" t="s">
+      <c r="B176" s="281"/>
+      <c r="C176" s="275"/>
+      <c r="D176" s="280" t="s">
         <v>109</v>
       </c>
       <c r="E176" s="153"/>
@@ -18986,9 +19150,9 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="266"/>
-      <c r="C177" s="280"/>
-      <c r="D177" s="266"/>
+      <c r="B177" s="281"/>
+      <c r="C177" s="275"/>
+      <c r="D177" s="281"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
@@ -19000,9 +19164,9 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="266"/>
-      <c r="C178" s="280"/>
-      <c r="D178" s="266"/>
+      <c r="B178" s="281"/>
+      <c r="C178" s="275"/>
+      <c r="D178" s="281"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
@@ -19014,9 +19178,9 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="266"/>
-      <c r="C179" s="280"/>
-      <c r="D179" s="266"/>
+      <c r="B179" s="281"/>
+      <c r="C179" s="275"/>
+      <c r="D179" s="281"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
@@ -19028,9 +19192,9 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="266"/>
-      <c r="C180" s="280"/>
-      <c r="D180" s="266"/>
+      <c r="B180" s="281"/>
+      <c r="C180" s="275"/>
+      <c r="D180" s="281"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
@@ -19042,9 +19206,9 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="266"/>
-      <c r="C181" s="280"/>
-      <c r="D181" s="266"/>
+      <c r="B181" s="281"/>
+      <c r="C181" s="275"/>
+      <c r="D181" s="281"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
@@ -19056,9 +19220,9 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="266"/>
-      <c r="C182" s="280"/>
-      <c r="D182" s="266"/>
+      <c r="B182" s="281"/>
+      <c r="C182" s="275"/>
+      <c r="D182" s="281"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
@@ -19070,9 +19234,9 @@
       <c r="K182" s="158"/>
     </row>
     <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B183" s="266"/>
-      <c r="C183" s="281"/>
-      <c r="D183" s="267"/>
+      <c r="B183" s="281"/>
+      <c r="C183" s="276"/>
+      <c r="D183" s="282"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
@@ -19084,8 +19248,8 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="266"/>
-      <c r="C184" s="274" t="s">
+      <c r="B184" s="281"/>
+      <c r="C184" s="284" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="165"/>
@@ -19100,8 +19264,8 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="266"/>
-      <c r="C185" s="275"/>
+      <c r="B185" s="281"/>
+      <c r="C185" s="285"/>
       <c r="D185" s="233" t="s">
         <v>157</v>
       </c>
@@ -19116,8 +19280,8 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="266"/>
-      <c r="C186" s="275"/>
+      <c r="B186" s="281"/>
+      <c r="C186" s="285"/>
       <c r="D186" s="235"/>
       <c r="E186" s="224"/>
       <c r="F186" s="234"/>
@@ -19130,8 +19294,8 @@
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="266"/>
-      <c r="C187" s="275"/>
+      <c r="B187" s="281"/>
+      <c r="C187" s="285"/>
       <c r="D187" s="166" t="s">
         <v>159</v>
       </c>
@@ -19144,8 +19308,8 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="266"/>
-      <c r="C188" s="275"/>
+      <c r="B188" s="281"/>
+      <c r="C188" s="285"/>
       <c r="D188" s="166" t="s">
         <v>160</v>
       </c>
@@ -19158,8 +19322,8 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="266"/>
-      <c r="C189" s="275"/>
+      <c r="B189" s="281"/>
+      <c r="C189" s="285"/>
       <c r="D189" s="166" t="s">
         <v>161</v>
       </c>
@@ -19172,8 +19336,8 @@
       <c r="K189" s="158"/>
     </row>
     <row r="190" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B190" s="266"/>
-      <c r="C190" s="275"/>
+      <c r="B190" s="281"/>
+      <c r="C190" s="285"/>
       <c r="D190" s="166" t="s">
         <v>162</v>
       </c>
@@ -19186,8 +19350,8 @@
       <c r="K190" s="158"/>
     </row>
     <row r="191" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B191" s="266"/>
-      <c r="C191" s="275"/>
+      <c r="B191" s="281"/>
+      <c r="C191" s="285"/>
       <c r="D191" s="237" t="s">
         <v>197</v>
       </c>
@@ -19200,8 +19364,8 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="266"/>
-      <c r="C192" s="275"/>
+      <c r="B192" s="281"/>
+      <c r="C192" s="285"/>
       <c r="D192" s="166" t="s">
         <v>163</v>
       </c>
@@ -19214,8 +19378,8 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="267"/>
-      <c r="C193" s="276"/>
+      <c r="B193" s="282"/>
+      <c r="C193" s="286"/>
       <c r="D193" s="166" t="s">
         <v>164</v>
       </c>
@@ -19228,13 +19392,13 @@
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="277" t="s">
+      <c r="B194" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C194" s="279" t="s">
+      <c r="C194" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="265" t="s">
+      <c r="D194" s="280" t="s">
         <v>56</v>
       </c>
       <c r="E194" s="153"/>
@@ -19250,9 +19414,9 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="278"/>
-      <c r="C195" s="280"/>
-      <c r="D195" s="267"/>
+      <c r="B195" s="269"/>
+      <c r="C195" s="275"/>
+      <c r="D195" s="282"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
@@ -19266,8 +19430,8 @@
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="278"/>
-      <c r="C196" s="280"/>
+      <c r="B196" s="269"/>
+      <c r="C196" s="275"/>
       <c r="D196" s="165" t="s">
         <v>59</v>
       </c>
@@ -19282,9 +19446,9 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="278"/>
-      <c r="C197" s="280"/>
-      <c r="D197" s="265" t="s">
+      <c r="B197" s="269"/>
+      <c r="C197" s="275"/>
+      <c r="D197" s="280" t="s">
         <v>61</v>
       </c>
       <c r="E197" s="153"/>
@@ -19298,9 +19462,9 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="278"/>
-      <c r="C198" s="280"/>
-      <c r="D198" s="266"/>
+      <c r="B198" s="269"/>
+      <c r="C198" s="275"/>
+      <c r="D198" s="281"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
@@ -19312,9 +19476,9 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="278"/>
-      <c r="C199" s="280"/>
-      <c r="D199" s="267"/>
+      <c r="B199" s="269"/>
+      <c r="C199" s="275"/>
+      <c r="D199" s="282"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
@@ -19326,9 +19490,9 @@
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="278"/>
-      <c r="C200" s="280"/>
-      <c r="D200" s="265" t="s">
+      <c r="B200" s="269"/>
+      <c r="C200" s="275"/>
+      <c r="D200" s="280" t="s">
         <v>65</v>
       </c>
       <c r="E200" s="153"/>
@@ -19344,9 +19508,9 @@
       <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B201" s="278"/>
-      <c r="C201" s="280"/>
-      <c r="D201" s="267"/>
+      <c r="B201" s="269"/>
+      <c r="C201" s="275"/>
+      <c r="D201" s="282"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
@@ -19358,9 +19522,9 @@
       <c r="K201" s="189"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="278"/>
-      <c r="C202" s="280"/>
-      <c r="D202" s="265" t="s">
+      <c r="B202" s="269"/>
+      <c r="C202" s="275"/>
+      <c r="D202" s="280" t="s">
         <v>68</v>
       </c>
       <c r="E202" s="153"/>
@@ -19374,9 +19538,9 @@
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="278"/>
-      <c r="C203" s="280"/>
-      <c r="D203" s="267"/>
+      <c r="B203" s="269"/>
+      <c r="C203" s="275"/>
+      <c r="D203" s="282"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
@@ -19390,9 +19554,9 @@
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="278"/>
-      <c r="C204" s="280"/>
-      <c r="D204" s="265" t="s">
+      <c r="B204" s="269"/>
+      <c r="C204" s="275"/>
+      <c r="D204" s="280" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="153"/>
@@ -19406,9 +19570,9 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="278"/>
-      <c r="C205" s="280"/>
-      <c r="D205" s="266"/>
+      <c r="B205" s="269"/>
+      <c r="C205" s="275"/>
+      <c r="D205" s="281"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
@@ -19420,9 +19584,9 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="278"/>
-      <c r="C206" s="280"/>
-      <c r="D206" s="266"/>
+      <c r="B206" s="269"/>
+      <c r="C206" s="275"/>
+      <c r="D206" s="281"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
@@ -19434,9 +19598,9 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="278"/>
-      <c r="C207" s="280"/>
-      <c r="D207" s="266"/>
+      <c r="B207" s="269"/>
+      <c r="C207" s="275"/>
+      <c r="D207" s="281"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
@@ -19448,9 +19612,9 @@
       <c r="K207" s="158"/>
     </row>
     <row r="208" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B208" s="278"/>
-      <c r="C208" s="280"/>
-      <c r="D208" s="266"/>
+      <c r="B208" s="269"/>
+      <c r="C208" s="275"/>
+      <c r="D208" s="281"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
@@ -19462,9 +19626,9 @@
       <c r="K208" s="158"/>
     </row>
     <row r="209" spans="2:11" ht="30" customHeight="1">
-      <c r="B209" s="278"/>
-      <c r="C209" s="281"/>
-      <c r="D209" s="267"/>
+      <c r="B209" s="269"/>
+      <c r="C209" s="276"/>
+      <c r="D209" s="282"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
@@ -19476,11 +19640,11 @@
       <c r="K209" s="239"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="278"/>
-      <c r="C210" s="279" t="s">
+      <c r="B210" s="269"/>
+      <c r="C210" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="D210" s="265" t="s">
+      <c r="D210" s="280" t="s">
         <v>1454</v>
       </c>
       <c r="E210" s="153"/>
@@ -19494,9 +19658,9 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="278"/>
-      <c r="C211" s="280"/>
-      <c r="D211" s="266"/>
+      <c r="B211" s="269"/>
+      <c r="C211" s="275"/>
+      <c r="D211" s="281"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
@@ -19508,9 +19672,9 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="278"/>
-      <c r="C212" s="280"/>
-      <c r="D212" s="266"/>
+      <c r="B212" s="269"/>
+      <c r="C212" s="275"/>
+      <c r="D212" s="281"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
@@ -19522,9 +19686,9 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="278"/>
-      <c r="C213" s="280"/>
-      <c r="D213" s="266"/>
+      <c r="B213" s="269"/>
+      <c r="C213" s="275"/>
+      <c r="D213" s="281"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
       <c r="G213" s="155" t="s">
@@ -19536,9 +19700,9 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="278"/>
-      <c r="C214" s="280"/>
-      <c r="D214" s="266"/>
+      <c r="B214" s="269"/>
+      <c r="C214" s="275"/>
+      <c r="D214" s="281"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="240" t="s">
@@ -19550,9 +19714,9 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="278"/>
-      <c r="C215" s="280"/>
-      <c r="D215" s="266"/>
+      <c r="B215" s="269"/>
+      <c r="C215" s="275"/>
+      <c r="D215" s="281"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="240" t="s">
@@ -19564,9 +19728,9 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="278"/>
-      <c r="C216" s="280"/>
-      <c r="D216" s="266"/>
+      <c r="B216" s="269"/>
+      <c r="C216" s="275"/>
+      <c r="D216" s="281"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
       <c r="G216" s="240" t="s">
@@ -19578,9 +19742,9 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="278"/>
-      <c r="C217" s="280"/>
-      <c r="D217" s="266"/>
+      <c r="B217" s="269"/>
+      <c r="C217" s="275"/>
+      <c r="D217" s="281"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
@@ -19592,9 +19756,9 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="278"/>
-      <c r="C218" s="280"/>
-      <c r="D218" s="266"/>
+      <c r="B218" s="269"/>
+      <c r="C218" s="275"/>
+      <c r="D218" s="281"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
@@ -19606,9 +19770,9 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="278"/>
-      <c r="C219" s="280"/>
-      <c r="D219" s="266"/>
+      <c r="B219" s="269"/>
+      <c r="C219" s="275"/>
+      <c r="D219" s="281"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
@@ -19620,9 +19784,9 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="278"/>
-      <c r="C220" s="280"/>
-      <c r="D220" s="266"/>
+      <c r="B220" s="269"/>
+      <c r="C220" s="275"/>
+      <c r="D220" s="281"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
@@ -19634,9 +19798,9 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="278"/>
-      <c r="C221" s="280"/>
-      <c r="D221" s="266"/>
+      <c r="B221" s="269"/>
+      <c r="C221" s="275"/>
+      <c r="D221" s="281"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
@@ -19648,9 +19812,9 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="278"/>
-      <c r="C222" s="280"/>
-      <c r="D222" s="266"/>
+      <c r="B222" s="269"/>
+      <c r="C222" s="275"/>
+      <c r="D222" s="281"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
@@ -19662,9 +19826,9 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="278"/>
-      <c r="C223" s="280"/>
-      <c r="D223" s="266"/>
+      <c r="B223" s="269"/>
+      <c r="C223" s="275"/>
+      <c r="D223" s="281"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
@@ -19676,9 +19840,9 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="278"/>
-      <c r="C224" s="280"/>
-      <c r="D224" s="266"/>
+      <c r="B224" s="269"/>
+      <c r="C224" s="275"/>
+      <c r="D224" s="281"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
@@ -19690,9 +19854,9 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="278"/>
-      <c r="C225" s="280"/>
-      <c r="D225" s="266"/>
+      <c r="B225" s="269"/>
+      <c r="C225" s="275"/>
+      <c r="D225" s="281"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
@@ -19704,9 +19868,9 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="278"/>
-      <c r="C226" s="280"/>
-      <c r="D226" s="266"/>
+      <c r="B226" s="269"/>
+      <c r="C226" s="275"/>
+      <c r="D226" s="281"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
@@ -19718,9 +19882,9 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="278"/>
-      <c r="C227" s="280"/>
-      <c r="D227" s="266"/>
+      <c r="B227" s="269"/>
+      <c r="C227" s="275"/>
+      <c r="D227" s="281"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
@@ -19732,9 +19896,9 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="278"/>
-      <c r="C228" s="280"/>
-      <c r="D228" s="266"/>
+      <c r="B228" s="269"/>
+      <c r="C228" s="275"/>
+      <c r="D228" s="281"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
@@ -19746,9 +19910,9 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="278"/>
-      <c r="C229" s="280"/>
-      <c r="D229" s="266"/>
+      <c r="B229" s="269"/>
+      <c r="C229" s="275"/>
+      <c r="D229" s="281"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
@@ -19760,9 +19924,9 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="278"/>
-      <c r="C230" s="280"/>
-      <c r="D230" s="266"/>
+      <c r="B230" s="269"/>
+      <c r="C230" s="275"/>
+      <c r="D230" s="281"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
@@ -19774,9 +19938,9 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="278"/>
-      <c r="C231" s="280"/>
-      <c r="D231" s="266"/>
+      <c r="B231" s="269"/>
+      <c r="C231" s="275"/>
+      <c r="D231" s="281"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
@@ -19788,9 +19952,9 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="278"/>
-      <c r="C232" s="280"/>
-      <c r="D232" s="266"/>
+      <c r="B232" s="269"/>
+      <c r="C232" s="275"/>
+      <c r="D232" s="281"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
@@ -19802,9 +19966,9 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="278"/>
-      <c r="C233" s="280"/>
-      <c r="D233" s="266"/>
+      <c r="B233" s="269"/>
+      <c r="C233" s="275"/>
+      <c r="D233" s="281"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
@@ -19816,9 +19980,9 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="278"/>
-      <c r="C234" s="280"/>
-      <c r="D234" s="266"/>
+      <c r="B234" s="269"/>
+      <c r="C234" s="275"/>
+      <c r="D234" s="281"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
@@ -19830,9 +19994,9 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="278"/>
-      <c r="C235" s="280"/>
-      <c r="D235" s="266"/>
+      <c r="B235" s="269"/>
+      <c r="C235" s="275"/>
+      <c r="D235" s="281"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
@@ -19844,9 +20008,9 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="278"/>
-      <c r="C236" s="280"/>
-      <c r="D236" s="266"/>
+      <c r="B236" s="269"/>
+      <c r="C236" s="275"/>
+      <c r="D236" s="281"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
@@ -19858,9 +20022,9 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="278"/>
-      <c r="C237" s="280"/>
-      <c r="D237" s="266"/>
+      <c r="B237" s="269"/>
+      <c r="C237" s="275"/>
+      <c r="D237" s="281"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
@@ -19872,9 +20036,9 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="278"/>
-      <c r="C238" s="280"/>
-      <c r="D238" s="266"/>
+      <c r="B238" s="269"/>
+      <c r="C238" s="275"/>
+      <c r="D238" s="281"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
@@ -19886,9 +20050,9 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="278"/>
-      <c r="C239" s="280"/>
-      <c r="D239" s="266"/>
+      <c r="B239" s="269"/>
+      <c r="C239" s="275"/>
+      <c r="D239" s="281"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
@@ -19900,9 +20064,9 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="278"/>
-      <c r="C240" s="281"/>
-      <c r="D240" s="267"/>
+      <c r="B240" s="269"/>
+      <c r="C240" s="276"/>
+      <c r="D240" s="282"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
@@ -19914,11 +20078,11 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="278"/>
-      <c r="C241" s="279" t="s">
+      <c r="B241" s="269"/>
+      <c r="C241" s="274" t="s">
         <v>1472</v>
       </c>
-      <c r="D241" s="265" t="s">
+      <c r="D241" s="280" t="s">
         <v>134</v>
       </c>
       <c r="E241" s="153"/>
@@ -19932,9 +20096,9 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="278"/>
-      <c r="C242" s="280"/>
-      <c r="D242" s="266"/>
+      <c r="B242" s="269"/>
+      <c r="C242" s="275"/>
+      <c r="D242" s="281"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
@@ -19946,9 +20110,9 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="278"/>
-      <c r="C243" s="280"/>
-      <c r="D243" s="266"/>
+      <c r="B243" s="269"/>
+      <c r="C243" s="275"/>
+      <c r="D243" s="281"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
@@ -19960,9 +20124,9 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="278"/>
-      <c r="C244" s="280"/>
-      <c r="D244" s="266"/>
+      <c r="B244" s="269"/>
+      <c r="C244" s="275"/>
+      <c r="D244" s="281"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
@@ -19974,9 +20138,9 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="278"/>
-      <c r="C245" s="280"/>
-      <c r="D245" s="266"/>
+      <c r="B245" s="269"/>
+      <c r="C245" s="275"/>
+      <c r="D245" s="281"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
@@ -19988,9 +20152,9 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="278"/>
-      <c r="C246" s="280"/>
-      <c r="D246" s="266"/>
+      <c r="B246" s="269"/>
+      <c r="C246" s="275"/>
+      <c r="D246" s="281"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
@@ -20002,9 +20166,9 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="278"/>
-      <c r="C247" s="280"/>
-      <c r="D247" s="266"/>
+      <c r="B247" s="269"/>
+      <c r="C247" s="275"/>
+      <c r="D247" s="281"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
@@ -20016,9 +20180,9 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="278"/>
-      <c r="C248" s="280"/>
-      <c r="D248" s="266"/>
+      <c r="B248" s="269"/>
+      <c r="C248" s="275"/>
+      <c r="D248" s="281"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
@@ -20030,9 +20194,9 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="278"/>
-      <c r="C249" s="280"/>
-      <c r="D249" s="266"/>
+      <c r="B249" s="269"/>
+      <c r="C249" s="275"/>
+      <c r="D249" s="281"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
@@ -20044,9 +20208,9 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="278"/>
-      <c r="C250" s="280"/>
-      <c r="D250" s="266"/>
+      <c r="B250" s="269"/>
+      <c r="C250" s="275"/>
+      <c r="D250" s="281"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
@@ -20058,9 +20222,9 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="278"/>
-      <c r="C251" s="280"/>
-      <c r="D251" s="266"/>
+      <c r="B251" s="269"/>
+      <c r="C251" s="275"/>
+      <c r="D251" s="281"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
@@ -20072,9 +20236,9 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="278"/>
-      <c r="C252" s="280"/>
-      <c r="D252" s="266"/>
+      <c r="B252" s="269"/>
+      <c r="C252" s="275"/>
+      <c r="D252" s="281"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
@@ -20086,9 +20250,9 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="278"/>
-      <c r="C253" s="280"/>
-      <c r="D253" s="266"/>
+      <c r="B253" s="269"/>
+      <c r="C253" s="275"/>
+      <c r="D253" s="281"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
@@ -20100,9 +20264,9 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="278"/>
-      <c r="C254" s="280"/>
-      <c r="D254" s="266"/>
+      <c r="B254" s="269"/>
+      <c r="C254" s="275"/>
+      <c r="D254" s="281"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
@@ -20114,9 +20278,9 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="278"/>
-      <c r="C255" s="280"/>
-      <c r="D255" s="266"/>
+      <c r="B255" s="269"/>
+      <c r="C255" s="275"/>
+      <c r="D255" s="281"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
@@ -20128,9 +20292,9 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="278"/>
-      <c r="C256" s="280"/>
-      <c r="D256" s="266"/>
+      <c r="B256" s="269"/>
+      <c r="C256" s="275"/>
+      <c r="D256" s="281"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
@@ -20142,9 +20306,9 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="278"/>
-      <c r="C257" s="281"/>
-      <c r="D257" s="267"/>
+      <c r="B257" s="269"/>
+      <c r="C257" s="276"/>
+      <c r="D257" s="282"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
@@ -20156,11 +20320,11 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="278"/>
-      <c r="C258" s="274" t="s">
+      <c r="B258" s="269"/>
+      <c r="C258" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="D258" s="265" t="s">
+      <c r="D258" s="280" t="s">
         <v>1478</v>
       </c>
       <c r="E258" s="153"/>
@@ -20174,9 +20338,9 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="278"/>
-      <c r="C259" s="275"/>
-      <c r="D259" s="266"/>
+      <c r="B259" s="269"/>
+      <c r="C259" s="285"/>
+      <c r="D259" s="281"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
@@ -20188,9 +20352,9 @@
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="278"/>
-      <c r="C260" s="275"/>
-      <c r="D260" s="266"/>
+      <c r="B260" s="269"/>
+      <c r="C260" s="285"/>
+      <c r="D260" s="281"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
@@ -20202,9 +20366,9 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="278"/>
-      <c r="C261" s="275"/>
-      <c r="D261" s="266"/>
+      <c r="B261" s="269"/>
+      <c r="C261" s="285"/>
+      <c r="D261" s="281"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
@@ -20216,9 +20380,9 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="278"/>
-      <c r="C262" s="275"/>
-      <c r="D262" s="266"/>
+      <c r="B262" s="269"/>
+      <c r="C262" s="285"/>
+      <c r="D262" s="281"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
@@ -20230,9 +20394,9 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="278"/>
-      <c r="C263" s="275"/>
-      <c r="D263" s="266"/>
+      <c r="B263" s="269"/>
+      <c r="C263" s="285"/>
+      <c r="D263" s="281"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
@@ -20244,9 +20408,9 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="278"/>
-      <c r="C264" s="275"/>
-      <c r="D264" s="266"/>
+      <c r="B264" s="269"/>
+      <c r="C264" s="285"/>
+      <c r="D264" s="281"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
@@ -20258,9 +20422,9 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="278"/>
-      <c r="C265" s="275"/>
-      <c r="D265" s="266"/>
+      <c r="B265" s="269"/>
+      <c r="C265" s="285"/>
+      <c r="D265" s="281"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
@@ -20272,9 +20436,9 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="278"/>
-      <c r="C266" s="275"/>
-      <c r="D266" s="266"/>
+      <c r="B266" s="269"/>
+      <c r="C266" s="285"/>
+      <c r="D266" s="281"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
@@ -20286,9 +20450,9 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="278"/>
-      <c r="C267" s="275"/>
-      <c r="D267" s="266"/>
+      <c r="B267" s="269"/>
+      <c r="C267" s="285"/>
+      <c r="D267" s="281"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
@@ -20300,9 +20464,9 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="278"/>
-      <c r="C268" s="275"/>
-      <c r="D268" s="266"/>
+      <c r="B268" s="269"/>
+      <c r="C268" s="285"/>
+      <c r="D268" s="281"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
@@ -20314,9 +20478,9 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="278"/>
-      <c r="C269" s="275"/>
-      <c r="D269" s="266"/>
+      <c r="B269" s="269"/>
+      <c r="C269" s="285"/>
+      <c r="D269" s="281"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
@@ -20328,9 +20492,9 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="278"/>
-      <c r="C270" s="275"/>
-      <c r="D270" s="266"/>
+      <c r="B270" s="269"/>
+      <c r="C270" s="285"/>
+      <c r="D270" s="281"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
@@ -20342,9 +20506,9 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="278"/>
-      <c r="C271" s="275"/>
-      <c r="D271" s="266"/>
+      <c r="B271" s="269"/>
+      <c r="C271" s="285"/>
+      <c r="D271" s="281"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
@@ -20356,9 +20520,9 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="278"/>
-      <c r="C272" s="275"/>
-      <c r="D272" s="266"/>
+      <c r="B272" s="269"/>
+      <c r="C272" s="285"/>
+      <c r="D272" s="281"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
@@ -20370,9 +20534,9 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="278"/>
-      <c r="C273" s="275"/>
-      <c r="D273" s="266"/>
+      <c r="B273" s="269"/>
+      <c r="C273" s="285"/>
+      <c r="D273" s="281"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
@@ -20384,9 +20548,9 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="278"/>
-      <c r="C274" s="275"/>
-      <c r="D274" s="266"/>
+      <c r="B274" s="269"/>
+      <c r="C274" s="285"/>
+      <c r="D274" s="281"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
@@ -20398,9 +20562,9 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="278"/>
-      <c r="C275" s="275"/>
-      <c r="D275" s="266"/>
+      <c r="B275" s="269"/>
+      <c r="C275" s="285"/>
+      <c r="D275" s="281"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
@@ -20412,9 +20576,9 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="278"/>
-      <c r="C276" s="275"/>
-      <c r="D276" s="266"/>
+      <c r="B276" s="269"/>
+      <c r="C276" s="285"/>
+      <c r="D276" s="281"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
@@ -20426,9 +20590,9 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="278"/>
-      <c r="C277" s="275"/>
-      <c r="D277" s="266"/>
+      <c r="B277" s="269"/>
+      <c r="C277" s="285"/>
+      <c r="D277" s="281"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
@@ -20440,9 +20604,9 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="278"/>
-      <c r="C278" s="276"/>
-      <c r="D278" s="267"/>
+      <c r="B278" s="269"/>
+      <c r="C278" s="286"/>
+      <c r="D278" s="282"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
@@ -20454,11 +20618,11 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="278"/>
-      <c r="C279" s="274" t="s">
+      <c r="B279" s="269"/>
+      <c r="C279" s="284" t="s">
         <v>1493</v>
       </c>
-      <c r="D279" s="265" t="s">
+      <c r="D279" s="280" t="s">
         <v>1494</v>
       </c>
       <c r="E279" s="153"/>
@@ -20472,9 +20636,9 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="278"/>
-      <c r="C280" s="275"/>
-      <c r="D280" s="266"/>
+      <c r="B280" s="269"/>
+      <c r="C280" s="285"/>
+      <c r="D280" s="281"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
@@ -20486,9 +20650,9 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="278"/>
-      <c r="C281" s="275"/>
-      <c r="D281" s="266"/>
+      <c r="B281" s="269"/>
+      <c r="C281" s="285"/>
+      <c r="D281" s="281"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
@@ -20500,9 +20664,9 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="278"/>
-      <c r="C282" s="275"/>
-      <c r="D282" s="266"/>
+      <c r="B282" s="269"/>
+      <c r="C282" s="285"/>
+      <c r="D282" s="281"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
@@ -20514,9 +20678,9 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="278"/>
-      <c r="C283" s="275"/>
-      <c r="D283" s="266"/>
+      <c r="B283" s="269"/>
+      <c r="C283" s="285"/>
+      <c r="D283" s="281"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
@@ -20528,9 +20692,9 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="278"/>
-      <c r="C284" s="275"/>
-      <c r="D284" s="266"/>
+      <c r="B284" s="269"/>
+      <c r="C284" s="285"/>
+      <c r="D284" s="281"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
@@ -20542,9 +20706,9 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="278"/>
-      <c r="C285" s="275"/>
-      <c r="D285" s="266"/>
+      <c r="B285" s="269"/>
+      <c r="C285" s="285"/>
+      <c r="D285" s="281"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
@@ -20556,9 +20720,9 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="278"/>
-      <c r="C286" s="275"/>
-      <c r="D286" s="266"/>
+      <c r="B286" s="269"/>
+      <c r="C286" s="285"/>
+      <c r="D286" s="281"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
@@ -20570,9 +20734,9 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="278"/>
-      <c r="C287" s="275"/>
-      <c r="D287" s="266"/>
+      <c r="B287" s="269"/>
+      <c r="C287" s="285"/>
+      <c r="D287" s="281"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
@@ -20584,9 +20748,9 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="278"/>
-      <c r="C288" s="275"/>
-      <c r="D288" s="266"/>
+      <c r="B288" s="269"/>
+      <c r="C288" s="285"/>
+      <c r="D288" s="281"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
@@ -20598,9 +20762,9 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="278"/>
-      <c r="C289" s="275"/>
-      <c r="D289" s="266"/>
+      <c r="B289" s="269"/>
+      <c r="C289" s="285"/>
+      <c r="D289" s="281"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
@@ -20612,9 +20776,9 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="278"/>
-      <c r="C290" s="275"/>
-      <c r="D290" s="266"/>
+      <c r="B290" s="269"/>
+      <c r="C290" s="285"/>
+      <c r="D290" s="281"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
@@ -20626,9 +20790,9 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="278"/>
-      <c r="C291" s="275"/>
-      <c r="D291" s="266"/>
+      <c r="B291" s="269"/>
+      <c r="C291" s="285"/>
+      <c r="D291" s="281"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
@@ -20640,9 +20804,9 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="278"/>
-      <c r="C292" s="275"/>
-      <c r="D292" s="266"/>
+      <c r="B292" s="269"/>
+      <c r="C292" s="285"/>
+      <c r="D292" s="281"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
@@ -20654,9 +20818,9 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="278"/>
-      <c r="C293" s="275"/>
-      <c r="D293" s="266"/>
+      <c r="B293" s="269"/>
+      <c r="C293" s="285"/>
+      <c r="D293" s="281"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
@@ -20668,9 +20832,9 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="278"/>
-      <c r="C294" s="275"/>
-      <c r="D294" s="266"/>
+      <c r="B294" s="269"/>
+      <c r="C294" s="285"/>
+      <c r="D294" s="281"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
@@ -20682,9 +20846,9 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="278"/>
-      <c r="C295" s="275"/>
-      <c r="D295" s="266"/>
+      <c r="B295" s="269"/>
+      <c r="C295" s="285"/>
+      <c r="D295" s="281"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
@@ -20696,9 +20860,9 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="278"/>
-      <c r="C296" s="275"/>
-      <c r="D296" s="266"/>
+      <c r="B296" s="269"/>
+      <c r="C296" s="285"/>
+      <c r="D296" s="281"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
@@ -20710,9 +20874,9 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B297" s="278"/>
-      <c r="C297" s="275"/>
-      <c r="D297" s="266"/>
+      <c r="B297" s="269"/>
+      <c r="C297" s="285"/>
+      <c r="D297" s="281"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
       <c r="G297" s="155" t="s">
@@ -20724,10 +20888,10 @@
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="291" t="s">
+      <c r="A298" s="265" t="s">
         <v>1495</v>
       </c>
-      <c r="B298" s="291"/>
+      <c r="B298" s="265"/>
       <c r="C298" s="241" t="s">
         <v>1496</v>
       </c>
@@ -20741,12 +20905,12 @@
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="291"/>
-      <c r="B299" s="291"/>
-      <c r="C299" s="295" t="s">
+      <c r="A299" s="265"/>
+      <c r="B299" s="265"/>
+      <c r="C299" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="D299" s="265" t="s">
+      <c r="D299" s="280" t="s">
         <v>2167</v>
       </c>
       <c r="E299" s="153"/>
@@ -20760,10 +20924,10 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="291"/>
-      <c r="B300" s="291"/>
-      <c r="C300" s="295"/>
-      <c r="D300" s="266"/>
+      <c r="A300" s="265"/>
+      <c r="B300" s="265"/>
+      <c r="C300" s="277"/>
+      <c r="D300" s="281"/>
       <c r="E300" s="153"/>
       <c r="F300" s="153"/>
       <c r="G300" s="155" t="s">
@@ -20775,10 +20939,10 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="291"/>
-      <c r="B301" s="291"/>
-      <c r="C301" s="295"/>
-      <c r="D301" s="266"/>
+      <c r="A301" s="265"/>
+      <c r="B301" s="265"/>
+      <c r="C301" s="277"/>
+      <c r="D301" s="281"/>
       <c r="E301" s="153"/>
       <c r="F301" s="153"/>
       <c r="G301" s="155" t="s">
@@ -20790,10 +20954,10 @@
       <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="291"/>
-      <c r="B302" s="291"/>
-      <c r="C302" s="295"/>
-      <c r="D302" s="266"/>
+      <c r="A302" s="265"/>
+      <c r="B302" s="265"/>
+      <c r="C302" s="277"/>
+      <c r="D302" s="281"/>
       <c r="E302" s="152"/>
       <c r="F302" s="152"/>
       <c r="G302" s="242" t="s">
@@ -20805,10 +20969,10 @@
       <c r="K302" s="244"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="291"/>
-      <c r="B303" s="291"/>
-      <c r="C303" s="295"/>
-      <c r="D303" s="266"/>
+      <c r="A303" s="265"/>
+      <c r="B303" s="265"/>
+      <c r="C303" s="277"/>
+      <c r="D303" s="281"/>
       <c r="E303" s="152"/>
       <c r="F303" s="152"/>
       <c r="G303" s="242" t="s">
@@ -20820,10 +20984,10 @@
       <c r="K303" s="244"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="291"/>
-      <c r="B304" s="291"/>
-      <c r="C304" s="295"/>
-      <c r="D304" s="266"/>
+      <c r="A304" s="265"/>
+      <c r="B304" s="265"/>
+      <c r="C304" s="277"/>
+      <c r="D304" s="281"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="242" t="s">
@@ -20835,10 +20999,10 @@
       <c r="K304" s="244"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="291"/>
-      <c r="B305" s="291"/>
-      <c r="C305" s="295"/>
-      <c r="D305" s="266"/>
+      <c r="A305" s="265"/>
+      <c r="B305" s="265"/>
+      <c r="C305" s="277"/>
+      <c r="D305" s="281"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="242" t="s">
@@ -20850,10 +21014,10 @@
       <c r="K305" s="244"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="291"/>
-      <c r="B306" s="291"/>
-      <c r="C306" s="295"/>
-      <c r="D306" s="266"/>
+      <c r="A306" s="265"/>
+      <c r="B306" s="265"/>
+      <c r="C306" s="277"/>
+      <c r="D306" s="281"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="242" t="s">
@@ -20865,10 +21029,10 @@
       <c r="K306" s="244"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="291"/>
-      <c r="B307" s="291"/>
-      <c r="C307" s="295"/>
-      <c r="D307" s="266"/>
+      <c r="A307" s="265"/>
+      <c r="B307" s="265"/>
+      <c r="C307" s="277"/>
+      <c r="D307" s="281"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="242" t="s">
@@ -20880,10 +21044,10 @@
       <c r="K307" s="244"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="291"/>
-      <c r="B308" s="291"/>
-      <c r="C308" s="295"/>
-      <c r="D308" s="266"/>
+      <c r="A308" s="265"/>
+      <c r="B308" s="265"/>
+      <c r="C308" s="277"/>
+      <c r="D308" s="281"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="242" t="s">
@@ -20895,10 +21059,10 @@
       <c r="K308" s="244"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="291"/>
-      <c r="B309" s="291"/>
-      <c r="C309" s="295"/>
-      <c r="D309" s="267"/>
+      <c r="A309" s="265"/>
+      <c r="B309" s="265"/>
+      <c r="C309" s="277"/>
+      <c r="D309" s="282"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
       <c r="G309" s="242" t="s">
@@ -20910,9 +21074,9 @@
       <c r="K309" s="244"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="291"/>
-      <c r="B310" s="291"/>
-      <c r="C310" s="295"/>
+      <c r="A310" s="265"/>
+      <c r="B310" s="265"/>
+      <c r="C310" s="277"/>
       <c r="D310" s="245" t="s">
         <v>2179</v>
       </c>
@@ -20925,10 +21089,10 @@
       <c r="K310" s="244"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="291"/>
-      <c r="B311" s="291"/>
-      <c r="C311" s="295"/>
-      <c r="D311" s="268" t="s">
+      <c r="A311" s="265"/>
+      <c r="B311" s="265"/>
+      <c r="C311" s="277"/>
+      <c r="D311" s="266" t="s">
         <v>2194</v>
       </c>
       <c r="E311" s="152"/>
@@ -20944,10 +21108,10 @@
       <c r="K311" s="244"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="291"/>
-      <c r="B312" s="291"/>
-      <c r="C312" s="295"/>
-      <c r="D312" s="269"/>
+      <c r="A312" s="265"/>
+      <c r="B312" s="265"/>
+      <c r="C312" s="277"/>
+      <c r="D312" s="294"/>
       <c r="E312" s="152"/>
       <c r="F312" s="152"/>
       <c r="G312" s="242" t="s">
@@ -20959,10 +21123,10 @@
       <c r="K312" s="244"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="291"/>
-      <c r="B313" s="291"/>
-      <c r="C313" s="295"/>
-      <c r="D313" s="269"/>
+      <c r="A313" s="265"/>
+      <c r="B313" s="265"/>
+      <c r="C313" s="277"/>
+      <c r="D313" s="294"/>
       <c r="E313" s="152"/>
       <c r="F313" s="152"/>
       <c r="G313" s="242" t="s">
@@ -20976,10 +21140,10 @@
       <c r="K313" s="244"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="291"/>
-      <c r="B314" s="291"/>
-      <c r="C314" s="295"/>
-      <c r="D314" s="269"/>
+      <c r="A314" s="265"/>
+      <c r="B314" s="265"/>
+      <c r="C314" s="277"/>
+      <c r="D314" s="294"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="242" t="s">
@@ -20991,10 +21155,10 @@
       <c r="K314" s="244"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="291"/>
-      <c r="B315" s="291"/>
-      <c r="C315" s="295"/>
-      <c r="D315" s="269"/>
+      <c r="A315" s="265"/>
+      <c r="B315" s="265"/>
+      <c r="C315" s="277"/>
+      <c r="D315" s="294"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="242" t="s">
@@ -21008,10 +21172,10 @@
       <c r="K315" s="244"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="291"/>
-      <c r="B316" s="291"/>
-      <c r="C316" s="295"/>
-      <c r="D316" s="269"/>
+      <c r="A316" s="265"/>
+      <c r="B316" s="265"/>
+      <c r="C316" s="277"/>
+      <c r="D316" s="294"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="242" t="s">
@@ -21023,10 +21187,10 @@
       <c r="K316" s="244"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="291"/>
-      <c r="B317" s="291"/>
-      <c r="C317" s="295"/>
-      <c r="D317" s="269"/>
+      <c r="A317" s="265"/>
+      <c r="B317" s="265"/>
+      <c r="C317" s="277"/>
+      <c r="D317" s="294"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="242" t="s">
@@ -21040,10 +21204,10 @@
       <c r="K317" s="244"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="291"/>
-      <c r="B318" s="291"/>
-      <c r="C318" s="295"/>
-      <c r="D318" s="269"/>
+      <c r="A318" s="265"/>
+      <c r="B318" s="265"/>
+      <c r="C318" s="277"/>
+      <c r="D318" s="294"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="242" t="s">
@@ -21055,10 +21219,10 @@
       <c r="K318" s="244"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="291"/>
-      <c r="B319" s="291"/>
-      <c r="C319" s="295"/>
-      <c r="D319" s="269"/>
+      <c r="A319" s="265"/>
+      <c r="B319" s="265"/>
+      <c r="C319" s="277"/>
+      <c r="D319" s="294"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
       <c r="G319" s="242" t="s">
@@ -21072,10 +21236,10 @@
       <c r="K319" s="244"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="291"/>
-      <c r="B320" s="291"/>
-      <c r="C320" s="295"/>
-      <c r="D320" s="269"/>
+      <c r="A320" s="265"/>
+      <c r="B320" s="265"/>
+      <c r="C320" s="277"/>
+      <c r="D320" s="294"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="247" t="s">
@@ -21091,10 +21255,10 @@
       </c>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="291"/>
-      <c r="B321" s="291"/>
-      <c r="C321" s="295"/>
-      <c r="D321" s="270"/>
+      <c r="A321" s="265"/>
+      <c r="B321" s="265"/>
+      <c r="C321" s="277"/>
+      <c r="D321" s="267"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
       <c r="G321" s="247" t="s">
@@ -21108,10 +21272,10 @@
       <c r="K321" s="244"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="291"/>
-      <c r="B322" s="291"/>
-      <c r="C322" s="295"/>
-      <c r="D322" s="271" t="s">
+      <c r="A322" s="265"/>
+      <c r="B322" s="265"/>
+      <c r="C322" s="277"/>
+      <c r="D322" s="295" t="s">
         <v>2195</v>
       </c>
       <c r="E322" s="152"/>
@@ -21125,10 +21289,10 @@
       <c r="K322" s="244"/>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="291"/>
-      <c r="B323" s="291"/>
-      <c r="C323" s="295"/>
-      <c r="D323" s="272"/>
+      <c r="A323" s="265"/>
+      <c r="B323" s="265"/>
+      <c r="C323" s="277"/>
+      <c r="D323" s="296"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
       <c r="G323" s="242" t="s">
@@ -21142,10 +21306,10 @@
       <c r="K323" s="244"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="291"/>
-      <c r="B324" s="291"/>
-      <c r="C324" s="295"/>
-      <c r="D324" s="272"/>
+      <c r="A324" s="265"/>
+      <c r="B324" s="265"/>
+      <c r="C324" s="277"/>
+      <c r="D324" s="296"/>
       <c r="E324" s="152"/>
       <c r="F324" s="152"/>
       <c r="G324" s="242" t="s">
@@ -21159,10 +21323,10 @@
       <c r="K324" s="244"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="291"/>
-      <c r="B325" s="291"/>
-      <c r="C325" s="295"/>
-      <c r="D325" s="273"/>
+      <c r="A325" s="265"/>
+      <c r="B325" s="265"/>
+      <c r="C325" s="277"/>
+      <c r="D325" s="297"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="242" t="s">
@@ -21176,10 +21340,10 @@
       <c r="K325" s="244"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="291"/>
-      <c r="B326" s="291"/>
-      <c r="C326" s="295"/>
-      <c r="D326" s="271" t="s">
+      <c r="A326" s="265"/>
+      <c r="B326" s="265"/>
+      <c r="C326" s="277"/>
+      <c r="D326" s="295" t="s">
         <v>2196</v>
       </c>
       <c r="E326" s="152"/>
@@ -21195,10 +21359,10 @@
       <c r="K326" s="244"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="291"/>
-      <c r="B327" s="291"/>
-      <c r="C327" s="295"/>
-      <c r="D327" s="272"/>
+      <c r="A327" s="265"/>
+      <c r="B327" s="265"/>
+      <c r="C327" s="277"/>
+      <c r="D327" s="296"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="242" t="s">
@@ -21212,10 +21376,10 @@
       <c r="K327" s="244"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="291"/>
-      <c r="B328" s="291"/>
-      <c r="C328" s="295"/>
-      <c r="D328" s="272"/>
+      <c r="A328" s="265"/>
+      <c r="B328" s="265"/>
+      <c r="C328" s="277"/>
+      <c r="D328" s="296"/>
       <c r="E328" s="152"/>
       <c r="F328" s="152"/>
       <c r="G328" s="242" t="s">
@@ -21229,10 +21393,10 @@
       <c r="K328" s="244"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="291"/>
-      <c r="B329" s="291"/>
-      <c r="C329" s="295"/>
-      <c r="D329" s="273"/>
+      <c r="A329" s="265"/>
+      <c r="B329" s="265"/>
+      <c r="C329" s="277"/>
+      <c r="D329" s="297"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
       <c r="G329" s="242" t="s">
@@ -21246,10 +21410,10 @@
       <c r="K329" s="244"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="291"/>
-      <c r="B330" s="291"/>
-      <c r="C330" s="295"/>
-      <c r="D330" s="268" t="s">
+      <c r="A330" s="265"/>
+      <c r="B330" s="265"/>
+      <c r="C330" s="277"/>
+      <c r="D330" s="266" t="s">
         <v>2201</v>
       </c>
       <c r="E330" s="152"/>
@@ -21263,10 +21427,10 @@
       <c r="K330" s="244"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="291"/>
-      <c r="B331" s="291"/>
-      <c r="C331" s="295"/>
-      <c r="D331" s="270"/>
+      <c r="A331" s="265"/>
+      <c r="B331" s="265"/>
+      <c r="C331" s="277"/>
+      <c r="D331" s="267"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
       <c r="G331" s="249" t="s">
@@ -21280,10 +21444,10 @@
       <c r="K331" s="244"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="291"/>
-      <c r="B332" s="291"/>
-      <c r="C332" s="295"/>
-      <c r="D332" s="271" t="s">
+      <c r="A332" s="265"/>
+      <c r="B332" s="265"/>
+      <c r="C332" s="277"/>
+      <c r="D332" s="295" t="s">
         <v>2202</v>
       </c>
       <c r="E332" s="152"/>
@@ -21297,10 +21461,10 @@
       <c r="K332" s="244"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="291"/>
-      <c r="B333" s="291"/>
-      <c r="C333" s="295"/>
-      <c r="D333" s="272"/>
+      <c r="A333" s="265"/>
+      <c r="B333" s="265"/>
+      <c r="C333" s="277"/>
+      <c r="D333" s="296"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
       <c r="G333" s="242" t="s">
@@ -21312,10 +21476,10 @@
       <c r="K333" s="244"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="291"/>
-      <c r="B334" s="291"/>
-      <c r="C334" s="295"/>
-      <c r="D334" s="272"/>
+      <c r="A334" s="265"/>
+      <c r="B334" s="265"/>
+      <c r="C334" s="277"/>
+      <c r="D334" s="296"/>
       <c r="E334" s="152"/>
       <c r="F334" s="152"/>
       <c r="G334" s="242" t="s">
@@ -21327,10 +21491,10 @@
       <c r="K334" s="244"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="291"/>
-      <c r="B335" s="291"/>
-      <c r="C335" s="295"/>
-      <c r="D335" s="272"/>
+      <c r="A335" s="265"/>
+      <c r="B335" s="265"/>
+      <c r="C335" s="277"/>
+      <c r="D335" s="296"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="242" t="s">
@@ -21342,10 +21506,10 @@
       <c r="K335" s="244"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="291"/>
-      <c r="B336" s="291"/>
-      <c r="C336" s="295"/>
-      <c r="D336" s="272"/>
+      <c r="A336" s="265"/>
+      <c r="B336" s="265"/>
+      <c r="C336" s="277"/>
+      <c r="D336" s="296"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="242" t="s">
@@ -21357,10 +21521,10 @@
       <c r="K336" s="244"/>
     </row>
     <row r="337" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A337" s="291"/>
-      <c r="B337" s="291"/>
-      <c r="C337" s="295"/>
-      <c r="D337" s="273"/>
+      <c r="A337" s="265"/>
+      <c r="B337" s="265"/>
+      <c r="C337" s="277"/>
+      <c r="D337" s="297"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
       <c r="G337" s="242" t="s">
@@ -21372,9 +21536,9 @@
       <c r="K337" s="244"/>
     </row>
     <row r="338" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A338" s="291"/>
-      <c r="B338" s="291"/>
-      <c r="C338" s="295"/>
+      <c r="A338" s="265"/>
+      <c r="B338" s="265"/>
+      <c r="C338" s="277"/>
       <c r="D338" s="250" t="s">
         <v>2213</v>
       </c>
@@ -21393,9 +21557,9 @@
       </c>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="291"/>
-      <c r="B339" s="291"/>
-      <c r="C339" s="295"/>
+      <c r="A339" s="265"/>
+      <c r="B339" s="265"/>
+      <c r="C339" s="277"/>
       <c r="D339" s="251" t="s">
         <v>2214</v>
       </c>
@@ -21408,9 +21572,9 @@
       <c r="K339" s="244"/>
     </row>
     <row r="340" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A340" s="291"/>
-      <c r="B340" s="291"/>
-      <c r="C340" s="295"/>
+      <c r="A340" s="265"/>
+      <c r="B340" s="265"/>
+      <c r="C340" s="277"/>
       <c r="D340" s="252" t="s">
         <v>2230</v>
       </c>
@@ -21425,9 +21589,9 @@
       <c r="K340" s="244"/>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="291"/>
-      <c r="B341" s="291"/>
-      <c r="C341" s="295"/>
+      <c r="A341" s="265"/>
+      <c r="B341" s="265"/>
+      <c r="C341" s="277"/>
       <c r="D341" s="245"/>
       <c r="E341" s="152"/>
       <c r="F341" s="152"/>
@@ -21442,9 +21606,9 @@
       <c r="K341" s="244"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="291"/>
-      <c r="B342" s="291"/>
-      <c r="C342" s="295"/>
+      <c r="A342" s="265"/>
+      <c r="B342" s="265"/>
+      <c r="C342" s="277"/>
       <c r="D342" s="245"/>
       <c r="E342" s="152"/>
       <c r="F342" s="152"/>
@@ -21457,9 +21621,9 @@
       <c r="K342" s="244"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="291"/>
-      <c r="B343" s="291"/>
-      <c r="C343" s="295"/>
+      <c r="A343" s="265"/>
+      <c r="B343" s="265"/>
+      <c r="C343" s="277"/>
       <c r="D343" s="252" t="s">
         <v>2239</v>
       </c>
@@ -21474,9 +21638,9 @@
       <c r="K343" s="244"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="291"/>
-      <c r="B344" s="291"/>
-      <c r="C344" s="295"/>
+      <c r="A344" s="265"/>
+      <c r="B344" s="265"/>
+      <c r="C344" s="277"/>
       <c r="D344" s="245"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
@@ -21491,9 +21655,9 @@
       <c r="K344" s="244"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="291"/>
-      <c r="B345" s="291"/>
-      <c r="C345" s="295"/>
+      <c r="A345" s="265"/>
+      <c r="B345" s="265"/>
+      <c r="C345" s="277"/>
       <c r="D345" s="245"/>
       <c r="E345" s="152"/>
       <c r="F345" s="152"/>
@@ -21506,9 +21670,9 @@
       <c r="K345" s="244"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="291"/>
-      <c r="B346" s="291"/>
-      <c r="C346" s="295"/>
+      <c r="A346" s="265"/>
+      <c r="B346" s="265"/>
+      <c r="C346" s="277"/>
       <c r="D346" s="252" t="s">
         <v>2240</v>
       </c>
@@ -21521,9 +21685,9 @@
       <c r="K346" s="244"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A347" s="291"/>
-      <c r="B347" s="291"/>
-      <c r="C347" s="295"/>
+      <c r="A347" s="265"/>
+      <c r="B347" s="265"/>
+      <c r="C347" s="277"/>
       <c r="D347" s="252" t="s">
         <v>2241</v>
       </c>
@@ -21551,6 +21715,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D299:D309"/>
+    <mergeCell ref="D311:D321"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="D326:D329"/>
+    <mergeCell ref="D332:D337"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D176:D183"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="C241:C257"/>
+    <mergeCell ref="D241:D257"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="D210:D240"/>
+    <mergeCell ref="C167:C183"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="A298:B347"/>
     <mergeCell ref="D330:D331"/>
     <mergeCell ref="D78:D80"/>
@@ -21567,57 +21782,6 @@
     <mergeCell ref="C149:C166"/>
     <mergeCell ref="C184:C193"/>
     <mergeCell ref="D127:D128"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D176:D183"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="C241:C257"/>
-    <mergeCell ref="D241:D257"/>
-    <mergeCell ref="C210:C240"/>
-    <mergeCell ref="D210:D240"/>
-    <mergeCell ref="C167:C183"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="D299:D309"/>
-    <mergeCell ref="D311:D321"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="D326:D329"/>
-    <mergeCell ref="D332:D337"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21630,8 +21794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -23783,7 +23947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M402"/>
   <sheetViews>
-    <sheetView topLeftCell="B271" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -31535,6 +31699,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -31547,42 +31747,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -31594,8 +31758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G414"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -31604,7 +31768,7 @@
     <col min="2" max="2" width="12.5" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="28" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.875" style="28"/>
@@ -31660,7 +31824,9 @@
       <c r="D3" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="29" t="s">
+        <v>2285</v>
+      </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
@@ -31671,7 +31837,9 @@
         <v>285</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>2286</v>
+      </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
@@ -31682,7 +31850,9 @@
         <v>286</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>2287</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
@@ -31693,7 +31863,9 @@
         <v>287</v>
       </c>
       <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>2288</v>
+      </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
@@ -31704,7 +31876,9 @@
         <v>289</v>
       </c>
       <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="29" t="s">
+        <v>2289</v>
+      </c>
       <c r="F7" s="29" t="s">
         <v>290</v>
       </c>
@@ -31741,7 +31915,9 @@
         <v>291</v>
       </c>
       <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>2290</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
@@ -31763,51 +31939,61 @@
         <v>293</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="29" t="s">
+        <v>2291</v>
+      </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="28.5">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>2292</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="28.5">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>295</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>2293</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="28.5">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30" t="s">
         <v>296</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>2294</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="28.5">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30" t="s">
         <v>297</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="29" t="s">
+        <v>2295</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
@@ -31818,7 +32004,9 @@
         <v>298</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>2296</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
@@ -31829,7 +32017,9 @@
         <v>299</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>2297</v>
+      </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
@@ -31840,7 +32030,9 @@
         <v>300</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>2298</v>
+      </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
@@ -31851,7 +32043,9 @@
         <v>301</v>
       </c>
       <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>2299</v>
+      </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
@@ -31862,7 +32056,9 @@
         <v>302</v>
       </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>2300</v>
+      </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
@@ -31873,31 +32069,37 @@
         <v>303</v>
       </c>
       <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="39" t="s">
+        <v>2301</v>
+      </c>
       <c r="F22" s="29" t="s">
         <v>1623</v>
       </c>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30" t="s">
         <v>304</v>
       </c>
       <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>2302</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="28.5">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
         <v>305</v>
       </c>
       <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>2303</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
     </row>
@@ -31908,7 +32110,9 @@
         <v>306</v>
       </c>
       <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>2304</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
     </row>
@@ -31921,7 +32125,9 @@
         <v>317</v>
       </c>
       <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>2305</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
     </row>
@@ -31932,7 +32138,9 @@
         <v>318</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>2306</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
     </row>
@@ -31943,7 +32151,9 @@
         <v>319</v>
       </c>
       <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>2307</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
@@ -31954,7 +32164,9 @@
         <v>320</v>
       </c>
       <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>2308</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
@@ -31965,7 +32177,9 @@
         <v>321</v>
       </c>
       <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>2309</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
@@ -31976,18 +32190,22 @@
         <v>322</v>
       </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="39" t="s">
+        <v>2310</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="28.5">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30" t="s">
         <v>323</v>
       </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="39" t="s">
+        <v>2311</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
@@ -31998,7 +32216,9 @@
         <v>324</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="E33" s="39" t="s">
+        <v>2312</v>
+      </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
@@ -32009,7 +32229,9 @@
         <v>325</v>
       </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="39" t="s">
+        <v>2312</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
@@ -32020,7 +32242,9 @@
         <v>326</v>
       </c>
       <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>2313</v>
+      </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
@@ -32031,7 +32255,9 @@
         <v>327</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>2314</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
@@ -32042,7 +32268,9 @@
         <v>334</v>
       </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>2315</v>
+      </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
@@ -32055,7 +32283,9 @@
         <v>317</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>2316</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
@@ -32066,7 +32296,9 @@
         <v>416</v>
       </c>
       <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>2317</v>
+      </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
@@ -32077,7 +32309,9 @@
         <v>402</v>
       </c>
       <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>2318</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
@@ -32088,7 +32322,9 @@
         <v>354</v>
       </c>
       <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="E41" s="29" t="s">
+        <v>2319</v>
+      </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
@@ -32099,7 +32335,9 @@
         <v>325</v>
       </c>
       <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>2320</v>
+      </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
     </row>
@@ -32110,7 +32348,9 @@
         <v>419</v>
       </c>
       <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>2321</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
     </row>
@@ -32121,7 +32361,9 @@
         <v>420</v>
       </c>
       <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>2322</v>
+      </c>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
     </row>
@@ -32132,7 +32374,9 @@
         <v>423</v>
       </c>
       <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>2323</v>
+      </c>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
     </row>
@@ -32143,7 +32387,9 @@
         <v>421</v>
       </c>
       <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>2324</v>
+      </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
@@ -32154,7 +32400,9 @@
         <v>327</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>2325</v>
+      </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>

--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -19656,6 +19656,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -19665,13 +19717,40 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19682,69 +19761,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19808,22 +19824,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20791,7 +20791,7 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="J299" sqref="J299"/>
     </sheetView>
@@ -20848,13 +20848,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="296" t="s">
         <v>1339</v>
       </c>
-      <c r="C2" s="301" t="s">
+      <c r="C2" s="299" t="s">
         <v>1340</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -20884,9 +20884,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="315"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="153" t="s">
         <v>1345</v>
       </c>
@@ -20907,9 +20907,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="312"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="315"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="304"/>
       <c r="E4" s="153" t="s">
         <v>1348</v>
       </c>
@@ -20928,9 +20928,9 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="312"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="315"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="304"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -20951,9 +20951,9 @@
     </row>
     <row r="6" spans="1:12" ht="32.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="312"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="315"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="304"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -20970,9 +20970,9 @@
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="312"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="315"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="304"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -20989,8 +20989,8 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="302"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="300"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -21006,8 +21006,8 @@
     </row>
     <row r="9" spans="1:12" ht="74.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="312"/>
-      <c r="C9" s="302"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="300"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -21023,8 +21023,8 @@
     </row>
     <row r="10" spans="1:12" ht="25.5" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="312"/>
-      <c r="C10" s="302"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="300"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -21042,8 +21042,8 @@
     </row>
     <row r="11" spans="1:12" s="256" customFormat="1" ht="68.25" customHeight="1">
       <c r="A11" s="250"/>
-      <c r="B11" s="312"/>
-      <c r="C11" s="302"/>
+      <c r="B11" s="297"/>
+      <c r="C11" s="300"/>
       <c r="D11" s="246" t="s">
         <v>0</v>
       </c>
@@ -21067,8 +21067,8 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="312"/>
-      <c r="C12" s="302"/>
+      <c r="B12" s="297"/>
+      <c r="C12" s="300"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -21088,8 +21088,8 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="312"/>
-      <c r="C13" s="302"/>
+      <c r="B13" s="297"/>
+      <c r="C13" s="300"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -21109,8 +21109,8 @@
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="312"/>
-      <c r="C14" s="302"/>
+      <c r="B14" s="297"/>
+      <c r="C14" s="300"/>
       <c r="D14" s="166" t="s">
         <v>2255</v>
       </c>
@@ -21128,8 +21128,8 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="312"/>
-      <c r="C15" s="302"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="300"/>
       <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
@@ -21147,9 +21147,9 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="312"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="287" t="s">
+      <c r="B16" s="297"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="305" t="s">
         <v>1359</v>
       </c>
       <c r="E16" s="153"/>
@@ -21168,9 +21168,9 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="312"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="288"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="306"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
@@ -21187,9 +21187,9 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="312"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="289"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="307"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
@@ -21204,8 +21204,8 @@
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="312"/>
-      <c r="C19" s="302"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="300"/>
       <c r="D19" s="165" t="s">
         <v>1364</v>
       </c>
@@ -21227,8 +21227,8 @@
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="312"/>
-      <c r="C20" s="302"/>
+      <c r="B20" s="297"/>
+      <c r="C20" s="300"/>
       <c r="D20" s="165" t="s">
         <v>1366</v>
       </c>
@@ -21250,9 +21250,9 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="312"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="306" t="s">
+      <c r="B21" s="297"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="296" t="s">
         <v>1368</v>
       </c>
       <c r="E21" s="153"/>
@@ -21271,9 +21271,9 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="312"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="312"/>
+      <c r="B22" s="297"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="297"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
@@ -21288,9 +21288,9 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="312"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="312"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="297"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
@@ -21309,9 +21309,9 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="312"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="312"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="300"/>
+      <c r="D24" s="297"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
@@ -21330,9 +21330,9 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="312"/>
-      <c r="C25" s="302"/>
-      <c r="D25" s="312"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="297"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
@@ -21349,9 +21349,9 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="312"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="312"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="297"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
       <c r="G26" s="155" t="s">
@@ -21370,9 +21370,9 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="312"/>
-      <c r="C27" s="302"/>
-      <c r="D27" s="312"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="297"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
       <c r="G27" s="169" t="s">
@@ -21391,9 +21391,9 @@
     </row>
     <row r="28" spans="1:11" ht="57.75" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="312"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="312"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="300"/>
+      <c r="D28" s="297"/>
       <c r="E28" s="153"/>
       <c r="F28" s="161"/>
       <c r="G28" s="170" t="s">
@@ -21412,9 +21412,9 @@
     </row>
     <row r="29" spans="1:11" s="174" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="171"/>
-      <c r="B29" s="312"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="312"/>
+      <c r="B29" s="297"/>
+      <c r="C29" s="300"/>
+      <c r="D29" s="297"/>
       <c r="E29" s="172"/>
       <c r="F29" s="154"/>
       <c r="G29" s="170" t="s">
@@ -21433,9 +21433,9 @@
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="312"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="312"/>
+      <c r="B30" s="297"/>
+      <c r="C30" s="300"/>
+      <c r="D30" s="297"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="170" t="s">
@@ -21454,9 +21454,9 @@
     </row>
     <row r="31" spans="1:11" ht="185.25" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="312"/>
-      <c r="C31" s="302"/>
-      <c r="D31" s="312"/>
+      <c r="B31" s="297"/>
+      <c r="C31" s="300"/>
+      <c r="D31" s="297"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="170" t="s">
@@ -21477,9 +21477,9 @@
     </row>
     <row r="32" spans="1:11" ht="57.75" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="312"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="312"/>
+      <c r="B32" s="297"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="297"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="170" t="s">
@@ -21498,9 +21498,9 @@
     </row>
     <row r="33" spans="1:11" ht="59.25" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="312"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="312"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="300"/>
+      <c r="D33" s="297"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="170" t="s">
@@ -21519,9 +21519,9 @@
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="312"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="312"/>
+      <c r="B34" s="297"/>
+      <c r="C34" s="300"/>
+      <c r="D34" s="297"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
       <c r="G34" s="170" t="s">
@@ -21540,9 +21540,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="312"/>
-      <c r="C35" s="302"/>
-      <c r="D35" s="312"/>
+      <c r="B35" s="297"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="297"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
       <c r="G35" s="177" t="s">
@@ -21561,9 +21561,9 @@
     </row>
     <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="312"/>
-      <c r="C36" s="302"/>
-      <c r="D36" s="312"/>
+      <c r="B36" s="297"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="297"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="180" t="s">
@@ -21582,9 +21582,9 @@
     </row>
     <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="312"/>
-      <c r="C37" s="302"/>
-      <c r="D37" s="312"/>
+      <c r="B37" s="297"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="297"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="170" t="s">
@@ -21603,9 +21603,9 @@
     </row>
     <row r="38" spans="1:11" ht="43.5" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="312"/>
-      <c r="C38" s="302"/>
-      <c r="D38" s="312"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="300"/>
+      <c r="D38" s="297"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="170" t="s">
@@ -21624,9 +21624,9 @@
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="312"/>
-      <c r="C39" s="302"/>
-      <c r="D39" s="312"/>
+      <c r="B39" s="297"/>
+      <c r="C39" s="300"/>
+      <c r="D39" s="297"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="170" t="s">
@@ -21645,9 +21645,9 @@
     </row>
     <row r="40" spans="1:11" ht="43.5" customHeight="1" thickBot="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="312"/>
-      <c r="C40" s="302"/>
-      <c r="D40" s="312"/>
+      <c r="B40" s="297"/>
+      <c r="C40" s="300"/>
+      <c r="D40" s="297"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="176" t="s">
@@ -21666,9 +21666,9 @@
     </row>
     <row r="41" spans="1:11" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="312"/>
-      <c r="C41" s="302"/>
-      <c r="D41" s="312"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="300"/>
+      <c r="D41" s="297"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="262" t="s">
@@ -21687,9 +21687,9 @@
     </row>
     <row r="42" spans="1:11" ht="43.5" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="312"/>
-      <c r="C42" s="302"/>
-      <c r="D42" s="312"/>
+      <c r="B42" s="297"/>
+      <c r="C42" s="300"/>
+      <c r="D42" s="297"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="180" t="s">
@@ -21708,9 +21708,9 @@
     </row>
     <row r="43" spans="1:11" ht="79.5" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="312"/>
-      <c r="C43" s="302"/>
-      <c r="D43" s="312"/>
+      <c r="B43" s="297"/>
+      <c r="C43" s="300"/>
+      <c r="D43" s="297"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="170" t="s">
@@ -21729,9 +21729,9 @@
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="312"/>
-      <c r="C44" s="302"/>
-      <c r="D44" s="312"/>
+      <c r="B44" s="297"/>
+      <c r="C44" s="300"/>
+      <c r="D44" s="297"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="170" t="s">
@@ -21748,9 +21748,9 @@
     </row>
     <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="312"/>
-      <c r="C45" s="302"/>
-      <c r="D45" s="312"/>
+      <c r="B45" s="297"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="297"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="170" t="s">
@@ -21767,9 +21767,9 @@
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="312"/>
-      <c r="C46" s="302"/>
-      <c r="D46" s="312"/>
+      <c r="B46" s="297"/>
+      <c r="C46" s="300"/>
+      <c r="D46" s="297"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="170" t="s">
@@ -21790,9 +21790,9 @@
     </row>
     <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="312"/>
-      <c r="C47" s="302"/>
-      <c r="D47" s="312"/>
+      <c r="B47" s="297"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="297"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="186" t="s">
@@ -21811,9 +21811,9 @@
     </row>
     <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="312"/>
-      <c r="C48" s="302"/>
-      <c r="D48" s="312"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="300"/>
+      <c r="D48" s="297"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="186" t="s">
@@ -21828,9 +21828,9 @@
     </row>
     <row r="49" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="312"/>
-      <c r="C49" s="302"/>
-      <c r="D49" s="312"/>
+      <c r="B49" s="297"/>
+      <c r="C49" s="300"/>
+      <c r="D49" s="297"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="177" t="s">
@@ -21849,9 +21849,9 @@
     </row>
     <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="312"/>
-      <c r="C50" s="302"/>
-      <c r="D50" s="312"/>
+      <c r="B50" s="297"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="297"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="180" t="s">
@@ -21870,9 +21870,9 @@
     </row>
     <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="312"/>
-      <c r="C51" s="302"/>
-      <c r="D51" s="312"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="300"/>
+      <c r="D51" s="297"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="170" t="s">
@@ -21891,9 +21891,9 @@
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="312"/>
-      <c r="C52" s="302"/>
-      <c r="D52" s="312"/>
+      <c r="B52" s="297"/>
+      <c r="C52" s="300"/>
+      <c r="D52" s="297"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="170" t="s">
@@ -21912,9 +21912,9 @@
     </row>
     <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="312"/>
-      <c r="C53" s="302"/>
-      <c r="D53" s="312"/>
+      <c r="B53" s="297"/>
+      <c r="C53" s="300"/>
+      <c r="D53" s="297"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="170" t="s">
@@ -21933,9 +21933,9 @@
     </row>
     <row r="54" spans="1:11" ht="38.25" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="312"/>
-      <c r="C54" s="302"/>
-      <c r="D54" s="312"/>
+      <c r="B54" s="297"/>
+      <c r="C54" s="300"/>
+      <c r="D54" s="297"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="170" t="s">
@@ -21950,13 +21950,13 @@
       <c r="J54" s="264" t="s">
         <v>2871</v>
       </c>
-      <c r="K54" s="308"/>
+      <c r="K54" s="313"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="312"/>
-      <c r="C55" s="302"/>
-      <c r="D55" s="312"/>
+      <c r="B55" s="297"/>
+      <c r="C55" s="300"/>
+      <c r="D55" s="297"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="186" t="s">
@@ -21967,13 +21967,13 @@
       </c>
       <c r="I55" s="173"/>
       <c r="J55" s="185"/>
-      <c r="K55" s="309"/>
+      <c r="K55" s="314"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="312"/>
-      <c r="C56" s="302"/>
-      <c r="D56" s="312"/>
+      <c r="B56" s="297"/>
+      <c r="C56" s="300"/>
+      <c r="D56" s="297"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="170" t="s">
@@ -21994,9 +21994,9 @@
     </row>
     <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="312"/>
-      <c r="C57" s="302"/>
-      <c r="D57" s="312"/>
+      <c r="B57" s="297"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="297"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="186" t="s">
@@ -22013,9 +22013,9 @@
     </row>
     <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="312"/>
-      <c r="C58" s="302"/>
-      <c r="D58" s="312"/>
+      <c r="B58" s="297"/>
+      <c r="C58" s="300"/>
+      <c r="D58" s="297"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="170" t="s">
@@ -22034,9 +22034,9 @@
     </row>
     <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="312"/>
-      <c r="C59" s="302"/>
-      <c r="D59" s="312"/>
+      <c r="B59" s="297"/>
+      <c r="C59" s="300"/>
+      <c r="D59" s="297"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
       <c r="G59" s="170" t="s">
@@ -22055,9 +22055,9 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="312"/>
-      <c r="C60" s="302"/>
-      <c r="D60" s="312"/>
+      <c r="B60" s="297"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="297"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
       <c r="G60" s="188" t="s">
@@ -22074,9 +22074,9 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="312"/>
-      <c r="C61" s="302"/>
-      <c r="D61" s="312"/>
+      <c r="B61" s="297"/>
+      <c r="C61" s="300"/>
+      <c r="D61" s="297"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
       <c r="G61" s="180" t="s">
@@ -22095,9 +22095,9 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="312"/>
-      <c r="C62" s="302"/>
-      <c r="D62" s="312"/>
+      <c r="B62" s="297"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="297"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="170" t="s">
@@ -22114,9 +22114,9 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="312"/>
-      <c r="C63" s="302"/>
-      <c r="D63" s="312"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="300"/>
+      <c r="D63" s="297"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
       <c r="G63" s="170" t="s">
@@ -22133,9 +22133,9 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="312"/>
-      <c r="C64" s="302"/>
-      <c r="D64" s="312"/>
+      <c r="B64" s="297"/>
+      <c r="C64" s="300"/>
+      <c r="D64" s="297"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
       <c r="G64" s="177" t="s">
@@ -22152,9 +22152,9 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="312"/>
-      <c r="C65" s="302"/>
-      <c r="D65" s="312"/>
+      <c r="B65" s="297"/>
+      <c r="C65" s="300"/>
+      <c r="D65" s="297"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
       <c r="G65" s="180" t="s">
@@ -22171,9 +22171,9 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="313"/>
-      <c r="C66" s="303"/>
-      <c r="D66" s="313"/>
+      <c r="B66" s="298"/>
+      <c r="C66" s="301"/>
+      <c r="D66" s="298"/>
       <c r="E66" s="153"/>
       <c r="F66" s="161"/>
       <c r="G66" s="191" t="s">
@@ -22190,13 +22190,13 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="306" t="s">
+      <c r="B67" s="296" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="301" t="s">
+      <c r="C67" s="299" t="s">
         <v>1379</v>
       </c>
-      <c r="D67" s="287" t="s">
+      <c r="D67" s="305" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="153"/>
@@ -22217,9 +22217,9 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="307"/>
-      <c r="C68" s="302"/>
-      <c r="D68" s="288"/>
+      <c r="B68" s="318"/>
+      <c r="C68" s="300"/>
+      <c r="D68" s="306"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
       <c r="G68" s="155" t="s">
@@ -22236,9 +22236,9 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="302"/>
-      <c r="D69" s="289"/>
+      <c r="B69" s="318"/>
+      <c r="C69" s="300"/>
+      <c r="D69" s="307"/>
       <c r="E69" s="153"/>
       <c r="F69" s="161"/>
       <c r="G69" s="197" t="s">
@@ -22259,11 +22259,11 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="307"/>
-      <c r="C70" s="301" t="s">
+      <c r="B70" s="318"/>
+      <c r="C70" s="299" t="s">
         <v>1382</v>
       </c>
-      <c r="D70" s="287" t="s">
+      <c r="D70" s="305" t="s">
         <v>1383</v>
       </c>
       <c r="E70" s="153"/>
@@ -22284,9 +22284,9 @@
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="307"/>
-      <c r="C71" s="302"/>
-      <c r="D71" s="288"/>
+      <c r="B71" s="318"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="306"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
       <c r="G71" s="155" t="s">
@@ -22305,9 +22305,9 @@
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
-      <c r="B72" s="307"/>
-      <c r="C72" s="302"/>
-      <c r="D72" s="288"/>
+      <c r="B72" s="318"/>
+      <c r="C72" s="300"/>
+      <c r="D72" s="306"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="197" t="s">
@@ -22326,9 +22326,9 @@
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
-      <c r="B73" s="307"/>
-      <c r="C73" s="302"/>
-      <c r="D73" s="289"/>
+      <c r="B73" s="318"/>
+      <c r="C73" s="300"/>
+      <c r="D73" s="307"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
       <c r="G73" s="197" t="s">
@@ -22347,8 +22347,8 @@
     </row>
     <row r="74" spans="1:11" ht="41.1" customHeight="1">
       <c r="A74" s="152"/>
-      <c r="B74" s="307"/>
-      <c r="C74" s="302"/>
+      <c r="B74" s="318"/>
+      <c r="C74" s="300"/>
       <c r="D74" s="198" t="s">
         <v>5</v>
       </c>
@@ -22370,10 +22370,10 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="200"/>
-      <c r="B75" s="287" t="s">
+      <c r="B75" s="305" t="s">
         <v>1389</v>
       </c>
-      <c r="C75" s="301" t="s">
+      <c r="C75" s="299" t="s">
         <v>1390</v>
       </c>
       <c r="D75" s="201" t="s">
@@ -22395,8 +22395,8 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="200"/>
-      <c r="B76" s="288"/>
-      <c r="C76" s="302"/>
+      <c r="B76" s="306"/>
+      <c r="C76" s="300"/>
       <c r="D76" s="202" t="s">
         <v>1583</v>
       </c>
@@ -22416,8 +22416,8 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="200"/>
-      <c r="B77" s="288"/>
-      <c r="C77" s="302"/>
+      <c r="B77" s="306"/>
+      <c r="C77" s="300"/>
       <c r="D77" s="202" t="s">
         <v>1586</v>
       </c>
@@ -22439,9 +22439,9 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="200"/>
-      <c r="B78" s="288"/>
-      <c r="C78" s="302"/>
-      <c r="D78" s="299" t="s">
+      <c r="B78" s="306"/>
+      <c r="C78" s="300"/>
+      <c r="D78" s="293" t="s">
         <v>1599</v>
       </c>
       <c r="E78" s="153"/>
@@ -22456,9 +22456,9 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="200"/>
-      <c r="B79" s="288"/>
-      <c r="C79" s="302"/>
-      <c r="D79" s="300"/>
+      <c r="B79" s="306"/>
+      <c r="C79" s="300"/>
+      <c r="D79" s="294"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="197" t="s">
@@ -22477,9 +22477,9 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="200"/>
-      <c r="B80" s="288"/>
-      <c r="C80" s="302"/>
-      <c r="D80" s="311"/>
+      <c r="B80" s="306"/>
+      <c r="C80" s="300"/>
+      <c r="D80" s="295"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
       <c r="G80" s="197" t="s">
@@ -22496,9 +22496,9 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="200"/>
-      <c r="B81" s="288"/>
-      <c r="C81" s="302"/>
-      <c r="D81" s="287" t="s">
+      <c r="B81" s="306"/>
+      <c r="C81" s="300"/>
+      <c r="D81" s="305" t="s">
         <v>1393</v>
       </c>
       <c r="E81" s="153"/>
@@ -22521,9 +22521,9 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="200"/>
-      <c r="B82" s="288"/>
-      <c r="C82" s="302"/>
-      <c r="D82" s="288"/>
+      <c r="B82" s="306"/>
+      <c r="C82" s="300"/>
+      <c r="D82" s="306"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
@@ -22542,9 +22542,9 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="200"/>
-      <c r="B83" s="288"/>
-      <c r="C83" s="302"/>
-      <c r="D83" s="288"/>
+      <c r="B83" s="306"/>
+      <c r="C83" s="300"/>
+      <c r="D83" s="306"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
@@ -22563,9 +22563,9 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="200"/>
-      <c r="B84" s="288"/>
-      <c r="C84" s="302"/>
-      <c r="D84" s="288"/>
+      <c r="B84" s="306"/>
+      <c r="C84" s="300"/>
+      <c r="D84" s="306"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
@@ -22584,9 +22584,9 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="200"/>
-      <c r="B85" s="288"/>
-      <c r="C85" s="302"/>
-      <c r="D85" s="289"/>
+      <c r="B85" s="306"/>
+      <c r="C85" s="300"/>
+      <c r="D85" s="307"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
@@ -22605,9 +22605,9 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="200"/>
-      <c r="B86" s="288"/>
-      <c r="C86" s="302"/>
-      <c r="D86" s="287" t="s">
+      <c r="B86" s="306"/>
+      <c r="C86" s="300"/>
+      <c r="D86" s="305" t="s">
         <v>1400</v>
       </c>
       <c r="E86" s="153"/>
@@ -22630,9 +22630,9 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="200"/>
-      <c r="B87" s="288"/>
-      <c r="C87" s="302"/>
-      <c r="D87" s="289"/>
+      <c r="B87" s="306"/>
+      <c r="C87" s="300"/>
+      <c r="D87" s="307"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
@@ -22651,8 +22651,8 @@
     </row>
     <row r="88" spans="1:11" ht="64.5" customHeight="1">
       <c r="A88" s="200"/>
-      <c r="B88" s="288"/>
-      <c r="C88" s="302"/>
+      <c r="B88" s="306"/>
+      <c r="C88" s="300"/>
       <c r="D88" s="165" t="s">
         <v>1</v>
       </c>
@@ -22676,9 +22676,9 @@
     </row>
     <row r="89" spans="1:11" ht="57" customHeight="1">
       <c r="A89" s="200"/>
-      <c r="B89" s="288"/>
-      <c r="C89" s="302"/>
-      <c r="D89" s="287" t="s">
+      <c r="B89" s="306"/>
+      <c r="C89" s="300"/>
+      <c r="D89" s="305" t="s">
         <v>1404</v>
       </c>
       <c r="E89" s="153"/>
@@ -22699,9 +22699,9 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="200"/>
-      <c r="B90" s="288"/>
-      <c r="C90" s="302"/>
-      <c r="D90" s="288"/>
+      <c r="B90" s="306"/>
+      <c r="C90" s="300"/>
+      <c r="D90" s="306"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
@@ -22716,9 +22716,9 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="200"/>
-      <c r="B91" s="288"/>
-      <c r="C91" s="302"/>
-      <c r="D91" s="288"/>
+      <c r="B91" s="306"/>
+      <c r="C91" s="300"/>
+      <c r="D91" s="306"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
@@ -22733,9 +22733,9 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="200"/>
-      <c r="B92" s="288"/>
-      <c r="C92" s="302"/>
-      <c r="D92" s="288"/>
+      <c r="B92" s="306"/>
+      <c r="C92" s="300"/>
+      <c r="D92" s="306"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
       <c r="G92" s="155" t="s">
@@ -22750,9 +22750,9 @@
     </row>
     <row r="93" spans="1:11" ht="37.5" customHeight="1">
       <c r="A93" s="200"/>
-      <c r="B93" s="288"/>
-      <c r="C93" s="302"/>
-      <c r="D93" s="289"/>
+      <c r="B93" s="306"/>
+      <c r="C93" s="300"/>
+      <c r="D93" s="307"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="197" t="s">
@@ -22767,9 +22767,9 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="200"/>
-      <c r="B94" s="288"/>
-      <c r="C94" s="302"/>
-      <c r="D94" s="287" t="s">
+      <c r="B94" s="306"/>
+      <c r="C94" s="300"/>
+      <c r="D94" s="305" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="153"/>
@@ -22788,9 +22788,9 @@
     </row>
     <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="200"/>
-      <c r="B95" s="288"/>
-      <c r="C95" s="302"/>
-      <c r="D95" s="288"/>
+      <c r="B95" s="306"/>
+      <c r="C95" s="300"/>
+      <c r="D95" s="306"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
@@ -22809,9 +22809,9 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="200"/>
-      <c r="B96" s="288"/>
-      <c r="C96" s="302"/>
-      <c r="D96" s="289"/>
+      <c r="B96" s="306"/>
+      <c r="C96" s="300"/>
+      <c r="D96" s="307"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
@@ -22826,9 +22826,9 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="200"/>
-      <c r="B97" s="288"/>
-      <c r="C97" s="302"/>
-      <c r="D97" s="287" t="s">
+      <c r="B97" s="306"/>
+      <c r="C97" s="300"/>
+      <c r="D97" s="305" t="s">
         <v>1412</v>
       </c>
       <c r="E97" s="153"/>
@@ -22845,9 +22845,9 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="200"/>
-      <c r="B98" s="288"/>
-      <c r="C98" s="302"/>
-      <c r="D98" s="289"/>
+      <c r="B98" s="306"/>
+      <c r="C98" s="300"/>
+      <c r="D98" s="307"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="280" t="s">
@@ -22862,9 +22862,9 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="200"/>
-      <c r="B99" s="288"/>
-      <c r="C99" s="302"/>
-      <c r="D99" s="310" t="s">
+      <c r="B99" s="306"/>
+      <c r="C99" s="300"/>
+      <c r="D99" s="290" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="153"/>
@@ -22883,9 +22883,9 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="200"/>
-      <c r="B100" s="288"/>
-      <c r="C100" s="303"/>
-      <c r="D100" s="310"/>
+      <c r="B100" s="306"/>
+      <c r="C100" s="301"/>
+      <c r="D100" s="290"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
@@ -22904,11 +22904,11 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="200"/>
-      <c r="B101" s="288"/>
-      <c r="C101" s="301" t="s">
+      <c r="B101" s="306"/>
+      <c r="C101" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="300" t="s">
+      <c r="D101" s="294" t="s">
         <v>1598</v>
       </c>
       <c r="E101" s="153"/>
@@ -22927,9 +22927,9 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="200"/>
-      <c r="B102" s="288"/>
-      <c r="C102" s="302"/>
-      <c r="D102" s="311"/>
+      <c r="B102" s="306"/>
+      <c r="C102" s="300"/>
+      <c r="D102" s="295"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
       <c r="G102" s="155" t="s">
@@ -22946,8 +22946,8 @@
     </row>
     <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="200"/>
-      <c r="B103" s="288"/>
-      <c r="C103" s="302"/>
+      <c r="B103" s="306"/>
+      <c r="C103" s="300"/>
       <c r="D103" s="165" t="s">
         <v>1418</v>
       </c>
@@ -22967,9 +22967,9 @@
     </row>
     <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="200"/>
-      <c r="B104" s="288"/>
-      <c r="C104" s="302"/>
-      <c r="D104" s="299" t="s">
+      <c r="B104" s="306"/>
+      <c r="C104" s="300"/>
+      <c r="D104" s="293" t="s">
         <v>1610</v>
       </c>
       <c r="E104" s="153"/>
@@ -22992,9 +22992,9 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="200"/>
-      <c r="B105" s="288"/>
-      <c r="C105" s="302"/>
-      <c r="D105" s="300"/>
+      <c r="B105" s="306"/>
+      <c r="C105" s="300"/>
+      <c r="D105" s="294"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="197" t="s">
@@ -23011,9 +23011,9 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="200"/>
-      <c r="B106" s="288"/>
-      <c r="C106" s="302"/>
-      <c r="D106" s="300"/>
+      <c r="B106" s="306"/>
+      <c r="C106" s="300"/>
+      <c r="D106" s="294"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="197" t="s">
@@ -23030,9 +23030,9 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="200"/>
-      <c r="B107" s="288"/>
-      <c r="C107" s="302"/>
-      <c r="D107" s="311"/>
+      <c r="B107" s="306"/>
+      <c r="C107" s="300"/>
+      <c r="D107" s="295"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
       <c r="G107" s="197" t="s">
@@ -23049,8 +23049,8 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="200"/>
-      <c r="B108" s="288"/>
-      <c r="C108" s="302"/>
+      <c r="B108" s="306"/>
+      <c r="C108" s="300"/>
       <c r="D108" s="165" t="s">
         <v>1391</v>
       </c>
@@ -23070,9 +23070,9 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="200"/>
-      <c r="B109" s="288"/>
-      <c r="C109" s="302"/>
-      <c r="D109" s="287" t="s">
+      <c r="B109" s="306"/>
+      <c r="C109" s="300"/>
+      <c r="D109" s="305" t="s">
         <v>1419</v>
       </c>
       <c r="E109" s="153"/>
@@ -23080,7 +23080,7 @@
       <c r="G109" s="155" t="s">
         <v>1420</v>
       </c>
-      <c r="H109" s="338" t="s">
+      <c r="H109" s="287" t="s">
         <v>2914</v>
       </c>
       <c r="I109" s="207"/>
@@ -23093,9 +23093,9 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="200"/>
-      <c r="B110" s="288"/>
-      <c r="C110" s="302"/>
-      <c r="D110" s="289"/>
+      <c r="B110" s="306"/>
+      <c r="C110" s="300"/>
+      <c r="D110" s="307"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
@@ -23114,9 +23114,9 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="200"/>
-      <c r="B111" s="288"/>
-      <c r="C111" s="302"/>
-      <c r="D111" s="339" t="s">
+      <c r="B111" s="306"/>
+      <c r="C111" s="300"/>
+      <c r="D111" s="315" t="s">
         <v>1424</v>
       </c>
       <c r="E111" s="153"/>
@@ -23133,9 +23133,9 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="200"/>
-      <c r="B112" s="288"/>
-      <c r="C112" s="302"/>
-      <c r="D112" s="340"/>
+      <c r="B112" s="306"/>
+      <c r="C112" s="300"/>
+      <c r="D112" s="316"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
@@ -23152,9 +23152,9 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="200"/>
-      <c r="B113" s="288"/>
-      <c r="C113" s="302"/>
-      <c r="D113" s="341"/>
+      <c r="B113" s="306"/>
+      <c r="C113" s="300"/>
+      <c r="D113" s="317"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
@@ -23171,8 +23171,8 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="200"/>
-      <c r="B114" s="288"/>
-      <c r="C114" s="302"/>
+      <c r="B114" s="306"/>
+      <c r="C114" s="300"/>
       <c r="D114" s="165" t="s">
         <v>9</v>
       </c>
@@ -23192,9 +23192,9 @@
     </row>
     <row r="115" spans="1:11" ht="27" customHeight="1">
       <c r="A115" s="200"/>
-      <c r="B115" s="288"/>
-      <c r="C115" s="302"/>
-      <c r="D115" s="287" t="s">
+      <c r="B115" s="306"/>
+      <c r="C115" s="300"/>
+      <c r="D115" s="305" t="s">
         <v>1427</v>
       </c>
       <c r="E115" s="153"/>
@@ -23215,9 +23215,9 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="200"/>
-      <c r="B116" s="288"/>
-      <c r="C116" s="302"/>
-      <c r="D116" s="288"/>
+      <c r="B116" s="306"/>
+      <c r="C116" s="300"/>
+      <c r="D116" s="306"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
@@ -23234,9 +23234,9 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="200"/>
-      <c r="B117" s="288"/>
-      <c r="C117" s="303"/>
-      <c r="D117" s="289"/>
+      <c r="B117" s="306"/>
+      <c r="C117" s="301"/>
+      <c r="D117" s="307"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
@@ -23255,11 +23255,11 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="200"/>
-      <c r="B118" s="288"/>
-      <c r="C118" s="301" t="s">
+      <c r="B118" s="306"/>
+      <c r="C118" s="299" t="s">
         <v>1433</v>
       </c>
-      <c r="D118" s="287" t="s">
+      <c r="D118" s="305" t="s">
         <v>1434</v>
       </c>
       <c r="E118" s="153"/>
@@ -23267,7 +23267,7 @@
       <c r="G118" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="338" t="s">
+      <c r="H118" s="287" t="s">
         <v>2920</v>
       </c>
       <c r="I118" s="207"/>
@@ -23278,9 +23278,9 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="200"/>
-      <c r="B119" s="288"/>
-      <c r="C119" s="302"/>
-      <c r="D119" s="289"/>
+      <c r="B119" s="306"/>
+      <c r="C119" s="300"/>
+      <c r="D119" s="307"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
@@ -23296,8 +23296,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="288"/>
-      <c r="C120" s="302"/>
+      <c r="B120" s="306"/>
+      <c r="C120" s="300"/>
       <c r="D120" s="165" t="s">
         <v>1437</v>
       </c>
@@ -23306,7 +23306,7 @@
       <c r="G120" s="155" t="s">
         <v>1438</v>
       </c>
-      <c r="H120" s="338" t="s">
+      <c r="H120" s="287" t="s">
         <v>2922</v>
       </c>
       <c r="I120" s="207"/>
@@ -23316,8 +23316,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="288"/>
-      <c r="C121" s="302"/>
+      <c r="B121" s="306"/>
+      <c r="C121" s="300"/>
       <c r="D121" s="165" t="s">
         <v>1440</v>
       </c>
@@ -23336,8 +23336,8 @@
       <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="288"/>
-      <c r="C122" s="302"/>
+      <c r="B122" s="306"/>
+      <c r="C122" s="300"/>
       <c r="D122" s="208" t="s">
         <v>1442</v>
       </c>
@@ -23346,7 +23346,7 @@
       <c r="G122" s="155" t="s">
         <v>1443</v>
       </c>
-      <c r="H122" s="338" t="s">
+      <c r="H122" s="287" t="s">
         <v>2923</v>
       </c>
       <c r="I122" s="207"/>
@@ -23356,9 +23356,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="288"/>
-      <c r="C123" s="302"/>
-      <c r="D123" s="287" t="s">
+      <c r="B123" s="306"/>
+      <c r="C123" s="300"/>
+      <c r="D123" s="305" t="s">
         <v>171</v>
       </c>
       <c r="E123" s="153"/>
@@ -23374,9 +23374,9 @@
       <c r="K123" s="181"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="288"/>
-      <c r="C124" s="302"/>
-      <c r="D124" s="288"/>
+      <c r="B124" s="306"/>
+      <c r="C124" s="300"/>
+      <c r="D124" s="306"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
@@ -23392,9 +23392,9 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="288"/>
-      <c r="C125" s="302"/>
-      <c r="D125" s="288"/>
+      <c r="B125" s="306"/>
+      <c r="C125" s="300"/>
+      <c r="D125" s="306"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
@@ -23408,9 +23408,9 @@
       <c r="K125" s="181"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="288"/>
-      <c r="C126" s="302"/>
-      <c r="D126" s="289"/>
+      <c r="B126" s="306"/>
+      <c r="C126" s="300"/>
+      <c r="D126" s="307"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
@@ -23426,9 +23426,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="288"/>
-      <c r="C127" s="302"/>
-      <c r="D127" s="304" t="s">
+      <c r="B127" s="306"/>
+      <c r="C127" s="300"/>
+      <c r="D127" s="303" t="s">
         <v>1444</v>
       </c>
       <c r="E127" s="153"/>
@@ -23442,15 +23442,15 @@
       <c r="K127" s="181"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="288"/>
-      <c r="C128" s="302"/>
-      <c r="D128" s="305"/>
+      <c r="B128" s="306"/>
+      <c r="C128" s="300"/>
+      <c r="D128" s="312"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
         <v>1446</v>
       </c>
-      <c r="H128" s="338" t="s">
+      <c r="H128" s="287" t="s">
         <v>2924</v>
       </c>
       <c r="I128" s="211" t="s">
@@ -23462,9 +23462,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="288"/>
-      <c r="C129" s="302"/>
-      <c r="D129" s="287" t="s">
+      <c r="B129" s="306"/>
+      <c r="C129" s="300"/>
+      <c r="D129" s="305" t="s">
         <v>1447</v>
       </c>
       <c r="E129" s="153"/>
@@ -23478,9 +23478,9 @@
       <c r="K129" s="181"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="288"/>
-      <c r="C130" s="302"/>
-      <c r="D130" s="288"/>
+      <c r="B130" s="306"/>
+      <c r="C130" s="300"/>
+      <c r="D130" s="306"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
       <c r="G130" s="212" t="s">
@@ -23494,9 +23494,9 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="288"/>
-      <c r="C131" s="302"/>
-      <c r="D131" s="289"/>
+      <c r="B131" s="306"/>
+      <c r="C131" s="300"/>
+      <c r="D131" s="307"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
@@ -23508,9 +23508,9 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B132" s="288"/>
-      <c r="C132" s="302"/>
-      <c r="D132" s="316" t="s">
+      <c r="B132" s="306"/>
+      <c r="C132" s="300"/>
+      <c r="D132" s="308" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="153"/>
@@ -23526,9 +23526,9 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="288"/>
-      <c r="C133" s="302"/>
-      <c r="D133" s="316"/>
+      <c r="B133" s="306"/>
+      <c r="C133" s="300"/>
+      <c r="D133" s="308"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
@@ -23540,8 +23540,8 @@
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="288"/>
-      <c r="C134" s="302"/>
+      <c r="B134" s="306"/>
+      <c r="C134" s="300"/>
       <c r="D134" s="213" t="s">
         <v>170</v>
       </c>
@@ -23558,9 +23558,9 @@
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="288"/>
-      <c r="C135" s="302"/>
-      <c r="D135" s="287" t="s">
+      <c r="B135" s="306"/>
+      <c r="C135" s="300"/>
+      <c r="D135" s="305" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="153"/>
@@ -23576,9 +23576,9 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="288"/>
-      <c r="C136" s="302"/>
-      <c r="D136" s="288"/>
+      <c r="B136" s="306"/>
+      <c r="C136" s="300"/>
+      <c r="D136" s="306"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
@@ -23594,9 +23594,9 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="288"/>
-      <c r="C137" s="302"/>
-      <c r="D137" s="288"/>
+      <c r="B137" s="306"/>
+      <c r="C137" s="300"/>
+      <c r="D137" s="306"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
@@ -23610,9 +23610,9 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="288"/>
-      <c r="C138" s="302"/>
-      <c r="D138" s="288"/>
+      <c r="B138" s="306"/>
+      <c r="C138" s="300"/>
+      <c r="D138" s="306"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
@@ -23628,9 +23628,9 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="288"/>
-      <c r="C139" s="302"/>
-      <c r="D139" s="288"/>
+      <c r="B139" s="306"/>
+      <c r="C139" s="300"/>
+      <c r="D139" s="306"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
@@ -23644,9 +23644,9 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="288"/>
-      <c r="C140" s="302"/>
-      <c r="D140" s="288"/>
+      <c r="B140" s="306"/>
+      <c r="C140" s="300"/>
+      <c r="D140" s="306"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
@@ -23660,9 +23660,9 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="288"/>
-      <c r="C141" s="302"/>
-      <c r="D141" s="288"/>
+      <c r="B141" s="306"/>
+      <c r="C141" s="300"/>
+      <c r="D141" s="306"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
@@ -23676,9 +23676,9 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="288"/>
-      <c r="C142" s="303"/>
-      <c r="D142" s="289"/>
+      <c r="B142" s="306"/>
+      <c r="C142" s="301"/>
+      <c r="D142" s="307"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
@@ -23692,11 +23692,11 @@
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="288"/>
-      <c r="C143" s="301" t="s">
+      <c r="B143" s="306"/>
+      <c r="C143" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="287" t="s">
+      <c r="D143" s="305" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="153"/>
@@ -23712,9 +23712,9 @@
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="288"/>
-      <c r="C144" s="302"/>
-      <c r="D144" s="288"/>
+      <c r="B144" s="306"/>
+      <c r="C144" s="300"/>
+      <c r="D144" s="306"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
@@ -23728,9 +23728,9 @@
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="288"/>
-      <c r="C145" s="302"/>
-      <c r="D145" s="289"/>
+      <c r="B145" s="306"/>
+      <c r="C145" s="300"/>
+      <c r="D145" s="307"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
@@ -23744,9 +23744,9 @@
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="288"/>
-      <c r="C146" s="302"/>
-      <c r="D146" s="287" t="s">
+      <c r="B146" s="306"/>
+      <c r="C146" s="300"/>
+      <c r="D146" s="305" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="153"/>
@@ -23762,9 +23762,9 @@
       <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="288"/>
-      <c r="C147" s="302"/>
-      <c r="D147" s="289"/>
+      <c r="B147" s="306"/>
+      <c r="C147" s="300"/>
+      <c r="D147" s="307"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
@@ -23778,8 +23778,8 @@
       <c r="K147" s="181"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="288"/>
-      <c r="C148" s="303"/>
+      <c r="B148" s="306"/>
+      <c r="C148" s="301"/>
       <c r="D148" s="165" t="s">
         <v>27</v>
       </c>
@@ -23796,11 +23796,11 @@
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="288"/>
-      <c r="C149" s="301" t="s">
+      <c r="B149" s="306"/>
+      <c r="C149" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="287" t="s">
+      <c r="D149" s="305" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="153"/>
@@ -23816,9 +23816,9 @@
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="288"/>
-      <c r="C150" s="302"/>
-      <c r="D150" s="288"/>
+      <c r="B150" s="306"/>
+      <c r="C150" s="300"/>
+      <c r="D150" s="306"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
       <c r="G150" s="155" t="s">
@@ -23834,9 +23834,9 @@
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="288"/>
-      <c r="C151" s="302"/>
-      <c r="D151" s="288"/>
+      <c r="B151" s="306"/>
+      <c r="C151" s="300"/>
+      <c r="D151" s="306"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
       <c r="G151" s="155" t="s">
@@ -23850,9 +23850,9 @@
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="288"/>
-      <c r="C152" s="302"/>
-      <c r="D152" s="289"/>
+      <c r="B152" s="306"/>
+      <c r="C152" s="300"/>
+      <c r="D152" s="307"/>
       <c r="E152" s="153"/>
       <c r="F152" s="161"/>
       <c r="G152" s="155" t="s">
@@ -23864,9 +23864,9 @@
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="288"/>
-      <c r="C153" s="302"/>
-      <c r="D153" s="304" t="s">
+      <c r="B153" s="306"/>
+      <c r="C153" s="300"/>
+      <c r="D153" s="303" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="214"/>
@@ -23886,9 +23886,9 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="288"/>
-      <c r="C154" s="302"/>
-      <c r="D154" s="305"/>
+      <c r="B154" s="306"/>
+      <c r="C154" s="300"/>
+      <c r="D154" s="312"/>
       <c r="E154" s="214"/>
       <c r="F154" s="215"/>
       <c r="G154" s="155" t="s">
@@ -23904,8 +23904,8 @@
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="288"/>
-      <c r="C155" s="302"/>
+      <c r="B155" s="306"/>
+      <c r="C155" s="300"/>
       <c r="D155" s="165" t="s">
         <v>38</v>
       </c>
@@ -23924,8 +23924,8 @@
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="30" customHeight="1">
-      <c r="B156" s="288"/>
-      <c r="C156" s="302"/>
+      <c r="B156" s="306"/>
+      <c r="C156" s="300"/>
       <c r="D156" s="165" t="s">
         <v>40</v>
       </c>
@@ -23944,9 +23944,9 @@
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="288"/>
-      <c r="C157" s="302"/>
-      <c r="D157" s="287" t="s">
+      <c r="B157" s="306"/>
+      <c r="C157" s="300"/>
+      <c r="D157" s="305" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="153"/>
@@ -23961,14 +23961,14 @@
       <c r="J157" s="157" t="s">
         <v>2932</v>
       </c>
-      <c r="K157" s="342" t="s">
+      <c r="K157" s="288" t="s">
         <v>2936</v>
       </c>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="288"/>
-      <c r="C158" s="302"/>
-      <c r="D158" s="288"/>
+      <c r="B158" s="306"/>
+      <c r="C158" s="300"/>
+      <c r="D158" s="306"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
@@ -23984,15 +23984,15 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="24" customHeight="1">
-      <c r="B159" s="288"/>
-      <c r="C159" s="302"/>
-      <c r="D159" s="288"/>
+      <c r="B159" s="306"/>
+      <c r="C159" s="300"/>
+      <c r="D159" s="306"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="H159" s="338" t="s">
+      <c r="H159" s="287" t="s">
         <v>2934</v>
       </c>
       <c r="I159" s="157"/>
@@ -24002,9 +24002,9 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="288"/>
-      <c r="C160" s="302"/>
-      <c r="D160" s="288"/>
+      <c r="B160" s="306"/>
+      <c r="C160" s="300"/>
+      <c r="D160" s="306"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
@@ -24020,9 +24020,9 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="288"/>
-      <c r="C161" s="302"/>
-      <c r="D161" s="288"/>
+      <c r="B161" s="306"/>
+      <c r="C161" s="300"/>
+      <c r="D161" s="306"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
@@ -24036,9 +24036,9 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B162" s="288"/>
-      <c r="C162" s="302"/>
-      <c r="D162" s="288"/>
+      <c r="B162" s="306"/>
+      <c r="C162" s="300"/>
+      <c r="D162" s="306"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
@@ -24054,9 +24054,9 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B163" s="288"/>
-      <c r="C163" s="302"/>
-      <c r="D163" s="288"/>
+      <c r="B163" s="306"/>
+      <c r="C163" s="300"/>
+      <c r="D163" s="306"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="280" t="s">
@@ -24068,9 +24068,9 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="288"/>
-      <c r="C164" s="302"/>
-      <c r="D164" s="288"/>
+      <c r="B164" s="306"/>
+      <c r="C164" s="300"/>
+      <c r="D164" s="306"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
@@ -24086,9 +24086,9 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="288"/>
-      <c r="C165" s="302"/>
-      <c r="D165" s="288"/>
+      <c r="B165" s="306"/>
+      <c r="C165" s="300"/>
+      <c r="D165" s="306"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
@@ -24102,9 +24102,9 @@
       <c r="K165" s="158"/>
     </row>
     <row r="166" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B166" s="288"/>
-      <c r="C166" s="303"/>
-      <c r="D166" s="289"/>
+      <c r="B166" s="306"/>
+      <c r="C166" s="301"/>
+      <c r="D166" s="307"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
@@ -24120,11 +24120,11 @@
       <c r="K166" s="217"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="288"/>
-      <c r="C167" s="301" t="s">
+      <c r="B167" s="306"/>
+      <c r="C167" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="287" t="s">
+      <c r="D167" s="305" t="s">
         <v>106</v>
       </c>
       <c r="E167" s="153"/>
@@ -24138,9 +24138,9 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="288"/>
-      <c r="C168" s="302"/>
-      <c r="D168" s="288"/>
+      <c r="B168" s="306"/>
+      <c r="C168" s="300"/>
+      <c r="D168" s="306"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
@@ -24152,9 +24152,9 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="288"/>
-      <c r="C169" s="302"/>
-      <c r="D169" s="288"/>
+      <c r="B169" s="306"/>
+      <c r="C169" s="300"/>
+      <c r="D169" s="306"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
@@ -24166,9 +24166,9 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="288"/>
-      <c r="C170" s="302"/>
-      <c r="D170" s="288"/>
+      <c r="B170" s="306"/>
+      <c r="C170" s="300"/>
+      <c r="D170" s="306"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
@@ -24180,9 +24180,9 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="288"/>
-      <c r="C171" s="302"/>
-      <c r="D171" s="288"/>
+      <c r="B171" s="306"/>
+      <c r="C171" s="300"/>
+      <c r="D171" s="306"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
@@ -24194,9 +24194,9 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="288"/>
-      <c r="C172" s="302"/>
-      <c r="D172" s="288"/>
+      <c r="B172" s="306"/>
+      <c r="C172" s="300"/>
+      <c r="D172" s="306"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
@@ -24208,9 +24208,9 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="288"/>
-      <c r="C173" s="302"/>
-      <c r="D173" s="288"/>
+      <c r="B173" s="306"/>
+      <c r="C173" s="300"/>
+      <c r="D173" s="306"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
@@ -24222,9 +24222,9 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="288"/>
-      <c r="C174" s="302"/>
-      <c r="D174" s="288"/>
+      <c r="B174" s="306"/>
+      <c r="C174" s="300"/>
+      <c r="D174" s="306"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
@@ -24236,9 +24236,9 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="288"/>
-      <c r="C175" s="302"/>
-      <c r="D175" s="289"/>
+      <c r="B175" s="306"/>
+      <c r="C175" s="300"/>
+      <c r="D175" s="307"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
@@ -24250,9 +24250,9 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="288"/>
-      <c r="C176" s="302"/>
-      <c r="D176" s="287" t="s">
+      <c r="B176" s="306"/>
+      <c r="C176" s="300"/>
+      <c r="D176" s="305" t="s">
         <v>108</v>
       </c>
       <c r="E176" s="153"/>
@@ -24266,9 +24266,9 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="288"/>
-      <c r="C177" s="302"/>
-      <c r="D177" s="288"/>
+      <c r="B177" s="306"/>
+      <c r="C177" s="300"/>
+      <c r="D177" s="306"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
@@ -24280,9 +24280,9 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="288"/>
-      <c r="C178" s="302"/>
-      <c r="D178" s="288"/>
+      <c r="B178" s="306"/>
+      <c r="C178" s="300"/>
+      <c r="D178" s="306"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
@@ -24294,9 +24294,9 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="288"/>
-      <c r="C179" s="302"/>
-      <c r="D179" s="288"/>
+      <c r="B179" s="306"/>
+      <c r="C179" s="300"/>
+      <c r="D179" s="306"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
@@ -24308,9 +24308,9 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="288"/>
-      <c r="C180" s="302"/>
-      <c r="D180" s="288"/>
+      <c r="B180" s="306"/>
+      <c r="C180" s="300"/>
+      <c r="D180" s="306"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
@@ -24322,9 +24322,9 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="288"/>
-      <c r="C181" s="302"/>
-      <c r="D181" s="288"/>
+      <c r="B181" s="306"/>
+      <c r="C181" s="300"/>
+      <c r="D181" s="306"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
@@ -24336,9 +24336,9 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="288"/>
-      <c r="C182" s="302"/>
-      <c r="D182" s="288"/>
+      <c r="B182" s="306"/>
+      <c r="C182" s="300"/>
+      <c r="D182" s="306"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
@@ -24350,9 +24350,9 @@
       <c r="K182" s="158"/>
     </row>
     <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B183" s="288"/>
-      <c r="C183" s="303"/>
-      <c r="D183" s="289"/>
+      <c r="B183" s="306"/>
+      <c r="C183" s="301"/>
+      <c r="D183" s="307"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
@@ -24364,8 +24364,8 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="288"/>
-      <c r="C184" s="296" t="s">
+      <c r="B184" s="306"/>
+      <c r="C184" s="309" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="165"/>
@@ -24380,8 +24380,8 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="288"/>
-      <c r="C185" s="297"/>
+      <c r="B185" s="306"/>
+      <c r="C185" s="310"/>
       <c r="D185" s="218" t="s">
         <v>156</v>
       </c>
@@ -24396,8 +24396,8 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="288"/>
-      <c r="C186" s="297"/>
+      <c r="B186" s="306"/>
+      <c r="C186" s="310"/>
       <c r="D186" s="220"/>
       <c r="E186" s="209"/>
       <c r="F186" s="219"/>
@@ -24410,8 +24410,8 @@
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="288"/>
-      <c r="C187" s="297"/>
+      <c r="B187" s="306"/>
+      <c r="C187" s="310"/>
       <c r="D187" s="166" t="s">
         <v>158</v>
       </c>
@@ -24424,8 +24424,8 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="288"/>
-      <c r="C188" s="297"/>
+      <c r="B188" s="306"/>
+      <c r="C188" s="310"/>
       <c r="D188" s="166" t="s">
         <v>159</v>
       </c>
@@ -24438,8 +24438,8 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="288"/>
-      <c r="C189" s="297"/>
+      <c r="B189" s="306"/>
+      <c r="C189" s="310"/>
       <c r="D189" s="166" t="s">
         <v>160</v>
       </c>
@@ -24452,8 +24452,8 @@
       <c r="K189" s="158"/>
     </row>
     <row r="190" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B190" s="288"/>
-      <c r="C190" s="297"/>
+      <c r="B190" s="306"/>
+      <c r="C190" s="310"/>
       <c r="D190" s="166" t="s">
         <v>161</v>
       </c>
@@ -24466,8 +24466,8 @@
       <c r="K190" s="158"/>
     </row>
     <row r="191" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B191" s="288"/>
-      <c r="C191" s="297"/>
+      <c r="B191" s="306"/>
+      <c r="C191" s="310"/>
       <c r="D191" s="222" t="s">
         <v>196</v>
       </c>
@@ -24480,8 +24480,8 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="288"/>
-      <c r="C192" s="297"/>
+      <c r="B192" s="306"/>
+      <c r="C192" s="310"/>
       <c r="D192" s="166" t="s">
         <v>162</v>
       </c>
@@ -24494,8 +24494,8 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="289"/>
-      <c r="C193" s="298"/>
+      <c r="B193" s="307"/>
+      <c r="C193" s="311"/>
       <c r="D193" s="166" t="s">
         <v>163</v>
       </c>
@@ -24508,13 +24508,13 @@
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="299" t="s">
+      <c r="B194" s="293" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="301" t="s">
+      <c r="C194" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="287" t="s">
+      <c r="D194" s="305" t="s">
         <v>56</v>
       </c>
       <c r="E194" s="153"/>
@@ -24530,9 +24530,9 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="300"/>
-      <c r="C195" s="302"/>
-      <c r="D195" s="289"/>
+      <c r="B195" s="294"/>
+      <c r="C195" s="300"/>
+      <c r="D195" s="307"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
@@ -24546,9 +24546,9 @@
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="300"/>
-      <c r="C196" s="302"/>
-      <c r="D196" s="343" t="s">
+      <c r="B196" s="294"/>
+      <c r="C196" s="300"/>
+      <c r="D196" s="289" t="s">
         <v>2938</v>
       </c>
       <c r="E196" s="153"/>
@@ -24562,9 +24562,9 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="300"/>
-      <c r="C197" s="302"/>
-      <c r="D197" s="287" t="s">
+      <c r="B197" s="294"/>
+      <c r="C197" s="300"/>
+      <c r="D197" s="305" t="s">
         <v>61</v>
       </c>
       <c r="E197" s="153"/>
@@ -24578,9 +24578,9 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="300"/>
-      <c r="C198" s="302"/>
-      <c r="D198" s="288"/>
+      <c r="B198" s="294"/>
+      <c r="C198" s="300"/>
+      <c r="D198" s="306"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
@@ -24596,9 +24596,9 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="300"/>
-      <c r="C199" s="302"/>
-      <c r="D199" s="289"/>
+      <c r="B199" s="294"/>
+      <c r="C199" s="300"/>
+      <c r="D199" s="307"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
@@ -24610,9 +24610,9 @@
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="300"/>
-      <c r="C200" s="302"/>
-      <c r="D200" s="287" t="s">
+      <c r="B200" s="294"/>
+      <c r="C200" s="300"/>
+      <c r="D200" s="305" t="s">
         <v>65</v>
       </c>
       <c r="E200" s="153"/>
@@ -24628,9 +24628,9 @@
       <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B201" s="300"/>
-      <c r="C201" s="302"/>
-      <c r="D201" s="289"/>
+      <c r="B201" s="294"/>
+      <c r="C201" s="300"/>
+      <c r="D201" s="307"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
@@ -24644,9 +24644,9 @@
       <c r="K201" s="181"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="300"/>
-      <c r="C202" s="302"/>
-      <c r="D202" s="287" t="s">
+      <c r="B202" s="294"/>
+      <c r="C202" s="300"/>
+      <c r="D202" s="305" t="s">
         <v>68</v>
       </c>
       <c r="E202" s="153"/>
@@ -24660,9 +24660,9 @@
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="300"/>
-      <c r="C203" s="302"/>
-      <c r="D203" s="289"/>
+      <c r="B203" s="294"/>
+      <c r="C203" s="300"/>
+      <c r="D203" s="307"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
@@ -24676,9 +24676,9 @@
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="300"/>
-      <c r="C204" s="302"/>
-      <c r="D204" s="287" t="s">
+      <c r="B204" s="294"/>
+      <c r="C204" s="300"/>
+      <c r="D204" s="305" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="153"/>
@@ -24694,9 +24694,9 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="300"/>
-      <c r="C205" s="302"/>
-      <c r="D205" s="288"/>
+      <c r="B205" s="294"/>
+      <c r="C205" s="300"/>
+      <c r="D205" s="306"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
@@ -24712,9 +24712,9 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="300"/>
-      <c r="C206" s="302"/>
-      <c r="D206" s="288"/>
+      <c r="B206" s="294"/>
+      <c r="C206" s="300"/>
+      <c r="D206" s="306"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
@@ -24728,9 +24728,9 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="300"/>
-      <c r="C207" s="302"/>
-      <c r="D207" s="288"/>
+      <c r="B207" s="294"/>
+      <c r="C207" s="300"/>
+      <c r="D207" s="306"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
@@ -24744,9 +24744,9 @@
       <c r="K207" s="158"/>
     </row>
     <row r="208" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B208" s="300"/>
-      <c r="C208" s="302"/>
-      <c r="D208" s="288"/>
+      <c r="B208" s="294"/>
+      <c r="C208" s="300"/>
+      <c r="D208" s="306"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
@@ -24760,9 +24760,9 @@
       <c r="K208" s="158"/>
     </row>
     <row r="209" spans="2:11" ht="30" customHeight="1">
-      <c r="B209" s="300"/>
-      <c r="C209" s="303"/>
-      <c r="D209" s="289"/>
+      <c r="B209" s="294"/>
+      <c r="C209" s="301"/>
+      <c r="D209" s="307"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
@@ -24778,11 +24778,11 @@
       <c r="K209" s="224"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="300"/>
-      <c r="C210" s="301" t="s">
+      <c r="B210" s="294"/>
+      <c r="C210" s="299" t="s">
         <v>112</v>
       </c>
-      <c r="D210" s="287" t="s">
+      <c r="D210" s="305" t="s">
         <v>1452</v>
       </c>
       <c r="E210" s="153"/>
@@ -24796,9 +24796,9 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="300"/>
-      <c r="C211" s="302"/>
-      <c r="D211" s="288"/>
+      <c r="B211" s="294"/>
+      <c r="C211" s="300"/>
+      <c r="D211" s="306"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
@@ -24812,9 +24812,9 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="300"/>
-      <c r="C212" s="302"/>
-      <c r="D212" s="288"/>
+      <c r="B212" s="294"/>
+      <c r="C212" s="300"/>
+      <c r="D212" s="306"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
@@ -24826,9 +24826,9 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="300"/>
-      <c r="C213" s="302"/>
-      <c r="D213" s="288"/>
+      <c r="B213" s="294"/>
+      <c r="C213" s="300"/>
+      <c r="D213" s="306"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
       <c r="G213" s="155" t="s">
@@ -24840,9 +24840,9 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="300"/>
-      <c r="C214" s="302"/>
-      <c r="D214" s="288"/>
+      <c r="B214" s="294"/>
+      <c r="C214" s="300"/>
+      <c r="D214" s="306"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="225" t="s">
@@ -24854,9 +24854,9 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="300"/>
-      <c r="C215" s="302"/>
-      <c r="D215" s="288"/>
+      <c r="B215" s="294"/>
+      <c r="C215" s="300"/>
+      <c r="D215" s="306"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="225" t="s">
@@ -24868,9 +24868,9 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="300"/>
-      <c r="C216" s="302"/>
-      <c r="D216" s="288"/>
+      <c r="B216" s="294"/>
+      <c r="C216" s="300"/>
+      <c r="D216" s="306"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
       <c r="G216" s="225" t="s">
@@ -24882,9 +24882,9 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="300"/>
-      <c r="C217" s="302"/>
-      <c r="D217" s="288"/>
+      <c r="B217" s="294"/>
+      <c r="C217" s="300"/>
+      <c r="D217" s="306"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
@@ -24896,9 +24896,9 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="300"/>
-      <c r="C218" s="302"/>
-      <c r="D218" s="288"/>
+      <c r="B218" s="294"/>
+      <c r="C218" s="300"/>
+      <c r="D218" s="306"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
@@ -24910,9 +24910,9 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="300"/>
-      <c r="C219" s="302"/>
-      <c r="D219" s="288"/>
+      <c r="B219" s="294"/>
+      <c r="C219" s="300"/>
+      <c r="D219" s="306"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
@@ -24924,9 +24924,9 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="300"/>
-      <c r="C220" s="302"/>
-      <c r="D220" s="288"/>
+      <c r="B220" s="294"/>
+      <c r="C220" s="300"/>
+      <c r="D220" s="306"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
@@ -24938,9 +24938,9 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="300"/>
-      <c r="C221" s="302"/>
-      <c r="D221" s="288"/>
+      <c r="B221" s="294"/>
+      <c r="C221" s="300"/>
+      <c r="D221" s="306"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
@@ -24952,9 +24952,9 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="300"/>
-      <c r="C222" s="302"/>
-      <c r="D222" s="288"/>
+      <c r="B222" s="294"/>
+      <c r="C222" s="300"/>
+      <c r="D222" s="306"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
@@ -24966,9 +24966,9 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="300"/>
-      <c r="C223" s="302"/>
-      <c r="D223" s="288"/>
+      <c r="B223" s="294"/>
+      <c r="C223" s="300"/>
+      <c r="D223" s="306"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
@@ -24980,9 +24980,9 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="300"/>
-      <c r="C224" s="302"/>
-      <c r="D224" s="288"/>
+      <c r="B224" s="294"/>
+      <c r="C224" s="300"/>
+      <c r="D224" s="306"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
@@ -24994,9 +24994,9 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="300"/>
-      <c r="C225" s="302"/>
-      <c r="D225" s="288"/>
+      <c r="B225" s="294"/>
+      <c r="C225" s="300"/>
+      <c r="D225" s="306"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
@@ -25008,9 +25008,9 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="300"/>
-      <c r="C226" s="302"/>
-      <c r="D226" s="288"/>
+      <c r="B226" s="294"/>
+      <c r="C226" s="300"/>
+      <c r="D226" s="306"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
@@ -25022,9 +25022,9 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="300"/>
-      <c r="C227" s="302"/>
-      <c r="D227" s="288"/>
+      <c r="B227" s="294"/>
+      <c r="C227" s="300"/>
+      <c r="D227" s="306"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
@@ -25036,9 +25036,9 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="300"/>
-      <c r="C228" s="302"/>
-      <c r="D228" s="288"/>
+      <c r="B228" s="294"/>
+      <c r="C228" s="300"/>
+      <c r="D228" s="306"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
@@ -25050,9 +25050,9 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="300"/>
-      <c r="C229" s="302"/>
-      <c r="D229" s="288"/>
+      <c r="B229" s="294"/>
+      <c r="C229" s="300"/>
+      <c r="D229" s="306"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
@@ -25064,9 +25064,9 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="300"/>
-      <c r="C230" s="302"/>
-      <c r="D230" s="288"/>
+      <c r="B230" s="294"/>
+      <c r="C230" s="300"/>
+      <c r="D230" s="306"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
@@ -25078,9 +25078,9 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="300"/>
-      <c r="C231" s="302"/>
-      <c r="D231" s="288"/>
+      <c r="B231" s="294"/>
+      <c r="C231" s="300"/>
+      <c r="D231" s="306"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
@@ -25092,9 +25092,9 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="300"/>
-      <c r="C232" s="302"/>
-      <c r="D232" s="288"/>
+      <c r="B232" s="294"/>
+      <c r="C232" s="300"/>
+      <c r="D232" s="306"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
@@ -25106,9 +25106,9 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="300"/>
-      <c r="C233" s="302"/>
-      <c r="D233" s="288"/>
+      <c r="B233" s="294"/>
+      <c r="C233" s="300"/>
+      <c r="D233" s="306"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
@@ -25120,9 +25120,9 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="300"/>
-      <c r="C234" s="302"/>
-      <c r="D234" s="288"/>
+      <c r="B234" s="294"/>
+      <c r="C234" s="300"/>
+      <c r="D234" s="306"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
@@ -25134,9 +25134,9 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="300"/>
-      <c r="C235" s="302"/>
-      <c r="D235" s="288"/>
+      <c r="B235" s="294"/>
+      <c r="C235" s="300"/>
+      <c r="D235" s="306"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
@@ -25148,9 +25148,9 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="300"/>
-      <c r="C236" s="302"/>
-      <c r="D236" s="288"/>
+      <c r="B236" s="294"/>
+      <c r="C236" s="300"/>
+      <c r="D236" s="306"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
@@ -25162,9 +25162,9 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="300"/>
-      <c r="C237" s="302"/>
-      <c r="D237" s="288"/>
+      <c r="B237" s="294"/>
+      <c r="C237" s="300"/>
+      <c r="D237" s="306"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
@@ -25176,9 +25176,9 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="300"/>
-      <c r="C238" s="302"/>
-      <c r="D238" s="288"/>
+      <c r="B238" s="294"/>
+      <c r="C238" s="300"/>
+      <c r="D238" s="306"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
@@ -25190,9 +25190,9 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="300"/>
-      <c r="C239" s="302"/>
-      <c r="D239" s="288"/>
+      <c r="B239" s="294"/>
+      <c r="C239" s="300"/>
+      <c r="D239" s="306"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
@@ -25204,9 +25204,9 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="300"/>
-      <c r="C240" s="303"/>
-      <c r="D240" s="289"/>
+      <c r="B240" s="294"/>
+      <c r="C240" s="301"/>
+      <c r="D240" s="307"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
@@ -25218,11 +25218,11 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="300"/>
-      <c r="C241" s="301" t="s">
+      <c r="B241" s="294"/>
+      <c r="C241" s="299" t="s">
         <v>1470</v>
       </c>
-      <c r="D241" s="287" t="s">
+      <c r="D241" s="305" t="s">
         <v>133</v>
       </c>
       <c r="E241" s="153"/>
@@ -25236,9 +25236,9 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="300"/>
-      <c r="C242" s="302"/>
-      <c r="D242" s="288"/>
+      <c r="B242" s="294"/>
+      <c r="C242" s="300"/>
+      <c r="D242" s="306"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
@@ -25250,9 +25250,9 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="300"/>
-      <c r="C243" s="302"/>
-      <c r="D243" s="288"/>
+      <c r="B243" s="294"/>
+      <c r="C243" s="300"/>
+      <c r="D243" s="306"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
@@ -25266,9 +25266,9 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="300"/>
-      <c r="C244" s="302"/>
-      <c r="D244" s="288"/>
+      <c r="B244" s="294"/>
+      <c r="C244" s="300"/>
+      <c r="D244" s="306"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
@@ -25280,9 +25280,9 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="300"/>
-      <c r="C245" s="302"/>
-      <c r="D245" s="288"/>
+      <c r="B245" s="294"/>
+      <c r="C245" s="300"/>
+      <c r="D245" s="306"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
@@ -25294,9 +25294,9 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="300"/>
-      <c r="C246" s="302"/>
-      <c r="D246" s="288"/>
+      <c r="B246" s="294"/>
+      <c r="C246" s="300"/>
+      <c r="D246" s="306"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
@@ -25308,9 +25308,9 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="300"/>
-      <c r="C247" s="302"/>
-      <c r="D247" s="288"/>
+      <c r="B247" s="294"/>
+      <c r="C247" s="300"/>
+      <c r="D247" s="306"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
@@ -25322,9 +25322,9 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="300"/>
-      <c r="C248" s="302"/>
-      <c r="D248" s="288"/>
+      <c r="B248" s="294"/>
+      <c r="C248" s="300"/>
+      <c r="D248" s="306"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
@@ -25336,9 +25336,9 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="300"/>
-      <c r="C249" s="302"/>
-      <c r="D249" s="288"/>
+      <c r="B249" s="294"/>
+      <c r="C249" s="300"/>
+      <c r="D249" s="306"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
@@ -25350,9 +25350,9 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="300"/>
-      <c r="C250" s="302"/>
-      <c r="D250" s="288"/>
+      <c r="B250" s="294"/>
+      <c r="C250" s="300"/>
+      <c r="D250" s="306"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
@@ -25364,9 +25364,9 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="300"/>
-      <c r="C251" s="302"/>
-      <c r="D251" s="288"/>
+      <c r="B251" s="294"/>
+      <c r="C251" s="300"/>
+      <c r="D251" s="306"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
@@ -25378,9 +25378,9 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="300"/>
-      <c r="C252" s="302"/>
-      <c r="D252" s="288"/>
+      <c r="B252" s="294"/>
+      <c r="C252" s="300"/>
+      <c r="D252" s="306"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
@@ -25392,9 +25392,9 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="300"/>
-      <c r="C253" s="302"/>
-      <c r="D253" s="288"/>
+      <c r="B253" s="294"/>
+      <c r="C253" s="300"/>
+      <c r="D253" s="306"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
@@ -25406,9 +25406,9 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="300"/>
-      <c r="C254" s="302"/>
-      <c r="D254" s="288"/>
+      <c r="B254" s="294"/>
+      <c r="C254" s="300"/>
+      <c r="D254" s="306"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
@@ -25420,9 +25420,9 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="300"/>
-      <c r="C255" s="302"/>
-      <c r="D255" s="288"/>
+      <c r="B255" s="294"/>
+      <c r="C255" s="300"/>
+      <c r="D255" s="306"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
@@ -25434,9 +25434,9 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="300"/>
-      <c r="C256" s="302"/>
-      <c r="D256" s="288"/>
+      <c r="B256" s="294"/>
+      <c r="C256" s="300"/>
+      <c r="D256" s="306"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
@@ -25448,9 +25448,9 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="300"/>
-      <c r="C257" s="303"/>
-      <c r="D257" s="289"/>
+      <c r="B257" s="294"/>
+      <c r="C257" s="301"/>
+      <c r="D257" s="307"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
@@ -25462,11 +25462,11 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="300"/>
-      <c r="C258" s="296" t="s">
+      <c r="B258" s="294"/>
+      <c r="C258" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="D258" s="287" t="s">
+      <c r="D258" s="305" t="s">
         <v>1476</v>
       </c>
       <c r="E258" s="153"/>
@@ -25480,9 +25480,9 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="300"/>
-      <c r="C259" s="297"/>
-      <c r="D259" s="288"/>
+      <c r="B259" s="294"/>
+      <c r="C259" s="310"/>
+      <c r="D259" s="306"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
@@ -25494,9 +25494,9 @@
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="300"/>
-      <c r="C260" s="297"/>
-      <c r="D260" s="288"/>
+      <c r="B260" s="294"/>
+      <c r="C260" s="310"/>
+      <c r="D260" s="306"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
@@ -25508,9 +25508,9 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="300"/>
-      <c r="C261" s="297"/>
-      <c r="D261" s="288"/>
+      <c r="B261" s="294"/>
+      <c r="C261" s="310"/>
+      <c r="D261" s="306"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
@@ -25522,9 +25522,9 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="300"/>
-      <c r="C262" s="297"/>
-      <c r="D262" s="288"/>
+      <c r="B262" s="294"/>
+      <c r="C262" s="310"/>
+      <c r="D262" s="306"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
@@ -25536,9 +25536,9 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="300"/>
-      <c r="C263" s="297"/>
-      <c r="D263" s="288"/>
+      <c r="B263" s="294"/>
+      <c r="C263" s="310"/>
+      <c r="D263" s="306"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
@@ -25552,9 +25552,9 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="300"/>
-      <c r="C264" s="297"/>
-      <c r="D264" s="288"/>
+      <c r="B264" s="294"/>
+      <c r="C264" s="310"/>
+      <c r="D264" s="306"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
@@ -25566,9 +25566,9 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="300"/>
-      <c r="C265" s="297"/>
-      <c r="D265" s="288"/>
+      <c r="B265" s="294"/>
+      <c r="C265" s="310"/>
+      <c r="D265" s="306"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
@@ -25580,9 +25580,9 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="300"/>
-      <c r="C266" s="297"/>
-      <c r="D266" s="288"/>
+      <c r="B266" s="294"/>
+      <c r="C266" s="310"/>
+      <c r="D266" s="306"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
@@ -25594,9 +25594,9 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="300"/>
-      <c r="C267" s="297"/>
-      <c r="D267" s="288"/>
+      <c r="B267" s="294"/>
+      <c r="C267" s="310"/>
+      <c r="D267" s="306"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
@@ -25608,9 +25608,9 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="300"/>
-      <c r="C268" s="297"/>
-      <c r="D268" s="288"/>
+      <c r="B268" s="294"/>
+      <c r="C268" s="310"/>
+      <c r="D268" s="306"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
@@ -25622,9 +25622,9 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="300"/>
-      <c r="C269" s="297"/>
-      <c r="D269" s="288"/>
+      <c r="B269" s="294"/>
+      <c r="C269" s="310"/>
+      <c r="D269" s="306"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
@@ -25636,9 +25636,9 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="300"/>
-      <c r="C270" s="297"/>
-      <c r="D270" s="288"/>
+      <c r="B270" s="294"/>
+      <c r="C270" s="310"/>
+      <c r="D270" s="306"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
@@ -25650,9 +25650,9 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="300"/>
-      <c r="C271" s="297"/>
-      <c r="D271" s="288"/>
+      <c r="B271" s="294"/>
+      <c r="C271" s="310"/>
+      <c r="D271" s="306"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
@@ -25664,9 +25664,9 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="300"/>
-      <c r="C272" s="297"/>
-      <c r="D272" s="288"/>
+      <c r="B272" s="294"/>
+      <c r="C272" s="310"/>
+      <c r="D272" s="306"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
@@ -25678,9 +25678,9 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="300"/>
-      <c r="C273" s="297"/>
-      <c r="D273" s="288"/>
+      <c r="B273" s="294"/>
+      <c r="C273" s="310"/>
+      <c r="D273" s="306"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
@@ -25692,9 +25692,9 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="300"/>
-      <c r="C274" s="297"/>
-      <c r="D274" s="288"/>
+      <c r="B274" s="294"/>
+      <c r="C274" s="310"/>
+      <c r="D274" s="306"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
@@ -25706,9 +25706,9 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="300"/>
-      <c r="C275" s="297"/>
-      <c r="D275" s="288"/>
+      <c r="B275" s="294"/>
+      <c r="C275" s="310"/>
+      <c r="D275" s="306"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
@@ -25720,9 +25720,9 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="300"/>
-      <c r="C276" s="297"/>
-      <c r="D276" s="288"/>
+      <c r="B276" s="294"/>
+      <c r="C276" s="310"/>
+      <c r="D276" s="306"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
@@ -25734,9 +25734,9 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="300"/>
-      <c r="C277" s="297"/>
-      <c r="D277" s="288"/>
+      <c r="B277" s="294"/>
+      <c r="C277" s="310"/>
+      <c r="D277" s="306"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
@@ -25748,9 +25748,9 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="300"/>
-      <c r="C278" s="298"/>
-      <c r="D278" s="289"/>
+      <c r="B278" s="294"/>
+      <c r="C278" s="311"/>
+      <c r="D278" s="307"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
@@ -25762,11 +25762,11 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="300"/>
-      <c r="C279" s="296" t="s">
+      <c r="B279" s="294"/>
+      <c r="C279" s="309" t="s">
         <v>1491</v>
       </c>
-      <c r="D279" s="287" t="s">
+      <c r="D279" s="305" t="s">
         <v>1492</v>
       </c>
       <c r="E279" s="153"/>
@@ -25780,9 +25780,9 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="300"/>
-      <c r="C280" s="297"/>
-      <c r="D280" s="288"/>
+      <c r="B280" s="294"/>
+      <c r="C280" s="310"/>
+      <c r="D280" s="306"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
@@ -25794,9 +25794,9 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="300"/>
-      <c r="C281" s="297"/>
-      <c r="D281" s="288"/>
+      <c r="B281" s="294"/>
+      <c r="C281" s="310"/>
+      <c r="D281" s="306"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
@@ -25808,9 +25808,9 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="300"/>
-      <c r="C282" s="297"/>
-      <c r="D282" s="288"/>
+      <c r="B282" s="294"/>
+      <c r="C282" s="310"/>
+      <c r="D282" s="306"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
@@ -25822,9 +25822,9 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="300"/>
-      <c r="C283" s="297"/>
-      <c r="D283" s="288"/>
+      <c r="B283" s="294"/>
+      <c r="C283" s="310"/>
+      <c r="D283" s="306"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
@@ -25838,9 +25838,9 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="300"/>
-      <c r="C284" s="297"/>
-      <c r="D284" s="288"/>
+      <c r="B284" s="294"/>
+      <c r="C284" s="310"/>
+      <c r="D284" s="306"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
@@ -25852,9 +25852,9 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="300"/>
-      <c r="C285" s="297"/>
-      <c r="D285" s="288"/>
+      <c r="B285" s="294"/>
+      <c r="C285" s="310"/>
+      <c r="D285" s="306"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
@@ -25866,9 +25866,9 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="300"/>
-      <c r="C286" s="297"/>
-      <c r="D286" s="288"/>
+      <c r="B286" s="294"/>
+      <c r="C286" s="310"/>
+      <c r="D286" s="306"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
@@ -25880,9 +25880,9 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="300"/>
-      <c r="C287" s="297"/>
-      <c r="D287" s="288"/>
+      <c r="B287" s="294"/>
+      <c r="C287" s="310"/>
+      <c r="D287" s="306"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
@@ -25894,9 +25894,9 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="300"/>
-      <c r="C288" s="297"/>
-      <c r="D288" s="288"/>
+      <c r="B288" s="294"/>
+      <c r="C288" s="310"/>
+      <c r="D288" s="306"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
@@ -25908,9 +25908,9 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="300"/>
-      <c r="C289" s="297"/>
-      <c r="D289" s="288"/>
+      <c r="B289" s="294"/>
+      <c r="C289" s="310"/>
+      <c r="D289" s="306"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
@@ -25922,9 +25922,9 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="300"/>
-      <c r="C290" s="297"/>
-      <c r="D290" s="288"/>
+      <c r="B290" s="294"/>
+      <c r="C290" s="310"/>
+      <c r="D290" s="306"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
@@ -25936,9 +25936,9 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="300"/>
-      <c r="C291" s="297"/>
-      <c r="D291" s="288"/>
+      <c r="B291" s="294"/>
+      <c r="C291" s="310"/>
+      <c r="D291" s="306"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
@@ -25950,9 +25950,9 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="300"/>
-      <c r="C292" s="297"/>
-      <c r="D292" s="288"/>
+      <c r="B292" s="294"/>
+      <c r="C292" s="310"/>
+      <c r="D292" s="306"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
@@ -25964,9 +25964,9 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="300"/>
-      <c r="C293" s="297"/>
-      <c r="D293" s="288"/>
+      <c r="B293" s="294"/>
+      <c r="C293" s="310"/>
+      <c r="D293" s="306"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
@@ -25978,9 +25978,9 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="300"/>
-      <c r="C294" s="297"/>
-      <c r="D294" s="288"/>
+      <c r="B294" s="294"/>
+      <c r="C294" s="310"/>
+      <c r="D294" s="306"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
@@ -25992,9 +25992,9 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="300"/>
-      <c r="C295" s="297"/>
-      <c r="D295" s="288"/>
+      <c r="B295" s="294"/>
+      <c r="C295" s="310"/>
+      <c r="D295" s="306"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
@@ -26006,9 +26006,9 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="300"/>
-      <c r="C296" s="297"/>
-      <c r="D296" s="288"/>
+      <c r="B296" s="294"/>
+      <c r="C296" s="310"/>
+      <c r="D296" s="306"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
@@ -26020,9 +26020,9 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B297" s="300"/>
-      <c r="C297" s="297"/>
-      <c r="D297" s="288"/>
+      <c r="B297" s="294"/>
+      <c r="C297" s="310"/>
+      <c r="D297" s="306"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
       <c r="G297" s="155" t="s">
@@ -26034,10 +26034,10 @@
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="310" t="s">
+      <c r="A298" s="290" t="s">
         <v>1493</v>
       </c>
-      <c r="B298" s="310"/>
+      <c r="B298" s="290"/>
       <c r="C298" s="226"/>
       <c r="D298" s="165" t="s">
         <v>2957</v>
@@ -26053,8 +26053,8 @@
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="310"/>
-      <c r="B299" s="310"/>
+      <c r="A299" s="290"/>
+      <c r="B299" s="290"/>
       <c r="C299" s="226"/>
       <c r="D299" s="166" t="s">
         <v>2959</v>
@@ -26070,8 +26070,8 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="310"/>
-      <c r="B300" s="310"/>
+      <c r="A300" s="290"/>
+      <c r="B300" s="290"/>
       <c r="C300" s="226" t="s">
         <v>2956</v>
       </c>
@@ -26085,12 +26085,12 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="310"/>
-      <c r="B301" s="310"/>
-      <c r="C301" s="314" t="s">
+      <c r="A301" s="290"/>
+      <c r="B301" s="290"/>
+      <c r="C301" s="302" t="s">
         <v>132</v>
       </c>
-      <c r="D301" s="287" t="s">
+      <c r="D301" s="305" t="s">
         <v>2160</v>
       </c>
       <c r="E301" s="153"/>
@@ -26104,10 +26104,10 @@
       <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="310"/>
-      <c r="B302" s="310"/>
-      <c r="C302" s="314"/>
-      <c r="D302" s="288"/>
+      <c r="A302" s="290"/>
+      <c r="B302" s="290"/>
+      <c r="C302" s="302"/>
+      <c r="D302" s="306"/>
       <c r="E302" s="153"/>
       <c r="F302" s="153"/>
       <c r="G302" s="155" t="s">
@@ -26119,10 +26119,10 @@
       <c r="K302" s="158"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="310"/>
-      <c r="B303" s="310"/>
-      <c r="C303" s="314"/>
-      <c r="D303" s="288"/>
+      <c r="A303" s="290"/>
+      <c r="B303" s="290"/>
+      <c r="C303" s="302"/>
+      <c r="D303" s="306"/>
       <c r="E303" s="153"/>
       <c r="F303" s="153"/>
       <c r="G303" s="155" t="s">
@@ -26134,10 +26134,10 @@
       <c r="K303" s="158"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="310"/>
-      <c r="B304" s="310"/>
-      <c r="C304" s="314"/>
-      <c r="D304" s="288"/>
+      <c r="A304" s="290"/>
+      <c r="B304" s="290"/>
+      <c r="C304" s="302"/>
+      <c r="D304" s="306"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="227" t="s">
@@ -26149,10 +26149,10 @@
       <c r="K304" s="229"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="310"/>
-      <c r="B305" s="310"/>
-      <c r="C305" s="314"/>
-      <c r="D305" s="288"/>
+      <c r="A305" s="290"/>
+      <c r="B305" s="290"/>
+      <c r="C305" s="302"/>
+      <c r="D305" s="306"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="227" t="s">
@@ -26164,10 +26164,10 @@
       <c r="K305" s="229"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="310"/>
-      <c r="B306" s="310"/>
-      <c r="C306" s="314"/>
-      <c r="D306" s="288"/>
+      <c r="A306" s="290"/>
+      <c r="B306" s="290"/>
+      <c r="C306" s="302"/>
+      <c r="D306" s="306"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="227" t="s">
@@ -26179,10 +26179,10 @@
       <c r="K306" s="229"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="310"/>
-      <c r="B307" s="310"/>
-      <c r="C307" s="314"/>
-      <c r="D307" s="288"/>
+      <c r="A307" s="290"/>
+      <c r="B307" s="290"/>
+      <c r="C307" s="302"/>
+      <c r="D307" s="306"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="227" t="s">
@@ -26194,10 +26194,10 @@
       <c r="K307" s="229"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="310"/>
-      <c r="B308" s="310"/>
-      <c r="C308" s="314"/>
-      <c r="D308" s="288"/>
+      <c r="A308" s="290"/>
+      <c r="B308" s="290"/>
+      <c r="C308" s="302"/>
+      <c r="D308" s="306"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="227" t="s">
@@ -26209,10 +26209,10 @@
       <c r="K308" s="229"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="310"/>
-      <c r="B309" s="310"/>
-      <c r="C309" s="314"/>
-      <c r="D309" s="288"/>
+      <c r="A309" s="290"/>
+      <c r="B309" s="290"/>
+      <c r="C309" s="302"/>
+      <c r="D309" s="306"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
       <c r="G309" s="227" t="s">
@@ -26224,10 +26224,10 @@
       <c r="K309" s="229"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="310"/>
-      <c r="B310" s="310"/>
-      <c r="C310" s="314"/>
-      <c r="D310" s="288"/>
+      <c r="A310" s="290"/>
+      <c r="B310" s="290"/>
+      <c r="C310" s="302"/>
+      <c r="D310" s="306"/>
       <c r="E310" s="152"/>
       <c r="F310" s="152"/>
       <c r="G310" s="227" t="s">
@@ -26239,10 +26239,10 @@
       <c r="K310" s="229"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="310"/>
-      <c r="B311" s="310"/>
-      <c r="C311" s="314"/>
-      <c r="D311" s="289"/>
+      <c r="A311" s="290"/>
+      <c r="B311" s="290"/>
+      <c r="C311" s="302"/>
+      <c r="D311" s="307"/>
       <c r="E311" s="152"/>
       <c r="F311" s="152"/>
       <c r="G311" s="227" t="s">
@@ -26254,9 +26254,9 @@
       <c r="K311" s="229"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="310"/>
-      <c r="B312" s="310"/>
-      <c r="C312" s="314"/>
+      <c r="A312" s="290"/>
+      <c r="B312" s="290"/>
+      <c r="C312" s="302"/>
       <c r="D312" s="230" t="s">
         <v>2172</v>
       </c>
@@ -26269,10 +26269,10 @@
       <c r="K312" s="229"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="310"/>
-      <c r="B313" s="310"/>
-      <c r="C313" s="314"/>
-      <c r="D313" s="290" t="s">
+      <c r="A313" s="290"/>
+      <c r="B313" s="290"/>
+      <c r="C313" s="302"/>
+      <c r="D313" s="291" t="s">
         <v>2187</v>
       </c>
       <c r="E313" s="152"/>
@@ -26288,10 +26288,10 @@
       <c r="K313" s="229"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="310"/>
-      <c r="B314" s="310"/>
-      <c r="C314" s="314"/>
-      <c r="D314" s="291"/>
+      <c r="A314" s="290"/>
+      <c r="B314" s="290"/>
+      <c r="C314" s="302"/>
+      <c r="D314" s="319"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="227" t="s">
@@ -26303,10 +26303,10 @@
       <c r="K314" s="229"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="310"/>
-      <c r="B315" s="310"/>
-      <c r="C315" s="314"/>
-      <c r="D315" s="291"/>
+      <c r="A315" s="290"/>
+      <c r="B315" s="290"/>
+      <c r="C315" s="302"/>
+      <c r="D315" s="319"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="227" t="s">
@@ -26320,10 +26320,10 @@
       <c r="K315" s="229"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="310"/>
-      <c r="B316" s="310"/>
-      <c r="C316" s="314"/>
-      <c r="D316" s="291"/>
+      <c r="A316" s="290"/>
+      <c r="B316" s="290"/>
+      <c r="C316" s="302"/>
+      <c r="D316" s="319"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="227" t="s">
@@ -26335,10 +26335,10 @@
       <c r="K316" s="229"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="310"/>
-      <c r="B317" s="310"/>
-      <c r="C317" s="314"/>
-      <c r="D317" s="291"/>
+      <c r="A317" s="290"/>
+      <c r="B317" s="290"/>
+      <c r="C317" s="302"/>
+      <c r="D317" s="319"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="227" t="s">
@@ -26352,10 +26352,10 @@
       <c r="K317" s="229"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="310"/>
-      <c r="B318" s="310"/>
-      <c r="C318" s="314"/>
-      <c r="D318" s="291"/>
+      <c r="A318" s="290"/>
+      <c r="B318" s="290"/>
+      <c r="C318" s="302"/>
+      <c r="D318" s="319"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="227" t="s">
@@ -26367,10 +26367,10 @@
       <c r="K318" s="229"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="310"/>
-      <c r="B319" s="310"/>
-      <c r="C319" s="314"/>
-      <c r="D319" s="291"/>
+      <c r="A319" s="290"/>
+      <c r="B319" s="290"/>
+      <c r="C319" s="302"/>
+      <c r="D319" s="319"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
       <c r="G319" s="227" t="s">
@@ -26384,10 +26384,10 @@
       <c r="K319" s="229"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="310"/>
-      <c r="B320" s="310"/>
-      <c r="C320" s="314"/>
-      <c r="D320" s="291"/>
+      <c r="A320" s="290"/>
+      <c r="B320" s="290"/>
+      <c r="C320" s="302"/>
+      <c r="D320" s="319"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="227" t="s">
@@ -26399,10 +26399,10 @@
       <c r="K320" s="229"/>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="310"/>
-      <c r="B321" s="310"/>
-      <c r="C321" s="314"/>
-      <c r="D321" s="291"/>
+      <c r="A321" s="290"/>
+      <c r="B321" s="290"/>
+      <c r="C321" s="302"/>
+      <c r="D321" s="319"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
       <c r="G321" s="227" t="s">
@@ -26416,10 +26416,10 @@
       <c r="K321" s="229"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="310"/>
-      <c r="B322" s="310"/>
-      <c r="C322" s="314"/>
-      <c r="D322" s="291"/>
+      <c r="A322" s="290"/>
+      <c r="B322" s="290"/>
+      <c r="C322" s="302"/>
+      <c r="D322" s="319"/>
       <c r="E322" s="152"/>
       <c r="F322" s="152"/>
       <c r="G322" s="232" t="s">
@@ -26435,9 +26435,9 @@
       </c>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="310"/>
-      <c r="B323" s="310"/>
-      <c r="C323" s="314"/>
+      <c r="A323" s="290"/>
+      <c r="B323" s="290"/>
+      <c r="C323" s="302"/>
       <c r="D323" s="292"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
@@ -26452,10 +26452,10 @@
       <c r="K323" s="229"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="310"/>
-      <c r="B324" s="310"/>
-      <c r="C324" s="314"/>
-      <c r="D324" s="293" t="s">
+      <c r="A324" s="290"/>
+      <c r="B324" s="290"/>
+      <c r="C324" s="302"/>
+      <c r="D324" s="320" t="s">
         <v>2188</v>
       </c>
       <c r="E324" s="152"/>
@@ -26469,10 +26469,10 @@
       <c r="K324" s="229"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="310"/>
-      <c r="B325" s="310"/>
-      <c r="C325" s="314"/>
-      <c r="D325" s="294"/>
+      <c r="A325" s="290"/>
+      <c r="B325" s="290"/>
+      <c r="C325" s="302"/>
+      <c r="D325" s="321"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="227" t="s">
@@ -26486,10 +26486,10 @@
       <c r="K325" s="229"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="310"/>
-      <c r="B326" s="310"/>
-      <c r="C326" s="314"/>
-      <c r="D326" s="294"/>
+      <c r="A326" s="290"/>
+      <c r="B326" s="290"/>
+      <c r="C326" s="302"/>
+      <c r="D326" s="321"/>
       <c r="E326" s="152"/>
       <c r="F326" s="152"/>
       <c r="G326" s="227" t="s">
@@ -26503,10 +26503,10 @@
       <c r="K326" s="229"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="310"/>
-      <c r="B327" s="310"/>
-      <c r="C327" s="314"/>
-      <c r="D327" s="295"/>
+      <c r="A327" s="290"/>
+      <c r="B327" s="290"/>
+      <c r="C327" s="302"/>
+      <c r="D327" s="322"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="227" t="s">
@@ -26520,10 +26520,10 @@
       <c r="K327" s="229"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="310"/>
-      <c r="B328" s="310"/>
-      <c r="C328" s="314"/>
-      <c r="D328" s="293" t="s">
+      <c r="A328" s="290"/>
+      <c r="B328" s="290"/>
+      <c r="C328" s="302"/>
+      <c r="D328" s="320" t="s">
         <v>2189</v>
       </c>
       <c r="E328" s="152"/>
@@ -26539,10 +26539,10 @@
       <c r="K328" s="229"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="310"/>
-      <c r="B329" s="310"/>
-      <c r="C329" s="314"/>
-      <c r="D329" s="294"/>
+      <c r="A329" s="290"/>
+      <c r="B329" s="290"/>
+      <c r="C329" s="302"/>
+      <c r="D329" s="321"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
       <c r="G329" s="227" t="s">
@@ -26556,10 +26556,10 @@
       <c r="K329" s="229"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="310"/>
-      <c r="B330" s="310"/>
-      <c r="C330" s="314"/>
-      <c r="D330" s="294"/>
+      <c r="A330" s="290"/>
+      <c r="B330" s="290"/>
+      <c r="C330" s="302"/>
+      <c r="D330" s="321"/>
       <c r="E330" s="152"/>
       <c r="F330" s="152"/>
       <c r="G330" s="227" t="s">
@@ -26573,10 +26573,10 @@
       <c r="K330" s="229"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="310"/>
-      <c r="B331" s="310"/>
-      <c r="C331" s="314"/>
-      <c r="D331" s="295"/>
+      <c r="A331" s="290"/>
+      <c r="B331" s="290"/>
+      <c r="C331" s="302"/>
+      <c r="D331" s="322"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
       <c r="G331" s="227" t="s">
@@ -26590,10 +26590,10 @@
       <c r="K331" s="229"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="310"/>
-      <c r="B332" s="310"/>
-      <c r="C332" s="314"/>
-      <c r="D332" s="290" t="s">
+      <c r="A332" s="290"/>
+      <c r="B332" s="290"/>
+      <c r="C332" s="302"/>
+      <c r="D332" s="291" t="s">
         <v>2194</v>
       </c>
       <c r="E332" s="152"/>
@@ -26607,9 +26607,9 @@
       <c r="K332" s="229"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="310"/>
-      <c r="B333" s="310"/>
-      <c r="C333" s="314"/>
+      <c r="A333" s="290"/>
+      <c r="B333" s="290"/>
+      <c r="C333" s="302"/>
       <c r="D333" s="292"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
@@ -26624,10 +26624,10 @@
       <c r="K333" s="229"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="310"/>
-      <c r="B334" s="310"/>
-      <c r="C334" s="314"/>
-      <c r="D334" s="293" t="s">
+      <c r="A334" s="290"/>
+      <c r="B334" s="290"/>
+      <c r="C334" s="302"/>
+      <c r="D334" s="320" t="s">
         <v>2195</v>
       </c>
       <c r="E334" s="152"/>
@@ -26641,10 +26641,10 @@
       <c r="K334" s="229"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="310"/>
-      <c r="B335" s="310"/>
-      <c r="C335" s="314"/>
-      <c r="D335" s="294"/>
+      <c r="A335" s="290"/>
+      <c r="B335" s="290"/>
+      <c r="C335" s="302"/>
+      <c r="D335" s="321"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="227" t="s">
@@ -26656,10 +26656,10 @@
       <c r="K335" s="229"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="310"/>
-      <c r="B336" s="310"/>
-      <c r="C336" s="314"/>
-      <c r="D336" s="294"/>
+      <c r="A336" s="290"/>
+      <c r="B336" s="290"/>
+      <c r="C336" s="302"/>
+      <c r="D336" s="321"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="227" t="s">
@@ -26671,10 +26671,10 @@
       <c r="K336" s="229"/>
     </row>
     <row r="337" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A337" s="310"/>
-      <c r="B337" s="310"/>
-      <c r="C337" s="314"/>
-      <c r="D337" s="294"/>
+      <c r="A337" s="290"/>
+      <c r="B337" s="290"/>
+      <c r="C337" s="302"/>
+      <c r="D337" s="321"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
       <c r="G337" s="227" t="s">
@@ -26686,10 +26686,10 @@
       <c r="K337" s="229"/>
     </row>
     <row r="338" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A338" s="310"/>
-      <c r="B338" s="310"/>
-      <c r="C338" s="314"/>
-      <c r="D338" s="294"/>
+      <c r="A338" s="290"/>
+      <c r="B338" s="290"/>
+      <c r="C338" s="302"/>
+      <c r="D338" s="321"/>
       <c r="E338" s="152"/>
       <c r="F338" s="152"/>
       <c r="G338" s="227" t="s">
@@ -26701,10 +26701,10 @@
       <c r="K338" s="229"/>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="310"/>
-      <c r="B339" s="310"/>
-      <c r="C339" s="314"/>
-      <c r="D339" s="295"/>
+      <c r="A339" s="290"/>
+      <c r="B339" s="290"/>
+      <c r="C339" s="302"/>
+      <c r="D339" s="322"/>
       <c r="E339" s="152"/>
       <c r="F339" s="152"/>
       <c r="G339" s="227" t="s">
@@ -26716,9 +26716,9 @@
       <c r="K339" s="229"/>
     </row>
     <row r="340" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A340" s="310"/>
-      <c r="B340" s="310"/>
-      <c r="C340" s="314"/>
+      <c r="A340" s="290"/>
+      <c r="B340" s="290"/>
+      <c r="C340" s="302"/>
       <c r="D340" s="235" t="s">
         <v>2206</v>
       </c>
@@ -26737,9 +26737,9 @@
       </c>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="310"/>
-      <c r="B341" s="310"/>
-      <c r="C341" s="314"/>
+      <c r="A341" s="290"/>
+      <c r="B341" s="290"/>
+      <c r="C341" s="302"/>
       <c r="D341" s="236" t="s">
         <v>2207</v>
       </c>
@@ -26752,9 +26752,9 @@
       <c r="K341" s="229"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="310"/>
-      <c r="B342" s="310"/>
-      <c r="C342" s="314"/>
+      <c r="A342" s="290"/>
+      <c r="B342" s="290"/>
+      <c r="C342" s="302"/>
       <c r="D342" s="237" t="s">
         <v>2223</v>
       </c>
@@ -26769,9 +26769,9 @@
       <c r="K342" s="229"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="310"/>
-      <c r="B343" s="310"/>
-      <c r="C343" s="314"/>
+      <c r="A343" s="290"/>
+      <c r="B343" s="290"/>
+      <c r="C343" s="302"/>
       <c r="D343" s="230"/>
       <c r="E343" s="152"/>
       <c r="F343" s="152"/>
@@ -26786,9 +26786,9 @@
       <c r="K343" s="229"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="310"/>
-      <c r="B344" s="310"/>
-      <c r="C344" s="314"/>
+      <c r="A344" s="290"/>
+      <c r="B344" s="290"/>
+      <c r="C344" s="302"/>
       <c r="D344" s="230"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
@@ -26801,9 +26801,9 @@
       <c r="K344" s="229"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="310"/>
-      <c r="B345" s="310"/>
-      <c r="C345" s="314"/>
+      <c r="A345" s="290"/>
+      <c r="B345" s="290"/>
+      <c r="C345" s="302"/>
       <c r="D345" s="237" t="s">
         <v>2232</v>
       </c>
@@ -26818,9 +26818,9 @@
       <c r="K345" s="229"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="310"/>
-      <c r="B346" s="310"/>
-      <c r="C346" s="314"/>
+      <c r="A346" s="290"/>
+      <c r="B346" s="290"/>
+      <c r="C346" s="302"/>
       <c r="D346" s="230"/>
       <c r="E346" s="152"/>
       <c r="F346" s="152"/>
@@ -26835,9 +26835,9 @@
       <c r="K346" s="229"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A347" s="310"/>
-      <c r="B347" s="310"/>
-      <c r="C347" s="314"/>
+      <c r="A347" s="290"/>
+      <c r="B347" s="290"/>
+      <c r="C347" s="302"/>
       <c r="D347" s="230"/>
       <c r="E347" s="152"/>
       <c r="F347" s="152"/>
@@ -26850,9 +26850,9 @@
       <c r="K347" s="229"/>
     </row>
     <row r="348" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A348" s="310"/>
-      <c r="B348" s="310"/>
-      <c r="C348" s="314"/>
+      <c r="A348" s="290"/>
+      <c r="B348" s="290"/>
+      <c r="C348" s="302"/>
       <c r="D348" s="237" t="s">
         <v>2233</v>
       </c>
@@ -26865,9 +26865,9 @@
       <c r="K348" s="229"/>
     </row>
     <row r="349" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A349" s="310"/>
-      <c r="B349" s="310"/>
-      <c r="C349" s="314"/>
+      <c r="A349" s="290"/>
+      <c r="B349" s="290"/>
+      <c r="C349" s="302"/>
       <c r="D349" s="237" t="s">
         <v>2234</v>
       </c>
@@ -26900,6 +26900,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D301:D311"/>
+    <mergeCell ref="D313:D323"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D334:D339"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D176:D183"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="C241:C257"/>
+    <mergeCell ref="D241:D257"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="D210:D240"/>
+    <mergeCell ref="C167:C183"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="A298:B349"/>
     <mergeCell ref="D332:D333"/>
     <mergeCell ref="D78:D80"/>
@@ -26916,57 +26967,6 @@
     <mergeCell ref="C149:C166"/>
     <mergeCell ref="C184:C193"/>
     <mergeCell ref="D127:D128"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D176:D183"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="C241:C257"/>
-    <mergeCell ref="D241:D257"/>
-    <mergeCell ref="C210:C240"/>
-    <mergeCell ref="D210:D240"/>
-    <mergeCell ref="C167:C183"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="D301:D311"/>
-    <mergeCell ref="D313:D323"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D334:D339"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27036,7 +27036,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="325" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="83" t="s">
@@ -27065,7 +27065,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="320"/>
+      <c r="B4" s="326"/>
       <c r="C4" s="83" t="s">
         <v>74</v>
       </c>
@@ -27086,7 +27086,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="38.25">
-      <c r="B5" s="320"/>
+      <c r="B5" s="326"/>
       <c r="C5" s="83" t="s">
         <v>75</v>
       </c>
@@ -27113,7 +27113,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="60.75" customHeight="1">
-      <c r="B6" s="320"/>
+      <c r="B6" s="326"/>
       <c r="C6" s="83" t="s">
         <v>201</v>
       </c>
@@ -27140,7 +27140,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25">
-      <c r="B7" s="320"/>
+      <c r="B7" s="326"/>
       <c r="C7" s="273" t="s">
         <v>76</v>
       </c>
@@ -27164,7 +27164,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B8" s="320"/>
+      <c r="B8" s="326"/>
       <c r="C8" s="83" t="s">
         <v>202</v>
       </c>
@@ -27194,7 +27194,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="320"/>
+      <c r="B9" s="326"/>
       <c r="C9" s="83" t="s">
         <v>203</v>
       </c>
@@ -27221,7 +27221,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1">
-      <c r="B10" s="321"/>
+      <c r="B10" s="327"/>
       <c r="C10" s="90" t="s">
         <v>204</v>
       </c>
@@ -27248,7 +27248,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5">
-      <c r="B11" s="322" t="s">
+      <c r="B11" s="328" t="s">
         <v>245</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -27277,7 +27277,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5">
-      <c r="B12" s="320"/>
+      <c r="B12" s="326"/>
       <c r="C12" s="83" t="s">
         <v>217</v>
       </c>
@@ -27304,7 +27304,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5">
-      <c r="B13" s="320"/>
+      <c r="B13" s="326"/>
       <c r="C13" s="83" t="s">
         <v>218</v>
       </c>
@@ -27328,7 +27328,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5">
-      <c r="B14" s="320"/>
+      <c r="B14" s="326"/>
       <c r="C14" s="83" t="s">
         <v>219</v>
       </c>
@@ -27352,7 +27352,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="28.5">
-      <c r="B15" s="320"/>
+      <c r="B15" s="326"/>
       <c r="C15" s="99" t="s">
         <v>227</v>
       </c>
@@ -27376,7 +27376,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1">
-      <c r="B16" s="321"/>
+      <c r="B16" s="327"/>
       <c r="C16" s="101" t="s">
         <v>78</v>
       </c>
@@ -27402,7 +27402,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B17" s="322" t="s">
+      <c r="B17" s="328" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="95" t="s">
@@ -27431,7 +27431,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="105" customFormat="1" ht="51">
-      <c r="B18" s="320"/>
+      <c r="B18" s="326"/>
       <c r="C18" s="83" t="s">
         <v>79</v>
       </c>
@@ -27458,7 +27458,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="320"/>
+      <c r="B19" s="326"/>
       <c r="C19" s="83" t="s">
         <v>229</v>
       </c>
@@ -27485,7 +27485,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="51">
-      <c r="B20" s="320"/>
+      <c r="B20" s="326"/>
       <c r="C20" s="83" t="s">
         <v>76</v>
       </c>
@@ -27512,7 +27512,7 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="320"/>
+      <c r="B21" s="326"/>
       <c r="C21" s="83" t="s">
         <v>230</v>
       </c>
@@ -27539,7 +27539,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="320"/>
+      <c r="B22" s="326"/>
       <c r="C22" s="106" t="s">
         <v>80</v>
       </c>
@@ -27566,7 +27566,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="320"/>
+      <c r="B23" s="326"/>
       <c r="C23" s="106" t="s">
         <v>81</v>
       </c>
@@ -27591,7 +27591,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B24" s="321"/>
+      <c r="B24" s="327"/>
       <c r="C24" s="90" t="s">
         <v>712</v>
       </c>
@@ -27618,7 +27618,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="25.5">
-      <c r="B25" s="322" t="s">
+      <c r="B25" s="328" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -27647,7 +27647,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="25.5">
-      <c r="B26" s="320"/>
+      <c r="B26" s="326"/>
       <c r="C26" s="83" t="s">
         <v>235</v>
       </c>
@@ -27671,7 +27671,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="38.25">
-      <c r="B27" s="320"/>
+      <c r="B27" s="326"/>
       <c r="C27" s="83" t="s">
         <v>236</v>
       </c>
@@ -27701,7 +27701,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="38.25">
-      <c r="B28" s="320"/>
+      <c r="B28" s="326"/>
       <c r="C28" s="83" t="s">
         <v>237</v>
       </c>
@@ -27728,7 +27728,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="25.5">
-      <c r="B29" s="320"/>
+      <c r="B29" s="326"/>
       <c r="C29" s="83" t="s">
         <v>83</v>
       </c>
@@ -27755,7 +27755,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="320"/>
+      <c r="B30" s="326"/>
       <c r="C30" s="106" t="s">
         <v>84</v>
       </c>
@@ -27780,7 +27780,7 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="320"/>
+      <c r="B31" s="326"/>
       <c r="C31" s="83" t="s">
         <v>238</v>
       </c>
@@ -27807,7 +27807,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="25.5">
-      <c r="B32" s="320"/>
+      <c r="B32" s="326"/>
       <c r="C32" s="70" t="s">
         <v>239</v>
       </c>
@@ -27832,7 +27832,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="320"/>
+      <c r="B33" s="326"/>
       <c r="C33" s="83" t="s">
         <v>88</v>
       </c>
@@ -27859,7 +27859,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="26.25" thickBot="1">
-      <c r="B34" s="320"/>
+      <c r="B34" s="326"/>
       <c r="C34" s="83" t="s">
         <v>240</v>
       </c>
@@ -27886,7 +27886,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="13.5" hidden="1" thickBot="1">
-      <c r="B35" s="321"/>
+      <c r="B35" s="327"/>
       <c r="C35" s="113" t="s">
         <v>86</v>
       </c>
@@ -27913,7 +27913,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="322" t="s">
+      <c r="B36" s="328" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="95" t="s">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="320"/>
+      <c r="B37" s="326"/>
       <c r="C37" s="83" t="s">
         <v>87</v>
       </c>
@@ -27965,7 +27965,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="320"/>
+      <c r="B38" s="326"/>
       <c r="C38" s="83" t="s">
         <v>90</v>
       </c>
@@ -27987,7 +27987,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B39" s="321"/>
+      <c r="B39" s="327"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
@@ -28012,7 +28012,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="317" t="s">
+      <c r="B40" s="323" t="s">
         <v>246</v>
       </c>
       <c r="C40" s="95" t="s">
@@ -28032,7 +28032,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B41" s="318"/>
+      <c r="B41" s="324"/>
       <c r="C41" s="90" t="s">
         <v>93</v>
       </c>
@@ -29157,13 +29157,13 @@
       <c r="B2" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C2" s="326" t="s">
+      <c r="C2" s="332" t="s">
         <v>823</v>
       </c>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="328"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="334"/>
       <c r="H2" s="41" t="s">
         <v>824</v>
       </c>
@@ -29173,13 +29173,13 @@
       <c r="B3" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="329" t="s">
+      <c r="C3" s="335" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="337"/>
       <c r="H3" s="45" t="s">
         <v>827</v>
       </c>
@@ -29189,16 +29189,16 @@
       <c r="B4" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="333"/>
-      <c r="I4" s="334"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="340"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="341" t="s">
         <v>829</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -29233,7 +29233,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="336"/>
+      <c r="B6" s="342"/>
       <c r="C6" s="48" t="s">
         <v>840</v>
       </c>
@@ -29256,7 +29256,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="336"/>
+      <c r="B7" s="342"/>
       <c r="C7" s="48" t="s">
         <v>846</v>
       </c>
@@ -29275,7 +29275,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="336"/>
+      <c r="B8" s="342"/>
       <c r="C8" s="48" t="s">
         <v>849</v>
       </c>
@@ -29300,7 +29300,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="336"/>
+      <c r="B9" s="342"/>
       <c r="C9" s="48" t="s">
         <v>854</v>
       </c>
@@ -29325,7 +29325,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="336"/>
+      <c r="B10" s="342"/>
       <c r="C10" s="48" t="s">
         <v>859</v>
       </c>
@@ -29342,7 +29342,7 @@
       <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="336"/>
+      <c r="B11" s="342"/>
       <c r="C11" s="48" t="s">
         <v>860</v>
       </c>
@@ -29367,7 +29367,7 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="336"/>
+      <c r="B12" s="342"/>
       <c r="C12" s="48" t="s">
         <v>864</v>
       </c>
@@ -29394,7 +29394,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="336"/>
+      <c r="B13" s="342"/>
       <c r="C13" s="48" t="s">
         <v>868</v>
       </c>
@@ -29413,7 +29413,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="336"/>
+      <c r="B14" s="342"/>
       <c r="C14" s="48" t="s">
         <v>871</v>
       </c>
@@ -29438,7 +29438,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="336"/>
+      <c r="B15" s="342"/>
       <c r="C15" s="48" t="s">
         <v>877</v>
       </c>
@@ -29463,7 +29463,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="336"/>
+      <c r="B16" s="342"/>
       <c r="C16" s="48" t="s">
         <v>881</v>
       </c>
@@ -29490,7 +29490,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="336"/>
+      <c r="B17" s="342"/>
       <c r="C17" s="48" t="s">
         <v>886</v>
       </c>
@@ -29509,7 +29509,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="336"/>
+      <c r="B18" s="342"/>
       <c r="C18" s="48" t="s">
         <v>888</v>
       </c>
@@ -29528,7 +29528,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="336"/>
+      <c r="B19" s="342"/>
       <c r="C19" s="48" t="s">
         <v>890</v>
       </c>
@@ -29547,7 +29547,7 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="336"/>
+      <c r="B20" s="342"/>
       <c r="C20" s="48" t="s">
         <v>892</v>
       </c>
@@ -29566,7 +29566,7 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="336"/>
+      <c r="B21" s="342"/>
       <c r="C21" s="48" t="s">
         <v>894</v>
       </c>
@@ -29585,7 +29585,7 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="336"/>
+      <c r="B22" s="342"/>
       <c r="C22" s="48" t="s">
         <v>896</v>
       </c>
@@ -29610,7 +29610,7 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="336"/>
+      <c r="B23" s="342"/>
       <c r="C23" s="48" t="s">
         <v>900</v>
       </c>
@@ -29638,7 +29638,7 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="336"/>
+      <c r="B24" s="342"/>
       <c r="C24" s="48" t="s">
         <v>904</v>
       </c>
@@ -29666,7 +29666,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="336"/>
+      <c r="B25" s="342"/>
       <c r="C25" s="48" t="s">
         <v>908</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="336"/>
+      <c r="B26" s="342"/>
       <c r="C26" s="48" t="s">
         <v>912</v>
       </c>
@@ -29710,7 +29710,7 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="336"/>
+      <c r="B27" s="342"/>
       <c r="C27" s="48" t="s">
         <v>915</v>
       </c>
@@ -29735,7 +29735,7 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="336"/>
+      <c r="B28" s="342"/>
       <c r="C28" s="48" t="s">
         <v>919</v>
       </c>
@@ -29760,7 +29760,7 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="336"/>
+      <c r="B29" s="342"/>
       <c r="C29" s="48" t="s">
         <v>923</v>
       </c>
@@ -29779,7 +29779,7 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="336"/>
+      <c r="B30" s="342"/>
       <c r="C30" s="48" t="s">
         <v>925</v>
       </c>
@@ -29798,7 +29798,7 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="336"/>
+      <c r="B31" s="342"/>
       <c r="C31" s="48" t="s">
         <v>927</v>
       </c>
@@ -29817,7 +29817,7 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="336"/>
+      <c r="B32" s="342"/>
       <c r="C32" s="48" t="s">
         <v>929</v>
       </c>
@@ -29836,7 +29836,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="336"/>
+      <c r="B33" s="342"/>
       <c r="C33" s="48" t="s">
         <v>931</v>
       </c>
@@ -29863,7 +29863,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1">
-      <c r="B34" s="337"/>
+      <c r="B34" s="343"/>
       <c r="C34" s="55" t="s">
         <v>937</v>
       </c>
@@ -29893,13 +29893,13 @@
       <c r="B37" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C37" s="326" t="s">
+      <c r="C37" s="332" t="s">
         <v>942</v>
       </c>
-      <c r="D37" s="327"/>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="328"/>
+      <c r="D37" s="333"/>
+      <c r="E37" s="333"/>
+      <c r="F37" s="333"/>
+      <c r="G37" s="334"/>
       <c r="H37" s="41" t="s">
         <v>824</v>
       </c>
@@ -29909,13 +29909,13 @@
       <c r="B38" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C38" s="329" t="s">
+      <c r="C38" s="335" t="s">
         <v>713</v>
       </c>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="331"/>
+      <c r="D38" s="336"/>
+      <c r="E38" s="336"/>
+      <c r="F38" s="336"/>
+      <c r="G38" s="337"/>
       <c r="H38" s="45" t="s">
         <v>827</v>
       </c>
@@ -29925,16 +29925,16 @@
       <c r="B39" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C39" s="332"/>
-      <c r="D39" s="333"/>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
-      <c r="G39" s="333"/>
-      <c r="H39" s="333"/>
-      <c r="I39" s="334"/>
+      <c r="C39" s="338"/>
+      <c r="D39" s="339"/>
+      <c r="E39" s="339"/>
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
+      <c r="H39" s="339"/>
+      <c r="I39" s="340"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="323" t="s">
+      <c r="B40" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -29969,7 +29969,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="324"/>
+      <c r="B41" s="330"/>
       <c r="C41" s="48" t="s">
         <v>849</v>
       </c>
@@ -29999,7 +29999,7 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="324"/>
+      <c r="B42" s="330"/>
       <c r="C42" s="48" t="s">
         <v>945</v>
       </c>
@@ -30019,7 +30019,7 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="324"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="48" t="s">
         <v>846</v>
       </c>
@@ -30042,7 +30042,7 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="324"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="48" t="s">
         <v>854</v>
       </c>
@@ -30069,7 +30069,7 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="324"/>
+      <c r="B45" s="330"/>
       <c r="C45" s="48" t="s">
         <v>951</v>
       </c>
@@ -30088,7 +30088,7 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="324"/>
+      <c r="B46" s="330"/>
       <c r="C46" s="48" t="s">
         <v>860</v>
       </c>
@@ -30113,7 +30113,7 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="324"/>
+      <c r="B47" s="330"/>
       <c r="C47" s="48" t="s">
         <v>954</v>
       </c>
@@ -30138,7 +30138,7 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="324"/>
+      <c r="B48" s="330"/>
       <c r="C48" s="48" t="s">
         <v>957</v>
       </c>
@@ -30157,7 +30157,7 @@
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="324"/>
+      <c r="B49" s="330"/>
       <c r="C49" s="48" t="s">
         <v>960</v>
       </c>
@@ -30176,7 +30176,7 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="324"/>
+      <c r="B50" s="330"/>
       <c r="C50" s="48" t="s">
         <v>962</v>
       </c>
@@ -30203,7 +30203,7 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="324"/>
+      <c r="B51" s="330"/>
       <c r="C51" s="48" t="s">
         <v>966</v>
       </c>
@@ -30228,7 +30228,7 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="324"/>
+      <c r="B52" s="330"/>
       <c r="C52" s="48" t="s">
         <v>970</v>
       </c>
@@ -30255,7 +30255,7 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="324"/>
+      <c r="B53" s="330"/>
       <c r="C53" s="48" t="s">
         <v>974</v>
       </c>
@@ -30276,7 +30276,7 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="324"/>
+      <c r="B54" s="330"/>
       <c r="C54" s="48" t="s">
         <v>977</v>
       </c>
@@ -30303,7 +30303,7 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="324"/>
+      <c r="B55" s="330"/>
       <c r="C55" s="48" t="s">
         <v>980</v>
       </c>
@@ -30328,7 +30328,7 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="324"/>
+      <c r="B56" s="330"/>
       <c r="C56" s="48" t="s">
         <v>984</v>
       </c>
@@ -30353,7 +30353,7 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="324"/>
+      <c r="B57" s="330"/>
       <c r="C57" s="48" t="s">
         <v>988</v>
       </c>
@@ -30378,7 +30378,7 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="324"/>
+      <c r="B58" s="330"/>
       <c r="C58" s="48" t="s">
         <v>991</v>
       </c>
@@ -30403,7 +30403,7 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="324"/>
+      <c r="B59" s="330"/>
       <c r="C59" s="48" t="s">
         <v>900</v>
       </c>
@@ -30431,7 +30431,7 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="324"/>
+      <c r="B60" s="330"/>
       <c r="C60" s="48" t="s">
         <v>904</v>
       </c>
@@ -30459,7 +30459,7 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="324"/>
+      <c r="B61" s="330"/>
       <c r="C61" s="48" t="s">
         <v>908</v>
       </c>
@@ -30484,7 +30484,7 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="324"/>
+      <c r="B62" s="330"/>
       <c r="C62" s="48" t="s">
         <v>915</v>
       </c>
@@ -30509,7 +30509,7 @@
       </c>
     </row>
     <row r="63" spans="2:13" ht="15" thickBot="1">
-      <c r="B63" s="325"/>
+      <c r="B63" s="331"/>
       <c r="C63" s="55" t="s">
         <v>912</v>
       </c>
@@ -30531,13 +30531,13 @@
       <c r="B66" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C66" s="326" t="s">
+      <c r="C66" s="332" t="s">
         <v>994</v>
       </c>
-      <c r="D66" s="327"/>
-      <c r="E66" s="327"/>
-      <c r="F66" s="327"/>
-      <c r="G66" s="328"/>
+      <c r="D66" s="333"/>
+      <c r="E66" s="333"/>
+      <c r="F66" s="333"/>
+      <c r="G66" s="334"/>
       <c r="H66" s="41" t="s">
         <v>824</v>
       </c>
@@ -30547,13 +30547,13 @@
       <c r="B67" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C67" s="329" t="s">
+      <c r="C67" s="335" t="s">
         <v>995</v>
       </c>
-      <c r="D67" s="330"/>
-      <c r="E67" s="330"/>
-      <c r="F67" s="330"/>
-      <c r="G67" s="331"/>
+      <c r="D67" s="336"/>
+      <c r="E67" s="336"/>
+      <c r="F67" s="336"/>
+      <c r="G67" s="337"/>
       <c r="H67" s="45" t="s">
         <v>827</v>
       </c>
@@ -30563,16 +30563,16 @@
       <c r="B68" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C68" s="332"/>
-      <c r="D68" s="333"/>
-      <c r="E68" s="333"/>
-      <c r="F68" s="333"/>
-      <c r="G68" s="333"/>
-      <c r="H68" s="333"/>
-      <c r="I68" s="334"/>
+      <c r="C68" s="338"/>
+      <c r="D68" s="339"/>
+      <c r="E68" s="339"/>
+      <c r="F68" s="339"/>
+      <c r="G68" s="339"/>
+      <c r="H68" s="339"/>
+      <c r="I68" s="340"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="323" t="s">
+      <c r="B69" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C69" s="41" t="s">
@@ -30607,7 +30607,7 @@
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="324"/>
+      <c r="B70" s="330"/>
       <c r="C70" s="48" t="s">
         <v>849</v>
       </c>
@@ -30634,7 +30634,7 @@
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="324"/>
+      <c r="B71" s="330"/>
       <c r="C71" s="48" t="s">
         <v>854</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="324"/>
+      <c r="B72" s="330"/>
       <c r="C72" s="48" t="s">
         <v>846</v>
       </c>
@@ -30682,7 +30682,7 @@
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="324"/>
+      <c r="B73" s="330"/>
       <c r="C73" s="48" t="s">
         <v>996</v>
       </c>
@@ -30707,7 +30707,7 @@
       </c>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="324"/>
+      <c r="B74" s="330"/>
       <c r="C74" s="48" t="s">
         <v>999</v>
       </c>
@@ -30734,7 +30734,7 @@
       </c>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="324"/>
+      <c r="B75" s="330"/>
       <c r="C75" s="48" t="s">
         <v>1003</v>
       </c>
@@ -30759,7 +30759,7 @@
       </c>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="324"/>
+      <c r="B76" s="330"/>
       <c r="C76" s="48" t="s">
         <v>1008</v>
       </c>
@@ -30784,7 +30784,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="324"/>
+      <c r="B77" s="330"/>
       <c r="C77" s="48" t="s">
         <v>1012</v>
       </c>
@@ -30803,7 +30803,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="324"/>
+      <c r="B78" s="330"/>
       <c r="C78" s="48" t="s">
         <v>1013</v>
       </c>
@@ -30822,7 +30822,7 @@
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="324"/>
+      <c r="B79" s="330"/>
       <c r="C79" s="48" t="s">
         <v>1015</v>
       </c>
@@ -30841,7 +30841,7 @@
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="324"/>
+      <c r="B80" s="330"/>
       <c r="C80" s="48" t="s">
         <v>1017</v>
       </c>
@@ -30860,7 +30860,7 @@
       </c>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="324"/>
+      <c r="B81" s="330"/>
       <c r="C81" s="48" t="s">
         <v>1020</v>
       </c>
@@ -30879,7 +30879,7 @@
       </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="324"/>
+      <c r="B82" s="330"/>
       <c r="C82" s="48" t="s">
         <v>908</v>
       </c>
@@ -30904,7 +30904,7 @@
       </c>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="324"/>
+      <c r="B83" s="330"/>
       <c r="C83" s="48" t="s">
         <v>912</v>
       </c>
@@ -30923,7 +30923,7 @@
       </c>
     </row>
     <row r="84" spans="2:13" ht="15" thickBot="1">
-      <c r="B84" s="325"/>
+      <c r="B84" s="331"/>
       <c r="C84" s="55" t="s">
         <v>915</v>
       </c>
@@ -30951,13 +30951,13 @@
       <c r="B87" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C87" s="326" t="s">
+      <c r="C87" s="332" t="s">
         <v>1022</v>
       </c>
-      <c r="D87" s="327"/>
-      <c r="E87" s="327"/>
-      <c r="F87" s="327"/>
-      <c r="G87" s="328"/>
+      <c r="D87" s="333"/>
+      <c r="E87" s="333"/>
+      <c r="F87" s="333"/>
+      <c r="G87" s="334"/>
       <c r="H87" s="41" t="s">
         <v>824</v>
       </c>
@@ -30967,13 +30967,13 @@
       <c r="B88" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C88" s="329" t="s">
+      <c r="C88" s="335" t="s">
         <v>1023</v>
       </c>
-      <c r="D88" s="330"/>
-      <c r="E88" s="330"/>
-      <c r="F88" s="330"/>
-      <c r="G88" s="331"/>
+      <c r="D88" s="336"/>
+      <c r="E88" s="336"/>
+      <c r="F88" s="336"/>
+      <c r="G88" s="337"/>
       <c r="H88" s="45" t="s">
         <v>827</v>
       </c>
@@ -30983,16 +30983,16 @@
       <c r="B89" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C89" s="332"/>
-      <c r="D89" s="333"/>
-      <c r="E89" s="333"/>
-      <c r="F89" s="333"/>
-      <c r="G89" s="333"/>
-      <c r="H89" s="333"/>
-      <c r="I89" s="334"/>
+      <c r="C89" s="338"/>
+      <c r="D89" s="339"/>
+      <c r="E89" s="339"/>
+      <c r="F89" s="339"/>
+      <c r="G89" s="339"/>
+      <c r="H89" s="339"/>
+      <c r="I89" s="340"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="323" t="s">
+      <c r="B90" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -31027,7 +31027,7 @@
       </c>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="324"/>
+      <c r="B91" s="330"/>
       <c r="C91" s="48" t="s">
         <v>1024</v>
       </c>
@@ -31056,7 +31056,7 @@
       </c>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="324"/>
+      <c r="B92" s="330"/>
       <c r="C92" s="48" t="s">
         <v>864</v>
       </c>
@@ -31081,7 +31081,7 @@
       </c>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="324"/>
+      <c r="B93" s="330"/>
       <c r="C93" s="48" t="s">
         <v>849</v>
       </c>
@@ -31109,7 +31109,7 @@
       </c>
     </row>
     <row r="94" spans="2:13">
-      <c r="B94" s="324"/>
+      <c r="B94" s="330"/>
       <c r="C94" s="48" t="s">
         <v>846</v>
       </c>
@@ -31128,7 +31128,7 @@
       </c>
     </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="324"/>
+      <c r="B95" s="330"/>
       <c r="C95" s="48" t="s">
         <v>840</v>
       </c>
@@ -31147,7 +31147,7 @@
       </c>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="324"/>
+      <c r="B96" s="330"/>
       <c r="C96" s="48" t="s">
         <v>945</v>
       </c>
@@ -31172,7 +31172,7 @@
       </c>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="324"/>
+      <c r="B97" s="330"/>
       <c r="C97" s="48" t="s">
         <v>854</v>
       </c>
@@ -31199,7 +31199,7 @@
       </c>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="324"/>
+      <c r="B98" s="330"/>
       <c r="C98" s="48" t="s">
         <v>859</v>
       </c>
@@ -31224,7 +31224,7 @@
       </c>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="324"/>
+      <c r="B99" s="330"/>
       <c r="C99" s="48" t="s">
         <v>1028</v>
       </c>
@@ -31243,7 +31243,7 @@
       </c>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="324"/>
+      <c r="B100" s="330"/>
       <c r="C100" s="48" t="s">
         <v>1032</v>
       </c>
@@ -31268,7 +31268,7 @@
       </c>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="324"/>
+      <c r="B101" s="330"/>
       <c r="C101" s="48" t="s">
         <v>1034</v>
       </c>
@@ -31293,7 +31293,7 @@
       </c>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="324"/>
+      <c r="B102" s="330"/>
       <c r="C102" s="48" t="s">
         <v>1038</v>
       </c>
@@ -31312,7 +31312,7 @@
       </c>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="324"/>
+      <c r="B103" s="330"/>
       <c r="C103" s="48" t="s">
         <v>1040</v>
       </c>
@@ -31340,7 +31340,7 @@
       </c>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="324"/>
+      <c r="B104" s="330"/>
       <c r="C104" s="48" t="s">
         <v>1043</v>
       </c>
@@ -31365,7 +31365,7 @@
       </c>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="324"/>
+      <c r="B105" s="330"/>
       <c r="C105" s="48" t="s">
         <v>1044</v>
       </c>
@@ -31393,7 +31393,7 @@
       </c>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="324"/>
+      <c r="B106" s="330"/>
       <c r="C106" s="48" t="s">
         <v>1048</v>
       </c>
@@ -31421,7 +31421,7 @@
       </c>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="324"/>
+      <c r="B107" s="330"/>
       <c r="C107" s="48" t="s">
         <v>984</v>
       </c>
@@ -31446,7 +31446,7 @@
       </c>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="324"/>
+      <c r="B108" s="330"/>
       <c r="C108" s="48" t="s">
         <v>937</v>
       </c>
@@ -31473,7 +31473,7 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="324"/>
+      <c r="B109" s="330"/>
       <c r="C109" s="48" t="s">
         <v>912</v>
       </c>
@@ -31492,7 +31492,7 @@
       </c>
     </row>
     <row r="110" spans="2:13">
-      <c r="B110" s="324"/>
+      <c r="B110" s="330"/>
       <c r="C110" s="48" t="s">
         <v>915</v>
       </c>
@@ -31517,7 +31517,7 @@
       </c>
     </row>
     <row r="111" spans="2:13">
-      <c r="B111" s="324"/>
+      <c r="B111" s="330"/>
       <c r="C111" s="48" t="s">
         <v>1054</v>
       </c>
@@ -31536,7 +31536,7 @@
       </c>
     </row>
     <row r="112" spans="2:13" ht="15" thickBot="1">
-      <c r="B112" s="325"/>
+      <c r="B112" s="331"/>
       <c r="C112" s="55" t="s">
         <v>1056</v>
       </c>
@@ -31558,13 +31558,13 @@
       <c r="B115" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C115" s="326" t="s">
+      <c r="C115" s="332" t="s">
         <v>1058</v>
       </c>
-      <c r="D115" s="327"/>
-      <c r="E115" s="327"/>
-      <c r="F115" s="327"/>
-      <c r="G115" s="328"/>
+      <c r="D115" s="333"/>
+      <c r="E115" s="333"/>
+      <c r="F115" s="333"/>
+      <c r="G115" s="334"/>
       <c r="H115" s="41" t="s">
         <v>824</v>
       </c>
@@ -31577,13 +31577,13 @@
       <c r="B116" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C116" s="329" t="s">
+      <c r="C116" s="335" t="s">
         <v>1060</v>
       </c>
-      <c r="D116" s="330"/>
-      <c r="E116" s="330"/>
-      <c r="F116" s="330"/>
-      <c r="G116" s="331"/>
+      <c r="D116" s="336"/>
+      <c r="E116" s="336"/>
+      <c r="F116" s="336"/>
+      <c r="G116" s="337"/>
       <c r="H116" s="45" t="s">
         <v>827</v>
       </c>
@@ -31593,18 +31593,18 @@
       <c r="B117" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C117" s="332" t="s">
+      <c r="C117" s="338" t="s">
         <v>1061</v>
       </c>
-      <c r="D117" s="333"/>
-      <c r="E117" s="333"/>
-      <c r="F117" s="333"/>
-      <c r="G117" s="333"/>
-      <c r="H117" s="333"/>
-      <c r="I117" s="334"/>
+      <c r="D117" s="339"/>
+      <c r="E117" s="339"/>
+      <c r="F117" s="339"/>
+      <c r="G117" s="339"/>
+      <c r="H117" s="339"/>
+      <c r="I117" s="340"/>
     </row>
     <row r="118" spans="2:12">
-      <c r="B118" s="323" t="s">
+      <c r="B118" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C118" s="41" t="s">
@@ -31639,7 +31639,7 @@
       </c>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="324"/>
+      <c r="B119" s="330"/>
       <c r="C119" s="48" t="s">
         <v>1062</v>
       </c>
@@ -31668,7 +31668,7 @@
       </c>
     </row>
     <row r="120" spans="2:12">
-      <c r="B120" s="324"/>
+      <c r="B120" s="330"/>
       <c r="C120" s="48" t="s">
         <v>1024</v>
       </c>
@@ -31693,7 +31693,7 @@
       </c>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="324"/>
+      <c r="B121" s="330"/>
       <c r="C121" s="48" t="s">
         <v>864</v>
       </c>
@@ -31718,7 +31718,7 @@
       </c>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="324"/>
+      <c r="B122" s="330"/>
       <c r="C122" s="48" t="s">
         <v>849</v>
       </c>
@@ -31743,7 +31743,7 @@
       </c>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="324"/>
+      <c r="B123" s="330"/>
       <c r="C123" s="48" t="s">
         <v>1069</v>
       </c>
@@ -31760,7 +31760,7 @@
       <c r="L123" s="52"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="324"/>
+      <c r="B124" s="330"/>
       <c r="C124" s="48" t="s">
         <v>1071</v>
       </c>
@@ -31785,7 +31785,7 @@
       </c>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="324"/>
+      <c r="B125" s="330"/>
       <c r="C125" s="48" t="s">
         <v>1075</v>
       </c>
@@ -31810,7 +31810,7 @@
       </c>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="324"/>
+      <c r="B126" s="330"/>
       <c r="C126" s="48" t="s">
         <v>1079</v>
       </c>
@@ -31826,7 +31826,7 @@
       <c r="I126" s="51"/>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="324"/>
+      <c r="B127" s="330"/>
       <c r="C127" s="48" t="s">
         <v>1081</v>
       </c>
@@ -31842,7 +31842,7 @@
       <c r="I127" s="51"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="324"/>
+      <c r="B128" s="330"/>
       <c r="C128" s="48" t="s">
         <v>846</v>
       </c>
@@ -31858,7 +31858,7 @@
       <c r="I128" s="51"/>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="324"/>
+      <c r="B129" s="330"/>
       <c r="C129" s="48" t="s">
         <v>840</v>
       </c>
@@ -31874,7 +31874,7 @@
       <c r="I129" s="51"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="324"/>
+      <c r="B130" s="330"/>
       <c r="C130" s="48" t="s">
         <v>945</v>
       </c>
@@ -31899,7 +31899,7 @@
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="324"/>
+      <c r="B131" s="330"/>
       <c r="C131" s="48" t="s">
         <v>854</v>
       </c>
@@ -31924,7 +31924,7 @@
       </c>
     </row>
     <row r="132" spans="2:12">
-      <c r="B132" s="324"/>
+      <c r="B132" s="330"/>
       <c r="C132" s="48" t="s">
         <v>859</v>
       </c>
@@ -31949,7 +31949,7 @@
       </c>
     </row>
     <row r="133" spans="2:12">
-      <c r="B133" s="324"/>
+      <c r="B133" s="330"/>
       <c r="C133" s="48" t="s">
         <v>1028</v>
       </c>
@@ -31974,7 +31974,7 @@
       </c>
     </row>
     <row r="134" spans="2:12">
-      <c r="B134" s="324"/>
+      <c r="B134" s="330"/>
       <c r="C134" s="48" t="s">
         <v>1034</v>
       </c>
@@ -31999,7 +31999,7 @@
       </c>
     </row>
     <row r="135" spans="2:12">
-      <c r="B135" s="324"/>
+      <c r="B135" s="330"/>
       <c r="C135" s="48" t="s">
         <v>1038</v>
       </c>
@@ -32015,7 +32015,7 @@
       <c r="I135" s="51"/>
     </row>
     <row r="136" spans="2:12">
-      <c r="B136" s="324"/>
+      <c r="B136" s="330"/>
       <c r="C136" s="48" t="s">
         <v>1083</v>
       </c>
@@ -32031,7 +32031,7 @@
       <c r="I136" s="51"/>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="324"/>
+      <c r="B137" s="330"/>
       <c r="C137" s="48" t="s">
         <v>1085</v>
       </c>
@@ -32047,7 +32047,7 @@
       <c r="I137" s="51"/>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="324"/>
+      <c r="B138" s="330"/>
       <c r="C138" s="48" t="s">
         <v>1087</v>
       </c>
@@ -32063,7 +32063,7 @@
       <c r="I138" s="51"/>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="324"/>
+      <c r="B139" s="330"/>
       <c r="C139" s="48" t="s">
         <v>1089</v>
       </c>
@@ -32088,7 +32088,7 @@
       </c>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="324"/>
+      <c r="B140" s="330"/>
       <c r="C140" s="48" t="s">
         <v>1048</v>
       </c>
@@ -32113,7 +32113,7 @@
       </c>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="324"/>
+      <c r="B141" s="330"/>
       <c r="C141" s="48" t="s">
         <v>1096</v>
       </c>
@@ -32138,7 +32138,7 @@
       </c>
     </row>
     <row r="142" spans="2:12">
-      <c r="B142" s="324"/>
+      <c r="B142" s="330"/>
       <c r="C142" s="48" t="s">
         <v>1099</v>
       </c>
@@ -32163,7 +32163,7 @@
       </c>
     </row>
     <row r="143" spans="2:12">
-      <c r="B143" s="324"/>
+      <c r="B143" s="330"/>
       <c r="C143" s="48" t="s">
         <v>1103</v>
       </c>
@@ -32179,7 +32179,7 @@
       <c r="I143" s="51"/>
     </row>
     <row r="144" spans="2:12">
-      <c r="B144" s="324"/>
+      <c r="B144" s="330"/>
       <c r="C144" s="48" t="s">
         <v>1105</v>
       </c>
@@ -32195,7 +32195,7 @@
       <c r="I144" s="51"/>
     </row>
     <row r="145" spans="2:12">
-      <c r="B145" s="324"/>
+      <c r="B145" s="330"/>
       <c r="C145" s="48" t="s">
         <v>1107</v>
       </c>
@@ -32211,7 +32211,7 @@
       <c r="I145" s="51"/>
     </row>
     <row r="146" spans="2:12">
-      <c r="B146" s="324"/>
+      <c r="B146" s="330"/>
       <c r="C146" s="48" t="s">
         <v>1109</v>
       </c>
@@ -32227,7 +32227,7 @@
       <c r="I146" s="51"/>
     </row>
     <row r="147" spans="2:12">
-      <c r="B147" s="324"/>
+      <c r="B147" s="330"/>
       <c r="C147" s="48" t="s">
         <v>1111</v>
       </c>
@@ -32243,7 +32243,7 @@
       <c r="I147" s="51"/>
     </row>
     <row r="148" spans="2:12">
-      <c r="B148" s="324"/>
+      <c r="B148" s="330"/>
       <c r="C148" s="48" t="s">
         <v>1113</v>
       </c>
@@ -32259,7 +32259,7 @@
       <c r="I148" s="51"/>
     </row>
     <row r="149" spans="2:12">
-      <c r="B149" s="324"/>
+      <c r="B149" s="330"/>
       <c r="C149" s="48" t="s">
         <v>1115</v>
       </c>
@@ -32284,7 +32284,7 @@
       </c>
     </row>
     <row r="150" spans="2:12">
-      <c r="B150" s="324"/>
+      <c r="B150" s="330"/>
       <c r="C150" s="48" t="s">
         <v>1119</v>
       </c>
@@ -32300,7 +32300,7 @@
       <c r="I150" s="51"/>
     </row>
     <row r="151" spans="2:12">
-      <c r="B151" s="324"/>
+      <c r="B151" s="330"/>
       <c r="C151" s="48" t="s">
         <v>1121</v>
       </c>
@@ -32325,7 +32325,7 @@
       </c>
     </row>
     <row r="152" spans="2:12">
-      <c r="B152" s="324"/>
+      <c r="B152" s="330"/>
       <c r="C152" s="48" t="s">
         <v>1125</v>
       </c>
@@ -32350,7 +32350,7 @@
       </c>
     </row>
     <row r="153" spans="2:12">
-      <c r="B153" s="324"/>
+      <c r="B153" s="330"/>
       <c r="C153" s="48" t="s">
         <v>1129</v>
       </c>
@@ -32375,7 +32375,7 @@
       </c>
     </row>
     <row r="154" spans="2:12">
-      <c r="B154" s="324"/>
+      <c r="B154" s="330"/>
       <c r="C154" s="48" t="s">
         <v>1133</v>
       </c>
@@ -32400,7 +32400,7 @@
       </c>
     </row>
     <row r="155" spans="2:12">
-      <c r="B155" s="324"/>
+      <c r="B155" s="330"/>
       <c r="C155" s="48" t="s">
         <v>1137</v>
       </c>
@@ -32416,7 +32416,7 @@
       <c r="I155" s="51"/>
     </row>
     <row r="156" spans="2:12">
-      <c r="B156" s="324"/>
+      <c r="B156" s="330"/>
       <c r="C156" s="48" t="s">
         <v>937</v>
       </c>
@@ -32443,7 +32443,7 @@
       </c>
     </row>
     <row r="157" spans="2:12">
-      <c r="B157" s="324"/>
+      <c r="B157" s="330"/>
       <c r="C157" s="48" t="s">
         <v>912</v>
       </c>
@@ -32459,7 +32459,7 @@
       <c r="I157" s="51"/>
     </row>
     <row r="158" spans="2:12">
-      <c r="B158" s="324"/>
+      <c r="B158" s="330"/>
       <c r="C158" s="48" t="s">
         <v>1139</v>
       </c>
@@ -32475,7 +32475,7 @@
       <c r="I158" s="51"/>
     </row>
     <row r="159" spans="2:12">
-      <c r="B159" s="324"/>
+      <c r="B159" s="330"/>
       <c r="C159" s="48" t="s">
         <v>1141</v>
       </c>
@@ -32491,7 +32491,7 @@
       <c r="I159" s="51"/>
     </row>
     <row r="160" spans="2:12">
-      <c r="B160" s="324"/>
+      <c r="B160" s="330"/>
       <c r="C160" s="48" t="s">
         <v>1143</v>
       </c>
@@ -32507,7 +32507,7 @@
       <c r="I160" s="51"/>
     </row>
     <row r="161" spans="2:12" ht="15" thickBot="1">
-      <c r="B161" s="325"/>
+      <c r="B161" s="331"/>
       <c r="C161" s="55" t="s">
         <v>1146</v>
       </c>
@@ -32526,13 +32526,13 @@
       <c r="B164" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C164" s="326" t="s">
+      <c r="C164" s="332" t="s">
         <v>1148</v>
       </c>
-      <c r="D164" s="327"/>
-      <c r="E164" s="327"/>
-      <c r="F164" s="327"/>
-      <c r="G164" s="328"/>
+      <c r="D164" s="333"/>
+      <c r="E164" s="333"/>
+      <c r="F164" s="333"/>
+      <c r="G164" s="334"/>
       <c r="H164" s="41" t="s">
         <v>824</v>
       </c>
@@ -32545,13 +32545,13 @@
       <c r="B165" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C165" s="329" t="s">
+      <c r="C165" s="335" t="s">
         <v>1149</v>
       </c>
-      <c r="D165" s="330"/>
-      <c r="E165" s="330"/>
-      <c r="F165" s="330"/>
-      <c r="G165" s="331"/>
+      <c r="D165" s="336"/>
+      <c r="E165" s="336"/>
+      <c r="F165" s="336"/>
+      <c r="G165" s="337"/>
       <c r="H165" s="45" t="s">
         <v>827</v>
       </c>
@@ -32561,18 +32561,18 @@
       <c r="B166" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C166" s="332" t="s">
+      <c r="C166" s="338" t="s">
         <v>1150</v>
       </c>
-      <c r="D166" s="333"/>
-      <c r="E166" s="333"/>
-      <c r="F166" s="333"/>
-      <c r="G166" s="333"/>
-      <c r="H166" s="333"/>
-      <c r="I166" s="334"/>
+      <c r="D166" s="339"/>
+      <c r="E166" s="339"/>
+      <c r="F166" s="339"/>
+      <c r="G166" s="339"/>
+      <c r="H166" s="339"/>
+      <c r="I166" s="340"/>
     </row>
     <row r="167" spans="2:12">
-      <c r="B167" s="323" t="s">
+      <c r="B167" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C167" s="41" t="s">
@@ -32607,7 +32607,7 @@
       </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="324"/>
+      <c r="B168" s="330"/>
       <c r="C168" s="48" t="s">
         <v>1151</v>
       </c>
@@ -32632,7 +32632,7 @@
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="B169" s="324"/>
+      <c r="B169" s="330"/>
       <c r="C169" s="48" t="s">
         <v>840</v>
       </c>
@@ -32648,7 +32648,7 @@
       <c r="I169" s="51"/>
     </row>
     <row r="170" spans="2:12">
-      <c r="B170" s="324"/>
+      <c r="B170" s="330"/>
       <c r="C170" s="48" t="s">
         <v>846</v>
       </c>
@@ -32664,7 +32664,7 @@
       <c r="I170" s="51"/>
     </row>
     <row r="171" spans="2:12">
-      <c r="B171" s="324"/>
+      <c r="B171" s="330"/>
       <c r="C171" s="48" t="s">
         <v>912</v>
       </c>
@@ -32680,7 +32680,7 @@
       <c r="I171" s="51"/>
     </row>
     <row r="172" spans="2:12">
-      <c r="B172" s="324"/>
+      <c r="B172" s="330"/>
       <c r="C172" s="48" t="s">
         <v>1154</v>
       </c>
@@ -32705,7 +32705,7 @@
       </c>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="324"/>
+      <c r="B173" s="330"/>
       <c r="C173" s="48" t="s">
         <v>1156</v>
       </c>
@@ -32730,7 +32730,7 @@
       </c>
     </row>
     <row r="174" spans="2:12">
-      <c r="B174" s="324"/>
+      <c r="B174" s="330"/>
       <c r="C174" s="48" t="s">
         <v>1158</v>
       </c>
@@ -32746,7 +32746,7 @@
       <c r="I174" s="51"/>
     </row>
     <row r="175" spans="2:12">
-      <c r="B175" s="324"/>
+      <c r="B175" s="330"/>
       <c r="C175" s="48" t="s">
         <v>854</v>
       </c>
@@ -32771,7 +32771,7 @@
       </c>
     </row>
     <row r="176" spans="2:12">
-      <c r="B176" s="324"/>
+      <c r="B176" s="330"/>
       <c r="C176" s="48" t="s">
         <v>860</v>
       </c>
@@ -32796,7 +32796,7 @@
       </c>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="324"/>
+      <c r="B177" s="330"/>
       <c r="C177" s="48" t="s">
         <v>859</v>
       </c>
@@ -32821,7 +32821,7 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="324"/>
+      <c r="B178" s="330"/>
       <c r="C178" s="48" t="s">
         <v>849</v>
       </c>
@@ -32846,7 +32846,7 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="324"/>
+      <c r="B179" s="330"/>
       <c r="C179" s="48" t="s">
         <v>1161</v>
       </c>
@@ -32862,7 +32862,7 @@
       <c r="I179" s="51"/>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="324"/>
+      <c r="B180" s="330"/>
       <c r="C180" s="48" t="s">
         <v>864</v>
       </c>
@@ -32887,7 +32887,7 @@
       </c>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="324"/>
+      <c r="B181" s="330"/>
       <c r="C181" s="48" t="s">
         <v>1164</v>
       </c>
@@ -32912,7 +32912,7 @@
       </c>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="324"/>
+      <c r="B182" s="330"/>
       <c r="C182" s="48" t="s">
         <v>1166</v>
       </c>
@@ -32937,7 +32937,7 @@
       </c>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="324"/>
+      <c r="B183" s="330"/>
       <c r="C183" s="48" t="s">
         <v>1141</v>
       </c>
@@ -32953,7 +32953,7 @@
       <c r="I183" s="51"/>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="324"/>
+      <c r="B184" s="330"/>
       <c r="C184" s="48" t="s">
         <v>1168</v>
       </c>
@@ -32978,7 +32978,7 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="324"/>
+      <c r="B185" s="330"/>
       <c r="C185" s="48" t="s">
         <v>1087</v>
       </c>
@@ -32994,7 +32994,7 @@
       <c r="I185" s="51"/>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="324"/>
+      <c r="B186" s="330"/>
       <c r="C186" s="48" t="s">
         <v>1170</v>
       </c>
@@ -33010,7 +33010,7 @@
       <c r="I186" s="51"/>
     </row>
     <row r="187" spans="2:12">
-      <c r="B187" s="324"/>
+      <c r="B187" s="330"/>
       <c r="C187" s="48" t="s">
         <v>1172</v>
       </c>
@@ -33026,7 +33026,7 @@
       <c r="I187" s="51"/>
     </row>
     <row r="188" spans="2:12">
-      <c r="B188" s="324"/>
+      <c r="B188" s="330"/>
       <c r="C188" s="48" t="s">
         <v>1174</v>
       </c>
@@ -33042,7 +33042,7 @@
       <c r="I188" s="51"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="324"/>
+      <c r="B189" s="330"/>
       <c r="C189" s="48" t="s">
         <v>1176</v>
       </c>
@@ -33058,7 +33058,7 @@
       <c r="I189" s="51"/>
     </row>
     <row r="190" spans="2:12">
-      <c r="B190" s="324"/>
+      <c r="B190" s="330"/>
       <c r="C190" s="48" t="s">
         <v>1178</v>
       </c>
@@ -33083,7 +33083,7 @@
       </c>
     </row>
     <row r="191" spans="2:12">
-      <c r="B191" s="324"/>
+      <c r="B191" s="330"/>
       <c r="C191" s="48" t="s">
         <v>1180</v>
       </c>
@@ -33099,7 +33099,7 @@
       <c r="I191" s="51"/>
     </row>
     <row r="192" spans="2:12" ht="15" thickBot="1">
-      <c r="B192" s="325"/>
+      <c r="B192" s="331"/>
       <c r="C192" s="55" t="s">
         <v>1182</v>
       </c>
@@ -33119,13 +33119,13 @@
       <c r="B195" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C195" s="326" t="s">
+      <c r="C195" s="332" t="s">
         <v>1184</v>
       </c>
-      <c r="D195" s="327"/>
-      <c r="E195" s="327"/>
-      <c r="F195" s="327"/>
-      <c r="G195" s="328"/>
+      <c r="D195" s="333"/>
+      <c r="E195" s="333"/>
+      <c r="F195" s="333"/>
+      <c r="G195" s="334"/>
       <c r="H195" s="41" t="s">
         <v>824</v>
       </c>
@@ -33135,13 +33135,13 @@
       <c r="B196" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C196" s="329" t="s">
+      <c r="C196" s="335" t="s">
         <v>1185</v>
       </c>
-      <c r="D196" s="330"/>
-      <c r="E196" s="330"/>
-      <c r="F196" s="330"/>
-      <c r="G196" s="331"/>
+      <c r="D196" s="336"/>
+      <c r="E196" s="336"/>
+      <c r="F196" s="336"/>
+      <c r="G196" s="337"/>
       <c r="H196" s="45" t="s">
         <v>827</v>
       </c>
@@ -33151,16 +33151,16 @@
       <c r="B197" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C197" s="332"/>
-      <c r="D197" s="333"/>
-      <c r="E197" s="333"/>
-      <c r="F197" s="333"/>
-      <c r="G197" s="333"/>
-      <c r="H197" s="333"/>
-      <c r="I197" s="334"/>
+      <c r="C197" s="338"/>
+      <c r="D197" s="339"/>
+      <c r="E197" s="339"/>
+      <c r="F197" s="339"/>
+      <c r="G197" s="339"/>
+      <c r="H197" s="339"/>
+      <c r="I197" s="340"/>
     </row>
     <row r="198" spans="2:12">
-      <c r="B198" s="323" t="s">
+      <c r="B198" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C198" s="41" t="s">
@@ -33195,7 +33195,7 @@
       </c>
     </row>
     <row r="199" spans="2:12">
-      <c r="B199" s="324"/>
+      <c r="B199" s="330"/>
       <c r="C199" s="48" t="s">
         <v>1186</v>
       </c>
@@ -33211,7 +33211,7 @@
       <c r="I199" s="51"/>
     </row>
     <row r="200" spans="2:12">
-      <c r="B200" s="324"/>
+      <c r="B200" s="330"/>
       <c r="C200" s="48" t="s">
         <v>912</v>
       </c>
@@ -33227,7 +33227,7 @@
       <c r="I200" s="51"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="324"/>
+      <c r="B201" s="330"/>
       <c r="C201" s="48" t="s">
         <v>849</v>
       </c>
@@ -33243,7 +33243,7 @@
       <c r="I201" s="51"/>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="324"/>
+      <c r="B202" s="330"/>
       <c r="C202" s="48" t="s">
         <v>1024</v>
       </c>
@@ -33259,7 +33259,7 @@
       <c r="I202" s="51"/>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="324"/>
+      <c r="B203" s="330"/>
       <c r="C203" s="48" t="s">
         <v>1028</v>
       </c>
@@ -33284,7 +33284,7 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="324"/>
+      <c r="B204" s="330"/>
       <c r="C204" s="48" t="s">
         <v>864</v>
       </c>
@@ -33300,7 +33300,7 @@
       <c r="I204" s="51"/>
     </row>
     <row r="205" spans="2:12">
-      <c r="B205" s="324"/>
+      <c r="B205" s="330"/>
       <c r="C205" s="48" t="s">
         <v>871</v>
       </c>
@@ -33316,7 +33316,7 @@
       <c r="I205" s="51"/>
     </row>
     <row r="206" spans="2:12">
-      <c r="B206" s="324"/>
+      <c r="B206" s="330"/>
       <c r="C206" s="48" t="s">
         <v>1190</v>
       </c>
@@ -33332,7 +33332,7 @@
       <c r="I206" s="51"/>
     </row>
     <row r="207" spans="2:12">
-      <c r="B207" s="324"/>
+      <c r="B207" s="330"/>
       <c r="C207" s="48" t="s">
         <v>881</v>
       </c>
@@ -33348,7 +33348,7 @@
       <c r="I207" s="51"/>
     </row>
     <row r="208" spans="2:12">
-      <c r="B208" s="324"/>
+      <c r="B208" s="330"/>
       <c r="C208" s="48" t="s">
         <v>886</v>
       </c>
@@ -33364,7 +33364,7 @@
       <c r="I208" s="51"/>
     </row>
     <row r="209" spans="2:9">
-      <c r="B209" s="324"/>
+      <c r="B209" s="330"/>
       <c r="C209" s="48" t="s">
         <v>888</v>
       </c>
@@ -33380,7 +33380,7 @@
       <c r="I209" s="51"/>
     </row>
     <row r="210" spans="2:9">
-      <c r="B210" s="324"/>
+      <c r="B210" s="330"/>
       <c r="C210" s="48" t="s">
         <v>890</v>
       </c>
@@ -33396,7 +33396,7 @@
       <c r="I210" s="51"/>
     </row>
     <row r="211" spans="2:9">
-      <c r="B211" s="324"/>
+      <c r="B211" s="330"/>
       <c r="C211" s="48" t="s">
         <v>892</v>
       </c>
@@ -33412,7 +33412,7 @@
       <c r="I211" s="51"/>
     </row>
     <row r="212" spans="2:9">
-      <c r="B212" s="324"/>
+      <c r="B212" s="330"/>
       <c r="C212" s="48" t="s">
         <v>894</v>
       </c>
@@ -33428,7 +33428,7 @@
       <c r="I212" s="51"/>
     </row>
     <row r="213" spans="2:9">
-      <c r="B213" s="324"/>
+      <c r="B213" s="330"/>
       <c r="C213" s="48" t="s">
         <v>1040</v>
       </c>
@@ -33444,7 +33444,7 @@
       <c r="I213" s="51"/>
     </row>
     <row r="214" spans="2:9">
-      <c r="B214" s="324"/>
+      <c r="B214" s="330"/>
       <c r="C214" s="48" t="s">
         <v>1043</v>
       </c>
@@ -33460,7 +33460,7 @@
       <c r="I214" s="51"/>
     </row>
     <row r="215" spans="2:9">
-      <c r="B215" s="324"/>
+      <c r="B215" s="330"/>
       <c r="C215" s="48" t="s">
         <v>1192</v>
       </c>
@@ -33476,7 +33476,7 @@
       <c r="I215" s="51"/>
     </row>
     <row r="216" spans="2:9">
-      <c r="B216" s="324"/>
+      <c r="B216" s="330"/>
       <c r="C216" s="48" t="s">
         <v>1193</v>
       </c>
@@ -33492,7 +33492,7 @@
       <c r="I216" s="51"/>
     </row>
     <row r="217" spans="2:9">
-      <c r="B217" s="324"/>
+      <c r="B217" s="330"/>
       <c r="C217" s="48" t="s">
         <v>1194</v>
       </c>
@@ -33508,7 +33508,7 @@
       <c r="I217" s="51"/>
     </row>
     <row r="218" spans="2:9">
-      <c r="B218" s="324"/>
+      <c r="B218" s="330"/>
       <c r="C218" s="48" t="s">
         <v>915</v>
       </c>
@@ -33524,7 +33524,7 @@
       <c r="I218" s="51"/>
     </row>
     <row r="219" spans="2:9">
-      <c r="B219" s="324"/>
+      <c r="B219" s="330"/>
       <c r="C219" s="48" t="s">
         <v>937</v>
       </c>
@@ -33540,7 +33540,7 @@
       <c r="I219" s="51"/>
     </row>
     <row r="220" spans="2:9" ht="15" thickBot="1">
-      <c r="B220" s="325"/>
+      <c r="B220" s="331"/>
       <c r="C220" s="55"/>
       <c r="D220" s="55"/>
       <c r="E220" s="56"/>
@@ -33554,13 +33554,13 @@
       <c r="B223" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C223" s="326" t="s">
+      <c r="C223" s="332" t="s">
         <v>1195</v>
       </c>
-      <c r="D223" s="327"/>
-      <c r="E223" s="327"/>
-      <c r="F223" s="327"/>
-      <c r="G223" s="328"/>
+      <c r="D223" s="333"/>
+      <c r="E223" s="333"/>
+      <c r="F223" s="333"/>
+      <c r="G223" s="334"/>
       <c r="H223" s="41" t="s">
         <v>824</v>
       </c>
@@ -33570,13 +33570,13 @@
       <c r="B224" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C224" s="329" t="s">
+      <c r="C224" s="335" t="s">
         <v>1196</v>
       </c>
-      <c r="D224" s="330"/>
-      <c r="E224" s="330"/>
-      <c r="F224" s="330"/>
-      <c r="G224" s="331"/>
+      <c r="D224" s="336"/>
+      <c r="E224" s="336"/>
+      <c r="F224" s="336"/>
+      <c r="G224" s="337"/>
       <c r="H224" s="45" t="s">
         <v>827</v>
       </c>
@@ -33586,16 +33586,16 @@
       <c r="B225" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C225" s="332"/>
-      <c r="D225" s="333"/>
-      <c r="E225" s="333"/>
-      <c r="F225" s="333"/>
-      <c r="G225" s="333"/>
-      <c r="H225" s="333"/>
-      <c r="I225" s="334"/>
+      <c r="C225" s="338"/>
+      <c r="D225" s="339"/>
+      <c r="E225" s="339"/>
+      <c r="F225" s="339"/>
+      <c r="G225" s="339"/>
+      <c r="H225" s="339"/>
+      <c r="I225" s="340"/>
     </row>
     <row r="226" spans="2:12">
-      <c r="B226" s="323" t="s">
+      <c r="B226" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C226" s="41" t="s">
@@ -33621,7 +33621,7 @@
       </c>
     </row>
     <row r="227" spans="2:12">
-      <c r="B227" s="324"/>
+      <c r="B227" s="330"/>
       <c r="C227" s="48" t="s">
         <v>1197</v>
       </c>
@@ -33637,7 +33637,7 @@
       <c r="I227" s="51"/>
     </row>
     <row r="228" spans="2:12">
-      <c r="B228" s="324"/>
+      <c r="B228" s="330"/>
       <c r="C228" s="48" t="s">
         <v>1151</v>
       </c>
@@ -33662,7 +33662,7 @@
       </c>
     </row>
     <row r="229" spans="2:12">
-      <c r="B229" s="324"/>
+      <c r="B229" s="330"/>
       <c r="C229" s="48" t="s">
         <v>840</v>
       </c>
@@ -33678,7 +33678,7 @@
       <c r="I229" s="51"/>
     </row>
     <row r="230" spans="2:12">
-      <c r="B230" s="324"/>
+      <c r="B230" s="330"/>
       <c r="C230" s="48" t="s">
         <v>846</v>
       </c>
@@ -33694,7 +33694,7 @@
       <c r="I230" s="51"/>
     </row>
     <row r="231" spans="2:12">
-      <c r="B231" s="324"/>
+      <c r="B231" s="330"/>
       <c r="C231" s="48" t="s">
         <v>912</v>
       </c>
@@ -33710,7 +33710,7 @@
       <c r="I231" s="51"/>
     </row>
     <row r="232" spans="2:12">
-      <c r="B232" s="324"/>
+      <c r="B232" s="330"/>
       <c r="C232" s="48" t="s">
         <v>1154</v>
       </c>
@@ -33735,7 +33735,7 @@
       </c>
     </row>
     <row r="233" spans="2:12">
-      <c r="B233" s="324"/>
+      <c r="B233" s="330"/>
       <c r="C233" s="48" t="s">
         <v>1156</v>
       </c>
@@ -33760,7 +33760,7 @@
       </c>
     </row>
     <row r="234" spans="2:12">
-      <c r="B234" s="324"/>
+      <c r="B234" s="330"/>
       <c r="C234" s="48" t="s">
         <v>1158</v>
       </c>
@@ -33776,7 +33776,7 @@
       <c r="I234" s="51"/>
     </row>
     <row r="235" spans="2:12">
-      <c r="B235" s="324"/>
+      <c r="B235" s="330"/>
       <c r="C235" s="48" t="s">
         <v>854</v>
       </c>
@@ -33801,7 +33801,7 @@
       </c>
     </row>
     <row r="236" spans="2:12">
-      <c r="B236" s="324"/>
+      <c r="B236" s="330"/>
       <c r="C236" s="48" t="s">
         <v>860</v>
       </c>
@@ -33826,7 +33826,7 @@
       </c>
     </row>
     <row r="237" spans="2:12">
-      <c r="B237" s="324"/>
+      <c r="B237" s="330"/>
       <c r="C237" s="48" t="s">
         <v>859</v>
       </c>
@@ -33851,7 +33851,7 @@
       </c>
     </row>
     <row r="238" spans="2:12">
-      <c r="B238" s="324"/>
+      <c r="B238" s="330"/>
       <c r="C238" s="48" t="s">
         <v>849</v>
       </c>
@@ -33876,7 +33876,7 @@
       </c>
     </row>
     <row r="239" spans="2:12">
-      <c r="B239" s="324"/>
+      <c r="B239" s="330"/>
       <c r="C239" s="48" t="s">
         <v>1161</v>
       </c>
@@ -33892,7 +33892,7 @@
       <c r="I239" s="51"/>
     </row>
     <row r="240" spans="2:12">
-      <c r="B240" s="324"/>
+      <c r="B240" s="330"/>
       <c r="C240" s="48" t="s">
         <v>864</v>
       </c>
@@ -33917,7 +33917,7 @@
       </c>
     </row>
     <row r="241" spans="2:12">
-      <c r="B241" s="324"/>
+      <c r="B241" s="330"/>
       <c r="C241" s="48" t="s">
         <v>1164</v>
       </c>
@@ -33942,7 +33942,7 @@
       </c>
     </row>
     <row r="242" spans="2:12">
-      <c r="B242" s="324"/>
+      <c r="B242" s="330"/>
       <c r="C242" s="48" t="s">
         <v>1166</v>
       </c>
@@ -33967,7 +33967,7 @@
       </c>
     </row>
     <row r="243" spans="2:12">
-      <c r="B243" s="324"/>
+      <c r="B243" s="330"/>
       <c r="C243" s="48" t="s">
         <v>1141</v>
       </c>
@@ -33983,7 +33983,7 @@
       <c r="I243" s="51"/>
     </row>
     <row r="244" spans="2:12">
-      <c r="B244" s="324"/>
+      <c r="B244" s="330"/>
       <c r="C244" s="48" t="s">
         <v>1168</v>
       </c>
@@ -34008,7 +34008,7 @@
       </c>
     </row>
     <row r="245" spans="2:12">
-      <c r="B245" s="324"/>
+      <c r="B245" s="330"/>
       <c r="C245" s="48" t="s">
         <v>1087</v>
       </c>
@@ -34024,7 +34024,7 @@
       <c r="I245" s="51"/>
     </row>
     <row r="246" spans="2:12">
-      <c r="B246" s="324"/>
+      <c r="B246" s="330"/>
       <c r="C246" s="48" t="s">
         <v>1170</v>
       </c>
@@ -34040,7 +34040,7 @@
       <c r="I246" s="51"/>
     </row>
     <row r="247" spans="2:12">
-      <c r="B247" s="324"/>
+      <c r="B247" s="330"/>
       <c r="C247" s="48" t="s">
         <v>1172</v>
       </c>
@@ -34056,7 +34056,7 @@
       <c r="I247" s="51"/>
     </row>
     <row r="248" spans="2:12">
-      <c r="B248" s="324"/>
+      <c r="B248" s="330"/>
       <c r="C248" s="48" t="s">
         <v>1174</v>
       </c>
@@ -34072,7 +34072,7 @@
       <c r="I248" s="51"/>
     </row>
     <row r="249" spans="2:12">
-      <c r="B249" s="324"/>
+      <c r="B249" s="330"/>
       <c r="C249" s="48" t="s">
         <v>1176</v>
       </c>
@@ -34088,7 +34088,7 @@
       <c r="I249" s="51"/>
     </row>
     <row r="250" spans="2:12">
-      <c r="B250" s="324"/>
+      <c r="B250" s="330"/>
       <c r="C250" s="64" t="s">
         <v>1178</v>
       </c>
@@ -34113,7 +34113,7 @@
       </c>
     </row>
     <row r="251" spans="2:12">
-      <c r="B251" s="324"/>
+      <c r="B251" s="330"/>
       <c r="C251" s="64" t="s">
         <v>1180</v>
       </c>
@@ -34129,7 +34129,7 @@
       <c r="I251" s="67"/>
     </row>
     <row r="252" spans="2:12">
-      <c r="B252" s="324"/>
+      <c r="B252" s="330"/>
       <c r="C252" s="64" t="s">
         <v>1182</v>
       </c>
@@ -34145,7 +34145,7 @@
       <c r="I252" s="67"/>
     </row>
     <row r="253" spans="2:12" ht="15" thickBot="1">
-      <c r="B253" s="325"/>
+      <c r="B253" s="331"/>
       <c r="C253" s="55"/>
       <c r="D253" s="55"/>
       <c r="E253" s="56"/>
@@ -34159,13 +34159,13 @@
       <c r="B257" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C257" s="326" t="s">
+      <c r="C257" s="332" t="s">
         <v>1219</v>
       </c>
-      <c r="D257" s="327"/>
-      <c r="E257" s="327"/>
-      <c r="F257" s="327"/>
-      <c r="G257" s="328"/>
+      <c r="D257" s="333"/>
+      <c r="E257" s="333"/>
+      <c r="F257" s="333"/>
+      <c r="G257" s="334"/>
       <c r="H257" s="41" t="s">
         <v>824</v>
       </c>
@@ -34175,13 +34175,13 @@
       <c r="B258" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C258" s="329" t="s">
+      <c r="C258" s="335" t="s">
         <v>1220</v>
       </c>
-      <c r="D258" s="330"/>
-      <c r="E258" s="330"/>
-      <c r="F258" s="330"/>
-      <c r="G258" s="331"/>
+      <c r="D258" s="336"/>
+      <c r="E258" s="336"/>
+      <c r="F258" s="336"/>
+      <c r="G258" s="337"/>
       <c r="H258" s="45" t="s">
         <v>827</v>
       </c>
@@ -34191,16 +34191,16 @@
       <c r="B259" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C259" s="332"/>
-      <c r="D259" s="333"/>
-      <c r="E259" s="333"/>
-      <c r="F259" s="333"/>
-      <c r="G259" s="333"/>
-      <c r="H259" s="333"/>
-      <c r="I259" s="334"/>
+      <c r="C259" s="338"/>
+      <c r="D259" s="339"/>
+      <c r="E259" s="339"/>
+      <c r="F259" s="339"/>
+      <c r="G259" s="339"/>
+      <c r="H259" s="339"/>
+      <c r="I259" s="340"/>
     </row>
     <row r="260" spans="2:12">
-      <c r="B260" s="323" t="s">
+      <c r="B260" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C260" s="41" t="s">
@@ -34235,7 +34235,7 @@
       </c>
     </row>
     <row r="261" spans="2:12">
-      <c r="B261" s="324"/>
+      <c r="B261" s="330"/>
       <c r="C261" s="48" t="s">
         <v>1197</v>
       </c>
@@ -34251,7 +34251,7 @@
       <c r="I261" s="51"/>
     </row>
     <row r="262" spans="2:12">
-      <c r="B262" s="324"/>
+      <c r="B262" s="330"/>
       <c r="C262" s="48" t="s">
         <v>1062</v>
       </c>
@@ -34276,7 +34276,7 @@
       </c>
     </row>
     <row r="263" spans="2:12">
-      <c r="B263" s="324"/>
+      <c r="B263" s="330"/>
       <c r="C263" s="48" t="s">
         <v>1024</v>
       </c>
@@ -34301,7 +34301,7 @@
       </c>
     </row>
     <row r="264" spans="2:12">
-      <c r="B264" s="324"/>
+      <c r="B264" s="330"/>
       <c r="C264" s="48" t="s">
         <v>864</v>
       </c>
@@ -34326,7 +34326,7 @@
       </c>
     </row>
     <row r="265" spans="2:12">
-      <c r="B265" s="324"/>
+      <c r="B265" s="330"/>
       <c r="C265" s="48" t="s">
         <v>849</v>
       </c>
@@ -34351,7 +34351,7 @@
       </c>
     </row>
     <row r="266" spans="2:12">
-      <c r="B266" s="324"/>
+      <c r="B266" s="330"/>
       <c r="C266" s="48" t="s">
         <v>1069</v>
       </c>
@@ -34368,7 +34368,7 @@
       <c r="L266" s="52"/>
     </row>
     <row r="267" spans="2:12">
-      <c r="B267" s="324"/>
+      <c r="B267" s="330"/>
       <c r="C267" s="48" t="s">
         <v>1071</v>
       </c>
@@ -34393,7 +34393,7 @@
       </c>
     </row>
     <row r="268" spans="2:12">
-      <c r="B268" s="324"/>
+      <c r="B268" s="330"/>
       <c r="C268" s="48" t="s">
         <v>1075</v>
       </c>
@@ -34418,7 +34418,7 @@
       </c>
     </row>
     <row r="269" spans="2:12">
-      <c r="B269" s="324"/>
+      <c r="B269" s="330"/>
       <c r="C269" s="48" t="s">
         <v>1079</v>
       </c>
@@ -34434,7 +34434,7 @@
       <c r="I269" s="51"/>
     </row>
     <row r="270" spans="2:12">
-      <c r="B270" s="324"/>
+      <c r="B270" s="330"/>
       <c r="C270" s="48" t="s">
         <v>1081</v>
       </c>
@@ -34450,7 +34450,7 @@
       <c r="I270" s="51"/>
     </row>
     <row r="271" spans="2:12">
-      <c r="B271" s="324"/>
+      <c r="B271" s="330"/>
       <c r="C271" s="48" t="s">
         <v>846</v>
       </c>
@@ -34466,7 +34466,7 @@
       <c r="I271" s="51"/>
     </row>
     <row r="272" spans="2:12">
-      <c r="B272" s="324"/>
+      <c r="B272" s="330"/>
       <c r="C272" s="48" t="s">
         <v>840</v>
       </c>
@@ -34482,7 +34482,7 @@
       <c r="I272" s="51"/>
     </row>
     <row r="273" spans="2:12">
-      <c r="B273" s="324"/>
+      <c r="B273" s="330"/>
       <c r="C273" s="48" t="s">
         <v>945</v>
       </c>
@@ -34507,7 +34507,7 @@
       </c>
     </row>
     <row r="274" spans="2:12">
-      <c r="B274" s="324"/>
+      <c r="B274" s="330"/>
       <c r="C274" s="48" t="s">
         <v>854</v>
       </c>
@@ -34532,7 +34532,7 @@
       </c>
     </row>
     <row r="275" spans="2:12">
-      <c r="B275" s="324"/>
+      <c r="B275" s="330"/>
       <c r="C275" s="48" t="s">
         <v>859</v>
       </c>
@@ -34557,7 +34557,7 @@
       </c>
     </row>
     <row r="276" spans="2:12">
-      <c r="B276" s="324"/>
+      <c r="B276" s="330"/>
       <c r="C276" s="48" t="s">
         <v>1028</v>
       </c>
@@ -34582,7 +34582,7 @@
       </c>
     </row>
     <row r="277" spans="2:12">
-      <c r="B277" s="324"/>
+      <c r="B277" s="330"/>
       <c r="C277" s="48" t="s">
         <v>1034</v>
       </c>
@@ -34607,7 +34607,7 @@
       </c>
     </row>
     <row r="278" spans="2:12">
-      <c r="B278" s="324"/>
+      <c r="B278" s="330"/>
       <c r="C278" s="48" t="s">
         <v>1038</v>
       </c>
@@ -34623,7 +34623,7 @@
       <c r="I278" s="51"/>
     </row>
     <row r="279" spans="2:12">
-      <c r="B279" s="324"/>
+      <c r="B279" s="330"/>
       <c r="C279" s="48" t="s">
         <v>1083</v>
       </c>
@@ -34639,7 +34639,7 @@
       <c r="I279" s="51"/>
     </row>
     <row r="280" spans="2:12">
-      <c r="B280" s="324"/>
+      <c r="B280" s="330"/>
       <c r="C280" s="48" t="s">
         <v>1085</v>
       </c>
@@ -34655,7 +34655,7 @@
       <c r="I280" s="51"/>
     </row>
     <row r="281" spans="2:12">
-      <c r="B281" s="324"/>
+      <c r="B281" s="330"/>
       <c r="C281" s="48" t="s">
         <v>1087</v>
       </c>
@@ -34671,7 +34671,7 @@
       <c r="I281" s="51"/>
     </row>
     <row r="282" spans="2:12">
-      <c r="B282" s="324"/>
+      <c r="B282" s="330"/>
       <c r="C282" s="48" t="s">
         <v>1089</v>
       </c>
@@ -34696,7 +34696,7 @@
       </c>
     </row>
     <row r="283" spans="2:12">
-      <c r="B283" s="324"/>
+      <c r="B283" s="330"/>
       <c r="C283" s="48" t="s">
         <v>1048</v>
       </c>
@@ -34721,7 +34721,7 @@
       </c>
     </row>
     <row r="284" spans="2:12">
-      <c r="B284" s="324"/>
+      <c r="B284" s="330"/>
       <c r="C284" s="64" t="s">
         <v>1096</v>
       </c>
@@ -34746,7 +34746,7 @@
       </c>
     </row>
     <row r="285" spans="2:12">
-      <c r="B285" s="324"/>
+      <c r="B285" s="330"/>
       <c r="C285" s="64" t="s">
         <v>1099</v>
       </c>
@@ -34771,7 +34771,7 @@
       </c>
     </row>
     <row r="286" spans="2:12">
-      <c r="B286" s="324"/>
+      <c r="B286" s="330"/>
       <c r="C286" s="64" t="s">
         <v>1103</v>
       </c>
@@ -34787,7 +34787,7 @@
       <c r="I286" s="67"/>
     </row>
     <row r="287" spans="2:12">
-      <c r="B287" s="324"/>
+      <c r="B287" s="330"/>
       <c r="C287" s="64" t="s">
         <v>1105</v>
       </c>
@@ -34803,7 +34803,7 @@
       <c r="I287" s="67"/>
     </row>
     <row r="288" spans="2:12">
-      <c r="B288" s="324"/>
+      <c r="B288" s="330"/>
       <c r="C288" s="64" t="s">
         <v>1107</v>
       </c>
@@ -34819,7 +34819,7 @@
       <c r="I288" s="67"/>
     </row>
     <row r="289" spans="2:12">
-      <c r="B289" s="324"/>
+      <c r="B289" s="330"/>
       <c r="C289" s="64" t="s">
         <v>1109</v>
       </c>
@@ -34835,7 +34835,7 @@
       <c r="I289" s="67"/>
     </row>
     <row r="290" spans="2:12">
-      <c r="B290" s="324"/>
+      <c r="B290" s="330"/>
       <c r="C290" s="64" t="s">
         <v>1111</v>
       </c>
@@ -34851,7 +34851,7 @@
       <c r="I290" s="67"/>
     </row>
     <row r="291" spans="2:12">
-      <c r="B291" s="324"/>
+      <c r="B291" s="330"/>
       <c r="C291" s="64" t="s">
         <v>1113</v>
       </c>
@@ -34867,7 +34867,7 @@
       <c r="I291" s="67"/>
     </row>
     <row r="292" spans="2:12">
-      <c r="B292" s="324"/>
+      <c r="B292" s="330"/>
       <c r="C292" s="64" t="s">
         <v>1115</v>
       </c>
@@ -34892,7 +34892,7 @@
       </c>
     </row>
     <row r="293" spans="2:12">
-      <c r="B293" s="324"/>
+      <c r="B293" s="330"/>
       <c r="C293" s="64" t="s">
         <v>1119</v>
       </c>
@@ -34908,7 +34908,7 @@
       <c r="I293" s="67"/>
     </row>
     <row r="294" spans="2:12">
-      <c r="B294" s="324"/>
+      <c r="B294" s="330"/>
       <c r="C294" s="64" t="s">
         <v>1121</v>
       </c>
@@ -34933,7 +34933,7 @@
       </c>
     </row>
     <row r="295" spans="2:12">
-      <c r="B295" s="324"/>
+      <c r="B295" s="330"/>
       <c r="C295" s="64" t="s">
         <v>1125</v>
       </c>
@@ -34958,7 +34958,7 @@
       </c>
     </row>
     <row r="296" spans="2:12">
-      <c r="B296" s="324"/>
+      <c r="B296" s="330"/>
       <c r="C296" s="64" t="s">
         <v>1129</v>
       </c>
@@ -34983,7 +34983,7 @@
       </c>
     </row>
     <row r="297" spans="2:12">
-      <c r="B297" s="324"/>
+      <c r="B297" s="330"/>
       <c r="C297" s="64" t="s">
         <v>1133</v>
       </c>
@@ -35008,7 +35008,7 @@
       </c>
     </row>
     <row r="298" spans="2:12">
-      <c r="B298" s="324"/>
+      <c r="B298" s="330"/>
       <c r="C298" s="64" t="s">
         <v>1137</v>
       </c>
@@ -35024,7 +35024,7 @@
       <c r="I298" s="67"/>
     </row>
     <row r="299" spans="2:12">
-      <c r="B299" s="324"/>
+      <c r="B299" s="330"/>
       <c r="C299" s="64" t="s">
         <v>937</v>
       </c>
@@ -35049,7 +35049,7 @@
       </c>
     </row>
     <row r="300" spans="2:12">
-      <c r="B300" s="324"/>
+      <c r="B300" s="330"/>
       <c r="C300" s="64" t="s">
         <v>912</v>
       </c>
@@ -35065,7 +35065,7 @@
       <c r="I300" s="67"/>
     </row>
     <row r="301" spans="2:12">
-      <c r="B301" s="324"/>
+      <c r="B301" s="330"/>
       <c r="C301" s="64" t="s">
         <v>1139</v>
       </c>
@@ -35081,7 +35081,7 @@
       <c r="I301" s="67"/>
     </row>
     <row r="302" spans="2:12">
-      <c r="B302" s="324"/>
+      <c r="B302" s="330"/>
       <c r="C302" s="64" t="s">
         <v>1141</v>
       </c>
@@ -35097,7 +35097,7 @@
       <c r="I302" s="67"/>
     </row>
     <row r="303" spans="2:12">
-      <c r="B303" s="324"/>
+      <c r="B303" s="330"/>
       <c r="C303" s="64" t="s">
         <v>1143</v>
       </c>
@@ -35113,7 +35113,7 @@
       <c r="I303" s="67"/>
     </row>
     <row r="304" spans="2:12">
-      <c r="B304" s="324"/>
+      <c r="B304" s="330"/>
       <c r="C304" s="64" t="s">
         <v>1146</v>
       </c>
@@ -35129,7 +35129,7 @@
       <c r="I304" s="67"/>
     </row>
     <row r="305" spans="2:12">
-      <c r="B305" s="324"/>
+      <c r="B305" s="330"/>
       <c r="C305" s="64" t="s">
         <v>1186</v>
       </c>
@@ -35145,7 +35145,7 @@
       <c r="I305" s="67"/>
     </row>
     <row r="306" spans="2:12">
-      <c r="B306" s="324"/>
+      <c r="B306" s="330"/>
       <c r="C306" s="64"/>
       <c r="D306" s="64"/>
       <c r="E306" s="49"/>
@@ -35155,7 +35155,7 @@
       <c r="I306" s="67"/>
     </row>
     <row r="307" spans="2:12" ht="15" thickBot="1">
-      <c r="B307" s="325"/>
+      <c r="B307" s="331"/>
       <c r="C307" s="55"/>
       <c r="D307" s="55"/>
       <c r="E307" s="56"/>
@@ -35169,13 +35169,13 @@
       <c r="B309" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C309" s="326" t="s">
+      <c r="C309" s="332" t="s">
         <v>1234</v>
       </c>
-      <c r="D309" s="327"/>
-      <c r="E309" s="327"/>
-      <c r="F309" s="327"/>
-      <c r="G309" s="328"/>
+      <c r="D309" s="333"/>
+      <c r="E309" s="333"/>
+      <c r="F309" s="333"/>
+      <c r="G309" s="334"/>
       <c r="H309" s="41" t="s">
         <v>824</v>
       </c>
@@ -35185,13 +35185,13 @@
       <c r="B310" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C310" s="329" t="s">
+      <c r="C310" s="335" t="s">
         <v>1235</v>
       </c>
-      <c r="D310" s="330"/>
-      <c r="E310" s="330"/>
-      <c r="F310" s="330"/>
-      <c r="G310" s="331"/>
+      <c r="D310" s="336"/>
+      <c r="E310" s="336"/>
+      <c r="F310" s="336"/>
+      <c r="G310" s="337"/>
       <c r="H310" s="45" t="s">
         <v>827</v>
       </c>
@@ -35201,18 +35201,18 @@
       <c r="B311" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C311" s="332" t="s">
+      <c r="C311" s="338" t="s">
         <v>1236</v>
       </c>
-      <c r="D311" s="333"/>
-      <c r="E311" s="333"/>
-      <c r="F311" s="333"/>
-      <c r="G311" s="333"/>
-      <c r="H311" s="333"/>
-      <c r="I311" s="334"/>
+      <c r="D311" s="339"/>
+      <c r="E311" s="339"/>
+      <c r="F311" s="339"/>
+      <c r="G311" s="339"/>
+      <c r="H311" s="339"/>
+      <c r="I311" s="340"/>
     </row>
     <row r="312" spans="2:12">
-      <c r="B312" s="323" t="s">
+      <c r="B312" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C312" s="41" t="s">
@@ -35247,7 +35247,7 @@
       </c>
     </row>
     <row r="313" spans="2:12">
-      <c r="B313" s="324"/>
+      <c r="B313" s="330"/>
       <c r="C313" s="48" t="s">
         <v>843</v>
       </c>
@@ -35263,7 +35263,7 @@
       <c r="I313" s="51"/>
     </row>
     <row r="314" spans="2:12">
-      <c r="B314" s="324"/>
+      <c r="B314" s="330"/>
       <c r="C314" s="48" t="s">
         <v>1237</v>
       </c>
@@ -35279,7 +35279,7 @@
       <c r="I314" s="51"/>
     </row>
     <row r="315" spans="2:12">
-      <c r="B315" s="324"/>
+      <c r="B315" s="330"/>
       <c r="C315" s="48" t="s">
         <v>1238</v>
       </c>
@@ -35295,7 +35295,7 @@
       <c r="I315" s="51"/>
     </row>
     <row r="316" spans="2:12">
-      <c r="B316" s="324"/>
+      <c r="B316" s="330"/>
       <c r="C316" s="48" t="s">
         <v>849</v>
       </c>
@@ -35311,7 +35311,7 @@
       <c r="I316" s="51"/>
     </row>
     <row r="317" spans="2:12">
-      <c r="B317" s="324"/>
+      <c r="B317" s="330"/>
       <c r="C317" s="48" t="s">
         <v>1239</v>
       </c>
@@ -35327,7 +35327,7 @@
       <c r="I317" s="51"/>
     </row>
     <row r="318" spans="2:12">
-      <c r="B318" s="324"/>
+      <c r="B318" s="330"/>
       <c r="C318" s="48" t="s">
         <v>1240</v>
       </c>
@@ -35343,7 +35343,7 @@
       <c r="I318" s="51"/>
     </row>
     <row r="319" spans="2:12">
-      <c r="B319" s="324"/>
+      <c r="B319" s="330"/>
       <c r="C319" s="48" t="s">
         <v>1242</v>
       </c>
@@ -35359,7 +35359,7 @@
       <c r="I319" s="51"/>
     </row>
     <row r="320" spans="2:12">
-      <c r="B320" s="324"/>
+      <c r="B320" s="330"/>
       <c r="C320" s="48" t="s">
         <v>1243</v>
       </c>
@@ -35375,7 +35375,7 @@
       <c r="I320" s="51"/>
     </row>
     <row r="321" spans="2:9">
-      <c r="B321" s="324"/>
+      <c r="B321" s="330"/>
       <c r="C321" s="48" t="s">
         <v>1244</v>
       </c>
@@ -35391,7 +35391,7 @@
       <c r="I321" s="51"/>
     </row>
     <row r="322" spans="2:9">
-      <c r="B322" s="324"/>
+      <c r="B322" s="330"/>
       <c r="C322" s="48" t="s">
         <v>1245</v>
       </c>
@@ -35407,7 +35407,7 @@
       <c r="I322" s="51"/>
     </row>
     <row r="323" spans="2:9">
-      <c r="B323" s="324"/>
+      <c r="B323" s="330"/>
       <c r="C323" s="48" t="s">
         <v>1246</v>
       </c>
@@ -35423,7 +35423,7 @@
       <c r="I323" s="51"/>
     </row>
     <row r="324" spans="2:9">
-      <c r="B324" s="324"/>
+      <c r="B324" s="330"/>
       <c r="C324" s="48" t="s">
         <v>1247</v>
       </c>
@@ -35439,7 +35439,7 @@
       <c r="I324" s="51"/>
     </row>
     <row r="325" spans="2:9">
-      <c r="B325" s="324"/>
+      <c r="B325" s="330"/>
       <c r="C325" s="48" t="s">
         <v>1248</v>
       </c>
@@ -35455,7 +35455,7 @@
       <c r="I325" s="51"/>
     </row>
     <row r="326" spans="2:9">
-      <c r="B326" s="324"/>
+      <c r="B326" s="330"/>
       <c r="C326" s="48" t="s">
         <v>1249</v>
       </c>
@@ -35471,7 +35471,7 @@
       <c r="I326" s="51"/>
     </row>
     <row r="327" spans="2:9">
-      <c r="B327" s="324"/>
+      <c r="B327" s="330"/>
       <c r="C327" s="48" t="s">
         <v>1250</v>
       </c>
@@ -35487,7 +35487,7 @@
       <c r="I327" s="51"/>
     </row>
     <row r="328" spans="2:9">
-      <c r="B328" s="324"/>
+      <c r="B328" s="330"/>
       <c r="C328" s="48" t="s">
         <v>1251</v>
       </c>
@@ -35503,7 +35503,7 @@
       <c r="I328" s="51"/>
     </row>
     <row r="329" spans="2:9">
-      <c r="B329" s="324"/>
+      <c r="B329" s="330"/>
       <c r="C329" s="48" t="s">
         <v>1252</v>
       </c>
@@ -35519,7 +35519,7 @@
       <c r="I329" s="51"/>
     </row>
     <row r="330" spans="2:9">
-      <c r="B330" s="324"/>
+      <c r="B330" s="330"/>
       <c r="C330" s="48" t="s">
         <v>1254</v>
       </c>
@@ -35535,7 +35535,7 @@
       <c r="I330" s="51"/>
     </row>
     <row r="331" spans="2:9">
-      <c r="B331" s="324"/>
+      <c r="B331" s="330"/>
       <c r="C331" s="48" t="s">
         <v>1255</v>
       </c>
@@ -35551,7 +35551,7 @@
       <c r="I331" s="51"/>
     </row>
     <row r="332" spans="2:9">
-      <c r="B332" s="324"/>
+      <c r="B332" s="330"/>
       <c r="C332" s="48" t="s">
         <v>1256</v>
       </c>
@@ -35567,7 +35567,7 @@
       <c r="I332" s="51"/>
     </row>
     <row r="333" spans="2:9">
-      <c r="B333" s="324"/>
+      <c r="B333" s="330"/>
       <c r="C333" s="48" t="s">
         <v>1258</v>
       </c>
@@ -35583,7 +35583,7 @@
       <c r="I333" s="51"/>
     </row>
     <row r="334" spans="2:9">
-      <c r="B334" s="324"/>
+      <c r="B334" s="330"/>
       <c r="C334" s="64" t="s">
         <v>1260</v>
       </c>
@@ -35599,7 +35599,7 @@
       <c r="I334" s="67"/>
     </row>
     <row r="335" spans="2:9">
-      <c r="B335" s="324"/>
+      <c r="B335" s="330"/>
       <c r="C335" s="64" t="s">
         <v>1133</v>
       </c>
@@ -35615,7 +35615,7 @@
       <c r="I335" s="67"/>
     </row>
     <row r="336" spans="2:9">
-      <c r="B336" s="324"/>
+      <c r="B336" s="330"/>
       <c r="C336" s="64" t="s">
         <v>1262</v>
       </c>
@@ -35631,7 +35631,7 @@
       <c r="I336" s="67"/>
     </row>
     <row r="337" spans="2:12" ht="15" thickBot="1">
-      <c r="B337" s="325"/>
+      <c r="B337" s="331"/>
       <c r="C337" s="55"/>
       <c r="D337" s="55"/>
       <c r="E337" s="56"/>
@@ -35645,13 +35645,13 @@
       <c r="B340" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C340" s="326" t="s">
+      <c r="C340" s="332" t="s">
         <v>1263</v>
       </c>
-      <c r="D340" s="327"/>
-      <c r="E340" s="327"/>
-      <c r="F340" s="327"/>
-      <c r="G340" s="328"/>
+      <c r="D340" s="333"/>
+      <c r="E340" s="333"/>
+      <c r="F340" s="333"/>
+      <c r="G340" s="334"/>
       <c r="H340" s="41" t="s">
         <v>824</v>
       </c>
@@ -35661,13 +35661,13 @@
       <c r="B341" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C341" s="329" t="s">
+      <c r="C341" s="335" t="s">
         <v>1264</v>
       </c>
-      <c r="D341" s="330"/>
-      <c r="E341" s="330"/>
-      <c r="F341" s="330"/>
-      <c r="G341" s="331"/>
+      <c r="D341" s="336"/>
+      <c r="E341" s="336"/>
+      <c r="F341" s="336"/>
+      <c r="G341" s="337"/>
       <c r="H341" s="45" t="s">
         <v>827</v>
       </c>
@@ -35677,16 +35677,16 @@
       <c r="B342" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C342" s="332"/>
-      <c r="D342" s="333"/>
-      <c r="E342" s="333"/>
-      <c r="F342" s="333"/>
-      <c r="G342" s="333"/>
-      <c r="H342" s="333"/>
-      <c r="I342" s="334"/>
+      <c r="C342" s="338"/>
+      <c r="D342" s="339"/>
+      <c r="E342" s="339"/>
+      <c r="F342" s="339"/>
+      <c r="G342" s="339"/>
+      <c r="H342" s="339"/>
+      <c r="I342" s="340"/>
     </row>
     <row r="343" spans="2:12">
-      <c r="B343" s="323" t="s">
+      <c r="B343" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C343" s="41" t="s">
@@ -35721,7 +35721,7 @@
       </c>
     </row>
     <row r="344" spans="2:12">
-      <c r="B344" s="324"/>
+      <c r="B344" s="330"/>
       <c r="C344" s="48" t="s">
         <v>846</v>
       </c>
@@ -35740,7 +35740,7 @@
       </c>
     </row>
     <row r="345" spans="2:12">
-      <c r="B345" s="324"/>
+      <c r="B345" s="330"/>
       <c r="C345" s="48" t="s">
         <v>912</v>
       </c>
@@ -35759,7 +35759,7 @@
       </c>
     </row>
     <row r="346" spans="2:12">
-      <c r="B346" s="324"/>
+      <c r="B346" s="330"/>
       <c r="C346" s="48" t="s">
         <v>849</v>
       </c>
@@ -35784,7 +35784,7 @@
       </c>
     </row>
     <row r="347" spans="2:12">
-      <c r="B347" s="324"/>
+      <c r="B347" s="330"/>
       <c r="C347" s="48" t="s">
         <v>840</v>
       </c>
@@ -35803,7 +35803,7 @@
       </c>
     </row>
     <row r="348" spans="2:12">
-      <c r="B348" s="324"/>
+      <c r="B348" s="330"/>
       <c r="C348" s="48" t="s">
         <v>1268</v>
       </c>
@@ -35828,7 +35828,7 @@
       </c>
     </row>
     <row r="349" spans="2:12">
-      <c r="B349" s="324"/>
+      <c r="B349" s="330"/>
       <c r="C349" s="48" t="s">
         <v>1238</v>
       </c>
@@ -35853,7 +35853,7 @@
       </c>
     </row>
     <row r="350" spans="2:12">
-      <c r="B350" s="324"/>
+      <c r="B350" s="330"/>
       <c r="C350" s="48" t="s">
         <v>1275</v>
       </c>
@@ -35878,7 +35878,7 @@
       </c>
     </row>
     <row r="351" spans="2:12">
-      <c r="B351" s="324"/>
+      <c r="B351" s="330"/>
       <c r="C351" s="48" t="s">
         <v>854</v>
       </c>
@@ -35903,7 +35903,7 @@
       </c>
     </row>
     <row r="352" spans="2:12">
-      <c r="B352" s="324"/>
+      <c r="B352" s="330"/>
       <c r="C352" s="48" t="s">
         <v>859</v>
       </c>
@@ -35928,7 +35928,7 @@
       </c>
     </row>
     <row r="353" spans="2:12">
-      <c r="B353" s="324"/>
+      <c r="B353" s="330"/>
       <c r="C353" s="48" t="s">
         <v>1283</v>
       </c>
@@ -35953,7 +35953,7 @@
       </c>
     </row>
     <row r="354" spans="2:12">
-      <c r="B354" s="324"/>
+      <c r="B354" s="330"/>
       <c r="C354" s="48" t="s">
         <v>1237</v>
       </c>
@@ -35969,7 +35969,7 @@
       <c r="I354" s="51"/>
     </row>
     <row r="355" spans="2:12">
-      <c r="B355" s="324"/>
+      <c r="B355" s="330"/>
       <c r="C355" s="48" t="s">
         <v>1287</v>
       </c>
@@ -35985,7 +35985,7 @@
       <c r="I355" s="51"/>
     </row>
     <row r="356" spans="2:12">
-      <c r="B356" s="324"/>
+      <c r="B356" s="330"/>
       <c r="C356" s="48" t="s">
         <v>1289</v>
       </c>
@@ -36010,7 +36010,7 @@
       </c>
     </row>
     <row r="357" spans="2:12">
-      <c r="B357" s="324"/>
+      <c r="B357" s="330"/>
       <c r="C357" s="48" t="s">
         <v>1293</v>
       </c>
@@ -36035,7 +36035,7 @@
       </c>
     </row>
     <row r="358" spans="2:12">
-      <c r="B358" s="324"/>
+      <c r="B358" s="330"/>
       <c r="C358" s="48" t="s">
         <v>1297</v>
       </c>
@@ -36060,7 +36060,7 @@
       </c>
     </row>
     <row r="359" spans="2:12">
-      <c r="B359" s="324"/>
+      <c r="B359" s="330"/>
       <c r="C359" s="48" t="s">
         <v>1300</v>
       </c>
@@ -36085,7 +36085,7 @@
       </c>
     </row>
     <row r="360" spans="2:12">
-      <c r="B360" s="324"/>
+      <c r="B360" s="330"/>
       <c r="C360" s="48" t="s">
         <v>1305</v>
       </c>
@@ -36110,7 +36110,7 @@
       </c>
     </row>
     <row r="361" spans="2:12">
-      <c r="B361" s="324"/>
+      <c r="B361" s="330"/>
       <c r="C361" s="48" t="s">
         <v>1307</v>
       </c>
@@ -36126,7 +36126,7 @@
       <c r="I361" s="51"/>
     </row>
     <row r="362" spans="2:12">
-      <c r="B362" s="324"/>
+      <c r="B362" s="330"/>
       <c r="C362" s="48" t="s">
         <v>1309</v>
       </c>
@@ -36142,7 +36142,7 @@
       <c r="I362" s="51"/>
     </row>
     <row r="363" spans="2:12">
-      <c r="B363" s="324"/>
+      <c r="B363" s="330"/>
       <c r="C363" s="48" t="s">
         <v>1311</v>
       </c>
@@ -36167,7 +36167,7 @@
       </c>
     </row>
     <row r="364" spans="2:12">
-      <c r="B364" s="324"/>
+      <c r="B364" s="330"/>
       <c r="C364" s="48" t="s">
         <v>1315</v>
       </c>
@@ -36183,7 +36183,7 @@
       <c r="I364" s="51"/>
     </row>
     <row r="365" spans="2:12">
-      <c r="B365" s="324"/>
+      <c r="B365" s="330"/>
       <c r="C365" s="64" t="s">
         <v>1318</v>
       </c>
@@ -36199,7 +36199,7 @@
       <c r="I365" s="67"/>
     </row>
     <row r="366" spans="2:12">
-      <c r="B366" s="324"/>
+      <c r="B366" s="330"/>
       <c r="C366" s="64" t="s">
         <v>1089</v>
       </c>
@@ -36215,7 +36215,7 @@
       <c r="I366" s="67"/>
     </row>
     <row r="367" spans="2:12">
-      <c r="B367" s="324"/>
+      <c r="B367" s="330"/>
       <c r="C367" s="64"/>
       <c r="D367" s="64"/>
       <c r="E367" s="65"/>
@@ -36225,7 +36225,7 @@
       <c r="I367" s="67"/>
     </row>
     <row r="368" spans="2:12" ht="15" thickBot="1">
-      <c r="B368" s="325"/>
+      <c r="B368" s="331"/>
       <c r="C368" s="55"/>
       <c r="D368" s="55"/>
       <c r="E368" s="56"/>
@@ -36239,13 +36239,13 @@
       <c r="B371" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C371" s="326" t="s">
+      <c r="C371" s="332" t="s">
         <v>1320</v>
       </c>
-      <c r="D371" s="327"/>
-      <c r="E371" s="327"/>
-      <c r="F371" s="327"/>
-      <c r="G371" s="328"/>
+      <c r="D371" s="333"/>
+      <c r="E371" s="333"/>
+      <c r="F371" s="333"/>
+      <c r="G371" s="334"/>
       <c r="H371" s="41" t="s">
         <v>824</v>
       </c>
@@ -36255,13 +36255,13 @@
       <c r="B372" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C372" s="329" t="s">
+      <c r="C372" s="335" t="s">
         <v>1321</v>
       </c>
-      <c r="D372" s="330"/>
-      <c r="E372" s="330"/>
-      <c r="F372" s="330"/>
-      <c r="G372" s="331"/>
+      <c r="D372" s="336"/>
+      <c r="E372" s="336"/>
+      <c r="F372" s="336"/>
+      <c r="G372" s="337"/>
       <c r="H372" s="45" t="s">
         <v>827</v>
       </c>
@@ -36271,16 +36271,16 @@
       <c r="B373" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C373" s="332"/>
-      <c r="D373" s="333"/>
-      <c r="E373" s="333"/>
-      <c r="F373" s="333"/>
-      <c r="G373" s="333"/>
-      <c r="H373" s="333"/>
-      <c r="I373" s="334"/>
+      <c r="C373" s="338"/>
+      <c r="D373" s="339"/>
+      <c r="E373" s="339"/>
+      <c r="F373" s="339"/>
+      <c r="G373" s="339"/>
+      <c r="H373" s="339"/>
+      <c r="I373" s="340"/>
     </row>
     <row r="374" spans="2:12">
-      <c r="B374" s="323" t="s">
+      <c r="B374" s="329" t="s">
         <v>829</v>
       </c>
       <c r="C374" s="41" t="s">
@@ -36306,7 +36306,7 @@
       </c>
     </row>
     <row r="375" spans="2:12">
-      <c r="B375" s="324"/>
+      <c r="B375" s="330"/>
       <c r="C375" s="48" t="s">
         <v>1197</v>
       </c>
@@ -36325,7 +36325,7 @@
       </c>
     </row>
     <row r="376" spans="2:12">
-      <c r="B376" s="324"/>
+      <c r="B376" s="330"/>
       <c r="C376" s="48" t="s">
         <v>1151</v>
       </c>
@@ -36344,7 +36344,7 @@
       </c>
     </row>
     <row r="377" spans="2:12">
-      <c r="B377" s="324"/>
+      <c r="B377" s="330"/>
       <c r="C377" s="48" t="s">
         <v>1323</v>
       </c>
@@ -36360,7 +36360,7 @@
       <c r="I377" s="51"/>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="324"/>
+      <c r="B378" s="330"/>
       <c r="C378" s="48" t="s">
         <v>912</v>
       </c>
@@ -36379,7 +36379,7 @@
       </c>
     </row>
     <row r="379" spans="2:12">
-      <c r="B379" s="324"/>
+      <c r="B379" s="330"/>
       <c r="C379" s="48" t="s">
         <v>846</v>
       </c>
@@ -36398,7 +36398,7 @@
       </c>
     </row>
     <row r="380" spans="2:12">
-      <c r="B380" s="324"/>
+      <c r="B380" s="330"/>
       <c r="C380" s="48" t="s">
         <v>840</v>
       </c>
@@ -36417,7 +36417,7 @@
       </c>
     </row>
     <row r="381" spans="2:12">
-      <c r="B381" s="324"/>
+      <c r="B381" s="330"/>
       <c r="C381" s="48" t="s">
         <v>854</v>
       </c>
@@ -36442,7 +36442,7 @@
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="324"/>
+      <c r="B382" s="330"/>
       <c r="C382" s="48" t="s">
         <v>1268</v>
       </c>
@@ -36467,7 +36467,7 @@
       </c>
     </row>
     <row r="383" spans="2:12">
-      <c r="B383" s="324"/>
+      <c r="B383" s="330"/>
       <c r="C383" s="48" t="s">
         <v>1238</v>
       </c>
@@ -36492,7 +36492,7 @@
       </c>
     </row>
     <row r="384" spans="2:12">
-      <c r="B384" s="324"/>
+      <c r="B384" s="330"/>
       <c r="C384" s="48" t="s">
         <v>849</v>
       </c>
@@ -36517,7 +36517,7 @@
       </c>
     </row>
     <row r="385" spans="2:12">
-      <c r="B385" s="324"/>
+      <c r="B385" s="330"/>
       <c r="C385" s="48" t="s">
         <v>1275</v>
       </c>
@@ -36542,7 +36542,7 @@
       </c>
     </row>
     <row r="386" spans="2:12">
-      <c r="B386" s="324"/>
+      <c r="B386" s="330"/>
       <c r="C386" s="48" t="s">
         <v>859</v>
       </c>
@@ -36567,7 +36567,7 @@
       </c>
     </row>
     <row r="387" spans="2:12">
-      <c r="B387" s="324"/>
+      <c r="B387" s="330"/>
       <c r="C387" s="48" t="s">
         <v>1283</v>
       </c>
@@ -36592,7 +36592,7 @@
       </c>
     </row>
     <row r="388" spans="2:12">
-      <c r="B388" s="324"/>
+      <c r="B388" s="330"/>
       <c r="C388" s="48" t="s">
         <v>1237</v>
       </c>
@@ -36608,7 +36608,7 @@
       <c r="I388" s="51"/>
     </row>
     <row r="389" spans="2:12">
-      <c r="B389" s="324"/>
+      <c r="B389" s="330"/>
       <c r="C389" s="48" t="s">
         <v>1287</v>
       </c>
@@ -36624,7 +36624,7 @@
       <c r="I389" s="51"/>
     </row>
     <row r="390" spans="2:12">
-      <c r="B390" s="324"/>
+      <c r="B390" s="330"/>
       <c r="C390" s="48" t="s">
         <v>1289</v>
       </c>
@@ -36649,7 +36649,7 @@
       </c>
     </row>
     <row r="391" spans="2:12">
-      <c r="B391" s="324"/>
+      <c r="B391" s="330"/>
       <c r="C391" s="48" t="s">
         <v>1293</v>
       </c>
@@ -36674,7 +36674,7 @@
       </c>
     </row>
     <row r="392" spans="2:12">
-      <c r="B392" s="324"/>
+      <c r="B392" s="330"/>
       <c r="C392" s="48" t="s">
         <v>1297</v>
       </c>
@@ -36699,7 +36699,7 @@
       </c>
     </row>
     <row r="393" spans="2:12">
-      <c r="B393" s="324"/>
+      <c r="B393" s="330"/>
       <c r="C393" s="48" t="s">
         <v>1300</v>
       </c>
@@ -36724,7 +36724,7 @@
       </c>
     </row>
     <row r="394" spans="2:12">
-      <c r="B394" s="324"/>
+      <c r="B394" s="330"/>
       <c r="C394" s="48" t="s">
         <v>1305</v>
       </c>
@@ -36749,7 +36749,7 @@
       </c>
     </row>
     <row r="395" spans="2:12">
-      <c r="B395" s="324"/>
+      <c r="B395" s="330"/>
       <c r="C395" s="48" t="s">
         <v>1307</v>
       </c>
@@ -36765,7 +36765,7 @@
       <c r="I395" s="51"/>
     </row>
     <row r="396" spans="2:12">
-      <c r="B396" s="324"/>
+      <c r="B396" s="330"/>
       <c r="C396" s="64" t="s">
         <v>1309</v>
       </c>
@@ -36781,7 +36781,7 @@
       <c r="I396" s="67"/>
     </row>
     <row r="397" spans="2:12">
-      <c r="B397" s="324"/>
+      <c r="B397" s="330"/>
       <c r="C397" s="64" t="s">
         <v>1311</v>
       </c>
@@ -36806,7 +36806,7 @@
       </c>
     </row>
     <row r="398" spans="2:12">
-      <c r="B398" s="324"/>
+      <c r="B398" s="330"/>
       <c r="C398" s="64" t="s">
         <v>1315</v>
       </c>
@@ -36822,7 +36822,7 @@
       <c r="I398" s="67"/>
     </row>
     <row r="399" spans="2:12">
-      <c r="B399" s="324"/>
+      <c r="B399" s="330"/>
       <c r="C399" s="64" t="s">
         <v>1318</v>
       </c>
@@ -36847,7 +36847,7 @@
       </c>
     </row>
     <row r="400" spans="2:12">
-      <c r="B400" s="324"/>
+      <c r="B400" s="330"/>
       <c r="C400" s="64" t="s">
         <v>1089</v>
       </c>
@@ -36863,7 +36863,7 @@
       <c r="I400" s="67"/>
     </row>
     <row r="401" spans="2:9">
-      <c r="B401" s="324"/>
+      <c r="B401" s="330"/>
       <c r="C401" s="64"/>
       <c r="D401" s="64"/>
       <c r="E401" s="65"/>
@@ -36873,7 +36873,7 @@
       <c r="I401" s="67"/>
     </row>
     <row r="402" spans="2:9" ht="15" thickBot="1">
-      <c r="B402" s="325"/>
+      <c r="B402" s="331"/>
       <c r="C402" s="55"/>
       <c r="D402" s="55"/>
       <c r="E402" s="56"/>
@@ -36884,6 +36884,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -36896,42 +36932,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -19663,32 +19663,47 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19699,38 +19714,17 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19747,20 +19741,26 @@
     <xf numFmtId="0" fontId="46" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -20790,10 +20790,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J299" sqref="J299"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -20848,13 +20848,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="309" t="s">
         <v>1339</v>
       </c>
-      <c r="C2" s="299" t="s">
+      <c r="C2" s="304" t="s">
         <v>1340</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="307" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -20884,9 +20884,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="304"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="321"/>
       <c r="E3" s="153" t="s">
         <v>1345</v>
       </c>
@@ -20907,9 +20907,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="297"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="304"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="321"/>
       <c r="E4" s="153" t="s">
         <v>1348</v>
       </c>
@@ -20928,9 +20928,9 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="297"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="304"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="321"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -20951,9 +20951,9 @@
     </row>
     <row r="6" spans="1:12" ht="32.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="304"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="321"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -20970,9 +20970,9 @@
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="304"/>
+      <c r="B7" s="318"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="321"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -20989,8 +20989,8 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="300"/>
+      <c r="B8" s="318"/>
+      <c r="C8" s="305"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -21006,8 +21006,8 @@
     </row>
     <row r="9" spans="1:12" ht="74.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="300"/>
+      <c r="B9" s="318"/>
+      <c r="C9" s="305"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -21023,8 +21023,8 @@
     </row>
     <row r="10" spans="1:12" ht="25.5" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="297"/>
-      <c r="C10" s="300"/>
+      <c r="B10" s="318"/>
+      <c r="C10" s="305"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -21042,8 +21042,8 @@
     </row>
     <row r="11" spans="1:12" s="256" customFormat="1" ht="68.25" customHeight="1">
       <c r="A11" s="250"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="300"/>
+      <c r="B11" s="318"/>
+      <c r="C11" s="305"/>
       <c r="D11" s="246" t="s">
         <v>0</v>
       </c>
@@ -21067,8 +21067,8 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="297"/>
-      <c r="C12" s="300"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="305"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -21088,8 +21088,8 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="297"/>
-      <c r="C13" s="300"/>
+      <c r="B13" s="318"/>
+      <c r="C13" s="305"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -21109,8 +21109,8 @@
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="297"/>
-      <c r="C14" s="300"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="166" t="s">
         <v>2255</v>
       </c>
@@ -21128,8 +21128,8 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="300"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="305"/>
       <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
@@ -21147,9 +21147,9 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="305" t="s">
+      <c r="B16" s="318"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="290" t="s">
         <v>1359</v>
       </c>
       <c r="E16" s="153"/>
@@ -21168,9 +21168,9 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="306"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="291"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
@@ -21187,9 +21187,9 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="307"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="305"/>
+      <c r="D18" s="292"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
@@ -21204,8 +21204,8 @@
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="300"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="305"/>
       <c r="D19" s="165" t="s">
         <v>1364</v>
       </c>
@@ -21227,8 +21227,8 @@
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="300"/>
+      <c r="B20" s="318"/>
+      <c r="C20" s="305"/>
       <c r="D20" s="165" t="s">
         <v>1366</v>
       </c>
@@ -21250,9 +21250,9 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="296" t="s">
+      <c r="B21" s="318"/>
+      <c r="C21" s="305"/>
+      <c r="D21" s="309" t="s">
         <v>1368</v>
       </c>
       <c r="E21" s="153"/>
@@ -21271,9 +21271,9 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="297"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="297"/>
+      <c r="B22" s="318"/>
+      <c r="C22" s="305"/>
+      <c r="D22" s="318"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
@@ -21288,9 +21288,9 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="297"/>
+      <c r="B23" s="318"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="318"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
@@ -21309,9 +21309,9 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="297"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="305"/>
+      <c r="D24" s="318"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
@@ -21330,9 +21330,9 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="297"/>
+      <c r="B25" s="318"/>
+      <c r="C25" s="305"/>
+      <c r="D25" s="318"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
@@ -21349,9 +21349,9 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="297"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="297"/>
+      <c r="B26" s="318"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="318"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
       <c r="G26" s="155" t="s">
@@ -21370,9 +21370,9 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="297"/>
+      <c r="B27" s="318"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="318"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
       <c r="G27" s="169" t="s">
@@ -21391,9 +21391,9 @@
     </row>
     <row r="28" spans="1:11" ht="57.75" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="297"/>
+      <c r="B28" s="318"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="318"/>
       <c r="E28" s="153"/>
       <c r="F28" s="161"/>
       <c r="G28" s="170" t="s">
@@ -21412,9 +21412,9 @@
     </row>
     <row r="29" spans="1:11" s="174" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="171"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="300"/>
-      <c r="D29" s="297"/>
+      <c r="B29" s="318"/>
+      <c r="C29" s="305"/>
+      <c r="D29" s="318"/>
       <c r="E29" s="172"/>
       <c r="F29" s="154"/>
       <c r="G29" s="170" t="s">
@@ -21433,9 +21433,9 @@
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="297"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="297"/>
+      <c r="B30" s="318"/>
+      <c r="C30" s="305"/>
+      <c r="D30" s="318"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="170" t="s">
@@ -21454,9 +21454,9 @@
     </row>
     <row r="31" spans="1:11" ht="185.25" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="297"/>
+      <c r="B31" s="318"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="318"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="170" t="s">
@@ -21477,9 +21477,9 @@
     </row>
     <row r="32" spans="1:11" ht="57.75" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="297"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="297"/>
+      <c r="B32" s="318"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="318"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="170" t="s">
@@ -21498,9 +21498,9 @@
     </row>
     <row r="33" spans="1:11" ht="59.25" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="297"/>
+      <c r="B33" s="318"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="318"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="170" t="s">
@@ -21519,9 +21519,9 @@
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="297"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="297"/>
+      <c r="B34" s="318"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="318"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
       <c r="G34" s="170" t="s">
@@ -21540,9 +21540,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="297"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="297"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="305"/>
+      <c r="D35" s="318"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
       <c r="G35" s="177" t="s">
@@ -21561,9 +21561,9 @@
     </row>
     <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="297"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="297"/>
+      <c r="B36" s="318"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="318"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="180" t="s">
@@ -21582,9 +21582,9 @@
     </row>
     <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="297"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="297"/>
+      <c r="B37" s="318"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="318"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="170" t="s">
@@ -21603,9 +21603,9 @@
     </row>
     <row r="38" spans="1:11" ht="43.5" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="297"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="297"/>
+      <c r="B38" s="318"/>
+      <c r="C38" s="305"/>
+      <c r="D38" s="318"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="170" t="s">
@@ -21624,9 +21624,9 @@
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="297"/>
-      <c r="C39" s="300"/>
-      <c r="D39" s="297"/>
+      <c r="B39" s="318"/>
+      <c r="C39" s="305"/>
+      <c r="D39" s="318"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="170" t="s">
@@ -21645,9 +21645,9 @@
     </row>
     <row r="40" spans="1:11" ht="43.5" customHeight="1" thickBot="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="297"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="297"/>
+      <c r="B40" s="318"/>
+      <c r="C40" s="305"/>
+      <c r="D40" s="318"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="176" t="s">
@@ -21666,9 +21666,9 @@
     </row>
     <row r="41" spans="1:11" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="297"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="297"/>
+      <c r="B41" s="318"/>
+      <c r="C41" s="305"/>
+      <c r="D41" s="318"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="262" t="s">
@@ -21687,9 +21687,9 @@
     </row>
     <row r="42" spans="1:11" ht="43.5" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="297"/>
-      <c r="C42" s="300"/>
-      <c r="D42" s="297"/>
+      <c r="B42" s="318"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="318"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="180" t="s">
@@ -21708,9 +21708,9 @@
     </row>
     <row r="43" spans="1:11" ht="79.5" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="297"/>
-      <c r="C43" s="300"/>
-      <c r="D43" s="297"/>
+      <c r="B43" s="318"/>
+      <c r="C43" s="305"/>
+      <c r="D43" s="318"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="170" t="s">
@@ -21729,9 +21729,9 @@
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="297"/>
-      <c r="C44" s="300"/>
-      <c r="D44" s="297"/>
+      <c r="B44" s="318"/>
+      <c r="C44" s="305"/>
+      <c r="D44" s="318"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="170" t="s">
@@ -21748,9 +21748,9 @@
     </row>
     <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="297"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="297"/>
+      <c r="B45" s="318"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="318"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="170" t="s">
@@ -21767,9 +21767,9 @@
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="297"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="297"/>
+      <c r="B46" s="318"/>
+      <c r="C46" s="305"/>
+      <c r="D46" s="318"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="170" t="s">
@@ -21790,9 +21790,9 @@
     </row>
     <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="297"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="297"/>
+      <c r="B47" s="318"/>
+      <c r="C47" s="305"/>
+      <c r="D47" s="318"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="186" t="s">
@@ -21811,9 +21811,9 @@
     </row>
     <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="297"/>
-      <c r="C48" s="300"/>
-      <c r="D48" s="297"/>
+      <c r="B48" s="318"/>
+      <c r="C48" s="305"/>
+      <c r="D48" s="318"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="186" t="s">
@@ -21828,9 +21828,9 @@
     </row>
     <row r="49" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="297"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="297"/>
+      <c r="B49" s="318"/>
+      <c r="C49" s="305"/>
+      <c r="D49" s="318"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="177" t="s">
@@ -21849,9 +21849,9 @@
     </row>
     <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="297"/>
-      <c r="C50" s="300"/>
-      <c r="D50" s="297"/>
+      <c r="B50" s="318"/>
+      <c r="C50" s="305"/>
+      <c r="D50" s="318"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="180" t="s">
@@ -21870,9 +21870,9 @@
     </row>
     <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="297"/>
-      <c r="C51" s="300"/>
-      <c r="D51" s="297"/>
+      <c r="B51" s="318"/>
+      <c r="C51" s="305"/>
+      <c r="D51" s="318"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="170" t="s">
@@ -21891,9 +21891,9 @@
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="297"/>
-      <c r="C52" s="300"/>
-      <c r="D52" s="297"/>
+      <c r="B52" s="318"/>
+      <c r="C52" s="305"/>
+      <c r="D52" s="318"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="170" t="s">
@@ -21912,9 +21912,9 @@
     </row>
     <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="297"/>
-      <c r="C53" s="300"/>
-      <c r="D53" s="297"/>
+      <c r="B53" s="318"/>
+      <c r="C53" s="305"/>
+      <c r="D53" s="318"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="170" t="s">
@@ -21933,9 +21933,9 @@
     </row>
     <row r="54" spans="1:11" ht="38.25" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="297"/>
-      <c r="C54" s="300"/>
-      <c r="D54" s="297"/>
+      <c r="B54" s="318"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="318"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="170" t="s">
@@ -21950,13 +21950,13 @@
       <c r="J54" s="264" t="s">
         <v>2871</v>
       </c>
-      <c r="K54" s="313"/>
+      <c r="K54" s="311"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="297"/>
-      <c r="C55" s="300"/>
-      <c r="D55" s="297"/>
+      <c r="B55" s="318"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="318"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="186" t="s">
@@ -21967,13 +21967,13 @@
       </c>
       <c r="I55" s="173"/>
       <c r="J55" s="185"/>
-      <c r="K55" s="314"/>
+      <c r="K55" s="312"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="297"/>
-      <c r="C56" s="300"/>
-      <c r="D56" s="297"/>
+      <c r="B56" s="318"/>
+      <c r="C56" s="305"/>
+      <c r="D56" s="318"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="170" t="s">
@@ -21994,9 +21994,9 @@
     </row>
     <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="297"/>
-      <c r="C57" s="300"/>
-      <c r="D57" s="297"/>
+      <c r="B57" s="318"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="318"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="186" t="s">
@@ -22013,9 +22013,9 @@
     </row>
     <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="297"/>
-      <c r="C58" s="300"/>
-      <c r="D58" s="297"/>
+      <c r="B58" s="318"/>
+      <c r="C58" s="305"/>
+      <c r="D58" s="318"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="170" t="s">
@@ -22034,9 +22034,9 @@
     </row>
     <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="297"/>
-      <c r="C59" s="300"/>
-      <c r="D59" s="297"/>
+      <c r="B59" s="318"/>
+      <c r="C59" s="305"/>
+      <c r="D59" s="318"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
       <c r="G59" s="170" t="s">
@@ -22055,9 +22055,9 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="297"/>
-      <c r="C60" s="300"/>
-      <c r="D60" s="297"/>
+      <c r="B60" s="318"/>
+      <c r="C60" s="305"/>
+      <c r="D60" s="318"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
       <c r="G60" s="188" t="s">
@@ -22074,9 +22074,9 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="297"/>
-      <c r="C61" s="300"/>
-      <c r="D61" s="297"/>
+      <c r="B61" s="318"/>
+      <c r="C61" s="305"/>
+      <c r="D61" s="318"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
       <c r="G61" s="180" t="s">
@@ -22095,9 +22095,9 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="297"/>
-      <c r="C62" s="300"/>
-      <c r="D62" s="297"/>
+      <c r="B62" s="318"/>
+      <c r="C62" s="305"/>
+      <c r="D62" s="318"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="170" t="s">
@@ -22114,9 +22114,9 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="297"/>
-      <c r="C63" s="300"/>
-      <c r="D63" s="297"/>
+      <c r="B63" s="318"/>
+      <c r="C63" s="305"/>
+      <c r="D63" s="318"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
       <c r="G63" s="170" t="s">
@@ -22133,9 +22133,9 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="297"/>
-      <c r="C64" s="300"/>
-      <c r="D64" s="297"/>
+      <c r="B64" s="318"/>
+      <c r="C64" s="305"/>
+      <c r="D64" s="318"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
       <c r="G64" s="177" t="s">
@@ -22152,9 +22152,9 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="297"/>
-      <c r="C65" s="300"/>
-      <c r="D65" s="297"/>
+      <c r="B65" s="318"/>
+      <c r="C65" s="305"/>
+      <c r="D65" s="318"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
       <c r="G65" s="180" t="s">
@@ -22171,9 +22171,9 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="298"/>
-      <c r="C66" s="301"/>
-      <c r="D66" s="298"/>
+      <c r="B66" s="319"/>
+      <c r="C66" s="306"/>
+      <c r="D66" s="319"/>
       <c r="E66" s="153"/>
       <c r="F66" s="161"/>
       <c r="G66" s="191" t="s">
@@ -22190,13 +22190,13 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="296" t="s">
+      <c r="B67" s="309" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="299" t="s">
+      <c r="C67" s="304" t="s">
         <v>1379</v>
       </c>
-      <c r="D67" s="305" t="s">
+      <c r="D67" s="290" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="153"/>
@@ -22217,9 +22217,9 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
-      <c r="B68" s="318"/>
-      <c r="C68" s="300"/>
-      <c r="D68" s="306"/>
+      <c r="B68" s="310"/>
+      <c r="C68" s="305"/>
+      <c r="D68" s="291"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
       <c r="G68" s="155" t="s">
@@ -22236,9 +22236,9 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
-      <c r="B69" s="318"/>
-      <c r="C69" s="300"/>
-      <c r="D69" s="307"/>
+      <c r="B69" s="310"/>
+      <c r="C69" s="305"/>
+      <c r="D69" s="292"/>
       <c r="E69" s="153"/>
       <c r="F69" s="161"/>
       <c r="G69" s="197" t="s">
@@ -22259,11 +22259,11 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
-      <c r="B70" s="318"/>
-      <c r="C70" s="299" t="s">
+      <c r="B70" s="310"/>
+      <c r="C70" s="304" t="s">
         <v>1382</v>
       </c>
-      <c r="D70" s="305" t="s">
+      <c r="D70" s="290" t="s">
         <v>1383</v>
       </c>
       <c r="E70" s="153"/>
@@ -22284,9 +22284,9 @@
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
-      <c r="B71" s="318"/>
-      <c r="C71" s="300"/>
-      <c r="D71" s="306"/>
+      <c r="B71" s="310"/>
+      <c r="C71" s="305"/>
+      <c r="D71" s="291"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
       <c r="G71" s="155" t="s">
@@ -22305,9 +22305,9 @@
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
-      <c r="B72" s="318"/>
-      <c r="C72" s="300"/>
-      <c r="D72" s="306"/>
+      <c r="B72" s="310"/>
+      <c r="C72" s="305"/>
+      <c r="D72" s="291"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="197" t="s">
@@ -22326,9 +22326,9 @@
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
-      <c r="B73" s="318"/>
-      <c r="C73" s="300"/>
-      <c r="D73" s="307"/>
+      <c r="B73" s="310"/>
+      <c r="C73" s="305"/>
+      <c r="D73" s="292"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
       <c r="G73" s="197" t="s">
@@ -22347,8 +22347,8 @@
     </row>
     <row r="74" spans="1:11" ht="41.1" customHeight="1">
       <c r="A74" s="152"/>
-      <c r="B74" s="318"/>
-      <c r="C74" s="300"/>
+      <c r="B74" s="310"/>
+      <c r="C74" s="305"/>
       <c r="D74" s="198" t="s">
         <v>5</v>
       </c>
@@ -22370,10 +22370,10 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="200"/>
-      <c r="B75" s="305" t="s">
+      <c r="B75" s="290" t="s">
         <v>1389</v>
       </c>
-      <c r="C75" s="299" t="s">
+      <c r="C75" s="304" t="s">
         <v>1390</v>
       </c>
       <c r="D75" s="201" t="s">
@@ -22395,8 +22395,8 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="200"/>
-      <c r="B76" s="306"/>
-      <c r="C76" s="300"/>
+      <c r="B76" s="291"/>
+      <c r="C76" s="305"/>
       <c r="D76" s="202" t="s">
         <v>1583</v>
       </c>
@@ -22416,8 +22416,8 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="200"/>
-      <c r="B77" s="306"/>
-      <c r="C77" s="300"/>
+      <c r="B77" s="291"/>
+      <c r="C77" s="305"/>
       <c r="D77" s="202" t="s">
         <v>1586</v>
       </c>
@@ -22439,9 +22439,9 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="200"/>
-      <c r="B78" s="306"/>
-      <c r="C78" s="300"/>
-      <c r="D78" s="293" t="s">
+      <c r="B78" s="291"/>
+      <c r="C78" s="305"/>
+      <c r="D78" s="302" t="s">
         <v>1599</v>
       </c>
       <c r="E78" s="153"/>
@@ -22456,9 +22456,9 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="200"/>
-      <c r="B79" s="306"/>
-      <c r="C79" s="300"/>
-      <c r="D79" s="294"/>
+      <c r="B79" s="291"/>
+      <c r="C79" s="305"/>
+      <c r="D79" s="303"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="197" t="s">
@@ -22477,9 +22477,9 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="200"/>
-      <c r="B80" s="306"/>
-      <c r="C80" s="300"/>
-      <c r="D80" s="295"/>
+      <c r="B80" s="291"/>
+      <c r="C80" s="305"/>
+      <c r="D80" s="317"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
       <c r="G80" s="197" t="s">
@@ -22496,9 +22496,9 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="200"/>
-      <c r="B81" s="306"/>
-      <c r="C81" s="300"/>
-      <c r="D81" s="305" t="s">
+      <c r="B81" s="291"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="290" t="s">
         <v>1393</v>
       </c>
       <c r="E81" s="153"/>
@@ -22521,9 +22521,9 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="200"/>
-      <c r="B82" s="306"/>
-      <c r="C82" s="300"/>
-      <c r="D82" s="306"/>
+      <c r="B82" s="291"/>
+      <c r="C82" s="305"/>
+      <c r="D82" s="291"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
@@ -22542,9 +22542,9 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="200"/>
-      <c r="B83" s="306"/>
-      <c r="C83" s="300"/>
-      <c r="D83" s="306"/>
+      <c r="B83" s="291"/>
+      <c r="C83" s="305"/>
+      <c r="D83" s="291"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
@@ -22563,9 +22563,9 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="200"/>
-      <c r="B84" s="306"/>
-      <c r="C84" s="300"/>
-      <c r="D84" s="306"/>
+      <c r="B84" s="291"/>
+      <c r="C84" s="305"/>
+      <c r="D84" s="291"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
@@ -22584,9 +22584,9 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="200"/>
-      <c r="B85" s="306"/>
-      <c r="C85" s="300"/>
-      <c r="D85" s="307"/>
+      <c r="B85" s="291"/>
+      <c r="C85" s="305"/>
+      <c r="D85" s="292"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
@@ -22605,9 +22605,9 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="200"/>
-      <c r="B86" s="306"/>
-      <c r="C86" s="300"/>
-      <c r="D86" s="305" t="s">
+      <c r="B86" s="291"/>
+      <c r="C86" s="305"/>
+      <c r="D86" s="290" t="s">
         <v>1400</v>
       </c>
       <c r="E86" s="153"/>
@@ -22630,9 +22630,9 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="200"/>
-      <c r="B87" s="306"/>
-      <c r="C87" s="300"/>
-      <c r="D87" s="307"/>
+      <c r="B87" s="291"/>
+      <c r="C87" s="305"/>
+      <c r="D87" s="292"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
@@ -22651,8 +22651,8 @@
     </row>
     <row r="88" spans="1:11" ht="64.5" customHeight="1">
       <c r="A88" s="200"/>
-      <c r="B88" s="306"/>
-      <c r="C88" s="300"/>
+      <c r="B88" s="291"/>
+      <c r="C88" s="305"/>
       <c r="D88" s="165" t="s">
         <v>1</v>
       </c>
@@ -22676,9 +22676,9 @@
     </row>
     <row r="89" spans="1:11" ht="57" customHeight="1">
       <c r="A89" s="200"/>
-      <c r="B89" s="306"/>
-      <c r="C89" s="300"/>
-      <c r="D89" s="305" t="s">
+      <c r="B89" s="291"/>
+      <c r="C89" s="305"/>
+      <c r="D89" s="290" t="s">
         <v>1404</v>
       </c>
       <c r="E89" s="153"/>
@@ -22699,9 +22699,9 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="200"/>
-      <c r="B90" s="306"/>
-      <c r="C90" s="300"/>
-      <c r="D90" s="306"/>
+      <c r="B90" s="291"/>
+      <c r="C90" s="305"/>
+      <c r="D90" s="291"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
@@ -22716,9 +22716,9 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="200"/>
-      <c r="B91" s="306"/>
-      <c r="C91" s="300"/>
-      <c r="D91" s="306"/>
+      <c r="B91" s="291"/>
+      <c r="C91" s="305"/>
+      <c r="D91" s="291"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
@@ -22733,9 +22733,9 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="200"/>
-      <c r="B92" s="306"/>
-      <c r="C92" s="300"/>
-      <c r="D92" s="306"/>
+      <c r="B92" s="291"/>
+      <c r="C92" s="305"/>
+      <c r="D92" s="291"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
       <c r="G92" s="155" t="s">
@@ -22750,9 +22750,9 @@
     </row>
     <row r="93" spans="1:11" ht="37.5" customHeight="1">
       <c r="A93" s="200"/>
-      <c r="B93" s="306"/>
-      <c r="C93" s="300"/>
-      <c r="D93" s="307"/>
+      <c r="B93" s="291"/>
+      <c r="C93" s="305"/>
+      <c r="D93" s="292"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="197" t="s">
@@ -22767,9 +22767,9 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="200"/>
-      <c r="B94" s="306"/>
-      <c r="C94" s="300"/>
-      <c r="D94" s="305" t="s">
+      <c r="B94" s="291"/>
+      <c r="C94" s="305"/>
+      <c r="D94" s="290" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="153"/>
@@ -22788,9 +22788,9 @@
     </row>
     <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="200"/>
-      <c r="B95" s="306"/>
-      <c r="C95" s="300"/>
-      <c r="D95" s="306"/>
+      <c r="B95" s="291"/>
+      <c r="C95" s="305"/>
+      <c r="D95" s="291"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
@@ -22809,9 +22809,9 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="200"/>
-      <c r="B96" s="306"/>
-      <c r="C96" s="300"/>
-      <c r="D96" s="307"/>
+      <c r="B96" s="291"/>
+      <c r="C96" s="305"/>
+      <c r="D96" s="292"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
@@ -22826,9 +22826,9 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="200"/>
-      <c r="B97" s="306"/>
-      <c r="C97" s="300"/>
-      <c r="D97" s="305" t="s">
+      <c r="B97" s="291"/>
+      <c r="C97" s="305"/>
+      <c r="D97" s="290" t="s">
         <v>1412</v>
       </c>
       <c r="E97" s="153"/>
@@ -22845,9 +22845,9 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="200"/>
-      <c r="B98" s="306"/>
-      <c r="C98" s="300"/>
-      <c r="D98" s="307"/>
+      <c r="B98" s="291"/>
+      <c r="C98" s="305"/>
+      <c r="D98" s="292"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="280" t="s">
@@ -22862,9 +22862,9 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="200"/>
-      <c r="B99" s="306"/>
-      <c r="C99" s="300"/>
-      <c r="D99" s="290" t="s">
+      <c r="B99" s="291"/>
+      <c r="C99" s="305"/>
+      <c r="D99" s="316" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="153"/>
@@ -22883,9 +22883,9 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="200"/>
-      <c r="B100" s="306"/>
-      <c r="C100" s="301"/>
-      <c r="D100" s="290"/>
+      <c r="B100" s="291"/>
+      <c r="C100" s="306"/>
+      <c r="D100" s="316"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
@@ -22904,11 +22904,11 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="200"/>
-      <c r="B101" s="306"/>
-      <c r="C101" s="299" t="s">
+      <c r="B101" s="291"/>
+      <c r="C101" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="294" t="s">
+      <c r="D101" s="303" t="s">
         <v>1598</v>
       </c>
       <c r="E101" s="153"/>
@@ -22927,9 +22927,9 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="200"/>
-      <c r="B102" s="306"/>
-      <c r="C102" s="300"/>
-      <c r="D102" s="295"/>
+      <c r="B102" s="291"/>
+      <c r="C102" s="305"/>
+      <c r="D102" s="317"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
       <c r="G102" s="155" t="s">
@@ -22946,8 +22946,8 @@
     </row>
     <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="200"/>
-      <c r="B103" s="306"/>
-      <c r="C103" s="300"/>
+      <c r="B103" s="291"/>
+      <c r="C103" s="305"/>
       <c r="D103" s="165" t="s">
         <v>1418</v>
       </c>
@@ -22967,9 +22967,9 @@
     </row>
     <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="200"/>
-      <c r="B104" s="306"/>
-      <c r="C104" s="300"/>
-      <c r="D104" s="293" t="s">
+      <c r="B104" s="291"/>
+      <c r="C104" s="305"/>
+      <c r="D104" s="302" t="s">
         <v>1610</v>
       </c>
       <c r="E104" s="153"/>
@@ -22992,9 +22992,9 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="200"/>
-      <c r="B105" s="306"/>
-      <c r="C105" s="300"/>
-      <c r="D105" s="294"/>
+      <c r="B105" s="291"/>
+      <c r="C105" s="305"/>
+      <c r="D105" s="303"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="197" t="s">
@@ -23011,9 +23011,9 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="200"/>
-      <c r="B106" s="306"/>
-      <c r="C106" s="300"/>
-      <c r="D106" s="294"/>
+      <c r="B106" s="291"/>
+      <c r="C106" s="305"/>
+      <c r="D106" s="303"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="197" t="s">
@@ -23030,9 +23030,9 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="200"/>
-      <c r="B107" s="306"/>
-      <c r="C107" s="300"/>
-      <c r="D107" s="295"/>
+      <c r="B107" s="291"/>
+      <c r="C107" s="305"/>
+      <c r="D107" s="317"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
       <c r="G107" s="197" t="s">
@@ -23049,8 +23049,8 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="200"/>
-      <c r="B108" s="306"/>
-      <c r="C108" s="300"/>
+      <c r="B108" s="291"/>
+      <c r="C108" s="305"/>
       <c r="D108" s="165" t="s">
         <v>1391</v>
       </c>
@@ -23070,9 +23070,9 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="200"/>
-      <c r="B109" s="306"/>
-      <c r="C109" s="300"/>
-      <c r="D109" s="305" t="s">
+      <c r="B109" s="291"/>
+      <c r="C109" s="305"/>
+      <c r="D109" s="290" t="s">
         <v>1419</v>
       </c>
       <c r="E109" s="153"/>
@@ -23093,9 +23093,9 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="200"/>
-      <c r="B110" s="306"/>
-      <c r="C110" s="300"/>
-      <c r="D110" s="307"/>
+      <c r="B110" s="291"/>
+      <c r="C110" s="305"/>
+      <c r="D110" s="292"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
@@ -23114,9 +23114,9 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="200"/>
-      <c r="B111" s="306"/>
-      <c r="C111" s="300"/>
-      <c r="D111" s="315" t="s">
+      <c r="B111" s="291"/>
+      <c r="C111" s="305"/>
+      <c r="D111" s="313" t="s">
         <v>1424</v>
       </c>
       <c r="E111" s="153"/>
@@ -23133,9 +23133,9 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="200"/>
-      <c r="B112" s="306"/>
-      <c r="C112" s="300"/>
-      <c r="D112" s="316"/>
+      <c r="B112" s="291"/>
+      <c r="C112" s="305"/>
+      <c r="D112" s="314"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
@@ -23152,9 +23152,9 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="200"/>
-      <c r="B113" s="306"/>
-      <c r="C113" s="300"/>
-      <c r="D113" s="317"/>
+      <c r="B113" s="291"/>
+      <c r="C113" s="305"/>
+      <c r="D113" s="315"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
@@ -23171,8 +23171,8 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="200"/>
-      <c r="B114" s="306"/>
-      <c r="C114" s="300"/>
+      <c r="B114" s="291"/>
+      <c r="C114" s="305"/>
       <c r="D114" s="165" t="s">
         <v>9</v>
       </c>
@@ -23192,9 +23192,9 @@
     </row>
     <row r="115" spans="1:11" ht="27" customHeight="1">
       <c r="A115" s="200"/>
-      <c r="B115" s="306"/>
-      <c r="C115" s="300"/>
-      <c r="D115" s="305" t="s">
+      <c r="B115" s="291"/>
+      <c r="C115" s="305"/>
+      <c r="D115" s="290" t="s">
         <v>1427</v>
       </c>
       <c r="E115" s="153"/>
@@ -23215,9 +23215,9 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="200"/>
-      <c r="B116" s="306"/>
-      <c r="C116" s="300"/>
-      <c r="D116" s="306"/>
+      <c r="B116" s="291"/>
+      <c r="C116" s="305"/>
+      <c r="D116" s="291"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
@@ -23234,9 +23234,9 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="200"/>
-      <c r="B117" s="306"/>
-      <c r="C117" s="301"/>
-      <c r="D117" s="307"/>
+      <c r="B117" s="291"/>
+      <c r="C117" s="306"/>
+      <c r="D117" s="292"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
@@ -23255,11 +23255,11 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="200"/>
-      <c r="B118" s="306"/>
-      <c r="C118" s="299" t="s">
+      <c r="B118" s="291"/>
+      <c r="C118" s="304" t="s">
         <v>1433</v>
       </c>
-      <c r="D118" s="305" t="s">
+      <c r="D118" s="290" t="s">
         <v>1434</v>
       </c>
       <c r="E118" s="153"/>
@@ -23278,9 +23278,9 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="200"/>
-      <c r="B119" s="306"/>
-      <c r="C119" s="300"/>
-      <c r="D119" s="307"/>
+      <c r="B119" s="291"/>
+      <c r="C119" s="305"/>
+      <c r="D119" s="292"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
@@ -23296,8 +23296,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="306"/>
-      <c r="C120" s="300"/>
+      <c r="B120" s="291"/>
+      <c r="C120" s="305"/>
       <c r="D120" s="165" t="s">
         <v>1437</v>
       </c>
@@ -23316,8 +23316,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="306"/>
-      <c r="C121" s="300"/>
+      <c r="B121" s="291"/>
+      <c r="C121" s="305"/>
       <c r="D121" s="165" t="s">
         <v>1440</v>
       </c>
@@ -23336,8 +23336,8 @@
       <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="306"/>
-      <c r="C122" s="300"/>
+      <c r="B122" s="291"/>
+      <c r="C122" s="305"/>
       <c r="D122" s="208" t="s">
         <v>1442</v>
       </c>
@@ -23356,9 +23356,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="306"/>
-      <c r="C123" s="300"/>
-      <c r="D123" s="305" t="s">
+      <c r="B123" s="291"/>
+      <c r="C123" s="305"/>
+      <c r="D123" s="290" t="s">
         <v>171</v>
       </c>
       <c r="E123" s="153"/>
@@ -23374,9 +23374,9 @@
       <c r="K123" s="181"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="306"/>
-      <c r="C124" s="300"/>
-      <c r="D124" s="306"/>
+      <c r="B124" s="291"/>
+      <c r="C124" s="305"/>
+      <c r="D124" s="291"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
@@ -23392,9 +23392,9 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="306"/>
-      <c r="C125" s="300"/>
-      <c r="D125" s="306"/>
+      <c r="B125" s="291"/>
+      <c r="C125" s="305"/>
+      <c r="D125" s="291"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
@@ -23408,9 +23408,9 @@
       <c r="K125" s="181"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="306"/>
-      <c r="C126" s="300"/>
-      <c r="D126" s="307"/>
+      <c r="B126" s="291"/>
+      <c r="C126" s="305"/>
+      <c r="D126" s="292"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
@@ -23426,9 +23426,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="306"/>
-      <c r="C127" s="300"/>
-      <c r="D127" s="303" t="s">
+      <c r="B127" s="291"/>
+      <c r="C127" s="305"/>
+      <c r="D127" s="307" t="s">
         <v>1444</v>
       </c>
       <c r="E127" s="153"/>
@@ -23442,9 +23442,9 @@
       <c r="K127" s="181"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="306"/>
-      <c r="C128" s="300"/>
-      <c r="D128" s="312"/>
+      <c r="B128" s="291"/>
+      <c r="C128" s="305"/>
+      <c r="D128" s="308"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
@@ -23462,9 +23462,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="306"/>
-      <c r="C129" s="300"/>
-      <c r="D129" s="305" t="s">
+      <c r="B129" s="291"/>
+      <c r="C129" s="305"/>
+      <c r="D129" s="290" t="s">
         <v>1447</v>
       </c>
       <c r="E129" s="153"/>
@@ -23478,9 +23478,9 @@
       <c r="K129" s="181"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="306"/>
-      <c r="C130" s="300"/>
-      <c r="D130" s="306"/>
+      <c r="B130" s="291"/>
+      <c r="C130" s="305"/>
+      <c r="D130" s="291"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
       <c r="G130" s="212" t="s">
@@ -23494,9 +23494,9 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="306"/>
-      <c r="C131" s="300"/>
-      <c r="D131" s="307"/>
+      <c r="B131" s="291"/>
+      <c r="C131" s="305"/>
+      <c r="D131" s="292"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
@@ -23508,9 +23508,9 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B132" s="306"/>
-      <c r="C132" s="300"/>
-      <c r="D132" s="308" t="s">
+      <c r="B132" s="291"/>
+      <c r="C132" s="305"/>
+      <c r="D132" s="322" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="153"/>
@@ -23526,9 +23526,9 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="306"/>
-      <c r="C133" s="300"/>
-      <c r="D133" s="308"/>
+      <c r="B133" s="291"/>
+      <c r="C133" s="305"/>
+      <c r="D133" s="322"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
@@ -23540,8 +23540,8 @@
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="306"/>
-      <c r="C134" s="300"/>
+      <c r="B134" s="291"/>
+      <c r="C134" s="305"/>
       <c r="D134" s="213" t="s">
         <v>170</v>
       </c>
@@ -23558,9 +23558,9 @@
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="306"/>
-      <c r="C135" s="300"/>
-      <c r="D135" s="305" t="s">
+      <c r="B135" s="291"/>
+      <c r="C135" s="305"/>
+      <c r="D135" s="290" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="153"/>
@@ -23576,9 +23576,9 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="306"/>
-      <c r="C136" s="300"/>
-      <c r="D136" s="306"/>
+      <c r="B136" s="291"/>
+      <c r="C136" s="305"/>
+      <c r="D136" s="291"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
@@ -23594,9 +23594,9 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="306"/>
-      <c r="C137" s="300"/>
-      <c r="D137" s="306"/>
+      <c r="B137" s="291"/>
+      <c r="C137" s="305"/>
+      <c r="D137" s="291"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
@@ -23610,9 +23610,9 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="306"/>
-      <c r="C138" s="300"/>
-      <c r="D138" s="306"/>
+      <c r="B138" s="291"/>
+      <c r="C138" s="305"/>
+      <c r="D138" s="291"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
@@ -23628,9 +23628,9 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="306"/>
-      <c r="C139" s="300"/>
-      <c r="D139" s="306"/>
+      <c r="B139" s="291"/>
+      <c r="C139" s="305"/>
+      <c r="D139" s="291"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
@@ -23644,9 +23644,9 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="306"/>
-      <c r="C140" s="300"/>
-      <c r="D140" s="306"/>
+      <c r="B140" s="291"/>
+      <c r="C140" s="305"/>
+      <c r="D140" s="291"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
@@ -23660,9 +23660,9 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="306"/>
-      <c r="C141" s="300"/>
-      <c r="D141" s="306"/>
+      <c r="B141" s="291"/>
+      <c r="C141" s="305"/>
+      <c r="D141" s="291"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
@@ -23676,9 +23676,9 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="306"/>
-      <c r="C142" s="301"/>
-      <c r="D142" s="307"/>
+      <c r="B142" s="291"/>
+      <c r="C142" s="306"/>
+      <c r="D142" s="292"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
@@ -23692,11 +23692,11 @@
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="306"/>
-      <c r="C143" s="299" t="s">
+      <c r="B143" s="291"/>
+      <c r="C143" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="305" t="s">
+      <c r="D143" s="290" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="153"/>
@@ -23712,9 +23712,9 @@
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="306"/>
-      <c r="C144" s="300"/>
-      <c r="D144" s="306"/>
+      <c r="B144" s="291"/>
+      <c r="C144" s="305"/>
+      <c r="D144" s="291"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
@@ -23728,9 +23728,9 @@
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="306"/>
-      <c r="C145" s="300"/>
-      <c r="D145" s="307"/>
+      <c r="B145" s="291"/>
+      <c r="C145" s="305"/>
+      <c r="D145" s="292"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
@@ -23744,9 +23744,9 @@
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="306"/>
-      <c r="C146" s="300"/>
-      <c r="D146" s="305" t="s">
+      <c r="B146" s="291"/>
+      <c r="C146" s="305"/>
+      <c r="D146" s="290" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="153"/>
@@ -23762,9 +23762,9 @@
       <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="306"/>
-      <c r="C147" s="300"/>
-      <c r="D147" s="307"/>
+      <c r="B147" s="291"/>
+      <c r="C147" s="305"/>
+      <c r="D147" s="292"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
@@ -23778,8 +23778,8 @@
       <c r="K147" s="181"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="306"/>
-      <c r="C148" s="301"/>
+      <c r="B148" s="291"/>
+      <c r="C148" s="306"/>
       <c r="D148" s="165" t="s">
         <v>27</v>
       </c>
@@ -23796,11 +23796,11 @@
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="306"/>
-      <c r="C149" s="299" t="s">
+      <c r="B149" s="291"/>
+      <c r="C149" s="304" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="305" t="s">
+      <c r="D149" s="290" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="153"/>
@@ -23816,9 +23816,9 @@
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="306"/>
-      <c r="C150" s="300"/>
-      <c r="D150" s="306"/>
+      <c r="B150" s="291"/>
+      <c r="C150" s="305"/>
+      <c r="D150" s="291"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
       <c r="G150" s="155" t="s">
@@ -23834,9 +23834,9 @@
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="306"/>
-      <c r="C151" s="300"/>
-      <c r="D151" s="306"/>
+      <c r="B151" s="291"/>
+      <c r="C151" s="305"/>
+      <c r="D151" s="291"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
       <c r="G151" s="155" t="s">
@@ -23850,9 +23850,9 @@
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="306"/>
-      <c r="C152" s="300"/>
-      <c r="D152" s="307"/>
+      <c r="B152" s="291"/>
+      <c r="C152" s="305"/>
+      <c r="D152" s="292"/>
       <c r="E152" s="153"/>
       <c r="F152" s="161"/>
       <c r="G152" s="155" t="s">
@@ -23864,9 +23864,9 @@
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="306"/>
-      <c r="C153" s="300"/>
-      <c r="D153" s="303" t="s">
+      <c r="B153" s="291"/>
+      <c r="C153" s="305"/>
+      <c r="D153" s="307" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="214"/>
@@ -23886,9 +23886,9 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="306"/>
-      <c r="C154" s="300"/>
-      <c r="D154" s="312"/>
+      <c r="B154" s="291"/>
+      <c r="C154" s="305"/>
+      <c r="D154" s="308"/>
       <c r="E154" s="214"/>
       <c r="F154" s="215"/>
       <c r="G154" s="155" t="s">
@@ -23904,8 +23904,8 @@
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="306"/>
-      <c r="C155" s="300"/>
+      <c r="B155" s="291"/>
+      <c r="C155" s="305"/>
       <c r="D155" s="165" t="s">
         <v>38</v>
       </c>
@@ -23924,8 +23924,8 @@
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="30" customHeight="1">
-      <c r="B156" s="306"/>
-      <c r="C156" s="300"/>
+      <c r="B156" s="291"/>
+      <c r="C156" s="305"/>
       <c r="D156" s="165" t="s">
         <v>40</v>
       </c>
@@ -23944,9 +23944,9 @@
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="306"/>
-      <c r="C157" s="300"/>
-      <c r="D157" s="305" t="s">
+      <c r="B157" s="291"/>
+      <c r="C157" s="305"/>
+      <c r="D157" s="290" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="153"/>
@@ -23966,9 +23966,9 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="306"/>
-      <c r="C158" s="300"/>
-      <c r="D158" s="306"/>
+      <c r="B158" s="291"/>
+      <c r="C158" s="305"/>
+      <c r="D158" s="291"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
@@ -23984,9 +23984,9 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="24" customHeight="1">
-      <c r="B159" s="306"/>
-      <c r="C159" s="300"/>
-      <c r="D159" s="306"/>
+      <c r="B159" s="291"/>
+      <c r="C159" s="305"/>
+      <c r="D159" s="291"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
@@ -24002,9 +24002,9 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="306"/>
-      <c r="C160" s="300"/>
-      <c r="D160" s="306"/>
+      <c r="B160" s="291"/>
+      <c r="C160" s="305"/>
+      <c r="D160" s="291"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
@@ -24020,9 +24020,9 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="306"/>
-      <c r="C161" s="300"/>
-      <c r="D161" s="306"/>
+      <c r="B161" s="291"/>
+      <c r="C161" s="305"/>
+      <c r="D161" s="291"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
@@ -24036,9 +24036,9 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B162" s="306"/>
-      <c r="C162" s="300"/>
-      <c r="D162" s="306"/>
+      <c r="B162" s="291"/>
+      <c r="C162" s="305"/>
+      <c r="D162" s="291"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
@@ -24054,9 +24054,9 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B163" s="306"/>
-      <c r="C163" s="300"/>
-      <c r="D163" s="306"/>
+      <c r="B163" s="291"/>
+      <c r="C163" s="305"/>
+      <c r="D163" s="291"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="280" t="s">
@@ -24068,9 +24068,9 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="306"/>
-      <c r="C164" s="300"/>
-      <c r="D164" s="306"/>
+      <c r="B164" s="291"/>
+      <c r="C164" s="305"/>
+      <c r="D164" s="291"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
@@ -24086,9 +24086,9 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="306"/>
-      <c r="C165" s="300"/>
-      <c r="D165" s="306"/>
+      <c r="B165" s="291"/>
+      <c r="C165" s="305"/>
+      <c r="D165" s="291"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
@@ -24102,9 +24102,9 @@
       <c r="K165" s="158"/>
     </row>
     <row r="166" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B166" s="306"/>
-      <c r="C166" s="301"/>
-      <c r="D166" s="307"/>
+      <c r="B166" s="291"/>
+      <c r="C166" s="306"/>
+      <c r="D166" s="292"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
@@ -24120,11 +24120,11 @@
       <c r="K166" s="217"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="306"/>
-      <c r="C167" s="299" t="s">
+      <c r="B167" s="291"/>
+      <c r="C167" s="304" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="305" t="s">
+      <c r="D167" s="290" t="s">
         <v>106</v>
       </c>
       <c r="E167" s="153"/>
@@ -24138,9 +24138,9 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="306"/>
-      <c r="C168" s="300"/>
-      <c r="D168" s="306"/>
+      <c r="B168" s="291"/>
+      <c r="C168" s="305"/>
+      <c r="D168" s="291"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
@@ -24152,9 +24152,9 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="306"/>
-      <c r="C169" s="300"/>
-      <c r="D169" s="306"/>
+      <c r="B169" s="291"/>
+      <c r="C169" s="305"/>
+      <c r="D169" s="291"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
@@ -24166,9 +24166,9 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="306"/>
-      <c r="C170" s="300"/>
-      <c r="D170" s="306"/>
+      <c r="B170" s="291"/>
+      <c r="C170" s="305"/>
+      <c r="D170" s="291"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
@@ -24180,9 +24180,9 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="306"/>
-      <c r="C171" s="300"/>
-      <c r="D171" s="306"/>
+      <c r="B171" s="291"/>
+      <c r="C171" s="305"/>
+      <c r="D171" s="291"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
@@ -24194,9 +24194,9 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="306"/>
-      <c r="C172" s="300"/>
-      <c r="D172" s="306"/>
+      <c r="B172" s="291"/>
+      <c r="C172" s="305"/>
+      <c r="D172" s="291"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
@@ -24208,9 +24208,9 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="306"/>
-      <c r="C173" s="300"/>
-      <c r="D173" s="306"/>
+      <c r="B173" s="291"/>
+      <c r="C173" s="305"/>
+      <c r="D173" s="291"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
@@ -24222,9 +24222,9 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="306"/>
-      <c r="C174" s="300"/>
-      <c r="D174" s="306"/>
+      <c r="B174" s="291"/>
+      <c r="C174" s="305"/>
+      <c r="D174" s="291"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
@@ -24236,9 +24236,9 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="306"/>
-      <c r="C175" s="300"/>
-      <c r="D175" s="307"/>
+      <c r="B175" s="291"/>
+      <c r="C175" s="305"/>
+      <c r="D175" s="292"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
@@ -24250,9 +24250,9 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="306"/>
-      <c r="C176" s="300"/>
-      <c r="D176" s="305" t="s">
+      <c r="B176" s="291"/>
+      <c r="C176" s="305"/>
+      <c r="D176" s="290" t="s">
         <v>108</v>
       </c>
       <c r="E176" s="153"/>
@@ -24266,9 +24266,9 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="306"/>
-      <c r="C177" s="300"/>
-      <c r="D177" s="306"/>
+      <c r="B177" s="291"/>
+      <c r="C177" s="305"/>
+      <c r="D177" s="291"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
@@ -24280,9 +24280,9 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="306"/>
-      <c r="C178" s="300"/>
-      <c r="D178" s="306"/>
+      <c r="B178" s="291"/>
+      <c r="C178" s="305"/>
+      <c r="D178" s="291"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
@@ -24294,9 +24294,9 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="306"/>
-      <c r="C179" s="300"/>
-      <c r="D179" s="306"/>
+      <c r="B179" s="291"/>
+      <c r="C179" s="305"/>
+      <c r="D179" s="291"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
@@ -24308,9 +24308,9 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="306"/>
-      <c r="C180" s="300"/>
-      <c r="D180" s="306"/>
+      <c r="B180" s="291"/>
+      <c r="C180" s="305"/>
+      <c r="D180" s="291"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
@@ -24322,9 +24322,9 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="306"/>
-      <c r="C181" s="300"/>
-      <c r="D181" s="306"/>
+      <c r="B181" s="291"/>
+      <c r="C181" s="305"/>
+      <c r="D181" s="291"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
@@ -24336,9 +24336,9 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="306"/>
-      <c r="C182" s="300"/>
-      <c r="D182" s="306"/>
+      <c r="B182" s="291"/>
+      <c r="C182" s="305"/>
+      <c r="D182" s="291"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
@@ -24350,9 +24350,9 @@
       <c r="K182" s="158"/>
     </row>
     <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B183" s="306"/>
-      <c r="C183" s="301"/>
-      <c r="D183" s="307"/>
+      <c r="B183" s="291"/>
+      <c r="C183" s="306"/>
+      <c r="D183" s="292"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
@@ -24364,8 +24364,8 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="306"/>
-      <c r="C184" s="309" t="s">
+      <c r="B184" s="291"/>
+      <c r="C184" s="299" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="165"/>
@@ -24380,8 +24380,8 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="306"/>
-      <c r="C185" s="310"/>
+      <c r="B185" s="291"/>
+      <c r="C185" s="300"/>
       <c r="D185" s="218" t="s">
         <v>156</v>
       </c>
@@ -24396,8 +24396,8 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="306"/>
-      <c r="C186" s="310"/>
+      <c r="B186" s="291"/>
+      <c r="C186" s="300"/>
       <c r="D186" s="220"/>
       <c r="E186" s="209"/>
       <c r="F186" s="219"/>
@@ -24410,8 +24410,8 @@
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="306"/>
-      <c r="C187" s="310"/>
+      <c r="B187" s="291"/>
+      <c r="C187" s="300"/>
       <c r="D187" s="166" t="s">
         <v>158</v>
       </c>
@@ -24424,8 +24424,8 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="306"/>
-      <c r="C188" s="310"/>
+      <c r="B188" s="291"/>
+      <c r="C188" s="300"/>
       <c r="D188" s="166" t="s">
         <v>159</v>
       </c>
@@ -24438,8 +24438,8 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="306"/>
-      <c r="C189" s="310"/>
+      <c r="B189" s="291"/>
+      <c r="C189" s="300"/>
       <c r="D189" s="166" t="s">
         <v>160</v>
       </c>
@@ -24452,8 +24452,8 @@
       <c r="K189" s="158"/>
     </row>
     <row r="190" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B190" s="306"/>
-      <c r="C190" s="310"/>
+      <c r="B190" s="291"/>
+      <c r="C190" s="300"/>
       <c r="D190" s="166" t="s">
         <v>161</v>
       </c>
@@ -24466,8 +24466,8 @@
       <c r="K190" s="158"/>
     </row>
     <row r="191" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B191" s="306"/>
-      <c r="C191" s="310"/>
+      <c r="B191" s="291"/>
+      <c r="C191" s="300"/>
       <c r="D191" s="222" t="s">
         <v>196</v>
       </c>
@@ -24480,8 +24480,8 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="306"/>
-      <c r="C192" s="310"/>
+      <c r="B192" s="291"/>
+      <c r="C192" s="300"/>
       <c r="D192" s="166" t="s">
         <v>162</v>
       </c>
@@ -24494,8 +24494,8 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="307"/>
-      <c r="C193" s="311"/>
+      <c r="B193" s="292"/>
+      <c r="C193" s="301"/>
       <c r="D193" s="166" t="s">
         <v>163</v>
       </c>
@@ -24508,13 +24508,13 @@
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="293" t="s">
+      <c r="B194" s="302" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="299" t="s">
+      <c r="C194" s="304" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="305" t="s">
+      <c r="D194" s="290" t="s">
         <v>56</v>
       </c>
       <c r="E194" s="153"/>
@@ -24530,9 +24530,9 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="294"/>
-      <c r="C195" s="300"/>
-      <c r="D195" s="307"/>
+      <c r="B195" s="303"/>
+      <c r="C195" s="305"/>
+      <c r="D195" s="292"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
@@ -24546,8 +24546,8 @@
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="294"/>
-      <c r="C196" s="300"/>
+      <c r="B196" s="303"/>
+      <c r="C196" s="305"/>
       <c r="D196" s="289" t="s">
         <v>2938</v>
       </c>
@@ -24562,9 +24562,9 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="294"/>
-      <c r="C197" s="300"/>
-      <c r="D197" s="305" t="s">
+      <c r="B197" s="303"/>
+      <c r="C197" s="305"/>
+      <c r="D197" s="290" t="s">
         <v>61</v>
       </c>
       <c r="E197" s="153"/>
@@ -24578,9 +24578,9 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="294"/>
-      <c r="C198" s="300"/>
-      <c r="D198" s="306"/>
+      <c r="B198" s="303"/>
+      <c r="C198" s="305"/>
+      <c r="D198" s="291"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
@@ -24596,9 +24596,9 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="294"/>
-      <c r="C199" s="300"/>
-      <c r="D199" s="307"/>
+      <c r="B199" s="303"/>
+      <c r="C199" s="305"/>
+      <c r="D199" s="292"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
@@ -24610,9 +24610,9 @@
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="294"/>
-      <c r="C200" s="300"/>
-      <c r="D200" s="305" t="s">
+      <c r="B200" s="303"/>
+      <c r="C200" s="305"/>
+      <c r="D200" s="290" t="s">
         <v>65</v>
       </c>
       <c r="E200" s="153"/>
@@ -24628,9 +24628,9 @@
       <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B201" s="294"/>
-      <c r="C201" s="300"/>
-      <c r="D201" s="307"/>
+      <c r="B201" s="303"/>
+      <c r="C201" s="305"/>
+      <c r="D201" s="292"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
@@ -24644,9 +24644,9 @@
       <c r="K201" s="181"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="294"/>
-      <c r="C202" s="300"/>
-      <c r="D202" s="305" t="s">
+      <c r="B202" s="303"/>
+      <c r="C202" s="305"/>
+      <c r="D202" s="290" t="s">
         <v>68</v>
       </c>
       <c r="E202" s="153"/>
@@ -24660,9 +24660,9 @@
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="294"/>
-      <c r="C203" s="300"/>
-      <c r="D203" s="307"/>
+      <c r="B203" s="303"/>
+      <c r="C203" s="305"/>
+      <c r="D203" s="292"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
@@ -24676,9 +24676,9 @@
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="294"/>
-      <c r="C204" s="300"/>
-      <c r="D204" s="305" t="s">
+      <c r="B204" s="303"/>
+      <c r="C204" s="305"/>
+      <c r="D204" s="290" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="153"/>
@@ -24694,9 +24694,9 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="294"/>
-      <c r="C205" s="300"/>
-      <c r="D205" s="306"/>
+      <c r="B205" s="303"/>
+      <c r="C205" s="305"/>
+      <c r="D205" s="291"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
@@ -24712,9 +24712,9 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="294"/>
-      <c r="C206" s="300"/>
-      <c r="D206" s="306"/>
+      <c r="B206" s="303"/>
+      <c r="C206" s="305"/>
+      <c r="D206" s="291"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
@@ -24728,9 +24728,9 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="294"/>
-      <c r="C207" s="300"/>
-      <c r="D207" s="306"/>
+      <c r="B207" s="303"/>
+      <c r="C207" s="305"/>
+      <c r="D207" s="291"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
@@ -24744,9 +24744,9 @@
       <c r="K207" s="158"/>
     </row>
     <row r="208" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B208" s="294"/>
-      <c r="C208" s="300"/>
-      <c r="D208" s="306"/>
+      <c r="B208" s="303"/>
+      <c r="C208" s="305"/>
+      <c r="D208" s="291"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
@@ -24760,9 +24760,9 @@
       <c r="K208" s="158"/>
     </row>
     <row r="209" spans="2:11" ht="30" customHeight="1">
-      <c r="B209" s="294"/>
-      <c r="C209" s="301"/>
-      <c r="D209" s="307"/>
+      <c r="B209" s="303"/>
+      <c r="C209" s="306"/>
+      <c r="D209" s="292"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
@@ -24778,11 +24778,11 @@
       <c r="K209" s="224"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="294"/>
-      <c r="C210" s="299" t="s">
+      <c r="B210" s="303"/>
+      <c r="C210" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="D210" s="305" t="s">
+      <c r="D210" s="290" t="s">
         <v>1452</v>
       </c>
       <c r="E210" s="153"/>
@@ -24796,9 +24796,9 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="294"/>
-      <c r="C211" s="300"/>
-      <c r="D211" s="306"/>
+      <c r="B211" s="303"/>
+      <c r="C211" s="305"/>
+      <c r="D211" s="291"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
@@ -24812,9 +24812,9 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="294"/>
-      <c r="C212" s="300"/>
-      <c r="D212" s="306"/>
+      <c r="B212" s="303"/>
+      <c r="C212" s="305"/>
+      <c r="D212" s="291"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
@@ -24826,9 +24826,9 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="294"/>
-      <c r="C213" s="300"/>
-      <c r="D213" s="306"/>
+      <c r="B213" s="303"/>
+      <c r="C213" s="305"/>
+      <c r="D213" s="291"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
       <c r="G213" s="155" t="s">
@@ -24840,9 +24840,9 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="294"/>
-      <c r="C214" s="300"/>
-      <c r="D214" s="306"/>
+      <c r="B214" s="303"/>
+      <c r="C214" s="305"/>
+      <c r="D214" s="291"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="225" t="s">
@@ -24854,9 +24854,9 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="294"/>
-      <c r="C215" s="300"/>
-      <c r="D215" s="306"/>
+      <c r="B215" s="303"/>
+      <c r="C215" s="305"/>
+      <c r="D215" s="291"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="225" t="s">
@@ -24868,9 +24868,9 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="294"/>
-      <c r="C216" s="300"/>
-      <c r="D216" s="306"/>
+      <c r="B216" s="303"/>
+      <c r="C216" s="305"/>
+      <c r="D216" s="291"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
       <c r="G216" s="225" t="s">
@@ -24882,9 +24882,9 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="294"/>
-      <c r="C217" s="300"/>
-      <c r="D217" s="306"/>
+      <c r="B217" s="303"/>
+      <c r="C217" s="305"/>
+      <c r="D217" s="291"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
@@ -24896,9 +24896,9 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="294"/>
-      <c r="C218" s="300"/>
-      <c r="D218" s="306"/>
+      <c r="B218" s="303"/>
+      <c r="C218" s="305"/>
+      <c r="D218" s="291"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
@@ -24910,9 +24910,9 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="294"/>
-      <c r="C219" s="300"/>
-      <c r="D219" s="306"/>
+      <c r="B219" s="303"/>
+      <c r="C219" s="305"/>
+      <c r="D219" s="291"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
@@ -24924,9 +24924,9 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="294"/>
-      <c r="C220" s="300"/>
-      <c r="D220" s="306"/>
+      <c r="B220" s="303"/>
+      <c r="C220" s="305"/>
+      <c r="D220" s="291"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
@@ -24938,9 +24938,9 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="294"/>
-      <c r="C221" s="300"/>
-      <c r="D221" s="306"/>
+      <c r="B221" s="303"/>
+      <c r="C221" s="305"/>
+      <c r="D221" s="291"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
@@ -24952,9 +24952,9 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="294"/>
-      <c r="C222" s="300"/>
-      <c r="D222" s="306"/>
+      <c r="B222" s="303"/>
+      <c r="C222" s="305"/>
+      <c r="D222" s="291"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
@@ -24966,9 +24966,9 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="294"/>
-      <c r="C223" s="300"/>
-      <c r="D223" s="306"/>
+      <c r="B223" s="303"/>
+      <c r="C223" s="305"/>
+      <c r="D223" s="291"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
@@ -24980,9 +24980,9 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="294"/>
-      <c r="C224" s="300"/>
-      <c r="D224" s="306"/>
+      <c r="B224" s="303"/>
+      <c r="C224" s="305"/>
+      <c r="D224" s="291"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
@@ -24994,9 +24994,9 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="294"/>
-      <c r="C225" s="300"/>
-      <c r="D225" s="306"/>
+      <c r="B225" s="303"/>
+      <c r="C225" s="305"/>
+      <c r="D225" s="291"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
@@ -25008,9 +25008,9 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="294"/>
-      <c r="C226" s="300"/>
-      <c r="D226" s="306"/>
+      <c r="B226" s="303"/>
+      <c r="C226" s="305"/>
+      <c r="D226" s="291"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
@@ -25022,9 +25022,9 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="294"/>
-      <c r="C227" s="300"/>
-      <c r="D227" s="306"/>
+      <c r="B227" s="303"/>
+      <c r="C227" s="305"/>
+      <c r="D227" s="291"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
@@ -25036,9 +25036,9 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="294"/>
-      <c r="C228" s="300"/>
-      <c r="D228" s="306"/>
+      <c r="B228" s="303"/>
+      <c r="C228" s="305"/>
+      <c r="D228" s="291"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
@@ -25050,9 +25050,9 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="294"/>
-      <c r="C229" s="300"/>
-      <c r="D229" s="306"/>
+      <c r="B229" s="303"/>
+      <c r="C229" s="305"/>
+      <c r="D229" s="291"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
@@ -25064,9 +25064,9 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="294"/>
-      <c r="C230" s="300"/>
-      <c r="D230" s="306"/>
+      <c r="B230" s="303"/>
+      <c r="C230" s="305"/>
+      <c r="D230" s="291"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
@@ -25078,9 +25078,9 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="294"/>
-      <c r="C231" s="300"/>
-      <c r="D231" s="306"/>
+      <c r="B231" s="303"/>
+      <c r="C231" s="305"/>
+      <c r="D231" s="291"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
@@ -25092,9 +25092,9 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="294"/>
-      <c r="C232" s="300"/>
-      <c r="D232" s="306"/>
+      <c r="B232" s="303"/>
+      <c r="C232" s="305"/>
+      <c r="D232" s="291"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
@@ -25106,9 +25106,9 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="294"/>
-      <c r="C233" s="300"/>
-      <c r="D233" s="306"/>
+      <c r="B233" s="303"/>
+      <c r="C233" s="305"/>
+      <c r="D233" s="291"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
@@ -25120,9 +25120,9 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="294"/>
-      <c r="C234" s="300"/>
-      <c r="D234" s="306"/>
+      <c r="B234" s="303"/>
+      <c r="C234" s="305"/>
+      <c r="D234" s="291"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
@@ -25134,9 +25134,9 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="294"/>
-      <c r="C235" s="300"/>
-      <c r="D235" s="306"/>
+      <c r="B235" s="303"/>
+      <c r="C235" s="305"/>
+      <c r="D235" s="291"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
@@ -25148,9 +25148,9 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="294"/>
-      <c r="C236" s="300"/>
-      <c r="D236" s="306"/>
+      <c r="B236" s="303"/>
+      <c r="C236" s="305"/>
+      <c r="D236" s="291"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
@@ -25162,9 +25162,9 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="294"/>
-      <c r="C237" s="300"/>
-      <c r="D237" s="306"/>
+      <c r="B237" s="303"/>
+      <c r="C237" s="305"/>
+      <c r="D237" s="291"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
@@ -25176,9 +25176,9 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="294"/>
-      <c r="C238" s="300"/>
-      <c r="D238" s="306"/>
+      <c r="B238" s="303"/>
+      <c r="C238" s="305"/>
+      <c r="D238" s="291"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
@@ -25190,9 +25190,9 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="294"/>
-      <c r="C239" s="300"/>
-      <c r="D239" s="306"/>
+      <c r="B239" s="303"/>
+      <c r="C239" s="305"/>
+      <c r="D239" s="291"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
@@ -25204,9 +25204,9 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="294"/>
-      <c r="C240" s="301"/>
-      <c r="D240" s="307"/>
+      <c r="B240" s="303"/>
+      <c r="C240" s="306"/>
+      <c r="D240" s="292"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
@@ -25218,11 +25218,11 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="294"/>
-      <c r="C241" s="299" t="s">
+      <c r="B241" s="303"/>
+      <c r="C241" s="304" t="s">
         <v>1470</v>
       </c>
-      <c r="D241" s="305" t="s">
+      <c r="D241" s="290" t="s">
         <v>133</v>
       </c>
       <c r="E241" s="153"/>
@@ -25236,9 +25236,9 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="294"/>
-      <c r="C242" s="300"/>
-      <c r="D242" s="306"/>
+      <c r="B242" s="303"/>
+      <c r="C242" s="305"/>
+      <c r="D242" s="291"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
@@ -25250,9 +25250,9 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="294"/>
-      <c r="C243" s="300"/>
-      <c r="D243" s="306"/>
+      <c r="B243" s="303"/>
+      <c r="C243" s="305"/>
+      <c r="D243" s="291"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
@@ -25266,9 +25266,9 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="294"/>
-      <c r="C244" s="300"/>
-      <c r="D244" s="306"/>
+      <c r="B244" s="303"/>
+      <c r="C244" s="305"/>
+      <c r="D244" s="291"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
@@ -25280,9 +25280,9 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="294"/>
-      <c r="C245" s="300"/>
-      <c r="D245" s="306"/>
+      <c r="B245" s="303"/>
+      <c r="C245" s="305"/>
+      <c r="D245" s="291"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
@@ -25294,9 +25294,9 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="294"/>
-      <c r="C246" s="300"/>
-      <c r="D246" s="306"/>
+      <c r="B246" s="303"/>
+      <c r="C246" s="305"/>
+      <c r="D246" s="291"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
@@ -25308,9 +25308,9 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="294"/>
-      <c r="C247" s="300"/>
-      <c r="D247" s="306"/>
+      <c r="B247" s="303"/>
+      <c r="C247" s="305"/>
+      <c r="D247" s="291"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
@@ -25322,9 +25322,9 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="294"/>
-      <c r="C248" s="300"/>
-      <c r="D248" s="306"/>
+      <c r="B248" s="303"/>
+      <c r="C248" s="305"/>
+      <c r="D248" s="291"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
@@ -25336,9 +25336,9 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="294"/>
-      <c r="C249" s="300"/>
-      <c r="D249" s="306"/>
+      <c r="B249" s="303"/>
+      <c r="C249" s="305"/>
+      <c r="D249" s="291"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
@@ -25350,9 +25350,9 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="294"/>
-      <c r="C250" s="300"/>
-      <c r="D250" s="306"/>
+      <c r="B250" s="303"/>
+      <c r="C250" s="305"/>
+      <c r="D250" s="291"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
@@ -25364,9 +25364,9 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="294"/>
-      <c r="C251" s="300"/>
-      <c r="D251" s="306"/>
+      <c r="B251" s="303"/>
+      <c r="C251" s="305"/>
+      <c r="D251" s="291"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
@@ -25378,9 +25378,9 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="294"/>
-      <c r="C252" s="300"/>
-      <c r="D252" s="306"/>
+      <c r="B252" s="303"/>
+      <c r="C252" s="305"/>
+      <c r="D252" s="291"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
@@ -25392,9 +25392,9 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="294"/>
-      <c r="C253" s="300"/>
-      <c r="D253" s="306"/>
+      <c r="B253" s="303"/>
+      <c r="C253" s="305"/>
+      <c r="D253" s="291"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
@@ -25406,9 +25406,9 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="294"/>
-      <c r="C254" s="300"/>
-      <c r="D254" s="306"/>
+      <c r="B254" s="303"/>
+      <c r="C254" s="305"/>
+      <c r="D254" s="291"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
@@ -25420,9 +25420,9 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="294"/>
-      <c r="C255" s="300"/>
-      <c r="D255" s="306"/>
+      <c r="B255" s="303"/>
+      <c r="C255" s="305"/>
+      <c r="D255" s="291"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
@@ -25434,9 +25434,9 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="294"/>
-      <c r="C256" s="300"/>
-      <c r="D256" s="306"/>
+      <c r="B256" s="303"/>
+      <c r="C256" s="305"/>
+      <c r="D256" s="291"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
@@ -25448,9 +25448,9 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="294"/>
-      <c r="C257" s="301"/>
-      <c r="D257" s="307"/>
+      <c r="B257" s="303"/>
+      <c r="C257" s="306"/>
+      <c r="D257" s="292"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
@@ -25462,11 +25462,11 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="294"/>
-      <c r="C258" s="309" t="s">
+      <c r="B258" s="303"/>
+      <c r="C258" s="299" t="s">
         <v>126</v>
       </c>
-      <c r="D258" s="305" t="s">
+      <c r="D258" s="290" t="s">
         <v>1476</v>
       </c>
       <c r="E258" s="153"/>
@@ -25480,9 +25480,9 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="294"/>
-      <c r="C259" s="310"/>
-      <c r="D259" s="306"/>
+      <c r="B259" s="303"/>
+      <c r="C259" s="300"/>
+      <c r="D259" s="291"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
@@ -25494,9 +25494,9 @@
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="294"/>
-      <c r="C260" s="310"/>
-      <c r="D260" s="306"/>
+      <c r="B260" s="303"/>
+      <c r="C260" s="300"/>
+      <c r="D260" s="291"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
@@ -25508,9 +25508,9 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="294"/>
-      <c r="C261" s="310"/>
-      <c r="D261" s="306"/>
+      <c r="B261" s="303"/>
+      <c r="C261" s="300"/>
+      <c r="D261" s="291"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
@@ -25522,9 +25522,9 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="294"/>
-      <c r="C262" s="310"/>
-      <c r="D262" s="306"/>
+      <c r="B262" s="303"/>
+      <c r="C262" s="300"/>
+      <c r="D262" s="291"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
@@ -25536,9 +25536,9 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="294"/>
-      <c r="C263" s="310"/>
-      <c r="D263" s="306"/>
+      <c r="B263" s="303"/>
+      <c r="C263" s="300"/>
+      <c r="D263" s="291"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
@@ -25552,9 +25552,9 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="294"/>
-      <c r="C264" s="310"/>
-      <c r="D264" s="306"/>
+      <c r="B264" s="303"/>
+      <c r="C264" s="300"/>
+      <c r="D264" s="291"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
@@ -25566,9 +25566,9 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="294"/>
-      <c r="C265" s="310"/>
-      <c r="D265" s="306"/>
+      <c r="B265" s="303"/>
+      <c r="C265" s="300"/>
+      <c r="D265" s="291"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
@@ -25580,9 +25580,9 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="294"/>
-      <c r="C266" s="310"/>
-      <c r="D266" s="306"/>
+      <c r="B266" s="303"/>
+      <c r="C266" s="300"/>
+      <c r="D266" s="291"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
@@ -25594,9 +25594,9 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="294"/>
-      <c r="C267" s="310"/>
-      <c r="D267" s="306"/>
+      <c r="B267" s="303"/>
+      <c r="C267" s="300"/>
+      <c r="D267" s="291"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
@@ -25608,9 +25608,9 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="294"/>
-      <c r="C268" s="310"/>
-      <c r="D268" s="306"/>
+      <c r="B268" s="303"/>
+      <c r="C268" s="300"/>
+      <c r="D268" s="291"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
@@ -25622,9 +25622,9 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="294"/>
-      <c r="C269" s="310"/>
-      <c r="D269" s="306"/>
+      <c r="B269" s="303"/>
+      <c r="C269" s="300"/>
+      <c r="D269" s="291"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
@@ -25636,9 +25636,9 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="294"/>
-      <c r="C270" s="310"/>
-      <c r="D270" s="306"/>
+      <c r="B270" s="303"/>
+      <c r="C270" s="300"/>
+      <c r="D270" s="291"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
@@ -25650,9 +25650,9 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="294"/>
-      <c r="C271" s="310"/>
-      <c r="D271" s="306"/>
+      <c r="B271" s="303"/>
+      <c r="C271" s="300"/>
+      <c r="D271" s="291"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
@@ -25664,9 +25664,9 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="294"/>
-      <c r="C272" s="310"/>
-      <c r="D272" s="306"/>
+      <c r="B272" s="303"/>
+      <c r="C272" s="300"/>
+      <c r="D272" s="291"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
@@ -25678,9 +25678,9 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="294"/>
-      <c r="C273" s="310"/>
-      <c r="D273" s="306"/>
+      <c r="B273" s="303"/>
+      <c r="C273" s="300"/>
+      <c r="D273" s="291"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
@@ -25692,9 +25692,9 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="294"/>
-      <c r="C274" s="310"/>
-      <c r="D274" s="306"/>
+      <c r="B274" s="303"/>
+      <c r="C274" s="300"/>
+      <c r="D274" s="291"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
@@ -25706,9 +25706,9 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="294"/>
-      <c r="C275" s="310"/>
-      <c r="D275" s="306"/>
+      <c r="B275" s="303"/>
+      <c r="C275" s="300"/>
+      <c r="D275" s="291"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
@@ -25720,9 +25720,9 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="294"/>
-      <c r="C276" s="310"/>
-      <c r="D276" s="306"/>
+      <c r="B276" s="303"/>
+      <c r="C276" s="300"/>
+      <c r="D276" s="291"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
@@ -25734,9 +25734,9 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="294"/>
-      <c r="C277" s="310"/>
-      <c r="D277" s="306"/>
+      <c r="B277" s="303"/>
+      <c r="C277" s="300"/>
+      <c r="D277" s="291"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
@@ -25748,9 +25748,9 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="294"/>
-      <c r="C278" s="311"/>
-      <c r="D278" s="307"/>
+      <c r="B278" s="303"/>
+      <c r="C278" s="301"/>
+      <c r="D278" s="292"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
@@ -25762,11 +25762,11 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="294"/>
-      <c r="C279" s="309" t="s">
+      <c r="B279" s="303"/>
+      <c r="C279" s="299" t="s">
         <v>1491</v>
       </c>
-      <c r="D279" s="305" t="s">
+      <c r="D279" s="290" t="s">
         <v>1492</v>
       </c>
       <c r="E279" s="153"/>
@@ -25780,9 +25780,9 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="294"/>
-      <c r="C280" s="310"/>
-      <c r="D280" s="306"/>
+      <c r="B280" s="303"/>
+      <c r="C280" s="300"/>
+      <c r="D280" s="291"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
@@ -25794,9 +25794,9 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="294"/>
-      <c r="C281" s="310"/>
-      <c r="D281" s="306"/>
+      <c r="B281" s="303"/>
+      <c r="C281" s="300"/>
+      <c r="D281" s="291"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
@@ -25808,9 +25808,9 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="294"/>
-      <c r="C282" s="310"/>
-      <c r="D282" s="306"/>
+      <c r="B282" s="303"/>
+      <c r="C282" s="300"/>
+      <c r="D282" s="291"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
@@ -25822,9 +25822,9 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="294"/>
-      <c r="C283" s="310"/>
-      <c r="D283" s="306"/>
+      <c r="B283" s="303"/>
+      <c r="C283" s="300"/>
+      <c r="D283" s="291"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
@@ -25838,9 +25838,9 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="294"/>
-      <c r="C284" s="310"/>
-      <c r="D284" s="306"/>
+      <c r="B284" s="303"/>
+      <c r="C284" s="300"/>
+      <c r="D284" s="291"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
@@ -25852,9 +25852,9 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="294"/>
-      <c r="C285" s="310"/>
-      <c r="D285" s="306"/>
+      <c r="B285" s="303"/>
+      <c r="C285" s="300"/>
+      <c r="D285" s="291"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
@@ -25866,9 +25866,9 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="294"/>
-      <c r="C286" s="310"/>
-      <c r="D286" s="306"/>
+      <c r="B286" s="303"/>
+      <c r="C286" s="300"/>
+      <c r="D286" s="291"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
@@ -25880,9 +25880,9 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="294"/>
-      <c r="C287" s="310"/>
-      <c r="D287" s="306"/>
+      <c r="B287" s="303"/>
+      <c r="C287" s="300"/>
+      <c r="D287" s="291"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
@@ -25894,9 +25894,9 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="294"/>
-      <c r="C288" s="310"/>
-      <c r="D288" s="306"/>
+      <c r="B288" s="303"/>
+      <c r="C288" s="300"/>
+      <c r="D288" s="291"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
@@ -25908,9 +25908,9 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="294"/>
-      <c r="C289" s="310"/>
-      <c r="D289" s="306"/>
+      <c r="B289" s="303"/>
+      <c r="C289" s="300"/>
+      <c r="D289" s="291"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
@@ -25922,9 +25922,9 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="294"/>
-      <c r="C290" s="310"/>
-      <c r="D290" s="306"/>
+      <c r="B290" s="303"/>
+      <c r="C290" s="300"/>
+      <c r="D290" s="291"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
@@ -25936,9 +25936,9 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="294"/>
-      <c r="C291" s="310"/>
-      <c r="D291" s="306"/>
+      <c r="B291" s="303"/>
+      <c r="C291" s="300"/>
+      <c r="D291" s="291"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
@@ -25950,9 +25950,9 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="294"/>
-      <c r="C292" s="310"/>
-      <c r="D292" s="306"/>
+      <c r="B292" s="303"/>
+      <c r="C292" s="300"/>
+      <c r="D292" s="291"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
@@ -25964,9 +25964,9 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="294"/>
-      <c r="C293" s="310"/>
-      <c r="D293" s="306"/>
+      <c r="B293" s="303"/>
+      <c r="C293" s="300"/>
+      <c r="D293" s="291"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
@@ -25978,9 +25978,9 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="294"/>
-      <c r="C294" s="310"/>
-      <c r="D294" s="306"/>
+      <c r="B294" s="303"/>
+      <c r="C294" s="300"/>
+      <c r="D294" s="291"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
@@ -25992,9 +25992,9 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="294"/>
-      <c r="C295" s="310"/>
-      <c r="D295" s="306"/>
+      <c r="B295" s="303"/>
+      <c r="C295" s="300"/>
+      <c r="D295" s="291"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
@@ -26006,9 +26006,9 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="294"/>
-      <c r="C296" s="310"/>
-      <c r="D296" s="306"/>
+      <c r="B296" s="303"/>
+      <c r="C296" s="300"/>
+      <c r="D296" s="291"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
@@ -26020,9 +26020,9 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B297" s="294"/>
-      <c r="C297" s="310"/>
-      <c r="D297" s="306"/>
+      <c r="B297" s="303"/>
+      <c r="C297" s="300"/>
+      <c r="D297" s="291"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
       <c r="G297" s="155" t="s">
@@ -26034,10 +26034,10 @@
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="290" t="s">
+      <c r="A298" s="316" t="s">
         <v>1493</v>
       </c>
-      <c r="B298" s="290"/>
+      <c r="B298" s="316"/>
       <c r="C298" s="226"/>
       <c r="D298" s="165" t="s">
         <v>2957</v>
@@ -26053,8 +26053,8 @@
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="290"/>
-      <c r="B299" s="290"/>
+      <c r="A299" s="316"/>
+      <c r="B299" s="316"/>
       <c r="C299" s="226"/>
       <c r="D299" s="166" t="s">
         <v>2959</v>
@@ -26070,8 +26070,8 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="290"/>
-      <c r="B300" s="290"/>
+      <c r="A300" s="316"/>
+      <c r="B300" s="316"/>
       <c r="C300" s="226" t="s">
         <v>2956</v>
       </c>
@@ -26085,12 +26085,12 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="290"/>
-      <c r="B301" s="290"/>
-      <c r="C301" s="302" t="s">
+      <c r="A301" s="316"/>
+      <c r="B301" s="316"/>
+      <c r="C301" s="320" t="s">
         <v>132</v>
       </c>
-      <c r="D301" s="305" t="s">
+      <c r="D301" s="290" t="s">
         <v>2160</v>
       </c>
       <c r="E301" s="153"/>
@@ -26104,10 +26104,10 @@
       <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="290"/>
-      <c r="B302" s="290"/>
-      <c r="C302" s="302"/>
-      <c r="D302" s="306"/>
+      <c r="A302" s="316"/>
+      <c r="B302" s="316"/>
+      <c r="C302" s="320"/>
+      <c r="D302" s="291"/>
       <c r="E302" s="153"/>
       <c r="F302" s="153"/>
       <c r="G302" s="155" t="s">
@@ -26119,10 +26119,10 @@
       <c r="K302" s="158"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="290"/>
-      <c r="B303" s="290"/>
-      <c r="C303" s="302"/>
-      <c r="D303" s="306"/>
+      <c r="A303" s="316"/>
+      <c r="B303" s="316"/>
+      <c r="C303" s="320"/>
+      <c r="D303" s="291"/>
       <c r="E303" s="153"/>
       <c r="F303" s="153"/>
       <c r="G303" s="155" t="s">
@@ -26134,10 +26134,10 @@
       <c r="K303" s="158"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="290"/>
-      <c r="B304" s="290"/>
-      <c r="C304" s="302"/>
-      <c r="D304" s="306"/>
+      <c r="A304" s="316"/>
+      <c r="B304" s="316"/>
+      <c r="C304" s="320"/>
+      <c r="D304" s="291"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="227" t="s">
@@ -26149,10 +26149,10 @@
       <c r="K304" s="229"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="290"/>
-      <c r="B305" s="290"/>
-      <c r="C305" s="302"/>
-      <c r="D305" s="306"/>
+      <c r="A305" s="316"/>
+      <c r="B305" s="316"/>
+      <c r="C305" s="320"/>
+      <c r="D305" s="291"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="227" t="s">
@@ -26164,10 +26164,10 @@
       <c r="K305" s="229"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="290"/>
-      <c r="B306" s="290"/>
-      <c r="C306" s="302"/>
-      <c r="D306" s="306"/>
+      <c r="A306" s="316"/>
+      <c r="B306" s="316"/>
+      <c r="C306" s="320"/>
+      <c r="D306" s="291"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="227" t="s">
@@ -26179,10 +26179,10 @@
       <c r="K306" s="229"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="290"/>
-      <c r="B307" s="290"/>
-      <c r="C307" s="302"/>
-      <c r="D307" s="306"/>
+      <c r="A307" s="316"/>
+      <c r="B307" s="316"/>
+      <c r="C307" s="320"/>
+      <c r="D307" s="291"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="227" t="s">
@@ -26194,10 +26194,10 @@
       <c r="K307" s="229"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="290"/>
-      <c r="B308" s="290"/>
-      <c r="C308" s="302"/>
-      <c r="D308" s="306"/>
+      <c r="A308" s="316"/>
+      <c r="B308" s="316"/>
+      <c r="C308" s="320"/>
+      <c r="D308" s="291"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="227" t="s">
@@ -26209,10 +26209,10 @@
       <c r="K308" s="229"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="290"/>
-      <c r="B309" s="290"/>
-      <c r="C309" s="302"/>
-      <c r="D309" s="306"/>
+      <c r="A309" s="316"/>
+      <c r="B309" s="316"/>
+      <c r="C309" s="320"/>
+      <c r="D309" s="291"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
       <c r="G309" s="227" t="s">
@@ -26224,10 +26224,10 @@
       <c r="K309" s="229"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="290"/>
-      <c r="B310" s="290"/>
-      <c r="C310" s="302"/>
-      <c r="D310" s="306"/>
+      <c r="A310" s="316"/>
+      <c r="B310" s="316"/>
+      <c r="C310" s="320"/>
+      <c r="D310" s="291"/>
       <c r="E310" s="152"/>
       <c r="F310" s="152"/>
       <c r="G310" s="227" t="s">
@@ -26239,10 +26239,10 @@
       <c r="K310" s="229"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="290"/>
-      <c r="B311" s="290"/>
-      <c r="C311" s="302"/>
-      <c r="D311" s="307"/>
+      <c r="A311" s="316"/>
+      <c r="B311" s="316"/>
+      <c r="C311" s="320"/>
+      <c r="D311" s="292"/>
       <c r="E311" s="152"/>
       <c r="F311" s="152"/>
       <c r="G311" s="227" t="s">
@@ -26254,9 +26254,9 @@
       <c r="K311" s="229"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="290"/>
-      <c r="B312" s="290"/>
-      <c r="C312" s="302"/>
+      <c r="A312" s="316"/>
+      <c r="B312" s="316"/>
+      <c r="C312" s="320"/>
       <c r="D312" s="230" t="s">
         <v>2172</v>
       </c>
@@ -26269,10 +26269,10 @@
       <c r="K312" s="229"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="290"/>
-      <c r="B313" s="290"/>
-      <c r="C313" s="302"/>
-      <c r="D313" s="291" t="s">
+      <c r="A313" s="316"/>
+      <c r="B313" s="316"/>
+      <c r="C313" s="320"/>
+      <c r="D313" s="293" t="s">
         <v>2187</v>
       </c>
       <c r="E313" s="152"/>
@@ -26288,10 +26288,10 @@
       <c r="K313" s="229"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="290"/>
-      <c r="B314" s="290"/>
-      <c r="C314" s="302"/>
-      <c r="D314" s="319"/>
+      <c r="A314" s="316"/>
+      <c r="B314" s="316"/>
+      <c r="C314" s="320"/>
+      <c r="D314" s="294"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="227" t="s">
@@ -26303,10 +26303,10 @@
       <c r="K314" s="229"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="290"/>
-      <c r="B315" s="290"/>
-      <c r="C315" s="302"/>
-      <c r="D315" s="319"/>
+      <c r="A315" s="316"/>
+      <c r="B315" s="316"/>
+      <c r="C315" s="320"/>
+      <c r="D315" s="294"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="227" t="s">
@@ -26320,10 +26320,10 @@
       <c r="K315" s="229"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="290"/>
-      <c r="B316" s="290"/>
-      <c r="C316" s="302"/>
-      <c r="D316" s="319"/>
+      <c r="A316" s="316"/>
+      <c r="B316" s="316"/>
+      <c r="C316" s="320"/>
+      <c r="D316" s="294"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="227" t="s">
@@ -26335,10 +26335,10 @@
       <c r="K316" s="229"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="290"/>
-      <c r="B317" s="290"/>
-      <c r="C317" s="302"/>
-      <c r="D317" s="319"/>
+      <c r="A317" s="316"/>
+      <c r="B317" s="316"/>
+      <c r="C317" s="320"/>
+      <c r="D317" s="294"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="227" t="s">
@@ -26352,10 +26352,10 @@
       <c r="K317" s="229"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="290"/>
-      <c r="B318" s="290"/>
-      <c r="C318" s="302"/>
-      <c r="D318" s="319"/>
+      <c r="A318" s="316"/>
+      <c r="B318" s="316"/>
+      <c r="C318" s="320"/>
+      <c r="D318" s="294"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="227" t="s">
@@ -26367,10 +26367,10 @@
       <c r="K318" s="229"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="290"/>
-      <c r="B319" s="290"/>
-      <c r="C319" s="302"/>
-      <c r="D319" s="319"/>
+      <c r="A319" s="316"/>
+      <c r="B319" s="316"/>
+      <c r="C319" s="320"/>
+      <c r="D319" s="294"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
       <c r="G319" s="227" t="s">
@@ -26384,10 +26384,10 @@
       <c r="K319" s="229"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="290"/>
-      <c r="B320" s="290"/>
-      <c r="C320" s="302"/>
-      <c r="D320" s="319"/>
+      <c r="A320" s="316"/>
+      <c r="B320" s="316"/>
+      <c r="C320" s="320"/>
+      <c r="D320" s="294"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="227" t="s">
@@ -26399,10 +26399,10 @@
       <c r="K320" s="229"/>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="290"/>
-      <c r="B321" s="290"/>
-      <c r="C321" s="302"/>
-      <c r="D321" s="319"/>
+      <c r="A321" s="316"/>
+      <c r="B321" s="316"/>
+      <c r="C321" s="320"/>
+      <c r="D321" s="294"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
       <c r="G321" s="227" t="s">
@@ -26416,10 +26416,10 @@
       <c r="K321" s="229"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="290"/>
-      <c r="B322" s="290"/>
-      <c r="C322" s="302"/>
-      <c r="D322" s="319"/>
+      <c r="A322" s="316"/>
+      <c r="B322" s="316"/>
+      <c r="C322" s="320"/>
+      <c r="D322" s="294"/>
       <c r="E322" s="152"/>
       <c r="F322" s="152"/>
       <c r="G322" s="232" t="s">
@@ -26435,10 +26435,10 @@
       </c>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="290"/>
-      <c r="B323" s="290"/>
-      <c r="C323" s="302"/>
-      <c r="D323" s="292"/>
+      <c r="A323" s="316"/>
+      <c r="B323" s="316"/>
+      <c r="C323" s="320"/>
+      <c r="D323" s="295"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
       <c r="G323" s="232" t="s">
@@ -26452,10 +26452,10 @@
       <c r="K323" s="229"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="290"/>
-      <c r="B324" s="290"/>
-      <c r="C324" s="302"/>
-      <c r="D324" s="320" t="s">
+      <c r="A324" s="316"/>
+      <c r="B324" s="316"/>
+      <c r="C324" s="320"/>
+      <c r="D324" s="296" t="s">
         <v>2188</v>
       </c>
       <c r="E324" s="152"/>
@@ -26469,10 +26469,10 @@
       <c r="K324" s="229"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="290"/>
-      <c r="B325" s="290"/>
-      <c r="C325" s="302"/>
-      <c r="D325" s="321"/>
+      <c r="A325" s="316"/>
+      <c r="B325" s="316"/>
+      <c r="C325" s="320"/>
+      <c r="D325" s="297"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="227" t="s">
@@ -26486,10 +26486,10 @@
       <c r="K325" s="229"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="290"/>
-      <c r="B326" s="290"/>
-      <c r="C326" s="302"/>
-      <c r="D326" s="321"/>
+      <c r="A326" s="316"/>
+      <c r="B326" s="316"/>
+      <c r="C326" s="320"/>
+      <c r="D326" s="297"/>
       <c r="E326" s="152"/>
       <c r="F326" s="152"/>
       <c r="G326" s="227" t="s">
@@ -26503,10 +26503,10 @@
       <c r="K326" s="229"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="290"/>
-      <c r="B327" s="290"/>
-      <c r="C327" s="302"/>
-      <c r="D327" s="322"/>
+      <c r="A327" s="316"/>
+      <c r="B327" s="316"/>
+      <c r="C327" s="320"/>
+      <c r="D327" s="298"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="227" t="s">
@@ -26520,10 +26520,10 @@
       <c r="K327" s="229"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="290"/>
-      <c r="B328" s="290"/>
-      <c r="C328" s="302"/>
-      <c r="D328" s="320" t="s">
+      <c r="A328" s="316"/>
+      <c r="B328" s="316"/>
+      <c r="C328" s="320"/>
+      <c r="D328" s="296" t="s">
         <v>2189</v>
       </c>
       <c r="E328" s="152"/>
@@ -26539,10 +26539,10 @@
       <c r="K328" s="229"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="290"/>
-      <c r="B329" s="290"/>
-      <c r="C329" s="302"/>
-      <c r="D329" s="321"/>
+      <c r="A329" s="316"/>
+      <c r="B329" s="316"/>
+      <c r="C329" s="320"/>
+      <c r="D329" s="297"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
       <c r="G329" s="227" t="s">
@@ -26556,10 +26556,10 @@
       <c r="K329" s="229"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="290"/>
-      <c r="B330" s="290"/>
-      <c r="C330" s="302"/>
-      <c r="D330" s="321"/>
+      <c r="A330" s="316"/>
+      <c r="B330" s="316"/>
+      <c r="C330" s="320"/>
+      <c r="D330" s="297"/>
       <c r="E330" s="152"/>
       <c r="F330" s="152"/>
       <c r="G330" s="227" t="s">
@@ -26573,10 +26573,10 @@
       <c r="K330" s="229"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="290"/>
-      <c r="B331" s="290"/>
-      <c r="C331" s="302"/>
-      <c r="D331" s="322"/>
+      <c r="A331" s="316"/>
+      <c r="B331" s="316"/>
+      <c r="C331" s="320"/>
+      <c r="D331" s="298"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
       <c r="G331" s="227" t="s">
@@ -26590,10 +26590,10 @@
       <c r="K331" s="229"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="290"/>
-      <c r="B332" s="290"/>
-      <c r="C332" s="302"/>
-      <c r="D332" s="291" t="s">
+      <c r="A332" s="316"/>
+      <c r="B332" s="316"/>
+      <c r="C332" s="320"/>
+      <c r="D332" s="293" t="s">
         <v>2194</v>
       </c>
       <c r="E332" s="152"/>
@@ -26607,10 +26607,10 @@
       <c r="K332" s="229"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="290"/>
-      <c r="B333" s="290"/>
-      <c r="C333" s="302"/>
-      <c r="D333" s="292"/>
+      <c r="A333" s="316"/>
+      <c r="B333" s="316"/>
+      <c r="C333" s="320"/>
+      <c r="D333" s="295"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
       <c r="G333" s="234" t="s">
@@ -26624,10 +26624,10 @@
       <c r="K333" s="229"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="290"/>
-      <c r="B334" s="290"/>
-      <c r="C334" s="302"/>
-      <c r="D334" s="320" t="s">
+      <c r="A334" s="316"/>
+      <c r="B334" s="316"/>
+      <c r="C334" s="320"/>
+      <c r="D334" s="296" t="s">
         <v>2195</v>
       </c>
       <c r="E334" s="152"/>
@@ -26641,10 +26641,10 @@
       <c r="K334" s="229"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="290"/>
-      <c r="B335" s="290"/>
-      <c r="C335" s="302"/>
-      <c r="D335" s="321"/>
+      <c r="A335" s="316"/>
+      <c r="B335" s="316"/>
+      <c r="C335" s="320"/>
+      <c r="D335" s="297"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="227" t="s">
@@ -26656,10 +26656,10 @@
       <c r="K335" s="229"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="290"/>
-      <c r="B336" s="290"/>
-      <c r="C336" s="302"/>
-      <c r="D336" s="321"/>
+      <c r="A336" s="316"/>
+      <c r="B336" s="316"/>
+      <c r="C336" s="320"/>
+      <c r="D336" s="297"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="227" t="s">
@@ -26671,10 +26671,10 @@
       <c r="K336" s="229"/>
     </row>
     <row r="337" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A337" s="290"/>
-      <c r="B337" s="290"/>
-      <c r="C337" s="302"/>
-      <c r="D337" s="321"/>
+      <c r="A337" s="316"/>
+      <c r="B337" s="316"/>
+      <c r="C337" s="320"/>
+      <c r="D337" s="297"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
       <c r="G337" s="227" t="s">
@@ -26686,10 +26686,10 @@
       <c r="K337" s="229"/>
     </row>
     <row r="338" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A338" s="290"/>
-      <c r="B338" s="290"/>
-      <c r="C338" s="302"/>
-      <c r="D338" s="321"/>
+      <c r="A338" s="316"/>
+      <c r="B338" s="316"/>
+      <c r="C338" s="320"/>
+      <c r="D338" s="297"/>
       <c r="E338" s="152"/>
       <c r="F338" s="152"/>
       <c r="G338" s="227" t="s">
@@ -26701,10 +26701,10 @@
       <c r="K338" s="229"/>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="290"/>
-      <c r="B339" s="290"/>
-      <c r="C339" s="302"/>
-      <c r="D339" s="322"/>
+      <c r="A339" s="316"/>
+      <c r="B339" s="316"/>
+      <c r="C339" s="320"/>
+      <c r="D339" s="298"/>
       <c r="E339" s="152"/>
       <c r="F339" s="152"/>
       <c r="G339" s="227" t="s">
@@ -26716,9 +26716,9 @@
       <c r="K339" s="229"/>
     </row>
     <row r="340" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A340" s="290"/>
-      <c r="B340" s="290"/>
-      <c r="C340" s="302"/>
+      <c r="A340" s="316"/>
+      <c r="B340" s="316"/>
+      <c r="C340" s="320"/>
       <c r="D340" s="235" t="s">
         <v>2206</v>
       </c>
@@ -26737,9 +26737,9 @@
       </c>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="290"/>
-      <c r="B341" s="290"/>
-      <c r="C341" s="302"/>
+      <c r="A341" s="316"/>
+      <c r="B341" s="316"/>
+      <c r="C341" s="320"/>
       <c r="D341" s="236" t="s">
         <v>2207</v>
       </c>
@@ -26752,9 +26752,9 @@
       <c r="K341" s="229"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="290"/>
-      <c r="B342" s="290"/>
-      <c r="C342" s="302"/>
+      <c r="A342" s="316"/>
+      <c r="B342" s="316"/>
+      <c r="C342" s="320"/>
       <c r="D342" s="237" t="s">
         <v>2223</v>
       </c>
@@ -26769,9 +26769,9 @@
       <c r="K342" s="229"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="290"/>
-      <c r="B343" s="290"/>
-      <c r="C343" s="302"/>
+      <c r="A343" s="316"/>
+      <c r="B343" s="316"/>
+      <c r="C343" s="320"/>
       <c r="D343" s="230"/>
       <c r="E343" s="152"/>
       <c r="F343" s="152"/>
@@ -26786,9 +26786,9 @@
       <c r="K343" s="229"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="290"/>
-      <c r="B344" s="290"/>
-      <c r="C344" s="302"/>
+      <c r="A344" s="316"/>
+      <c r="B344" s="316"/>
+      <c r="C344" s="320"/>
       <c r="D344" s="230"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
@@ -26801,9 +26801,9 @@
       <c r="K344" s="229"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="290"/>
-      <c r="B345" s="290"/>
-      <c r="C345" s="302"/>
+      <c r="A345" s="316"/>
+      <c r="B345" s="316"/>
+      <c r="C345" s="320"/>
       <c r="D345" s="237" t="s">
         <v>2232</v>
       </c>
@@ -26818,9 +26818,9 @@
       <c r="K345" s="229"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="290"/>
-      <c r="B346" s="290"/>
-      <c r="C346" s="302"/>
+      <c r="A346" s="316"/>
+      <c r="B346" s="316"/>
+      <c r="C346" s="320"/>
       <c r="D346" s="230"/>
       <c r="E346" s="152"/>
       <c r="F346" s="152"/>
@@ -26835,9 +26835,9 @@
       <c r="K346" s="229"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A347" s="290"/>
-      <c r="B347" s="290"/>
-      <c r="C347" s="302"/>
+      <c r="A347" s="316"/>
+      <c r="B347" s="316"/>
+      <c r="C347" s="320"/>
       <c r="D347" s="230"/>
       <c r="E347" s="152"/>
       <c r="F347" s="152"/>
@@ -26850,9 +26850,9 @@
       <c r="K347" s="229"/>
     </row>
     <row r="348" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A348" s="290"/>
-      <c r="B348" s="290"/>
-      <c r="C348" s="302"/>
+      <c r="A348" s="316"/>
+      <c r="B348" s="316"/>
+      <c r="C348" s="320"/>
       <c r="D348" s="237" t="s">
         <v>2233</v>
       </c>
@@ -26865,9 +26865,9 @@
       <c r="K348" s="229"/>
     </row>
     <row r="349" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A349" s="290"/>
-      <c r="B349" s="290"/>
-      <c r="C349" s="302"/>
+      <c r="A349" s="316"/>
+      <c r="B349" s="316"/>
+      <c r="C349" s="320"/>
       <c r="D349" s="237" t="s">
         <v>2234</v>
       </c>
@@ -26900,31 +26900,32 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D301:D311"/>
-    <mergeCell ref="D313:D323"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D334:D339"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="A298:B349"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C301:C349"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B193"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="D176:D183"/>
     <mergeCell ref="D167:D175"/>
@@ -26941,32 +26942,31 @@
     <mergeCell ref="D115:D117"/>
     <mergeCell ref="D200:D201"/>
     <mergeCell ref="C75:C100"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A298:B349"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C301:C349"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B193"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C149:C166"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="D301:D311"/>
+    <mergeCell ref="D313:D323"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D334:D339"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36884,6 +36884,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -36896,42 +36932,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/03.指标管理/大宗/指标定义表V2.1.2.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.2.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5695" uniqueCount="2989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="2990">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18032,6 +18032,10 @@
   </si>
   <si>
     <t>风险事件录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19729,32 +19733,71 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19765,38 +19808,17 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19813,20 +19835,26 @@
     <xf numFmtId="0" fontId="46" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19890,30 +19918,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20999,13 +21003,13 @@
       <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="315" t="s">
         <v>1339</v>
       </c>
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="310" t="s">
         <v>1340</v>
       </c>
-      <c r="D2" s="301" t="s">
+      <c r="D2" s="313" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="153" t="s">
@@ -21035,9 +21039,9 @@
       <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="302"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="327"/>
       <c r="E3" s="153" t="s">
         <v>1345</v>
       </c>
@@ -21058,9 +21062,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="152"/>
-      <c r="B4" s="295"/>
-      <c r="C4" s="298"/>
-      <c r="D4" s="302"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="327"/>
       <c r="E4" s="153" t="s">
         <v>1348</v>
       </c>
@@ -21079,9 +21083,9 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="152"/>
-      <c r="B5" s="295"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="302"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="327"/>
       <c r="E5" s="153"/>
       <c r="F5" s="161"/>
       <c r="G5" s="155" t="s">
@@ -21102,9 +21106,9 @@
     </row>
     <row r="6" spans="1:12" ht="32.25" customHeight="1">
       <c r="A6" s="152"/>
-      <c r="B6" s="295"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="302"/>
+      <c r="B6" s="324"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="327"/>
       <c r="E6" s="153"/>
       <c r="F6" s="161"/>
       <c r="G6" s="155" t="s">
@@ -21121,9 +21125,9 @@
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1">
       <c r="A7" s="152"/>
-      <c r="B7" s="295"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302"/>
+      <c r="B7" s="324"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="327"/>
       <c r="E7" s="153"/>
       <c r="F7" s="161"/>
       <c r="G7" s="155" t="s">
@@ -21140,8 +21144,8 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="152"/>
-      <c r="B8" s="295"/>
-      <c r="C8" s="298"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="311"/>
       <c r="D8" s="164"/>
       <c r="E8" s="153"/>
       <c r="F8" s="161"/>
@@ -21157,8 +21161,8 @@
     </row>
     <row r="9" spans="1:12" ht="74.25" customHeight="1">
       <c r="A9" s="152"/>
-      <c r="B9" s="295"/>
-      <c r="C9" s="298"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="311"/>
       <c r="D9" s="164"/>
       <c r="E9" s="153"/>
       <c r="F9" s="161"/>
@@ -21174,8 +21178,8 @@
     </row>
     <row r="10" spans="1:12" ht="25.5" customHeight="1">
       <c r="A10" s="152"/>
-      <c r="B10" s="295"/>
-      <c r="C10" s="298"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="311"/>
       <c r="D10" s="164"/>
       <c r="E10" s="153"/>
       <c r="F10" s="161"/>
@@ -21193,8 +21197,8 @@
     </row>
     <row r="11" spans="1:12" s="255" customFormat="1" ht="68.25" customHeight="1">
       <c r="A11" s="249"/>
-      <c r="B11" s="295"/>
-      <c r="C11" s="298"/>
+      <c r="B11" s="324"/>
+      <c r="C11" s="311"/>
       <c r="D11" s="245" t="s">
         <v>0</v>
       </c>
@@ -21218,8 +21222,8 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="152"/>
-      <c r="B12" s="295"/>
-      <c r="C12" s="298"/>
+      <c r="B12" s="324"/>
+      <c r="C12" s="311"/>
       <c r="D12" s="165" t="s">
         <v>0</v>
       </c>
@@ -21239,8 +21243,8 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="295"/>
-      <c r="C13" s="298"/>
+      <c r="B13" s="324"/>
+      <c r="C13" s="311"/>
       <c r="D13" s="165" t="s">
         <v>0</v>
       </c>
@@ -21260,8 +21264,8 @@
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="152"/>
-      <c r="B14" s="295"/>
-      <c r="C14" s="298"/>
+      <c r="B14" s="324"/>
+      <c r="C14" s="311"/>
       <c r="D14" s="166" t="s">
         <v>2253</v>
       </c>
@@ -21279,8 +21283,8 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="152"/>
-      <c r="B15" s="295"/>
-      <c r="C15" s="298"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="311"/>
       <c r="D15" s="166"/>
       <c r="E15" s="153"/>
       <c r="F15" s="161"/>
@@ -21298,9 +21302,9 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="152"/>
-      <c r="B16" s="295"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="303" t="s">
+      <c r="B16" s="324"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="296" t="s">
         <v>1359</v>
       </c>
       <c r="E16" s="153"/>
@@ -21319,9 +21323,9 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="152"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="298"/>
-      <c r="D17" s="304"/>
+      <c r="B17" s="324"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="297"/>
       <c r="E17" s="153"/>
       <c r="F17" s="161"/>
       <c r="G17" s="155" t="s">
@@ -21338,9 +21342,9 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="152"/>
-      <c r="B18" s="295"/>
-      <c r="C18" s="298"/>
-      <c r="D18" s="305"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="298"/>
       <c r="E18" s="153"/>
       <c r="F18" s="161"/>
       <c r="G18" s="155" t="s">
@@ -21355,8 +21359,8 @@
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1">
       <c r="A19" s="152"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="298"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="311"/>
       <c r="D19" s="165" t="s">
         <v>1364</v>
       </c>
@@ -21378,8 +21382,8 @@
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1">
       <c r="A20" s="152"/>
-      <c r="B20" s="295"/>
-      <c r="C20" s="298"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="311"/>
       <c r="D20" s="165" t="s">
         <v>1366</v>
       </c>
@@ -21401,9 +21405,9 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="152"/>
-      <c r="B21" s="295"/>
-      <c r="C21" s="298"/>
-      <c r="D21" s="294" t="s">
+      <c r="B21" s="324"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="315" t="s">
         <v>1368</v>
       </c>
       <c r="E21" s="153"/>
@@ -21422,9 +21426,9 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="152"/>
-      <c r="B22" s="295"/>
-      <c r="C22" s="298"/>
-      <c r="D22" s="295"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="324"/>
       <c r="E22" s="153"/>
       <c r="F22" s="161"/>
       <c r="G22" s="155" t="s">
@@ -21439,9 +21443,9 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="152"/>
-      <c r="B23" s="295"/>
-      <c r="C23" s="298"/>
-      <c r="D23" s="295"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="311"/>
+      <c r="D23" s="324"/>
       <c r="E23" s="153"/>
       <c r="F23" s="161"/>
       <c r="G23" s="155" t="s">
@@ -21460,9 +21464,9 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="295"/>
-      <c r="C24" s="298"/>
-      <c r="D24" s="295"/>
+      <c r="B24" s="324"/>
+      <c r="C24" s="311"/>
+      <c r="D24" s="324"/>
       <c r="E24" s="153"/>
       <c r="F24" s="161"/>
       <c r="G24" s="155" t="s">
@@ -21481,9 +21485,9 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="295"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="295"/>
+      <c r="B25" s="324"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="324"/>
       <c r="E25" s="153"/>
       <c r="F25" s="161"/>
       <c r="G25" s="155" t="s">
@@ -21500,9 +21504,9 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="295"/>
-      <c r="C26" s="298"/>
-      <c r="D26" s="295"/>
+      <c r="B26" s="324"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="324"/>
       <c r="E26" s="153"/>
       <c r="F26" s="161"/>
       <c r="G26" s="155" t="s">
@@ -21521,9 +21525,9 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="295"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="295"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="324"/>
       <c r="E27" s="153"/>
       <c r="F27" s="161"/>
       <c r="G27" s="169" t="s">
@@ -21542,9 +21546,9 @@
     </row>
     <row r="28" spans="1:11" ht="57.75" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="295"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="295"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="324"/>
       <c r="E28" s="153"/>
       <c r="F28" s="161"/>
       <c r="G28" s="170" t="s">
@@ -21563,9 +21567,9 @@
     </row>
     <row r="29" spans="1:11" s="174" customFormat="1" ht="27.75" customHeight="1">
       <c r="A29" s="171"/>
-      <c r="B29" s="295"/>
-      <c r="C29" s="298"/>
-      <c r="D29" s="295"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="311"/>
+      <c r="D29" s="324"/>
       <c r="E29" s="172"/>
       <c r="F29" s="154"/>
       <c r="G29" s="170" t="s">
@@ -21584,9 +21588,9 @@
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="295"/>
-      <c r="C30" s="298"/>
-      <c r="D30" s="295"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="324"/>
       <c r="E30" s="153"/>
       <c r="F30" s="161"/>
       <c r="G30" s="170" t="s">
@@ -21605,9 +21609,9 @@
     </row>
     <row r="31" spans="1:11" ht="189.75" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="295"/>
-      <c r="C31" s="298"/>
-      <c r="D31" s="295"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="311"/>
+      <c r="D31" s="324"/>
       <c r="E31" s="153"/>
       <c r="F31" s="161"/>
       <c r="G31" s="170" t="s">
@@ -21628,9 +21632,9 @@
     </row>
     <row r="32" spans="1:11" ht="159" customHeight="1">
       <c r="A32" s="152"/>
-      <c r="B32" s="295"/>
-      <c r="C32" s="298"/>
-      <c r="D32" s="295"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="311"/>
+      <c r="D32" s="324"/>
       <c r="E32" s="153"/>
       <c r="F32" s="161"/>
       <c r="G32" s="170" t="s">
@@ -21649,9 +21653,9 @@
     </row>
     <row r="33" spans="1:11" ht="59.25" customHeight="1">
       <c r="A33" s="152"/>
-      <c r="B33" s="295"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="295"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="324"/>
       <c r="E33" s="153"/>
       <c r="F33" s="161"/>
       <c r="G33" s="170" t="s">
@@ -21670,9 +21674,9 @@
     </row>
     <row r="34" spans="1:11" ht="102.75" customHeight="1">
       <c r="A34" s="152"/>
-      <c r="B34" s="295"/>
-      <c r="C34" s="298"/>
-      <c r="D34" s="295"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="311"/>
+      <c r="D34" s="324"/>
       <c r="E34" s="153"/>
       <c r="F34" s="161"/>
       <c r="G34" s="170" t="s">
@@ -21691,9 +21695,9 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="295"/>
-      <c r="C35" s="298"/>
-      <c r="D35" s="295"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="324"/>
       <c r="E35" s="153"/>
       <c r="F35" s="161"/>
       <c r="G35" s="176" t="s">
@@ -21712,9 +21716,9 @@
     </row>
     <row r="36" spans="1:11" ht="41.25" customHeight="1">
       <c r="A36" s="152"/>
-      <c r="B36" s="295"/>
-      <c r="C36" s="298"/>
-      <c r="D36" s="295"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="311"/>
+      <c r="D36" s="324"/>
       <c r="E36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="179" t="s">
@@ -21733,9 +21737,9 @@
     </row>
     <row r="37" spans="1:11" ht="45" customHeight="1">
       <c r="A37" s="152"/>
-      <c r="B37" s="295"/>
-      <c r="C37" s="298"/>
-      <c r="D37" s="295"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="170" t="s">
@@ -21754,9 +21758,9 @@
     </row>
     <row r="38" spans="1:11" ht="43.5" customHeight="1">
       <c r="A38" s="152"/>
-      <c r="B38" s="295"/>
-      <c r="C38" s="298"/>
-      <c r="D38" s="295"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="311"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="170" t="s">
@@ -21775,9 +21779,9 @@
     </row>
     <row r="39" spans="1:11" ht="39.75" customHeight="1">
       <c r="A39" s="152"/>
-      <c r="B39" s="295"/>
-      <c r="C39" s="298"/>
-      <c r="D39" s="295"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="324"/>
       <c r="E39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="170" t="s">
@@ -21796,9 +21800,9 @@
     </row>
     <row r="40" spans="1:11" ht="43.5" customHeight="1" thickBot="1">
       <c r="A40" s="152"/>
-      <c r="B40" s="295"/>
-      <c r="C40" s="298"/>
-      <c r="D40" s="295"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="324"/>
       <c r="E40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="175" t="s">
@@ -21817,9 +21821,9 @@
     </row>
     <row r="41" spans="1:11" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="152"/>
-      <c r="B41" s="295"/>
-      <c r="C41" s="298"/>
-      <c r="D41" s="295"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="311"/>
+      <c r="D41" s="324"/>
       <c r="E41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="260" t="s">
@@ -21838,9 +21842,9 @@
     </row>
     <row r="42" spans="1:11" ht="43.5" customHeight="1">
       <c r="A42" s="152"/>
-      <c r="B42" s="295"/>
-      <c r="C42" s="298"/>
-      <c r="D42" s="295"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="311"/>
+      <c r="D42" s="324"/>
       <c r="E42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="179" t="s">
@@ -21859,9 +21863,9 @@
     </row>
     <row r="43" spans="1:11" ht="79.5" customHeight="1">
       <c r="A43" s="152"/>
-      <c r="B43" s="295"/>
-      <c r="C43" s="298"/>
-      <c r="D43" s="295"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="311"/>
+      <c r="D43" s="324"/>
       <c r="E43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="170" t="s">
@@ -21880,9 +21884,9 @@
     </row>
     <row r="44" spans="1:11" ht="27" customHeight="1">
       <c r="A44" s="152"/>
-      <c r="B44" s="295"/>
-      <c r="C44" s="298"/>
-      <c r="D44" s="295"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="311"/>
+      <c r="D44" s="324"/>
       <c r="E44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="170" t="s">
@@ -21899,9 +21903,9 @@
     </row>
     <row r="45" spans="1:11" ht="56.1" customHeight="1">
       <c r="A45" s="152"/>
-      <c r="B45" s="295"/>
-      <c r="C45" s="298"/>
-      <c r="D45" s="295"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="324"/>
       <c r="E45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="170" t="s">
@@ -21918,9 +21922,9 @@
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1">
       <c r="A46" s="152"/>
-      <c r="B46" s="295"/>
-      <c r="C46" s="298"/>
-      <c r="D46" s="295"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="311"/>
+      <c r="D46" s="324"/>
       <c r="E46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="170" t="s">
@@ -21941,9 +21945,9 @@
     </row>
     <row r="47" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="152"/>
-      <c r="B47" s="295"/>
-      <c r="C47" s="298"/>
-      <c r="D47" s="295"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="324"/>
       <c r="E47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="185" t="s">
@@ -21962,9 +21966,9 @@
     </row>
     <row r="48" spans="1:11" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="152"/>
-      <c r="B48" s="295"/>
-      <c r="C48" s="298"/>
-      <c r="D48" s="295"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="324"/>
       <c r="E48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="185" t="s">
@@ -21979,9 +21983,9 @@
     </row>
     <row r="49" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
       <c r="A49" s="152"/>
-      <c r="B49" s="295"/>
-      <c r="C49" s="298"/>
-      <c r="D49" s="295"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="324"/>
       <c r="E49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="176" t="s">
@@ -22000,9 +22004,9 @@
     </row>
     <row r="50" spans="1:11" ht="41.25" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="295"/>
-      <c r="C50" s="298"/>
-      <c r="D50" s="295"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="324"/>
       <c r="E50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="179" t="s">
@@ -22021,9 +22025,9 @@
     </row>
     <row r="51" spans="1:11" ht="43.5" customHeight="1">
       <c r="A51" s="152"/>
-      <c r="B51" s="295"/>
-      <c r="C51" s="298"/>
-      <c r="D51" s="295"/>
+      <c r="B51" s="324"/>
+      <c r="C51" s="311"/>
+      <c r="D51" s="324"/>
       <c r="E51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="170" t="s">
@@ -22042,12 +22046,12 @@
     </row>
     <row r="52" spans="1:11" ht="46.5" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="295"/>
-      <c r="C52" s="298"/>
-      <c r="D52" s="295"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="324"/>
       <c r="E52" s="153"/>
       <c r="F52" s="161"/>
-      <c r="G52" s="344" t="s">
+      <c r="G52" s="290" t="s">
         <v>236</v>
       </c>
       <c r="H52" s="173" t="s">
@@ -22063,9 +22067,9 @@
     </row>
     <row r="53" spans="1:11" ht="42" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="295"/>
-      <c r="C53" s="298"/>
-      <c r="D53" s="295"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="311"/>
+      <c r="D53" s="324"/>
       <c r="E53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="170" t="s">
@@ -22084,9 +22088,9 @@
     </row>
     <row r="54" spans="1:11" ht="38.25" customHeight="1">
       <c r="A54" s="152"/>
-      <c r="B54" s="295"/>
-      <c r="C54" s="298"/>
-      <c r="D54" s="295"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="324"/>
       <c r="E54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="170" t="s">
@@ -22101,13 +22105,13 @@
       <c r="J54" s="262" t="s">
         <v>2866</v>
       </c>
-      <c r="K54" s="311"/>
+      <c r="K54" s="317"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="152"/>
-      <c r="B55" s="295"/>
-      <c r="C55" s="298"/>
-      <c r="D55" s="295"/>
+      <c r="B55" s="324"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="324"/>
       <c r="E55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="185" t="s">
@@ -22118,13 +22122,13 @@
       </c>
       <c r="I55" s="173"/>
       <c r="J55" s="184"/>
-      <c r="K55" s="312"/>
+      <c r="K55" s="318"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="152"/>
-      <c r="B56" s="295"/>
-      <c r="C56" s="298"/>
-      <c r="D56" s="295"/>
+      <c r="B56" s="324"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="324"/>
       <c r="E56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="170" t="s">
@@ -22145,9 +22149,9 @@
     </row>
     <row r="57" spans="1:11" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="295"/>
-      <c r="C57" s="298"/>
-      <c r="D57" s="295"/>
+      <c r="B57" s="324"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="324"/>
       <c r="E57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="185" t="s">
@@ -22164,9 +22168,9 @@
     </row>
     <row r="58" spans="1:11" ht="30.75" customHeight="1">
       <c r="A58" s="152"/>
-      <c r="B58" s="295"/>
-      <c r="C58" s="298"/>
-      <c r="D58" s="295"/>
+      <c r="B58" s="324"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="324"/>
       <c r="E58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="170" t="s">
@@ -22185,9 +22189,9 @@
     </row>
     <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
       <c r="A59" s="152"/>
-      <c r="B59" s="295"/>
-      <c r="C59" s="298"/>
-      <c r="D59" s="295"/>
+      <c r="B59" s="324"/>
+      <c r="C59" s="311"/>
+      <c r="D59" s="324"/>
       <c r="E59" s="153"/>
       <c r="F59" s="161"/>
       <c r="G59" s="170" t="s">
@@ -22206,9 +22210,9 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="152"/>
-      <c r="B60" s="295"/>
-      <c r="C60" s="298"/>
-      <c r="D60" s="295"/>
+      <c r="B60" s="324"/>
+      <c r="C60" s="311"/>
+      <c r="D60" s="324"/>
       <c r="E60" s="153"/>
       <c r="F60" s="161"/>
       <c r="G60" s="187" t="s">
@@ -22225,9 +22229,9 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="152"/>
-      <c r="B61" s="295"/>
-      <c r="C61" s="298"/>
-      <c r="D61" s="295"/>
+      <c r="B61" s="324"/>
+      <c r="C61" s="311"/>
+      <c r="D61" s="324"/>
       <c r="E61" s="153"/>
       <c r="F61" s="161"/>
       <c r="G61" s="179" t="s">
@@ -22246,9 +22250,9 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="295"/>
-      <c r="C62" s="298"/>
-      <c r="D62" s="295"/>
+      <c r="B62" s="324"/>
+      <c r="C62" s="311"/>
+      <c r="D62" s="324"/>
       <c r="E62" s="153"/>
       <c r="F62" s="161"/>
       <c r="G62" s="170" t="s">
@@ -22265,9 +22269,9 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="152"/>
-      <c r="B63" s="295"/>
-      <c r="C63" s="298"/>
-      <c r="D63" s="295"/>
+      <c r="B63" s="324"/>
+      <c r="C63" s="311"/>
+      <c r="D63" s="324"/>
       <c r="E63" s="153"/>
       <c r="F63" s="161"/>
       <c r="G63" s="170" t="s">
@@ -22284,9 +22288,9 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="152"/>
-      <c r="B64" s="295"/>
-      <c r="C64" s="298"/>
-      <c r="D64" s="295"/>
+      <c r="B64" s="324"/>
+      <c r="C64" s="311"/>
+      <c r="D64" s="324"/>
       <c r="E64" s="153"/>
       <c r="F64" s="161"/>
       <c r="G64" s="176" t="s">
@@ -22303,9 +22307,9 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="152"/>
-      <c r="B65" s="295"/>
-      <c r="C65" s="298"/>
-      <c r="D65" s="295"/>
+      <c r="B65" s="324"/>
+      <c r="C65" s="311"/>
+      <c r="D65" s="324"/>
       <c r="E65" s="153"/>
       <c r="F65" s="161"/>
       <c r="G65" s="179" t="s">
@@ -22322,9 +22326,9 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="152"/>
-      <c r="B66" s="296"/>
-      <c r="C66" s="299"/>
-      <c r="D66" s="296"/>
+      <c r="B66" s="325"/>
+      <c r="C66" s="312"/>
+      <c r="D66" s="325"/>
       <c r="E66" s="153"/>
       <c r="F66" s="161"/>
       <c r="G66" s="190" t="s">
@@ -22341,13 +22345,13 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="152"/>
-      <c r="B67" s="294" t="s">
+      <c r="B67" s="315" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="297" t="s">
+      <c r="C67" s="310" t="s">
         <v>1379</v>
       </c>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="296" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="153"/>
@@ -22369,8 +22373,8 @@
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="152"/>
       <c r="B68" s="316"/>
-      <c r="C68" s="298"/>
-      <c r="D68" s="304"/>
+      <c r="C68" s="311"/>
+      <c r="D68" s="297"/>
       <c r="E68" s="153"/>
       <c r="F68" s="161"/>
       <c r="G68" s="155" t="s">
@@ -22388,8 +22392,8 @@
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="152"/>
       <c r="B69" s="316"/>
-      <c r="C69" s="298"/>
-      <c r="D69" s="305"/>
+      <c r="C69" s="311"/>
+      <c r="D69" s="298"/>
       <c r="E69" s="153"/>
       <c r="F69" s="161"/>
       <c r="G69" s="196" t="s">
@@ -22411,10 +22415,10 @@
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="152"/>
       <c r="B70" s="316"/>
-      <c r="C70" s="297" t="s">
+      <c r="C70" s="310" t="s">
         <v>1382</v>
       </c>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="296" t="s">
         <v>1383</v>
       </c>
       <c r="E70" s="153"/>
@@ -22436,8 +22440,8 @@
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="152"/>
       <c r="B71" s="316"/>
-      <c r="C71" s="298"/>
-      <c r="D71" s="304"/>
+      <c r="C71" s="311"/>
+      <c r="D71" s="297"/>
       <c r="E71" s="153"/>
       <c r="F71" s="161"/>
       <c r="G71" s="155" t="s">
@@ -22457,8 +22461,8 @@
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="152"/>
       <c r="B72" s="316"/>
-      <c r="C72" s="298"/>
-      <c r="D72" s="304"/>
+      <c r="C72" s="311"/>
+      <c r="D72" s="297"/>
       <c r="E72" s="153"/>
       <c r="F72" s="161"/>
       <c r="G72" s="196" t="s">
@@ -22478,8 +22482,8 @@
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="152"/>
       <c r="B73" s="316"/>
-      <c r="C73" s="298"/>
-      <c r="D73" s="305"/>
+      <c r="C73" s="311"/>
+      <c r="D73" s="298"/>
       <c r="E73" s="153"/>
       <c r="F73" s="161"/>
       <c r="G73" s="196" t="s">
@@ -22499,7 +22503,7 @@
     <row r="74" spans="1:11" ht="41.1" customHeight="1">
       <c r="A74" s="152"/>
       <c r="B74" s="316"/>
-      <c r="C74" s="298"/>
+      <c r="C74" s="311"/>
       <c r="D74" s="197" t="s">
         <v>5</v>
       </c>
@@ -22521,10 +22525,10 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="199"/>
-      <c r="B75" s="303" t="s">
+      <c r="B75" s="296" t="s">
         <v>1389</v>
       </c>
-      <c r="C75" s="297" t="s">
+      <c r="C75" s="310" t="s">
         <v>1390</v>
       </c>
       <c r="D75" s="200" t="s">
@@ -22546,8 +22550,8 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="199"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="298"/>
+      <c r="B76" s="297"/>
+      <c r="C76" s="311"/>
       <c r="D76" s="201" t="s">
         <v>1583</v>
       </c>
@@ -22567,8 +22571,8 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="199"/>
-      <c r="B77" s="304"/>
-      <c r="C77" s="298"/>
+      <c r="B77" s="297"/>
+      <c r="C77" s="311"/>
       <c r="D77" s="201" t="s">
         <v>1586</v>
       </c>
@@ -22590,9 +22594,9 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="199"/>
-      <c r="B78" s="304"/>
-      <c r="C78" s="298"/>
-      <c r="D78" s="291" t="s">
+      <c r="B78" s="297"/>
+      <c r="C78" s="311"/>
+      <c r="D78" s="308" t="s">
         <v>1599</v>
       </c>
       <c r="E78" s="153"/>
@@ -22607,9 +22611,9 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="199"/>
-      <c r="B79" s="304"/>
-      <c r="C79" s="298"/>
-      <c r="D79" s="292"/>
+      <c r="B79" s="297"/>
+      <c r="C79" s="311"/>
+      <c r="D79" s="309"/>
       <c r="E79" s="153"/>
       <c r="F79" s="161"/>
       <c r="G79" s="196" t="s">
@@ -22628,9 +22632,9 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="199"/>
-      <c r="B80" s="304"/>
-      <c r="C80" s="298"/>
-      <c r="D80" s="293"/>
+      <c r="B80" s="297"/>
+      <c r="C80" s="311"/>
+      <c r="D80" s="323"/>
       <c r="E80" s="153"/>
       <c r="F80" s="161"/>
       <c r="G80" s="196" t="s">
@@ -22647,9 +22651,9 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="199"/>
-      <c r="B81" s="304"/>
-      <c r="C81" s="298"/>
-      <c r="D81" s="303" t="s">
+      <c r="B81" s="297"/>
+      <c r="C81" s="311"/>
+      <c r="D81" s="296" t="s">
         <v>1393</v>
       </c>
       <c r="E81" s="153"/>
@@ -22672,9 +22676,9 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="199"/>
-      <c r="B82" s="304"/>
-      <c r="C82" s="298"/>
-      <c r="D82" s="304"/>
+      <c r="B82" s="297"/>
+      <c r="C82" s="311"/>
+      <c r="D82" s="297"/>
       <c r="E82" s="153"/>
       <c r="F82" s="161"/>
       <c r="G82" s="155" t="s">
@@ -22693,9 +22697,9 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="199"/>
-      <c r="B83" s="304"/>
-      <c r="C83" s="298"/>
-      <c r="D83" s="304"/>
+      <c r="B83" s="297"/>
+      <c r="C83" s="311"/>
+      <c r="D83" s="297"/>
       <c r="E83" s="153"/>
       <c r="F83" s="161"/>
       <c r="G83" s="155" t="s">
@@ -22714,9 +22718,9 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="199"/>
-      <c r="B84" s="304"/>
-      <c r="C84" s="298"/>
-      <c r="D84" s="304"/>
+      <c r="B84" s="297"/>
+      <c r="C84" s="311"/>
+      <c r="D84" s="297"/>
       <c r="E84" s="153"/>
       <c r="F84" s="161"/>
       <c r="G84" s="155" t="s">
@@ -22735,9 +22739,9 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="199"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="298"/>
-      <c r="D85" s="305"/>
+      <c r="B85" s="297"/>
+      <c r="C85" s="311"/>
+      <c r="D85" s="298"/>
       <c r="E85" s="153"/>
       <c r="F85" s="161"/>
       <c r="G85" s="155" t="s">
@@ -22756,9 +22760,9 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="199"/>
-      <c r="B86" s="304"/>
-      <c r="C86" s="298"/>
-      <c r="D86" s="303" t="s">
+      <c r="B86" s="297"/>
+      <c r="C86" s="311"/>
+      <c r="D86" s="296" t="s">
         <v>1400</v>
       </c>
       <c r="E86" s="153"/>
@@ -22781,9 +22785,9 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="199"/>
-      <c r="B87" s="304"/>
-      <c r="C87" s="298"/>
-      <c r="D87" s="305"/>
+      <c r="B87" s="297"/>
+      <c r="C87" s="311"/>
+      <c r="D87" s="298"/>
       <c r="E87" s="153"/>
       <c r="F87" s="161"/>
       <c r="G87" s="155" t="s">
@@ -22802,8 +22806,8 @@
     </row>
     <row r="88" spans="1:11" ht="64.5" customHeight="1">
       <c r="A88" s="199"/>
-      <c r="B88" s="304"/>
-      <c r="C88" s="298"/>
+      <c r="B88" s="297"/>
+      <c r="C88" s="311"/>
       <c r="D88" s="165" t="s">
         <v>1</v>
       </c>
@@ -22827,9 +22831,9 @@
     </row>
     <row r="89" spans="1:11" ht="57" customHeight="1">
       <c r="A89" s="199"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="298"/>
-      <c r="D89" s="303" t="s">
+      <c r="B89" s="297"/>
+      <c r="C89" s="311"/>
+      <c r="D89" s="296" t="s">
         <v>1404</v>
       </c>
       <c r="E89" s="153"/>
@@ -22850,9 +22854,9 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="199"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="298"/>
-      <c r="D90" s="304"/>
+      <c r="B90" s="297"/>
+      <c r="C90" s="311"/>
+      <c r="D90" s="297"/>
       <c r="E90" s="153"/>
       <c r="F90" s="161"/>
       <c r="G90" s="155" t="s">
@@ -22867,9 +22871,9 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="199"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="298"/>
-      <c r="D91" s="304"/>
+      <c r="B91" s="297"/>
+      <c r="C91" s="311"/>
+      <c r="D91" s="297"/>
       <c r="E91" s="153"/>
       <c r="F91" s="161"/>
       <c r="G91" s="155" t="s">
@@ -22884,9 +22888,9 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="199"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="298"/>
-      <c r="D92" s="304"/>
+      <c r="B92" s="297"/>
+      <c r="C92" s="311"/>
+      <c r="D92" s="297"/>
       <c r="E92" s="153"/>
       <c r="F92" s="161"/>
       <c r="G92" s="155" t="s">
@@ -22901,9 +22905,9 @@
     </row>
     <row r="93" spans="1:11" ht="37.5" customHeight="1">
       <c r="A93" s="199"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="298"/>
-      <c r="D93" s="305"/>
+      <c r="B93" s="297"/>
+      <c r="C93" s="311"/>
+      <c r="D93" s="298"/>
       <c r="E93" s="153"/>
       <c r="F93" s="161"/>
       <c r="G93" s="196" t="s">
@@ -22918,9 +22922,9 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="199"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="298"/>
-      <c r="D94" s="303" t="s">
+      <c r="B94" s="297"/>
+      <c r="C94" s="311"/>
+      <c r="D94" s="296" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="153"/>
@@ -22939,9 +22943,9 @@
     </row>
     <row r="95" spans="1:11" ht="15.95" customHeight="1">
       <c r="A95" s="199"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="298"/>
-      <c r="D95" s="304"/>
+      <c r="B95" s="297"/>
+      <c r="C95" s="311"/>
+      <c r="D95" s="297"/>
       <c r="E95" s="153"/>
       <c r="F95" s="161"/>
       <c r="G95" s="155" t="s">
@@ -22960,9 +22964,9 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="199"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="298"/>
-      <c r="D96" s="305"/>
+      <c r="B96" s="297"/>
+      <c r="C96" s="311"/>
+      <c r="D96" s="298"/>
       <c r="E96" s="153"/>
       <c r="F96" s="161"/>
       <c r="G96" s="155" t="s">
@@ -22977,9 +22981,9 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="199"/>
-      <c r="B97" s="304"/>
-      <c r="C97" s="298"/>
-      <c r="D97" s="303" t="s">
+      <c r="B97" s="297"/>
+      <c r="C97" s="311"/>
+      <c r="D97" s="296" t="s">
         <v>1412</v>
       </c>
       <c r="E97" s="153"/>
@@ -22988,7 +22992,7 @@
         <v>1413</v>
       </c>
       <c r="H97" s="156"/>
-      <c r="I97" s="347" t="s">
+      <c r="I97" s="293" t="s">
         <v>1597</v>
       </c>
       <c r="J97" s="157"/>
@@ -22996,9 +23000,9 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="199"/>
-      <c r="B98" s="304"/>
-      <c r="C98" s="298"/>
-      <c r="D98" s="305"/>
+      <c r="B98" s="297"/>
+      <c r="C98" s="311"/>
+      <c r="D98" s="298"/>
       <c r="E98" s="153"/>
       <c r="F98" s="161"/>
       <c r="G98" s="278" t="s">
@@ -23013,9 +23017,9 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="199"/>
-      <c r="B99" s="304"/>
-      <c r="C99" s="298"/>
-      <c r="D99" s="288" t="s">
+      <c r="B99" s="297"/>
+      <c r="C99" s="311"/>
+      <c r="D99" s="322" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="153"/>
@@ -23034,9 +23038,9 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="199"/>
-      <c r="B100" s="304"/>
-      <c r="C100" s="299"/>
-      <c r="D100" s="288"/>
+      <c r="B100" s="297"/>
+      <c r="C100" s="312"/>
+      <c r="D100" s="322"/>
       <c r="E100" s="153"/>
       <c r="F100" s="161"/>
       <c r="G100" s="155" t="s">
@@ -23055,11 +23059,11 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="199"/>
-      <c r="B101" s="304"/>
-      <c r="C101" s="297" t="s">
+      <c r="B101" s="297"/>
+      <c r="C101" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="292" t="s">
+      <c r="D101" s="309" t="s">
         <v>1598</v>
       </c>
       <c r="E101" s="153"/>
@@ -23078,9 +23082,9 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="199"/>
-      <c r="B102" s="304"/>
-      <c r="C102" s="298"/>
-      <c r="D102" s="293"/>
+      <c r="B102" s="297"/>
+      <c r="C102" s="311"/>
+      <c r="D102" s="323"/>
       <c r="E102" s="153"/>
       <c r="F102" s="161"/>
       <c r="G102" s="155" t="s">
@@ -23097,8 +23101,8 @@
     </row>
     <row r="103" spans="1:11" ht="14.1" customHeight="1">
       <c r="A103" s="199"/>
-      <c r="B103" s="304"/>
-      <c r="C103" s="298"/>
+      <c r="B103" s="297"/>
+      <c r="C103" s="311"/>
       <c r="D103" s="165" t="s">
         <v>1418</v>
       </c>
@@ -23118,9 +23122,9 @@
     </row>
     <row r="104" spans="1:11" ht="29.1" customHeight="1">
       <c r="A104" s="199"/>
-      <c r="B104" s="304"/>
-      <c r="C104" s="298"/>
-      <c r="D104" s="291" t="s">
+      <c r="B104" s="297"/>
+      <c r="C104" s="311"/>
+      <c r="D104" s="308" t="s">
         <v>1610</v>
       </c>
       <c r="E104" s="153"/>
@@ -23143,9 +23147,9 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="199"/>
-      <c r="B105" s="304"/>
-      <c r="C105" s="298"/>
-      <c r="D105" s="292"/>
+      <c r="B105" s="297"/>
+      <c r="C105" s="311"/>
+      <c r="D105" s="309"/>
       <c r="E105" s="153"/>
       <c r="F105" s="161"/>
       <c r="G105" s="196" t="s">
@@ -23162,9 +23166,9 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="199"/>
-      <c r="B106" s="304"/>
-      <c r="C106" s="298"/>
-      <c r="D106" s="292"/>
+      <c r="B106" s="297"/>
+      <c r="C106" s="311"/>
+      <c r="D106" s="309"/>
       <c r="E106" s="153"/>
       <c r="F106" s="161"/>
       <c r="G106" s="196" t="s">
@@ -23181,9 +23185,9 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="199"/>
-      <c r="B107" s="304"/>
-      <c r="C107" s="298"/>
-      <c r="D107" s="293"/>
+      <c r="B107" s="297"/>
+      <c r="C107" s="311"/>
+      <c r="D107" s="323"/>
       <c r="E107" s="153"/>
       <c r="F107" s="161"/>
       <c r="G107" s="196" t="s">
@@ -23200,8 +23204,8 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="199"/>
-      <c r="B108" s="304"/>
-      <c r="C108" s="298"/>
+      <c r="B108" s="297"/>
+      <c r="C108" s="311"/>
       <c r="D108" s="165" t="s">
         <v>1391</v>
       </c>
@@ -23221,9 +23225,9 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="199"/>
-      <c r="B109" s="304"/>
-      <c r="C109" s="298"/>
-      <c r="D109" s="303" t="s">
+      <c r="B109" s="297"/>
+      <c r="C109" s="311"/>
+      <c r="D109" s="296" t="s">
         <v>1419</v>
       </c>
       <c r="E109" s="153"/>
@@ -23244,9 +23248,9 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="199"/>
-      <c r="B110" s="304"/>
-      <c r="C110" s="298"/>
-      <c r="D110" s="305"/>
+      <c r="B110" s="297"/>
+      <c r="C110" s="311"/>
+      <c r="D110" s="298"/>
       <c r="E110" s="153"/>
       <c r="F110" s="161"/>
       <c r="G110" s="155" t="s">
@@ -23265,9 +23269,9 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="199"/>
-      <c r="B111" s="304"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="313" t="s">
+      <c r="B111" s="297"/>
+      <c r="C111" s="311"/>
+      <c r="D111" s="319" t="s">
         <v>1424</v>
       </c>
       <c r="E111" s="153"/>
@@ -23284,9 +23288,9 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="199"/>
-      <c r="B112" s="304"/>
-      <c r="C112" s="298"/>
-      <c r="D112" s="314"/>
+      <c r="B112" s="297"/>
+      <c r="C112" s="311"/>
+      <c r="D112" s="320"/>
       <c r="E112" s="153"/>
       <c r="F112" s="161"/>
       <c r="G112" s="155" t="s">
@@ -23303,9 +23307,9 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="199"/>
-      <c r="B113" s="304"/>
-      <c r="C113" s="298"/>
-      <c r="D113" s="315"/>
+      <c r="B113" s="297"/>
+      <c r="C113" s="311"/>
+      <c r="D113" s="321"/>
       <c r="E113" s="153"/>
       <c r="F113" s="161"/>
       <c r="G113" s="155" t="s">
@@ -23322,8 +23326,8 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="199"/>
-      <c r="B114" s="304"/>
-      <c r="C114" s="298"/>
+      <c r="B114" s="297"/>
+      <c r="C114" s="311"/>
       <c r="D114" s="165" t="s">
         <v>9</v>
       </c>
@@ -23343,9 +23347,9 @@
     </row>
     <row r="115" spans="1:11" ht="27" customHeight="1">
       <c r="A115" s="199"/>
-      <c r="B115" s="304"/>
-      <c r="C115" s="298"/>
-      <c r="D115" s="303" t="s">
+      <c r="B115" s="297"/>
+      <c r="C115" s="311"/>
+      <c r="D115" s="296" t="s">
         <v>1427</v>
       </c>
       <c r="E115" s="153"/>
@@ -23366,9 +23370,9 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="199"/>
-      <c r="B116" s="304"/>
-      <c r="C116" s="298"/>
-      <c r="D116" s="304"/>
+      <c r="B116" s="297"/>
+      <c r="C116" s="311"/>
+      <c r="D116" s="297"/>
       <c r="E116" s="153"/>
       <c r="F116" s="161"/>
       <c r="G116" s="155" t="s">
@@ -23385,9 +23389,9 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="199"/>
-      <c r="B117" s="304"/>
-      <c r="C117" s="299"/>
-      <c r="D117" s="305"/>
+      <c r="B117" s="297"/>
+      <c r="C117" s="312"/>
+      <c r="D117" s="298"/>
       <c r="E117" s="153"/>
       <c r="F117" s="161"/>
       <c r="G117" s="155" t="s">
@@ -23406,11 +23410,11 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="199"/>
-      <c r="B118" s="304"/>
-      <c r="C118" s="297" t="s">
+      <c r="B118" s="297"/>
+      <c r="C118" s="310" t="s">
         <v>1433</v>
       </c>
-      <c r="D118" s="303" t="s">
+      <c r="D118" s="296" t="s">
         <v>1434</v>
       </c>
       <c r="E118" s="153"/>
@@ -23429,9 +23433,9 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="199"/>
-      <c r="B119" s="304"/>
-      <c r="C119" s="298"/>
-      <c r="D119" s="305"/>
+      <c r="B119" s="297"/>
+      <c r="C119" s="311"/>
+      <c r="D119" s="298"/>
       <c r="E119" s="153"/>
       <c r="F119" s="161"/>
       <c r="G119" s="155" t="s">
@@ -23447,8 +23451,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B120" s="304"/>
-      <c r="C120" s="298"/>
+      <c r="B120" s="297"/>
+      <c r="C120" s="311"/>
       <c r="D120" s="165" t="s">
         <v>1437</v>
       </c>
@@ -23467,8 +23471,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B121" s="304"/>
-      <c r="C121" s="298"/>
+      <c r="B121" s="297"/>
+      <c r="C121" s="311"/>
       <c r="D121" s="165" t="s">
         <v>1440</v>
       </c>
@@ -23487,8 +23491,8 @@
       <c r="K121" s="158"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B122" s="304"/>
-      <c r="C122" s="298"/>
+      <c r="B122" s="297"/>
+      <c r="C122" s="311"/>
       <c r="D122" s="207" t="s">
         <v>1442</v>
       </c>
@@ -23507,9 +23511,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B123" s="304"/>
-      <c r="C123" s="298"/>
-      <c r="D123" s="303" t="s">
+      <c r="B123" s="297"/>
+      <c r="C123" s="311"/>
+      <c r="D123" s="296" t="s">
         <v>171</v>
       </c>
       <c r="E123" s="153"/>
@@ -23525,9 +23529,9 @@
       <c r="K123" s="180"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B124" s="304"/>
-      <c r="C124" s="298"/>
-      <c r="D124" s="304"/>
+      <c r="B124" s="297"/>
+      <c r="C124" s="311"/>
+      <c r="D124" s="297"/>
       <c r="E124" s="153"/>
       <c r="F124" s="161"/>
       <c r="G124" s="155" t="s">
@@ -23543,9 +23547,9 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B125" s="304"/>
-      <c r="C125" s="298"/>
-      <c r="D125" s="304"/>
+      <c r="B125" s="297"/>
+      <c r="C125" s="311"/>
+      <c r="D125" s="297"/>
       <c r="E125" s="153"/>
       <c r="F125" s="161"/>
       <c r="G125" s="155" t="s">
@@ -23559,9 +23563,9 @@
       <c r="K125" s="180"/>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B126" s="304"/>
-      <c r="C126" s="298"/>
-      <c r="D126" s="305"/>
+      <c r="B126" s="297"/>
+      <c r="C126" s="311"/>
+      <c r="D126" s="298"/>
       <c r="E126" s="153"/>
       <c r="F126" s="161"/>
       <c r="G126" s="155" t="s">
@@ -23577,9 +23581,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B127" s="304"/>
-      <c r="C127" s="298"/>
-      <c r="D127" s="301" t="s">
+      <c r="B127" s="297"/>
+      <c r="C127" s="311"/>
+      <c r="D127" s="313" t="s">
         <v>1444</v>
       </c>
       <c r="E127" s="153"/>
@@ -23593,9 +23597,9 @@
       <c r="K127" s="180"/>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B128" s="304"/>
-      <c r="C128" s="298"/>
-      <c r="D128" s="310"/>
+      <c r="B128" s="297"/>
+      <c r="C128" s="311"/>
+      <c r="D128" s="314"/>
       <c r="E128" s="153"/>
       <c r="F128" s="161"/>
       <c r="G128" s="155" t="s">
@@ -23613,9 +23617,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B129" s="304"/>
-      <c r="C129" s="298"/>
-      <c r="D129" s="303" t="s">
+      <c r="B129" s="297"/>
+      <c r="C129" s="311"/>
+      <c r="D129" s="296" t="s">
         <v>1447</v>
       </c>
       <c r="E129" s="153"/>
@@ -23629,9 +23633,9 @@
       <c r="K129" s="180"/>
     </row>
     <row r="130" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B130" s="304"/>
-      <c r="C130" s="298"/>
-      <c r="D130" s="304"/>
+      <c r="B130" s="297"/>
+      <c r="C130" s="311"/>
+      <c r="D130" s="297"/>
       <c r="E130" s="153"/>
       <c r="F130" s="161"/>
       <c r="G130" s="211" t="s">
@@ -23645,9 +23649,9 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B131" s="304"/>
-      <c r="C131" s="298"/>
-      <c r="D131" s="305"/>
+      <c r="B131" s="297"/>
+      <c r="C131" s="311"/>
+      <c r="D131" s="298"/>
       <c r="E131" s="153"/>
       <c r="F131" s="161"/>
       <c r="G131" s="155" t="s">
@@ -23659,9 +23663,9 @@
       <c r="K131" s="158"/>
     </row>
     <row r="132" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B132" s="304"/>
-      <c r="C132" s="298"/>
-      <c r="D132" s="306" t="s">
+      <c r="B132" s="297"/>
+      <c r="C132" s="311"/>
+      <c r="D132" s="328" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="153"/>
@@ -23677,9 +23681,9 @@
       <c r="K132" s="158"/>
     </row>
     <row r="133" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B133" s="304"/>
-      <c r="C133" s="298"/>
-      <c r="D133" s="306"/>
+      <c r="B133" s="297"/>
+      <c r="C133" s="311"/>
+      <c r="D133" s="328"/>
       <c r="E133" s="153"/>
       <c r="F133" s="161"/>
       <c r="G133" s="155" t="s">
@@ -23691,8 +23695,8 @@
       <c r="K133" s="158"/>
     </row>
     <row r="134" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B134" s="304"/>
-      <c r="C134" s="298"/>
+      <c r="B134" s="297"/>
+      <c r="C134" s="311"/>
       <c r="D134" s="212" t="s">
         <v>170</v>
       </c>
@@ -23709,9 +23713,9 @@
       <c r="K134" s="158"/>
     </row>
     <row r="135" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B135" s="304"/>
-      <c r="C135" s="298"/>
-      <c r="D135" s="303" t="s">
+      <c r="B135" s="297"/>
+      <c r="C135" s="311"/>
+      <c r="D135" s="296" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="153"/>
@@ -23727,9 +23731,9 @@
       <c r="K135" s="158"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B136" s="304"/>
-      <c r="C136" s="298"/>
-      <c r="D136" s="304"/>
+      <c r="B136" s="297"/>
+      <c r="C136" s="311"/>
+      <c r="D136" s="297"/>
       <c r="E136" s="153"/>
       <c r="F136" s="161"/>
       <c r="G136" s="155" t="s">
@@ -23745,9 +23749,9 @@
       <c r="K136" s="158"/>
     </row>
     <row r="137" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B137" s="304"/>
-      <c r="C137" s="298"/>
-      <c r="D137" s="304"/>
+      <c r="B137" s="297"/>
+      <c r="C137" s="311"/>
+      <c r="D137" s="297"/>
       <c r="E137" s="153"/>
       <c r="F137" s="161"/>
       <c r="G137" s="155" t="s">
@@ -23761,9 +23765,9 @@
       <c r="K137" s="158"/>
     </row>
     <row r="138" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B138" s="304"/>
-      <c r="C138" s="298"/>
-      <c r="D138" s="304"/>
+      <c r="B138" s="297"/>
+      <c r="C138" s="311"/>
+      <c r="D138" s="297"/>
       <c r="E138" s="153"/>
       <c r="F138" s="161"/>
       <c r="G138" s="155" t="s">
@@ -23779,9 +23783,9 @@
       <c r="K138" s="158"/>
     </row>
     <row r="139" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B139" s="304"/>
-      <c r="C139" s="298"/>
-      <c r="D139" s="304"/>
+      <c r="B139" s="297"/>
+      <c r="C139" s="311"/>
+      <c r="D139" s="297"/>
       <c r="E139" s="153"/>
       <c r="F139" s="161"/>
       <c r="G139" s="155" t="s">
@@ -23795,9 +23799,9 @@
       <c r="K139" s="158"/>
     </row>
     <row r="140" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B140" s="304"/>
-      <c r="C140" s="298"/>
-      <c r="D140" s="304"/>
+      <c r="B140" s="297"/>
+      <c r="C140" s="311"/>
+      <c r="D140" s="297"/>
       <c r="E140" s="153"/>
       <c r="F140" s="161"/>
       <c r="G140" s="155" t="s">
@@ -23811,9 +23815,9 @@
       <c r="K140" s="158"/>
     </row>
     <row r="141" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B141" s="304"/>
-      <c r="C141" s="298"/>
-      <c r="D141" s="304"/>
+      <c r="B141" s="297"/>
+      <c r="C141" s="311"/>
+      <c r="D141" s="297"/>
       <c r="E141" s="153"/>
       <c r="F141" s="161"/>
       <c r="G141" s="155" t="s">
@@ -23827,9 +23831,9 @@
       <c r="K141" s="158"/>
     </row>
     <row r="142" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B142" s="304"/>
-      <c r="C142" s="299"/>
-      <c r="D142" s="305"/>
+      <c r="B142" s="297"/>
+      <c r="C142" s="312"/>
+      <c r="D142" s="298"/>
       <c r="E142" s="153"/>
       <c r="F142" s="161"/>
       <c r="G142" s="155" t="s">
@@ -23843,11 +23847,11 @@
       <c r="K142" s="158"/>
     </row>
     <row r="143" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B143" s="304"/>
-      <c r="C143" s="297" t="s">
+      <c r="B143" s="297"/>
+      <c r="C143" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="303" t="s">
+      <c r="D143" s="296" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="153"/>
@@ -23863,9 +23867,9 @@
       <c r="K143" s="158"/>
     </row>
     <row r="144" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B144" s="304"/>
-      <c r="C144" s="298"/>
-      <c r="D144" s="304"/>
+      <c r="B144" s="297"/>
+      <c r="C144" s="311"/>
+      <c r="D144" s="297"/>
       <c r="E144" s="153"/>
       <c r="F144" s="161"/>
       <c r="G144" s="155" t="s">
@@ -23879,9 +23883,9 @@
       <c r="K144" s="158"/>
     </row>
     <row r="145" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B145" s="304"/>
-      <c r="C145" s="298"/>
-      <c r="D145" s="305"/>
+      <c r="B145" s="297"/>
+      <c r="C145" s="311"/>
+      <c r="D145" s="298"/>
       <c r="E145" s="153"/>
       <c r="F145" s="161"/>
       <c r="G145" s="155" t="s">
@@ -23895,9 +23899,9 @@
       <c r="K145" s="158"/>
     </row>
     <row r="146" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B146" s="304"/>
-      <c r="C146" s="298"/>
-      <c r="D146" s="303" t="s">
+      <c r="B146" s="297"/>
+      <c r="C146" s="311"/>
+      <c r="D146" s="296" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="153"/>
@@ -23913,9 +23917,9 @@
       <c r="K146" s="158"/>
     </row>
     <row r="147" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B147" s="304"/>
-      <c r="C147" s="298"/>
-      <c r="D147" s="305"/>
+      <c r="B147" s="297"/>
+      <c r="C147" s="311"/>
+      <c r="D147" s="298"/>
       <c r="E147" s="153"/>
       <c r="F147" s="161"/>
       <c r="G147" s="155" t="s">
@@ -23929,8 +23933,8 @@
       <c r="K147" s="180"/>
     </row>
     <row r="148" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B148" s="304"/>
-      <c r="C148" s="299"/>
+      <c r="B148" s="297"/>
+      <c r="C148" s="312"/>
       <c r="D148" s="165" t="s">
         <v>27</v>
       </c>
@@ -23947,16 +23951,16 @@
       <c r="K148" s="158"/>
     </row>
     <row r="149" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B149" s="304"/>
-      <c r="C149" s="297" t="s">
+      <c r="B149" s="297"/>
+      <c r="C149" s="310" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="303" t="s">
+      <c r="D149" s="296" t="s">
         <v>30</v>
       </c>
       <c r="E149" s="153"/>
       <c r="F149" s="161"/>
-      <c r="G149" s="349" t="s">
+      <c r="G149" s="295" t="s">
         <v>31</v>
       </c>
       <c r="H149" s="195" t="s">
@@ -23967,12 +23971,12 @@
       <c r="K149" s="158"/>
     </row>
     <row r="150" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B150" s="304"/>
-      <c r="C150" s="298"/>
-      <c r="D150" s="304"/>
+      <c r="B150" s="297"/>
+      <c r="C150" s="311"/>
+      <c r="D150" s="297"/>
       <c r="E150" s="153"/>
       <c r="F150" s="161"/>
-      <c r="G150" s="349" t="s">
+      <c r="G150" s="295" t="s">
         <v>33</v>
       </c>
       <c r="H150" s="195" t="s">
@@ -23985,12 +23989,12 @@
       <c r="K150" s="158"/>
     </row>
     <row r="151" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B151" s="304"/>
-      <c r="C151" s="298"/>
-      <c r="D151" s="304"/>
+      <c r="B151" s="297"/>
+      <c r="C151" s="311"/>
+      <c r="D151" s="297"/>
       <c r="E151" s="153"/>
       <c r="F151" s="161"/>
-      <c r="G151" s="349" t="s">
+      <c r="G151" s="295" t="s">
         <v>32</v>
       </c>
       <c r="H151" s="195" t="s">
@@ -24001,12 +24005,12 @@
       <c r="K151" s="158"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B152" s="304"/>
-      <c r="C152" s="298"/>
-      <c r="D152" s="305"/>
+      <c r="B152" s="297"/>
+      <c r="C152" s="311"/>
+      <c r="D152" s="298"/>
       <c r="E152" s="153"/>
       <c r="F152" s="161"/>
-      <c r="G152" s="349" t="s">
+      <c r="G152" s="295" t="s">
         <v>34</v>
       </c>
       <c r="H152" s="156"/>
@@ -24015,9 +24019,9 @@
       <c r="K152" s="158"/>
     </row>
     <row r="153" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B153" s="304"/>
-      <c r="C153" s="298"/>
-      <c r="D153" s="301" t="s">
+      <c r="B153" s="297"/>
+      <c r="C153" s="311"/>
+      <c r="D153" s="313" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="213"/>
@@ -24037,9 +24041,9 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B154" s="304"/>
-      <c r="C154" s="298"/>
-      <c r="D154" s="310"/>
+      <c r="B154" s="297"/>
+      <c r="C154" s="311"/>
+      <c r="D154" s="314"/>
       <c r="E154" s="213"/>
       <c r="F154" s="214"/>
       <c r="G154" s="155" t="s">
@@ -24055,8 +24059,8 @@
       <c r="K154" s="158"/>
     </row>
     <row r="155" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B155" s="304"/>
-      <c r="C155" s="298"/>
+      <c r="B155" s="297"/>
+      <c r="C155" s="311"/>
       <c r="D155" s="165" t="s">
         <v>38</v>
       </c>
@@ -24075,8 +24079,8 @@
       <c r="K155" s="158"/>
     </row>
     <row r="156" spans="2:11" ht="30" customHeight="1">
-      <c r="B156" s="304"/>
-      <c r="C156" s="298"/>
+      <c r="B156" s="297"/>
+      <c r="C156" s="311"/>
       <c r="D156" s="165" t="s">
         <v>40</v>
       </c>
@@ -24095,9 +24099,9 @@
       <c r="K156" s="158"/>
     </row>
     <row r="157" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B157" s="304"/>
-      <c r="C157" s="298"/>
-      <c r="D157" s="303" t="s">
+      <c r="B157" s="297"/>
+      <c r="C157" s="311"/>
+      <c r="D157" s="296" t="s">
         <v>42</v>
       </c>
       <c r="E157" s="153"/>
@@ -24117,9 +24121,9 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B158" s="304"/>
-      <c r="C158" s="298"/>
-      <c r="D158" s="304"/>
+      <c r="B158" s="297"/>
+      <c r="C158" s="311"/>
+      <c r="D158" s="297"/>
       <c r="E158" s="153"/>
       <c r="F158" s="161"/>
       <c r="G158" s="155" t="s">
@@ -24135,9 +24139,9 @@
       <c r="K158" s="158"/>
     </row>
     <row r="159" spans="2:11" ht="24" customHeight="1">
-      <c r="B159" s="304"/>
-      <c r="C159" s="298"/>
-      <c r="D159" s="304"/>
+      <c r="B159" s="297"/>
+      <c r="C159" s="311"/>
+      <c r="D159" s="297"/>
       <c r="E159" s="153"/>
       <c r="F159" s="161"/>
       <c r="G159" s="155" t="s">
@@ -24153,9 +24157,9 @@
       <c r="K159" s="158"/>
     </row>
     <row r="160" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B160" s="304"/>
-      <c r="C160" s="298"/>
-      <c r="D160" s="304"/>
+      <c r="B160" s="297"/>
+      <c r="C160" s="311"/>
+      <c r="D160" s="297"/>
       <c r="E160" s="153"/>
       <c r="F160" s="161"/>
       <c r="G160" s="155" t="s">
@@ -24171,9 +24175,9 @@
       <c r="K160" s="158"/>
     </row>
     <row r="161" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B161" s="304"/>
-      <c r="C161" s="298"/>
-      <c r="D161" s="304"/>
+      <c r="B161" s="297"/>
+      <c r="C161" s="311"/>
+      <c r="D161" s="297"/>
       <c r="E161" s="153"/>
       <c r="F161" s="161"/>
       <c r="G161" s="155" t="s">
@@ -24187,9 +24191,9 @@
       <c r="K161" s="158"/>
     </row>
     <row r="162" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B162" s="304"/>
-      <c r="C162" s="298"/>
-      <c r="D162" s="304"/>
+      <c r="B162" s="297"/>
+      <c r="C162" s="311"/>
+      <c r="D162" s="297"/>
       <c r="E162" s="153"/>
       <c r="F162" s="161"/>
       <c r="G162" s="155" t="s">
@@ -24205,9 +24209,9 @@
       <c r="K162" s="158"/>
     </row>
     <row r="163" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B163" s="304"/>
-      <c r="C163" s="298"/>
-      <c r="D163" s="304"/>
+      <c r="B163" s="297"/>
+      <c r="C163" s="311"/>
+      <c r="D163" s="297"/>
       <c r="E163" s="153"/>
       <c r="F163" s="161"/>
       <c r="G163" s="278" t="s">
@@ -24219,9 +24223,9 @@
       <c r="K163" s="158"/>
     </row>
     <row r="164" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B164" s="304"/>
-      <c r="C164" s="298"/>
-      <c r="D164" s="304"/>
+      <c r="B164" s="297"/>
+      <c r="C164" s="311"/>
+      <c r="D164" s="297"/>
       <c r="E164" s="153"/>
       <c r="F164" s="161"/>
       <c r="G164" s="155" t="s">
@@ -24237,9 +24241,9 @@
       <c r="K164" s="158"/>
     </row>
     <row r="165" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B165" s="304"/>
-      <c r="C165" s="298"/>
-      <c r="D165" s="304"/>
+      <c r="B165" s="297"/>
+      <c r="C165" s="311"/>
+      <c r="D165" s="297"/>
       <c r="E165" s="153"/>
       <c r="F165" s="161"/>
       <c r="G165" s="155" t="s">
@@ -24253,9 +24257,9 @@
       <c r="K165" s="158"/>
     </row>
     <row r="166" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B166" s="304"/>
-      <c r="C166" s="299"/>
-      <c r="D166" s="305"/>
+      <c r="B166" s="297"/>
+      <c r="C166" s="312"/>
+      <c r="D166" s="298"/>
       <c r="E166" s="153"/>
       <c r="F166" s="161"/>
       <c r="G166" s="155" t="s">
@@ -24271,11 +24275,11 @@
       <c r="K166" s="216"/>
     </row>
     <row r="167" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B167" s="304"/>
-      <c r="C167" s="297" t="s">
+      <c r="B167" s="297"/>
+      <c r="C167" s="310" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="303" t="s">
+      <c r="D167" s="296" t="s">
         <v>106</v>
       </c>
       <c r="E167" s="153"/>
@@ -24289,9 +24293,9 @@
       <c r="K167" s="158"/>
     </row>
     <row r="168" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B168" s="304"/>
-      <c r="C168" s="298"/>
-      <c r="D168" s="304"/>
+      <c r="B168" s="297"/>
+      <c r="C168" s="311"/>
+      <c r="D168" s="297"/>
       <c r="E168" s="153"/>
       <c r="F168" s="161"/>
       <c r="G168" s="155" t="s">
@@ -24303,9 +24307,9 @@
       <c r="K168" s="158"/>
     </row>
     <row r="169" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B169" s="304"/>
-      <c r="C169" s="298"/>
-      <c r="D169" s="304"/>
+      <c r="B169" s="297"/>
+      <c r="C169" s="311"/>
+      <c r="D169" s="297"/>
       <c r="E169" s="153"/>
       <c r="F169" s="161"/>
       <c r="G169" s="155" t="s">
@@ -24317,9 +24321,9 @@
       <c r="K169" s="158"/>
     </row>
     <row r="170" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B170" s="304"/>
-      <c r="C170" s="298"/>
-      <c r="D170" s="304"/>
+      <c r="B170" s="297"/>
+      <c r="C170" s="311"/>
+      <c r="D170" s="297"/>
       <c r="E170" s="153"/>
       <c r="F170" s="161"/>
       <c r="G170" s="155" t="s">
@@ -24331,9 +24335,9 @@
       <c r="K170" s="158"/>
     </row>
     <row r="171" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B171" s="304"/>
-      <c r="C171" s="298"/>
-      <c r="D171" s="304"/>
+      <c r="B171" s="297"/>
+      <c r="C171" s="311"/>
+      <c r="D171" s="297"/>
       <c r="E171" s="153"/>
       <c r="F171" s="161"/>
       <c r="G171" s="155" t="s">
@@ -24345,9 +24349,9 @@
       <c r="K171" s="158"/>
     </row>
     <row r="172" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B172" s="304"/>
-      <c r="C172" s="298"/>
-      <c r="D172" s="304"/>
+      <c r="B172" s="297"/>
+      <c r="C172" s="311"/>
+      <c r="D172" s="297"/>
       <c r="E172" s="153"/>
       <c r="F172" s="161"/>
       <c r="G172" s="155" t="s">
@@ -24359,9 +24363,9 @@
       <c r="K172" s="158"/>
     </row>
     <row r="173" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B173" s="304"/>
-      <c r="C173" s="298"/>
-      <c r="D173" s="304"/>
+      <c r="B173" s="297"/>
+      <c r="C173" s="311"/>
+      <c r="D173" s="297"/>
       <c r="E173" s="153"/>
       <c r="F173" s="161"/>
       <c r="G173" s="155" t="s">
@@ -24373,9 +24377,9 @@
       <c r="K173" s="158"/>
     </row>
     <row r="174" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B174" s="304"/>
-      <c r="C174" s="298"/>
-      <c r="D174" s="304"/>
+      <c r="B174" s="297"/>
+      <c r="C174" s="311"/>
+      <c r="D174" s="297"/>
       <c r="E174" s="153"/>
       <c r="F174" s="161"/>
       <c r="G174" s="155" t="s">
@@ -24387,9 +24391,9 @@
       <c r="K174" s="158"/>
     </row>
     <row r="175" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B175" s="304"/>
-      <c r="C175" s="298"/>
-      <c r="D175" s="305"/>
+      <c r="B175" s="297"/>
+      <c r="C175" s="311"/>
+      <c r="D175" s="298"/>
       <c r="E175" s="153"/>
       <c r="F175" s="161"/>
       <c r="G175" s="155" t="s">
@@ -24401,9 +24405,9 @@
       <c r="K175" s="158"/>
     </row>
     <row r="176" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B176" s="304"/>
-      <c r="C176" s="298"/>
-      <c r="D176" s="303" t="s">
+      <c r="B176" s="297"/>
+      <c r="C176" s="311"/>
+      <c r="D176" s="296" t="s">
         <v>108</v>
       </c>
       <c r="E176" s="153"/>
@@ -24417,9 +24421,9 @@
       <c r="K176" s="158"/>
     </row>
     <row r="177" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B177" s="304"/>
-      <c r="C177" s="298"/>
-      <c r="D177" s="304"/>
+      <c r="B177" s="297"/>
+      <c r="C177" s="311"/>
+      <c r="D177" s="297"/>
       <c r="E177" s="153"/>
       <c r="F177" s="161"/>
       <c r="G177" s="155" t="s">
@@ -24431,9 +24435,9 @@
       <c r="K177" s="158"/>
     </row>
     <row r="178" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B178" s="304"/>
-      <c r="C178" s="298"/>
-      <c r="D178" s="304"/>
+      <c r="B178" s="297"/>
+      <c r="C178" s="311"/>
+      <c r="D178" s="297"/>
       <c r="E178" s="153"/>
       <c r="F178" s="161"/>
       <c r="G178" s="155" t="s">
@@ -24445,9 +24449,9 @@
       <c r="K178" s="158"/>
     </row>
     <row r="179" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B179" s="304"/>
-      <c r="C179" s="298"/>
-      <c r="D179" s="304"/>
+      <c r="B179" s="297"/>
+      <c r="C179" s="311"/>
+      <c r="D179" s="297"/>
       <c r="E179" s="153"/>
       <c r="F179" s="161"/>
       <c r="G179" s="155" t="s">
@@ -24459,9 +24463,9 @@
       <c r="K179" s="158"/>
     </row>
     <row r="180" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B180" s="304"/>
-      <c r="C180" s="298"/>
-      <c r="D180" s="304"/>
+      <c r="B180" s="297"/>
+      <c r="C180" s="311"/>
+      <c r="D180" s="297"/>
       <c r="E180" s="153"/>
       <c r="F180" s="161"/>
       <c r="G180" s="155" t="s">
@@ -24473,9 +24477,9 @@
       <c r="K180" s="158"/>
     </row>
     <row r="181" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B181" s="304"/>
-      <c r="C181" s="298"/>
-      <c r="D181" s="304"/>
+      <c r="B181" s="297"/>
+      <c r="C181" s="311"/>
+      <c r="D181" s="297"/>
       <c r="E181" s="153"/>
       <c r="F181" s="161"/>
       <c r="G181" s="155" t="s">
@@ -24487,9 +24491,9 @@
       <c r="K181" s="158"/>
     </row>
     <row r="182" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B182" s="304"/>
-      <c r="C182" s="298"/>
-      <c r="D182" s="304"/>
+      <c r="B182" s="297"/>
+      <c r="C182" s="311"/>
+      <c r="D182" s="297"/>
       <c r="E182" s="153"/>
       <c r="F182" s="161"/>
       <c r="G182" s="155" t="s">
@@ -24501,9 +24505,9 @@
       <c r="K182" s="158"/>
     </row>
     <row r="183" spans="2:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="B183" s="304"/>
-      <c r="C183" s="299"/>
-      <c r="D183" s="305"/>
+      <c r="B183" s="297"/>
+      <c r="C183" s="312"/>
+      <c r="D183" s="298"/>
       <c r="E183" s="153"/>
       <c r="F183" s="161"/>
       <c r="G183" s="155" t="s">
@@ -24515,8 +24519,8 @@
       <c r="K183" s="158"/>
     </row>
     <row r="184" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B184" s="304"/>
-      <c r="C184" s="307" t="s">
+      <c r="B184" s="297"/>
+      <c r="C184" s="305" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="165"/>
@@ -24531,8 +24535,8 @@
       <c r="K184" s="158"/>
     </row>
     <row r="185" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B185" s="304"/>
-      <c r="C185" s="308"/>
+      <c r="B185" s="297"/>
+      <c r="C185" s="306"/>
       <c r="D185" s="217" t="s">
         <v>156</v>
       </c>
@@ -24547,8 +24551,8 @@
       <c r="K185" s="158"/>
     </row>
     <row r="186" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B186" s="304"/>
-      <c r="C186" s="308"/>
+      <c r="B186" s="297"/>
+      <c r="C186" s="306"/>
       <c r="D186" s="219"/>
       <c r="E186" s="208"/>
       <c r="F186" s="218"/>
@@ -24561,8 +24565,8 @@
       <c r="K186" s="158"/>
     </row>
     <row r="187" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B187" s="304"/>
-      <c r="C187" s="308"/>
+      <c r="B187" s="297"/>
+      <c r="C187" s="306"/>
       <c r="D187" s="166" t="s">
         <v>158</v>
       </c>
@@ -24575,8 +24579,8 @@
       <c r="K187" s="158"/>
     </row>
     <row r="188" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B188" s="304"/>
-      <c r="C188" s="308"/>
+      <c r="B188" s="297"/>
+      <c r="C188" s="306"/>
       <c r="D188" s="166" t="s">
         <v>159</v>
       </c>
@@ -24589,8 +24593,8 @@
       <c r="K188" s="158"/>
     </row>
     <row r="189" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B189" s="304"/>
-      <c r="C189" s="308"/>
+      <c r="B189" s="297"/>
+      <c r="C189" s="306"/>
       <c r="D189" s="166" t="s">
         <v>160</v>
       </c>
@@ -24603,8 +24607,8 @@
       <c r="K189" s="158"/>
     </row>
     <row r="190" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B190" s="304"/>
-      <c r="C190" s="308"/>
+      <c r="B190" s="297"/>
+      <c r="C190" s="306"/>
       <c r="D190" s="166" t="s">
         <v>161</v>
       </c>
@@ -24617,8 +24621,8 @@
       <c r="K190" s="158"/>
     </row>
     <row r="191" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B191" s="304"/>
-      <c r="C191" s="308"/>
+      <c r="B191" s="297"/>
+      <c r="C191" s="306"/>
       <c r="D191" s="221" t="s">
         <v>196</v>
       </c>
@@ -24631,8 +24635,8 @@
       <c r="K191" s="158"/>
     </row>
     <row r="192" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B192" s="304"/>
-      <c r="C192" s="308"/>
+      <c r="B192" s="297"/>
+      <c r="C192" s="306"/>
       <c r="D192" s="166" t="s">
         <v>162</v>
       </c>
@@ -24645,8 +24649,8 @@
       <c r="K192" s="158"/>
     </row>
     <row r="193" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B193" s="305"/>
-      <c r="C193" s="309"/>
+      <c r="B193" s="298"/>
+      <c r="C193" s="307"/>
       <c r="D193" s="166" t="s">
         <v>163</v>
       </c>
@@ -24659,13 +24663,13 @@
       <c r="K193" s="158"/>
     </row>
     <row r="194" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B194" s="291" t="s">
+      <c r="B194" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="297" t="s">
+      <c r="C194" s="310" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="303" t="s">
+      <c r="D194" s="296" t="s">
         <v>56</v>
       </c>
       <c r="E194" s="153"/>
@@ -24681,9 +24685,9 @@
       <c r="K194" s="158"/>
     </row>
     <row r="195" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B195" s="292"/>
-      <c r="C195" s="298"/>
-      <c r="D195" s="305"/>
+      <c r="B195" s="309"/>
+      <c r="C195" s="311"/>
+      <c r="D195" s="298"/>
       <c r="E195" s="153"/>
       <c r="F195" s="161"/>
       <c r="G195" s="155" t="s">
@@ -24697,8 +24701,8 @@
       <c r="K195" s="158"/>
     </row>
     <row r="196" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B196" s="292"/>
-      <c r="C196" s="298"/>
+      <c r="B196" s="309"/>
+      <c r="C196" s="311"/>
       <c r="D196" s="287" t="s">
         <v>2922</v>
       </c>
@@ -24713,9 +24717,9 @@
       <c r="K196" s="158"/>
     </row>
     <row r="197" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B197" s="292"/>
-      <c r="C197" s="298"/>
-      <c r="D197" s="303" t="s">
+      <c r="B197" s="309"/>
+      <c r="C197" s="311"/>
+      <c r="D197" s="296" t="s">
         <v>61</v>
       </c>
       <c r="E197" s="153"/>
@@ -24729,9 +24733,9 @@
       <c r="K197" s="158"/>
     </row>
     <row r="198" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B198" s="292"/>
-      <c r="C198" s="298"/>
-      <c r="D198" s="304"/>
+      <c r="B198" s="309"/>
+      <c r="C198" s="311"/>
+      <c r="D198" s="297"/>
       <c r="E198" s="153"/>
       <c r="F198" s="161"/>
       <c r="G198" s="155" t="s">
@@ -24747,9 +24751,9 @@
       <c r="K198" s="158"/>
     </row>
     <row r="199" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B199" s="292"/>
-      <c r="C199" s="298"/>
-      <c r="D199" s="305"/>
+      <c r="B199" s="309"/>
+      <c r="C199" s="311"/>
+      <c r="D199" s="298"/>
       <c r="E199" s="153"/>
       <c r="F199" s="161"/>
       <c r="G199" s="155" t="s">
@@ -24761,9 +24765,9 @@
       <c r="K199" s="158"/>
     </row>
     <row r="200" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B200" s="292"/>
-      <c r="C200" s="298"/>
-      <c r="D200" s="303" t="s">
+      <c r="B200" s="309"/>
+      <c r="C200" s="311"/>
+      <c r="D200" s="296" t="s">
         <v>65</v>
       </c>
       <c r="E200" s="153"/>
@@ -24779,9 +24783,9 @@
       <c r="K200" s="158"/>
     </row>
     <row r="201" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B201" s="292"/>
-      <c r="C201" s="298"/>
-      <c r="D201" s="305"/>
+      <c r="B201" s="309"/>
+      <c r="C201" s="311"/>
+      <c r="D201" s="298"/>
       <c r="E201" s="153"/>
       <c r="F201" s="161"/>
       <c r="G201" s="155" t="s">
@@ -24795,9 +24799,9 @@
       <c r="K201" s="180"/>
     </row>
     <row r="202" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B202" s="292"/>
-      <c r="C202" s="298"/>
-      <c r="D202" s="303" t="s">
+      <c r="B202" s="309"/>
+      <c r="C202" s="311"/>
+      <c r="D202" s="296" t="s">
         <v>68</v>
       </c>
       <c r="E202" s="153"/>
@@ -24811,9 +24815,9 @@
       <c r="K202" s="158"/>
     </row>
     <row r="203" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B203" s="292"/>
-      <c r="C203" s="298"/>
-      <c r="D203" s="305"/>
+      <c r="B203" s="309"/>
+      <c r="C203" s="311"/>
+      <c r="D203" s="298"/>
       <c r="E203" s="153"/>
       <c r="F203" s="161"/>
       <c r="G203" s="155" t="s">
@@ -24827,9 +24831,9 @@
       <c r="K203" s="158"/>
     </row>
     <row r="204" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B204" s="292"/>
-      <c r="C204" s="298"/>
-      <c r="D204" s="303" t="s">
+      <c r="B204" s="309"/>
+      <c r="C204" s="311"/>
+      <c r="D204" s="296" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="153"/>
@@ -24845,9 +24849,9 @@
       <c r="K204" s="158"/>
     </row>
     <row r="205" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B205" s="292"/>
-      <c r="C205" s="298"/>
-      <c r="D205" s="304"/>
+      <c r="B205" s="309"/>
+      <c r="C205" s="311"/>
+      <c r="D205" s="297"/>
       <c r="E205" s="153"/>
       <c r="F205" s="161"/>
       <c r="G205" s="155" t="s">
@@ -24863,9 +24867,9 @@
       <c r="K205" s="158"/>
     </row>
     <row r="206" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B206" s="292"/>
-      <c r="C206" s="298"/>
-      <c r="D206" s="304"/>
+      <c r="B206" s="309"/>
+      <c r="C206" s="311"/>
+      <c r="D206" s="297"/>
       <c r="E206" s="153"/>
       <c r="F206" s="161"/>
       <c r="G206" s="155" t="s">
@@ -24879,9 +24883,9 @@
       <c r="K206" s="158"/>
     </row>
     <row r="207" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B207" s="292"/>
-      <c r="C207" s="298"/>
-      <c r="D207" s="304"/>
+      <c r="B207" s="309"/>
+      <c r="C207" s="311"/>
+      <c r="D207" s="297"/>
       <c r="E207" s="153"/>
       <c r="F207" s="161"/>
       <c r="G207" s="155" t="s">
@@ -24895,9 +24899,9 @@
       <c r="K207" s="158"/>
     </row>
     <row r="208" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B208" s="292"/>
-      <c r="C208" s="298"/>
-      <c r="D208" s="304"/>
+      <c r="B208" s="309"/>
+      <c r="C208" s="311"/>
+      <c r="D208" s="297"/>
       <c r="E208" s="153"/>
       <c r="F208" s="161"/>
       <c r="G208" s="155" t="s">
@@ -24911,9 +24915,9 @@
       <c r="K208" s="158"/>
     </row>
     <row r="209" spans="2:11" ht="30" customHeight="1">
-      <c r="B209" s="292"/>
-      <c r="C209" s="299"/>
-      <c r="D209" s="305"/>
+      <c r="B209" s="309"/>
+      <c r="C209" s="312"/>
+      <c r="D209" s="298"/>
       <c r="E209" s="153"/>
       <c r="F209" s="161"/>
       <c r="G209" s="155" t="s">
@@ -24929,11 +24933,11 @@
       <c r="K209" s="223"/>
     </row>
     <row r="210" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B210" s="292"/>
-      <c r="C210" s="297" t="s">
+      <c r="B210" s="309"/>
+      <c r="C210" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="D210" s="303" t="s">
+      <c r="D210" s="296" t="s">
         <v>1452</v>
       </c>
       <c r="E210" s="153"/>
@@ -24947,9 +24951,9 @@
       <c r="K210" s="158"/>
     </row>
     <row r="211" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B211" s="292"/>
-      <c r="C211" s="298"/>
-      <c r="D211" s="304"/>
+      <c r="B211" s="309"/>
+      <c r="C211" s="311"/>
+      <c r="D211" s="297"/>
       <c r="E211" s="153"/>
       <c r="F211" s="161"/>
       <c r="G211" s="155" t="s">
@@ -24963,9 +24967,9 @@
       <c r="K211" s="158"/>
     </row>
     <row r="212" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B212" s="292"/>
-      <c r="C212" s="298"/>
-      <c r="D212" s="304"/>
+      <c r="B212" s="309"/>
+      <c r="C212" s="311"/>
+      <c r="D212" s="297"/>
       <c r="E212" s="153"/>
       <c r="F212" s="161"/>
       <c r="G212" s="155" t="s">
@@ -24977,9 +24981,9 @@
       <c r="K212" s="158"/>
     </row>
     <row r="213" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B213" s="292"/>
-      <c r="C213" s="298"/>
-      <c r="D213" s="304"/>
+      <c r="B213" s="309"/>
+      <c r="C213" s="311"/>
+      <c r="D213" s="297"/>
       <c r="E213" s="153"/>
       <c r="F213" s="161"/>
       <c r="G213" s="155" t="s">
@@ -24991,9 +24995,9 @@
       <c r="K213" s="158"/>
     </row>
     <row r="214" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B214" s="292"/>
-      <c r="C214" s="298"/>
-      <c r="D214" s="304"/>
+      <c r="B214" s="309"/>
+      <c r="C214" s="311"/>
+      <c r="D214" s="297"/>
       <c r="E214" s="153"/>
       <c r="F214" s="161"/>
       <c r="G214" s="224" t="s">
@@ -25005,9 +25009,9 @@
       <c r="K214" s="158"/>
     </row>
     <row r="215" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B215" s="292"/>
-      <c r="C215" s="298"/>
-      <c r="D215" s="304"/>
+      <c r="B215" s="309"/>
+      <c r="C215" s="311"/>
+      <c r="D215" s="297"/>
       <c r="E215" s="153"/>
       <c r="F215" s="161"/>
       <c r="G215" s="224" t="s">
@@ -25019,9 +25023,9 @@
       <c r="K215" s="158"/>
     </row>
     <row r="216" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B216" s="292"/>
-      <c r="C216" s="298"/>
-      <c r="D216" s="304"/>
+      <c r="B216" s="309"/>
+      <c r="C216" s="311"/>
+      <c r="D216" s="297"/>
       <c r="E216" s="153"/>
       <c r="F216" s="161"/>
       <c r="G216" s="224" t="s">
@@ -25033,9 +25037,9 @@
       <c r="K216" s="158"/>
     </row>
     <row r="217" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B217" s="292"/>
-      <c r="C217" s="298"/>
-      <c r="D217" s="304"/>
+      <c r="B217" s="309"/>
+      <c r="C217" s="311"/>
+      <c r="D217" s="297"/>
       <c r="E217" s="153"/>
       <c r="F217" s="161"/>
       <c r="G217" s="155" t="s">
@@ -25047,9 +25051,9 @@
       <c r="K217" s="158"/>
     </row>
     <row r="218" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B218" s="292"/>
-      <c r="C218" s="298"/>
-      <c r="D218" s="304"/>
+      <c r="B218" s="309"/>
+      <c r="C218" s="311"/>
+      <c r="D218" s="297"/>
       <c r="E218" s="153"/>
       <c r="F218" s="161"/>
       <c r="G218" s="155" t="s">
@@ -25061,9 +25065,9 @@
       <c r="K218" s="158"/>
     </row>
     <row r="219" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B219" s="292"/>
-      <c r="C219" s="298"/>
-      <c r="D219" s="304"/>
+      <c r="B219" s="309"/>
+      <c r="C219" s="311"/>
+      <c r="D219" s="297"/>
       <c r="E219" s="153"/>
       <c r="F219" s="161"/>
       <c r="G219" s="155" t="s">
@@ -25075,9 +25079,9 @@
       <c r="K219" s="158"/>
     </row>
     <row r="220" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B220" s="292"/>
-      <c r="C220" s="298"/>
-      <c r="D220" s="304"/>
+      <c r="B220" s="309"/>
+      <c r="C220" s="311"/>
+      <c r="D220" s="297"/>
       <c r="E220" s="153"/>
       <c r="F220" s="161"/>
       <c r="G220" s="155" t="s">
@@ -25089,9 +25093,9 @@
       <c r="K220" s="158"/>
     </row>
     <row r="221" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B221" s="292"/>
-      <c r="C221" s="298"/>
-      <c r="D221" s="304"/>
+      <c r="B221" s="309"/>
+      <c r="C221" s="311"/>
+      <c r="D221" s="297"/>
       <c r="E221" s="153"/>
       <c r="F221" s="161"/>
       <c r="G221" s="155" t="s">
@@ -25103,9 +25107,9 @@
       <c r="K221" s="158"/>
     </row>
     <row r="222" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B222" s="292"/>
-      <c r="C222" s="298"/>
-      <c r="D222" s="304"/>
+      <c r="B222" s="309"/>
+      <c r="C222" s="311"/>
+      <c r="D222" s="297"/>
       <c r="E222" s="153"/>
       <c r="F222" s="161"/>
       <c r="G222" s="155" t="s">
@@ -25117,9 +25121,9 @@
       <c r="K222" s="158"/>
     </row>
     <row r="223" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B223" s="292"/>
-      <c r="C223" s="298"/>
-      <c r="D223" s="304"/>
+      <c r="B223" s="309"/>
+      <c r="C223" s="311"/>
+      <c r="D223" s="297"/>
       <c r="E223" s="153"/>
       <c r="F223" s="161"/>
       <c r="G223" s="155" t="s">
@@ -25131,9 +25135,9 @@
       <c r="K223" s="158"/>
     </row>
     <row r="224" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B224" s="292"/>
-      <c r="C224" s="298"/>
-      <c r="D224" s="304"/>
+      <c r="B224" s="309"/>
+      <c r="C224" s="311"/>
+      <c r="D224" s="297"/>
       <c r="E224" s="153"/>
       <c r="F224" s="161"/>
       <c r="G224" s="155" t="s">
@@ -25145,9 +25149,9 @@
       <c r="K224" s="158"/>
     </row>
     <row r="225" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B225" s="292"/>
-      <c r="C225" s="298"/>
-      <c r="D225" s="304"/>
+      <c r="B225" s="309"/>
+      <c r="C225" s="311"/>
+      <c r="D225" s="297"/>
       <c r="E225" s="153"/>
       <c r="F225" s="161"/>
       <c r="G225" s="155" t="s">
@@ -25159,9 +25163,9 @@
       <c r="K225" s="158"/>
     </row>
     <row r="226" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B226" s="292"/>
-      <c r="C226" s="298"/>
-      <c r="D226" s="304"/>
+      <c r="B226" s="309"/>
+      <c r="C226" s="311"/>
+      <c r="D226" s="297"/>
       <c r="E226" s="153"/>
       <c r="F226" s="161"/>
       <c r="G226" s="155" t="s">
@@ -25173,9 +25177,9 @@
       <c r="K226" s="158"/>
     </row>
     <row r="227" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B227" s="292"/>
-      <c r="C227" s="298"/>
-      <c r="D227" s="304"/>
+      <c r="B227" s="309"/>
+      <c r="C227" s="311"/>
+      <c r="D227" s="297"/>
       <c r="E227" s="153"/>
       <c r="F227" s="161"/>
       <c r="G227" s="155" t="s">
@@ -25187,9 +25191,9 @@
       <c r="K227" s="158"/>
     </row>
     <row r="228" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B228" s="292"/>
-      <c r="C228" s="298"/>
-      <c r="D228" s="304"/>
+      <c r="B228" s="309"/>
+      <c r="C228" s="311"/>
+      <c r="D228" s="297"/>
       <c r="E228" s="153"/>
       <c r="F228" s="161"/>
       <c r="G228" s="155" t="s">
@@ -25201,9 +25205,9 @@
       <c r="K228" s="158"/>
     </row>
     <row r="229" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B229" s="292"/>
-      <c r="C229" s="298"/>
-      <c r="D229" s="304"/>
+      <c r="B229" s="309"/>
+      <c r="C229" s="311"/>
+      <c r="D229" s="297"/>
       <c r="E229" s="153"/>
       <c r="F229" s="161"/>
       <c r="G229" s="155" t="s">
@@ -25215,9 +25219,9 @@
       <c r="K229" s="158"/>
     </row>
     <row r="230" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B230" s="292"/>
-      <c r="C230" s="298"/>
-      <c r="D230" s="304"/>
+      <c r="B230" s="309"/>
+      <c r="C230" s="311"/>
+      <c r="D230" s="297"/>
       <c r="E230" s="153"/>
       <c r="F230" s="161"/>
       <c r="G230" s="155" t="s">
@@ -25229,9 +25233,9 @@
       <c r="K230" s="158"/>
     </row>
     <row r="231" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B231" s="292"/>
-      <c r="C231" s="298"/>
-      <c r="D231" s="304"/>
+      <c r="B231" s="309"/>
+      <c r="C231" s="311"/>
+      <c r="D231" s="297"/>
       <c r="E231" s="153"/>
       <c r="F231" s="161"/>
       <c r="G231" s="155" t="s">
@@ -25243,9 +25247,9 @@
       <c r="K231" s="158"/>
     </row>
     <row r="232" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B232" s="292"/>
-      <c r="C232" s="298"/>
-      <c r="D232" s="304"/>
+      <c r="B232" s="309"/>
+      <c r="C232" s="311"/>
+      <c r="D232" s="297"/>
       <c r="E232" s="153"/>
       <c r="F232" s="161"/>
       <c r="G232" s="155" t="s">
@@ -25257,9 +25261,9 @@
       <c r="K232" s="158"/>
     </row>
     <row r="233" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B233" s="292"/>
-      <c r="C233" s="298"/>
-      <c r="D233" s="304"/>
+      <c r="B233" s="309"/>
+      <c r="C233" s="311"/>
+      <c r="D233" s="297"/>
       <c r="E233" s="153"/>
       <c r="F233" s="161"/>
       <c r="G233" s="155" t="s">
@@ -25271,9 +25275,9 @@
       <c r="K233" s="158"/>
     </row>
     <row r="234" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B234" s="292"/>
-      <c r="C234" s="298"/>
-      <c r="D234" s="304"/>
+      <c r="B234" s="309"/>
+      <c r="C234" s="311"/>
+      <c r="D234" s="297"/>
       <c r="E234" s="153"/>
       <c r="F234" s="161"/>
       <c r="G234" s="155" t="s">
@@ -25285,9 +25289,9 @@
       <c r="K234" s="158"/>
     </row>
     <row r="235" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B235" s="292"/>
-      <c r="C235" s="298"/>
-      <c r="D235" s="304"/>
+      <c r="B235" s="309"/>
+      <c r="C235" s="311"/>
+      <c r="D235" s="297"/>
       <c r="E235" s="153"/>
       <c r="F235" s="161"/>
       <c r="G235" s="155" t="s">
@@ -25299,9 +25303,9 @@
       <c r="K235" s="158"/>
     </row>
     <row r="236" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B236" s="292"/>
-      <c r="C236" s="298"/>
-      <c r="D236" s="304"/>
+      <c r="B236" s="309"/>
+      <c r="C236" s="311"/>
+      <c r="D236" s="297"/>
       <c r="E236" s="153"/>
       <c r="F236" s="161"/>
       <c r="G236" s="155" t="s">
@@ -25313,9 +25317,9 @@
       <c r="K236" s="158"/>
     </row>
     <row r="237" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B237" s="292"/>
-      <c r="C237" s="298"/>
-      <c r="D237" s="304"/>
+      <c r="B237" s="309"/>
+      <c r="C237" s="311"/>
+      <c r="D237" s="297"/>
       <c r="E237" s="153"/>
       <c r="F237" s="161"/>
       <c r="G237" s="155" t="s">
@@ -25327,9 +25331,9 @@
       <c r="K237" s="158"/>
     </row>
     <row r="238" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B238" s="292"/>
-      <c r="C238" s="298"/>
-      <c r="D238" s="304"/>
+      <c r="B238" s="309"/>
+      <c r="C238" s="311"/>
+      <c r="D238" s="297"/>
       <c r="E238" s="153"/>
       <c r="F238" s="161"/>
       <c r="G238" s="155" t="s">
@@ -25341,9 +25345,9 @@
       <c r="K238" s="158"/>
     </row>
     <row r="239" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B239" s="292"/>
-      <c r="C239" s="298"/>
-      <c r="D239" s="304"/>
+      <c r="B239" s="309"/>
+      <c r="C239" s="311"/>
+      <c r="D239" s="297"/>
       <c r="E239" s="153"/>
       <c r="F239" s="161"/>
       <c r="G239" s="155" t="s">
@@ -25355,9 +25359,9 @@
       <c r="K239" s="158"/>
     </row>
     <row r="240" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B240" s="292"/>
-      <c r="C240" s="299"/>
-      <c r="D240" s="305"/>
+      <c r="B240" s="309"/>
+      <c r="C240" s="312"/>
+      <c r="D240" s="298"/>
       <c r="E240" s="153"/>
       <c r="F240" s="161"/>
       <c r="G240" s="155" t="s">
@@ -25369,11 +25373,11 @@
       <c r="K240" s="158"/>
     </row>
     <row r="241" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B241" s="292"/>
-      <c r="C241" s="297" t="s">
+      <c r="B241" s="309"/>
+      <c r="C241" s="310" t="s">
         <v>1470</v>
       </c>
-      <c r="D241" s="303" t="s">
+      <c r="D241" s="296" t="s">
         <v>133</v>
       </c>
       <c r="E241" s="153"/>
@@ -25387,9 +25391,9 @@
       <c r="K241" s="158"/>
     </row>
     <row r="242" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B242" s="292"/>
-      <c r="C242" s="298"/>
-      <c r="D242" s="304"/>
+      <c r="B242" s="309"/>
+      <c r="C242" s="311"/>
+      <c r="D242" s="297"/>
       <c r="E242" s="153"/>
       <c r="F242" s="161"/>
       <c r="G242" s="155" t="s">
@@ -25401,9 +25405,9 @@
       <c r="K242" s="158"/>
     </row>
     <row r="243" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B243" s="292"/>
-      <c r="C243" s="298"/>
-      <c r="D243" s="304"/>
+      <c r="B243" s="309"/>
+      <c r="C243" s="311"/>
+      <c r="D243" s="297"/>
       <c r="E243" s="153"/>
       <c r="F243" s="161"/>
       <c r="G243" s="155" t="s">
@@ -25417,9 +25421,9 @@
       <c r="K243" s="158"/>
     </row>
     <row r="244" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B244" s="292"/>
-      <c r="C244" s="298"/>
-      <c r="D244" s="304"/>
+      <c r="B244" s="309"/>
+      <c r="C244" s="311"/>
+      <c r="D244" s="297"/>
       <c r="E244" s="153"/>
       <c r="F244" s="161"/>
       <c r="G244" s="155" t="s">
@@ -25431,9 +25435,9 @@
       <c r="K244" s="158"/>
     </row>
     <row r="245" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B245" s="292"/>
-      <c r="C245" s="298"/>
-      <c r="D245" s="304"/>
+      <c r="B245" s="309"/>
+      <c r="C245" s="311"/>
+      <c r="D245" s="297"/>
       <c r="E245" s="153"/>
       <c r="F245" s="161"/>
       <c r="G245" s="155" t="s">
@@ -25445,9 +25449,9 @@
       <c r="K245" s="158"/>
     </row>
     <row r="246" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B246" s="292"/>
-      <c r="C246" s="298"/>
-      <c r="D246" s="304"/>
+      <c r="B246" s="309"/>
+      <c r="C246" s="311"/>
+      <c r="D246" s="297"/>
       <c r="E246" s="153"/>
       <c r="F246" s="161"/>
       <c r="G246" s="155" t="s">
@@ -25459,9 +25463,9 @@
       <c r="K246" s="158"/>
     </row>
     <row r="247" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B247" s="292"/>
-      <c r="C247" s="298"/>
-      <c r="D247" s="304"/>
+      <c r="B247" s="309"/>
+      <c r="C247" s="311"/>
+      <c r="D247" s="297"/>
       <c r="E247" s="153"/>
       <c r="F247" s="161"/>
       <c r="G247" s="155" t="s">
@@ -25473,9 +25477,9 @@
       <c r="K247" s="158"/>
     </row>
     <row r="248" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B248" s="292"/>
-      <c r="C248" s="298"/>
-      <c r="D248" s="304"/>
+      <c r="B248" s="309"/>
+      <c r="C248" s="311"/>
+      <c r="D248" s="297"/>
       <c r="E248" s="153"/>
       <c r="F248" s="161"/>
       <c r="G248" s="155" t="s">
@@ -25487,9 +25491,9 @@
       <c r="K248" s="158"/>
     </row>
     <row r="249" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B249" s="292"/>
-      <c r="C249" s="298"/>
-      <c r="D249" s="304"/>
+      <c r="B249" s="309"/>
+      <c r="C249" s="311"/>
+      <c r="D249" s="297"/>
       <c r="E249" s="153"/>
       <c r="F249" s="161"/>
       <c r="G249" s="155" t="s">
@@ -25501,9 +25505,9 @@
       <c r="K249" s="158"/>
     </row>
     <row r="250" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B250" s="292"/>
-      <c r="C250" s="298"/>
-      <c r="D250" s="304"/>
+      <c r="B250" s="309"/>
+      <c r="C250" s="311"/>
+      <c r="D250" s="297"/>
       <c r="E250" s="153"/>
       <c r="F250" s="161"/>
       <c r="G250" s="155" t="s">
@@ -25515,9 +25519,9 @@
       <c r="K250" s="158"/>
     </row>
     <row r="251" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B251" s="292"/>
-      <c r="C251" s="298"/>
-      <c r="D251" s="304"/>
+      <c r="B251" s="309"/>
+      <c r="C251" s="311"/>
+      <c r="D251" s="297"/>
       <c r="E251" s="153"/>
       <c r="F251" s="161"/>
       <c r="G251" s="155" t="s">
@@ -25529,9 +25533,9 @@
       <c r="K251" s="158"/>
     </row>
     <row r="252" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B252" s="292"/>
-      <c r="C252" s="298"/>
-      <c r="D252" s="304"/>
+      <c r="B252" s="309"/>
+      <c r="C252" s="311"/>
+      <c r="D252" s="297"/>
       <c r="E252" s="153"/>
       <c r="F252" s="161"/>
       <c r="G252" s="155" t="s">
@@ -25543,9 +25547,9 @@
       <c r="K252" s="158"/>
     </row>
     <row r="253" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B253" s="292"/>
-      <c r="C253" s="298"/>
-      <c r="D253" s="304"/>
+      <c r="B253" s="309"/>
+      <c r="C253" s="311"/>
+      <c r="D253" s="297"/>
       <c r="E253" s="153"/>
       <c r="F253" s="161"/>
       <c r="G253" s="155" t="s">
@@ -25557,9 +25561,9 @@
       <c r="K253" s="158"/>
     </row>
     <row r="254" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B254" s="292"/>
-      <c r="C254" s="298"/>
-      <c r="D254" s="304"/>
+      <c r="B254" s="309"/>
+      <c r="C254" s="311"/>
+      <c r="D254" s="297"/>
       <c r="E254" s="153"/>
       <c r="F254" s="161"/>
       <c r="G254" s="155" t="s">
@@ -25571,9 +25575,9 @@
       <c r="K254" s="158"/>
     </row>
     <row r="255" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B255" s="292"/>
-      <c r="C255" s="298"/>
-      <c r="D255" s="304"/>
+      <c r="B255" s="309"/>
+      <c r="C255" s="311"/>
+      <c r="D255" s="297"/>
       <c r="E255" s="153"/>
       <c r="F255" s="161"/>
       <c r="G255" s="155" t="s">
@@ -25585,9 +25589,9 @@
       <c r="K255" s="158"/>
     </row>
     <row r="256" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B256" s="292"/>
-      <c r="C256" s="298"/>
-      <c r="D256" s="304"/>
+      <c r="B256" s="309"/>
+      <c r="C256" s="311"/>
+      <c r="D256" s="297"/>
       <c r="E256" s="153"/>
       <c r="F256" s="161"/>
       <c r="G256" s="155" t="s">
@@ -25599,9 +25603,9 @@
       <c r="K256" s="158"/>
     </row>
     <row r="257" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B257" s="292"/>
-      <c r="C257" s="299"/>
-      <c r="D257" s="305"/>
+      <c r="B257" s="309"/>
+      <c r="C257" s="312"/>
+      <c r="D257" s="298"/>
       <c r="E257" s="153"/>
       <c r="F257" s="161"/>
       <c r="G257" s="155" t="s">
@@ -25613,11 +25617,11 @@
       <c r="K257" s="158"/>
     </row>
     <row r="258" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B258" s="292"/>
-      <c r="C258" s="307" t="s">
+      <c r="B258" s="309"/>
+      <c r="C258" s="305" t="s">
         <v>126</v>
       </c>
-      <c r="D258" s="303" t="s">
+      <c r="D258" s="296" t="s">
         <v>1476</v>
       </c>
       <c r="E258" s="153"/>
@@ -25631,9 +25635,9 @@
       <c r="K258" s="158"/>
     </row>
     <row r="259" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B259" s="292"/>
-      <c r="C259" s="308"/>
-      <c r="D259" s="304"/>
+      <c r="B259" s="309"/>
+      <c r="C259" s="306"/>
+      <c r="D259" s="297"/>
       <c r="E259" s="153"/>
       <c r="F259" s="153"/>
       <c r="G259" s="155" t="s">
@@ -25645,9 +25649,9 @@
       <c r="K259" s="158"/>
     </row>
     <row r="260" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B260" s="292"/>
-      <c r="C260" s="308"/>
-      <c r="D260" s="304"/>
+      <c r="B260" s="309"/>
+      <c r="C260" s="306"/>
+      <c r="D260" s="297"/>
       <c r="E260" s="153"/>
       <c r="F260" s="153"/>
       <c r="G260" s="155" t="s">
@@ -25659,9 +25663,9 @@
       <c r="K260" s="158"/>
     </row>
     <row r="261" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B261" s="292"/>
-      <c r="C261" s="308"/>
-      <c r="D261" s="304"/>
+      <c r="B261" s="309"/>
+      <c r="C261" s="306"/>
+      <c r="D261" s="297"/>
       <c r="E261" s="153"/>
       <c r="F261" s="153"/>
       <c r="G261" s="155" t="s">
@@ -25673,9 +25677,9 @@
       <c r="K261" s="158"/>
     </row>
     <row r="262" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B262" s="292"/>
-      <c r="C262" s="308"/>
-      <c r="D262" s="304"/>
+      <c r="B262" s="309"/>
+      <c r="C262" s="306"/>
+      <c r="D262" s="297"/>
       <c r="E262" s="153"/>
       <c r="F262" s="153"/>
       <c r="G262" s="155" t="s">
@@ -25687,9 +25691,9 @@
       <c r="K262" s="158"/>
     </row>
     <row r="263" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B263" s="292"/>
-      <c r="C263" s="308"/>
-      <c r="D263" s="304"/>
+      <c r="B263" s="309"/>
+      <c r="C263" s="306"/>
+      <c r="D263" s="297"/>
       <c r="E263" s="153"/>
       <c r="F263" s="153"/>
       <c r="G263" s="155" t="s">
@@ -25703,9 +25707,9 @@
       <c r="K263" s="158"/>
     </row>
     <row r="264" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B264" s="292"/>
-      <c r="C264" s="308"/>
-      <c r="D264" s="304"/>
+      <c r="B264" s="309"/>
+      <c r="C264" s="306"/>
+      <c r="D264" s="297"/>
       <c r="E264" s="153"/>
       <c r="F264" s="153"/>
       <c r="G264" s="155" t="s">
@@ -25717,9 +25721,9 @@
       <c r="K264" s="158"/>
     </row>
     <row r="265" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B265" s="292"/>
-      <c r="C265" s="308"/>
-      <c r="D265" s="304"/>
+      <c r="B265" s="309"/>
+      <c r="C265" s="306"/>
+      <c r="D265" s="297"/>
       <c r="E265" s="153"/>
       <c r="F265" s="153"/>
       <c r="G265" s="155" t="s">
@@ -25731,9 +25735,9 @@
       <c r="K265" s="158"/>
     </row>
     <row r="266" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B266" s="292"/>
-      <c r="C266" s="308"/>
-      <c r="D266" s="304"/>
+      <c r="B266" s="309"/>
+      <c r="C266" s="306"/>
+      <c r="D266" s="297"/>
       <c r="E266" s="153"/>
       <c r="F266" s="153"/>
       <c r="G266" s="155" t="s">
@@ -25745,9 +25749,9 @@
       <c r="K266" s="158"/>
     </row>
     <row r="267" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B267" s="292"/>
-      <c r="C267" s="308"/>
-      <c r="D267" s="304"/>
+      <c r="B267" s="309"/>
+      <c r="C267" s="306"/>
+      <c r="D267" s="297"/>
       <c r="E267" s="153"/>
       <c r="F267" s="153"/>
       <c r="G267" s="155" t="s">
@@ -25759,9 +25763,9 @@
       <c r="K267" s="158"/>
     </row>
     <row r="268" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B268" s="292"/>
-      <c r="C268" s="308"/>
-      <c r="D268" s="304"/>
+      <c r="B268" s="309"/>
+      <c r="C268" s="306"/>
+      <c r="D268" s="297"/>
       <c r="E268" s="153"/>
       <c r="F268" s="153"/>
       <c r="G268" s="155" t="s">
@@ -25773,9 +25777,9 @@
       <c r="K268" s="158"/>
     </row>
     <row r="269" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B269" s="292"/>
-      <c r="C269" s="308"/>
-      <c r="D269" s="304"/>
+      <c r="B269" s="309"/>
+      <c r="C269" s="306"/>
+      <c r="D269" s="297"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
       <c r="G269" s="155" t="s">
@@ -25787,9 +25791,9 @@
       <c r="K269" s="158"/>
     </row>
     <row r="270" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B270" s="292"/>
-      <c r="C270" s="308"/>
-      <c r="D270" s="304"/>
+      <c r="B270" s="309"/>
+      <c r="C270" s="306"/>
+      <c r="D270" s="297"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
       <c r="G270" s="155" t="s">
@@ -25801,9 +25805,9 @@
       <c r="K270" s="158"/>
     </row>
     <row r="271" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B271" s="292"/>
-      <c r="C271" s="308"/>
-      <c r="D271" s="304"/>
+      <c r="B271" s="309"/>
+      <c r="C271" s="306"/>
+      <c r="D271" s="297"/>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
       <c r="G271" s="155" t="s">
@@ -25815,9 +25819,9 @@
       <c r="K271" s="158"/>
     </row>
     <row r="272" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B272" s="292"/>
-      <c r="C272" s="308"/>
-      <c r="D272" s="304"/>
+      <c r="B272" s="309"/>
+      <c r="C272" s="306"/>
+      <c r="D272" s="297"/>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
       <c r="G272" s="155" t="s">
@@ -25829,9 +25833,9 @@
       <c r="K272" s="158"/>
     </row>
     <row r="273" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B273" s="292"/>
-      <c r="C273" s="308"/>
-      <c r="D273" s="304"/>
+      <c r="B273" s="309"/>
+      <c r="C273" s="306"/>
+      <c r="D273" s="297"/>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
       <c r="G273" s="155" t="s">
@@ -25843,9 +25847,9 @@
       <c r="K273" s="158"/>
     </row>
     <row r="274" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B274" s="292"/>
-      <c r="C274" s="308"/>
-      <c r="D274" s="304"/>
+      <c r="B274" s="309"/>
+      <c r="C274" s="306"/>
+      <c r="D274" s="297"/>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
       <c r="G274" s="155" t="s">
@@ -25857,9 +25861,9 @@
       <c r="K274" s="158"/>
     </row>
     <row r="275" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B275" s="292"/>
-      <c r="C275" s="308"/>
-      <c r="D275" s="304"/>
+      <c r="B275" s="309"/>
+      <c r="C275" s="306"/>
+      <c r="D275" s="297"/>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
       <c r="G275" s="155" t="s">
@@ -25871,9 +25875,9 @@
       <c r="K275" s="158"/>
     </row>
     <row r="276" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B276" s="292"/>
-      <c r="C276" s="308"/>
-      <c r="D276" s="304"/>
+      <c r="B276" s="309"/>
+      <c r="C276" s="306"/>
+      <c r="D276" s="297"/>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
       <c r="G276" s="155" t="s">
@@ -25885,9 +25889,9 @@
       <c r="K276" s="158"/>
     </row>
     <row r="277" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B277" s="292"/>
-      <c r="C277" s="308"/>
-      <c r="D277" s="304"/>
+      <c r="B277" s="309"/>
+      <c r="C277" s="306"/>
+      <c r="D277" s="297"/>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="155" t="s">
@@ -25899,9 +25903,9 @@
       <c r="K277" s="158"/>
     </row>
     <row r="278" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B278" s="292"/>
-      <c r="C278" s="309"/>
-      <c r="D278" s="305"/>
+      <c r="B278" s="309"/>
+      <c r="C278" s="307"/>
+      <c r="D278" s="298"/>
       <c r="E278" s="153"/>
       <c r="F278" s="153"/>
       <c r="G278" s="155" t="s">
@@ -25913,11 +25917,11 @@
       <c r="K278" s="158"/>
     </row>
     <row r="279" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B279" s="292"/>
-      <c r="C279" s="307" t="s">
+      <c r="B279" s="309"/>
+      <c r="C279" s="305" t="s">
         <v>1491</v>
       </c>
-      <c r="D279" s="303" t="s">
+      <c r="D279" s="296" t="s">
         <v>1492</v>
       </c>
       <c r="E279" s="153"/>
@@ -25931,9 +25935,9 @@
       <c r="K279" s="158"/>
     </row>
     <row r="280" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B280" s="292"/>
-      <c r="C280" s="308"/>
-      <c r="D280" s="304"/>
+      <c r="B280" s="309"/>
+      <c r="C280" s="306"/>
+      <c r="D280" s="297"/>
       <c r="E280" s="153"/>
       <c r="F280" s="153"/>
       <c r="G280" s="155" t="s">
@@ -25945,9 +25949,9 @@
       <c r="K280" s="158"/>
     </row>
     <row r="281" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B281" s="292"/>
-      <c r="C281" s="308"/>
-      <c r="D281" s="304"/>
+      <c r="B281" s="309"/>
+      <c r="C281" s="306"/>
+      <c r="D281" s="297"/>
       <c r="E281" s="153"/>
       <c r="F281" s="153"/>
       <c r="G281" s="155" t="s">
@@ -25959,9 +25963,9 @@
       <c r="K281" s="158"/>
     </row>
     <row r="282" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B282" s="292"/>
-      <c r="C282" s="308"/>
-      <c r="D282" s="304"/>
+      <c r="B282" s="309"/>
+      <c r="C282" s="306"/>
+      <c r="D282" s="297"/>
       <c r="E282" s="153"/>
       <c r="F282" s="153"/>
       <c r="G282" s="155" t="s">
@@ -25973,9 +25977,9 @@
       <c r="K282" s="158"/>
     </row>
     <row r="283" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B283" s="292"/>
-      <c r="C283" s="308"/>
-      <c r="D283" s="304"/>
+      <c r="B283" s="309"/>
+      <c r="C283" s="306"/>
+      <c r="D283" s="297"/>
       <c r="E283" s="153"/>
       <c r="F283" s="153"/>
       <c r="G283" s="155" t="s">
@@ -25989,9 +25993,9 @@
       <c r="K283" s="158"/>
     </row>
     <row r="284" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B284" s="292"/>
-      <c r="C284" s="308"/>
-      <c r="D284" s="304"/>
+      <c r="B284" s="309"/>
+      <c r="C284" s="306"/>
+      <c r="D284" s="297"/>
       <c r="E284" s="153"/>
       <c r="F284" s="153"/>
       <c r="G284" s="155" t="s">
@@ -26003,9 +26007,9 @@
       <c r="K284" s="158"/>
     </row>
     <row r="285" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B285" s="292"/>
-      <c r="C285" s="308"/>
-      <c r="D285" s="304"/>
+      <c r="B285" s="309"/>
+      <c r="C285" s="306"/>
+      <c r="D285" s="297"/>
       <c r="E285" s="153"/>
       <c r="F285" s="153"/>
       <c r="G285" s="155" t="s">
@@ -26017,9 +26021,9 @@
       <c r="K285" s="158"/>
     </row>
     <row r="286" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B286" s="292"/>
-      <c r="C286" s="308"/>
-      <c r="D286" s="304"/>
+      <c r="B286" s="309"/>
+      <c r="C286" s="306"/>
+      <c r="D286" s="297"/>
       <c r="E286" s="153"/>
       <c r="F286" s="153"/>
       <c r="G286" s="155" t="s">
@@ -26031,9 +26035,9 @@
       <c r="K286" s="158"/>
     </row>
     <row r="287" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B287" s="292"/>
-      <c r="C287" s="308"/>
-      <c r="D287" s="304"/>
+      <c r="B287" s="309"/>
+      <c r="C287" s="306"/>
+      <c r="D287" s="297"/>
       <c r="E287" s="153"/>
       <c r="F287" s="153"/>
       <c r="G287" s="155" t="s">
@@ -26045,9 +26049,9 @@
       <c r="K287" s="158"/>
     </row>
     <row r="288" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B288" s="292"/>
-      <c r="C288" s="308"/>
-      <c r="D288" s="304"/>
+      <c r="B288" s="309"/>
+      <c r="C288" s="306"/>
+      <c r="D288" s="297"/>
       <c r="E288" s="153"/>
       <c r="F288" s="153"/>
       <c r="G288" s="155" t="s">
@@ -26059,9 +26063,9 @@
       <c r="K288" s="158"/>
     </row>
     <row r="289" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B289" s="292"/>
-      <c r="C289" s="308"/>
-      <c r="D289" s="304"/>
+      <c r="B289" s="309"/>
+      <c r="C289" s="306"/>
+      <c r="D289" s="297"/>
       <c r="E289" s="153"/>
       <c r="F289" s="153"/>
       <c r="G289" s="155" t="s">
@@ -26073,9 +26077,9 @@
       <c r="K289" s="158"/>
     </row>
     <row r="290" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B290" s="292"/>
-      <c r="C290" s="308"/>
-      <c r="D290" s="304"/>
+      <c r="B290" s="309"/>
+      <c r="C290" s="306"/>
+      <c r="D290" s="297"/>
       <c r="E290" s="153"/>
       <c r="F290" s="153"/>
       <c r="G290" s="155" t="s">
@@ -26087,9 +26091,9 @@
       <c r="K290" s="158"/>
     </row>
     <row r="291" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B291" s="292"/>
-      <c r="C291" s="308"/>
-      <c r="D291" s="304"/>
+      <c r="B291" s="309"/>
+      <c r="C291" s="306"/>
+      <c r="D291" s="297"/>
       <c r="E291" s="153"/>
       <c r="F291" s="153"/>
       <c r="G291" s="155" t="s">
@@ -26101,9 +26105,9 @@
       <c r="K291" s="158"/>
     </row>
     <row r="292" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B292" s="292"/>
-      <c r="C292" s="308"/>
-      <c r="D292" s="304"/>
+      <c r="B292" s="309"/>
+      <c r="C292" s="306"/>
+      <c r="D292" s="297"/>
       <c r="E292" s="153"/>
       <c r="F292" s="153"/>
       <c r="G292" s="155" t="s">
@@ -26115,9 +26119,9 @@
       <c r="K292" s="158"/>
     </row>
     <row r="293" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B293" s="292"/>
-      <c r="C293" s="308"/>
-      <c r="D293" s="304"/>
+      <c r="B293" s="309"/>
+      <c r="C293" s="306"/>
+      <c r="D293" s="297"/>
       <c r="E293" s="153"/>
       <c r="F293" s="153"/>
       <c r="G293" s="155" t="s">
@@ -26129,9 +26133,9 @@
       <c r="K293" s="158"/>
     </row>
     <row r="294" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B294" s="292"/>
-      <c r="C294" s="308"/>
-      <c r="D294" s="304"/>
+      <c r="B294" s="309"/>
+      <c r="C294" s="306"/>
+      <c r="D294" s="297"/>
       <c r="E294" s="153"/>
       <c r="F294" s="153"/>
       <c r="G294" s="155" t="s">
@@ -26143,9 +26147,9 @@
       <c r="K294" s="158"/>
     </row>
     <row r="295" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B295" s="292"/>
-      <c r="C295" s="308"/>
-      <c r="D295" s="304"/>
+      <c r="B295" s="309"/>
+      <c r="C295" s="306"/>
+      <c r="D295" s="297"/>
       <c r="E295" s="153"/>
       <c r="F295" s="153"/>
       <c r="G295" s="155" t="s">
@@ -26157,9 +26161,9 @@
       <c r="K295" s="158"/>
     </row>
     <row r="296" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B296" s="292"/>
-      <c r="C296" s="308"/>
-      <c r="D296" s="304"/>
+      <c r="B296" s="309"/>
+      <c r="C296" s="306"/>
+      <c r="D296" s="297"/>
       <c r="E296" s="153"/>
       <c r="F296" s="153"/>
       <c r="G296" s="155" t="s">
@@ -26171,9 +26175,9 @@
       <c r="K296" s="158"/>
     </row>
     <row r="297" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B297" s="292"/>
-      <c r="C297" s="308"/>
-      <c r="D297" s="304"/>
+      <c r="B297" s="309"/>
+      <c r="C297" s="306"/>
+      <c r="D297" s="297"/>
       <c r="E297" s="153"/>
       <c r="F297" s="153"/>
       <c r="G297" s="155" t="s">
@@ -26185,10 +26189,10 @@
       <c r="K297" s="158"/>
     </row>
     <row r="298" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A298" s="288" t="s">
+      <c r="A298" s="322" t="s">
         <v>1493</v>
       </c>
-      <c r="B298" s="288"/>
+      <c r="B298" s="322"/>
       <c r="C298" s="225"/>
       <c r="D298" s="165" t="s">
         <v>2941</v>
@@ -26204,8 +26208,8 @@
       <c r="K298" s="158"/>
     </row>
     <row r="299" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A299" s="288"/>
-      <c r="B299" s="288"/>
+      <c r="A299" s="322"/>
+      <c r="B299" s="322"/>
       <c r="C299" s="225"/>
       <c r="D299" s="166" t="s">
         <v>2943</v>
@@ -26221,8 +26225,8 @@
       <c r="K299" s="158"/>
     </row>
     <row r="300" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A300" s="288"/>
-      <c r="B300" s="288"/>
+      <c r="A300" s="322"/>
+      <c r="B300" s="322"/>
       <c r="C300" s="225" t="s">
         <v>2940</v>
       </c>
@@ -26236,12 +26240,12 @@
       <c r="K300" s="158"/>
     </row>
     <row r="301" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A301" s="288"/>
-      <c r="B301" s="288"/>
-      <c r="C301" s="300" t="s">
+      <c r="A301" s="322"/>
+      <c r="B301" s="322"/>
+      <c r="C301" s="326" t="s">
         <v>132</v>
       </c>
-      <c r="D301" s="303" t="s">
+      <c r="D301" s="296" t="s">
         <v>2160</v>
       </c>
       <c r="E301" s="153"/>
@@ -26255,10 +26259,10 @@
       <c r="K301" s="158"/>
     </row>
     <row r="302" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A302" s="288"/>
-      <c r="B302" s="288"/>
-      <c r="C302" s="300"/>
-      <c r="D302" s="304"/>
+      <c r="A302" s="322"/>
+      <c r="B302" s="322"/>
+      <c r="C302" s="326"/>
+      <c r="D302" s="297"/>
       <c r="E302" s="153"/>
       <c r="F302" s="153"/>
       <c r="G302" s="155" t="s">
@@ -26270,10 +26274,10 @@
       <c r="K302" s="158"/>
     </row>
     <row r="303" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A303" s="288"/>
-      <c r="B303" s="288"/>
-      <c r="C303" s="300"/>
-      <c r="D303" s="304"/>
+      <c r="A303" s="322"/>
+      <c r="B303" s="322"/>
+      <c r="C303" s="326"/>
+      <c r="D303" s="297"/>
       <c r="E303" s="153"/>
       <c r="F303" s="153"/>
       <c r="G303" s="155" t="s">
@@ -26285,10 +26289,10 @@
       <c r="K303" s="158"/>
     </row>
     <row r="304" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A304" s="288"/>
-      <c r="B304" s="288"/>
-      <c r="C304" s="300"/>
-      <c r="D304" s="304"/>
+      <c r="A304" s="322"/>
+      <c r="B304" s="322"/>
+      <c r="C304" s="326"/>
+      <c r="D304" s="297"/>
       <c r="E304" s="152"/>
       <c r="F304" s="152"/>
       <c r="G304" s="226" t="s">
@@ -26300,10 +26304,10 @@
       <c r="K304" s="228"/>
     </row>
     <row r="305" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A305" s="288"/>
-      <c r="B305" s="288"/>
-      <c r="C305" s="300"/>
-      <c r="D305" s="304"/>
+      <c r="A305" s="322"/>
+      <c r="B305" s="322"/>
+      <c r="C305" s="326"/>
+      <c r="D305" s="297"/>
       <c r="E305" s="152"/>
       <c r="F305" s="152"/>
       <c r="G305" s="226" t="s">
@@ -26315,10 +26319,10 @@
       <c r="K305" s="228"/>
     </row>
     <row r="306" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A306" s="288"/>
-      <c r="B306" s="288"/>
-      <c r="C306" s="300"/>
-      <c r="D306" s="304"/>
+      <c r="A306" s="322"/>
+      <c r="B306" s="322"/>
+      <c r="C306" s="326"/>
+      <c r="D306" s="297"/>
       <c r="E306" s="152"/>
       <c r="F306" s="152"/>
       <c r="G306" s="226" t="s">
@@ -26330,10 +26334,10 @@
       <c r="K306" s="228"/>
     </row>
     <row r="307" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A307" s="288"/>
-      <c r="B307" s="288"/>
-      <c r="C307" s="300"/>
-      <c r="D307" s="304"/>
+      <c r="A307" s="322"/>
+      <c r="B307" s="322"/>
+      <c r="C307" s="326"/>
+      <c r="D307" s="297"/>
       <c r="E307" s="152"/>
       <c r="F307" s="152"/>
       <c r="G307" s="226" t="s">
@@ -26345,10 +26349,10 @@
       <c r="K307" s="228"/>
     </row>
     <row r="308" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A308" s="288"/>
-      <c r="B308" s="288"/>
-      <c r="C308" s="300"/>
-      <c r="D308" s="304"/>
+      <c r="A308" s="322"/>
+      <c r="B308" s="322"/>
+      <c r="C308" s="326"/>
+      <c r="D308" s="297"/>
       <c r="E308" s="152"/>
       <c r="F308" s="152"/>
       <c r="G308" s="226" t="s">
@@ -26360,10 +26364,10 @@
       <c r="K308" s="228"/>
     </row>
     <row r="309" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A309" s="288"/>
-      <c r="B309" s="288"/>
-      <c r="C309" s="300"/>
-      <c r="D309" s="304"/>
+      <c r="A309" s="322"/>
+      <c r="B309" s="322"/>
+      <c r="C309" s="326"/>
+      <c r="D309" s="297"/>
       <c r="E309" s="152"/>
       <c r="F309" s="152"/>
       <c r="G309" s="226" t="s">
@@ -26375,10 +26379,10 @@
       <c r="K309" s="228"/>
     </row>
     <row r="310" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A310" s="288"/>
-      <c r="B310" s="288"/>
-      <c r="C310" s="300"/>
-      <c r="D310" s="304"/>
+      <c r="A310" s="322"/>
+      <c r="B310" s="322"/>
+      <c r="C310" s="326"/>
+      <c r="D310" s="297"/>
       <c r="E310" s="152"/>
       <c r="F310" s="152"/>
       <c r="G310" s="226" t="s">
@@ -26390,10 +26394,10 @@
       <c r="K310" s="228"/>
     </row>
     <row r="311" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A311" s="288"/>
-      <c r="B311" s="288"/>
-      <c r="C311" s="300"/>
-      <c r="D311" s="305"/>
+      <c r="A311" s="322"/>
+      <c r="B311" s="322"/>
+      <c r="C311" s="326"/>
+      <c r="D311" s="298"/>
       <c r="E311" s="152"/>
       <c r="F311" s="152"/>
       <c r="G311" s="226" t="s">
@@ -26405,9 +26409,9 @@
       <c r="K311" s="228"/>
     </row>
     <row r="312" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A312" s="288"/>
-      <c r="B312" s="288"/>
-      <c r="C312" s="300"/>
+      <c r="A312" s="322"/>
+      <c r="B312" s="322"/>
+      <c r="C312" s="326"/>
       <c r="D312" s="229" t="s">
         <v>2172</v>
       </c>
@@ -26420,10 +26424,10 @@
       <c r="K312" s="228"/>
     </row>
     <row r="313" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A313" s="288"/>
-      <c r="B313" s="288"/>
-      <c r="C313" s="300"/>
-      <c r="D313" s="289" t="s">
+      <c r="A313" s="322"/>
+      <c r="B313" s="322"/>
+      <c r="C313" s="326"/>
+      <c r="D313" s="299" t="s">
         <v>2187</v>
       </c>
       <c r="E313" s="152"/>
@@ -26439,10 +26443,10 @@
       <c r="K313" s="228"/>
     </row>
     <row r="314" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A314" s="288"/>
-      <c r="B314" s="288"/>
-      <c r="C314" s="300"/>
-      <c r="D314" s="317"/>
+      <c r="A314" s="322"/>
+      <c r="B314" s="322"/>
+      <c r="C314" s="326"/>
+      <c r="D314" s="300"/>
       <c r="E314" s="152"/>
       <c r="F314" s="152"/>
       <c r="G314" s="226" t="s">
@@ -26454,10 +26458,10 @@
       <c r="K314" s="228"/>
     </row>
     <row r="315" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A315" s="288"/>
-      <c r="B315" s="288"/>
-      <c r="C315" s="300"/>
-      <c r="D315" s="317"/>
+      <c r="A315" s="322"/>
+      <c r="B315" s="322"/>
+      <c r="C315" s="326"/>
+      <c r="D315" s="300"/>
       <c r="E315" s="152"/>
       <c r="F315" s="152"/>
       <c r="G315" s="226" t="s">
@@ -26471,10 +26475,10 @@
       <c r="K315" s="228"/>
     </row>
     <row r="316" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A316" s="288"/>
-      <c r="B316" s="288"/>
-      <c r="C316" s="300"/>
-      <c r="D316" s="317"/>
+      <c r="A316" s="322"/>
+      <c r="B316" s="322"/>
+      <c r="C316" s="326"/>
+      <c r="D316" s="300"/>
       <c r="E316" s="152"/>
       <c r="F316" s="152"/>
       <c r="G316" s="226" t="s">
@@ -26486,10 +26490,10 @@
       <c r="K316" s="228"/>
     </row>
     <row r="317" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A317" s="288"/>
-      <c r="B317" s="288"/>
-      <c r="C317" s="300"/>
-      <c r="D317" s="317"/>
+      <c r="A317" s="322"/>
+      <c r="B317" s="322"/>
+      <c r="C317" s="326"/>
+      <c r="D317" s="300"/>
       <c r="E317" s="152"/>
       <c r="F317" s="152"/>
       <c r="G317" s="226" t="s">
@@ -26503,10 +26507,10 @@
       <c r="K317" s="228"/>
     </row>
     <row r="318" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A318" s="288"/>
-      <c r="B318" s="288"/>
-      <c r="C318" s="300"/>
-      <c r="D318" s="317"/>
+      <c r="A318" s="322"/>
+      <c r="B318" s="322"/>
+      <c r="C318" s="326"/>
+      <c r="D318" s="300"/>
       <c r="E318" s="152"/>
       <c r="F318" s="152"/>
       <c r="G318" s="226" t="s">
@@ -26518,10 +26522,10 @@
       <c r="K318" s="228"/>
     </row>
     <row r="319" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A319" s="288"/>
-      <c r="B319" s="288"/>
-      <c r="C319" s="300"/>
-      <c r="D319" s="317"/>
+      <c r="A319" s="322"/>
+      <c r="B319" s="322"/>
+      <c r="C319" s="326"/>
+      <c r="D319" s="300"/>
       <c r="E319" s="152"/>
       <c r="F319" s="152"/>
       <c r="G319" s="226" t="s">
@@ -26535,10 +26539,10 @@
       <c r="K319" s="228"/>
     </row>
     <row r="320" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A320" s="288"/>
-      <c r="B320" s="288"/>
-      <c r="C320" s="300"/>
-      <c r="D320" s="317"/>
+      <c r="A320" s="322"/>
+      <c r="B320" s="322"/>
+      <c r="C320" s="326"/>
+      <c r="D320" s="300"/>
       <c r="E320" s="152"/>
       <c r="F320" s="152"/>
       <c r="G320" s="226" t="s">
@@ -26550,10 +26554,10 @@
       <c r="K320" s="228"/>
     </row>
     <row r="321" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A321" s="288"/>
-      <c r="B321" s="288"/>
-      <c r="C321" s="300"/>
-      <c r="D321" s="317"/>
+      <c r="A321" s="322"/>
+      <c r="B321" s="322"/>
+      <c r="C321" s="326"/>
+      <c r="D321" s="300"/>
       <c r="E321" s="152"/>
       <c r="F321" s="152"/>
       <c r="G321" s="226" t="s">
@@ -26567,10 +26571,10 @@
       <c r="K321" s="228"/>
     </row>
     <row r="322" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A322" s="288"/>
-      <c r="B322" s="288"/>
-      <c r="C322" s="300"/>
-      <c r="D322" s="317"/>
+      <c r="A322" s="322"/>
+      <c r="B322" s="322"/>
+      <c r="C322" s="326"/>
+      <c r="D322" s="300"/>
       <c r="E322" s="152"/>
       <c r="F322" s="152"/>
       <c r="G322" s="231" t="s">
@@ -26586,10 +26590,10 @@
       </c>
     </row>
     <row r="323" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A323" s="288"/>
-      <c r="B323" s="288"/>
-      <c r="C323" s="300"/>
-      <c r="D323" s="290"/>
+      <c r="A323" s="322"/>
+      <c r="B323" s="322"/>
+      <c r="C323" s="326"/>
+      <c r="D323" s="301"/>
       <c r="E323" s="152"/>
       <c r="F323" s="152"/>
       <c r="G323" s="231" t="s">
@@ -26603,10 +26607,10 @@
       <c r="K323" s="228"/>
     </row>
     <row r="324" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A324" s="288"/>
-      <c r="B324" s="288"/>
-      <c r="C324" s="300"/>
-      <c r="D324" s="318" t="s">
+      <c r="A324" s="322"/>
+      <c r="B324" s="322"/>
+      <c r="C324" s="326"/>
+      <c r="D324" s="302" t="s">
         <v>2188</v>
       </c>
       <c r="E324" s="152"/>
@@ -26620,10 +26624,10 @@
       <c r="K324" s="228"/>
     </row>
     <row r="325" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A325" s="288"/>
-      <c r="B325" s="288"/>
-      <c r="C325" s="300"/>
-      <c r="D325" s="319"/>
+      <c r="A325" s="322"/>
+      <c r="B325" s="322"/>
+      <c r="C325" s="326"/>
+      <c r="D325" s="303"/>
       <c r="E325" s="152"/>
       <c r="F325" s="152"/>
       <c r="G325" s="226" t="s">
@@ -26637,10 +26641,10 @@
       <c r="K325" s="228"/>
     </row>
     <row r="326" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A326" s="288"/>
-      <c r="B326" s="288"/>
-      <c r="C326" s="300"/>
-      <c r="D326" s="319"/>
+      <c r="A326" s="322"/>
+      <c r="B326" s="322"/>
+      <c r="C326" s="326"/>
+      <c r="D326" s="303"/>
       <c r="E326" s="152"/>
       <c r="F326" s="152"/>
       <c r="G326" s="226" t="s">
@@ -26654,10 +26658,10 @@
       <c r="K326" s="228"/>
     </row>
     <row r="327" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A327" s="288"/>
-      <c r="B327" s="288"/>
-      <c r="C327" s="300"/>
-      <c r="D327" s="320"/>
+      <c r="A327" s="322"/>
+      <c r="B327" s="322"/>
+      <c r="C327" s="326"/>
+      <c r="D327" s="304"/>
       <c r="E327" s="152"/>
       <c r="F327" s="152"/>
       <c r="G327" s="226" t="s">
@@ -26671,10 +26675,10 @@
       <c r="K327" s="228"/>
     </row>
     <row r="328" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A328" s="288"/>
-      <c r="B328" s="288"/>
-      <c r="C328" s="300"/>
-      <c r="D328" s="318" t="s">
+      <c r="A328" s="322"/>
+      <c r="B328" s="322"/>
+      <c r="C328" s="326"/>
+      <c r="D328" s="302" t="s">
         <v>2189</v>
       </c>
       <c r="E328" s="152"/>
@@ -26690,10 +26694,10 @@
       <c r="K328" s="228"/>
     </row>
     <row r="329" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A329" s="288"/>
-      <c r="B329" s="288"/>
-      <c r="C329" s="300"/>
-      <c r="D329" s="319"/>
+      <c r="A329" s="322"/>
+      <c r="B329" s="322"/>
+      <c r="C329" s="326"/>
+      <c r="D329" s="303"/>
       <c r="E329" s="152"/>
       <c r="F329" s="152"/>
       <c r="G329" s="226" t="s">
@@ -26707,10 +26711,10 @@
       <c r="K329" s="228"/>
     </row>
     <row r="330" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A330" s="288"/>
-      <c r="B330" s="288"/>
-      <c r="C330" s="300"/>
-      <c r="D330" s="319"/>
+      <c r="A330" s="322"/>
+      <c r="B330" s="322"/>
+      <c r="C330" s="326"/>
+      <c r="D330" s="303"/>
       <c r="E330" s="152"/>
       <c r="F330" s="152"/>
       <c r="G330" s="226" t="s">
@@ -26724,10 +26728,10 @@
       <c r="K330" s="228"/>
     </row>
     <row r="331" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A331" s="288"/>
-      <c r="B331" s="288"/>
-      <c r="C331" s="300"/>
-      <c r="D331" s="320"/>
+      <c r="A331" s="322"/>
+      <c r="B331" s="322"/>
+      <c r="C331" s="326"/>
+      <c r="D331" s="304"/>
       <c r="E331" s="152"/>
       <c r="F331" s="152"/>
       <c r="G331" s="226" t="s">
@@ -26741,10 +26745,10 @@
       <c r="K331" s="228"/>
     </row>
     <row r="332" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A332" s="288"/>
-      <c r="B332" s="288"/>
-      <c r="C332" s="300"/>
-      <c r="D332" s="289" t="s">
+      <c r="A332" s="322"/>
+      <c r="B332" s="322"/>
+      <c r="C332" s="326"/>
+      <c r="D332" s="299" t="s">
         <v>2194</v>
       </c>
       <c r="E332" s="152"/>
@@ -26758,10 +26762,10 @@
       <c r="K332" s="228"/>
     </row>
     <row r="333" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A333" s="288"/>
-      <c r="B333" s="288"/>
-      <c r="C333" s="300"/>
-      <c r="D333" s="290"/>
+      <c r="A333" s="322"/>
+      <c r="B333" s="322"/>
+      <c r="C333" s="326"/>
+      <c r="D333" s="301"/>
       <c r="E333" s="152"/>
       <c r="F333" s="152"/>
       <c r="G333" s="233" t="s">
@@ -26775,10 +26779,10 @@
       <c r="K333" s="228"/>
     </row>
     <row r="334" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A334" s="288"/>
-      <c r="B334" s="288"/>
-      <c r="C334" s="300"/>
-      <c r="D334" s="318" t="s">
+      <c r="A334" s="322"/>
+      <c r="B334" s="322"/>
+      <c r="C334" s="326"/>
+      <c r="D334" s="302" t="s">
         <v>2195</v>
       </c>
       <c r="E334" s="152"/>
@@ -26792,10 +26796,10 @@
       <c r="K334" s="228"/>
     </row>
     <row r="335" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A335" s="288"/>
-      <c r="B335" s="288"/>
-      <c r="C335" s="300"/>
-      <c r="D335" s="319"/>
+      <c r="A335" s="322"/>
+      <c r="B335" s="322"/>
+      <c r="C335" s="326"/>
+      <c r="D335" s="303"/>
       <c r="E335" s="152"/>
       <c r="F335" s="152"/>
       <c r="G335" s="226" t="s">
@@ -26807,10 +26811,10 @@
       <c r="K335" s="228"/>
     </row>
     <row r="336" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A336" s="288"/>
-      <c r="B336" s="288"/>
-      <c r="C336" s="300"/>
-      <c r="D336" s="319"/>
+      <c r="A336" s="322"/>
+      <c r="B336" s="322"/>
+      <c r="C336" s="326"/>
+      <c r="D336" s="303"/>
       <c r="E336" s="152"/>
       <c r="F336" s="152"/>
       <c r="G336" s="226" t="s">
@@ -26822,10 +26826,10 @@
       <c r="K336" s="228"/>
     </row>
     <row r="337" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A337" s="288"/>
-      <c r="B337" s="288"/>
-      <c r="C337" s="300"/>
-      <c r="D337" s="319"/>
+      <c r="A337" s="322"/>
+      <c r="B337" s="322"/>
+      <c r="C337" s="326"/>
+      <c r="D337" s="303"/>
       <c r="E337" s="152"/>
       <c r="F337" s="152"/>
       <c r="G337" s="226" t="s">
@@ -26837,10 +26841,10 @@
       <c r="K337" s="228"/>
     </row>
     <row r="338" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A338" s="288"/>
-      <c r="B338" s="288"/>
-      <c r="C338" s="300"/>
-      <c r="D338" s="319"/>
+      <c r="A338" s="322"/>
+      <c r="B338" s="322"/>
+      <c r="C338" s="326"/>
+      <c r="D338" s="303"/>
       <c r="E338" s="152"/>
       <c r="F338" s="152"/>
       <c r="G338" s="226" t="s">
@@ -26852,10 +26856,10 @@
       <c r="K338" s="228"/>
     </row>
     <row r="339" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A339" s="288"/>
-      <c r="B339" s="288"/>
-      <c r="C339" s="300"/>
-      <c r="D339" s="320"/>
+      <c r="A339" s="322"/>
+      <c r="B339" s="322"/>
+      <c r="C339" s="326"/>
+      <c r="D339" s="304"/>
       <c r="E339" s="152"/>
       <c r="F339" s="152"/>
       <c r="G339" s="226" t="s">
@@ -26867,9 +26871,9 @@
       <c r="K339" s="228"/>
     </row>
     <row r="340" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A340" s="288"/>
-      <c r="B340" s="288"/>
-      <c r="C340" s="300"/>
+      <c r="A340" s="322"/>
+      <c r="B340" s="322"/>
+      <c r="C340" s="326"/>
       <c r="D340" s="234" t="s">
         <v>2206</v>
       </c>
@@ -26888,9 +26892,9 @@
       </c>
     </row>
     <row r="341" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A341" s="288"/>
-      <c r="B341" s="288"/>
-      <c r="C341" s="300"/>
+      <c r="A341" s="322"/>
+      <c r="B341" s="322"/>
+      <c r="C341" s="326"/>
       <c r="D341" s="235" t="s">
         <v>2207</v>
       </c>
@@ -26903,9 +26907,9 @@
       <c r="K341" s="228"/>
     </row>
     <row r="342" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A342" s="288"/>
-      <c r="B342" s="288"/>
-      <c r="C342" s="300"/>
+      <c r="A342" s="322"/>
+      <c r="B342" s="322"/>
+      <c r="C342" s="326"/>
       <c r="D342" s="236" t="s">
         <v>2223</v>
       </c>
@@ -26920,9 +26924,9 @@
       <c r="K342" s="228"/>
     </row>
     <row r="343" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A343" s="288"/>
-      <c r="B343" s="288"/>
-      <c r="C343" s="300"/>
+      <c r="A343" s="322"/>
+      <c r="B343" s="322"/>
+      <c r="C343" s="326"/>
       <c r="D343" s="229"/>
       <c r="E343" s="152"/>
       <c r="F343" s="152"/>
@@ -26937,9 +26941,9 @@
       <c r="K343" s="228"/>
     </row>
     <row r="344" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A344" s="288"/>
-      <c r="B344" s="288"/>
-      <c r="C344" s="300"/>
+      <c r="A344" s="322"/>
+      <c r="B344" s="322"/>
+      <c r="C344" s="326"/>
       <c r="D344" s="229"/>
       <c r="E344" s="152"/>
       <c r="F344" s="152"/>
@@ -26952,9 +26956,9 @@
       <c r="K344" s="228"/>
     </row>
     <row r="345" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A345" s="288"/>
-      <c r="B345" s="288"/>
-      <c r="C345" s="300"/>
+      <c r="A345" s="322"/>
+      <c r="B345" s="322"/>
+      <c r="C345" s="326"/>
       <c r="D345" s="236" t="s">
         <v>2232</v>
       </c>
@@ -26969,9 +26973,9 @@
       <c r="K345" s="228"/>
     </row>
     <row r="346" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A346" s="288"/>
-      <c r="B346" s="288"/>
-      <c r="C346" s="300"/>
+      <c r="A346" s="322"/>
+      <c r="B346" s="322"/>
+      <c r="C346" s="326"/>
       <c r="D346" s="229"/>
       <c r="E346" s="152"/>
       <c r="F346" s="152"/>
@@ -26986,9 +26990,9 @@
       <c r="K346" s="228"/>
     </row>
     <row r="347" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A347" s="288"/>
-      <c r="B347" s="288"/>
-      <c r="C347" s="300"/>
+      <c r="A347" s="322"/>
+      <c r="B347" s="322"/>
+      <c r="C347" s="326"/>
       <c r="D347" s="229"/>
       <c r="E347" s="152"/>
       <c r="F347" s="152"/>
@@ -27001,9 +27005,9 @@
       <c r="K347" s="228"/>
     </row>
     <row r="348" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A348" s="288"/>
-      <c r="B348" s="288"/>
-      <c r="C348" s="300"/>
+      <c r="A348" s="322"/>
+      <c r="B348" s="322"/>
+      <c r="C348" s="326"/>
       <c r="D348" s="236" t="s">
         <v>2233</v>
       </c>
@@ -27016,9 +27020,9 @@
       <c r="K348" s="228"/>
     </row>
     <row r="349" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A349" s="288"/>
-      <c r="B349" s="288"/>
-      <c r="C349" s="300"/>
+      <c r="A349" s="322"/>
+      <c r="B349" s="322"/>
+      <c r="C349" s="326"/>
       <c r="D349" s="236" t="s">
         <v>2234</v>
       </c>
@@ -27051,31 +27055,32 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D301:D311"/>
-    <mergeCell ref="D313:D323"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D334:D339"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="A298:B349"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C301:C349"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B193"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="D176:D183"/>
     <mergeCell ref="D167:D175"/>
@@ -27092,32 +27097,31 @@
     <mergeCell ref="D115:D117"/>
     <mergeCell ref="D200:D201"/>
     <mergeCell ref="C75:C100"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A298:B349"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C301:C349"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B193"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C149:C166"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="D301:D311"/>
+    <mergeCell ref="D313:D323"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D334:D339"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27190,7 +27194,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="48">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="331" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="83" t="s">
@@ -27199,7 +27203,7 @@
       <c r="D3" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="343" t="s">
+      <c r="E3" s="289" t="s">
         <v>2973</v>
       </c>
       <c r="F3" s="68" t="s">
@@ -27222,14 +27226,14 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="324"/>
+      <c r="B4" s="332"/>
       <c r="C4" s="83" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="290" t="s">
         <v>2973</v>
       </c>
       <c r="F4" s="86" t="s">
@@ -27246,14 +27250,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="38.25">
-      <c r="B5" s="324"/>
+      <c r="B5" s="332"/>
       <c r="C5" s="83" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="86" t="s">
         <v>1503</v>
       </c>
-      <c r="E5" s="343" t="s">
+      <c r="E5" s="289" t="s">
         <v>2973</v>
       </c>
       <c r="F5" s="86" t="s">
@@ -27276,7 +27280,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="60.75" customHeight="1">
-      <c r="B6" s="324"/>
+      <c r="B6" s="332"/>
       <c r="C6" s="83" t="s">
         <v>201</v>
       </c>
@@ -27306,7 +27310,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="38.25">
-      <c r="B7" s="324"/>
+      <c r="B7" s="332"/>
       <c r="C7" s="271" t="s">
         <v>76</v>
       </c>
@@ -27331,7 +27335,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B8" s="324"/>
+      <c r="B8" s="332"/>
       <c r="C8" s="83" t="s">
         <v>202</v>
       </c>
@@ -27364,7 +27368,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="324"/>
+      <c r="B9" s="332"/>
       <c r="C9" s="83" t="s">
         <v>203</v>
       </c>
@@ -27394,14 +27398,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B10" s="325"/>
+      <c r="B10" s="333"/>
       <c r="C10" s="90" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="345" t="s">
+      <c r="E10" s="291" t="s">
         <v>2976</v>
       </c>
       <c r="F10" s="91" t="s">
@@ -27424,7 +27428,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="25.5">
-      <c r="B11" s="326" t="s">
+      <c r="B11" s="334" t="s">
         <v>245</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -27433,7 +27437,7 @@
       <c r="D11" s="95" t="s">
         <v>1494</v>
       </c>
-      <c r="E11" s="346" t="s">
+      <c r="E11" s="292" t="s">
         <v>2979</v>
       </c>
       <c r="F11" s="96" t="s">
@@ -27456,14 +27460,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5">
-      <c r="B12" s="324"/>
+      <c r="B12" s="332"/>
       <c r="C12" s="83" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="344" t="s">
+      <c r="E12" s="290" t="s">
         <v>2977</v>
       </c>
       <c r="F12" s="86" t="s">
@@ -27486,7 +27490,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5">
-      <c r="B13" s="324"/>
+      <c r="B13" s="332"/>
       <c r="C13" s="83" t="s">
         <v>218</v>
       </c>
@@ -27511,7 +27515,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="25.5">
-      <c r="B14" s="324"/>
+      <c r="B14" s="332"/>
       <c r="C14" s="83" t="s">
         <v>219</v>
       </c>
@@ -27536,7 +27540,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.5">
-      <c r="B15" s="324"/>
+      <c r="B15" s="332"/>
       <c r="C15" s="99" t="s">
         <v>227</v>
       </c>
@@ -27561,7 +27565,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="26.25" thickBot="1">
-      <c r="B16" s="325"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="101" t="s">
         <v>78</v>
       </c>
@@ -27588,7 +27592,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.100000000000001" customHeight="1">
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="334" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="95" t="s">
@@ -27618,7 +27622,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" s="105" customFormat="1" ht="51">
-      <c r="B18" s="324"/>
+      <c r="B18" s="332"/>
       <c r="C18" s="83" t="s">
         <v>79</v>
       </c>
@@ -27646,7 +27650,7 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="324"/>
+      <c r="B19" s="332"/>
       <c r="C19" s="83" t="s">
         <v>229</v>
       </c>
@@ -27674,7 +27678,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="51">
-      <c r="B20" s="324"/>
+      <c r="B20" s="332"/>
       <c r="C20" s="83" t="s">
         <v>76</v>
       </c>
@@ -27702,7 +27706,7 @@
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="324"/>
+      <c r="B21" s="332"/>
       <c r="C21" s="83" t="s">
         <v>230</v>
       </c>
@@ -27730,7 +27734,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" hidden="1">
-      <c r="B22" s="324"/>
+      <c r="B22" s="332"/>
       <c r="C22" s="106" t="s">
         <v>80</v>
       </c>
@@ -27758,7 +27762,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" hidden="1">
-      <c r="B23" s="324"/>
+      <c r="B23" s="332"/>
       <c r="C23" s="106" t="s">
         <v>81</v>
       </c>
@@ -27784,7 +27788,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="26.25" thickBot="1">
-      <c r="B24" s="325"/>
+      <c r="B24" s="333"/>
       <c r="C24" s="90" t="s">
         <v>712</v>
       </c>
@@ -27812,7 +27816,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="25.5">
-      <c r="B25" s="326" t="s">
+      <c r="B25" s="334" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -27842,7 +27846,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="25.5">
-      <c r="B26" s="324"/>
+      <c r="B26" s="332"/>
       <c r="C26" s="83" t="s">
         <v>235</v>
       </c>
@@ -27867,7 +27871,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="38.25">
-      <c r="B27" s="324"/>
+      <c r="B27" s="332"/>
       <c r="C27" s="83" t="s">
         <v>236</v>
       </c>
@@ -27898,7 +27902,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="38.25">
-      <c r="B28" s="324"/>
+      <c r="B28" s="332"/>
       <c r="C28" s="83" t="s">
         <v>237</v>
       </c>
@@ -27926,7 +27930,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="25.5">
-      <c r="B29" s="324"/>
+      <c r="B29" s="332"/>
       <c r="C29" s="83" t="s">
         <v>83</v>
       </c>
@@ -27954,7 +27958,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="324"/>
+      <c r="B30" s="332"/>
       <c r="C30" s="106" t="s">
         <v>84</v>
       </c>
@@ -27980,7 +27984,7 @@
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="324"/>
+      <c r="B31" s="332"/>
       <c r="C31" s="83" t="s">
         <v>238</v>
       </c>
@@ -28008,7 +28012,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="25.5">
-      <c r="B32" s="324"/>
+      <c r="B32" s="332"/>
       <c r="C32" s="70" t="s">
         <v>239</v>
       </c>
@@ -28034,7 +28038,7 @@
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="324"/>
+      <c r="B33" s="332"/>
       <c r="C33" s="83" t="s">
         <v>88</v>
       </c>
@@ -28062,7 +28066,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="26.25" thickBot="1">
-      <c r="B34" s="324"/>
+      <c r="B34" s="332"/>
       <c r="C34" s="83" t="s">
         <v>240</v>
       </c>
@@ -28090,7 +28094,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="13.5" hidden="1" thickBot="1">
-      <c r="B35" s="325"/>
+      <c r="B35" s="333"/>
       <c r="C35" s="113" t="s">
         <v>86</v>
       </c>
@@ -28118,7 +28122,7 @@
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="326" t="s">
+      <c r="B36" s="334" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="95" t="s">
@@ -28146,7 +28150,7 @@
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="324"/>
+      <c r="B37" s="332"/>
       <c r="C37" s="83" t="s">
         <v>87</v>
       </c>
@@ -28172,7 +28176,7 @@
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="324"/>
+      <c r="B38" s="332"/>
       <c r="C38" s="83" t="s">
         <v>90</v>
       </c>
@@ -28195,7 +28199,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B39" s="325"/>
+      <c r="B39" s="333"/>
       <c r="C39" s="90" t="s">
         <v>91</v>
       </c>
@@ -28221,7 +28225,7 @@
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="321" t="s">
+      <c r="B40" s="329" t="s">
         <v>246</v>
       </c>
       <c r="C40" s="95" t="s">
@@ -28242,7 +28246,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B41" s="322"/>
+      <c r="B41" s="330"/>
       <c r="C41" s="90" t="s">
         <v>93</v>
       </c>
@@ -29368,13 +29372,13 @@
       <c r="B2" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C2" s="330" t="s">
+      <c r="C2" s="338" t="s">
         <v>823</v>
       </c>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="332"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="340"/>
       <c r="H2" s="41" t="s">
         <v>824</v>
       </c>
@@ -29384,13 +29388,13 @@
       <c r="B3" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="341" t="s">
         <v>826</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="335"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="343"/>
       <c r="H3" s="45" t="s">
         <v>827</v>
       </c>
@@ -29400,16 +29404,16 @@
       <c r="B4" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C4" s="336"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
-      <c r="I4" s="338"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="345"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="346"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="339" t="s">
+      <c r="B5" s="347" t="s">
         <v>829</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -29444,7 +29448,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="340"/>
+      <c r="B6" s="348"/>
       <c r="C6" s="48" t="s">
         <v>840</v>
       </c>
@@ -29467,7 +29471,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="340"/>
+      <c r="B7" s="348"/>
       <c r="C7" s="48" t="s">
         <v>846</v>
       </c>
@@ -29486,7 +29490,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="340"/>
+      <c r="B8" s="348"/>
       <c r="C8" s="48" t="s">
         <v>849</v>
       </c>
@@ -29511,7 +29515,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="340"/>
+      <c r="B9" s="348"/>
       <c r="C9" s="48" t="s">
         <v>854</v>
       </c>
@@ -29536,7 +29540,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="340"/>
+      <c r="B10" s="348"/>
       <c r="C10" s="48" t="s">
         <v>859</v>
       </c>
@@ -29553,7 +29557,7 @@
       <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="340"/>
+      <c r="B11" s="348"/>
       <c r="C11" s="48" t="s">
         <v>860</v>
       </c>
@@ -29578,7 +29582,7 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="340"/>
+      <c r="B12" s="348"/>
       <c r="C12" s="48" t="s">
         <v>864</v>
       </c>
@@ -29605,7 +29609,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="340"/>
+      <c r="B13" s="348"/>
       <c r="C13" s="48" t="s">
         <v>868</v>
       </c>
@@ -29624,7 +29628,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="340"/>
+      <c r="B14" s="348"/>
       <c r="C14" s="48" t="s">
         <v>871</v>
       </c>
@@ -29649,7 +29653,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="340"/>
+      <c r="B15" s="348"/>
       <c r="C15" s="48" t="s">
         <v>877</v>
       </c>
@@ -29674,7 +29678,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="340"/>
+      <c r="B16" s="348"/>
       <c r="C16" s="48" t="s">
         <v>881</v>
       </c>
@@ -29701,7 +29705,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="340"/>
+      <c r="B17" s="348"/>
       <c r="C17" s="48" t="s">
         <v>886</v>
       </c>
@@ -29720,7 +29724,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="340"/>
+      <c r="B18" s="348"/>
       <c r="C18" s="48" t="s">
         <v>888</v>
       </c>
@@ -29739,7 +29743,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="340"/>
+      <c r="B19" s="348"/>
       <c r="C19" s="48" t="s">
         <v>890</v>
       </c>
@@ -29758,7 +29762,7 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="340"/>
+      <c r="B20" s="348"/>
       <c r="C20" s="48" t="s">
         <v>892</v>
       </c>
@@ -29777,7 +29781,7 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="340"/>
+      <c r="B21" s="348"/>
       <c r="C21" s="48" t="s">
         <v>894</v>
       </c>
@@ -29796,7 +29800,7 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="340"/>
+      <c r="B22" s="348"/>
       <c r="C22" s="48" t="s">
         <v>896</v>
       </c>
@@ -29821,7 +29825,7 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="340"/>
+      <c r="B23" s="348"/>
       <c r="C23" s="48" t="s">
         <v>900</v>
       </c>
@@ -29849,7 +29853,7 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="340"/>
+      <c r="B24" s="348"/>
       <c r="C24" s="48" t="s">
         <v>904</v>
       </c>
@@ -29877,7 +29881,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="340"/>
+      <c r="B25" s="348"/>
       <c r="C25" s="48" t="s">
         <v>908</v>
       </c>
@@ -29902,7 +29906,7 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="340"/>
+      <c r="B26" s="348"/>
       <c r="C26" s="48" t="s">
         <v>912</v>
       </c>
@@ -29921,7 +29925,7 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="340"/>
+      <c r="B27" s="348"/>
       <c r="C27" s="48" t="s">
         <v>915</v>
       </c>
@@ -29946,7 +29950,7 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="340"/>
+      <c r="B28" s="348"/>
       <c r="C28" s="48" t="s">
         <v>919</v>
       </c>
@@ -29971,7 +29975,7 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="340"/>
+      <c r="B29" s="348"/>
       <c r="C29" s="48" t="s">
         <v>923</v>
       </c>
@@ -29990,7 +29994,7 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="340"/>
+      <c r="B30" s="348"/>
       <c r="C30" s="48" t="s">
         <v>925</v>
       </c>
@@ -30009,7 +30013,7 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="340"/>
+      <c r="B31" s="348"/>
       <c r="C31" s="48" t="s">
         <v>927</v>
       </c>
@@ -30028,7 +30032,7 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="340"/>
+      <c r="B32" s="348"/>
       <c r="C32" s="48" t="s">
         <v>929</v>
       </c>
@@ -30047,7 +30051,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="340"/>
+      <c r="B33" s="348"/>
       <c r="C33" s="48" t="s">
         <v>931</v>
       </c>
@@ -30074,7 +30078,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1">
-      <c r="B34" s="341"/>
+      <c r="B34" s="349"/>
       <c r="C34" s="55" t="s">
         <v>937</v>
       </c>
@@ -30104,13 +30108,13 @@
       <c r="B37" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C37" s="330" t="s">
+      <c r="C37" s="338" t="s">
         <v>942</v>
       </c>
-      <c r="D37" s="331"/>
-      <c r="E37" s="331"/>
-      <c r="F37" s="331"/>
-      <c r="G37" s="332"/>
+      <c r="D37" s="339"/>
+      <c r="E37" s="339"/>
+      <c r="F37" s="339"/>
+      <c r="G37" s="340"/>
       <c r="H37" s="41" t="s">
         <v>824</v>
       </c>
@@ -30120,13 +30124,13 @@
       <c r="B38" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C38" s="333" t="s">
+      <c r="C38" s="341" t="s">
         <v>713</v>
       </c>
-      <c r="D38" s="334"/>
-      <c r="E38" s="334"/>
-      <c r="F38" s="334"/>
-      <c r="G38" s="335"/>
+      <c r="D38" s="342"/>
+      <c r="E38" s="342"/>
+      <c r="F38" s="342"/>
+      <c r="G38" s="343"/>
       <c r="H38" s="45" t="s">
         <v>827</v>
       </c>
@@ -30136,16 +30140,16 @@
       <c r="B39" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C39" s="336"/>
-      <c r="D39" s="337"/>
-      <c r="E39" s="337"/>
-      <c r="F39" s="337"/>
-      <c r="G39" s="337"/>
-      <c r="H39" s="337"/>
-      <c r="I39" s="338"/>
+      <c r="C39" s="344"/>
+      <c r="D39" s="345"/>
+      <c r="E39" s="345"/>
+      <c r="F39" s="345"/>
+      <c r="G39" s="345"/>
+      <c r="H39" s="345"/>
+      <c r="I39" s="346"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="327" t="s">
+      <c r="B40" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -30180,7 +30184,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="328"/>
+      <c r="B41" s="336"/>
       <c r="C41" s="48" t="s">
         <v>849</v>
       </c>
@@ -30210,7 +30214,7 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="328"/>
+      <c r="B42" s="336"/>
       <c r="C42" s="48" t="s">
         <v>945</v>
       </c>
@@ -30230,7 +30234,7 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="328"/>
+      <c r="B43" s="336"/>
       <c r="C43" s="48" t="s">
         <v>846</v>
       </c>
@@ -30253,7 +30257,7 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="328"/>
+      <c r="B44" s="336"/>
       <c r="C44" s="48" t="s">
         <v>854</v>
       </c>
@@ -30280,7 +30284,7 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="328"/>
+      <c r="B45" s="336"/>
       <c r="C45" s="48" t="s">
         <v>951</v>
       </c>
@@ -30299,7 +30303,7 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="328"/>
+      <c r="B46" s="336"/>
       <c r="C46" s="48" t="s">
         <v>860</v>
       </c>
@@ -30324,7 +30328,7 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="328"/>
+      <c r="B47" s="336"/>
       <c r="C47" s="48" t="s">
         <v>954</v>
       </c>
@@ -30349,7 +30353,7 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="328"/>
+      <c r="B48" s="336"/>
       <c r="C48" s="48" t="s">
         <v>957</v>
       </c>
@@ -30368,7 +30372,7 @@
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="328"/>
+      <c r="B49" s="336"/>
       <c r="C49" s="48" t="s">
         <v>960</v>
       </c>
@@ -30387,7 +30391,7 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="328"/>
+      <c r="B50" s="336"/>
       <c r="C50" s="48" t="s">
         <v>962</v>
       </c>
@@ -30414,7 +30418,7 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="328"/>
+      <c r="B51" s="336"/>
       <c r="C51" s="48" t="s">
         <v>966</v>
       </c>
@@ -30439,7 +30443,7 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="328"/>
+      <c r="B52" s="336"/>
       <c r="C52" s="48" t="s">
         <v>970</v>
       </c>
@@ -30466,7 +30470,7 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="328"/>
+      <c r="B53" s="336"/>
       <c r="C53" s="48" t="s">
         <v>974</v>
       </c>
@@ -30487,7 +30491,7 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="328"/>
+      <c r="B54" s="336"/>
       <c r="C54" s="48" t="s">
         <v>977</v>
       </c>
@@ -30514,7 +30518,7 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="328"/>
+      <c r="B55" s="336"/>
       <c r="C55" s="48" t="s">
         <v>980</v>
       </c>
@@ -30539,7 +30543,7 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="328"/>
+      <c r="B56" s="336"/>
       <c r="C56" s="48" t="s">
         <v>984</v>
       </c>
@@ -30564,7 +30568,7 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="328"/>
+      <c r="B57" s="336"/>
       <c r="C57" s="48" t="s">
         <v>988</v>
       </c>
@@ -30589,7 +30593,7 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="328"/>
+      <c r="B58" s="336"/>
       <c r="C58" s="48" t="s">
         <v>991</v>
       </c>
@@ -30614,7 +30618,7 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="328"/>
+      <c r="B59" s="336"/>
       <c r="C59" s="48" t="s">
         <v>900</v>
       </c>
@@ -30642,7 +30646,7 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="328"/>
+      <c r="B60" s="336"/>
       <c r="C60" s="48" t="s">
         <v>904</v>
       </c>
@@ -30670,7 +30674,7 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="328"/>
+      <c r="B61" s="336"/>
       <c r="C61" s="48" t="s">
         <v>908</v>
       </c>
@@ -30695,7 +30699,7 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="328"/>
+      <c r="B62" s="336"/>
       <c r="C62" s="48" t="s">
         <v>915</v>
       </c>
@@ -30720,7 +30724,7 @@
       </c>
     </row>
     <row r="63" spans="2:13" ht="15" thickBot="1">
-      <c r="B63" s="329"/>
+      <c r="B63" s="337"/>
       <c r="C63" s="55" t="s">
         <v>912</v>
       </c>
@@ -30742,13 +30746,13 @@
       <c r="B66" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C66" s="330" t="s">
+      <c r="C66" s="338" t="s">
         <v>994</v>
       </c>
-      <c r="D66" s="331"/>
-      <c r="E66" s="331"/>
-      <c r="F66" s="331"/>
-      <c r="G66" s="332"/>
+      <c r="D66" s="339"/>
+      <c r="E66" s="339"/>
+      <c r="F66" s="339"/>
+      <c r="G66" s="340"/>
       <c r="H66" s="41" t="s">
         <v>824</v>
       </c>
@@ -30758,13 +30762,13 @@
       <c r="B67" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C67" s="333" t="s">
+      <c r="C67" s="341" t="s">
         <v>995</v>
       </c>
-      <c r="D67" s="334"/>
-      <c r="E67" s="334"/>
-      <c r="F67" s="334"/>
-      <c r="G67" s="335"/>
+      <c r="D67" s="342"/>
+      <c r="E67" s="342"/>
+      <c r="F67" s="342"/>
+      <c r="G67" s="343"/>
       <c r="H67" s="45" t="s">
         <v>827</v>
       </c>
@@ -30774,16 +30778,16 @@
       <c r="B68" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C68" s="336"/>
-      <c r="D68" s="337"/>
-      <c r="E68" s="337"/>
-      <c r="F68" s="337"/>
-      <c r="G68" s="337"/>
-      <c r="H68" s="337"/>
-      <c r="I68" s="338"/>
+      <c r="C68" s="344"/>
+      <c r="D68" s="345"/>
+      <c r="E68" s="345"/>
+      <c r="F68" s="345"/>
+      <c r="G68" s="345"/>
+      <c r="H68" s="345"/>
+      <c r="I68" s="346"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="327" t="s">
+      <c r="B69" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C69" s="41" t="s">
@@ -30818,7 +30822,7 @@
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="328"/>
+      <c r="B70" s="336"/>
       <c r="C70" s="48" t="s">
         <v>849</v>
       </c>
@@ -30845,7 +30849,7 @@
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="328"/>
+      <c r="B71" s="336"/>
       <c r="C71" s="48" t="s">
         <v>854</v>
       </c>
@@ -30872,7 +30876,7 @@
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="328"/>
+      <c r="B72" s="336"/>
       <c r="C72" s="48" t="s">
         <v>846</v>
       </c>
@@ -30893,7 +30897,7 @@
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="328"/>
+      <c r="B73" s="336"/>
       <c r="C73" s="48" t="s">
         <v>996</v>
       </c>
@@ -30918,7 +30922,7 @@
       </c>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="328"/>
+      <c r="B74" s="336"/>
       <c r="C74" s="48" t="s">
         <v>999</v>
       </c>
@@ -30945,7 +30949,7 @@
       </c>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="328"/>
+      <c r="B75" s="336"/>
       <c r="C75" s="48" t="s">
         <v>1003</v>
       </c>
@@ -30970,7 +30974,7 @@
       </c>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="328"/>
+      <c r="B76" s="336"/>
       <c r="C76" s="48" t="s">
         <v>1008</v>
       </c>
@@ -30995,7 +30999,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="328"/>
+      <c r="B77" s="336"/>
       <c r="C77" s="48" t="s">
         <v>1012</v>
       </c>
@@ -31014,7 +31018,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="328"/>
+      <c r="B78" s="336"/>
       <c r="C78" s="48" t="s">
         <v>1013</v>
       </c>
@@ -31033,7 +31037,7 @@
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="328"/>
+      <c r="B79" s="336"/>
       <c r="C79" s="48" t="s">
         <v>1015</v>
       </c>
@@ -31052,7 +31056,7 @@
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="328"/>
+      <c r="B80" s="336"/>
       <c r="C80" s="48" t="s">
         <v>1017</v>
       </c>
@@ -31071,7 +31075,7 @@
       </c>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="328"/>
+      <c r="B81" s="336"/>
       <c r="C81" s="48" t="s">
         <v>1020</v>
       </c>
@@ -31090,7 +31094,7 @@
       </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="328"/>
+      <c r="B82" s="336"/>
       <c r="C82" s="48" t="s">
         <v>908</v>
       </c>
@@ -31115,7 +31119,7 @@
       </c>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="328"/>
+      <c r="B83" s="336"/>
       <c r="C83" s="48" t="s">
         <v>912</v>
       </c>
@@ -31134,7 +31138,7 @@
       </c>
     </row>
     <row r="84" spans="2:13" ht="15" thickBot="1">
-      <c r="B84" s="329"/>
+      <c r="B84" s="337"/>
       <c r="C84" s="55" t="s">
         <v>915</v>
       </c>
@@ -31162,13 +31166,13 @@
       <c r="B87" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C87" s="330" t="s">
+      <c r="C87" s="338" t="s">
         <v>1022</v>
       </c>
-      <c r="D87" s="331"/>
-      <c r="E87" s="331"/>
-      <c r="F87" s="331"/>
-      <c r="G87" s="332"/>
+      <c r="D87" s="339"/>
+      <c r="E87" s="339"/>
+      <c r="F87" s="339"/>
+      <c r="G87" s="340"/>
       <c r="H87" s="41" t="s">
         <v>824</v>
       </c>
@@ -31178,13 +31182,13 @@
       <c r="B88" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C88" s="333" t="s">
+      <c r="C88" s="341" t="s">
         <v>1023</v>
       </c>
-      <c r="D88" s="334"/>
-      <c r="E88" s="334"/>
-      <c r="F88" s="334"/>
-      <c r="G88" s="335"/>
+      <c r="D88" s="342"/>
+      <c r="E88" s="342"/>
+      <c r="F88" s="342"/>
+      <c r="G88" s="343"/>
       <c r="H88" s="45" t="s">
         <v>827</v>
       </c>
@@ -31194,16 +31198,16 @@
       <c r="B89" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C89" s="336"/>
-      <c r="D89" s="337"/>
-      <c r="E89" s="337"/>
-      <c r="F89" s="337"/>
-      <c r="G89" s="337"/>
-      <c r="H89" s="337"/>
-      <c r="I89" s="338"/>
+      <c r="C89" s="344"/>
+      <c r="D89" s="345"/>
+      <c r="E89" s="345"/>
+      <c r="F89" s="345"/>
+      <c r="G89" s="345"/>
+      <c r="H89" s="345"/>
+      <c r="I89" s="346"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="327" t="s">
+      <c r="B90" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -31238,7 +31242,7 @@
       </c>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="328"/>
+      <c r="B91" s="336"/>
       <c r="C91" s="48" t="s">
         <v>1024</v>
       </c>
@@ -31267,7 +31271,7 @@
       </c>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="328"/>
+      <c r="B92" s="336"/>
       <c r="C92" s="48" t="s">
         <v>864</v>
       </c>
@@ -31292,7 +31296,7 @@
       </c>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="328"/>
+      <c r="B93" s="336"/>
       <c r="C93" s="48" t="s">
         <v>849</v>
       </c>
@@ -31320,7 +31324,7 @@
       </c>
     </row>
     <row r="94" spans="2:13">
-      <c r="B94" s="328"/>
+      <c r="B94" s="336"/>
       <c r="C94" s="48" t="s">
         <v>846</v>
       </c>
@@ -31339,7 +31343,7 @@
       </c>
     </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="328"/>
+      <c r="B95" s="336"/>
       <c r="C95" s="48" t="s">
         <v>840</v>
       </c>
@@ -31358,7 +31362,7 @@
       </c>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="328"/>
+      <c r="B96" s="336"/>
       <c r="C96" s="48" t="s">
         <v>945</v>
       </c>
@@ -31383,7 +31387,7 @@
       </c>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="328"/>
+      <c r="B97" s="336"/>
       <c r="C97" s="48" t="s">
         <v>854</v>
       </c>
@@ -31410,7 +31414,7 @@
       </c>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="328"/>
+      <c r="B98" s="336"/>
       <c r="C98" s="48" t="s">
         <v>859</v>
       </c>
@@ -31435,7 +31439,7 @@
       </c>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="328"/>
+      <c r="B99" s="336"/>
       <c r="C99" s="48" t="s">
         <v>1028</v>
       </c>
@@ -31454,7 +31458,7 @@
       </c>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="328"/>
+      <c r="B100" s="336"/>
       <c r="C100" s="48" t="s">
         <v>1032</v>
       </c>
@@ -31479,7 +31483,7 @@
       </c>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="328"/>
+      <c r="B101" s="336"/>
       <c r="C101" s="48" t="s">
         <v>1034</v>
       </c>
@@ -31504,7 +31508,7 @@
       </c>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="328"/>
+      <c r="B102" s="336"/>
       <c r="C102" s="48" t="s">
         <v>1038</v>
       </c>
@@ -31523,7 +31527,7 @@
       </c>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="328"/>
+      <c r="B103" s="336"/>
       <c r="C103" s="48" t="s">
         <v>1040</v>
       </c>
@@ -31551,7 +31555,7 @@
       </c>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="328"/>
+      <c r="B104" s="336"/>
       <c r="C104" s="48" t="s">
         <v>1043</v>
       </c>
@@ -31576,7 +31580,7 @@
       </c>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="328"/>
+      <c r="B105" s="336"/>
       <c r="C105" s="48" t="s">
         <v>1044</v>
       </c>
@@ -31604,7 +31608,7 @@
       </c>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="328"/>
+      <c r="B106" s="336"/>
       <c r="C106" s="48" t="s">
         <v>1048</v>
       </c>
@@ -31632,7 +31636,7 @@
       </c>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="328"/>
+      <c r="B107" s="336"/>
       <c r="C107" s="48" t="s">
         <v>984</v>
       </c>
@@ -31657,7 +31661,7 @@
       </c>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="328"/>
+      <c r="B108" s="336"/>
       <c r="C108" s="48" t="s">
         <v>937</v>
       </c>
@@ -31684,7 +31688,7 @@
       </c>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="328"/>
+      <c r="B109" s="336"/>
       <c r="C109" s="48" t="s">
         <v>912</v>
       </c>
@@ -31703,7 +31707,7 @@
       </c>
     </row>
     <row r="110" spans="2:13">
-      <c r="B110" s="328"/>
+      <c r="B110" s="336"/>
       <c r="C110" s="48" t="s">
         <v>915</v>
       </c>
@@ -31728,7 +31732,7 @@
       </c>
     </row>
     <row r="111" spans="2:13">
-      <c r="B111" s="328"/>
+      <c r="B111" s="336"/>
       <c r="C111" s="48" t="s">
         <v>1054</v>
       </c>
@@ -31747,7 +31751,7 @@
       </c>
     </row>
     <row r="112" spans="2:13" ht="15" thickBot="1">
-      <c r="B112" s="329"/>
+      <c r="B112" s="337"/>
       <c r="C112" s="55" t="s">
         <v>1056</v>
       </c>
@@ -31769,13 +31773,13 @@
       <c r="B115" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C115" s="330" t="s">
+      <c r="C115" s="338" t="s">
         <v>1058</v>
       </c>
-      <c r="D115" s="331"/>
-      <c r="E115" s="331"/>
-      <c r="F115" s="331"/>
-      <c r="G115" s="332"/>
+      <c r="D115" s="339"/>
+      <c r="E115" s="339"/>
+      <c r="F115" s="339"/>
+      <c r="G115" s="340"/>
       <c r="H115" s="41" t="s">
         <v>824</v>
       </c>
@@ -31788,13 +31792,13 @@
       <c r="B116" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C116" s="333" t="s">
+      <c r="C116" s="341" t="s">
         <v>1060</v>
       </c>
-      <c r="D116" s="334"/>
-      <c r="E116" s="334"/>
-      <c r="F116" s="334"/>
-      <c r="G116" s="335"/>
+      <c r="D116" s="342"/>
+      <c r="E116" s="342"/>
+      <c r="F116" s="342"/>
+      <c r="G116" s="343"/>
       <c r="H116" s="45" t="s">
         <v>827</v>
       </c>
@@ -31804,18 +31808,18 @@
       <c r="B117" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C117" s="336" t="s">
+      <c r="C117" s="344" t="s">
         <v>1061</v>
       </c>
-      <c r="D117" s="337"/>
-      <c r="E117" s="337"/>
-      <c r="F117" s="337"/>
-      <c r="G117" s="337"/>
-      <c r="H117" s="337"/>
-      <c r="I117" s="338"/>
+      <c r="D117" s="345"/>
+      <c r="E117" s="345"/>
+      <c r="F117" s="345"/>
+      <c r="G117" s="345"/>
+      <c r="H117" s="345"/>
+      <c r="I117" s="346"/>
     </row>
     <row r="118" spans="2:12">
-      <c r="B118" s="327" t="s">
+      <c r="B118" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C118" s="41" t="s">
@@ -31850,7 +31854,7 @@
       </c>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="328"/>
+      <c r="B119" s="336"/>
       <c r="C119" s="48" t="s">
         <v>1062</v>
       </c>
@@ -31879,7 +31883,7 @@
       </c>
     </row>
     <row r="120" spans="2:12">
-      <c r="B120" s="328"/>
+      <c r="B120" s="336"/>
       <c r="C120" s="48" t="s">
         <v>1024</v>
       </c>
@@ -31904,7 +31908,7 @@
       </c>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="328"/>
+      <c r="B121" s="336"/>
       <c r="C121" s="48" t="s">
         <v>864</v>
       </c>
@@ -31929,7 +31933,7 @@
       </c>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="328"/>
+      <c r="B122" s="336"/>
       <c r="C122" s="48" t="s">
         <v>849</v>
       </c>
@@ -31954,7 +31958,7 @@
       </c>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="328"/>
+      <c r="B123" s="336"/>
       <c r="C123" s="48" t="s">
         <v>1069</v>
       </c>
@@ -31971,7 +31975,7 @@
       <c r="L123" s="52"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="328"/>
+      <c r="B124" s="336"/>
       <c r="C124" s="48" t="s">
         <v>1071</v>
       </c>
@@ -31996,7 +32000,7 @@
       </c>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="328"/>
+      <c r="B125" s="336"/>
       <c r="C125" s="48" t="s">
         <v>1075</v>
       </c>
@@ -32021,7 +32025,7 @@
       </c>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="328"/>
+      <c r="B126" s="336"/>
       <c r="C126" s="48" t="s">
         <v>1079</v>
       </c>
@@ -32037,7 +32041,7 @@
       <c r="I126" s="51"/>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="328"/>
+      <c r="B127" s="336"/>
       <c r="C127" s="48" t="s">
         <v>1081</v>
       </c>
@@ -32053,7 +32057,7 @@
       <c r="I127" s="51"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="328"/>
+      <c r="B128" s="336"/>
       <c r="C128" s="48" t="s">
         <v>846</v>
       </c>
@@ -32069,7 +32073,7 @@
       <c r="I128" s="51"/>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="328"/>
+      <c r="B129" s="336"/>
       <c r="C129" s="48" t="s">
         <v>840</v>
       </c>
@@ -32085,7 +32089,7 @@
       <c r="I129" s="51"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="328"/>
+      <c r="B130" s="336"/>
       <c r="C130" s="48" t="s">
         <v>945</v>
       </c>
@@ -32110,7 +32114,7 @@
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="328"/>
+      <c r="B131" s="336"/>
       <c r="C131" s="48" t="s">
         <v>854</v>
       </c>
@@ -32135,7 +32139,7 @@
       </c>
     </row>
     <row r="132" spans="2:12">
-      <c r="B132" s="328"/>
+      <c r="B132" s="336"/>
       <c r="C132" s="48" t="s">
         <v>859</v>
       </c>
@@ -32160,7 +32164,7 @@
       </c>
     </row>
     <row r="133" spans="2:12">
-      <c r="B133" s="328"/>
+      <c r="B133" s="336"/>
       <c r="C133" s="48" t="s">
         <v>1028</v>
       </c>
@@ -32185,7 +32189,7 @@
       </c>
     </row>
     <row r="134" spans="2:12">
-      <c r="B134" s="328"/>
+      <c r="B134" s="336"/>
       <c r="C134" s="48" t="s">
         <v>1034</v>
       </c>
@@ -32210,7 +32214,7 @@
       </c>
     </row>
     <row r="135" spans="2:12">
-      <c r="B135" s="328"/>
+      <c r="B135" s="336"/>
       <c r="C135" s="48" t="s">
         <v>1038</v>
       </c>
@@ -32226,7 +32230,7 @@
       <c r="I135" s="51"/>
     </row>
     <row r="136" spans="2:12">
-      <c r="B136" s="328"/>
+      <c r="B136" s="336"/>
       <c r="C136" s="48" t="s">
         <v>1083</v>
       </c>
@@ -32242,7 +32246,7 @@
       <c r="I136" s="51"/>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="328"/>
+      <c r="B137" s="336"/>
       <c r="C137" s="48" t="s">
         <v>1085</v>
       </c>
@@ -32258,7 +32262,7 @@
       <c r="I137" s="51"/>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="328"/>
+      <c r="B138" s="336"/>
       <c r="C138" s="48" t="s">
         <v>1087</v>
       </c>
@@ -32274,7 +32278,7 @@
       <c r="I138" s="51"/>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="328"/>
+      <c r="B139" s="336"/>
       <c r="C139" s="48" t="s">
         <v>1089</v>
       </c>
@@ -32299,7 +32303,7 @@
       </c>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="328"/>
+      <c r="B140" s="336"/>
       <c r="C140" s="48" t="s">
         <v>1048</v>
       </c>
@@ -32324,7 +32328,7 @@
       </c>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="328"/>
+      <c r="B141" s="336"/>
       <c r="C141" s="48" t="s">
         <v>1096</v>
       </c>
@@ -32349,7 +32353,7 @@
       </c>
     </row>
     <row r="142" spans="2:12">
-      <c r="B142" s="328"/>
+      <c r="B142" s="336"/>
       <c r="C142" s="48" t="s">
         <v>1099</v>
       </c>
@@ -32374,7 +32378,7 @@
       </c>
     </row>
     <row r="143" spans="2:12">
-      <c r="B143" s="328"/>
+      <c r="B143" s="336"/>
       <c r="C143" s="48" t="s">
         <v>1103</v>
       </c>
@@ -32390,7 +32394,7 @@
       <c r="I143" s="51"/>
     </row>
     <row r="144" spans="2:12">
-      <c r="B144" s="328"/>
+      <c r="B144" s="336"/>
       <c r="C144" s="48" t="s">
         <v>1105</v>
       </c>
@@ -32406,7 +32410,7 @@
       <c r="I144" s="51"/>
     </row>
     <row r="145" spans="2:12">
-      <c r="B145" s="328"/>
+      <c r="B145" s="336"/>
       <c r="C145" s="48" t="s">
         <v>1107</v>
       </c>
@@ -32422,7 +32426,7 @@
       <c r="I145" s="51"/>
     </row>
     <row r="146" spans="2:12">
-      <c r="B146" s="328"/>
+      <c r="B146" s="336"/>
       <c r="C146" s="48" t="s">
         <v>1109</v>
       </c>
@@ -32438,7 +32442,7 @@
       <c r="I146" s="51"/>
     </row>
     <row r="147" spans="2:12">
-      <c r="B147" s="328"/>
+      <c r="B147" s="336"/>
       <c r="C147" s="48" t="s">
         <v>1111</v>
       </c>
@@ -32454,7 +32458,7 @@
       <c r="I147" s="51"/>
     </row>
     <row r="148" spans="2:12">
-      <c r="B148" s="328"/>
+      <c r="B148" s="336"/>
       <c r="C148" s="48" t="s">
         <v>1113</v>
       </c>
@@ -32470,7 +32474,7 @@
       <c r="I148" s="51"/>
     </row>
     <row r="149" spans="2:12">
-      <c r="B149" s="328"/>
+      <c r="B149" s="336"/>
       <c r="C149" s="48" t="s">
         <v>1115</v>
       </c>
@@ -32495,7 +32499,7 @@
       </c>
     </row>
     <row r="150" spans="2:12">
-      <c r="B150" s="328"/>
+      <c r="B150" s="336"/>
       <c r="C150" s="48" t="s">
         <v>1119</v>
       </c>
@@ -32511,7 +32515,7 @@
       <c r="I150" s="51"/>
     </row>
     <row r="151" spans="2:12">
-      <c r="B151" s="328"/>
+      <c r="B151" s="336"/>
       <c r="C151" s="48" t="s">
         <v>1121</v>
       </c>
@@ -32536,7 +32540,7 @@
       </c>
     </row>
     <row r="152" spans="2:12">
-      <c r="B152" s="328"/>
+      <c r="B152" s="336"/>
       <c r="C152" s="48" t="s">
         <v>1125</v>
       </c>
@@ -32561,7 +32565,7 @@
       </c>
     </row>
     <row r="153" spans="2:12">
-      <c r="B153" s="328"/>
+      <c r="B153" s="336"/>
       <c r="C153" s="48" t="s">
         <v>1129</v>
       </c>
@@ -32586,7 +32590,7 @@
       </c>
     </row>
     <row r="154" spans="2:12">
-      <c r="B154" s="328"/>
+      <c r="B154" s="336"/>
       <c r="C154" s="48" t="s">
         <v>1133</v>
       </c>
@@ -32611,7 +32615,7 @@
       </c>
     </row>
     <row r="155" spans="2:12">
-      <c r="B155" s="328"/>
+      <c r="B155" s="336"/>
       <c r="C155" s="48" t="s">
         <v>1137</v>
       </c>
@@ -32627,7 +32631,7 @@
       <c r="I155" s="51"/>
     </row>
     <row r="156" spans="2:12">
-      <c r="B156" s="328"/>
+      <c r="B156" s="336"/>
       <c r="C156" s="48" t="s">
         <v>937</v>
       </c>
@@ -32654,7 +32658,7 @@
       </c>
     </row>
     <row r="157" spans="2:12">
-      <c r="B157" s="328"/>
+      <c r="B157" s="336"/>
       <c r="C157" s="48" t="s">
         <v>912</v>
       </c>
@@ -32670,7 +32674,7 @@
       <c r="I157" s="51"/>
     </row>
     <row r="158" spans="2:12">
-      <c r="B158" s="328"/>
+      <c r="B158" s="336"/>
       <c r="C158" s="48" t="s">
         <v>1139</v>
       </c>
@@ -32686,7 +32690,7 @@
       <c r="I158" s="51"/>
     </row>
     <row r="159" spans="2:12">
-      <c r="B159" s="328"/>
+      <c r="B159" s="336"/>
       <c r="C159" s="48" t="s">
         <v>1141</v>
       </c>
@@ -32702,7 +32706,7 @@
       <c r="I159" s="51"/>
     </row>
     <row r="160" spans="2:12">
-      <c r="B160" s="328"/>
+      <c r="B160" s="336"/>
       <c r="C160" s="48" t="s">
         <v>1143</v>
       </c>
@@ -32718,7 +32722,7 @@
       <c r="I160" s="51"/>
     </row>
     <row r="161" spans="2:12" ht="15" thickBot="1">
-      <c r="B161" s="329"/>
+      <c r="B161" s="337"/>
       <c r="C161" s="55" t="s">
         <v>1146</v>
       </c>
@@ -32737,13 +32741,13 @@
       <c r="B164" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C164" s="330" t="s">
+      <c r="C164" s="338" t="s">
         <v>1148</v>
       </c>
-      <c r="D164" s="331"/>
-      <c r="E164" s="331"/>
-      <c r="F164" s="331"/>
-      <c r="G164" s="332"/>
+      <c r="D164" s="339"/>
+      <c r="E164" s="339"/>
+      <c r="F164" s="339"/>
+      <c r="G164" s="340"/>
       <c r="H164" s="41" t="s">
         <v>824</v>
       </c>
@@ -32756,13 +32760,13 @@
       <c r="B165" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C165" s="333" t="s">
+      <c r="C165" s="341" t="s">
         <v>1149</v>
       </c>
-      <c r="D165" s="334"/>
-      <c r="E165" s="334"/>
-      <c r="F165" s="334"/>
-      <c r="G165" s="335"/>
+      <c r="D165" s="342"/>
+      <c r="E165" s="342"/>
+      <c r="F165" s="342"/>
+      <c r="G165" s="343"/>
       <c r="H165" s="45" t="s">
         <v>827</v>
       </c>
@@ -32772,18 +32776,18 @@
       <c r="B166" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C166" s="336" t="s">
+      <c r="C166" s="344" t="s">
         <v>1150</v>
       </c>
-      <c r="D166" s="337"/>
-      <c r="E166" s="337"/>
-      <c r="F166" s="337"/>
-      <c r="G166" s="337"/>
-      <c r="H166" s="337"/>
-      <c r="I166" s="338"/>
+      <c r="D166" s="345"/>
+      <c r="E166" s="345"/>
+      <c r="F166" s="345"/>
+      <c r="G166" s="345"/>
+      <c r="H166" s="345"/>
+      <c r="I166" s="346"/>
     </row>
     <row r="167" spans="2:12">
-      <c r="B167" s="327" t="s">
+      <c r="B167" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C167" s="41" t="s">
@@ -32818,7 +32822,7 @@
       </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="328"/>
+      <c r="B168" s="336"/>
       <c r="C168" s="48" t="s">
         <v>1151</v>
       </c>
@@ -32843,7 +32847,7 @@
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="B169" s="328"/>
+      <c r="B169" s="336"/>
       <c r="C169" s="48" t="s">
         <v>840</v>
       </c>
@@ -32859,7 +32863,7 @@
       <c r="I169" s="51"/>
     </row>
     <row r="170" spans="2:12">
-      <c r="B170" s="328"/>
+      <c r="B170" s="336"/>
       <c r="C170" s="48" t="s">
         <v>846</v>
       </c>
@@ -32875,7 +32879,7 @@
       <c r="I170" s="51"/>
     </row>
     <row r="171" spans="2:12">
-      <c r="B171" s="328"/>
+      <c r="B171" s="336"/>
       <c r="C171" s="48" t="s">
         <v>912</v>
       </c>
@@ -32891,7 +32895,7 @@
       <c r="I171" s="51"/>
     </row>
     <row r="172" spans="2:12">
-      <c r="B172" s="328"/>
+      <c r="B172" s="336"/>
       <c r="C172" s="48" t="s">
         <v>1154</v>
       </c>
@@ -32916,7 +32920,7 @@
       </c>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="328"/>
+      <c r="B173" s="336"/>
       <c r="C173" s="48" t="s">
         <v>1156</v>
       </c>
@@ -32941,7 +32945,7 @@
       </c>
     </row>
     <row r="174" spans="2:12">
-      <c r="B174" s="328"/>
+      <c r="B174" s="336"/>
       <c r="C174" s="48" t="s">
         <v>1158</v>
       </c>
@@ -32957,7 +32961,7 @@
       <c r="I174" s="51"/>
     </row>
     <row r="175" spans="2:12">
-      <c r="B175" s="328"/>
+      <c r="B175" s="336"/>
       <c r="C175" s="48" t="s">
         <v>854</v>
       </c>
@@ -32982,7 +32986,7 @@
       </c>
     </row>
     <row r="176" spans="2:12">
-      <c r="B176" s="328"/>
+      <c r="B176" s="336"/>
       <c r="C176" s="48" t="s">
         <v>860</v>
       </c>
@@ -33007,7 +33011,7 @@
       </c>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="328"/>
+      <c r="B177" s="336"/>
       <c r="C177" s="48" t="s">
         <v>859</v>
       </c>
@@ -33032,7 +33036,7 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="328"/>
+      <c r="B178" s="336"/>
       <c r="C178" s="48" t="s">
         <v>849</v>
       </c>
@@ -33057,7 +33061,7 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="328"/>
+      <c r="B179" s="336"/>
       <c r="C179" s="48" t="s">
         <v>1161</v>
       </c>
@@ -33073,7 +33077,7 @@
       <c r="I179" s="51"/>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="328"/>
+      <c r="B180" s="336"/>
       <c r="C180" s="48" t="s">
         <v>864</v>
       </c>
@@ -33098,7 +33102,7 @@
       </c>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="328"/>
+      <c r="B181" s="336"/>
       <c r="C181" s="48" t="s">
         <v>1164</v>
       </c>
@@ -33123,7 +33127,7 @@
       </c>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="328"/>
+      <c r="B182" s="336"/>
       <c r="C182" s="48" t="s">
         <v>1166</v>
       </c>
@@ -33148,7 +33152,7 @@
       </c>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="328"/>
+      <c r="B183" s="336"/>
       <c r="C183" s="48" t="s">
         <v>1141</v>
       </c>
@@ -33164,7 +33168,7 @@
       <c r="I183" s="51"/>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="328"/>
+      <c r="B184" s="336"/>
       <c r="C184" s="48" t="s">
         <v>1168</v>
       </c>
@@ -33189,7 +33193,7 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="328"/>
+      <c r="B185" s="336"/>
       <c r="C185" s="48" t="s">
         <v>1087</v>
       </c>
@@ -33205,7 +33209,7 @@
       <c r="I185" s="51"/>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="328"/>
+      <c r="B186" s="336"/>
       <c r="C186" s="48" t="s">
         <v>1170</v>
       </c>
@@ -33221,7 +33225,7 @@
       <c r="I186" s="51"/>
     </row>
     <row r="187" spans="2:12">
-      <c r="B187" s="328"/>
+      <c r="B187" s="336"/>
       <c r="C187" s="48" t="s">
         <v>1172</v>
       </c>
@@ -33237,7 +33241,7 @@
       <c r="I187" s="51"/>
     </row>
     <row r="188" spans="2:12">
-      <c r="B188" s="328"/>
+      <c r="B188" s="336"/>
       <c r="C188" s="48" t="s">
         <v>1174</v>
       </c>
@@ -33253,7 +33257,7 @@
       <c r="I188" s="51"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="328"/>
+      <c r="B189" s="336"/>
       <c r="C189" s="48" t="s">
         <v>1176</v>
       </c>
@@ -33269,7 +33273,7 @@
       <c r="I189" s="51"/>
     </row>
     <row r="190" spans="2:12">
-      <c r="B190" s="328"/>
+      <c r="B190" s="336"/>
       <c r="C190" s="48" t="s">
         <v>1178</v>
       </c>
@@ -33294,7 +33298,7 @@
       </c>
     </row>
     <row r="191" spans="2:12">
-      <c r="B191" s="328"/>
+      <c r="B191" s="336"/>
       <c r="C191" s="48" t="s">
         <v>1180</v>
       </c>
@@ -33310,7 +33314,7 @@
       <c r="I191" s="51"/>
     </row>
     <row r="192" spans="2:12" ht="15" thickBot="1">
-      <c r="B192" s="329"/>
+      <c r="B192" s="337"/>
       <c r="C192" s="55" t="s">
         <v>1182</v>
       </c>
@@ -33330,13 +33334,13 @@
       <c r="B195" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C195" s="330" t="s">
+      <c r="C195" s="338" t="s">
         <v>1184</v>
       </c>
-      <c r="D195" s="331"/>
-      <c r="E195" s="331"/>
-      <c r="F195" s="331"/>
-      <c r="G195" s="332"/>
+      <c r="D195" s="339"/>
+      <c r="E195" s="339"/>
+      <c r="F195" s="339"/>
+      <c r="G195" s="340"/>
       <c r="H195" s="41" t="s">
         <v>824</v>
       </c>
@@ -33346,13 +33350,13 @@
       <c r="B196" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C196" s="333" t="s">
+      <c r="C196" s="341" t="s">
         <v>1185</v>
       </c>
-      <c r="D196" s="334"/>
-      <c r="E196" s="334"/>
-      <c r="F196" s="334"/>
-      <c r="G196" s="335"/>
+      <c r="D196" s="342"/>
+      <c r="E196" s="342"/>
+      <c r="F196" s="342"/>
+      <c r="G196" s="343"/>
       <c r="H196" s="45" t="s">
         <v>827</v>
       </c>
@@ -33362,16 +33366,16 @@
       <c r="B197" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C197" s="336"/>
-      <c r="D197" s="337"/>
-      <c r="E197" s="337"/>
-      <c r="F197" s="337"/>
-      <c r="G197" s="337"/>
-      <c r="H197" s="337"/>
-      <c r="I197" s="338"/>
+      <c r="C197" s="344"/>
+      <c r="D197" s="345"/>
+      <c r="E197" s="345"/>
+      <c r="F197" s="345"/>
+      <c r="G197" s="345"/>
+      <c r="H197" s="345"/>
+      <c r="I197" s="346"/>
     </row>
     <row r="198" spans="2:12">
-      <c r="B198" s="327" t="s">
+      <c r="B198" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C198" s="41" t="s">
@@ -33406,7 +33410,7 @@
       </c>
     </row>
     <row r="199" spans="2:12">
-      <c r="B199" s="328"/>
+      <c r="B199" s="336"/>
       <c r="C199" s="48" t="s">
         <v>1186</v>
       </c>
@@ -33422,7 +33426,7 @@
       <c r="I199" s="51"/>
     </row>
     <row r="200" spans="2:12">
-      <c r="B200" s="328"/>
+      <c r="B200" s="336"/>
       <c r="C200" s="48" t="s">
         <v>912</v>
       </c>
@@ -33438,7 +33442,7 @@
       <c r="I200" s="51"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="328"/>
+      <c r="B201" s="336"/>
       <c r="C201" s="48" t="s">
         <v>849</v>
       </c>
@@ -33454,7 +33458,7 @@
       <c r="I201" s="51"/>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="328"/>
+      <c r="B202" s="336"/>
       <c r="C202" s="48" t="s">
         <v>1024</v>
       </c>
@@ -33470,7 +33474,7 @@
       <c r="I202" s="51"/>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="328"/>
+      <c r="B203" s="336"/>
       <c r="C203" s="48" t="s">
         <v>1028</v>
       </c>
@@ -33495,7 +33499,7 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="328"/>
+      <c r="B204" s="336"/>
       <c r="C204" s="48" t="s">
         <v>864</v>
       </c>
@@ -33511,7 +33515,7 @@
       <c r="I204" s="51"/>
     </row>
     <row r="205" spans="2:12">
-      <c r="B205" s="328"/>
+      <c r="B205" s="336"/>
       <c r="C205" s="48" t="s">
         <v>871</v>
       </c>
@@ -33527,7 +33531,7 @@
       <c r="I205" s="51"/>
     </row>
     <row r="206" spans="2:12">
-      <c r="B206" s="328"/>
+      <c r="B206" s="336"/>
       <c r="C206" s="48" t="s">
         <v>1190</v>
       </c>
@@ -33543,7 +33547,7 @@
       <c r="I206" s="51"/>
     </row>
     <row r="207" spans="2:12">
-      <c r="B207" s="328"/>
+      <c r="B207" s="336"/>
       <c r="C207" s="48" t="s">
         <v>881</v>
       </c>
@@ -33559,7 +33563,7 @@
       <c r="I207" s="51"/>
     </row>
     <row r="208" spans="2:12">
-      <c r="B208" s="328"/>
+      <c r="B208" s="336"/>
       <c r="C208" s="48" t="s">
         <v>886</v>
       </c>
@@ -33575,7 +33579,7 @@
       <c r="I208" s="51"/>
     </row>
     <row r="209" spans="2:9">
-      <c r="B209" s="328"/>
+      <c r="B209" s="336"/>
       <c r="C209" s="48" t="s">
         <v>888</v>
       </c>
@@ -33591,7 +33595,7 @@
       <c r="I209" s="51"/>
     </row>
     <row r="210" spans="2:9">
-      <c r="B210" s="328"/>
+      <c r="B210" s="336"/>
       <c r="C210" s="48" t="s">
         <v>890</v>
       </c>
@@ -33607,7 +33611,7 @@
       <c r="I210" s="51"/>
     </row>
     <row r="211" spans="2:9">
-      <c r="B211" s="328"/>
+      <c r="B211" s="336"/>
       <c r="C211" s="48" t="s">
         <v>892</v>
       </c>
@@ -33623,7 +33627,7 @@
       <c r="I211" s="51"/>
     </row>
     <row r="212" spans="2:9">
-      <c r="B212" s="328"/>
+      <c r="B212" s="336"/>
       <c r="C212" s="48" t="s">
         <v>894</v>
       </c>
@@ -33639,7 +33643,7 @@
       <c r="I212" s="51"/>
     </row>
     <row r="213" spans="2:9">
-      <c r="B213" s="328"/>
+      <c r="B213" s="336"/>
       <c r="C213" s="48" t="s">
         <v>1040</v>
       </c>
@@ -33655,7 +33659,7 @@
       <c r="I213" s="51"/>
     </row>
     <row r="214" spans="2:9">
-      <c r="B214" s="328"/>
+      <c r="B214" s="336"/>
       <c r="C214" s="48" t="s">
         <v>1043</v>
       </c>
@@ -33671,7 +33675,7 @@
       <c r="I214" s="51"/>
     </row>
     <row r="215" spans="2:9">
-      <c r="B215" s="328"/>
+      <c r="B215" s="336"/>
       <c r="C215" s="48" t="s">
         <v>1192</v>
       </c>
@@ -33687,7 +33691,7 @@
       <c r="I215" s="51"/>
     </row>
     <row r="216" spans="2:9">
-      <c r="B216" s="328"/>
+      <c r="B216" s="336"/>
       <c r="C216" s="48" t="s">
         <v>1193</v>
       </c>
@@ -33703,7 +33707,7 @@
       <c r="I216" s="51"/>
     </row>
     <row r="217" spans="2:9">
-      <c r="B217" s="328"/>
+      <c r="B217" s="336"/>
       <c r="C217" s="48" t="s">
         <v>1194</v>
       </c>
@@ -33719,7 +33723,7 @@
       <c r="I217" s="51"/>
     </row>
     <row r="218" spans="2:9">
-      <c r="B218" s="328"/>
+      <c r="B218" s="336"/>
       <c r="C218" s="48" t="s">
         <v>915</v>
       </c>
@@ -33735,7 +33739,7 @@
       <c r="I218" s="51"/>
     </row>
     <row r="219" spans="2:9">
-      <c r="B219" s="328"/>
+      <c r="B219" s="336"/>
       <c r="C219" s="48" t="s">
         <v>937</v>
       </c>
@@ -33751,7 +33755,7 @@
       <c r="I219" s="51"/>
     </row>
     <row r="220" spans="2:9" ht="15" thickBot="1">
-      <c r="B220" s="329"/>
+      <c r="B220" s="337"/>
       <c r="C220" s="55"/>
       <c r="D220" s="55"/>
       <c r="E220" s="56"/>
@@ -33765,13 +33769,13 @@
       <c r="B223" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C223" s="330" t="s">
+      <c r="C223" s="338" t="s">
         <v>1195</v>
       </c>
-      <c r="D223" s="331"/>
-      <c r="E223" s="331"/>
-      <c r="F223" s="331"/>
-      <c r="G223" s="332"/>
+      <c r="D223" s="339"/>
+      <c r="E223" s="339"/>
+      <c r="F223" s="339"/>
+      <c r="G223" s="340"/>
       <c r="H223" s="41" t="s">
         <v>824</v>
       </c>
@@ -33781,13 +33785,13 @@
       <c r="B224" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C224" s="333" t="s">
+      <c r="C224" s="341" t="s">
         <v>1196</v>
       </c>
-      <c r="D224" s="334"/>
-      <c r="E224" s="334"/>
-      <c r="F224" s="334"/>
-      <c r="G224" s="335"/>
+      <c r="D224" s="342"/>
+      <c r="E224" s="342"/>
+      <c r="F224" s="342"/>
+      <c r="G224" s="343"/>
       <c r="H224" s="45" t="s">
         <v>827</v>
       </c>
@@ -33797,16 +33801,16 @@
       <c r="B225" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C225" s="336"/>
-      <c r="D225" s="337"/>
-      <c r="E225" s="337"/>
-      <c r="F225" s="337"/>
-      <c r="G225" s="337"/>
-      <c r="H225" s="337"/>
-      <c r="I225" s="338"/>
+      <c r="C225" s="344"/>
+      <c r="D225" s="345"/>
+      <c r="E225" s="345"/>
+      <c r="F225" s="345"/>
+      <c r="G225" s="345"/>
+      <c r="H225" s="345"/>
+      <c r="I225" s="346"/>
     </row>
     <row r="226" spans="2:12">
-      <c r="B226" s="327" t="s">
+      <c r="B226" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C226" s="41" t="s">
@@ -33832,7 +33836,7 @@
       </c>
     </row>
     <row r="227" spans="2:12">
-      <c r="B227" s="328"/>
+      <c r="B227" s="336"/>
       <c r="C227" s="48" t="s">
         <v>1197</v>
       </c>
@@ -33848,7 +33852,7 @@
       <c r="I227" s="51"/>
     </row>
     <row r="228" spans="2:12">
-      <c r="B228" s="328"/>
+      <c r="B228" s="336"/>
       <c r="C228" s="48" t="s">
         <v>1151</v>
       </c>
@@ -33873,7 +33877,7 @@
       </c>
     </row>
     <row r="229" spans="2:12">
-      <c r="B229" s="328"/>
+      <c r="B229" s="336"/>
       <c r="C229" s="48" t="s">
         <v>840</v>
       </c>
@@ -33889,7 +33893,7 @@
       <c r="I229" s="51"/>
     </row>
     <row r="230" spans="2:12">
-      <c r="B230" s="328"/>
+      <c r="B230" s="336"/>
       <c r="C230" s="48" t="s">
         <v>846</v>
       </c>
@@ -33905,7 +33909,7 @@
       <c r="I230" s="51"/>
     </row>
     <row r="231" spans="2:12">
-      <c r="B231" s="328"/>
+      <c r="B231" s="336"/>
       <c r="C231" s="48" t="s">
         <v>912</v>
       </c>
@@ -33921,7 +33925,7 @@
       <c r="I231" s="51"/>
     </row>
     <row r="232" spans="2:12">
-      <c r="B232" s="328"/>
+      <c r="B232" s="336"/>
       <c r="C232" s="48" t="s">
         <v>1154</v>
       </c>
@@ -33946,7 +33950,7 @@
       </c>
     </row>
     <row r="233" spans="2:12">
-      <c r="B233" s="328"/>
+      <c r="B233" s="336"/>
       <c r="C233" s="48" t="s">
         <v>1156</v>
       </c>
@@ -33971,7 +33975,7 @@
       </c>
     </row>
     <row r="234" spans="2:12">
-      <c r="B234" s="328"/>
+      <c r="B234" s="336"/>
       <c r="C234" s="48" t="s">
         <v>1158</v>
       </c>
@@ -33987,7 +33991,7 @@
       <c r="I234" s="51"/>
     </row>
     <row r="235" spans="2:12">
-      <c r="B235" s="328"/>
+      <c r="B235" s="336"/>
       <c r="C235" s="48" t="s">
         <v>854</v>
       </c>
@@ -34012,7 +34016,7 @@
       </c>
     </row>
     <row r="236" spans="2:12">
-      <c r="B236" s="328"/>
+      <c r="B236" s="336"/>
       <c r="C236" s="48" t="s">
         <v>860</v>
       </c>
@@ -34037,7 +34041,7 @@
       </c>
     </row>
     <row r="237" spans="2:12">
-      <c r="B237" s="328"/>
+      <c r="B237" s="336"/>
       <c r="C237" s="48" t="s">
         <v>859</v>
       </c>
@@ -34062,7 +34066,7 @@
       </c>
     </row>
     <row r="238" spans="2:12">
-      <c r="B238" s="328"/>
+      <c r="B238" s="336"/>
       <c r="C238" s="48" t="s">
         <v>849</v>
       </c>
@@ -34087,7 +34091,7 @@
       </c>
     </row>
     <row r="239" spans="2:12">
-      <c r="B239" s="328"/>
+      <c r="B239" s="336"/>
       <c r="C239" s="48" t="s">
         <v>1161</v>
       </c>
@@ -34103,7 +34107,7 @@
       <c r="I239" s="51"/>
     </row>
     <row r="240" spans="2:12">
-      <c r="B240" s="328"/>
+      <c r="B240" s="336"/>
       <c r="C240" s="48" t="s">
         <v>864</v>
       </c>
@@ -34128,7 +34132,7 @@
       </c>
     </row>
     <row r="241" spans="2:12">
-      <c r="B241" s="328"/>
+      <c r="B241" s="336"/>
       <c r="C241" s="48" t="s">
         <v>1164</v>
       </c>
@@ -34153,7 +34157,7 @@
       </c>
     </row>
     <row r="242" spans="2:12">
-      <c r="B242" s="328"/>
+      <c r="B242" s="336"/>
       <c r="C242" s="48" t="s">
         <v>1166</v>
       </c>
@@ -34178,7 +34182,7 @@
       </c>
     </row>
     <row r="243" spans="2:12">
-      <c r="B243" s="328"/>
+      <c r="B243" s="336"/>
       <c r="C243" s="48" t="s">
         <v>1141</v>
       </c>
@@ -34194,7 +34198,7 @@
       <c r="I243" s="51"/>
     </row>
     <row r="244" spans="2:12">
-      <c r="B244" s="328"/>
+      <c r="B244" s="336"/>
       <c r="C244" s="48" t="s">
         <v>1168</v>
       </c>
@@ -34219,7 +34223,7 @@
       </c>
     </row>
     <row r="245" spans="2:12">
-      <c r="B245" s="328"/>
+      <c r="B245" s="336"/>
       <c r="C245" s="48" t="s">
         <v>1087</v>
       </c>
@@ -34235,7 +34239,7 @@
       <c r="I245" s="51"/>
     </row>
     <row r="246" spans="2:12">
-      <c r="B246" s="328"/>
+      <c r="B246" s="336"/>
       <c r="C246" s="48" t="s">
         <v>1170</v>
       </c>
@@ -34251,7 +34255,7 @@
       <c r="I246" s="51"/>
     </row>
     <row r="247" spans="2:12">
-      <c r="B247" s="328"/>
+      <c r="B247" s="336"/>
       <c r="C247" s="48" t="s">
         <v>1172</v>
       </c>
@@ -34267,7 +34271,7 @@
       <c r="I247" s="51"/>
     </row>
     <row r="248" spans="2:12">
-      <c r="B248" s="328"/>
+      <c r="B248" s="336"/>
       <c r="C248" s="48" t="s">
         <v>1174</v>
       </c>
@@ -34283,7 +34287,7 @@
       <c r="I248" s="51"/>
     </row>
     <row r="249" spans="2:12">
-      <c r="B249" s="328"/>
+      <c r="B249" s="336"/>
       <c r="C249" s="48" t="s">
         <v>1176</v>
       </c>
@@ -34299,7 +34303,7 @@
       <c r="I249" s="51"/>
     </row>
     <row r="250" spans="2:12">
-      <c r="B250" s="328"/>
+      <c r="B250" s="336"/>
       <c r="C250" s="64" t="s">
         <v>1178</v>
       </c>
@@ -34324,7 +34328,7 @@
       </c>
     </row>
     <row r="251" spans="2:12">
-      <c r="B251" s="328"/>
+      <c r="B251" s="336"/>
       <c r="C251" s="64" t="s">
         <v>1180</v>
       </c>
@@ -34340,7 +34344,7 @@
       <c r="I251" s="67"/>
     </row>
     <row r="252" spans="2:12">
-      <c r="B252" s="328"/>
+      <c r="B252" s="336"/>
       <c r="C252" s="64" t="s">
         <v>1182</v>
       </c>
@@ -34356,7 +34360,7 @@
       <c r="I252" s="67"/>
     </row>
     <row r="253" spans="2:12" ht="15" thickBot="1">
-      <c r="B253" s="329"/>
+      <c r="B253" s="337"/>
       <c r="C253" s="55"/>
       <c r="D253" s="55"/>
       <c r="E253" s="56"/>
@@ -34370,13 +34374,13 @@
       <c r="B257" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C257" s="330" t="s">
+      <c r="C257" s="338" t="s">
         <v>1219</v>
       </c>
-      <c r="D257" s="331"/>
-      <c r="E257" s="331"/>
-      <c r="F257" s="331"/>
-      <c r="G257" s="332"/>
+      <c r="D257" s="339"/>
+      <c r="E257" s="339"/>
+      <c r="F257" s="339"/>
+      <c r="G257" s="340"/>
       <c r="H257" s="41" t="s">
         <v>824</v>
       </c>
@@ -34386,13 +34390,13 @@
       <c r="B258" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C258" s="333" t="s">
+      <c r="C258" s="341" t="s">
         <v>1220</v>
       </c>
-      <c r="D258" s="334"/>
-      <c r="E258" s="334"/>
-      <c r="F258" s="334"/>
-      <c r="G258" s="335"/>
+      <c r="D258" s="342"/>
+      <c r="E258" s="342"/>
+      <c r="F258" s="342"/>
+      <c r="G258" s="343"/>
       <c r="H258" s="45" t="s">
         <v>827</v>
       </c>
@@ -34402,16 +34406,16 @@
       <c r="B259" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C259" s="336"/>
-      <c r="D259" s="337"/>
-      <c r="E259" s="337"/>
-      <c r="F259" s="337"/>
-      <c r="G259" s="337"/>
-      <c r="H259" s="337"/>
-      <c r="I259" s="338"/>
+      <c r="C259" s="344"/>
+      <c r="D259" s="345"/>
+      <c r="E259" s="345"/>
+      <c r="F259" s="345"/>
+      <c r="G259" s="345"/>
+      <c r="H259" s="345"/>
+      <c r="I259" s="346"/>
     </row>
     <row r="260" spans="2:12">
-      <c r="B260" s="327" t="s">
+      <c r="B260" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C260" s="41" t="s">
@@ -34446,7 +34450,7 @@
       </c>
     </row>
     <row r="261" spans="2:12">
-      <c r="B261" s="328"/>
+      <c r="B261" s="336"/>
       <c r="C261" s="48" t="s">
         <v>1197</v>
       </c>
@@ -34462,7 +34466,7 @@
       <c r="I261" s="51"/>
     </row>
     <row r="262" spans="2:12">
-      <c r="B262" s="328"/>
+      <c r="B262" s="336"/>
       <c r="C262" s="48" t="s">
         <v>1062</v>
       </c>
@@ -34487,7 +34491,7 @@
       </c>
     </row>
     <row r="263" spans="2:12">
-      <c r="B263" s="328"/>
+      <c r="B263" s="336"/>
       <c r="C263" s="48" t="s">
         <v>1024</v>
       </c>
@@ -34512,7 +34516,7 @@
       </c>
     </row>
     <row r="264" spans="2:12">
-      <c r="B264" s="328"/>
+      <c r="B264" s="336"/>
       <c r="C264" s="48" t="s">
         <v>864</v>
       </c>
@@ -34537,7 +34541,7 @@
       </c>
     </row>
     <row r="265" spans="2:12">
-      <c r="B265" s="328"/>
+      <c r="B265" s="336"/>
       <c r="C265" s="48" t="s">
         <v>849</v>
       </c>
@@ -34562,7 +34566,7 @@
       </c>
     </row>
     <row r="266" spans="2:12">
-      <c r="B266" s="328"/>
+      <c r="B266" s="336"/>
       <c r="C266" s="48" t="s">
         <v>1069</v>
       </c>
@@ -34579,7 +34583,7 @@
       <c r="L266" s="52"/>
     </row>
     <row r="267" spans="2:12">
-      <c r="B267" s="328"/>
+      <c r="B267" s="336"/>
       <c r="C267" s="48" t="s">
         <v>1071</v>
       </c>
@@ -34604,7 +34608,7 @@
       </c>
     </row>
     <row r="268" spans="2:12">
-      <c r="B268" s="328"/>
+      <c r="B268" s="336"/>
       <c r="C268" s="48" t="s">
         <v>1075</v>
       </c>
@@ -34629,7 +34633,7 @@
       </c>
     </row>
     <row r="269" spans="2:12">
-      <c r="B269" s="328"/>
+      <c r="B269" s="336"/>
       <c r="C269" s="48" t="s">
         <v>1079</v>
       </c>
@@ -34645,7 +34649,7 @@
       <c r="I269" s="51"/>
     </row>
     <row r="270" spans="2:12">
-      <c r="B270" s="328"/>
+      <c r="B270" s="336"/>
       <c r="C270" s="48" t="s">
         <v>1081</v>
       </c>
@@ -34661,7 +34665,7 @@
       <c r="I270" s="51"/>
     </row>
     <row r="271" spans="2:12">
-      <c r="B271" s="328"/>
+      <c r="B271" s="336"/>
       <c r="C271" s="48" t="s">
         <v>846</v>
       </c>
@@ -34677,7 +34681,7 @@
       <c r="I271" s="51"/>
     </row>
     <row r="272" spans="2:12">
-      <c r="B272" s="328"/>
+      <c r="B272" s="336"/>
       <c r="C272" s="48" t="s">
         <v>840</v>
       </c>
@@ -34693,7 +34697,7 @@
       <c r="I272" s="51"/>
     </row>
     <row r="273" spans="2:12">
-      <c r="B273" s="328"/>
+      <c r="B273" s="336"/>
       <c r="C273" s="48" t="s">
         <v>945</v>
       </c>
@@ -34718,7 +34722,7 @@
       </c>
     </row>
     <row r="274" spans="2:12">
-      <c r="B274" s="328"/>
+      <c r="B274" s="336"/>
       <c r="C274" s="48" t="s">
         <v>854</v>
       </c>
@@ -34743,7 +34747,7 @@
       </c>
     </row>
     <row r="275" spans="2:12">
-      <c r="B275" s="328"/>
+      <c r="B275" s="336"/>
       <c r="C275" s="48" t="s">
         <v>859</v>
       </c>
@@ -34768,7 +34772,7 @@
       </c>
     </row>
     <row r="276" spans="2:12">
-      <c r="B276" s="328"/>
+      <c r="B276" s="336"/>
       <c r="C276" s="48" t="s">
         <v>1028</v>
       </c>
@@ -34793,7 +34797,7 @@
       </c>
     </row>
     <row r="277" spans="2:12">
-      <c r="B277" s="328"/>
+      <c r="B277" s="336"/>
       <c r="C277" s="48" t="s">
         <v>1034</v>
       </c>
@@ -34818,7 +34822,7 @@
       </c>
     </row>
     <row r="278" spans="2:12">
-      <c r="B278" s="328"/>
+      <c r="B278" s="336"/>
       <c r="C278" s="48" t="s">
         <v>1038</v>
       </c>
@@ -34834,7 +34838,7 @@
       <c r="I278" s="51"/>
     </row>
     <row r="279" spans="2:12">
-      <c r="B279" s="328"/>
+      <c r="B279" s="336"/>
       <c r="C279" s="48" t="s">
         <v>1083</v>
       </c>
@@ -34850,7 +34854,7 @@
       <c r="I279" s="51"/>
     </row>
     <row r="280" spans="2:12">
-      <c r="B280" s="328"/>
+      <c r="B280" s="336"/>
       <c r="C280" s="48" t="s">
         <v>1085</v>
       </c>
@@ -34866,7 +34870,7 @@
       <c r="I280" s="51"/>
     </row>
     <row r="281" spans="2:12">
-      <c r="B281" s="328"/>
+      <c r="B281" s="336"/>
       <c r="C281" s="48" t="s">
         <v>1087</v>
       </c>
@@ -34882,7 +34886,7 @@
       <c r="I281" s="51"/>
     </row>
     <row r="282" spans="2:12">
-      <c r="B282" s="328"/>
+      <c r="B282" s="336"/>
       <c r="C282" s="48" t="s">
         <v>1089</v>
       </c>
@@ -34907,7 +34911,7 @@
       </c>
     </row>
     <row r="283" spans="2:12">
-      <c r="B283" s="328"/>
+      <c r="B283" s="336"/>
       <c r="C283" s="48" t="s">
         <v>1048</v>
       </c>
@@ -34932,7 +34936,7 @@
       </c>
     </row>
     <row r="284" spans="2:12">
-      <c r="B284" s="328"/>
+      <c r="B284" s="336"/>
       <c r="C284" s="64" t="s">
         <v>1096</v>
       </c>
@@ -34957,7 +34961,7 @@
       </c>
     </row>
     <row r="285" spans="2:12">
-      <c r="B285" s="328"/>
+      <c r="B285" s="336"/>
       <c r="C285" s="64" t="s">
         <v>1099</v>
       </c>
@@ -34982,7 +34986,7 @@
       </c>
     </row>
     <row r="286" spans="2:12">
-      <c r="B286" s="328"/>
+      <c r="B286" s="336"/>
       <c r="C286" s="64" t="s">
         <v>1103</v>
       </c>
@@ -34998,7 +35002,7 @@
       <c r="I286" s="67"/>
     </row>
     <row r="287" spans="2:12">
-      <c r="B287" s="328"/>
+      <c r="B287" s="336"/>
       <c r="C287" s="64" t="s">
         <v>1105</v>
       </c>
@@ -35014,7 +35018,7 @@
       <c r="I287" s="67"/>
     </row>
     <row r="288" spans="2:12">
-      <c r="B288" s="328"/>
+      <c r="B288" s="336"/>
       <c r="C288" s="64" t="s">
         <v>1107</v>
       </c>
@@ -35030,7 +35034,7 @@
       <c r="I288" s="67"/>
     </row>
     <row r="289" spans="2:12">
-      <c r="B289" s="328"/>
+      <c r="B289" s="336"/>
       <c r="C289" s="64" t="s">
         <v>1109</v>
       </c>
@@ -35046,7 +35050,7 @@
       <c r="I289" s="67"/>
     </row>
     <row r="290" spans="2:12">
-      <c r="B290" s="328"/>
+      <c r="B290" s="336"/>
       <c r="C290" s="64" t="s">
         <v>1111</v>
       </c>
@@ -35062,7 +35066,7 @@
       <c r="I290" s="67"/>
     </row>
     <row r="291" spans="2:12">
-      <c r="B291" s="328"/>
+      <c r="B291" s="336"/>
       <c r="C291" s="64" t="s">
         <v>1113</v>
       </c>
@@ -35078,7 +35082,7 @@
       <c r="I291" s="67"/>
     </row>
     <row r="292" spans="2:12">
-      <c r="B292" s="328"/>
+      <c r="B292" s="336"/>
       <c r="C292" s="64" t="s">
         <v>1115</v>
       </c>
@@ -35103,7 +35107,7 @@
       </c>
     </row>
     <row r="293" spans="2:12">
-      <c r="B293" s="328"/>
+      <c r="B293" s="336"/>
       <c r="C293" s="64" t="s">
         <v>1119</v>
       </c>
@@ -35119,7 +35123,7 @@
       <c r="I293" s="67"/>
     </row>
     <row r="294" spans="2:12">
-      <c r="B294" s="328"/>
+      <c r="B294" s="336"/>
       <c r="C294" s="64" t="s">
         <v>1121</v>
       </c>
@@ -35144,7 +35148,7 @@
       </c>
     </row>
     <row r="295" spans="2:12">
-      <c r="B295" s="328"/>
+      <c r="B295" s="336"/>
       <c r="C295" s="64" t="s">
         <v>1125</v>
       </c>
@@ -35169,7 +35173,7 @@
       </c>
     </row>
     <row r="296" spans="2:12">
-      <c r="B296" s="328"/>
+      <c r="B296" s="336"/>
       <c r="C296" s="64" t="s">
         <v>1129</v>
       </c>
@@ -35194,7 +35198,7 @@
       </c>
     </row>
     <row r="297" spans="2:12">
-      <c r="B297" s="328"/>
+      <c r="B297" s="336"/>
       <c r="C297" s="64" t="s">
         <v>1133</v>
       </c>
@@ -35219,7 +35223,7 @@
       </c>
     </row>
     <row r="298" spans="2:12">
-      <c r="B298" s="328"/>
+      <c r="B298" s="336"/>
       <c r="C298" s="64" t="s">
         <v>1137</v>
       </c>
@@ -35235,7 +35239,7 @@
       <c r="I298" s="67"/>
     </row>
     <row r="299" spans="2:12">
-      <c r="B299" s="328"/>
+      <c r="B299" s="336"/>
       <c r="C299" s="64" t="s">
         <v>937</v>
       </c>
@@ -35260,7 +35264,7 @@
       </c>
     </row>
     <row r="300" spans="2:12">
-      <c r="B300" s="328"/>
+      <c r="B300" s="336"/>
       <c r="C300" s="64" t="s">
         <v>912</v>
       </c>
@@ -35276,7 +35280,7 @@
       <c r="I300" s="67"/>
     </row>
     <row r="301" spans="2:12">
-      <c r="B301" s="328"/>
+      <c r="B301" s="336"/>
       <c r="C301" s="64" t="s">
         <v>1139</v>
       </c>
@@ -35292,7 +35296,7 @@
       <c r="I301" s="67"/>
     </row>
     <row r="302" spans="2:12">
-      <c r="B302" s="328"/>
+      <c r="B302" s="336"/>
       <c r="C302" s="64" t="s">
         <v>1141</v>
       </c>
@@ -35308,7 +35312,7 @@
       <c r="I302" s="67"/>
     </row>
     <row r="303" spans="2:12">
-      <c r="B303" s="328"/>
+      <c r="B303" s="336"/>
       <c r="C303" s="64" t="s">
         <v>1143</v>
       </c>
@@ -35324,7 +35328,7 @@
       <c r="I303" s="67"/>
     </row>
     <row r="304" spans="2:12">
-      <c r="B304" s="328"/>
+      <c r="B304" s="336"/>
       <c r="C304" s="64" t="s">
         <v>1146</v>
       </c>
@@ -35340,7 +35344,7 @@
       <c r="I304" s="67"/>
     </row>
     <row r="305" spans="2:12">
-      <c r="B305" s="328"/>
+      <c r="B305" s="336"/>
       <c r="C305" s="64" t="s">
         <v>1186</v>
       </c>
@@ -35356,7 +35360,7 @@
       <c r="I305" s="67"/>
     </row>
     <row r="306" spans="2:12">
-      <c r="B306" s="328"/>
+      <c r="B306" s="336"/>
       <c r="C306" s="64"/>
       <c r="D306" s="64"/>
       <c r="E306" s="49"/>
@@ -35366,7 +35370,7 @@
       <c r="I306" s="67"/>
     </row>
     <row r="307" spans="2:12" ht="15" thickBot="1">
-      <c r="B307" s="329"/>
+      <c r="B307" s="337"/>
       <c r="C307" s="55"/>
       <c r="D307" s="55"/>
       <c r="E307" s="56"/>
@@ -35380,13 +35384,13 @@
       <c r="B309" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C309" s="330" t="s">
+      <c r="C309" s="338" t="s">
         <v>1234</v>
       </c>
-      <c r="D309" s="331"/>
-      <c r="E309" s="331"/>
-      <c r="F309" s="331"/>
-      <c r="G309" s="332"/>
+      <c r="D309" s="339"/>
+      <c r="E309" s="339"/>
+      <c r="F309" s="339"/>
+      <c r="G309" s="340"/>
       <c r="H309" s="41" t="s">
         <v>824</v>
       </c>
@@ -35396,13 +35400,13 @@
       <c r="B310" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C310" s="333" t="s">
+      <c r="C310" s="341" t="s">
         <v>1235</v>
       </c>
-      <c r="D310" s="334"/>
-      <c r="E310" s="334"/>
-      <c r="F310" s="334"/>
-      <c r="G310" s="335"/>
+      <c r="D310" s="342"/>
+      <c r="E310" s="342"/>
+      <c r="F310" s="342"/>
+      <c r="G310" s="343"/>
       <c r="H310" s="45" t="s">
         <v>827</v>
       </c>
@@ -35412,18 +35416,18 @@
       <c r="B311" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C311" s="336" t="s">
+      <c r="C311" s="344" t="s">
         <v>1236</v>
       </c>
-      <c r="D311" s="337"/>
-      <c r="E311" s="337"/>
-      <c r="F311" s="337"/>
-      <c r="G311" s="337"/>
-      <c r="H311" s="337"/>
-      <c r="I311" s="338"/>
+      <c r="D311" s="345"/>
+      <c r="E311" s="345"/>
+      <c r="F311" s="345"/>
+      <c r="G311" s="345"/>
+      <c r="H311" s="345"/>
+      <c r="I311" s="346"/>
     </row>
     <row r="312" spans="2:12">
-      <c r="B312" s="327" t="s">
+      <c r="B312" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C312" s="41" t="s">
@@ -35458,7 +35462,7 @@
       </c>
     </row>
     <row r="313" spans="2:12">
-      <c r="B313" s="328"/>
+      <c r="B313" s="336"/>
       <c r="C313" s="48" t="s">
         <v>843</v>
       </c>
@@ -35474,7 +35478,7 @@
       <c r="I313" s="51"/>
     </row>
     <row r="314" spans="2:12">
-      <c r="B314" s="328"/>
+      <c r="B314" s="336"/>
       <c r="C314" s="48" t="s">
         <v>1237</v>
       </c>
@@ -35490,7 +35494,7 @@
       <c r="I314" s="51"/>
     </row>
     <row r="315" spans="2:12">
-      <c r="B315" s="328"/>
+      <c r="B315" s="336"/>
       <c r="C315" s="48" t="s">
         <v>1238</v>
       </c>
@@ -35506,7 +35510,7 @@
       <c r="I315" s="51"/>
     </row>
     <row r="316" spans="2:12">
-      <c r="B316" s="328"/>
+      <c r="B316" s="336"/>
       <c r="C316" s="48" t="s">
         <v>849</v>
       </c>
@@ -35522,7 +35526,7 @@
       <c r="I316" s="51"/>
     </row>
     <row r="317" spans="2:12">
-      <c r="B317" s="328"/>
+      <c r="B317" s="336"/>
       <c r="C317" s="48" t="s">
         <v>1239</v>
       </c>
@@ -35538,7 +35542,7 @@
       <c r="I317" s="51"/>
     </row>
     <row r="318" spans="2:12">
-      <c r="B318" s="328"/>
+      <c r="B318" s="336"/>
       <c r="C318" s="48" t="s">
         <v>1240</v>
       </c>
@@ -35554,7 +35558,7 @@
       <c r="I318" s="51"/>
     </row>
     <row r="319" spans="2:12">
-      <c r="B319" s="328"/>
+      <c r="B319" s="336"/>
       <c r="C319" s="48" t="s">
         <v>1242</v>
       </c>
@@ -35570,7 +35574,7 @@
       <c r="I319" s="51"/>
     </row>
     <row r="320" spans="2:12">
-      <c r="B320" s="328"/>
+      <c r="B320" s="336"/>
       <c r="C320" s="48" t="s">
         <v>1243</v>
       </c>
@@ -35586,7 +35590,7 @@
       <c r="I320" s="51"/>
     </row>
     <row r="321" spans="2:9">
-      <c r="B321" s="328"/>
+      <c r="B321" s="336"/>
       <c r="C321" s="48" t="s">
         <v>1244</v>
       </c>
@@ -35602,7 +35606,7 @@
       <c r="I321" s="51"/>
     </row>
     <row r="322" spans="2:9">
-      <c r="B322" s="328"/>
+      <c r="B322" s="336"/>
       <c r="C322" s="48" t="s">
         <v>1245</v>
       </c>
@@ -35618,7 +35622,7 @@
       <c r="I322" s="51"/>
     </row>
     <row r="323" spans="2:9">
-      <c r="B323" s="328"/>
+      <c r="B323" s="336"/>
       <c r="C323" s="48" t="s">
         <v>1246</v>
       </c>
@@ -35634,7 +35638,7 @@
       <c r="I323" s="51"/>
     </row>
     <row r="324" spans="2:9">
-      <c r="B324" s="328"/>
+      <c r="B324" s="336"/>
       <c r="C324" s="48" t="s">
         <v>1247</v>
       </c>
@@ -35650,7 +35654,7 @@
       <c r="I324" s="51"/>
     </row>
     <row r="325" spans="2:9">
-      <c r="B325" s="328"/>
+      <c r="B325" s="336"/>
       <c r="C325" s="48" t="s">
         <v>1248</v>
       </c>
@@ -35666,7 +35670,7 @@
       <c r="I325" s="51"/>
     </row>
     <row r="326" spans="2:9">
-      <c r="B326" s="328"/>
+      <c r="B326" s="336"/>
       <c r="C326" s="48" t="s">
         <v>1249</v>
       </c>
@@ -35682,7 +35686,7 @@
       <c r="I326" s="51"/>
     </row>
     <row r="327" spans="2:9">
-      <c r="B327" s="328"/>
+      <c r="B327" s="336"/>
       <c r="C327" s="48" t="s">
         <v>1250</v>
       </c>
@@ -35698,7 +35702,7 @@
       <c r="I327" s="51"/>
     </row>
     <row r="328" spans="2:9">
-      <c r="B328" s="328"/>
+      <c r="B328" s="336"/>
       <c r="C328" s="48" t="s">
         <v>1251</v>
       </c>
@@ -35714,7 +35718,7 @@
       <c r="I328" s="51"/>
     </row>
     <row r="329" spans="2:9">
-      <c r="B329" s="328"/>
+      <c r="B329" s="336"/>
       <c r="C329" s="48" t="s">
         <v>1252</v>
       </c>
@@ -35730,7 +35734,7 @@
       <c r="I329" s="51"/>
     </row>
     <row r="330" spans="2:9">
-      <c r="B330" s="328"/>
+      <c r="B330" s="336"/>
       <c r="C330" s="48" t="s">
         <v>1254</v>
       </c>
@@ -35746,7 +35750,7 @@
       <c r="I330" s="51"/>
     </row>
     <row r="331" spans="2:9">
-      <c r="B331" s="328"/>
+      <c r="B331" s="336"/>
       <c r="C331" s="48" t="s">
         <v>1255</v>
       </c>
@@ -35762,7 +35766,7 @@
       <c r="I331" s="51"/>
     </row>
     <row r="332" spans="2:9">
-      <c r="B332" s="328"/>
+      <c r="B332" s="336"/>
       <c r="C332" s="48" t="s">
         <v>1256</v>
       </c>
@@ -35778,7 +35782,7 @@
       <c r="I332" s="51"/>
     </row>
     <row r="333" spans="2:9">
-      <c r="B333" s="328"/>
+      <c r="B333" s="336"/>
       <c r="C333" s="48" t="s">
         <v>1258</v>
       </c>
@@ -35794,7 +35798,7 @@
       <c r="I333" s="51"/>
     </row>
     <row r="334" spans="2:9">
-      <c r="B334" s="328"/>
+      <c r="B334" s="336"/>
       <c r="C334" s="64" t="s">
         <v>1260</v>
       </c>
@@ -35810,7 +35814,7 @@
       <c r="I334" s="67"/>
     </row>
     <row r="335" spans="2:9">
-      <c r="B335" s="328"/>
+      <c r="B335" s="336"/>
       <c r="C335" s="64" t="s">
         <v>1133</v>
       </c>
@@ -35826,7 +35830,7 @@
       <c r="I335" s="67"/>
     </row>
     <row r="336" spans="2:9">
-      <c r="B336" s="328"/>
+      <c r="B336" s="336"/>
       <c r="C336" s="64" t="s">
         <v>1262</v>
       </c>
@@ -35842,7 +35846,7 @@
       <c r="I336" s="67"/>
     </row>
     <row r="337" spans="2:12" ht="15" thickBot="1">
-      <c r="B337" s="329"/>
+      <c r="B337" s="337"/>
       <c r="C337" s="55"/>
       <c r="D337" s="55"/>
       <c r="E337" s="56"/>
@@ -35856,13 +35860,13 @@
       <c r="B340" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C340" s="330" t="s">
+      <c r="C340" s="338" t="s">
         <v>1263</v>
       </c>
-      <c r="D340" s="331"/>
-      <c r="E340" s="331"/>
-      <c r="F340" s="331"/>
-      <c r="G340" s="332"/>
+      <c r="D340" s="339"/>
+      <c r="E340" s="339"/>
+      <c r="F340" s="339"/>
+      <c r="G340" s="340"/>
       <c r="H340" s="41" t="s">
         <v>824</v>
       </c>
@@ -35872,13 +35876,13 @@
       <c r="B341" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C341" s="333" t="s">
+      <c r="C341" s="341" t="s">
         <v>1264</v>
       </c>
-      <c r="D341" s="334"/>
-      <c r="E341" s="334"/>
-      <c r="F341" s="334"/>
-      <c r="G341" s="335"/>
+      <c r="D341" s="342"/>
+      <c r="E341" s="342"/>
+      <c r="F341" s="342"/>
+      <c r="G341" s="343"/>
       <c r="H341" s="45" t="s">
         <v>827</v>
       </c>
@@ -35888,16 +35892,16 @@
       <c r="B342" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C342" s="336"/>
-      <c r="D342" s="337"/>
-      <c r="E342" s="337"/>
-      <c r="F342" s="337"/>
-      <c r="G342" s="337"/>
-      <c r="H342" s="337"/>
-      <c r="I342" s="338"/>
+      <c r="C342" s="344"/>
+      <c r="D342" s="345"/>
+      <c r="E342" s="345"/>
+      <c r="F342" s="345"/>
+      <c r="G342" s="345"/>
+      <c r="H342" s="345"/>
+      <c r="I342" s="346"/>
     </row>
     <row r="343" spans="2:12">
-      <c r="B343" s="327" t="s">
+      <c r="B343" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C343" s="41" t="s">
@@ -35932,7 +35936,7 @@
       </c>
     </row>
     <row r="344" spans="2:12">
-      <c r="B344" s="328"/>
+      <c r="B344" s="336"/>
       <c r="C344" s="48" t="s">
         <v>846</v>
       </c>
@@ -35951,7 +35955,7 @@
       </c>
     </row>
     <row r="345" spans="2:12">
-      <c r="B345" s="328"/>
+      <c r="B345" s="336"/>
       <c r="C345" s="48" t="s">
         <v>912</v>
       </c>
@@ -35970,7 +35974,7 @@
       </c>
     </row>
     <row r="346" spans="2:12">
-      <c r="B346" s="328"/>
+      <c r="B346" s="336"/>
       <c r="C346" s="48" t="s">
         <v>849</v>
       </c>
@@ -35995,7 +35999,7 @@
       </c>
     </row>
     <row r="347" spans="2:12">
-      <c r="B347" s="328"/>
+      <c r="B347" s="336"/>
       <c r="C347" s="48" t="s">
         <v>840</v>
       </c>
@@ -36014,7 +36018,7 @@
       </c>
     </row>
     <row r="348" spans="2:12">
-      <c r="B348" s="328"/>
+      <c r="B348" s="336"/>
       <c r="C348" s="48" t="s">
         <v>1268</v>
       </c>
@@ -36039,7 +36043,7 @@
       </c>
     </row>
     <row r="349" spans="2:12">
-      <c r="B349" s="328"/>
+      <c r="B349" s="336"/>
       <c r="C349" s="48" t="s">
         <v>1238</v>
       </c>
@@ -36064,7 +36068,7 @@
       </c>
     </row>
     <row r="350" spans="2:12">
-      <c r="B350" s="328"/>
+      <c r="B350" s="336"/>
       <c r="C350" s="48" t="s">
         <v>1275</v>
       </c>
@@ -36089,7 +36093,7 @@
       </c>
     </row>
     <row r="351" spans="2:12">
-      <c r="B351" s="328"/>
+      <c r="B351" s="336"/>
       <c r="C351" s="48" t="s">
         <v>854</v>
       </c>
@@ -36114,7 +36118,7 @@
       </c>
     </row>
     <row r="352" spans="2:12">
-      <c r="B352" s="328"/>
+      <c r="B352" s="336"/>
       <c r="C352" s="48" t="s">
         <v>859</v>
       </c>
@@ -36139,7 +36143,7 @@
       </c>
     </row>
     <row r="353" spans="2:12">
-      <c r="B353" s="328"/>
+      <c r="B353" s="336"/>
       <c r="C353" s="48" t="s">
         <v>1283</v>
       </c>
@@ -36164,7 +36168,7 @@
       </c>
     </row>
     <row r="354" spans="2:12">
-      <c r="B354" s="328"/>
+      <c r="B354" s="336"/>
       <c r="C354" s="48" t="s">
         <v>1237</v>
       </c>
@@ -36180,7 +36184,7 @@
       <c r="I354" s="51"/>
     </row>
     <row r="355" spans="2:12">
-      <c r="B355" s="328"/>
+      <c r="B355" s="336"/>
       <c r="C355" s="48" t="s">
         <v>1287</v>
       </c>
@@ -36196,7 +36200,7 @@
       <c r="I355" s="51"/>
     </row>
     <row r="356" spans="2:12">
-      <c r="B356" s="328"/>
+      <c r="B356" s="336"/>
       <c r="C356" s="48" t="s">
         <v>1289</v>
       </c>
@@ -36221,7 +36225,7 @@
       </c>
     </row>
     <row r="357" spans="2:12">
-      <c r="B357" s="328"/>
+      <c r="B357" s="336"/>
       <c r="C357" s="48" t="s">
         <v>1293</v>
       </c>
@@ -36246,7 +36250,7 @@
       </c>
     </row>
     <row r="358" spans="2:12">
-      <c r="B358" s="328"/>
+      <c r="B358" s="336"/>
       <c r="C358" s="48" t="s">
         <v>1297</v>
       </c>
@@ -36271,7 +36275,7 @@
       </c>
     </row>
     <row r="359" spans="2:12">
-      <c r="B359" s="328"/>
+      <c r="B359" s="336"/>
       <c r="C359" s="48" t="s">
         <v>1300</v>
       </c>
@@ -36296,7 +36300,7 @@
       </c>
     </row>
     <row r="360" spans="2:12">
-      <c r="B360" s="328"/>
+      <c r="B360" s="336"/>
       <c r="C360" s="48" t="s">
         <v>1305</v>
       </c>
@@ -36321,7 +36325,7 @@
       </c>
     </row>
     <row r="361" spans="2:12">
-      <c r="B361" s="328"/>
+      <c r="B361" s="336"/>
       <c r="C361" s="48" t="s">
         <v>1307</v>
       </c>
@@ -36337,7 +36341,7 @@
       <c r="I361" s="51"/>
     </row>
     <row r="362" spans="2:12">
-      <c r="B362" s="328"/>
+      <c r="B362" s="336"/>
       <c r="C362" s="48" t="s">
         <v>1309</v>
       </c>
@@ -36353,7 +36357,7 @@
       <c r="I362" s="51"/>
     </row>
     <row r="363" spans="2:12">
-      <c r="B363" s="328"/>
+      <c r="B363" s="336"/>
       <c r="C363" s="48" t="s">
         <v>1311</v>
       </c>
@@ -36378,7 +36382,7 @@
       </c>
     </row>
     <row r="364" spans="2:12">
-      <c r="B364" s="328"/>
+      <c r="B364" s="336"/>
       <c r="C364" s="48" t="s">
         <v>1315</v>
       </c>
@@ -36394,7 +36398,7 @@
       <c r="I364" s="51"/>
     </row>
     <row r="365" spans="2:12">
-      <c r="B365" s="328"/>
+      <c r="B365" s="336"/>
       <c r="C365" s="64" t="s">
         <v>1318</v>
       </c>
@@ -36410,7 +36414,7 @@
       <c r="I365" s="67"/>
     </row>
     <row r="366" spans="2:12">
-      <c r="B366" s="328"/>
+      <c r="B366" s="336"/>
       <c r="C366" s="64" t="s">
         <v>1089</v>
       </c>
@@ -36426,7 +36430,7 @@
       <c r="I366" s="67"/>
     </row>
     <row r="367" spans="2:12">
-      <c r="B367" s="328"/>
+      <c r="B367" s="336"/>
       <c r="C367" s="64"/>
       <c r="D367" s="64"/>
       <c r="E367" s="65"/>
@@ -36436,7 +36440,7 @@
       <c r="I367" s="67"/>
     </row>
     <row r="368" spans="2:12" ht="15" thickBot="1">
-      <c r="B368" s="329"/>
+      <c r="B368" s="337"/>
       <c r="C368" s="55"/>
       <c r="D368" s="55"/>
       <c r="E368" s="56"/>
@@ -36450,13 +36454,13 @@
       <c r="B371" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="C371" s="330" t="s">
+      <c r="C371" s="338" t="s">
         <v>1320</v>
       </c>
-      <c r="D371" s="331"/>
-      <c r="E371" s="331"/>
-      <c r="F371" s="331"/>
-      <c r="G371" s="332"/>
+      <c r="D371" s="339"/>
+      <c r="E371" s="339"/>
+      <c r="F371" s="339"/>
+      <c r="G371" s="340"/>
       <c r="H371" s="41" t="s">
         <v>824</v>
       </c>
@@ -36466,13 +36470,13 @@
       <c r="B372" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="C372" s="333" t="s">
+      <c r="C372" s="341" t="s">
         <v>1321</v>
       </c>
-      <c r="D372" s="334"/>
-      <c r="E372" s="334"/>
-      <c r="F372" s="334"/>
-      <c r="G372" s="335"/>
+      <c r="D372" s="342"/>
+      <c r="E372" s="342"/>
+      <c r="F372" s="342"/>
+      <c r="G372" s="343"/>
       <c r="H372" s="45" t="s">
         <v>827</v>
       </c>
@@ -36482,16 +36486,16 @@
       <c r="B373" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="C373" s="336"/>
-      <c r="D373" s="337"/>
-      <c r="E373" s="337"/>
-      <c r="F373" s="337"/>
-      <c r="G373" s="337"/>
-      <c r="H373" s="337"/>
-      <c r="I373" s="338"/>
+      <c r="C373" s="344"/>
+      <c r="D373" s="345"/>
+      <c r="E373" s="345"/>
+      <c r="F373" s="345"/>
+      <c r="G373" s="345"/>
+      <c r="H373" s="345"/>
+      <c r="I373" s="346"/>
     </row>
     <row r="374" spans="2:12">
-      <c r="B374" s="327" t="s">
+      <c r="B374" s="335" t="s">
         <v>829</v>
       </c>
       <c r="C374" s="41" t="s">
@@ -36517,7 +36521,7 @@
       </c>
     </row>
     <row r="375" spans="2:12">
-      <c r="B375" s="328"/>
+      <c r="B375" s="336"/>
       <c r="C375" s="48" t="s">
         <v>1197</v>
       </c>
@@ -36536,7 +36540,7 @@
       </c>
     </row>
     <row r="376" spans="2:12">
-      <c r="B376" s="328"/>
+      <c r="B376" s="336"/>
       <c r="C376" s="48" t="s">
         <v>1151</v>
       </c>
@@ -36555,7 +36559,7 @@
       </c>
     </row>
     <row r="377" spans="2:12">
-      <c r="B377" s="328"/>
+      <c r="B377" s="336"/>
       <c r="C377" s="48" t="s">
         <v>1323</v>
       </c>
@@ -36571,7 +36575,7 @@
       <c r="I377" s="51"/>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="328"/>
+      <c r="B378" s="336"/>
       <c r="C378" s="48" t="s">
         <v>912</v>
       </c>
@@ -36590,7 +36594,7 @@
       </c>
     </row>
     <row r="379" spans="2:12">
-      <c r="B379" s="328"/>
+      <c r="B379" s="336"/>
       <c r="C379" s="48" t="s">
         <v>846</v>
       </c>
@@ -36609,7 +36613,7 @@
       </c>
     </row>
     <row r="380" spans="2:12">
-      <c r="B380" s="328"/>
+      <c r="B380" s="336"/>
       <c r="C380" s="48" t="s">
         <v>840</v>
       </c>
@@ -36628,7 +36632,7 @@
       </c>
     </row>
     <row r="381" spans="2:12">
-      <c r="B381" s="328"/>
+      <c r="B381" s="336"/>
       <c r="C381" s="48" t="s">
         <v>854</v>
       </c>
@@ -36653,7 +36657,7 @@
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="328"/>
+      <c r="B382" s="336"/>
       <c r="C382" s="48" t="s">
         <v>1268</v>
       </c>
@@ -36678,7 +36682,7 @@
       </c>
     </row>
     <row r="383" spans="2:12">
-      <c r="B383" s="328"/>
+      <c r="B383" s="336"/>
       <c r="C383" s="48" t="s">
         <v>1238</v>
       </c>
@@ -36703,7 +36707,7 @@
       </c>
     </row>
     <row r="384" spans="2:12">
-      <c r="B384" s="328"/>
+      <c r="B384" s="336"/>
       <c r="C384" s="48" t="s">
         <v>849</v>
       </c>
@@ -36728,7 +36732,7 @@
       </c>
     </row>
     <row r="385" spans="2:12">
-      <c r="B385" s="328"/>
+      <c r="B385" s="336"/>
       <c r="C385" s="48" t="s">
         <v>1275</v>
       </c>
@@ -36753,7 +36757,7 @@
       </c>
     </row>
     <row r="386" spans="2:12">
-      <c r="B386" s="328"/>
+      <c r="B386" s="336"/>
       <c r="C386" s="48" t="s">
         <v>859</v>
       </c>
@@ -36778,7 +36782,7 @@
       </c>
     </row>
     <row r="387" spans="2:12">
-      <c r="B387" s="328"/>
+      <c r="B387" s="336"/>
       <c r="C387" s="48" t="s">
         <v>1283</v>
       </c>
@@ -36803,7 +36807,7 @@
       </c>
     </row>
     <row r="388" spans="2:12">
-      <c r="B388" s="328"/>
+      <c r="B388" s="336"/>
       <c r="C388" s="48" t="s">
         <v>1237</v>
       </c>
@@ -36819,7 +36823,7 @@
       <c r="I388" s="51"/>
     </row>
     <row r="389" spans="2:12">
-      <c r="B389" s="328"/>
+      <c r="B389" s="336"/>
       <c r="C389" s="48" t="s">
         <v>1287</v>
       </c>
@@ -36835,7 +36839,7 @@
       <c r="I389" s="51"/>
     </row>
     <row r="390" spans="2:12">
-      <c r="B390" s="328"/>
+      <c r="B390" s="336"/>
       <c r="C390" s="48" t="s">
         <v>1289</v>
       </c>
@@ -36860,7 +36864,7 @@
       </c>
     </row>
     <row r="391" spans="2:12">
-      <c r="B391" s="328"/>
+      <c r="B391" s="336"/>
       <c r="C391" s="48" t="s">
         <v>1293</v>
       </c>
@@ -36885,7 +36889,7 @@
       </c>
     </row>
     <row r="392" spans="2:12">
-      <c r="B392" s="328"/>
+      <c r="B392" s="336"/>
       <c r="C392" s="48" t="s">
         <v>1297</v>
       </c>
@@ -36910,7 +36914,7 @@
       </c>
     </row>
     <row r="393" spans="2:12">
-      <c r="B393" s="328"/>
+      <c r="B393" s="336"/>
       <c r="C393" s="48" t="s">
         <v>1300</v>
       </c>
@@ -36935,7 +36939,7 @@
       </c>
     </row>
     <row r="394" spans="2:12">
-      <c r="B394" s="328"/>
+      <c r="B394" s="336"/>
       <c r="C394" s="48" t="s">
         <v>1305</v>
       </c>
@@ -36960,7 +36964,7 @@
       </c>
     </row>
     <row r="395" spans="2:12">
-      <c r="B395" s="328"/>
+      <c r="B395" s="336"/>
       <c r="C395" s="48" t="s">
         <v>1307</v>
       </c>
@@ -36976,7 +36980,7 @@
       <c r="I395" s="51"/>
     </row>
     <row r="396" spans="2:12">
-      <c r="B396" s="328"/>
+      <c r="B396" s="336"/>
       <c r="C396" s="64" t="s">
         <v>1309</v>
       </c>
@@ -36992,7 +36996,7 @@
       <c r="I396" s="67"/>
     </row>
     <row r="397" spans="2:12">
-      <c r="B397" s="328"/>
+      <c r="B397" s="336"/>
       <c r="C397" s="64" t="s">
         <v>1311</v>
       </c>
@@ -37017,7 +37021,7 @@
       </c>
     </row>
     <row r="398" spans="2:12">
-      <c r="B398" s="328"/>
+      <c r="B398" s="336"/>
       <c r="C398" s="64" t="s">
         <v>1315</v>
       </c>
@@ -37033,7 +37037,7 @@
       <c r="I398" s="67"/>
     </row>
     <row r="399" spans="2:12">
-      <c r="B399" s="328"/>
+      <c r="B399" s="336"/>
       <c r="C399" s="64" t="s">
         <v>1318</v>
       </c>
@@ -37058,7 +37062,7 @@
       </c>
     </row>
     <row r="400" spans="2:12">
-      <c r="B400" s="328"/>
+      <c r="B400" s="336"/>
       <c r="C400" s="64" t="s">
         <v>1089</v>
       </c>
@@ -37074,7 +37078,7 @@
       <c r="I400" s="67"/>
     </row>
     <row r="401" spans="2:9">
-      <c r="B401" s="328"/>
+      <c r="B401" s="336"/>
       <c r="C401" s="64"/>
       <c r="D401" s="64"/>
       <c r="E401" s="65"/>
@@ -37084,7 +37088,7 @@
       <c r="I401" s="67"/>
     </row>
     <row r="402" spans="2:9" ht="15" thickBot="1">
-      <c r="B402" s="329"/>
+      <c r="B402" s="337"/>
       <c r="C402" s="55"/>
       <c r="D402" s="55"/>
       <c r="E402" s="56"/>
@@ -37095,6 +37099,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -37107,42 +37147,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -51580,8 +51584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51631,6 +51635,9 @@
       <c r="L2" t="s">
         <v>2985</v>
       </c>
+      <c r="M2" t="s">
+        <v>2989</v>
+      </c>
     </row>
     <row r="3" spans="1:23">
       <c r="B3">
@@ -51664,62 +51671,62 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="342" customFormat="1" ht="42.75">
-      <c r="B11" s="342" t="s">
+    <row r="11" spans="1:23" s="288" customFormat="1" ht="42.75">
+      <c r="B11" s="288" t="s">
         <v>2964</v>
       </c>
-      <c r="C11" s="342" t="s">
+      <c r="C11" s="288" t="s">
         <v>2958</v>
       </c>
-      <c r="D11" s="342" t="s">
+      <c r="D11" s="288" t="s">
         <v>2962</v>
       </c>
-      <c r="E11" s="342" t="s">
+      <c r="E11" s="288" t="s">
         <v>2959</v>
       </c>
-      <c r="F11" s="342" t="s">
+      <c r="F11" s="288" t="s">
         <v>2960</v>
       </c>
-      <c r="G11" s="342" t="s">
+      <c r="G11" s="288" t="s">
         <v>2961</v>
       </c>
-      <c r="H11" s="342" t="s">
+      <c r="H11" s="288" t="s">
         <v>2982</v>
       </c>
-      <c r="I11" s="342" t="s">
+      <c r="I11" s="288" t="s">
         <v>2963</v>
       </c>
-      <c r="J11" s="342" t="s">
+      <c r="J11" s="288" t="s">
         <v>2983</v>
       </c>
-      <c r="K11" s="342" t="s">
+      <c r="K11" s="288" t="s">
         <v>2966</v>
       </c>
-      <c r="L11" s="342" t="s">
+      <c r="L11" s="288" t="s">
         <v>2965</v>
       </c>
-      <c r="M11" s="342" t="s">
+      <c r="M11" s="288" t="s">
         <v>2967</v>
       </c>
-      <c r="N11" s="342" t="s">
+      <c r="N11" s="288" t="s">
         <v>2968</v>
       </c>
-      <c r="O11" s="342" t="s">
+      <c r="O11" s="288" t="s">
         <v>2981</v>
       </c>
-      <c r="P11" s="348" t="s">
+      <c r="P11" s="294" t="s">
         <v>2980</v>
       </c>
-      <c r="Q11" s="342" t="s">
+      <c r="Q11" s="288" t="s">
         <v>2971</v>
       </c>
-      <c r="R11" s="342" t="s">
+      <c r="R11" s="288" t="s">
         <v>2970</v>
       </c>
-      <c r="V11" s="342" t="s">
+      <c r="V11" s="288" t="s">
         <v>2970</v>
       </c>
-      <c r="W11" s="342" t="s">
+      <c r="W11" s="288" t="s">
         <v>2971</v>
       </c>
     </row>
